--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="98">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -203,12 +203,120 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Poland Ekstraklasa</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>Warta Poznań</t>
+  </si>
+  <si>
+    <t>Legia Warszawa</t>
+  </si>
+  <si>
+    <t>Stal Mielec</t>
+  </si>
+  <si>
+    <t>Raków Częstochowa</t>
+  </si>
+  <si>
+    <t>Piast Gliwice</t>
+  </si>
+  <si>
+    <t>Górnik Zabrze</t>
+  </si>
+  <si>
+    <t>Zagłębie Lubin</t>
+  </si>
+  <si>
+    <t>Widzew Łódź</t>
+  </si>
+  <si>
+    <t>Korona Kielce</t>
+  </si>
+  <si>
+    <t>Pogoń Szczecin</t>
+  </si>
+  <si>
+    <t>ŁKS Łódź</t>
+  </si>
+  <si>
+    <t>Cracovia Kraków</t>
+  </si>
+  <si>
+    <t>Jagiellonia Białystok</t>
+  </si>
+  <si>
+    <t>Lech Poznań</t>
+  </si>
+  <si>
+    <t>Radomiak Radom</t>
+  </si>
+  <si>
+    <t>Ruch Chorzów</t>
+  </si>
+  <si>
+    <t>Puszcza Niepołomice</t>
+  </si>
+  <si>
+    <t>Śląsk Wrocław</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['25', '56', '68']</t>
+  </si>
+  <si>
+    <t>['24', '36']</t>
+  </si>
+  <si>
+    <t>['45+2', '63', '65']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['71', '81']</t>
+  </si>
+  <si>
+    <t>['35', '55', '90+3']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['54', '61']</t>
+  </si>
+  <si>
+    <t>['46', '54']</t>
+  </si>
+  <si>
+    <t>['60', '65']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['8', '90+9']</t>
+  </si>
+  <si>
+    <t>['48']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -261,11 +369,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK1"/>
+  <dimension ref="A1:BK10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,6 +866,1725 @@
         <v>61</v>
       </c>
     </row>
+    <row r="2" spans="1:63">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6469061</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45128.54166666666</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2">
+        <v>6</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <v>11</v>
+      </c>
+      <c r="T2">
+        <v>4.33</v>
+      </c>
+      <c r="U2">
+        <v>2.1</v>
+      </c>
+      <c r="V2">
+        <v>2.63</v>
+      </c>
+      <c r="W2">
+        <v>1.44</v>
+      </c>
+      <c r="X2">
+        <v>2.63</v>
+      </c>
+      <c r="Y2">
+        <v>3</v>
+      </c>
+      <c r="Z2">
+        <v>1.36</v>
+      </c>
+      <c r="AA2">
+        <v>9</v>
+      </c>
+      <c r="AB2">
+        <v>1.07</v>
+      </c>
+      <c r="AC2">
+        <v>4.05</v>
+      </c>
+      <c r="AD2">
+        <v>3.58</v>
+      </c>
+      <c r="AE2">
+        <v>1.89</v>
+      </c>
+      <c r="AF2">
+        <v>1.04</v>
+      </c>
+      <c r="AG2">
+        <v>10</v>
+      </c>
+      <c r="AH2">
+        <v>1.33</v>
+      </c>
+      <c r="AI2">
+        <v>3.1</v>
+      </c>
+      <c r="AJ2">
+        <v>2.05</v>
+      </c>
+      <c r="AK2">
+        <v>1.8</v>
+      </c>
+      <c r="AL2">
+        <v>1.91</v>
+      </c>
+      <c r="AM2">
+        <v>1.91</v>
+      </c>
+      <c r="AN2">
+        <v>1.7</v>
+      </c>
+      <c r="AO2">
+        <v>1.28</v>
+      </c>
+      <c r="AP2">
+        <v>1.25</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>3</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>2.5</v>
+      </c>
+      <c r="AY2">
+        <v>7</v>
+      </c>
+      <c r="AZ2">
+        <v>1.8</v>
+      </c>
+      <c r="BA2">
+        <v>1.19</v>
+      </c>
+      <c r="BB2">
+        <v>1.39</v>
+      </c>
+      <c r="BC2">
+        <v>1.69</v>
+      </c>
+      <c r="BD2">
+        <v>2.12</v>
+      </c>
+      <c r="BE2">
+        <v>2.75</v>
+      </c>
+      <c r="BF2">
+        <v>2</v>
+      </c>
+      <c r="BG2">
+        <v>4</v>
+      </c>
+      <c r="BH2">
+        <v>4</v>
+      </c>
+      <c r="BI2">
+        <v>6</v>
+      </c>
+      <c r="BJ2">
+        <v>6</v>
+      </c>
+      <c r="BK2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6469057</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45128.64583333334</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3">
+        <v>8</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>12</v>
+      </c>
+      <c r="T3">
+        <v>1.91</v>
+      </c>
+      <c r="U3">
+        <v>2.4</v>
+      </c>
+      <c r="V3">
+        <v>7</v>
+      </c>
+      <c r="W3">
+        <v>1.33</v>
+      </c>
+      <c r="X3">
+        <v>3.25</v>
+      </c>
+      <c r="Y3">
+        <v>2.5</v>
+      </c>
+      <c r="Z3">
+        <v>1.5</v>
+      </c>
+      <c r="AA3">
+        <v>6.5</v>
+      </c>
+      <c r="AB3">
+        <v>1.11</v>
+      </c>
+      <c r="AC3">
+        <v>1.39</v>
+      </c>
+      <c r="AD3">
+        <v>4.75</v>
+      </c>
+      <c r="AE3">
+        <v>7.5</v>
+      </c>
+      <c r="AF3">
+        <v>1.01</v>
+      </c>
+      <c r="AG3">
+        <v>12</v>
+      </c>
+      <c r="AH3">
+        <v>1.17</v>
+      </c>
+      <c r="AI3">
+        <v>4.3</v>
+      </c>
+      <c r="AJ3">
+        <v>1.68</v>
+      </c>
+      <c r="AK3">
+        <v>2.02</v>
+      </c>
+      <c r="AL3">
+        <v>2</v>
+      </c>
+      <c r="AM3">
+        <v>1.75</v>
+      </c>
+      <c r="AN3">
+        <v>1.1</v>
+      </c>
+      <c r="AO3">
+        <v>1.17</v>
+      </c>
+      <c r="AP3">
+        <v>3.1</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>3</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>1.41</v>
+      </c>
+      <c r="AY3">
+        <v>9</v>
+      </c>
+      <c r="AZ3">
+        <v>3.49</v>
+      </c>
+      <c r="BA3">
+        <v>1.25</v>
+      </c>
+      <c r="BB3">
+        <v>1.45</v>
+      </c>
+      <c r="BC3">
+        <v>1.83</v>
+      </c>
+      <c r="BD3">
+        <v>2.22</v>
+      </c>
+      <c r="BE3">
+        <v>2.9</v>
+      </c>
+      <c r="BF3">
+        <v>10</v>
+      </c>
+      <c r="BG3">
+        <v>2</v>
+      </c>
+      <c r="BH3">
+        <v>6</v>
+      </c>
+      <c r="BI3">
+        <v>4</v>
+      </c>
+      <c r="BJ3">
+        <v>16</v>
+      </c>
+      <c r="BK3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6469060</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45129.41666666666</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>8</v>
+      </c>
+      <c r="S4">
+        <v>12</v>
+      </c>
+      <c r="T4">
+        <v>3.6</v>
+      </c>
+      <c r="U4">
+        <v>2.05</v>
+      </c>
+      <c r="V4">
+        <v>3.25</v>
+      </c>
+      <c r="W4">
+        <v>1.44</v>
+      </c>
+      <c r="X4">
+        <v>2.63</v>
+      </c>
+      <c r="Y4">
+        <v>3.4</v>
+      </c>
+      <c r="Z4">
+        <v>1.3</v>
+      </c>
+      <c r="AA4">
+        <v>10</v>
+      </c>
+      <c r="AB4">
+        <v>1.06</v>
+      </c>
+      <c r="AC4">
+        <v>2.78</v>
+      </c>
+      <c r="AD4">
+        <v>3.19</v>
+      </c>
+      <c r="AE4">
+        <v>2.7</v>
+      </c>
+      <c r="AF4">
+        <v>1.07</v>
+      </c>
+      <c r="AG4">
+        <v>7.5</v>
+      </c>
+      <c r="AH4">
+        <v>1.4</v>
+      </c>
+      <c r="AI4">
+        <v>2.8</v>
+      </c>
+      <c r="AJ4">
+        <v>2.15</v>
+      </c>
+      <c r="AK4">
+        <v>1.65</v>
+      </c>
+      <c r="AL4">
+        <v>1.95</v>
+      </c>
+      <c r="AM4">
+        <v>1.8</v>
+      </c>
+      <c r="AN4">
+        <v>1.55</v>
+      </c>
+      <c r="AO4">
+        <v>1.35</v>
+      </c>
+      <c r="AP4">
+        <v>1.4</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>2.2</v>
+      </c>
+      <c r="AY4">
+        <v>8</v>
+      </c>
+      <c r="AZ4">
+        <v>1.91</v>
+      </c>
+      <c r="BA4">
+        <v>1.22</v>
+      </c>
+      <c r="BB4">
+        <v>1.34</v>
+      </c>
+      <c r="BC4">
+        <v>1.61</v>
+      </c>
+      <c r="BD4">
+        <v>2</v>
+      </c>
+      <c r="BE4">
+        <v>2.62</v>
+      </c>
+      <c r="BF4">
+        <v>5</v>
+      </c>
+      <c r="BG4">
+        <v>10</v>
+      </c>
+      <c r="BH4">
+        <v>5</v>
+      </c>
+      <c r="BI4">
+        <v>6</v>
+      </c>
+      <c r="BJ4">
+        <v>10</v>
+      </c>
+      <c r="BK4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6469059</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45129.52083333334</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5">
+        <v>8</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>12</v>
+      </c>
+      <c r="T5">
+        <v>1.8</v>
+      </c>
+      <c r="U5">
+        <v>2.5</v>
+      </c>
+      <c r="V5">
+        <v>8.5</v>
+      </c>
+      <c r="W5">
+        <v>1.3</v>
+      </c>
+      <c r="X5">
+        <v>3.4</v>
+      </c>
+      <c r="Y5">
+        <v>2.5</v>
+      </c>
+      <c r="Z5">
+        <v>1.5</v>
+      </c>
+      <c r="AA5">
+        <v>6</v>
+      </c>
+      <c r="AB5">
+        <v>1.13</v>
+      </c>
+      <c r="AC5">
+        <v>1.29</v>
+      </c>
+      <c r="AD5">
+        <v>5.2</v>
+      </c>
+      <c r="AE5">
+        <v>9.4</v>
+      </c>
+      <c r="AF5">
+        <v>1.02</v>
+      </c>
+      <c r="AG5">
+        <v>12.5</v>
+      </c>
+      <c r="AH5">
+        <v>1.19</v>
+      </c>
+      <c r="AI5">
+        <v>4.3</v>
+      </c>
+      <c r="AJ5">
+        <v>1.65</v>
+      </c>
+      <c r="AK5">
+        <v>2.11</v>
+      </c>
+      <c r="AL5">
+        <v>2.05</v>
+      </c>
+      <c r="AM5">
+        <v>1.7</v>
+      </c>
+      <c r="AN5">
+        <v>1.01</v>
+      </c>
+      <c r="AO5">
+        <v>1.11</v>
+      </c>
+      <c r="AP5">
+        <v>3.4</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>3</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>1.11</v>
+      </c>
+      <c r="AY5">
+        <v>12</v>
+      </c>
+      <c r="AZ5">
+        <v>8.25</v>
+      </c>
+      <c r="BA5">
+        <v>1.22</v>
+      </c>
+      <c r="BB5">
+        <v>1.39</v>
+      </c>
+      <c r="BC5">
+        <v>1.83</v>
+      </c>
+      <c r="BD5">
+        <v>2.23</v>
+      </c>
+      <c r="BE5">
+        <v>2.95</v>
+      </c>
+      <c r="BF5">
+        <v>7</v>
+      </c>
+      <c r="BG5">
+        <v>2</v>
+      </c>
+      <c r="BH5">
+        <v>3</v>
+      </c>
+      <c r="BI5">
+        <v>4</v>
+      </c>
+      <c r="BJ5">
+        <v>10</v>
+      </c>
+      <c r="BK5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6469058</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45129.625</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>2.05</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>1.5</v>
+      </c>
+      <c r="X6">
+        <v>2.5</v>
+      </c>
+      <c r="Y6">
+        <v>3.4</v>
+      </c>
+      <c r="Z6">
+        <v>1.3</v>
+      </c>
+      <c r="AA6">
+        <v>10</v>
+      </c>
+      <c r="AB6">
+        <v>1.06</v>
+      </c>
+      <c r="AC6">
+        <v>2.71</v>
+      </c>
+      <c r="AD6">
+        <v>3.15</v>
+      </c>
+      <c r="AE6">
+        <v>2.43</v>
+      </c>
+      <c r="AF6">
+        <v>1.06</v>
+      </c>
+      <c r="AG6">
+        <v>8.5</v>
+      </c>
+      <c r="AH6">
+        <v>1.5</v>
+      </c>
+      <c r="AI6">
+        <v>2.5</v>
+      </c>
+      <c r="AJ6">
+        <v>2.15</v>
+      </c>
+      <c r="AK6">
+        <v>1.7</v>
+      </c>
+      <c r="AL6">
+        <v>1.95</v>
+      </c>
+      <c r="AM6">
+        <v>1.8</v>
+      </c>
+      <c r="AN6">
+        <v>1.55</v>
+      </c>
+      <c r="AO6">
+        <v>1.29</v>
+      </c>
+      <c r="AP6">
+        <v>1.32</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>3</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>2.2</v>
+      </c>
+      <c r="AY6">
+        <v>7.5</v>
+      </c>
+      <c r="AZ6">
+        <v>1.91</v>
+      </c>
+      <c r="BA6">
+        <v>1.33</v>
+      </c>
+      <c r="BB6">
+        <v>1.69</v>
+      </c>
+      <c r="BC6">
+        <v>2.08</v>
+      </c>
+      <c r="BD6">
+        <v>2.76</v>
+      </c>
+      <c r="BE6">
+        <v>3.74</v>
+      </c>
+      <c r="BF6">
+        <v>6</v>
+      </c>
+      <c r="BG6">
+        <v>3</v>
+      </c>
+      <c r="BH6">
+        <v>7</v>
+      </c>
+      <c r="BI6">
+        <v>2</v>
+      </c>
+      <c r="BJ6">
+        <v>13</v>
+      </c>
+      <c r="BK6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6469054</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45130.41666666666</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>9</v>
+      </c>
+      <c r="S7">
+        <v>11</v>
+      </c>
+      <c r="T7">
+        <v>2.88</v>
+      </c>
+      <c r="U7">
+        <v>2.1</v>
+      </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
+      <c r="W7">
+        <v>1.4</v>
+      </c>
+      <c r="X7">
+        <v>2.75</v>
+      </c>
+      <c r="Y7">
+        <v>3</v>
+      </c>
+      <c r="Z7">
+        <v>1.36</v>
+      </c>
+      <c r="AA7">
+        <v>9</v>
+      </c>
+      <c r="AB7">
+        <v>1.07</v>
+      </c>
+      <c r="AC7">
+        <v>1.95</v>
+      </c>
+      <c r="AD7">
+        <v>3.35</v>
+      </c>
+      <c r="AE7">
+        <v>3.5</v>
+      </c>
+      <c r="AF7">
+        <v>1.04</v>
+      </c>
+      <c r="AG7">
+        <v>8</v>
+      </c>
+      <c r="AH7">
+        <v>1.3</v>
+      </c>
+      <c r="AI7">
+        <v>3.2</v>
+      </c>
+      <c r="AJ7">
+        <v>1.91</v>
+      </c>
+      <c r="AK7">
+        <v>1.73</v>
+      </c>
+      <c r="AL7">
+        <v>1.8</v>
+      </c>
+      <c r="AM7">
+        <v>1.95</v>
+      </c>
+      <c r="AN7">
+        <v>1.25</v>
+      </c>
+      <c r="AO7">
+        <v>1.27</v>
+      </c>
+      <c r="AP7">
+        <v>1.7</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>3</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>1.64</v>
+      </c>
+      <c r="AY7">
+        <v>8.5</v>
+      </c>
+      <c r="AZ7">
+        <v>2.66</v>
+      </c>
+      <c r="BA7">
+        <v>1.2</v>
+      </c>
+      <c r="BB7">
+        <v>1.4</v>
+      </c>
+      <c r="BC7">
+        <v>1.7</v>
+      </c>
+      <c r="BD7">
+        <v>2.17</v>
+      </c>
+      <c r="BE7">
+        <v>2.85</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>5</v>
+      </c>
+      <c r="BH7">
+        <v>4</v>
+      </c>
+      <c r="BI7">
+        <v>13</v>
+      </c>
+      <c r="BJ7">
+        <v>4</v>
+      </c>
+      <c r="BK7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6469055</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45130.52083333334</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>2.38</v>
+      </c>
+      <c r="U8">
+        <v>2.25</v>
+      </c>
+      <c r="V8">
+        <v>4.75</v>
+      </c>
+      <c r="W8">
+        <v>1.36</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <v>2.75</v>
+      </c>
+      <c r="Z8">
+        <v>1.4</v>
+      </c>
+      <c r="AA8">
+        <v>7</v>
+      </c>
+      <c r="AB8">
+        <v>1.1</v>
+      </c>
+      <c r="AC8">
+        <v>1.73</v>
+      </c>
+      <c r="AD8">
+        <v>3.7</v>
+      </c>
+      <c r="AE8">
+        <v>4.22</v>
+      </c>
+      <c r="AF8">
+        <v>1.05</v>
+      </c>
+      <c r="AG8">
+        <v>12.75</v>
+      </c>
+      <c r="AH8">
+        <v>1.28</v>
+      </c>
+      <c r="AI8">
+        <v>3.73</v>
+      </c>
+      <c r="AJ8">
+        <v>1.8</v>
+      </c>
+      <c r="AK8">
+        <v>1.9</v>
+      </c>
+      <c r="AL8">
+        <v>1.8</v>
+      </c>
+      <c r="AM8">
+        <v>1.95</v>
+      </c>
+      <c r="AN8">
+        <v>1.22</v>
+      </c>
+      <c r="AO8">
+        <v>1.21</v>
+      </c>
+      <c r="AP8">
+        <v>2</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>3</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>1.45</v>
+      </c>
+      <c r="AY8">
+        <v>9</v>
+      </c>
+      <c r="AZ8">
+        <v>3.32</v>
+      </c>
+      <c r="BA8">
+        <v>1.22</v>
+      </c>
+      <c r="BB8">
+        <v>1.39</v>
+      </c>
+      <c r="BC8">
+        <v>1.7</v>
+      </c>
+      <c r="BD8">
+        <v>2.15</v>
+      </c>
+      <c r="BE8">
+        <v>2.8</v>
+      </c>
+      <c r="BF8">
+        <v>5</v>
+      </c>
+      <c r="BG8">
+        <v>2</v>
+      </c>
+      <c r="BH8">
+        <v>6</v>
+      </c>
+      <c r="BI8">
+        <v>5</v>
+      </c>
+      <c r="BJ8">
+        <v>11</v>
+      </c>
+      <c r="BK8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6469062</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45130.625</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>2.4</v>
+      </c>
+      <c r="U9">
+        <v>2.2</v>
+      </c>
+      <c r="V9">
+        <v>4.75</v>
+      </c>
+      <c r="W9">
+        <v>1.4</v>
+      </c>
+      <c r="X9">
+        <v>2.75</v>
+      </c>
+      <c r="Y9">
+        <v>2.75</v>
+      </c>
+      <c r="Z9">
+        <v>1.4</v>
+      </c>
+      <c r="AA9">
+        <v>8</v>
+      </c>
+      <c r="AB9">
+        <v>1.08</v>
+      </c>
+      <c r="AC9">
+        <v>1.59</v>
+      </c>
+      <c r="AD9">
+        <v>3.85</v>
+      </c>
+      <c r="AE9">
+        <v>5.2</v>
+      </c>
+      <c r="AF9">
+        <v>1.03</v>
+      </c>
+      <c r="AG9">
+        <v>11</v>
+      </c>
+      <c r="AH9">
+        <v>1.24</v>
+      </c>
+      <c r="AI9">
+        <v>3.8</v>
+      </c>
+      <c r="AJ9">
+        <v>1.88</v>
+      </c>
+      <c r="AK9">
+        <v>2</v>
+      </c>
+      <c r="AL9">
+        <v>1.8</v>
+      </c>
+      <c r="AM9">
+        <v>1.95</v>
+      </c>
+      <c r="AN9">
+        <v>1.2</v>
+      </c>
+      <c r="AO9">
+        <v>1.24</v>
+      </c>
+      <c r="AP9">
+        <v>1.86</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>3</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>1.41</v>
+      </c>
+      <c r="AY9">
+        <v>9</v>
+      </c>
+      <c r="AZ9">
+        <v>3.49</v>
+      </c>
+      <c r="BA9">
+        <v>1.2</v>
+      </c>
+      <c r="BB9">
+        <v>1.35</v>
+      </c>
+      <c r="BC9">
+        <v>1.62</v>
+      </c>
+      <c r="BD9">
+        <v>2.1</v>
+      </c>
+      <c r="BE9">
+        <v>2.85</v>
+      </c>
+      <c r="BF9">
+        <v>7</v>
+      </c>
+      <c r="BG9">
+        <v>5</v>
+      </c>
+      <c r="BH9">
+        <v>4</v>
+      </c>
+      <c r="BI9">
+        <v>4</v>
+      </c>
+      <c r="BJ9">
+        <v>11</v>
+      </c>
+      <c r="BK9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6469056</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45131.58333333334</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>3.2</v>
+      </c>
+      <c r="U10">
+        <v>2.1</v>
+      </c>
+      <c r="V10">
+        <v>3.4</v>
+      </c>
+      <c r="W10">
+        <v>1.4</v>
+      </c>
+      <c r="X10">
+        <v>2.75</v>
+      </c>
+      <c r="Y10">
+        <v>3</v>
+      </c>
+      <c r="Z10">
+        <v>1.36</v>
+      </c>
+      <c r="AA10">
+        <v>8</v>
+      </c>
+      <c r="AB10">
+        <v>1.08</v>
+      </c>
+      <c r="AC10">
+        <v>2.42</v>
+      </c>
+      <c r="AD10">
+        <v>3.35</v>
+      </c>
+      <c r="AE10">
+        <v>2.8</v>
+      </c>
+      <c r="AF10">
+        <v>1.05</v>
+      </c>
+      <c r="AG10">
+        <v>8.5</v>
+      </c>
+      <c r="AH10">
+        <v>1.3</v>
+      </c>
+      <c r="AI10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ10">
+        <v>1.97</v>
+      </c>
+      <c r="AK10">
+        <v>1.81</v>
+      </c>
+      <c r="AL10">
+        <v>1.75</v>
+      </c>
+      <c r="AM10">
+        <v>2</v>
+      </c>
+      <c r="AN10">
+        <v>1.44</v>
+      </c>
+      <c r="AO10">
+        <v>1.33</v>
+      </c>
+      <c r="AP10">
+        <v>1.53</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>1.95</v>
+      </c>
+      <c r="AY10">
+        <v>8</v>
+      </c>
+      <c r="AZ10">
+        <v>2.05</v>
+      </c>
+      <c r="BA10">
+        <v>1.22</v>
+      </c>
+      <c r="BB10">
+        <v>1.35</v>
+      </c>
+      <c r="BC10">
+        <v>1.57</v>
+      </c>
+      <c r="BD10">
+        <v>2.07</v>
+      </c>
+      <c r="BE10">
+        <v>2.7</v>
+      </c>
+      <c r="BF10">
+        <v>6</v>
+      </c>
+      <c r="BG10">
+        <v>3</v>
+      </c>
+      <c r="BH10">
+        <v>4</v>
+      </c>
+      <c r="BI10">
+        <v>1</v>
+      </c>
+      <c r="BJ10">
+        <v>10</v>
+      </c>
+      <c r="BK10">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -238,6 +238,18 @@
     <t>Korona Kielce</t>
   </si>
   <si>
+    <t>Ruch Chorzów</t>
+  </si>
+  <si>
+    <t>Jagiellonia Białystok</t>
+  </si>
+  <si>
+    <t>Śląsk Wrocław</t>
+  </si>
+  <si>
+    <t>Lech Poznań</t>
+  </si>
+  <si>
     <t>Pogoń Szczecin</t>
   </si>
   <si>
@@ -247,24 +259,12 @@
     <t>Cracovia Kraków</t>
   </si>
   <si>
-    <t>Jagiellonia Białystok</t>
-  </si>
-  <si>
-    <t>Lech Poznań</t>
-  </si>
-  <si>
     <t>Radomiak Radom</t>
   </si>
   <si>
-    <t>Ruch Chorzów</t>
-  </si>
-  <si>
     <t>Puszcza Niepołomice</t>
   </si>
   <si>
-    <t>Śląsk Wrocław</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
@@ -289,6 +289,24 @@
     <t>['83']</t>
   </si>
   <si>
+    <t>['14', '75']</t>
+  </si>
+  <si>
+    <t>['35', '87']</t>
+  </si>
+  <si>
+    <t>['45+2', '66', '81', '88']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['40', '83']</t>
+  </si>
+  <si>
+    <t>['46', '64']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -308,6 +326,15 @@
   </si>
   <si>
     <t>['48']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['53', '57']</t>
+  </si>
+  <si>
+    <t>['4']</t>
   </si>
 </sst>
 </file>
@@ -669,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK10"/>
+  <dimension ref="A1:BK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,7 +916,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -913,7 +940,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1000,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT2">
         <v>3</v>
@@ -1080,7 +1107,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1271,7 +1298,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -1295,7 +1322,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1462,7 +1489,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1653,7 +1680,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1677,7 +1704,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1844,7 +1871,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1868,7 +1895,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -1958,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="AT7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2035,7 +2062,7 @@
         <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2059,7 +2086,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2226,7 +2253,7 @@
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2250,7 +2277,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2417,7 +2444,7 @@
         <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2441,7 +2468,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2583,6 +2610,1343 @@
       </c>
       <c r="BK10">
         <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6469068</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45135.64583333334</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>9</v>
+      </c>
+      <c r="S11">
+        <v>13</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>3.7</v>
+      </c>
+      <c r="W11">
+        <v>1.48</v>
+      </c>
+      <c r="X11">
+        <v>2.5</v>
+      </c>
+      <c r="Y11">
+        <v>3.1</v>
+      </c>
+      <c r="Z11">
+        <v>1.32</v>
+      </c>
+      <c r="AA11">
+        <v>9.25</v>
+      </c>
+      <c r="AB11">
+        <v>1.06</v>
+      </c>
+      <c r="AC11">
+        <v>2.4</v>
+      </c>
+      <c r="AD11">
+        <v>3.2</v>
+      </c>
+      <c r="AE11">
+        <v>3.1</v>
+      </c>
+      <c r="AF11">
+        <v>1.08</v>
+      </c>
+      <c r="AG11">
+        <v>8.9</v>
+      </c>
+      <c r="AH11">
+        <v>1.39</v>
+      </c>
+      <c r="AI11">
+        <v>3</v>
+      </c>
+      <c r="AJ11">
+        <v>2.33</v>
+      </c>
+      <c r="AK11">
+        <v>1.58</v>
+      </c>
+      <c r="AL11">
+        <v>1.88</v>
+      </c>
+      <c r="AM11">
+        <v>1.82</v>
+      </c>
+      <c r="AN11">
+        <v>1.38</v>
+      </c>
+      <c r="AO11">
+        <v>1.35</v>
+      </c>
+      <c r="AP11">
+        <v>1.58</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>3</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0.8</v>
+      </c>
+      <c r="AW11">
+        <v>0.8</v>
+      </c>
+      <c r="AX11">
+        <v>1.95</v>
+      </c>
+      <c r="AY11">
+        <v>8</v>
+      </c>
+      <c r="AZ11">
+        <v>2.05</v>
+      </c>
+      <c r="BA11">
+        <v>1.22</v>
+      </c>
+      <c r="BB11">
+        <v>1.4</v>
+      </c>
+      <c r="BC11">
+        <v>1.67</v>
+      </c>
+      <c r="BD11">
+        <v>2.12</v>
+      </c>
+      <c r="BE11">
+        <v>2.77</v>
+      </c>
+      <c r="BF11">
+        <v>6</v>
+      </c>
+      <c r="BG11">
+        <v>3</v>
+      </c>
+      <c r="BH11">
+        <v>6</v>
+      </c>
+      <c r="BI11">
+        <v>7</v>
+      </c>
+      <c r="BJ11">
+        <v>12</v>
+      </c>
+      <c r="BK11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6469070</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45136.41666666666</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12">
+        <v>7</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
+      <c r="S12">
+        <v>12</v>
+      </c>
+      <c r="T12">
+        <v>3.4</v>
+      </c>
+      <c r="U12">
+        <v>2.06</v>
+      </c>
+      <c r="V12">
+        <v>3.2</v>
+      </c>
+      <c r="W12">
+        <v>1.44</v>
+      </c>
+      <c r="X12">
+        <v>2.68</v>
+      </c>
+      <c r="Y12">
+        <v>3.05</v>
+      </c>
+      <c r="Z12">
+        <v>1.35</v>
+      </c>
+      <c r="AA12">
+        <v>8</v>
+      </c>
+      <c r="AB12">
+        <v>1.06</v>
+      </c>
+      <c r="AC12">
+        <v>2.48</v>
+      </c>
+      <c r="AD12">
+        <v>3.3</v>
+      </c>
+      <c r="AE12">
+        <v>2.85</v>
+      </c>
+      <c r="AF12">
+        <v>1.07</v>
+      </c>
+      <c r="AG12">
+        <v>9.85</v>
+      </c>
+      <c r="AH12">
+        <v>1.36</v>
+      </c>
+      <c r="AI12">
+        <v>3.18</v>
+      </c>
+      <c r="AJ12">
+        <v>2</v>
+      </c>
+      <c r="AK12">
+        <v>1.7</v>
+      </c>
+      <c r="AL12">
+        <v>1.83</v>
+      </c>
+      <c r="AM12">
+        <v>1.93</v>
+      </c>
+      <c r="AN12">
+        <v>1.5</v>
+      </c>
+      <c r="AO12">
+        <v>1.35</v>
+      </c>
+      <c r="AP12">
+        <v>1.45</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>1.5</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0.95</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0.95</v>
+      </c>
+      <c r="AX12">
+        <v>2</v>
+      </c>
+      <c r="AY12">
+        <v>8</v>
+      </c>
+      <c r="AZ12">
+        <v>2.05</v>
+      </c>
+      <c r="BA12">
+        <v>1.23</v>
+      </c>
+      <c r="BB12">
+        <v>1.43</v>
+      </c>
+      <c r="BC12">
+        <v>1.73</v>
+      </c>
+      <c r="BD12">
+        <v>2.22</v>
+      </c>
+      <c r="BE12">
+        <v>2.95</v>
+      </c>
+      <c r="BF12">
+        <v>5</v>
+      </c>
+      <c r="BG12">
+        <v>2</v>
+      </c>
+      <c r="BH12">
+        <v>6</v>
+      </c>
+      <c r="BI12">
+        <v>5</v>
+      </c>
+      <c r="BJ12">
+        <v>11</v>
+      </c>
+      <c r="BK12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6469064</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45136.52083333334</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="S13">
+        <v>9</v>
+      </c>
+      <c r="T13">
+        <v>2.53</v>
+      </c>
+      <c r="U13">
+        <v>2.1</v>
+      </c>
+      <c r="V13">
+        <v>4.7</v>
+      </c>
+      <c r="W13">
+        <v>1.42</v>
+      </c>
+      <c r="X13">
+        <v>2.75</v>
+      </c>
+      <c r="Y13">
+        <v>2.82</v>
+      </c>
+      <c r="Z13">
+        <v>1.4</v>
+      </c>
+      <c r="AA13">
+        <v>7.3</v>
+      </c>
+      <c r="AB13">
+        <v>1.08</v>
+      </c>
+      <c r="AC13">
+        <v>1.98</v>
+      </c>
+      <c r="AD13">
+        <v>3.5</v>
+      </c>
+      <c r="AE13">
+        <v>3.45</v>
+      </c>
+      <c r="AF13">
+        <v>1.05</v>
+      </c>
+      <c r="AG13">
+        <v>7.8</v>
+      </c>
+      <c r="AH13">
+        <v>1.27</v>
+      </c>
+      <c r="AI13">
+        <v>3.4</v>
+      </c>
+      <c r="AJ13">
+        <v>2</v>
+      </c>
+      <c r="AK13">
+        <v>1.86</v>
+      </c>
+      <c r="AL13">
+        <v>1.72</v>
+      </c>
+      <c r="AM13">
+        <v>1.97</v>
+      </c>
+      <c r="AN13">
+        <v>1.27</v>
+      </c>
+      <c r="AO13">
+        <v>1.3</v>
+      </c>
+      <c r="AP13">
+        <v>1.85</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>3</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>1.4</v>
+      </c>
+      <c r="AW13">
+        <v>1.4</v>
+      </c>
+      <c r="AX13">
+        <v>1.75</v>
+      </c>
+      <c r="AY13">
+        <v>8</v>
+      </c>
+      <c r="AZ13">
+        <v>2.42</v>
+      </c>
+      <c r="BA13">
+        <v>1.21</v>
+      </c>
+      <c r="BB13">
+        <v>1.42</v>
+      </c>
+      <c r="BC13">
+        <v>1.73</v>
+      </c>
+      <c r="BD13">
+        <v>2.22</v>
+      </c>
+      <c r="BE13">
+        <v>2.95</v>
+      </c>
+      <c r="BF13">
+        <v>7</v>
+      </c>
+      <c r="BG13">
+        <v>7</v>
+      </c>
+      <c r="BH13">
+        <v>5</v>
+      </c>
+      <c r="BI13">
+        <v>5</v>
+      </c>
+      <c r="BJ13">
+        <v>12</v>
+      </c>
+      <c r="BK13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6469071</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45136.625</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>2.95</v>
+      </c>
+      <c r="U14">
+        <v>2.1</v>
+      </c>
+      <c r="V14">
+        <v>3.2</v>
+      </c>
+      <c r="W14">
+        <v>1.37</v>
+      </c>
+      <c r="X14">
+        <v>2.8</v>
+      </c>
+      <c r="Y14">
+        <v>2.8</v>
+      </c>
+      <c r="Z14">
+        <v>1.37</v>
+      </c>
+      <c r="AA14">
+        <v>6.5</v>
+      </c>
+      <c r="AB14">
+        <v>1.08</v>
+      </c>
+      <c r="AC14">
+        <v>2.36</v>
+      </c>
+      <c r="AD14">
+        <v>3.45</v>
+      </c>
+      <c r="AE14">
+        <v>2.74</v>
+      </c>
+      <c r="AF14">
+        <v>1.06</v>
+      </c>
+      <c r="AG14">
+        <v>7.2</v>
+      </c>
+      <c r="AH14">
+        <v>1.27</v>
+      </c>
+      <c r="AI14">
+        <v>3.4</v>
+      </c>
+      <c r="AJ14">
+        <v>2.04</v>
+      </c>
+      <c r="AK14">
+        <v>1.82</v>
+      </c>
+      <c r="AL14">
+        <v>1.67</v>
+      </c>
+      <c r="AM14">
+        <v>2.05</v>
+      </c>
+      <c r="AN14">
+        <v>1.42</v>
+      </c>
+      <c r="AO14">
+        <v>1.35</v>
+      </c>
+      <c r="AP14">
+        <v>1.52</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>3</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>2.05</v>
+      </c>
+      <c r="AY14">
+        <v>8</v>
+      </c>
+      <c r="AZ14">
+        <v>2</v>
+      </c>
+      <c r="BA14">
+        <v>1.21</v>
+      </c>
+      <c r="BB14">
+        <v>1.51</v>
+      </c>
+      <c r="BC14">
+        <v>1.85</v>
+      </c>
+      <c r="BD14">
+        <v>2.4</v>
+      </c>
+      <c r="BE14">
+        <v>3.2</v>
+      </c>
+      <c r="BF14">
+        <v>7</v>
+      </c>
+      <c r="BG14">
+        <v>6</v>
+      </c>
+      <c r="BH14">
+        <v>8</v>
+      </c>
+      <c r="BI14">
+        <v>1</v>
+      </c>
+      <c r="BJ14">
+        <v>15</v>
+      </c>
+      <c r="BK14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6469069</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45137.41666666666</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <v>11</v>
+      </c>
+      <c r="T15">
+        <v>4.55</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <v>2.68</v>
+      </c>
+      <c r="W15">
+        <v>1.49</v>
+      </c>
+      <c r="X15">
+        <v>2.45</v>
+      </c>
+      <c r="Y15">
+        <v>3.25</v>
+      </c>
+      <c r="Z15">
+        <v>1.3</v>
+      </c>
+      <c r="AA15">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AB15">
+        <v>1.04</v>
+      </c>
+      <c r="AC15">
+        <v>3.55</v>
+      </c>
+      <c r="AD15">
+        <v>3.05</v>
+      </c>
+      <c r="AE15">
+        <v>2.1</v>
+      </c>
+      <c r="AF15">
+        <v>1.05</v>
+      </c>
+      <c r="AG15">
+        <v>7.1</v>
+      </c>
+      <c r="AH15">
+        <v>1.42</v>
+      </c>
+      <c r="AI15">
+        <v>2.7</v>
+      </c>
+      <c r="AJ15">
+        <v>2.22</v>
+      </c>
+      <c r="AK15">
+        <v>1.59</v>
+      </c>
+      <c r="AL15">
+        <v>2.04</v>
+      </c>
+      <c r="AM15">
+        <v>1.73</v>
+      </c>
+      <c r="AN15">
+        <v>1.78</v>
+      </c>
+      <c r="AO15">
+        <v>1.33</v>
+      </c>
+      <c r="AP15">
+        <v>1.26</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>1</v>
+      </c>
+      <c r="AT15">
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <v>1.3</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>1.3</v>
+      </c>
+      <c r="AX15">
+        <v>2.63</v>
+      </c>
+      <c r="AY15">
+        <v>8</v>
+      </c>
+      <c r="AZ15">
+        <v>1.69</v>
+      </c>
+      <c r="BA15">
+        <v>1.24</v>
+      </c>
+      <c r="BB15">
+        <v>1.48</v>
+      </c>
+      <c r="BC15">
+        <v>1.85</v>
+      </c>
+      <c r="BD15">
+        <v>2.37</v>
+      </c>
+      <c r="BE15">
+        <v>3.2</v>
+      </c>
+      <c r="BF15">
+        <v>3</v>
+      </c>
+      <c r="BG15">
+        <v>4</v>
+      </c>
+      <c r="BH15">
+        <v>5</v>
+      </c>
+      <c r="BI15">
+        <v>13</v>
+      </c>
+      <c r="BJ15">
+        <v>8</v>
+      </c>
+      <c r="BK15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6469066</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45137.52083333334</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>6</v>
+      </c>
+      <c r="T16">
+        <v>2.4</v>
+      </c>
+      <c r="U16">
+        <v>2.05</v>
+      </c>
+      <c r="V16">
+        <v>4.75</v>
+      </c>
+      <c r="W16">
+        <v>1.44</v>
+      </c>
+      <c r="X16">
+        <v>2.6</v>
+      </c>
+      <c r="Y16">
+        <v>3.05</v>
+      </c>
+      <c r="Z16">
+        <v>1.33</v>
+      </c>
+      <c r="AA16">
+        <v>7.9</v>
+      </c>
+      <c r="AB16">
+        <v>1.05</v>
+      </c>
+      <c r="AC16">
+        <v>1.5</v>
+      </c>
+      <c r="AD16">
+        <v>3.62</v>
+      </c>
+      <c r="AE16">
+        <v>5.37</v>
+      </c>
+      <c r="AF16">
+        <v>1.03</v>
+      </c>
+      <c r="AG16">
+        <v>8.1</v>
+      </c>
+      <c r="AH16">
+        <v>1.36</v>
+      </c>
+      <c r="AI16">
+        <v>3.1</v>
+      </c>
+      <c r="AJ16">
+        <v>1.78</v>
+      </c>
+      <c r="AK16">
+        <v>1.83</v>
+      </c>
+      <c r="AL16">
+        <v>1.95</v>
+      </c>
+      <c r="AM16">
+        <v>1.8</v>
+      </c>
+      <c r="AN16">
+        <v>1.16</v>
+      </c>
+      <c r="AO16">
+        <v>1.22</v>
+      </c>
+      <c r="AP16">
+        <v>2</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>3</v>
+      </c>
+      <c r="AS16">
+        <v>3</v>
+      </c>
+      <c r="AT16">
+        <v>1.5</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>2.04</v>
+      </c>
+      <c r="AW16">
+        <v>2.04</v>
+      </c>
+      <c r="AX16">
+        <v>1.41</v>
+      </c>
+      <c r="AY16">
+        <v>9</v>
+      </c>
+      <c r="AZ16">
+        <v>3.49</v>
+      </c>
+      <c r="BA16">
+        <v>1.21</v>
+      </c>
+      <c r="BB16">
+        <v>1.4</v>
+      </c>
+      <c r="BC16">
+        <v>1.73</v>
+      </c>
+      <c r="BD16">
+        <v>2.2</v>
+      </c>
+      <c r="BE16">
+        <v>2.9</v>
+      </c>
+      <c r="BF16">
+        <v>8</v>
+      </c>
+      <c r="BG16">
+        <v>4</v>
+      </c>
+      <c r="BH16">
+        <v>5</v>
+      </c>
+      <c r="BI16">
+        <v>10</v>
+      </c>
+      <c r="BJ16">
+        <v>13</v>
+      </c>
+      <c r="BK16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6469067</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45137.625</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q17">
+        <v>16</v>
+      </c>
+      <c r="R17">
+        <v>7</v>
+      </c>
+      <c r="S17">
+        <v>23</v>
+      </c>
+      <c r="T17">
+        <v>2.21</v>
+      </c>
+      <c r="U17">
+        <v>2.4</v>
+      </c>
+      <c r="V17">
+        <v>5.48</v>
+      </c>
+      <c r="W17">
+        <v>1.31</v>
+      </c>
+      <c r="X17">
+        <v>3.2</v>
+      </c>
+      <c r="Y17">
+        <v>2.6</v>
+      </c>
+      <c r="Z17">
+        <v>1.44</v>
+      </c>
+      <c r="AA17">
+        <v>6.4</v>
+      </c>
+      <c r="AB17">
+        <v>1.09</v>
+      </c>
+      <c r="AC17">
+        <v>1.62</v>
+      </c>
+      <c r="AD17">
+        <v>3.43</v>
+      </c>
+      <c r="AE17">
+        <v>4.53</v>
+      </c>
+      <c r="AF17">
+        <v>1.03</v>
+      </c>
+      <c r="AG17">
+        <v>13</v>
+      </c>
+      <c r="AH17">
+        <v>1.25</v>
+      </c>
+      <c r="AI17">
+        <v>3.75</v>
+      </c>
+      <c r="AJ17">
+        <v>1.69</v>
+      </c>
+      <c r="AK17">
+        <v>2.04</v>
+      </c>
+      <c r="AL17">
+        <v>1.82</v>
+      </c>
+      <c r="AM17">
+        <v>1.94</v>
+      </c>
+      <c r="AN17">
+        <v>1.15</v>
+      </c>
+      <c r="AO17">
+        <v>1.23</v>
+      </c>
+      <c r="AP17">
+        <v>2.32</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>3</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>1.37</v>
+      </c>
+      <c r="AY17">
+        <v>9.5</v>
+      </c>
+      <c r="AZ17">
+        <v>3.69</v>
+      </c>
+      <c r="BA17">
+        <v>1.15</v>
+      </c>
+      <c r="BB17">
+        <v>1.25</v>
+      </c>
+      <c r="BC17">
+        <v>1.46</v>
+      </c>
+      <c r="BD17">
+        <v>1.95</v>
+      </c>
+      <c r="BE17">
+        <v>2.2</v>
+      </c>
+      <c r="BF17">
+        <v>10</v>
+      </c>
+      <c r="BG17">
+        <v>3</v>
+      </c>
+      <c r="BH17">
+        <v>5</v>
+      </c>
+      <c r="BI17">
+        <v>4</v>
+      </c>
+      <c r="BJ17">
+        <v>15</v>
+      </c>
+      <c r="BK17">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="112">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -256,12 +256,12 @@
     <t>ŁKS Łódź</t>
   </si>
   <si>
+    <t>Radomiak Radom</t>
+  </si>
+  <si>
     <t>Cracovia Kraków</t>
   </si>
   <si>
-    <t>Radomiak Radom</t>
-  </si>
-  <si>
     <t>Puszcza Niepołomice</t>
   </si>
   <si>
@@ -307,6 +307,15 @@
     <t>['46', '64']</t>
   </si>
   <si>
+    <t>['79', '86']</t>
+  </si>
+  <si>
+    <t>['28', '90+9']</t>
+  </si>
+  <si>
+    <t>['50', '83']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -335,6 +344,12 @@
   </si>
   <si>
     <t>['4']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['5', '57']</t>
   </si>
 </sst>
 </file>
@@ -696,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK17"/>
+  <dimension ref="A1:BK22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -940,7 +955,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1298,7 +1313,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -1322,7 +1337,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1412,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1600,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT5">
         <v>0</v>
@@ -1704,7 +1719,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1871,7 +1886,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1895,7 +1910,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -1982,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT7">
         <v>1.5</v>
@@ -2086,7 +2101,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2277,7 +2292,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2468,7 +2483,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3041,7 +3056,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3232,7 +3247,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3590,7 +3605,7 @@
         <v>77</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3805,7 +3820,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q17">
         <v>16</v>
@@ -3947,6 +3962,961 @@
       </c>
       <c r="BK17">
         <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6469073</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45142.54166666666</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>4</v>
+      </c>
+      <c r="S18">
+        <v>7</v>
+      </c>
+      <c r="T18">
+        <v>2.85</v>
+      </c>
+      <c r="U18">
+        <v>2.1</v>
+      </c>
+      <c r="V18">
+        <v>3.4</v>
+      </c>
+      <c r="W18">
+        <v>1.37</v>
+      </c>
+      <c r="X18">
+        <v>2.8</v>
+      </c>
+      <c r="Y18">
+        <v>2.7</v>
+      </c>
+      <c r="Z18">
+        <v>1.41</v>
+      </c>
+      <c r="AA18">
+        <v>6.75</v>
+      </c>
+      <c r="AB18">
+        <v>1.09</v>
+      </c>
+      <c r="AC18">
+        <v>2.28</v>
+      </c>
+      <c r="AD18">
+        <v>3.4</v>
+      </c>
+      <c r="AE18">
+        <v>2.79</v>
+      </c>
+      <c r="AF18">
+        <v>1.05</v>
+      </c>
+      <c r="AG18">
+        <v>9.5</v>
+      </c>
+      <c r="AH18">
+        <v>1.27</v>
+      </c>
+      <c r="AI18">
+        <v>3.4</v>
+      </c>
+      <c r="AJ18">
+        <v>1.91</v>
+      </c>
+      <c r="AK18">
+        <v>1.95</v>
+      </c>
+      <c r="AL18">
+        <v>1.68</v>
+      </c>
+      <c r="AM18">
+        <v>2.05</v>
+      </c>
+      <c r="AN18">
+        <v>1.39</v>
+      </c>
+      <c r="AO18">
+        <v>1.3</v>
+      </c>
+      <c r="AP18">
+        <v>1.58</v>
+      </c>
+      <c r="AQ18">
+        <v>3</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>3</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>1.62</v>
+      </c>
+      <c r="AV18">
+        <v>0.99</v>
+      </c>
+      <c r="AW18">
+        <v>2.61</v>
+      </c>
+      <c r="AX18">
+        <v>2.1</v>
+      </c>
+      <c r="AY18">
+        <v>8</v>
+      </c>
+      <c r="AZ18">
+        <v>1.91</v>
+      </c>
+      <c r="BA18">
+        <v>1.17</v>
+      </c>
+      <c r="BB18">
+        <v>1.3</v>
+      </c>
+      <c r="BC18">
+        <v>1.54</v>
+      </c>
+      <c r="BD18">
+        <v>1.9</v>
+      </c>
+      <c r="BE18">
+        <v>2.47</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>3</v>
+      </c>
+      <c r="BH18">
+        <v>4</v>
+      </c>
+      <c r="BI18">
+        <v>1</v>
+      </c>
+      <c r="BJ18">
+        <v>4</v>
+      </c>
+      <c r="BK18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6469079</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45142.64583333334</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <v>7</v>
+      </c>
+      <c r="T19">
+        <v>3.04</v>
+      </c>
+      <c r="U19">
+        <v>2.11</v>
+      </c>
+      <c r="V19">
+        <v>3.46</v>
+      </c>
+      <c r="W19">
+        <v>1.41</v>
+      </c>
+      <c r="X19">
+        <v>2.79</v>
+      </c>
+      <c r="Y19">
+        <v>2.91</v>
+      </c>
+      <c r="Z19">
+        <v>1.38</v>
+      </c>
+      <c r="AA19">
+        <v>7.4</v>
+      </c>
+      <c r="AB19">
+        <v>1.07</v>
+      </c>
+      <c r="AC19">
+        <v>2.46</v>
+      </c>
+      <c r="AD19">
+        <v>3.2</v>
+      </c>
+      <c r="AE19">
+        <v>2.76</v>
+      </c>
+      <c r="AF19">
+        <v>1.02</v>
+      </c>
+      <c r="AG19">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH19">
+        <v>1.29</v>
+      </c>
+      <c r="AI19">
+        <v>3.2</v>
+      </c>
+      <c r="AJ19">
+        <v>2</v>
+      </c>
+      <c r="AK19">
+        <v>1.72</v>
+      </c>
+      <c r="AL19">
+        <v>1.77</v>
+      </c>
+      <c r="AM19">
+        <v>1.98</v>
+      </c>
+      <c r="AN19">
+        <v>1.43</v>
+      </c>
+      <c r="AO19">
+        <v>1.32</v>
+      </c>
+      <c r="AP19">
+        <v>1.55</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>3</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>1.69</v>
+      </c>
+      <c r="AY19">
+        <v>8.5</v>
+      </c>
+      <c r="AZ19">
+        <v>2.53</v>
+      </c>
+      <c r="BA19">
+        <v>1.15</v>
+      </c>
+      <c r="BB19">
+        <v>1.25</v>
+      </c>
+      <c r="BC19">
+        <v>1.43</v>
+      </c>
+      <c r="BD19">
+        <v>1.8</v>
+      </c>
+      <c r="BE19">
+        <v>2.25</v>
+      </c>
+      <c r="BF19">
+        <v>3</v>
+      </c>
+      <c r="BG19">
+        <v>6</v>
+      </c>
+      <c r="BH19">
+        <v>2</v>
+      </c>
+      <c r="BI19">
+        <v>6</v>
+      </c>
+      <c r="BJ19">
+        <v>5</v>
+      </c>
+      <c r="BK19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6469078</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45143.41666666666</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q20">
+        <v>8</v>
+      </c>
+      <c r="R20">
+        <v>5</v>
+      </c>
+      <c r="S20">
+        <v>13</v>
+      </c>
+      <c r="T20">
+        <v>1.82</v>
+      </c>
+      <c r="U20">
+        <v>2.35</v>
+      </c>
+      <c r="V20">
+        <v>7.25</v>
+      </c>
+      <c r="W20">
+        <v>1.35</v>
+      </c>
+      <c r="X20">
+        <v>3</v>
+      </c>
+      <c r="Y20">
+        <v>2.6</v>
+      </c>
+      <c r="Z20">
+        <v>1.45</v>
+      </c>
+      <c r="AA20">
+        <v>6.75</v>
+      </c>
+      <c r="AB20">
+        <v>1.1</v>
+      </c>
+      <c r="AC20">
+        <v>1.36</v>
+      </c>
+      <c r="AD20">
+        <v>4.75</v>
+      </c>
+      <c r="AE20">
+        <v>8.18</v>
+      </c>
+      <c r="AF20">
+        <v>1.04</v>
+      </c>
+      <c r="AG20">
+        <v>14</v>
+      </c>
+      <c r="AH20">
+        <v>1.26</v>
+      </c>
+      <c r="AI20">
+        <v>3.9</v>
+      </c>
+      <c r="AJ20">
+        <v>1.85</v>
+      </c>
+      <c r="AK20">
+        <v>1.93</v>
+      </c>
+      <c r="AL20">
+        <v>2.1</v>
+      </c>
+      <c r="AM20">
+        <v>1.65</v>
+      </c>
+      <c r="AN20">
+        <v>1.1</v>
+      </c>
+      <c r="AO20">
+        <v>1.18</v>
+      </c>
+      <c r="AP20">
+        <v>3.05</v>
+      </c>
+      <c r="AQ20">
+        <v>3</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>2</v>
+      </c>
+      <c r="AT20">
+        <v>1</v>
+      </c>
+      <c r="AU20">
+        <v>1.63</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>1.63</v>
+      </c>
+      <c r="AX20">
+        <v>1.18</v>
+      </c>
+      <c r="AY20">
+        <v>11</v>
+      </c>
+      <c r="AZ20">
+        <v>6.16</v>
+      </c>
+      <c r="BA20">
+        <v>1.45</v>
+      </c>
+      <c r="BB20">
+        <v>1.85</v>
+      </c>
+      <c r="BC20">
+        <v>2.4</v>
+      </c>
+      <c r="BD20">
+        <v>3.35</v>
+      </c>
+      <c r="BE20">
+        <v>3.42</v>
+      </c>
+      <c r="BF20">
+        <v>8</v>
+      </c>
+      <c r="BG20">
+        <v>6</v>
+      </c>
+      <c r="BH20">
+        <v>9</v>
+      </c>
+      <c r="BI20">
+        <v>7</v>
+      </c>
+      <c r="BJ20">
+        <v>17</v>
+      </c>
+      <c r="BK20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6469072</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45143.52083333334</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>83</v>
+      </c>
+      <c r="P21" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+      <c r="R21">
+        <v>4</v>
+      </c>
+      <c r="S21">
+        <v>10</v>
+      </c>
+      <c r="T21">
+        <v>4.46</v>
+      </c>
+      <c r="U21">
+        <v>2.07</v>
+      </c>
+      <c r="V21">
+        <v>2.9</v>
+      </c>
+      <c r="W21">
+        <v>1.51</v>
+      </c>
+      <c r="X21">
+        <v>2.6</v>
+      </c>
+      <c r="Y21">
+        <v>3.37</v>
+      </c>
+      <c r="Z21">
+        <v>1.33</v>
+      </c>
+      <c r="AA21">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB21">
+        <v>1.05</v>
+      </c>
+      <c r="AC21">
+        <v>3.55</v>
+      </c>
+      <c r="AD21">
+        <v>3.25</v>
+      </c>
+      <c r="AE21">
+        <v>1.96</v>
+      </c>
+      <c r="AF21">
+        <v>1.04</v>
+      </c>
+      <c r="AG21">
+        <v>7.4</v>
+      </c>
+      <c r="AH21">
+        <v>1.39</v>
+      </c>
+      <c r="AI21">
+        <v>2.71</v>
+      </c>
+      <c r="AJ21">
+        <v>2.28</v>
+      </c>
+      <c r="AK21">
+        <v>1.61</v>
+      </c>
+      <c r="AL21">
+        <v>1.98</v>
+      </c>
+      <c r="AM21">
+        <v>1.79</v>
+      </c>
+      <c r="AN21">
+        <v>1.7</v>
+      </c>
+      <c r="AO21">
+        <v>1.35</v>
+      </c>
+      <c r="AP21">
+        <v>1.3</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>1</v>
+      </c>
+      <c r="AS21">
+        <v>0.5</v>
+      </c>
+      <c r="AT21">
+        <v>1</v>
+      </c>
+      <c r="AU21">
+        <v>0.55</v>
+      </c>
+      <c r="AV21">
+        <v>1.98</v>
+      </c>
+      <c r="AW21">
+        <v>2.53</v>
+      </c>
+      <c r="AX21">
+        <v>2.29</v>
+      </c>
+      <c r="AY21">
+        <v>7.5</v>
+      </c>
+      <c r="AZ21">
+        <v>1.85</v>
+      </c>
+      <c r="BA21">
+        <v>1.34</v>
+      </c>
+      <c r="BB21">
+        <v>1.62</v>
+      </c>
+      <c r="BC21">
+        <v>2.07</v>
+      </c>
+      <c r="BD21">
+        <v>2.75</v>
+      </c>
+      <c r="BE21">
+        <v>3.42</v>
+      </c>
+      <c r="BF21">
+        <v>4</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>3</v>
+      </c>
+      <c r="BI21">
+        <v>6</v>
+      </c>
+      <c r="BJ21">
+        <v>7</v>
+      </c>
+      <c r="BK21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>6469077</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45143.625</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>83</v>
+      </c>
+      <c r="P22" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q22">
+        <v>6</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>6</v>
+      </c>
+      <c r="T22">
+        <v>2.75</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
+        <v>4.1</v>
+      </c>
+      <c r="W22">
+        <v>1.48</v>
+      </c>
+      <c r="X22">
+        <v>2.5</v>
+      </c>
+      <c r="Y22">
+        <v>3.1</v>
+      </c>
+      <c r="Z22">
+        <v>1.32</v>
+      </c>
+      <c r="AA22">
+        <v>9.25</v>
+      </c>
+      <c r="AB22">
+        <v>1.06</v>
+      </c>
+      <c r="AC22">
+        <v>2</v>
+      </c>
+      <c r="AD22">
+        <v>3.15</v>
+      </c>
+      <c r="AE22">
+        <v>3.55</v>
+      </c>
+      <c r="AF22">
+        <v>1.08</v>
+      </c>
+      <c r="AG22">
+        <v>9.25</v>
+      </c>
+      <c r="AH22">
+        <v>1.39</v>
+      </c>
+      <c r="AI22">
+        <v>3.02</v>
+      </c>
+      <c r="AJ22">
+        <v>2.1</v>
+      </c>
+      <c r="AK22">
+        <v>1.7</v>
+      </c>
+      <c r="AL22">
+        <v>1.9</v>
+      </c>
+      <c r="AM22">
+        <v>1.8</v>
+      </c>
+      <c r="AN22">
+        <v>1.32</v>
+      </c>
+      <c r="AO22">
+        <v>1.32</v>
+      </c>
+      <c r="AP22">
+        <v>1.7</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>1</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>2</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>2.2</v>
+      </c>
+      <c r="AW22">
+        <v>2.2</v>
+      </c>
+      <c r="AX22">
+        <v>1.69</v>
+      </c>
+      <c r="AY22">
+        <v>8</v>
+      </c>
+      <c r="AZ22">
+        <v>2.63</v>
+      </c>
+      <c r="BA22">
+        <v>1.19</v>
+      </c>
+      <c r="BB22">
+        <v>1.45</v>
+      </c>
+      <c r="BC22">
+        <v>1.83</v>
+      </c>
+      <c r="BD22">
+        <v>2.32</v>
+      </c>
+      <c r="BE22">
+        <v>3.1</v>
+      </c>
+      <c r="BF22">
+        <v>4</v>
+      </c>
+      <c r="BG22">
+        <v>4</v>
+      </c>
+      <c r="BH22">
+        <v>9</v>
+      </c>
+      <c r="BI22">
+        <v>2</v>
+      </c>
+      <c r="BJ22">
+        <v>13</v>
+      </c>
+      <c r="BK22">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="115">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -259,12 +259,12 @@
     <t>Radomiak Radom</t>
   </si>
   <si>
+    <t>Puszcza Niepołomice</t>
+  </si>
+  <si>
     <t>Cracovia Kraków</t>
   </si>
   <si>
-    <t>Puszcza Niepołomice</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
@@ -314,6 +314,15 @@
   </si>
   <si>
     <t>['50', '83']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['20', '43', '68']</t>
+  </si>
+  <si>
+    <t>['65']</t>
   </si>
   <si>
     <t>['36']</t>
@@ -711,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK22"/>
+  <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -955,7 +964,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1313,7 +1322,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -1337,7 +1346,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1719,7 +1728,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1809,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="AT6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1910,7 +1919,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2101,7 +2110,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2188,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -2268,7 +2277,7 @@
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2292,7 +2301,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2483,7 +2492,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3032,7 +3041,7 @@
         <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3056,7 +3065,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3247,7 +3256,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3820,7 +3829,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q17">
         <v>16</v>
@@ -4011,7 +4020,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4137,22 +4146,22 @@
         <v>2.47</v>
       </c>
       <c r="BF18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BK18">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:63">
@@ -4202,7 +4211,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4328,22 +4337,22 @@
         <v>2.25</v>
       </c>
       <c r="BF19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG19">
+        <v>5</v>
+      </c>
+      <c r="BH19">
+        <v>2</v>
+      </c>
+      <c r="BI19">
+        <v>9</v>
+      </c>
+      <c r="BJ19">
         <v>6</v>
       </c>
-      <c r="BH19">
-        <v>2</v>
-      </c>
-      <c r="BI19">
-        <v>6</v>
-      </c>
-      <c r="BJ19">
-        <v>5</v>
-      </c>
       <c r="BK19">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:63">
@@ -4393,7 +4402,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4522,19 +4531,19 @@
         <v>8</v>
       </c>
       <c r="BG20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH20">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BI20">
         <v>7</v>
       </c>
       <c r="BJ20">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BK20">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:63">
@@ -4710,13 +4719,13 @@
         <v>3.42</v>
       </c>
       <c r="BF21">
+        <v>3</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
         <v>4</v>
-      </c>
-      <c r="BG21">
-        <v>0</v>
-      </c>
-      <c r="BH21">
-        <v>3</v>
       </c>
       <c r="BI21">
         <v>6</v>
@@ -4751,7 +4760,7 @@
         <v>80</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -4901,22 +4910,595 @@
         <v>3.1</v>
       </c>
       <c r="BF22">
+        <v>5</v>
+      </c>
+      <c r="BG22">
+        <v>5</v>
+      </c>
+      <c r="BH22">
+        <v>15</v>
+      </c>
+      <c r="BI22">
         <v>4</v>
       </c>
-      <c r="BG22">
+      <c r="BJ22">
+        <v>20</v>
+      </c>
+      <c r="BK22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6469074</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45144.52083333334</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q23">
+        <v>6</v>
+      </c>
+      <c r="R23">
+        <v>8</v>
+      </c>
+      <c r="S23">
+        <v>14</v>
+      </c>
+      <c r="T23">
         <v>4</v>
       </c>
-      <c r="BH22">
+      <c r="U23">
+        <v>2.1</v>
+      </c>
+      <c r="V23">
+        <v>2.88</v>
+      </c>
+      <c r="W23">
+        <v>1.4</v>
+      </c>
+      <c r="X23">
+        <v>2.75</v>
+      </c>
+      <c r="Y23">
+        <v>3</v>
+      </c>
+      <c r="Z23">
+        <v>1.36</v>
+      </c>
+      <c r="AA23">
         <v>9</v>
       </c>
-      <c r="BI22">
-        <v>2</v>
-      </c>
-      <c r="BJ22">
-        <v>13</v>
-      </c>
-      <c r="BK22">
+      <c r="AB23">
+        <v>1.07</v>
+      </c>
+      <c r="AC23">
+        <v>3.2</v>
+      </c>
+      <c r="AD23">
+        <v>3.45</v>
+      </c>
+      <c r="AE23">
+        <v>2.15</v>
+      </c>
+      <c r="AF23">
+        <v>1.06</v>
+      </c>
+      <c r="AG23">
+        <v>7.2</v>
+      </c>
+      <c r="AH23">
+        <v>1.33</v>
+      </c>
+      <c r="AI23">
+        <v>3.2</v>
+      </c>
+      <c r="AJ23">
+        <v>1.98</v>
+      </c>
+      <c r="AK23">
+        <v>1.79</v>
+      </c>
+      <c r="AL23">
+        <v>1.8</v>
+      </c>
+      <c r="AM23">
+        <v>1.95</v>
+      </c>
+      <c r="AN23">
+        <v>1.7</v>
+      </c>
+      <c r="AO23">
+        <v>1.25</v>
+      </c>
+      <c r="AP23">
+        <v>1.3</v>
+      </c>
+      <c r="AQ23">
+        <v>3</v>
+      </c>
+      <c r="AR23">
+        <v>3</v>
+      </c>
+      <c r="AS23">
+        <v>2</v>
+      </c>
+      <c r="AT23">
+        <v>2</v>
+      </c>
+      <c r="AU23">
+        <v>1.73</v>
+      </c>
+      <c r="AV23">
+        <v>0.93</v>
+      </c>
+      <c r="AW23">
+        <v>2.66</v>
+      </c>
+      <c r="AX23">
+        <v>2.1</v>
+      </c>
+      <c r="AY23">
+        <v>8</v>
+      </c>
+      <c r="AZ23">
+        <v>1.95</v>
+      </c>
+      <c r="BA23">
+        <v>1.24</v>
+      </c>
+      <c r="BB23">
+        <v>1.54</v>
+      </c>
+      <c r="BC23">
+        <v>1.9</v>
+      </c>
+      <c r="BD23">
+        <v>2.5</v>
+      </c>
+      <c r="BE23">
+        <v>3.08</v>
+      </c>
+      <c r="BF23">
+        <v>8</v>
+      </c>
+      <c r="BG23">
+        <v>4</v>
+      </c>
+      <c r="BH23">
         <v>6</v>
+      </c>
+      <c r="BI23">
+        <v>6</v>
+      </c>
+      <c r="BJ23">
+        <v>14</v>
+      </c>
+      <c r="BK23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>6469075</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45144.625</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>101</v>
+      </c>
+      <c r="P24" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q24">
+        <v>6</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>10</v>
+      </c>
+      <c r="T24">
+        <v>1.91</v>
+      </c>
+      <c r="U24">
+        <v>2.5</v>
+      </c>
+      <c r="V24">
+        <v>6.5</v>
+      </c>
+      <c r="W24">
+        <v>1.3</v>
+      </c>
+      <c r="X24">
+        <v>3.4</v>
+      </c>
+      <c r="Y24">
+        <v>2.5</v>
+      </c>
+      <c r="Z24">
+        <v>1.5</v>
+      </c>
+      <c r="AA24">
+        <v>6</v>
+      </c>
+      <c r="AB24">
+        <v>1.13</v>
+      </c>
+      <c r="AC24">
+        <v>1.38</v>
+      </c>
+      <c r="AD24">
+        <v>4.9</v>
+      </c>
+      <c r="AE24">
+        <v>7</v>
+      </c>
+      <c r="AF24">
+        <v>1.03</v>
+      </c>
+      <c r="AG24">
+        <v>11</v>
+      </c>
+      <c r="AH24">
+        <v>1.2</v>
+      </c>
+      <c r="AI24">
+        <v>4.2</v>
+      </c>
+      <c r="AJ24">
+        <v>1.63</v>
+      </c>
+      <c r="AK24">
+        <v>2.23</v>
+      </c>
+      <c r="AL24">
+        <v>1.95</v>
+      </c>
+      <c r="AM24">
+        <v>1.8</v>
+      </c>
+      <c r="AN24">
+        <v>1.05</v>
+      </c>
+      <c r="AO24">
+        <v>1.14</v>
+      </c>
+      <c r="AP24">
+        <v>2.95</v>
+      </c>
+      <c r="AQ24">
+        <v>3</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>3</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>2.24</v>
+      </c>
+      <c r="AV24">
+        <v>0.97</v>
+      </c>
+      <c r="AW24">
+        <v>3.21</v>
+      </c>
+      <c r="AX24">
+        <v>1.26</v>
+      </c>
+      <c r="AY24">
+        <v>10</v>
+      </c>
+      <c r="AZ24">
+        <v>4.65</v>
+      </c>
+      <c r="BA24">
+        <v>1.18</v>
+      </c>
+      <c r="BB24">
+        <v>1.33</v>
+      </c>
+      <c r="BC24">
+        <v>1.58</v>
+      </c>
+      <c r="BD24">
+        <v>2.03</v>
+      </c>
+      <c r="BE24">
+        <v>2.62</v>
+      </c>
+      <c r="BF24">
+        <v>7</v>
+      </c>
+      <c r="BG24">
+        <v>2</v>
+      </c>
+      <c r="BH24">
+        <v>10</v>
+      </c>
+      <c r="BI24">
+        <v>4</v>
+      </c>
+      <c r="BJ24">
+        <v>17</v>
+      </c>
+      <c r="BK24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6469076</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45145.58333333334</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>102</v>
+      </c>
+      <c r="P25" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>7</v>
+      </c>
+      <c r="S25">
+        <v>9</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>2.1</v>
+      </c>
+      <c r="V25">
+        <v>3.6</v>
+      </c>
+      <c r="W25">
+        <v>1.4</v>
+      </c>
+      <c r="X25">
+        <v>2.75</v>
+      </c>
+      <c r="Y25">
+        <v>3</v>
+      </c>
+      <c r="Z25">
+        <v>1.36</v>
+      </c>
+      <c r="AA25">
+        <v>8</v>
+      </c>
+      <c r="AB25">
+        <v>1.08</v>
+      </c>
+      <c r="AC25">
+        <v>2.3</v>
+      </c>
+      <c r="AD25">
+        <v>3.3</v>
+      </c>
+      <c r="AE25">
+        <v>2.97</v>
+      </c>
+      <c r="AF25">
+        <v>1.07</v>
+      </c>
+      <c r="AG25">
+        <v>7.5</v>
+      </c>
+      <c r="AH25">
+        <v>1.33</v>
+      </c>
+      <c r="AI25">
+        <v>3.2</v>
+      </c>
+      <c r="AJ25">
+        <v>1.9</v>
+      </c>
+      <c r="AK25">
+        <v>1.8</v>
+      </c>
+      <c r="AL25">
+        <v>1.75</v>
+      </c>
+      <c r="AM25">
+        <v>2</v>
+      </c>
+      <c r="AN25">
+        <v>1.35</v>
+      </c>
+      <c r="AO25">
+        <v>1.29</v>
+      </c>
+      <c r="AP25">
+        <v>1.51</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>3</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>1.83</v>
+      </c>
+      <c r="AY25">
+        <v>8</v>
+      </c>
+      <c r="AZ25">
+        <v>2.2</v>
+      </c>
+      <c r="BA25">
+        <v>1.2</v>
+      </c>
+      <c r="BB25">
+        <v>1.38</v>
+      </c>
+      <c r="BC25">
+        <v>1.65</v>
+      </c>
+      <c r="BD25">
+        <v>2.1</v>
+      </c>
+      <c r="BE25">
+        <v>2.77</v>
+      </c>
+      <c r="BF25">
+        <v>3</v>
+      </c>
+      <c r="BG25">
+        <v>4</v>
+      </c>
+      <c r="BH25">
+        <v>3</v>
+      </c>
+      <c r="BI25">
+        <v>6</v>
+      </c>
+      <c r="BJ25">
+        <v>6</v>
+      </c>
+      <c r="BK25">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="126">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -325,6 +325,21 @@
     <t>['65']</t>
   </si>
   <si>
+    <t>['10', '35']</t>
+  </si>
+  <si>
+    <t>['72', '90+4']</t>
+  </si>
+  <si>
+    <t>['45', '53', '55']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -359,6 +374,24 @@
   </si>
   <si>
     <t>['5', '57']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['20', '27']</t>
+  </si>
+  <si>
+    <t>['34']</t>
   </si>
 </sst>
 </file>
@@ -720,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK25"/>
+  <dimension ref="A1:BK32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -964,7 +997,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1346,7 +1379,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1433,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT4">
         <v>2</v>
@@ -1728,7 +1761,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1815,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT6">
         <v>2</v>
@@ -1919,7 +1952,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2009,7 +2042,7 @@
         <v>0.5</v>
       </c>
       <c r="AT7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2110,7 +2143,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2301,7 +2334,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2492,7 +2525,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2579,10 +2612,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2964,7 +2997,7 @@
         <v>1.5</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU12">
         <v>0.95</v>
@@ -3065,7 +3098,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3256,7 +3289,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3346,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="AT14">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3534,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT15">
         <v>1</v>
@@ -3728,7 +3761,7 @@
         <v>3</v>
       </c>
       <c r="AT16">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3829,7 +3862,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q17">
         <v>16</v>
@@ -3916,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT17">
         <v>0</v>
@@ -4020,7 +4053,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4211,7 +4244,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4402,7 +4435,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4975,7 +5008,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5444,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT25">
         <v>0</v>
@@ -5498,6 +5531,1343 @@
         <v>6</v>
       </c>
       <c r="BK25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>6469081</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45149.54166666666</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26" t="s">
+        <v>103</v>
+      </c>
+      <c r="P26" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q26">
+        <v>8</v>
+      </c>
+      <c r="R26">
+        <v>8</v>
+      </c>
+      <c r="S26">
+        <v>16</v>
+      </c>
+      <c r="T26">
+        <v>2.85</v>
+      </c>
+      <c r="U26">
+        <v>2.1</v>
+      </c>
+      <c r="V26">
+        <v>3.6</v>
+      </c>
+      <c r="W26">
+        <v>1.39</v>
+      </c>
+      <c r="X26">
+        <v>2.8</v>
+      </c>
+      <c r="Y26">
+        <v>2.8</v>
+      </c>
+      <c r="Z26">
+        <v>1.39</v>
+      </c>
+      <c r="AA26">
+        <v>6.95</v>
+      </c>
+      <c r="AB26">
+        <v>1.07</v>
+      </c>
+      <c r="AC26">
+        <v>2.26</v>
+      </c>
+      <c r="AD26">
+        <v>3.3</v>
+      </c>
+      <c r="AE26">
+        <v>3</v>
+      </c>
+      <c r="AF26">
+        <v>1.06</v>
+      </c>
+      <c r="AG26">
+        <v>8</v>
+      </c>
+      <c r="AH26">
+        <v>1.3</v>
+      </c>
+      <c r="AI26">
+        <v>3.3</v>
+      </c>
+      <c r="AJ26">
+        <v>1.93</v>
+      </c>
+      <c r="AK26">
+        <v>1.83</v>
+      </c>
+      <c r="AL26">
+        <v>1.72</v>
+      </c>
+      <c r="AM26">
+        <v>2.05</v>
+      </c>
+      <c r="AN26">
+        <v>1.3</v>
+      </c>
+      <c r="AO26">
+        <v>1.25</v>
+      </c>
+      <c r="AP26">
+        <v>1.63</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>3</v>
+      </c>
+      <c r="AS26">
+        <v>3</v>
+      </c>
+      <c r="AT26">
+        <v>1.5</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>1.36</v>
+      </c>
+      <c r="AW26">
+        <v>1.36</v>
+      </c>
+      <c r="AX26">
+        <v>1.98</v>
+      </c>
+      <c r="AY26">
+        <v>7</v>
+      </c>
+      <c r="AZ26">
+        <v>2.16</v>
+      </c>
+      <c r="BA26">
+        <v>1.23</v>
+      </c>
+      <c r="BB26">
+        <v>1.41</v>
+      </c>
+      <c r="BC26">
+        <v>1.7</v>
+      </c>
+      <c r="BD26">
+        <v>2.17</v>
+      </c>
+      <c r="BE26">
+        <v>2.9</v>
+      </c>
+      <c r="BF26">
+        <v>9</v>
+      </c>
+      <c r="BG26">
+        <v>4</v>
+      </c>
+      <c r="BH26">
+        <v>2</v>
+      </c>
+      <c r="BI26">
+        <v>7</v>
+      </c>
+      <c r="BJ26">
+        <v>11</v>
+      </c>
+      <c r="BK26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>6469084</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45149.64583333334</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>104</v>
+      </c>
+      <c r="P27" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q27">
+        <v>8</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>10</v>
+      </c>
+      <c r="T27">
+        <v>4.2</v>
+      </c>
+      <c r="U27">
+        <v>1.95</v>
+      </c>
+      <c r="V27">
+        <v>2.88</v>
+      </c>
+      <c r="W27">
+        <v>1.52</v>
+      </c>
+      <c r="X27">
+        <v>2.58</v>
+      </c>
+      <c r="Y27">
+        <v>3.34</v>
+      </c>
+      <c r="Z27">
+        <v>1.3</v>
+      </c>
+      <c r="AA27">
+        <v>9.1</v>
+      </c>
+      <c r="AB27">
+        <v>1.04</v>
+      </c>
+      <c r="AC27">
+        <v>3.5</v>
+      </c>
+      <c r="AD27">
+        <v>3.3</v>
+      </c>
+      <c r="AE27">
+        <v>2.1</v>
+      </c>
+      <c r="AF27">
+        <v>1.08</v>
+      </c>
+      <c r="AG27">
+        <v>7</v>
+      </c>
+      <c r="AH27">
+        <v>1.47</v>
+      </c>
+      <c r="AI27">
+        <v>2.5</v>
+      </c>
+      <c r="AJ27">
+        <v>2.3</v>
+      </c>
+      <c r="AK27">
+        <v>1.57</v>
+      </c>
+      <c r="AL27">
+        <v>2.01</v>
+      </c>
+      <c r="AM27">
+        <v>1.76</v>
+      </c>
+      <c r="AN27">
+        <v>1.7</v>
+      </c>
+      <c r="AO27">
+        <v>1.35</v>
+      </c>
+      <c r="AP27">
+        <v>1.3</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>1.5</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>1.8</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>1.8</v>
+      </c>
+      <c r="AX27">
+        <v>2.52</v>
+      </c>
+      <c r="AY27">
+        <v>8</v>
+      </c>
+      <c r="AZ27">
+        <v>1.75</v>
+      </c>
+      <c r="BA27">
+        <v>1.29</v>
+      </c>
+      <c r="BB27">
+        <v>1.53</v>
+      </c>
+      <c r="BC27">
+        <v>2</v>
+      </c>
+      <c r="BD27">
+        <v>2.55</v>
+      </c>
+      <c r="BE27">
+        <v>3.5</v>
+      </c>
+      <c r="BF27">
+        <v>6</v>
+      </c>
+      <c r="BG27">
+        <v>3</v>
+      </c>
+      <c r="BH27">
+        <v>7</v>
+      </c>
+      <c r="BI27">
+        <v>3</v>
+      </c>
+      <c r="BJ27">
+        <v>13</v>
+      </c>
+      <c r="BK27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>6469087</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45150.41666666666</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28" t="s">
+        <v>105</v>
+      </c>
+      <c r="P28" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>6</v>
+      </c>
+      <c r="T28">
+        <v>3.1</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>3.4</v>
+      </c>
+      <c r="W28">
+        <v>1.44</v>
+      </c>
+      <c r="X28">
+        <v>2.6</v>
+      </c>
+      <c r="Y28">
+        <v>2.95</v>
+      </c>
+      <c r="Z28">
+        <v>1.35</v>
+      </c>
+      <c r="AA28">
+        <v>7.9</v>
+      </c>
+      <c r="AB28">
+        <v>1.05</v>
+      </c>
+      <c r="AC28">
+        <v>2.45</v>
+      </c>
+      <c r="AD28">
+        <v>2.9</v>
+      </c>
+      <c r="AE28">
+        <v>2.75</v>
+      </c>
+      <c r="AF28">
+        <v>1.07</v>
+      </c>
+      <c r="AG28">
+        <v>7.5</v>
+      </c>
+      <c r="AH28">
+        <v>1.36</v>
+      </c>
+      <c r="AI28">
+        <v>3</v>
+      </c>
+      <c r="AJ28">
+        <v>1.95</v>
+      </c>
+      <c r="AK28">
+        <v>1.75</v>
+      </c>
+      <c r="AL28">
+        <v>1.83</v>
+      </c>
+      <c r="AM28">
+        <v>1.9</v>
+      </c>
+      <c r="AN28">
+        <v>1.36</v>
+      </c>
+      <c r="AO28">
+        <v>1.28</v>
+      </c>
+      <c r="AP28">
+        <v>1.53</v>
+      </c>
+      <c r="AQ28">
+        <v>1</v>
+      </c>
+      <c r="AR28">
+        <v>1</v>
+      </c>
+      <c r="AS28">
+        <v>1.67</v>
+      </c>
+      <c r="AT28">
+        <v>0.5</v>
+      </c>
+      <c r="AU28">
+        <v>1.13</v>
+      </c>
+      <c r="AV28">
+        <v>0.96</v>
+      </c>
+      <c r="AW28">
+        <v>2.09</v>
+      </c>
+      <c r="AX28">
+        <v>2.1</v>
+      </c>
+      <c r="AY28">
+        <v>5.75</v>
+      </c>
+      <c r="AZ28">
+        <v>1.95</v>
+      </c>
+      <c r="BA28">
+        <v>1.22</v>
+      </c>
+      <c r="BB28">
+        <v>1.46</v>
+      </c>
+      <c r="BC28">
+        <v>1.8</v>
+      </c>
+      <c r="BD28">
+        <v>2.32</v>
+      </c>
+      <c r="BE28">
+        <v>3.15</v>
+      </c>
+      <c r="BF28">
+        <v>8</v>
+      </c>
+      <c r="BG28">
+        <v>5</v>
+      </c>
+      <c r="BH28">
+        <v>2</v>
+      </c>
+      <c r="BI28">
+        <v>6</v>
+      </c>
+      <c r="BJ28">
+        <v>10</v>
+      </c>
+      <c r="BK28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>6469082</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45150.52083333334</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>83</v>
+      </c>
+      <c r="P29" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q29">
+        <v>6</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>9</v>
+      </c>
+      <c r="T29">
+        <v>2.95</v>
+      </c>
+      <c r="U29">
+        <v>2.1</v>
+      </c>
+      <c r="V29">
+        <v>3.4</v>
+      </c>
+      <c r="W29">
+        <v>1.39</v>
+      </c>
+      <c r="X29">
+        <v>2.8</v>
+      </c>
+      <c r="Y29">
+        <v>2.85</v>
+      </c>
+      <c r="Z29">
+        <v>1.37</v>
+      </c>
+      <c r="AA29">
+        <v>6.95</v>
+      </c>
+      <c r="AB29">
+        <v>1.07</v>
+      </c>
+      <c r="AC29">
+        <v>2.45</v>
+      </c>
+      <c r="AD29">
+        <v>3.2</v>
+      </c>
+      <c r="AE29">
+        <v>2.64</v>
+      </c>
+      <c r="AF29">
+        <v>1.06</v>
+      </c>
+      <c r="AG29">
+        <v>8</v>
+      </c>
+      <c r="AH29">
+        <v>1.3</v>
+      </c>
+      <c r="AI29">
+        <v>3.3</v>
+      </c>
+      <c r="AJ29">
+        <v>1.85</v>
+      </c>
+      <c r="AK29">
+        <v>1.85</v>
+      </c>
+      <c r="AL29">
+        <v>1.75</v>
+      </c>
+      <c r="AM29">
+        <v>2</v>
+      </c>
+      <c r="AN29">
+        <v>1.35</v>
+      </c>
+      <c r="AO29">
+        <v>1.25</v>
+      </c>
+      <c r="AP29">
+        <v>1.57</v>
+      </c>
+      <c r="AQ29">
+        <v>1</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0.5</v>
+      </c>
+      <c r="AT29">
+        <v>1.5</v>
+      </c>
+      <c r="AU29">
+        <v>1.57</v>
+      </c>
+      <c r="AV29">
+        <v>1.21</v>
+      </c>
+      <c r="AW29">
+        <v>2.78</v>
+      </c>
+      <c r="AX29">
+        <v>1.94</v>
+      </c>
+      <c r="AY29">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ29">
+        <v>2.13</v>
+      </c>
+      <c r="BA29">
+        <v>1.18</v>
+      </c>
+      <c r="BB29">
+        <v>1.33</v>
+      </c>
+      <c r="BC29">
+        <v>1.6</v>
+      </c>
+      <c r="BD29">
+        <v>2.01</v>
+      </c>
+      <c r="BE29">
+        <v>2.58</v>
+      </c>
+      <c r="BF29">
+        <v>5</v>
+      </c>
+      <c r="BG29">
+        <v>4</v>
+      </c>
+      <c r="BH29">
+        <v>12</v>
+      </c>
+      <c r="BI29">
+        <v>7</v>
+      </c>
+      <c r="BJ29">
+        <v>17</v>
+      </c>
+      <c r="BK29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>6469089</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45150.625</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>106</v>
+      </c>
+      <c r="P30" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q30">
+        <v>2</v>
+      </c>
+      <c r="R30">
+        <v>5</v>
+      </c>
+      <c r="S30">
+        <v>7</v>
+      </c>
+      <c r="T30">
+        <v>2.5</v>
+      </c>
+      <c r="U30">
+        <v>2.15</v>
+      </c>
+      <c r="V30">
+        <v>4</v>
+      </c>
+      <c r="W30">
+        <v>1.37</v>
+      </c>
+      <c r="X30">
+        <v>2.9</v>
+      </c>
+      <c r="Y30">
+        <v>2.7</v>
+      </c>
+      <c r="Z30">
+        <v>1.41</v>
+      </c>
+      <c r="AA30">
+        <v>6.45</v>
+      </c>
+      <c r="AB30">
+        <v>1.09</v>
+      </c>
+      <c r="AC30">
+        <v>1.79</v>
+      </c>
+      <c r="AD30">
+        <v>3.45</v>
+      </c>
+      <c r="AE30">
+        <v>4</v>
+      </c>
+      <c r="AF30">
+        <v>1.06</v>
+      </c>
+      <c r="AG30">
+        <v>8</v>
+      </c>
+      <c r="AH30">
+        <v>1.28</v>
+      </c>
+      <c r="AI30">
+        <v>3.5</v>
+      </c>
+      <c r="AJ30">
+        <v>2</v>
+      </c>
+      <c r="AK30">
+        <v>1.88</v>
+      </c>
+      <c r="AL30">
+        <v>1.72</v>
+      </c>
+      <c r="AM30">
+        <v>2.05</v>
+      </c>
+      <c r="AN30">
+        <v>1.2</v>
+      </c>
+      <c r="AO30">
+        <v>1.22</v>
+      </c>
+      <c r="AP30">
+        <v>1.85</v>
+      </c>
+      <c r="AQ30">
+        <v>3</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>3</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>1.68</v>
+      </c>
+      <c r="AV30">
+        <v>1.1</v>
+      </c>
+      <c r="AW30">
+        <v>2.78</v>
+      </c>
+      <c r="AX30">
+        <v>1.73</v>
+      </c>
+      <c r="AY30">
+        <v>7.5</v>
+      </c>
+      <c r="AZ30">
+        <v>2.6</v>
+      </c>
+      <c r="BA30">
+        <v>1.22</v>
+      </c>
+      <c r="BB30">
+        <v>1.42</v>
+      </c>
+      <c r="BC30">
+        <v>1.73</v>
+      </c>
+      <c r="BD30">
+        <v>2.22</v>
+      </c>
+      <c r="BE30">
+        <v>2.95</v>
+      </c>
+      <c r="BF30">
+        <v>6</v>
+      </c>
+      <c r="BG30">
+        <v>5</v>
+      </c>
+      <c r="BH30">
+        <v>4</v>
+      </c>
+      <c r="BI30">
+        <v>4</v>
+      </c>
+      <c r="BJ30">
+        <v>10</v>
+      </c>
+      <c r="BK30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>6469085</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45151.41666666666</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31" t="s">
+        <v>83</v>
+      </c>
+      <c r="P31" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q31">
+        <v>8</v>
+      </c>
+      <c r="R31">
+        <v>5</v>
+      </c>
+      <c r="S31">
+        <v>13</v>
+      </c>
+      <c r="T31">
+        <v>2.3</v>
+      </c>
+      <c r="U31">
+        <v>2.25</v>
+      </c>
+      <c r="V31">
+        <v>4.33</v>
+      </c>
+      <c r="W31">
+        <v>1.35</v>
+      </c>
+      <c r="X31">
+        <v>2.95</v>
+      </c>
+      <c r="Y31">
+        <v>2.6</v>
+      </c>
+      <c r="Z31">
+        <v>1.44</v>
+      </c>
+      <c r="AA31">
+        <v>6</v>
+      </c>
+      <c r="AB31">
+        <v>1.1</v>
+      </c>
+      <c r="AC31">
+        <v>1.74</v>
+      </c>
+      <c r="AD31">
+        <v>3.45</v>
+      </c>
+      <c r="AE31">
+        <v>3.7</v>
+      </c>
+      <c r="AF31">
+        <v>1.01</v>
+      </c>
+      <c r="AG31">
+        <v>10.5</v>
+      </c>
+      <c r="AH31">
+        <v>1.2</v>
+      </c>
+      <c r="AI31">
+        <v>3.9</v>
+      </c>
+      <c r="AJ31">
+        <v>1.73</v>
+      </c>
+      <c r="AK31">
+        <v>1.93</v>
+      </c>
+      <c r="AL31">
+        <v>1.73</v>
+      </c>
+      <c r="AM31">
+        <v>2.07</v>
+      </c>
+      <c r="AN31">
+        <v>1.15</v>
+      </c>
+      <c r="AO31">
+        <v>1.27</v>
+      </c>
+      <c r="AP31">
+        <v>1.95</v>
+      </c>
+      <c r="AQ31">
+        <v>3</v>
+      </c>
+      <c r="AR31">
+        <v>1.5</v>
+      </c>
+      <c r="AS31">
+        <v>1.5</v>
+      </c>
+      <c r="AT31">
+        <v>2</v>
+      </c>
+      <c r="AU31">
+        <v>2.3</v>
+      </c>
+      <c r="AV31">
+        <v>1.8</v>
+      </c>
+      <c r="AW31">
+        <v>4.1</v>
+      </c>
+      <c r="AX31">
+        <v>1.35</v>
+      </c>
+      <c r="AY31">
+        <v>6.75</v>
+      </c>
+      <c r="AZ31">
+        <v>3.5</v>
+      </c>
+      <c r="BA31">
+        <v>1.17</v>
+      </c>
+      <c r="BB31">
+        <v>1.3</v>
+      </c>
+      <c r="BC31">
+        <v>1.54</v>
+      </c>
+      <c r="BD31">
+        <v>2</v>
+      </c>
+      <c r="BE31">
+        <v>2.52</v>
+      </c>
+      <c r="BF31">
+        <v>5</v>
+      </c>
+      <c r="BG31">
+        <v>4</v>
+      </c>
+      <c r="BH31">
+        <v>9</v>
+      </c>
+      <c r="BI31">
+        <v>9</v>
+      </c>
+      <c r="BJ31">
+        <v>14</v>
+      </c>
+      <c r="BK31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:63">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>6469086</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45151.52083333334</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>107</v>
+      </c>
+      <c r="P32" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q32">
+        <v>4</v>
+      </c>
+      <c r="R32">
+        <v>8</v>
+      </c>
+      <c r="S32">
+        <v>12</v>
+      </c>
+      <c r="T32">
+        <v>5</v>
+      </c>
+      <c r="U32">
+        <v>2.2</v>
+      </c>
+      <c r="V32">
+        <v>2.3</v>
+      </c>
+      <c r="W32">
+        <v>1.36</v>
+      </c>
+      <c r="X32">
+        <v>3</v>
+      </c>
+      <c r="Y32">
+        <v>2.75</v>
+      </c>
+      <c r="Z32">
+        <v>1.4</v>
+      </c>
+      <c r="AA32">
+        <v>8</v>
+      </c>
+      <c r="AB32">
+        <v>1.08</v>
+      </c>
+      <c r="AC32">
+        <v>5.2</v>
+      </c>
+      <c r="AD32">
+        <v>3.7</v>
+      </c>
+      <c r="AE32">
+        <v>1.57</v>
+      </c>
+      <c r="AF32">
+        <v>1.02</v>
+      </c>
+      <c r="AG32">
+        <v>9.5</v>
+      </c>
+      <c r="AH32">
+        <v>1.22</v>
+      </c>
+      <c r="AI32">
+        <v>3.7</v>
+      </c>
+      <c r="AJ32">
+        <v>1.91</v>
+      </c>
+      <c r="AK32">
+        <v>1.95</v>
+      </c>
+      <c r="AL32">
+        <v>1.75</v>
+      </c>
+      <c r="AM32">
+        <v>1.93</v>
+      </c>
+      <c r="AN32">
+        <v>1.9</v>
+      </c>
+      <c r="AO32">
+        <v>1.28</v>
+      </c>
+      <c r="AP32">
+        <v>1.16</v>
+      </c>
+      <c r="AQ32">
+        <v>3</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>2</v>
+      </c>
+      <c r="AT32">
+        <v>1</v>
+      </c>
+      <c r="AU32">
+        <v>0.98</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0.98</v>
+      </c>
+      <c r="AX32">
+        <v>3.5</v>
+      </c>
+      <c r="AY32">
+        <v>8</v>
+      </c>
+      <c r="AZ32">
+        <v>1.44</v>
+      </c>
+      <c r="BA32">
+        <v>1.27</v>
+      </c>
+      <c r="BB32">
+        <v>1.46</v>
+      </c>
+      <c r="BC32">
+        <v>1.85</v>
+      </c>
+      <c r="BD32">
+        <v>2.4</v>
+      </c>
+      <c r="BE32">
+        <v>3.2</v>
+      </c>
+      <c r="BF32">
+        <v>2</v>
+      </c>
+      <c r="BG32">
+        <v>5</v>
+      </c>
+      <c r="BH32">
+        <v>4</v>
+      </c>
+      <c r="BI32">
+        <v>5</v>
+      </c>
+      <c r="BJ32">
+        <v>6</v>
+      </c>
+      <c r="BK32">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -6662,22 +6662,22 @@
         <v>2.52</v>
       </c>
       <c r="BF31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG31">
         <v>4</v>
       </c>
       <c r="BH31">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BI31">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BJ31">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BK31">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:63">
@@ -6856,19 +6856,19 @@
         <v>2</v>
       </c>
       <c r="BG32">
+        <v>6</v>
+      </c>
+      <c r="BH32">
         <v>5</v>
       </c>
-      <c r="BH32">
-        <v>4</v>
-      </c>
       <c r="BI32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BK32">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="128">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -340,6 +340,9 @@
     <t>['26']</t>
   </si>
   <si>
+    <t>['16', '45+11']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -392,6 +395,9 @@
   </si>
   <si>
     <t>['34']</t>
+  </si>
+  <si>
+    <t>['21', '86']</t>
   </si>
 </sst>
 </file>
@@ -753,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK32"/>
+  <dimension ref="A1:BK33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -997,7 +1003,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1084,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT2">
         <v>3</v>
@@ -1379,7 +1385,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1761,7 +1767,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1952,7 +1958,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2143,7 +2149,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2233,7 +2239,7 @@
         <v>2</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2334,7 +2340,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2525,7 +2531,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2994,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT12">
         <v>1.5</v>
@@ -3098,7 +3104,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3289,7 +3295,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3862,7 +3868,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q17">
         <v>16</v>
@@ -4053,7 +4059,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4244,7 +4250,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4435,7 +4441,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5008,7 +5014,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5289,7 +5295,7 @@
         <v>3</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU24">
         <v>2.24</v>
@@ -5581,7 +5587,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -5772,7 +5778,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -5963,7 +5969,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6154,7 +6160,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6536,7 +6542,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -6727,7 +6733,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -6869,6 +6875,197 @@
       </c>
       <c r="BK32">
         <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:63">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>6469088</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45152.58333333334</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33" t="s">
+        <v>108</v>
+      </c>
+      <c r="P33" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+      <c r="R33">
+        <v>4</v>
+      </c>
+      <c r="S33">
+        <v>8</v>
+      </c>
+      <c r="T33">
+        <v>2.6</v>
+      </c>
+      <c r="U33">
+        <v>2.05</v>
+      </c>
+      <c r="V33">
+        <v>5</v>
+      </c>
+      <c r="W33">
+        <v>1.5</v>
+      </c>
+      <c r="X33">
+        <v>2.5</v>
+      </c>
+      <c r="Y33">
+        <v>3.4</v>
+      </c>
+      <c r="Z33">
+        <v>1.3</v>
+      </c>
+      <c r="AA33">
+        <v>10</v>
+      </c>
+      <c r="AB33">
+        <v>1.06</v>
+      </c>
+      <c r="AC33">
+        <v>1.9</v>
+      </c>
+      <c r="AD33">
+        <v>3.01</v>
+      </c>
+      <c r="AE33">
+        <v>3.69</v>
+      </c>
+      <c r="AF33">
+        <v>1.08</v>
+      </c>
+      <c r="AG33">
+        <v>7</v>
+      </c>
+      <c r="AH33">
+        <v>1.4</v>
+      </c>
+      <c r="AI33">
+        <v>2.8</v>
+      </c>
+      <c r="AJ33">
+        <v>2.15</v>
+      </c>
+      <c r="AK33">
+        <v>1.57</v>
+      </c>
+      <c r="AL33">
+        <v>2.05</v>
+      </c>
+      <c r="AM33">
+        <v>1.7</v>
+      </c>
+      <c r="AN33">
+        <v>1.2</v>
+      </c>
+      <c r="AO33">
+        <v>1.33</v>
+      </c>
+      <c r="AP33">
+        <v>1.85</v>
+      </c>
+      <c r="AQ33">
+        <v>1.5</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>1.33</v>
+      </c>
+      <c r="AT33">
+        <v>0.33</v>
+      </c>
+      <c r="AU33">
+        <v>1.24</v>
+      </c>
+      <c r="AV33">
+        <v>0.87</v>
+      </c>
+      <c r="AW33">
+        <v>2.11</v>
+      </c>
+      <c r="AX33">
+        <v>1.55</v>
+      </c>
+      <c r="AY33">
+        <v>7.5</v>
+      </c>
+      <c r="AZ33">
+        <v>3.1</v>
+      </c>
+      <c r="BA33">
+        <v>1.27</v>
+      </c>
+      <c r="BB33">
+        <v>1.45</v>
+      </c>
+      <c r="BC33">
+        <v>1.8</v>
+      </c>
+      <c r="BD33">
+        <v>2.32</v>
+      </c>
+      <c r="BE33">
+        <v>3.1</v>
+      </c>
+      <c r="BF33">
+        <v>5</v>
+      </c>
+      <c r="BG33">
+        <v>3</v>
+      </c>
+      <c r="BH33">
+        <v>1</v>
+      </c>
+      <c r="BI33">
+        <v>5</v>
+      </c>
+      <c r="BJ33">
+        <v>6</v>
+      </c>
+      <c r="BK33">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="132">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -343,6 +343,12 @@
     <t>['16', '45+11']</t>
   </si>
   <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['4', '22', '90+6']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -398,6 +404,12 @@
   </si>
   <si>
     <t>['21', '86']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['20', '48']</t>
   </si>
 </sst>
 </file>
@@ -759,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK33"/>
+  <dimension ref="A1:BK36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1003,7 +1015,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1385,7 +1397,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1767,7 +1779,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1958,7 +1970,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2045,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT7">
         <v>2</v>
@@ -2149,7 +2161,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2236,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT8">
         <v>0.33</v>
@@ -2340,7 +2352,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2531,7 +2543,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3104,7 +3116,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3295,7 +3307,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3868,7 +3880,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q17">
         <v>16</v>
@@ -3958,7 +3970,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4059,7 +4071,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4149,7 +4161,7 @@
         <v>3</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU18">
         <v>1.62</v>
@@ -4250,7 +4262,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4441,7 +4453,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4531,7 +4543,7 @@
         <v>2</v>
       </c>
       <c r="AT20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU20">
         <v>1.63</v>
@@ -4719,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="AS21">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT21">
         <v>1</v>
@@ -4910,7 +4922,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT22">
         <v>2</v>
@@ -5014,7 +5026,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5101,7 +5113,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT23">
         <v>2</v>
@@ -5587,7 +5599,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -5778,7 +5790,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -5969,7 +5981,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6160,7 +6172,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6542,7 +6554,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -6733,7 +6745,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -6924,7 +6936,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7066,6 +7078,579 @@
       </c>
       <c r="BK33">
         <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:63">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>6469092</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45156.54166666666</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>109</v>
+      </c>
+      <c r="P34" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q34">
+        <v>7</v>
+      </c>
+      <c r="R34">
+        <v>7</v>
+      </c>
+      <c r="S34">
+        <v>14</v>
+      </c>
+      <c r="T34">
+        <v>2.1</v>
+      </c>
+      <c r="U34">
+        <v>2.35</v>
+      </c>
+      <c r="V34">
+        <v>5</v>
+      </c>
+      <c r="W34">
+        <v>1.3</v>
+      </c>
+      <c r="X34">
+        <v>3.25</v>
+      </c>
+      <c r="Y34">
+        <v>2.4</v>
+      </c>
+      <c r="Z34">
+        <v>1.5</v>
+      </c>
+      <c r="AA34">
+        <v>5.75</v>
+      </c>
+      <c r="AB34">
+        <v>1.12</v>
+      </c>
+      <c r="AC34">
+        <v>1.63</v>
+      </c>
+      <c r="AD34">
+        <v>4</v>
+      </c>
+      <c r="AE34">
+        <v>4.8</v>
+      </c>
+      <c r="AF34">
+        <v>1.04</v>
+      </c>
+      <c r="AG34">
+        <v>10</v>
+      </c>
+      <c r="AH34">
+        <v>1.2</v>
+      </c>
+      <c r="AI34">
+        <v>3.96</v>
+      </c>
+      <c r="AJ34">
+        <v>1.7</v>
+      </c>
+      <c r="AK34">
+        <v>2</v>
+      </c>
+      <c r="AL34">
+        <v>1.7</v>
+      </c>
+      <c r="AM34">
+        <v>2.05</v>
+      </c>
+      <c r="AN34">
+        <v>1.18</v>
+      </c>
+      <c r="AO34">
+        <v>1.25</v>
+      </c>
+      <c r="AP34">
+        <v>2.25</v>
+      </c>
+      <c r="AQ34">
+        <v>2</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>2.33</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>1.88</v>
+      </c>
+      <c r="AV34">
+        <v>1.56</v>
+      </c>
+      <c r="AW34">
+        <v>3.44</v>
+      </c>
+      <c r="AX34">
+        <v>1.34</v>
+      </c>
+      <c r="AY34">
+        <v>9.5</v>
+      </c>
+      <c r="AZ34">
+        <v>4.07</v>
+      </c>
+      <c r="BA34">
+        <v>1.21</v>
+      </c>
+      <c r="BB34">
+        <v>1.38</v>
+      </c>
+      <c r="BC34">
+        <v>1.7</v>
+      </c>
+      <c r="BD34">
+        <v>2.13</v>
+      </c>
+      <c r="BE34">
+        <v>2.8</v>
+      </c>
+      <c r="BF34">
+        <v>9</v>
+      </c>
+      <c r="BG34">
+        <v>5</v>
+      </c>
+      <c r="BH34">
+        <v>3</v>
+      </c>
+      <c r="BI34">
+        <v>7</v>
+      </c>
+      <c r="BJ34">
+        <v>12</v>
+      </c>
+      <c r="BK34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:63">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>6469091</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45156.64583333334</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>94</v>
+      </c>
+      <c r="P35" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q35">
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <v>8</v>
+      </c>
+      <c r="S35">
+        <v>12</v>
+      </c>
+      <c r="T35">
+        <v>2.8</v>
+      </c>
+      <c r="U35">
+        <v>2.1</v>
+      </c>
+      <c r="V35">
+        <v>3.6</v>
+      </c>
+      <c r="W35">
+        <v>1.38</v>
+      </c>
+      <c r="X35">
+        <v>2.85</v>
+      </c>
+      <c r="Y35">
+        <v>2.75</v>
+      </c>
+      <c r="Z35">
+        <v>1.4</v>
+      </c>
+      <c r="AA35">
+        <v>6.95</v>
+      </c>
+      <c r="AB35">
+        <v>1.07</v>
+      </c>
+      <c r="AC35">
+        <v>2.13</v>
+      </c>
+      <c r="AD35">
+        <v>3.35</v>
+      </c>
+      <c r="AE35">
+        <v>3.3</v>
+      </c>
+      <c r="AF35">
+        <v>1.06</v>
+      </c>
+      <c r="AG35">
+        <v>8</v>
+      </c>
+      <c r="AH35">
+        <v>1.28</v>
+      </c>
+      <c r="AI35">
+        <v>3.5</v>
+      </c>
+      <c r="AJ35">
+        <v>1.85</v>
+      </c>
+      <c r="AK35">
+        <v>1.85</v>
+      </c>
+      <c r="AL35">
+        <v>1.72</v>
+      </c>
+      <c r="AM35">
+        <v>2.05</v>
+      </c>
+      <c r="AN35">
+        <v>1.3</v>
+      </c>
+      <c r="AO35">
+        <v>1.25</v>
+      </c>
+      <c r="AP35">
+        <v>1.66</v>
+      </c>
+      <c r="AQ35">
+        <v>0.5</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0.67</v>
+      </c>
+      <c r="AT35">
+        <v>0.33</v>
+      </c>
+      <c r="AU35">
+        <v>0.88</v>
+      </c>
+      <c r="AV35">
+        <v>0.98</v>
+      </c>
+      <c r="AW35">
+        <v>1.86</v>
+      </c>
+      <c r="AX35">
+        <v>1.82</v>
+      </c>
+      <c r="AY35">
+        <v>8</v>
+      </c>
+      <c r="AZ35">
+        <v>2.39</v>
+      </c>
+      <c r="BA35">
+        <v>1.16</v>
+      </c>
+      <c r="BB35">
+        <v>1.38</v>
+      </c>
+      <c r="BC35">
+        <v>1.65</v>
+      </c>
+      <c r="BD35">
+        <v>2.1</v>
+      </c>
+      <c r="BE35">
+        <v>2.77</v>
+      </c>
+      <c r="BF35">
+        <v>4</v>
+      </c>
+      <c r="BG35">
+        <v>5</v>
+      </c>
+      <c r="BH35">
+        <v>2</v>
+      </c>
+      <c r="BI35">
+        <v>7</v>
+      </c>
+      <c r="BJ35">
+        <v>6</v>
+      </c>
+      <c r="BK35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:63">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>6469094</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45157.41666666666</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>5</v>
+      </c>
+      <c r="O36" t="s">
+        <v>110</v>
+      </c>
+      <c r="P36" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q36">
+        <v>8</v>
+      </c>
+      <c r="R36">
+        <v>6</v>
+      </c>
+      <c r="S36">
+        <v>14</v>
+      </c>
+      <c r="T36">
+        <v>2.6</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
+        <v>4.5</v>
+      </c>
+      <c r="W36">
+        <v>1.47</v>
+      </c>
+      <c r="X36">
+        <v>2.5</v>
+      </c>
+      <c r="Y36">
+        <v>3.25</v>
+      </c>
+      <c r="Z36">
+        <v>1.3</v>
+      </c>
+      <c r="AA36">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB36">
+        <v>1.04</v>
+      </c>
+      <c r="AC36">
+        <v>2.05</v>
+      </c>
+      <c r="AD36">
+        <v>3.25</v>
+      </c>
+      <c r="AE36">
+        <v>3.3</v>
+      </c>
+      <c r="AF36">
+        <v>1.08</v>
+      </c>
+      <c r="AG36">
+        <v>7</v>
+      </c>
+      <c r="AH36">
+        <v>1.4</v>
+      </c>
+      <c r="AI36">
+        <v>2.8</v>
+      </c>
+      <c r="AJ36">
+        <v>2.25</v>
+      </c>
+      <c r="AK36">
+        <v>1.57</v>
+      </c>
+      <c r="AL36">
+        <v>2</v>
+      </c>
+      <c r="AM36">
+        <v>1.75</v>
+      </c>
+      <c r="AN36">
+        <v>1.18</v>
+      </c>
+      <c r="AO36">
+        <v>1.25</v>
+      </c>
+      <c r="AP36">
+        <v>1.85</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>1</v>
+      </c>
+      <c r="AS36">
+        <v>1.5</v>
+      </c>
+      <c r="AT36">
+        <v>0.5</v>
+      </c>
+      <c r="AU36">
+        <v>2.26</v>
+      </c>
+      <c r="AV36">
+        <v>1.78</v>
+      </c>
+      <c r="AW36">
+        <v>4.04</v>
+      </c>
+      <c r="AX36">
+        <v>1.55</v>
+      </c>
+      <c r="AY36">
+        <v>8</v>
+      </c>
+      <c r="AZ36">
+        <v>3.02</v>
+      </c>
+      <c r="BA36">
+        <v>1.29</v>
+      </c>
+      <c r="BB36">
+        <v>1.56</v>
+      </c>
+      <c r="BC36">
+        <v>2</v>
+      </c>
+      <c r="BD36">
+        <v>2.62</v>
+      </c>
+      <c r="BE36">
+        <v>2.95</v>
+      </c>
+      <c r="BF36">
+        <v>4</v>
+      </c>
+      <c r="BG36">
+        <v>6</v>
+      </c>
+      <c r="BH36">
+        <v>5</v>
+      </c>
+      <c r="BI36">
+        <v>9</v>
+      </c>
+      <c r="BJ36">
+        <v>9</v>
+      </c>
+      <c r="BK36">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="137">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,6 +349,15 @@
     <t>['4', '22', '90+6']</t>
   </si>
   <si>
+    <t>['45+2', '63']</t>
+  </si>
+  <si>
+    <t>['90+7']</t>
+  </si>
+  <si>
+    <t>['37', '73', '90+2']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -410,6 +419,12 @@
   </si>
   <si>
     <t>['20', '48']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['51']</t>
   </si>
 </sst>
 </file>
@@ -771,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK36"/>
+  <dimension ref="A1:BK41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1015,7 +1030,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1105,7 +1120,7 @@
         <v>1.33</v>
       </c>
       <c r="AT2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1397,7 +1412,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1675,10 +1690,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1779,7 +1794,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1869,7 +1884,7 @@
         <v>1.5</v>
       </c>
       <c r="AT6">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1970,7 +1985,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2161,7 +2176,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2352,7 +2367,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2543,7 +2558,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2821,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT11">
         <v>0</v>
@@ -3116,7 +3131,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3307,7 +3322,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3394,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT14">
         <v>1.5</v>
@@ -3880,7 +3895,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q17">
         <v>16</v>
@@ -4071,7 +4086,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4262,7 +4277,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4453,7 +4468,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4540,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT20">
         <v>0.5</v>
@@ -5026,7 +5041,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5116,7 +5131,7 @@
         <v>2.33</v>
       </c>
       <c r="AT23">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU23">
         <v>1.73</v>
@@ -5599,7 +5614,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -5790,7 +5805,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -5981,7 +5996,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6172,7 +6187,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6554,7 +6569,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -6745,7 +6760,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -6936,7 +6951,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7318,7 +7333,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7509,7 +7524,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -7635,22 +7650,977 @@
         <v>2.95</v>
       </c>
       <c r="BF36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BH36">
         <v>5</v>
       </c>
       <c r="BI36">
+        <v>4</v>
+      </c>
+      <c r="BJ36">
+        <v>11</v>
+      </c>
+      <c r="BK36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:63">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>6469095</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45157.52083333334</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37" t="s">
+        <v>111</v>
+      </c>
+      <c r="P37" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q37">
+        <v>6</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
+        <v>8</v>
+      </c>
+      <c r="T37">
+        <v>1.85</v>
+      </c>
+      <c r="U37">
+        <v>2.4</v>
+      </c>
+      <c r="V37">
+        <v>6.5</v>
+      </c>
+      <c r="W37">
+        <v>1.3</v>
+      </c>
+      <c r="X37">
+        <v>3.25</v>
+      </c>
+      <c r="Y37">
+        <v>2.4</v>
+      </c>
+      <c r="Z37">
+        <v>1.51</v>
+      </c>
+      <c r="AA37">
+        <v>5.45</v>
+      </c>
+      <c r="AB37">
+        <v>1.12</v>
+      </c>
+      <c r="AC37">
+        <v>1.38</v>
+      </c>
+      <c r="AD37">
+        <v>4.6</v>
+      </c>
+      <c r="AE37">
+        <v>6.99</v>
+      </c>
+      <c r="AF37">
+        <v>1.04</v>
+      </c>
+      <c r="AG37">
+        <v>15.75</v>
+      </c>
+      <c r="AH37">
+        <v>1.23</v>
+      </c>
+      <c r="AI37">
+        <v>4.25</v>
+      </c>
+      <c r="AJ37">
+        <v>1.67</v>
+      </c>
+      <c r="AK37">
+        <v>2.07</v>
+      </c>
+      <c r="AL37">
+        <v>1.9</v>
+      </c>
+      <c r="AM37">
+        <v>1.8</v>
+      </c>
+      <c r="AN37">
+        <v>1.11</v>
+      </c>
+      <c r="AO37">
+        <v>1.19</v>
+      </c>
+      <c r="AP37">
+        <v>2.85</v>
+      </c>
+      <c r="AQ37">
+        <v>2</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
+        <v>2.33</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>1.7</v>
+      </c>
+      <c r="AV37">
+        <v>1.44</v>
+      </c>
+      <c r="AW37">
+        <v>3.14</v>
+      </c>
+      <c r="AX37">
+        <v>1.1</v>
+      </c>
+      <c r="AY37">
+        <v>13</v>
+      </c>
+      <c r="AZ37">
+        <v>8.75</v>
+      </c>
+      <c r="BA37">
+        <v>1.22</v>
+      </c>
+      <c r="BB37">
+        <v>1.37</v>
+      </c>
+      <c r="BC37">
+        <v>1.62</v>
+      </c>
+      <c r="BD37">
+        <v>2.1</v>
+      </c>
+      <c r="BE37">
+        <v>2.85</v>
+      </c>
+      <c r="BF37">
+        <v>6</v>
+      </c>
+      <c r="BG37">
+        <v>3</v>
+      </c>
+      <c r="BH37">
+        <v>8</v>
+      </c>
+      <c r="BI37">
+        <v>2</v>
+      </c>
+      <c r="BJ37">
+        <v>14</v>
+      </c>
+      <c r="BK37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:63">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>6469096</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45157.625</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s">
+        <v>83</v>
+      </c>
+      <c r="P38" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q38">
+        <v>7</v>
+      </c>
+      <c r="R38">
+        <v>7</v>
+      </c>
+      <c r="S38">
+        <v>14</v>
+      </c>
+      <c r="T38">
+        <v>3.2</v>
+      </c>
+      <c r="U38">
+        <v>2.05</v>
+      </c>
+      <c r="V38">
+        <v>3.2</v>
+      </c>
+      <c r="W38">
+        <v>1.41</v>
+      </c>
+      <c r="X38">
+        <v>2.7</v>
+      </c>
+      <c r="Y38">
+        <v>2.95</v>
+      </c>
+      <c r="Z38">
+        <v>1.35</v>
+      </c>
+      <c r="AA38">
+        <v>7.4</v>
+      </c>
+      <c r="AB38">
+        <v>1.06</v>
+      </c>
+      <c r="AC38">
+        <v>2.6</v>
+      </c>
+      <c r="AD38">
+        <v>3.3</v>
+      </c>
+      <c r="AE38">
+        <v>2.52</v>
+      </c>
+      <c r="AF38">
+        <v>1.05</v>
+      </c>
+      <c r="AG38">
+        <v>8.5</v>
+      </c>
+      <c r="AH38">
+        <v>1.33</v>
+      </c>
+      <c r="AI38">
+        <v>3.2</v>
+      </c>
+      <c r="AJ38">
+        <v>1.99</v>
+      </c>
+      <c r="AK38">
+        <v>1.73</v>
+      </c>
+      <c r="AL38">
+        <v>1.75</v>
+      </c>
+      <c r="AM38">
+        <v>2</v>
+      </c>
+      <c r="AN38">
+        <v>1.47</v>
+      </c>
+      <c r="AO38">
+        <v>1.25</v>
+      </c>
+      <c r="AP38">
+        <v>1.47</v>
+      </c>
+      <c r="AQ38">
+        <v>3</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>1.5</v>
+      </c>
+      <c r="AT38">
+        <v>1.5</v>
+      </c>
+      <c r="AU38">
+        <v>1.69</v>
+      </c>
+      <c r="AV38">
+        <v>0.82</v>
+      </c>
+      <c r="AW38">
+        <v>2.51</v>
+      </c>
+      <c r="AX38">
+        <v>1.83</v>
+      </c>
+      <c r="AY38">
+        <v>8</v>
+      </c>
+      <c r="AZ38">
+        <v>2.2</v>
+      </c>
+      <c r="BA38">
+        <v>1.3</v>
+      </c>
+      <c r="BB38">
+        <v>1.53</v>
+      </c>
+      <c r="BC38">
+        <v>1.87</v>
+      </c>
+      <c r="BD38">
+        <v>2</v>
+      </c>
+      <c r="BE38">
+        <v>3.15</v>
+      </c>
+      <c r="BF38">
+        <v>4</v>
+      </c>
+      <c r="BG38">
+        <v>5</v>
+      </c>
+      <c r="BH38">
+        <v>5</v>
+      </c>
+      <c r="BI38">
+        <v>4</v>
+      </c>
+      <c r="BJ38">
         <v>9</v>
       </c>
-      <c r="BJ36">
+      <c r="BK38">
         <v>9</v>
       </c>
-      <c r="BK36">
+    </row>
+    <row r="39" spans="1:63">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>6469097</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45158.41666666666</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>112</v>
+      </c>
+      <c r="P39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q39">
+        <v>7</v>
+      </c>
+      <c r="R39">
+        <v>4</v>
+      </c>
+      <c r="S39">
+        <v>11</v>
+      </c>
+      <c r="T39">
+        <v>3.8</v>
+      </c>
+      <c r="U39">
+        <v>2.2</v>
+      </c>
+      <c r="V39">
+        <v>2.6</v>
+      </c>
+      <c r="W39">
+        <v>1.36</v>
+      </c>
+      <c r="X39">
+        <v>2.9</v>
+      </c>
+      <c r="Y39">
+        <v>2.7</v>
+      </c>
+      <c r="Z39">
+        <v>1.41</v>
+      </c>
+      <c r="AA39">
+        <v>6.45</v>
+      </c>
+      <c r="AB39">
+        <v>1.09</v>
+      </c>
+      <c r="AC39">
+        <v>3.55</v>
+      </c>
+      <c r="AD39">
+        <v>3.65</v>
+      </c>
+      <c r="AE39">
+        <v>2.01</v>
+      </c>
+      <c r="AF39">
+        <v>1.05</v>
+      </c>
+      <c r="AG39">
+        <v>8.5</v>
+      </c>
+      <c r="AH39">
+        <v>1.29</v>
+      </c>
+      <c r="AI39">
+        <v>3.5</v>
+      </c>
+      <c r="AJ39">
+        <v>2</v>
+      </c>
+      <c r="AK39">
+        <v>1.86</v>
+      </c>
+      <c r="AL39">
+        <v>1.6</v>
+      </c>
+      <c r="AM39">
+        <v>2.2</v>
+      </c>
+      <c r="AN39">
+        <v>1.73</v>
+      </c>
+      <c r="AO39">
+        <v>1.3</v>
+      </c>
+      <c r="AP39">
+        <v>1.29</v>
+      </c>
+      <c r="AQ39">
+        <v>3</v>
+      </c>
+      <c r="AR39">
+        <v>3</v>
+      </c>
+      <c r="AS39">
+        <v>3</v>
+      </c>
+      <c r="AT39">
+        <v>1.5</v>
+      </c>
+      <c r="AU39">
+        <v>1.16</v>
+      </c>
+      <c r="AV39">
+        <v>1.46</v>
+      </c>
+      <c r="AW39">
+        <v>2.62</v>
+      </c>
+      <c r="AX39">
+        <v>2.33</v>
+      </c>
+      <c r="AY39">
+        <v>8</v>
+      </c>
+      <c r="AZ39">
+        <v>1.82</v>
+      </c>
+      <c r="BA39">
+        <v>1.18</v>
+      </c>
+      <c r="BB39">
+        <v>1.35</v>
+      </c>
+      <c r="BC39">
+        <v>1.62</v>
+      </c>
+      <c r="BD39">
+        <v>2.03</v>
+      </c>
+      <c r="BE39">
+        <v>2.65</v>
+      </c>
+      <c r="BF39">
+        <v>6</v>
+      </c>
+      <c r="BG39">
+        <v>5</v>
+      </c>
+      <c r="BH39">
+        <v>5</v>
+      </c>
+      <c r="BI39">
+        <v>7</v>
+      </c>
+      <c r="BJ39">
+        <v>11</v>
+      </c>
+      <c r="BK39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:63">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>6469098</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45158.52083333334</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>4</v>
+      </c>
+      <c r="O40" t="s">
+        <v>113</v>
+      </c>
+      <c r="P40" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>5</v>
+      </c>
+      <c r="S40">
+        <v>6</v>
+      </c>
+      <c r="T40">
+        <v>4.33</v>
+      </c>
+      <c r="U40">
+        <v>2.2</v>
+      </c>
+      <c r="V40">
+        <v>2.35</v>
+      </c>
+      <c r="W40">
+        <v>1.37</v>
+      </c>
+      <c r="X40">
+        <v>2.9</v>
+      </c>
+      <c r="Y40">
+        <v>2.7</v>
+      </c>
+      <c r="Z40">
+        <v>1.41</v>
+      </c>
+      <c r="AA40">
+        <v>6.45</v>
+      </c>
+      <c r="AB40">
+        <v>1.09</v>
+      </c>
+      <c r="AC40">
+        <v>3.89</v>
+      </c>
+      <c r="AD40">
+        <v>3.43</v>
+      </c>
+      <c r="AE40">
+        <v>1.72</v>
+      </c>
+      <c r="AF40">
+        <v>1.02</v>
+      </c>
+      <c r="AG40">
+        <v>9.5</v>
+      </c>
+      <c r="AH40">
+        <v>1.28</v>
+      </c>
+      <c r="AI40">
+        <v>3.5</v>
+      </c>
+      <c r="AJ40">
+        <v>1.95</v>
+      </c>
+      <c r="AK40">
+        <v>1.7</v>
+      </c>
+      <c r="AL40">
+        <v>1.75</v>
+      </c>
+      <c r="AM40">
+        <v>2</v>
+      </c>
+      <c r="AN40">
+        <v>1.91</v>
+      </c>
+      <c r="AO40">
+        <v>1.29</v>
+      </c>
+      <c r="AP40">
+        <v>1.22</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>2</v>
+      </c>
+      <c r="AS40">
+        <v>1.5</v>
+      </c>
+      <c r="AT40">
+        <v>1.33</v>
+      </c>
+      <c r="AU40">
+        <v>2.09</v>
+      </c>
+      <c r="AV40">
+        <v>1.22</v>
+      </c>
+      <c r="AW40">
+        <v>3.31</v>
+      </c>
+      <c r="AX40">
+        <v>2.67</v>
+      </c>
+      <c r="AY40">
+        <v>8</v>
+      </c>
+      <c r="AZ40">
+        <v>1.64</v>
+      </c>
+      <c r="BA40">
+        <v>1.28</v>
+      </c>
+      <c r="BB40">
+        <v>1.65</v>
+      </c>
+      <c r="BC40">
+        <v>1.86</v>
+      </c>
+      <c r="BD40">
+        <v>2.36</v>
+      </c>
+      <c r="BE40">
+        <v>3.5</v>
+      </c>
+      <c r="BF40">
+        <v>0</v>
+      </c>
+      <c r="BG40">
+        <v>4</v>
+      </c>
+      <c r="BH40">
+        <v>8</v>
+      </c>
+      <c r="BI40">
+        <v>4</v>
+      </c>
+      <c r="BJ40">
+        <v>8</v>
+      </c>
+      <c r="BK40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:63">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>6469093</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45158.625</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" t="s">
+        <v>73</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>107</v>
+      </c>
+      <c r="P41" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q41">
+        <v>9</v>
+      </c>
+      <c r="R41">
+        <v>2</v>
+      </c>
+      <c r="S41">
+        <v>11</v>
+      </c>
+      <c r="T41">
+        <v>1.91</v>
+      </c>
+      <c r="U41">
+        <v>2.4</v>
+      </c>
+      <c r="V41">
+        <v>5.5</v>
+      </c>
+      <c r="W41">
+        <v>1.3</v>
+      </c>
+      <c r="X41">
+        <v>3.34</v>
+      </c>
+      <c r="Y41">
+        <v>2.39</v>
+      </c>
+      <c r="Z41">
+        <v>1.54</v>
+      </c>
+      <c r="AA41">
+        <v>5.55</v>
+      </c>
+      <c r="AB41">
+        <v>1.13</v>
+      </c>
+      <c r="AC41">
+        <v>1.39</v>
+      </c>
+      <c r="AD41">
+        <v>4.26</v>
+      </c>
+      <c r="AE41">
+        <v>5.68</v>
+      </c>
+      <c r="AF41">
+        <v>1.03</v>
+      </c>
+      <c r="AG41">
+        <v>17.25</v>
+      </c>
+      <c r="AH41">
+        <v>1.18</v>
+      </c>
+      <c r="AI41">
+        <v>4.5</v>
+      </c>
+      <c r="AJ41">
+        <v>1.61</v>
+      </c>
+      <c r="AK41">
+        <v>2.05</v>
+      </c>
+      <c r="AL41">
+        <v>1.75</v>
+      </c>
+      <c r="AM41">
+        <v>2</v>
+      </c>
+      <c r="AN41">
+        <v>1.09</v>
+      </c>
+      <c r="AO41">
+        <v>1.16</v>
+      </c>
+      <c r="AP41">
+        <v>2.55</v>
+      </c>
+      <c r="AQ41">
+        <v>3</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>3</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>2.18</v>
+      </c>
+      <c r="AV41">
+        <v>2.1</v>
+      </c>
+      <c r="AW41">
+        <v>4.28</v>
+      </c>
+      <c r="AX41">
+        <v>1.31</v>
+      </c>
+      <c r="AY41">
+        <v>10</v>
+      </c>
+      <c r="AZ41">
+        <v>4.11</v>
+      </c>
+      <c r="BA41">
+        <v>1.2</v>
+      </c>
+      <c r="BB41">
+        <v>1.35</v>
+      </c>
+      <c r="BC41">
+        <v>1.62</v>
+      </c>
+      <c r="BD41">
+        <v>2.07</v>
+      </c>
+      <c r="BE41">
+        <v>2.75</v>
+      </c>
+      <c r="BF41">
+        <v>6</v>
+      </c>
+      <c r="BG41">
+        <v>2</v>
+      </c>
+      <c r="BH41">
+        <v>9</v>
+      </c>
+      <c r="BI41">
+        <v>4</v>
+      </c>
+      <c r="BJ41">
         <v>15</v>
+      </c>
+      <c r="BK41">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="139">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -358,6 +358,9 @@
     <t>['37', '73', '90+2']</t>
   </si>
   <si>
+    <t>['44']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -425,6 +428,9 @@
   </si>
   <si>
     <t>['51']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
   </si>
 </sst>
 </file>
@@ -786,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK41"/>
+  <dimension ref="A1:BK42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1030,7 +1036,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1412,7 +1418,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1794,7 +1800,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1985,7 +1991,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2176,7 +2182,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2367,7 +2373,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2558,7 +2564,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3131,7 +3137,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3322,7 +3328,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3895,7 +3901,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17">
         <v>16</v>
@@ -4086,7 +4092,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4277,7 +4283,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4468,7 +4474,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5041,7 +5047,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5614,7 +5620,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -5701,7 +5707,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT26">
         <v>1.5</v>
@@ -5805,7 +5811,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -5996,7 +6002,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6187,7 +6193,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6569,7 +6575,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -6760,7 +6766,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -6951,7 +6957,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7333,7 +7339,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7524,7 +7530,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -7906,7 +7912,7 @@
         <v>83</v>
       </c>
       <c r="P38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8288,7 +8294,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -8414,22 +8420,22 @@
         <v>3.5</v>
       </c>
       <c r="BF40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG40">
         <v>4</v>
       </c>
       <c r="BH40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ40">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BK40">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:63">
@@ -8621,6 +8627,197 @@
       </c>
       <c r="BK41">
         <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:63">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>6469090</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45159.58333333334</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42" t="s">
+        <v>114</v>
+      </c>
+      <c r="P42" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q42">
+        <v>6</v>
+      </c>
+      <c r="R42">
+        <v>11</v>
+      </c>
+      <c r="S42">
+        <v>17</v>
+      </c>
+      <c r="T42">
+        <v>3.75</v>
+      </c>
+      <c r="U42">
+        <v>1.95</v>
+      </c>
+      <c r="V42">
+        <v>3.2</v>
+      </c>
+      <c r="W42">
+        <v>1.53</v>
+      </c>
+      <c r="X42">
+        <v>2.38</v>
+      </c>
+      <c r="Y42">
+        <v>3.5</v>
+      </c>
+      <c r="Z42">
+        <v>1.29</v>
+      </c>
+      <c r="AA42">
+        <v>11</v>
+      </c>
+      <c r="AB42">
+        <v>1.05</v>
+      </c>
+      <c r="AC42">
+        <v>2.3</v>
+      </c>
+      <c r="AD42">
+        <v>2.9</v>
+      </c>
+      <c r="AE42">
+        <v>3.1</v>
+      </c>
+      <c r="AF42">
+        <v>1.09</v>
+      </c>
+      <c r="AG42">
+        <v>8.5</v>
+      </c>
+      <c r="AH42">
+        <v>1.43</v>
+      </c>
+      <c r="AI42">
+        <v>2.88</v>
+      </c>
+      <c r="AJ42">
+        <v>2.25</v>
+      </c>
+      <c r="AK42">
+        <v>1.53</v>
+      </c>
+      <c r="AL42">
+        <v>2</v>
+      </c>
+      <c r="AM42">
+        <v>1.75</v>
+      </c>
+      <c r="AN42">
+        <v>1.64</v>
+      </c>
+      <c r="AO42">
+        <v>1.33</v>
+      </c>
+      <c r="AP42">
+        <v>1.35</v>
+      </c>
+      <c r="AQ42">
+        <v>3</v>
+      </c>
+      <c r="AR42">
+        <v>1</v>
+      </c>
+      <c r="AS42">
+        <v>2</v>
+      </c>
+      <c r="AT42">
+        <v>1</v>
+      </c>
+      <c r="AU42">
+        <v>1.83</v>
+      </c>
+      <c r="AV42">
+        <v>1.41</v>
+      </c>
+      <c r="AW42">
+        <v>3.24</v>
+      </c>
+      <c r="AX42">
+        <v>1.95</v>
+      </c>
+      <c r="AY42">
+        <v>8</v>
+      </c>
+      <c r="AZ42">
+        <v>2.05</v>
+      </c>
+      <c r="BA42">
+        <v>1.25</v>
+      </c>
+      <c r="BB42">
+        <v>1.47</v>
+      </c>
+      <c r="BC42">
+        <v>1.77</v>
+      </c>
+      <c r="BD42">
+        <v>2.38</v>
+      </c>
+      <c r="BE42">
+        <v>3.25</v>
+      </c>
+      <c r="BF42">
+        <v>5</v>
+      </c>
+      <c r="BG42">
+        <v>7</v>
+      </c>
+      <c r="BH42">
+        <v>7</v>
+      </c>
+      <c r="BI42">
+        <v>4</v>
+      </c>
+      <c r="BJ42">
+        <v>12</v>
+      </c>
+      <c r="BK42">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="146">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,18 @@
     <t>['44']</t>
   </si>
   <si>
+    <t>['22', '45+6']</t>
+  </si>
+  <si>
+    <t>['25', '73']</t>
+  </si>
+  <si>
+    <t>['15', '22']</t>
+  </si>
+  <si>
+    <t>['7', '17', '45', '64']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -431,6 +443,15 @@
   </si>
   <si>
     <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['12', '80']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['38']</t>
   </si>
 </sst>
 </file>
@@ -792,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK42"/>
+  <dimension ref="A1:BK49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1036,7 +1057,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1123,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT2">
         <v>1.5</v>
@@ -1418,7 +1439,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1505,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
+        <v>2</v>
+      </c>
+      <c r="AT4">
         <v>1.67</v>
-      </c>
-      <c r="AT4">
-        <v>2</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1800,7 +1821,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1887,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT6">
         <v>1.33</v>
@@ -1991,7 +2012,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2081,7 +2102,7 @@
         <v>0.67</v>
       </c>
       <c r="AT7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2182,7 +2203,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2272,7 +2293,7 @@
         <v>2.33</v>
       </c>
       <c r="AT8">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2373,7 +2394,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2460,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT9">
         <v>0</v>
@@ -2564,7 +2585,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2651,10 +2672,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT10">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3033,10 +3054,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT12">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>0.95</v>
@@ -3137,7 +3158,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3328,7 +3349,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3418,7 +3439,7 @@
         <v>1.5</v>
       </c>
       <c r="AT14">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3606,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT15">
         <v>1</v>
@@ -3800,7 +3821,7 @@
         <v>3</v>
       </c>
       <c r="AT16">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3901,7 +3922,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q17">
         <v>16</v>
@@ -4092,7 +4113,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4283,7 +4304,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4474,7 +4495,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4946,7 +4967,7 @@
         <v>1.5</v>
       </c>
       <c r="AT22">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5047,7 +5068,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5328,7 +5349,7 @@
         <v>3</v>
       </c>
       <c r="AT24">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU24">
         <v>2.24</v>
@@ -5516,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT25">
         <v>0</v>
@@ -5620,7 +5641,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -5710,7 +5731,7 @@
         <v>2</v>
       </c>
       <c r="AT26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -5811,7 +5832,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -5898,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT27">
         <v>0</v>
@@ -6002,7 +6023,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6089,10 +6110,10 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT28">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU28">
         <v>1.13</v>
@@ -6193,7 +6214,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6280,10 +6301,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU29">
         <v>1.57</v>
@@ -6471,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT30">
         <v>0</v>
@@ -6575,7 +6596,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -6665,7 +6686,7 @@
         <v>1.5</v>
       </c>
       <c r="AT31">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU31">
         <v>2.3</v>
@@ -6766,7 +6787,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -6853,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT32">
         <v>1</v>
@@ -6957,7 +6978,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7044,10 +7065,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT33">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU33">
         <v>1.24</v>
@@ -7339,7 +7360,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7530,7 +7551,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -7912,7 +7933,7 @@
         <v>83</v>
       </c>
       <c r="P38" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8294,7 +8315,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -8676,7 +8697,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -8818,6 +8839,1343 @@
       </c>
       <c r="BK42">
         <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:63">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>6469105</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45163.54166666666</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43" t="s">
+        <v>115</v>
+      </c>
+      <c r="P43" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>9</v>
+      </c>
+      <c r="S43">
+        <v>10</v>
+      </c>
+      <c r="T43">
+        <v>3.75</v>
+      </c>
+      <c r="U43">
+        <v>2.05</v>
+      </c>
+      <c r="V43">
+        <v>2.7</v>
+      </c>
+      <c r="W43">
+        <v>1.4</v>
+      </c>
+      <c r="X43">
+        <v>2.75</v>
+      </c>
+      <c r="Y43">
+        <v>2.85</v>
+      </c>
+      <c r="Z43">
+        <v>1.37</v>
+      </c>
+      <c r="AA43">
+        <v>6.95</v>
+      </c>
+      <c r="AB43">
+        <v>1.07</v>
+      </c>
+      <c r="AC43">
+        <v>2.83</v>
+      </c>
+      <c r="AD43">
+        <v>3.15</v>
+      </c>
+      <c r="AE43">
+        <v>2.43</v>
+      </c>
+      <c r="AF43">
+        <v>1.06</v>
+      </c>
+      <c r="AG43">
+        <v>8</v>
+      </c>
+      <c r="AH43">
+        <v>1.33</v>
+      </c>
+      <c r="AI43">
+        <v>3.2</v>
+      </c>
+      <c r="AJ43">
+        <v>2.12</v>
+      </c>
+      <c r="AK43">
+        <v>1.63</v>
+      </c>
+      <c r="AL43">
+        <v>1.78</v>
+      </c>
+      <c r="AM43">
+        <v>1.95</v>
+      </c>
+      <c r="AN43">
+        <v>1.65</v>
+      </c>
+      <c r="AO43">
+        <v>1.3</v>
+      </c>
+      <c r="AP43">
+        <v>1.33</v>
+      </c>
+      <c r="AQ43">
+        <v>1.67</v>
+      </c>
+      <c r="AR43">
+        <v>2</v>
+      </c>
+      <c r="AS43">
+        <v>2</v>
+      </c>
+      <c r="AT43">
+        <v>1.5</v>
+      </c>
+      <c r="AU43">
+        <v>1.27</v>
+      </c>
+      <c r="AV43">
+        <v>1.62</v>
+      </c>
+      <c r="AW43">
+        <v>2.89</v>
+      </c>
+      <c r="AX43">
+        <v>2.54</v>
+      </c>
+      <c r="AY43">
+        <v>8</v>
+      </c>
+      <c r="AZ43">
+        <v>1.69</v>
+      </c>
+      <c r="BA43">
+        <v>1.2</v>
+      </c>
+      <c r="BB43">
+        <v>1.4</v>
+      </c>
+      <c r="BC43">
+        <v>1.75</v>
+      </c>
+      <c r="BD43">
+        <v>2.16</v>
+      </c>
+      <c r="BE43">
+        <v>2.79</v>
+      </c>
+      <c r="BF43">
+        <v>3</v>
+      </c>
+      <c r="BG43">
+        <v>2</v>
+      </c>
+      <c r="BH43">
+        <v>3</v>
+      </c>
+      <c r="BI43">
+        <v>6</v>
+      </c>
+      <c r="BJ43">
+        <v>6</v>
+      </c>
+      <c r="BK43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:63">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>6469107</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45163.64583333334</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" t="s">
+        <v>76</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
+        <v>83</v>
+      </c>
+      <c r="P44" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q44">
+        <v>9</v>
+      </c>
+      <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>11</v>
+      </c>
+      <c r="T44">
+        <v>2.7</v>
+      </c>
+      <c r="U44">
+        <v>2.1</v>
+      </c>
+      <c r="V44">
+        <v>3.75</v>
+      </c>
+      <c r="W44">
+        <v>1.39</v>
+      </c>
+      <c r="X44">
+        <v>2.8</v>
+      </c>
+      <c r="Y44">
+        <v>2.75</v>
+      </c>
+      <c r="Z44">
+        <v>1.4</v>
+      </c>
+      <c r="AA44">
+        <v>6.95</v>
+      </c>
+      <c r="AB44">
+        <v>1.07</v>
+      </c>
+      <c r="AC44">
+        <v>2.09</v>
+      </c>
+      <c r="AD44">
+        <v>3.35</v>
+      </c>
+      <c r="AE44">
+        <v>3.35</v>
+      </c>
+      <c r="AF44">
+        <v>1.06</v>
+      </c>
+      <c r="AG44">
+        <v>8</v>
+      </c>
+      <c r="AH44">
+        <v>1.28</v>
+      </c>
+      <c r="AI44">
+        <v>3.5</v>
+      </c>
+      <c r="AJ44">
+        <v>1.87</v>
+      </c>
+      <c r="AK44">
+        <v>1.81</v>
+      </c>
+      <c r="AL44">
+        <v>1.72</v>
+      </c>
+      <c r="AM44">
+        <v>2.05</v>
+      </c>
+      <c r="AN44">
+        <v>1.29</v>
+      </c>
+      <c r="AO44">
+        <v>1.3</v>
+      </c>
+      <c r="AP44">
+        <v>1.73</v>
+      </c>
+      <c r="AQ44">
+        <v>3</v>
+      </c>
+      <c r="AR44">
+        <v>0.5</v>
+      </c>
+      <c r="AS44">
+        <v>2</v>
+      </c>
+      <c r="AT44">
+        <v>1.33</v>
+      </c>
+      <c r="AU44">
+        <v>1.54</v>
+      </c>
+      <c r="AV44">
+        <v>1.15</v>
+      </c>
+      <c r="AW44">
+        <v>2.69</v>
+      </c>
+      <c r="AX44">
+        <v>1.69</v>
+      </c>
+      <c r="AY44">
+        <v>8</v>
+      </c>
+      <c r="AZ44">
+        <v>2.54</v>
+      </c>
+      <c r="BA44">
+        <v>1.21</v>
+      </c>
+      <c r="BB44">
+        <v>1.41</v>
+      </c>
+      <c r="BC44">
+        <v>1.8</v>
+      </c>
+      <c r="BD44">
+        <v>2.2</v>
+      </c>
+      <c r="BE44">
+        <v>2.9</v>
+      </c>
+      <c r="BF44">
+        <v>2</v>
+      </c>
+      <c r="BG44">
+        <v>6</v>
+      </c>
+      <c r="BH44">
+        <v>10</v>
+      </c>
+      <c r="BI44">
+        <v>7</v>
+      </c>
+      <c r="BJ44">
+        <v>12</v>
+      </c>
+      <c r="BK44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:63">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>6469106</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45164.41666666666</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" t="s">
+        <v>82</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>83</v>
+      </c>
+      <c r="P45" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q45">
+        <v>3</v>
+      </c>
+      <c r="R45">
+        <v>8</v>
+      </c>
+      <c r="S45">
+        <v>11</v>
+      </c>
+      <c r="T45">
+        <v>3</v>
+      </c>
+      <c r="U45">
+        <v>2.05</v>
+      </c>
+      <c r="V45">
+        <v>3.4</v>
+      </c>
+      <c r="W45">
+        <v>1.41</v>
+      </c>
+      <c r="X45">
+        <v>2.7</v>
+      </c>
+      <c r="Y45">
+        <v>2.85</v>
+      </c>
+      <c r="Z45">
+        <v>1.37</v>
+      </c>
+      <c r="AA45">
+        <v>6.95</v>
+      </c>
+      <c r="AB45">
+        <v>1.07</v>
+      </c>
+      <c r="AC45">
+        <v>2.4</v>
+      </c>
+      <c r="AD45">
+        <v>3.2</v>
+      </c>
+      <c r="AE45">
+        <v>2.69</v>
+      </c>
+      <c r="AF45">
+        <v>1.06</v>
+      </c>
+      <c r="AG45">
+        <v>8</v>
+      </c>
+      <c r="AH45">
+        <v>1.3</v>
+      </c>
+      <c r="AI45">
+        <v>3.3</v>
+      </c>
+      <c r="AJ45">
+        <v>1.96</v>
+      </c>
+      <c r="AK45">
+        <v>1.92</v>
+      </c>
+      <c r="AL45">
+        <v>1.75</v>
+      </c>
+      <c r="AM45">
+        <v>2</v>
+      </c>
+      <c r="AN45">
+        <v>1.3</v>
+      </c>
+      <c r="AO45">
+        <v>1.25</v>
+      </c>
+      <c r="AP45">
+        <v>1.55</v>
+      </c>
+      <c r="AQ45">
+        <v>1.33</v>
+      </c>
+      <c r="AR45">
+        <v>2</v>
+      </c>
+      <c r="AS45">
+        <v>1.25</v>
+      </c>
+      <c r="AT45">
+        <v>1.67</v>
+      </c>
+      <c r="AU45">
+        <v>1.2</v>
+      </c>
+      <c r="AV45">
+        <v>1.67</v>
+      </c>
+      <c r="AW45">
+        <v>2.87</v>
+      </c>
+      <c r="AX45">
+        <v>1.75</v>
+      </c>
+      <c r="AY45">
+        <v>8</v>
+      </c>
+      <c r="AZ45">
+        <v>2.52</v>
+      </c>
+      <c r="BA45">
+        <v>1.22</v>
+      </c>
+      <c r="BB45">
+        <v>1.45</v>
+      </c>
+      <c r="BC45">
+        <v>1.8</v>
+      </c>
+      <c r="BD45">
+        <v>2.32</v>
+      </c>
+      <c r="BE45">
+        <v>3.1</v>
+      </c>
+      <c r="BF45">
+        <v>0</v>
+      </c>
+      <c r="BG45">
+        <v>2</v>
+      </c>
+      <c r="BH45">
+        <v>2</v>
+      </c>
+      <c r="BI45">
+        <v>5</v>
+      </c>
+      <c r="BJ45">
+        <v>2</v>
+      </c>
+      <c r="BK45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:63">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>6469104</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45164.52083333334</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>81</v>
+      </c>
+      <c r="H46" t="s">
+        <v>79</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="O46" t="s">
+        <v>116</v>
+      </c>
+      <c r="P46" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q46">
+        <v>3</v>
+      </c>
+      <c r="R46">
+        <v>3</v>
+      </c>
+      <c r="S46">
+        <v>6</v>
+      </c>
+      <c r="T46">
+        <v>3.1</v>
+      </c>
+      <c r="U46">
+        <v>2.05</v>
+      </c>
+      <c r="V46">
+        <v>3.3</v>
+      </c>
+      <c r="W46">
+        <v>1.43</v>
+      </c>
+      <c r="X46">
+        <v>2.65</v>
+      </c>
+      <c r="Y46">
+        <v>2.95</v>
+      </c>
+      <c r="Z46">
+        <v>1.35</v>
+      </c>
+      <c r="AA46">
+        <v>7.4</v>
+      </c>
+      <c r="AB46">
+        <v>1.06</v>
+      </c>
+      <c r="AC46">
+        <v>2.45</v>
+      </c>
+      <c r="AD46">
+        <v>3.2</v>
+      </c>
+      <c r="AE46">
+        <v>2.65</v>
+      </c>
+      <c r="AF46">
+        <v>1.07</v>
+      </c>
+      <c r="AG46">
+        <v>7.5</v>
+      </c>
+      <c r="AH46">
+        <v>1.33</v>
+      </c>
+      <c r="AI46">
+        <v>3.1</v>
+      </c>
+      <c r="AJ46">
+        <v>2.1</v>
+      </c>
+      <c r="AK46">
+        <v>1.61</v>
+      </c>
+      <c r="AL46">
+        <v>1.78</v>
+      </c>
+      <c r="AM46">
+        <v>1.95</v>
+      </c>
+      <c r="AN46">
+        <v>1.38</v>
+      </c>
+      <c r="AO46">
+        <v>1.28</v>
+      </c>
+      <c r="AP46">
+        <v>1.5</v>
+      </c>
+      <c r="AQ46">
+        <v>2</v>
+      </c>
+      <c r="AR46">
+        <v>0</v>
+      </c>
+      <c r="AS46">
+        <v>2.33</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0.99</v>
+      </c>
+      <c r="AV46">
+        <v>1.19</v>
+      </c>
+      <c r="AW46">
+        <v>2.18</v>
+      </c>
+      <c r="AX46">
+        <v>2.44</v>
+      </c>
+      <c r="AY46">
+        <v>8</v>
+      </c>
+      <c r="AZ46">
+        <v>1.75</v>
+      </c>
+      <c r="BA46">
+        <v>1.24</v>
+      </c>
+      <c r="BB46">
+        <v>1.47</v>
+      </c>
+      <c r="BC46">
+        <v>1.83</v>
+      </c>
+      <c r="BD46">
+        <v>2.33</v>
+      </c>
+      <c r="BE46">
+        <v>3.1</v>
+      </c>
+      <c r="BF46">
+        <v>4</v>
+      </c>
+      <c r="BG46">
+        <v>4</v>
+      </c>
+      <c r="BH46">
+        <v>10</v>
+      </c>
+      <c r="BI46">
+        <v>6</v>
+      </c>
+      <c r="BJ46">
+        <v>14</v>
+      </c>
+      <c r="BK46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:63">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>6469102</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45164.625</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>83</v>
+      </c>
+      <c r="P47" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q47">
+        <v>6</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>8</v>
+      </c>
+      <c r="T47">
+        <v>2.15</v>
+      </c>
+      <c r="U47">
+        <v>2.25</v>
+      </c>
+      <c r="V47">
+        <v>5</v>
+      </c>
+      <c r="W47">
+        <v>1.36</v>
+      </c>
+      <c r="X47">
+        <v>2.9</v>
+      </c>
+      <c r="Y47">
+        <v>2.65</v>
+      </c>
+      <c r="Z47">
+        <v>1.42</v>
+      </c>
+      <c r="AA47">
+        <v>6.45</v>
+      </c>
+      <c r="AB47">
+        <v>1.09</v>
+      </c>
+      <c r="AC47">
+        <v>1.53</v>
+      </c>
+      <c r="AD47">
+        <v>3.8</v>
+      </c>
+      <c r="AE47">
+        <v>5.75</v>
+      </c>
+      <c r="AF47">
+        <v>1.05</v>
+      </c>
+      <c r="AG47">
+        <v>9</v>
+      </c>
+      <c r="AH47">
+        <v>1.25</v>
+      </c>
+      <c r="AI47">
+        <v>3.6</v>
+      </c>
+      <c r="AJ47">
+        <v>1.74</v>
+      </c>
+      <c r="AK47">
+        <v>1.86</v>
+      </c>
+      <c r="AL47">
+        <v>1.87</v>
+      </c>
+      <c r="AM47">
+        <v>1.87</v>
+      </c>
+      <c r="AN47">
+        <v>1.1</v>
+      </c>
+      <c r="AO47">
+        <v>1.18</v>
+      </c>
+      <c r="AP47">
+        <v>2.35</v>
+      </c>
+      <c r="AQ47">
+        <v>1.5</v>
+      </c>
+      <c r="AR47">
+        <v>0.33</v>
+      </c>
+      <c r="AS47">
+        <v>1.33</v>
+      </c>
+      <c r="AT47">
+        <v>0.5</v>
+      </c>
+      <c r="AU47">
+        <v>1.82</v>
+      </c>
+      <c r="AV47">
+        <v>0.92</v>
+      </c>
+      <c r="AW47">
+        <v>2.74</v>
+      </c>
+      <c r="AX47">
+        <v>1.3</v>
+      </c>
+      <c r="AY47">
+        <v>9.5</v>
+      </c>
+      <c r="AZ47">
+        <v>4.44</v>
+      </c>
+      <c r="BA47">
+        <v>1.3</v>
+      </c>
+      <c r="BB47">
+        <v>1.56</v>
+      </c>
+      <c r="BC47">
+        <v>2</v>
+      </c>
+      <c r="BD47">
+        <v>2.63</v>
+      </c>
+      <c r="BE47">
+        <v>3.65</v>
+      </c>
+      <c r="BF47">
+        <v>8</v>
+      </c>
+      <c r="BG47">
+        <v>2</v>
+      </c>
+      <c r="BH47">
+        <v>5</v>
+      </c>
+      <c r="BI47">
+        <v>2</v>
+      </c>
+      <c r="BJ47">
+        <v>13</v>
+      </c>
+      <c r="BK47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:63">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>6469100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45165.41666666666</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48" t="s">
+        <v>117</v>
+      </c>
+      <c r="P48" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q48">
+        <v>4</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>6</v>
+      </c>
+      <c r="T48">
+        <v>3.4</v>
+      </c>
+      <c r="U48">
+        <v>2.1</v>
+      </c>
+      <c r="V48">
+        <v>3.2</v>
+      </c>
+      <c r="W48">
+        <v>1.4</v>
+      </c>
+      <c r="X48">
+        <v>2.75</v>
+      </c>
+      <c r="Y48">
+        <v>3</v>
+      </c>
+      <c r="Z48">
+        <v>1.36</v>
+      </c>
+      <c r="AA48">
+        <v>8</v>
+      </c>
+      <c r="AB48">
+        <v>1.08</v>
+      </c>
+      <c r="AC48">
+        <v>2.7</v>
+      </c>
+      <c r="AD48">
+        <v>3.1</v>
+      </c>
+      <c r="AE48">
+        <v>2.55</v>
+      </c>
+      <c r="AF48">
+        <v>1.05</v>
+      </c>
+      <c r="AG48">
+        <v>8.5</v>
+      </c>
+      <c r="AH48">
+        <v>1.26</v>
+      </c>
+      <c r="AI48">
+        <v>3.4</v>
+      </c>
+      <c r="AJ48">
+        <v>1.83</v>
+      </c>
+      <c r="AK48">
+        <v>1.9</v>
+      </c>
+      <c r="AL48">
+        <v>1.75</v>
+      </c>
+      <c r="AM48">
+        <v>2</v>
+      </c>
+      <c r="AN48">
+        <v>1.42</v>
+      </c>
+      <c r="AO48">
+        <v>1.25</v>
+      </c>
+      <c r="AP48">
+        <v>1.47</v>
+      </c>
+      <c r="AQ48">
+        <v>0.5</v>
+      </c>
+      <c r="AR48">
+        <v>1.5</v>
+      </c>
+      <c r="AS48">
+        <v>1.33</v>
+      </c>
+      <c r="AT48">
+        <v>1</v>
+      </c>
+      <c r="AU48">
+        <v>1.78</v>
+      </c>
+      <c r="AV48">
+        <v>1.56</v>
+      </c>
+      <c r="AW48">
+        <v>3.34</v>
+      </c>
+      <c r="AX48">
+        <v>1.9</v>
+      </c>
+      <c r="AY48">
+        <v>9.4</v>
+      </c>
+      <c r="AZ48">
+        <v>2.17</v>
+      </c>
+      <c r="BA48">
+        <v>1.2</v>
+      </c>
+      <c r="BB48">
+        <v>1.29</v>
+      </c>
+      <c r="BC48">
+        <v>1.72</v>
+      </c>
+      <c r="BD48">
+        <v>1.82</v>
+      </c>
+      <c r="BE48">
+        <v>2.3</v>
+      </c>
+      <c r="BF48">
+        <v>7</v>
+      </c>
+      <c r="BG48">
+        <v>4</v>
+      </c>
+      <c r="BH48">
+        <v>10</v>
+      </c>
+      <c r="BI48">
+        <v>3</v>
+      </c>
+      <c r="BJ48">
+        <v>17</v>
+      </c>
+      <c r="BK48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:63">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>6469099</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45165.52083333334</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" t="s">
+        <v>70</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>5</v>
+      </c>
+      <c r="O49" t="s">
+        <v>118</v>
+      </c>
+      <c r="P49" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q49">
+        <v>7</v>
+      </c>
+      <c r="R49">
+        <v>3</v>
+      </c>
+      <c r="S49">
+        <v>10</v>
+      </c>
+      <c r="T49">
+        <v>3</v>
+      </c>
+      <c r="U49">
+        <v>2.1</v>
+      </c>
+      <c r="V49">
+        <v>3.75</v>
+      </c>
+      <c r="W49">
+        <v>1.4</v>
+      </c>
+      <c r="X49">
+        <v>2.75</v>
+      </c>
+      <c r="Y49">
+        <v>3</v>
+      </c>
+      <c r="Z49">
+        <v>1.36</v>
+      </c>
+      <c r="AA49">
+        <v>9</v>
+      </c>
+      <c r="AB49">
+        <v>1.07</v>
+      </c>
+      <c r="AC49">
+        <v>2.29</v>
+      </c>
+      <c r="AD49">
+        <v>3.4</v>
+      </c>
+      <c r="AE49">
+        <v>3.09</v>
+      </c>
+      <c r="AF49">
+        <v>1.07</v>
+      </c>
+      <c r="AG49">
+        <v>6.5</v>
+      </c>
+      <c r="AH49">
+        <v>1.34</v>
+      </c>
+      <c r="AI49">
+        <v>3.17</v>
+      </c>
+      <c r="AJ49">
+        <v>1.97</v>
+      </c>
+      <c r="AK49">
+        <v>1.73</v>
+      </c>
+      <c r="AL49">
+        <v>1.8</v>
+      </c>
+      <c r="AM49">
+        <v>1.95</v>
+      </c>
+      <c r="AN49">
+        <v>1.28</v>
+      </c>
+      <c r="AO49">
+        <v>1.25</v>
+      </c>
+      <c r="AP49">
+        <v>1.63</v>
+      </c>
+      <c r="AQ49">
+        <v>3</v>
+      </c>
+      <c r="AR49">
+        <v>1.5</v>
+      </c>
+      <c r="AS49">
+        <v>3</v>
+      </c>
+      <c r="AT49">
+        <v>1</v>
+      </c>
+      <c r="AU49">
+        <v>1.4</v>
+      </c>
+      <c r="AV49">
+        <v>1.26</v>
+      </c>
+      <c r="AW49">
+        <v>2.66</v>
+      </c>
+      <c r="AX49">
+        <v>1.96</v>
+      </c>
+      <c r="AY49">
+        <v>9.1</v>
+      </c>
+      <c r="AZ49">
+        <v>2.11</v>
+      </c>
+      <c r="BA49">
+        <v>1.22</v>
+      </c>
+      <c r="BB49">
+        <v>1.29</v>
+      </c>
+      <c r="BC49">
+        <v>1.74</v>
+      </c>
+      <c r="BD49">
+        <v>1.9</v>
+      </c>
+      <c r="BE49">
+        <v>2.45</v>
+      </c>
+      <c r="BF49">
+        <v>3</v>
+      </c>
+      <c r="BG49">
+        <v>0</v>
+      </c>
+      <c r="BH49">
+        <v>4</v>
+      </c>
+      <c r="BI49">
+        <v>4</v>
+      </c>
+      <c r="BJ49">
+        <v>7</v>
+      </c>
+      <c r="BK49">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -9587,19 +9587,19 @@
         <v>3.1</v>
       </c>
       <c r="BF46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG46">
         <v>4</v>
       </c>
       <c r="BH46">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BI46">
         <v>6</v>
       </c>
       <c r="BJ46">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BK46">
         <v>10</v>
@@ -9778,22 +9778,22 @@
         <v>3.65</v>
       </c>
       <c r="BF47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG47">
         <v>2</v>
       </c>
       <c r="BH47">
+        <v>9</v>
+      </c>
+      <c r="BI47">
+        <v>3</v>
+      </c>
+      <c r="BJ47">
+        <v>16</v>
+      </c>
+      <c r="BK47">
         <v>5</v>
-      </c>
-      <c r="BI47">
-        <v>2</v>
-      </c>
-      <c r="BJ47">
-        <v>13</v>
-      </c>
-      <c r="BK47">
-        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:63">
@@ -9975,13 +9975,13 @@
         <v>4</v>
       </c>
       <c r="BH48">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BI48">
         <v>3</v>
       </c>
       <c r="BJ48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BK48">
         <v>7</v>
@@ -10037,13 +10037,13 @@
         <v>145</v>
       </c>
       <c r="Q49">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S49">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T49">
         <v>3</v>
@@ -10160,22 +10160,22 @@
         <v>2.45</v>
       </c>
       <c r="BF49">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BG49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI49">
         <v>4</v>
       </c>
       <c r="BJ49">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BK49">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="147">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -452,6 +452,9 @@
   </si>
   <si>
     <t>['38']</t>
+  </si>
+  <si>
+    <t>['21', '85']</t>
   </si>
 </sst>
 </file>
@@ -813,7 +816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK49"/>
+  <dimension ref="A1:BK50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2675,7 +2678,7 @@
         <v>1.33</v>
       </c>
       <c r="AT10">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -4009,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT17">
         <v>0.33</v>
@@ -6113,7 +6116,7 @@
         <v>2</v>
       </c>
       <c r="AT28">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU28">
         <v>1.13</v>
@@ -6683,7 +6686,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT31">
         <v>1.5</v>
@@ -9169,7 +9172,7 @@
         <v>2</v>
       </c>
       <c r="AT44">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU44">
         <v>1.54</v>
@@ -10176,6 +10179,197 @@
       </c>
       <c r="BK49">
         <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:63">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>6469237</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45168.5625</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50" t="s">
+        <v>83</v>
+      </c>
+      <c r="P50" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q50">
+        <v>4</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>5</v>
+      </c>
+      <c r="T50">
+        <v>2.15</v>
+      </c>
+      <c r="U50">
+        <v>2.2</v>
+      </c>
+      <c r="V50">
+        <v>4.75</v>
+      </c>
+      <c r="W50">
+        <v>1.34</v>
+      </c>
+      <c r="X50">
+        <v>3</v>
+      </c>
+      <c r="Y50">
+        <v>2.55</v>
+      </c>
+      <c r="Z50">
+        <v>1.46</v>
+      </c>
+      <c r="AA50">
+        <v>6.25</v>
+      </c>
+      <c r="AB50">
+        <v>1.1</v>
+      </c>
+      <c r="AC50">
+        <v>1.63</v>
+      </c>
+      <c r="AD50">
+        <v>3.75</v>
+      </c>
+      <c r="AE50">
+        <v>5</v>
+      </c>
+      <c r="AF50">
+        <v>1.04</v>
+      </c>
+      <c r="AG50">
+        <v>13.5</v>
+      </c>
+      <c r="AH50">
+        <v>1.26</v>
+      </c>
+      <c r="AI50">
+        <v>3.95</v>
+      </c>
+      <c r="AJ50">
+        <v>1.82</v>
+      </c>
+      <c r="AK50">
+        <v>1.86</v>
+      </c>
+      <c r="AL50">
+        <v>1.77</v>
+      </c>
+      <c r="AM50">
+        <v>1.9</v>
+      </c>
+      <c r="AN50">
+        <v>1.17</v>
+      </c>
+      <c r="AO50">
+        <v>1.24</v>
+      </c>
+      <c r="AP50">
+        <v>2.2</v>
+      </c>
+      <c r="AQ50">
+        <v>1.5</v>
+      </c>
+      <c r="AR50">
+        <v>1.33</v>
+      </c>
+      <c r="AS50">
+        <v>1</v>
+      </c>
+      <c r="AT50">
+        <v>1.75</v>
+      </c>
+      <c r="AU50">
+        <v>1.89</v>
+      </c>
+      <c r="AV50">
+        <v>1.26</v>
+      </c>
+      <c r="AW50">
+        <v>3.15</v>
+      </c>
+      <c r="AX50">
+        <v>1.34</v>
+      </c>
+      <c r="AY50">
+        <v>11</v>
+      </c>
+      <c r="AZ50">
+        <v>3.9</v>
+      </c>
+      <c r="BA50">
+        <v>1.18</v>
+      </c>
+      <c r="BB50">
+        <v>1.3</v>
+      </c>
+      <c r="BC50">
+        <v>1.62</v>
+      </c>
+      <c r="BD50">
+        <v>1.96</v>
+      </c>
+      <c r="BE50">
+        <v>2.43</v>
+      </c>
+      <c r="BF50">
+        <v>3</v>
+      </c>
+      <c r="BG50">
+        <v>2</v>
+      </c>
+      <c r="BH50">
+        <v>11</v>
+      </c>
+      <c r="BI50">
+        <v>1</v>
+      </c>
+      <c r="BJ50">
+        <v>14</v>
+      </c>
+      <c r="BK50">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="157">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -373,6 +373,24 @@
     <t>['7', '17', '45', '64']</t>
   </si>
   <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['47', '81']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['5', '75', '90+7']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -455,6 +473,18 @@
   </si>
   <si>
     <t>['21', '85']</t>
+  </si>
+  <si>
+    <t>['10', '62']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['61']</t>
   </si>
 </sst>
 </file>
@@ -816,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK50"/>
+  <dimension ref="A1:BK58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1060,7 +1090,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1150,7 +1180,7 @@
         <v>1.25</v>
       </c>
       <c r="AT2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1442,7 +1472,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1723,7 +1753,7 @@
         <v>2.33</v>
       </c>
       <c r="AT5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1824,7 +1854,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2015,7 +2045,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2206,7 +2236,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2293,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT8">
         <v>0.5</v>
@@ -2397,7 +2427,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2588,7 +2618,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2866,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT11">
         <v>0</v>
@@ -3161,7 +3191,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3352,7 +3382,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3439,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT14">
         <v>1</v>
@@ -3821,7 +3851,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT16">
         <v>1.5</v>
@@ -3925,7 +3955,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q17">
         <v>16</v>
@@ -4015,7 +4045,7 @@
         <v>1</v>
       </c>
       <c r="AT17">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4116,7 +4146,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4206,7 +4236,7 @@
         <v>3</v>
       </c>
       <c r="AT18">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU18">
         <v>1.62</v>
@@ -4307,7 +4337,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4394,10 +4424,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4498,7 +4528,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4588,7 +4618,7 @@
         <v>2.33</v>
       </c>
       <c r="AT20">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU20">
         <v>1.63</v>
@@ -4967,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT22">
         <v>1.67</v>
@@ -5071,7 +5101,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5158,7 +5188,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT23">
         <v>1.33</v>
@@ -5543,7 +5573,7 @@
         <v>2.33</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5644,7 +5674,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -5731,7 +5761,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT26">
         <v>1</v>
@@ -5835,7 +5865,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -6026,7 +6056,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6217,7 +6247,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6599,7 +6629,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -6790,7 +6820,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -6981,7 +7011,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7259,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT34">
         <v>0</v>
@@ -7363,7 +7393,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7453,7 +7483,7 @@
         <v>0.67</v>
       </c>
       <c r="AT35">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU35">
         <v>0.88</v>
@@ -7554,7 +7584,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -7641,10 +7671,10 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT36">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU36">
         <v>2.26</v>
@@ -7835,7 +7865,7 @@
         <v>2.33</v>
       </c>
       <c r="AT37">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU37">
         <v>1.7</v>
@@ -7936,7 +7966,7 @@
         <v>83</v>
       </c>
       <c r="P38" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8023,10 +8053,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT38">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU38">
         <v>1.69</v>
@@ -8214,10 +8244,10 @@
         <v>3</v>
       </c>
       <c r="AS39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT39">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU39">
         <v>1.16</v>
@@ -8318,7 +8348,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -8405,7 +8435,7 @@
         <v>2</v>
       </c>
       <c r="AS40">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT40">
         <v>1.33</v>
@@ -8599,7 +8629,7 @@
         <v>3</v>
       </c>
       <c r="AT41">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU41">
         <v>2.18</v>
@@ -8700,7 +8730,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -8787,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT42">
         <v>1</v>
@@ -9082,7 +9112,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9464,7 +9494,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10037,7 +10067,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10228,7 +10258,7 @@
         <v>83</v>
       </c>
       <c r="P50" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10354,22 +10384,1550 @@
         <v>2.43</v>
       </c>
       <c r="BF50">
+        <v>4</v>
+      </c>
+      <c r="BG50">
+        <v>4</v>
+      </c>
+      <c r="BH50">
+        <v>7</v>
+      </c>
+      <c r="BI50">
+        <v>1</v>
+      </c>
+      <c r="BJ50">
+        <v>11</v>
+      </c>
+      <c r="BK50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:63">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>6469115</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45170.54166666666</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>79</v>
+      </c>
+      <c r="H51" t="s">
+        <v>65</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>83</v>
+      </c>
+      <c r="P51" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>3.1</v>
+      </c>
+      <c r="U51">
+        <v>2.05</v>
+      </c>
+      <c r="V51">
+        <v>3.3</v>
+      </c>
+      <c r="W51">
+        <v>1.41</v>
+      </c>
+      <c r="X51">
+        <v>2.7</v>
+      </c>
+      <c r="Y51">
+        <v>2.85</v>
+      </c>
+      <c r="Z51">
+        <v>1.37</v>
+      </c>
+      <c r="AA51">
+        <v>6.95</v>
+      </c>
+      <c r="AB51">
+        <v>1.07</v>
+      </c>
+      <c r="AC51">
+        <v>2.76</v>
+      </c>
+      <c r="AD51">
+        <v>3.23</v>
+      </c>
+      <c r="AE51">
+        <v>2.57</v>
+      </c>
+      <c r="AF51">
+        <v>1.06</v>
+      </c>
+      <c r="AG51">
+        <v>8</v>
+      </c>
+      <c r="AH51">
+        <v>1.3</v>
+      </c>
+      <c r="AI51">
+        <v>3.3</v>
+      </c>
+      <c r="AJ51">
+        <v>1.83</v>
+      </c>
+      <c r="AK51">
+        <v>1.87</v>
+      </c>
+      <c r="AL51">
+        <v>1.75</v>
+      </c>
+      <c r="AM51">
+        <v>2</v>
+      </c>
+      <c r="AN51">
+        <v>1.38</v>
+      </c>
+      <c r="AO51">
+        <v>1.25</v>
+      </c>
+      <c r="AP51">
+        <v>1.5</v>
+      </c>
+      <c r="AQ51">
         <v>3</v>
       </c>
-      <c r="BG50">
-        <v>2</v>
-      </c>
-      <c r="BH50">
+      <c r="AR51">
+        <v>0.5</v>
+      </c>
+      <c r="AS51">
+        <v>2</v>
+      </c>
+      <c r="AT51">
+        <v>1.33</v>
+      </c>
+      <c r="AU51">
+        <v>1.43</v>
+      </c>
+      <c r="AV51">
+        <v>1.69</v>
+      </c>
+      <c r="AW51">
+        <v>3.12</v>
+      </c>
+      <c r="AX51">
+        <v>1.69</v>
+      </c>
+      <c r="AY51">
+        <v>8</v>
+      </c>
+      <c r="AZ51">
+        <v>2.54</v>
+      </c>
+      <c r="BA51">
+        <v>1.24</v>
+      </c>
+      <c r="BB51">
+        <v>1.45</v>
+      </c>
+      <c r="BC51">
+        <v>1.83</v>
+      </c>
+      <c r="BD51">
+        <v>2.32</v>
+      </c>
+      <c r="BE51">
+        <v>3.1</v>
+      </c>
+      <c r="BF51">
+        <v>2</v>
+      </c>
+      <c r="BG51">
+        <v>3</v>
+      </c>
+      <c r="BH51">
+        <v>7</v>
+      </c>
+      <c r="BI51">
+        <v>2</v>
+      </c>
+      <c r="BJ51">
+        <v>9</v>
+      </c>
+      <c r="BK51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:63">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>6469114</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45170.64583333334</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" t="s">
+        <v>67</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52" t="s">
+        <v>119</v>
+      </c>
+      <c r="P52" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q52">
+        <v>10</v>
+      </c>
+      <c r="R52">
+        <v>3</v>
+      </c>
+      <c r="S52">
+        <v>13</v>
+      </c>
+      <c r="T52">
+        <v>2.95</v>
+      </c>
+      <c r="U52">
+        <v>2.05</v>
+      </c>
+      <c r="V52">
+        <v>3.5</v>
+      </c>
+      <c r="W52">
+        <v>1.43</v>
+      </c>
+      <c r="X52">
+        <v>2.65</v>
+      </c>
+      <c r="Y52">
+        <v>2.95</v>
+      </c>
+      <c r="Z52">
+        <v>1.35</v>
+      </c>
+      <c r="AA52">
+        <v>7.4</v>
+      </c>
+      <c r="AB52">
+        <v>1.06</v>
+      </c>
+      <c r="AC52">
+        <v>2.33</v>
+      </c>
+      <c r="AD52">
+        <v>3.2</v>
+      </c>
+      <c r="AE52">
+        <v>3.13</v>
+      </c>
+      <c r="AF52">
+        <v>1.07</v>
+      </c>
+      <c r="AG52">
+        <v>7.5</v>
+      </c>
+      <c r="AH52">
+        <v>1.33</v>
+      </c>
+      <c r="AI52">
+        <v>3.1</v>
+      </c>
+      <c r="AJ52">
+        <v>2.03</v>
+      </c>
+      <c r="AK52">
+        <v>1.7</v>
+      </c>
+      <c r="AL52">
+        <v>1.8</v>
+      </c>
+      <c r="AM52">
+        <v>1.95</v>
+      </c>
+      <c r="AN52">
+        <v>1.33</v>
+      </c>
+      <c r="AO52">
+        <v>1.25</v>
+      </c>
+      <c r="AP52">
+        <v>1.57</v>
+      </c>
+      <c r="AQ52">
+        <v>1.5</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <v>1.33</v>
+      </c>
+      <c r="AT52">
+        <v>0.33</v>
+      </c>
+      <c r="AU52">
+        <v>1.57</v>
+      </c>
+      <c r="AV52">
+        <v>1.09</v>
+      </c>
+      <c r="AW52">
+        <v>2.66</v>
+      </c>
+      <c r="AX52">
+        <v>1.64</v>
+      </c>
+      <c r="AY52">
+        <v>8.5</v>
+      </c>
+      <c r="AZ52">
+        <v>2.66</v>
+      </c>
+      <c r="BA52">
+        <v>1.22</v>
+      </c>
+      <c r="BB52">
+        <v>1.33</v>
+      </c>
+      <c r="BC52">
+        <v>1.58</v>
+      </c>
+      <c r="BD52">
+        <v>2.03</v>
+      </c>
+      <c r="BE52">
+        <v>2.65</v>
+      </c>
+      <c r="BF52">
+        <v>6</v>
+      </c>
+      <c r="BG52">
+        <v>5</v>
+      </c>
+      <c r="BH52">
+        <v>9</v>
+      </c>
+      <c r="BI52">
+        <v>3</v>
+      </c>
+      <c r="BJ52">
+        <v>15</v>
+      </c>
+      <c r="BK52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:63">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>6469112</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45171.41666666666</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s">
+        <v>69</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>120</v>
+      </c>
+      <c r="P53" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q53">
+        <v>7</v>
+      </c>
+      <c r="R53">
+        <v>4</v>
+      </c>
+      <c r="S53">
         <v>11</v>
       </c>
-      <c r="BI50">
-        <v>1</v>
-      </c>
-      <c r="BJ50">
+      <c r="T53">
+        <v>3.44</v>
+      </c>
+      <c r="U53">
+        <v>2.05</v>
+      </c>
+      <c r="V53">
+        <v>3.67</v>
+      </c>
+      <c r="W53">
+        <v>1.52</v>
+      </c>
+      <c r="X53">
+        <v>2.58</v>
+      </c>
+      <c r="Y53">
+        <v>3.4</v>
+      </c>
+      <c r="Z53">
+        <v>1.28</v>
+      </c>
+      <c r="AA53">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AB53">
+        <v>1.04</v>
+      </c>
+      <c r="AC53">
+        <v>2.64</v>
+      </c>
+      <c r="AD53">
+        <v>2.91</v>
+      </c>
+      <c r="AE53">
+        <v>2.64</v>
+      </c>
+      <c r="AF53">
+        <v>1.1</v>
+      </c>
+      <c r="AG53">
+        <v>6.5</v>
+      </c>
+      <c r="AH53">
+        <v>1.44</v>
+      </c>
+      <c r="AI53">
+        <v>2.7</v>
+      </c>
+      <c r="AJ53">
+        <v>2.6</v>
+      </c>
+      <c r="AK53">
+        <v>1.5</v>
+      </c>
+      <c r="AL53">
+        <v>1.95</v>
+      </c>
+      <c r="AM53">
+        <v>1.8</v>
+      </c>
+      <c r="AN53">
+        <v>1.38</v>
+      </c>
+      <c r="AO53">
+        <v>1.28</v>
+      </c>
+      <c r="AP53">
+        <v>1.47</v>
+      </c>
+      <c r="AQ53">
+        <v>1.5</v>
+      </c>
+      <c r="AR53">
+        <v>1</v>
+      </c>
+      <c r="AS53">
+        <v>1.33</v>
+      </c>
+      <c r="AT53">
+        <v>1</v>
+      </c>
+      <c r="AU53">
+        <v>1.82</v>
+      </c>
+      <c r="AV53">
+        <v>1.56</v>
+      </c>
+      <c r="AW53">
+        <v>3.38</v>
+      </c>
+      <c r="AX53">
+        <v>1.95</v>
+      </c>
+      <c r="AY53">
+        <v>8</v>
+      </c>
+      <c r="AZ53">
+        <v>2.1</v>
+      </c>
+      <c r="BA53">
+        <v>1.31</v>
+      </c>
+      <c r="BB53">
+        <v>1.62</v>
+      </c>
+      <c r="BC53">
+        <v>1.95</v>
+      </c>
+      <c r="BD53">
+        <v>2.5</v>
+      </c>
+      <c r="BE53">
+        <v>3.64</v>
+      </c>
+      <c r="BF53">
+        <v>4</v>
+      </c>
+      <c r="BG53">
+        <v>10</v>
+      </c>
+      <c r="BH53">
+        <v>8</v>
+      </c>
+      <c r="BI53">
+        <v>8</v>
+      </c>
+      <c r="BJ53">
+        <v>12</v>
+      </c>
+      <c r="BK53">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:63">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>6469108</v>
+      </c>
+      <c r="C54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45171.52083333334</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>82</v>
+      </c>
+      <c r="H54" t="s">
+        <v>73</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54" t="s">
+        <v>83</v>
+      </c>
+      <c r="P54" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q54">
+        <v>10</v>
+      </c>
+      <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>12</v>
+      </c>
+      <c r="T54">
+        <v>2.45</v>
+      </c>
+      <c r="U54">
+        <v>2.1</v>
+      </c>
+      <c r="V54">
+        <v>4.33</v>
+      </c>
+      <c r="W54">
+        <v>1.41</v>
+      </c>
+      <c r="X54">
+        <v>2.7</v>
+      </c>
+      <c r="Y54">
+        <v>2.95</v>
+      </c>
+      <c r="Z54">
+        <v>1.35</v>
+      </c>
+      <c r="AA54">
+        <v>7.4</v>
+      </c>
+      <c r="AB54">
+        <v>1.06</v>
+      </c>
+      <c r="AC54">
+        <v>1.83</v>
+      </c>
+      <c r="AD54">
+        <v>3.5</v>
+      </c>
+      <c r="AE54">
+        <v>4.1</v>
+      </c>
+      <c r="AF54">
+        <v>1.02</v>
+      </c>
+      <c r="AG54">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH54">
+        <v>1.29</v>
+      </c>
+      <c r="AI54">
+        <v>3.24</v>
+      </c>
+      <c r="AJ54">
+        <v>1.95</v>
+      </c>
+      <c r="AK54">
+        <v>1.78</v>
+      </c>
+      <c r="AL54">
+        <v>1.87</v>
+      </c>
+      <c r="AM54">
+        <v>1.87</v>
+      </c>
+      <c r="AN54">
+        <v>1.18</v>
+      </c>
+      <c r="AO54">
+        <v>1.22</v>
+      </c>
+      <c r="AP54">
+        <v>1.9</v>
+      </c>
+      <c r="AQ54">
+        <v>2</v>
+      </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
+      <c r="AS54">
+        <v>1.67</v>
+      </c>
+      <c r="AT54">
+        <v>0.33</v>
+      </c>
+      <c r="AU54">
+        <v>1.7</v>
+      </c>
+      <c r="AV54">
+        <v>1.49</v>
+      </c>
+      <c r="AW54">
+        <v>3.19</v>
+      </c>
+      <c r="AX54">
+        <v>1.55</v>
+      </c>
+      <c r="AY54">
+        <v>8.5</v>
+      </c>
+      <c r="AZ54">
+        <v>2.91</v>
+      </c>
+      <c r="BA54">
+        <v>1.22</v>
+      </c>
+      <c r="BB54">
+        <v>1.33</v>
+      </c>
+      <c r="BC54">
+        <v>1.53</v>
+      </c>
+      <c r="BD54">
+        <v>1.98</v>
+      </c>
+      <c r="BE54">
+        <v>2.25</v>
+      </c>
+      <c r="BF54">
+        <v>4</v>
+      </c>
+      <c r="BG54">
+        <v>3</v>
+      </c>
+      <c r="BH54">
+        <v>7</v>
+      </c>
+      <c r="BI54">
+        <v>4</v>
+      </c>
+      <c r="BJ54">
+        <v>11</v>
+      </c>
+      <c r="BK54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:63">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>6469110</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45171.625</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>77</v>
+      </c>
+      <c r="H55" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>121</v>
+      </c>
+      <c r="P55" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q55">
         <v>14</v>
       </c>
-      <c r="BK50">
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>15</v>
+      </c>
+      <c r="T55">
+        <v>2</v>
+      </c>
+      <c r="U55">
+        <v>2.3</v>
+      </c>
+      <c r="V55">
+        <v>5.5</v>
+      </c>
+      <c r="W55">
+        <v>1.35</v>
+      </c>
+      <c r="X55">
+        <v>2.95</v>
+      </c>
+      <c r="Y55">
+        <v>2.7</v>
+      </c>
+      <c r="Z55">
+        <v>1.41</v>
+      </c>
+      <c r="AA55">
+        <v>6.45</v>
+      </c>
+      <c r="AB55">
+        <v>1.09</v>
+      </c>
+      <c r="AC55">
+        <v>1.36</v>
+      </c>
+      <c r="AD55">
+        <v>4.6</v>
+      </c>
+      <c r="AE55">
+        <v>7.5</v>
+      </c>
+      <c r="AF55">
+        <v>1.01</v>
+      </c>
+      <c r="AG55">
+        <v>10</v>
+      </c>
+      <c r="AH55">
+        <v>1.25</v>
+      </c>
+      <c r="AI55">
+        <v>3.6</v>
+      </c>
+      <c r="AJ55">
+        <v>1.67</v>
+      </c>
+      <c r="AK55">
+        <v>2.1</v>
+      </c>
+      <c r="AL55">
+        <v>1.95</v>
+      </c>
+      <c r="AM55">
+        <v>1.8</v>
+      </c>
+      <c r="AN55">
+        <v>1.07</v>
+      </c>
+      <c r="AO55">
+        <v>1.17</v>
+      </c>
+      <c r="AP55">
+        <v>2.6</v>
+      </c>
+      <c r="AQ55">
         <v>3</v>
+      </c>
+      <c r="AR55">
+        <v>1</v>
+      </c>
+      <c r="AS55">
+        <v>2</v>
+      </c>
+      <c r="AT55">
+        <v>1</v>
+      </c>
+      <c r="AU55">
+        <v>1.77</v>
+      </c>
+      <c r="AV55">
+        <v>1.14</v>
+      </c>
+      <c r="AW55">
+        <v>2.91</v>
+      </c>
+      <c r="AX55">
+        <v>1.3</v>
+      </c>
+      <c r="AY55">
+        <v>10</v>
+      </c>
+      <c r="AZ55">
+        <v>4.42</v>
+      </c>
+      <c r="BA55">
+        <v>1.22</v>
+      </c>
+      <c r="BB55">
+        <v>1.4</v>
+      </c>
+      <c r="BC55">
+        <v>1.65</v>
+      </c>
+      <c r="BD55">
+        <v>2</v>
+      </c>
+      <c r="BE55">
+        <v>2.5</v>
+      </c>
+      <c r="BF55">
+        <v>5</v>
+      </c>
+      <c r="BG55">
+        <v>3</v>
+      </c>
+      <c r="BH55">
+        <v>7</v>
+      </c>
+      <c r="BI55">
+        <v>2</v>
+      </c>
+      <c r="BJ55">
+        <v>12</v>
+      </c>
+      <c r="BK55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:63">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>6469116</v>
+      </c>
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45172.3125</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" t="s">
+        <v>75</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56" t="s">
+        <v>122</v>
+      </c>
+      <c r="P56" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q56">
+        <v>3</v>
+      </c>
+      <c r="R56">
+        <v>5</v>
+      </c>
+      <c r="S56">
+        <v>8</v>
+      </c>
+      <c r="T56">
+        <v>3.1</v>
+      </c>
+      <c r="U56">
+        <v>2.1</v>
+      </c>
+      <c r="V56">
+        <v>3.5</v>
+      </c>
+      <c r="W56">
+        <v>1.4</v>
+      </c>
+      <c r="X56">
+        <v>2.75</v>
+      </c>
+      <c r="Y56">
+        <v>3</v>
+      </c>
+      <c r="Z56">
+        <v>1.36</v>
+      </c>
+      <c r="AA56">
+        <v>9</v>
+      </c>
+      <c r="AB56">
+        <v>1.07</v>
+      </c>
+      <c r="AC56">
+        <v>2.71</v>
+      </c>
+      <c r="AD56">
+        <v>3.45</v>
+      </c>
+      <c r="AE56">
+        <v>2.23</v>
+      </c>
+      <c r="AF56">
+        <v>1.04</v>
+      </c>
+      <c r="AG56">
+        <v>9.5</v>
+      </c>
+      <c r="AH56">
+        <v>1.32</v>
+      </c>
+      <c r="AI56">
+        <v>3.3</v>
+      </c>
+      <c r="AJ56">
+        <v>2.09</v>
+      </c>
+      <c r="AK56">
+        <v>1.79</v>
+      </c>
+      <c r="AL56">
+        <v>1.8</v>
+      </c>
+      <c r="AM56">
+        <v>1.95</v>
+      </c>
+      <c r="AN56">
+        <v>1.33</v>
+      </c>
+      <c r="AO56">
+        <v>1.25</v>
+      </c>
+      <c r="AP56">
+        <v>1.57</v>
+      </c>
+      <c r="AQ56">
+        <v>1.5</v>
+      </c>
+      <c r="AR56">
+        <v>1.5</v>
+      </c>
+      <c r="AS56">
+        <v>2</v>
+      </c>
+      <c r="AT56">
+        <v>1</v>
+      </c>
+      <c r="AU56">
+        <v>1.67</v>
+      </c>
+      <c r="AV56">
+        <v>1.14</v>
+      </c>
+      <c r="AW56">
+        <v>2.81</v>
+      </c>
+      <c r="AX56">
+        <v>1.85</v>
+      </c>
+      <c r="AY56">
+        <v>8</v>
+      </c>
+      <c r="AZ56">
+        <v>2.28</v>
+      </c>
+      <c r="BA56">
+        <v>1.29</v>
+      </c>
+      <c r="BB56">
+        <v>1.43</v>
+      </c>
+      <c r="BC56">
+        <v>1.83</v>
+      </c>
+      <c r="BD56">
+        <v>2.32</v>
+      </c>
+      <c r="BE56">
+        <v>3.1</v>
+      </c>
+      <c r="BF56">
+        <v>5</v>
+      </c>
+      <c r="BG56">
+        <v>4</v>
+      </c>
+      <c r="BH56">
+        <v>7</v>
+      </c>
+      <c r="BI56">
+        <v>3</v>
+      </c>
+      <c r="BJ56">
+        <v>12</v>
+      </c>
+      <c r="BK56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:63">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>6469109</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45172.41666666666</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" t="s">
+        <v>78</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
+        <v>123</v>
+      </c>
+      <c r="P57" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q57">
+        <v>8</v>
+      </c>
+      <c r="R57">
+        <v>5</v>
+      </c>
+      <c r="S57">
+        <v>13</v>
+      </c>
+      <c r="T57">
+        <v>3.1</v>
+      </c>
+      <c r="U57">
+        <v>2.25</v>
+      </c>
+      <c r="V57">
+        <v>3.1</v>
+      </c>
+      <c r="W57">
+        <v>1.33</v>
+      </c>
+      <c r="X57">
+        <v>3.25</v>
+      </c>
+      <c r="Y57">
+        <v>2.63</v>
+      </c>
+      <c r="Z57">
+        <v>1.44</v>
+      </c>
+      <c r="AA57">
+        <v>6.5</v>
+      </c>
+      <c r="AB57">
+        <v>1.11</v>
+      </c>
+      <c r="AC57">
+        <v>2.61</v>
+      </c>
+      <c r="AD57">
+        <v>3.2</v>
+      </c>
+      <c r="AE57">
+        <v>2.48</v>
+      </c>
+      <c r="AF57">
+        <v>1.03</v>
+      </c>
+      <c r="AG57">
+        <v>10</v>
+      </c>
+      <c r="AH57">
+        <v>1.22</v>
+      </c>
+      <c r="AI57">
+        <v>4</v>
+      </c>
+      <c r="AJ57">
+        <v>2.09</v>
+      </c>
+      <c r="AK57">
+        <v>1.79</v>
+      </c>
+      <c r="AL57">
+        <v>1.62</v>
+      </c>
+      <c r="AM57">
+        <v>2.2</v>
+      </c>
+      <c r="AN57">
+        <v>1.44</v>
+      </c>
+      <c r="AO57">
+        <v>1.25</v>
+      </c>
+      <c r="AP57">
+        <v>1.47</v>
+      </c>
+      <c r="AQ57">
+        <v>2.33</v>
+      </c>
+      <c r="AR57">
+        <v>1.5</v>
+      </c>
+      <c r="AS57">
+        <v>2.5</v>
+      </c>
+      <c r="AT57">
+        <v>1</v>
+      </c>
+      <c r="AU57">
+        <v>1.95</v>
+      </c>
+      <c r="AV57">
+        <v>1.62</v>
+      </c>
+      <c r="AW57">
+        <v>3.57</v>
+      </c>
+      <c r="AX57">
+        <v>1.91</v>
+      </c>
+      <c r="AY57">
+        <v>8</v>
+      </c>
+      <c r="AZ57">
+        <v>2.1</v>
+      </c>
+      <c r="BA57">
+        <v>1.15</v>
+      </c>
+      <c r="BB57">
+        <v>1.25</v>
+      </c>
+      <c r="BC57">
+        <v>1.51</v>
+      </c>
+      <c r="BD57">
+        <v>2</v>
+      </c>
+      <c r="BE57">
+        <v>2.45</v>
+      </c>
+      <c r="BF57">
+        <v>9</v>
+      </c>
+      <c r="BG57">
+        <v>2</v>
+      </c>
+      <c r="BH57">
+        <v>8</v>
+      </c>
+      <c r="BI57">
+        <v>1</v>
+      </c>
+      <c r="BJ57">
+        <v>17</v>
+      </c>
+      <c r="BK57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:63">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>6469111</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45172.52083333334</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58" t="s">
+        <v>66</v>
+      </c>
+      <c r="H58" t="s">
+        <v>72</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>4</v>
+      </c>
+      <c r="O58" t="s">
+        <v>124</v>
+      </c>
+      <c r="P58" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q58">
+        <v>6</v>
+      </c>
+      <c r="R58">
+        <v>5</v>
+      </c>
+      <c r="S58">
+        <v>11</v>
+      </c>
+      <c r="T58">
+        <v>2.05</v>
+      </c>
+      <c r="U58">
+        <v>2.38</v>
+      </c>
+      <c r="V58">
+        <v>6</v>
+      </c>
+      <c r="W58">
+        <v>1.33</v>
+      </c>
+      <c r="X58">
+        <v>3.25</v>
+      </c>
+      <c r="Y58">
+        <v>2.5</v>
+      </c>
+      <c r="Z58">
+        <v>1.5</v>
+      </c>
+      <c r="AA58">
+        <v>6.5</v>
+      </c>
+      <c r="AB58">
+        <v>1.11</v>
+      </c>
+      <c r="AC58">
+        <v>1.5</v>
+      </c>
+      <c r="AD58">
+        <v>3.9</v>
+      </c>
+      <c r="AE58">
+        <v>5.25</v>
+      </c>
+      <c r="AF58">
+        <v>1.05</v>
+      </c>
+      <c r="AG58">
+        <v>9</v>
+      </c>
+      <c r="AH58">
+        <v>1.25</v>
+      </c>
+      <c r="AI58">
+        <v>3.75</v>
+      </c>
+      <c r="AJ58">
+        <v>1.65</v>
+      </c>
+      <c r="AK58">
+        <v>2.1</v>
+      </c>
+      <c r="AL58">
+        <v>1.8</v>
+      </c>
+      <c r="AM58">
+        <v>1.95</v>
+      </c>
+      <c r="AN58">
+        <v>1.11</v>
+      </c>
+      <c r="AO58">
+        <v>1.25</v>
+      </c>
+      <c r="AP58">
+        <v>2.38</v>
+      </c>
+      <c r="AQ58">
+        <v>3</v>
+      </c>
+      <c r="AR58">
+        <v>0.33</v>
+      </c>
+      <c r="AS58">
+        <v>3</v>
+      </c>
+      <c r="AT58">
+        <v>0.25</v>
+      </c>
+      <c r="AU58">
+        <v>2.07</v>
+      </c>
+      <c r="AV58">
+        <v>1.25</v>
+      </c>
+      <c r="AW58">
+        <v>3.32</v>
+      </c>
+      <c r="AX58">
+        <v>1.37</v>
+      </c>
+      <c r="AY58">
+        <v>9.5</v>
+      </c>
+      <c r="AZ58">
+        <v>3.69</v>
+      </c>
+      <c r="BA58">
+        <v>1.18</v>
+      </c>
+      <c r="BB58">
+        <v>1.32</v>
+      </c>
+      <c r="BC58">
+        <v>1.56</v>
+      </c>
+      <c r="BD58">
+        <v>1.99</v>
+      </c>
+      <c r="BE58">
+        <v>2.6</v>
+      </c>
+      <c r="BF58">
+        <v>8</v>
+      </c>
+      <c r="BG58">
+        <v>2</v>
+      </c>
+      <c r="BH58">
+        <v>6</v>
+      </c>
+      <c r="BI58">
+        <v>3</v>
+      </c>
+      <c r="BJ58">
+        <v>14</v>
+      </c>
+      <c r="BK58">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="158">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>['5', '75', '90+7']</t>
+  </si>
+  <si>
+    <t>['19', '26']</t>
   </si>
   <si>
     <t>['36']</t>
@@ -846,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK58"/>
+  <dimension ref="A1:BK59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1090,7 +1093,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1472,7 +1475,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1750,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT5">
         <v>1</v>
@@ -1854,7 +1857,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2045,7 +2048,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2236,7 +2239,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2427,7 +2430,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2618,7 +2621,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3191,7 +3194,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3382,7 +3385,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3955,7 +3958,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q17">
         <v>16</v>
@@ -4146,7 +4149,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4337,7 +4340,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4528,7 +4531,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4615,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT20">
         <v>1.33</v>
@@ -5101,7 +5104,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5674,7 +5677,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -5865,7 +5868,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -6056,7 +6059,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6247,7 +6250,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6629,7 +6632,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -6820,7 +6823,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7011,7 +7014,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7393,7 +7396,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7584,7 +7587,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -7862,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT37">
         <v>0.33</v>
@@ -7966,7 +7969,7 @@
         <v>83</v>
       </c>
       <c r="P38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8348,7 +8351,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -8730,7 +8733,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9112,7 +9115,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9494,7 +9497,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10067,7 +10070,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10258,7 +10261,7 @@
         <v>83</v>
       </c>
       <c r="P50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10449,7 +10452,7 @@
         <v>83</v>
       </c>
       <c r="P51" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10640,7 +10643,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -10831,7 +10834,7 @@
         <v>120</v>
       </c>
       <c r="P53" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11339,7 +11342,7 @@
         <v>2.5</v>
       </c>
       <c r="BF55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG55">
         <v>3</v>
@@ -11348,13 +11351,13 @@
         <v>7</v>
       </c>
       <c r="BI55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ55">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BK55">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:63">
@@ -11404,7 +11407,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11727,16 +11730,16 @@
         <v>2</v>
       </c>
       <c r="BH57">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ57">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BK57">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:63">
@@ -11912,10 +11915,10 @@
         <v>2.6</v>
       </c>
       <c r="BF58">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BG58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH58">
         <v>6</v>
@@ -11924,10 +11927,201 @@
         <v>3</v>
       </c>
       <c r="BJ58">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BK58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:63">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>6469113</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45172.625</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" t="s">
+        <v>81</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59" t="s">
+        <v>125</v>
+      </c>
+      <c r="P59" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q59">
+        <v>7</v>
+      </c>
+      <c r="R59">
+        <v>3</v>
+      </c>
+      <c r="S59">
+        <v>10</v>
+      </c>
+      <c r="T59">
+        <v>1.73</v>
+      </c>
+      <c r="U59">
+        <v>2.6</v>
+      </c>
+      <c r="V59">
+        <v>9</v>
+      </c>
+      <c r="W59">
+        <v>1.3</v>
+      </c>
+      <c r="X59">
+        <v>3.4</v>
+      </c>
+      <c r="Y59">
+        <v>2.5</v>
+      </c>
+      <c r="Z59">
+        <v>1.5</v>
+      </c>
+      <c r="AA59">
+        <v>6</v>
+      </c>
+      <c r="AB59">
+        <v>1.13</v>
+      </c>
+      <c r="AC59">
+        <v>1.25</v>
+      </c>
+      <c r="AD59">
         <v>5</v>
+      </c>
+      <c r="AE59">
+        <v>8.5</v>
+      </c>
+      <c r="AF59">
+        <v>1.02</v>
+      </c>
+      <c r="AG59">
+        <v>15</v>
+      </c>
+      <c r="AH59">
+        <v>1.2</v>
+      </c>
+      <c r="AI59">
+        <v>4.33</v>
+      </c>
+      <c r="AJ59">
+        <v>1.6</v>
+      </c>
+      <c r="AK59">
+        <v>2.2</v>
+      </c>
+      <c r="AL59">
+        <v>2.1</v>
+      </c>
+      <c r="AM59">
+        <v>1.67</v>
+      </c>
+      <c r="AN59">
+        <v>1.07</v>
+      </c>
+      <c r="AO59">
+        <v>1.15</v>
+      </c>
+      <c r="AP59">
+        <v>3.6</v>
+      </c>
+      <c r="AQ59">
+        <v>2.33</v>
+      </c>
+      <c r="AR59">
+        <v>0</v>
+      </c>
+      <c r="AS59">
+        <v>2.5</v>
+      </c>
+      <c r="AT59">
+        <v>0</v>
+      </c>
+      <c r="AU59">
+        <v>1.65</v>
+      </c>
+      <c r="AV59">
+        <v>1.57</v>
+      </c>
+      <c r="AW59">
+        <v>3.22</v>
+      </c>
+      <c r="AX59">
+        <v>1.09</v>
+      </c>
+      <c r="AY59">
+        <v>13</v>
+      </c>
+      <c r="AZ59">
+        <v>8.85</v>
+      </c>
+      <c r="BA59">
+        <v>1.22</v>
+      </c>
+      <c r="BB59">
+        <v>1.37</v>
+      </c>
+      <c r="BC59">
+        <v>1.73</v>
+      </c>
+      <c r="BD59">
+        <v>2.17</v>
+      </c>
+      <c r="BE59">
+        <v>2.9</v>
+      </c>
+      <c r="BF59">
+        <v>7</v>
+      </c>
+      <c r="BG59">
+        <v>4</v>
+      </c>
+      <c r="BH59">
+        <v>5</v>
+      </c>
+      <c r="BI59">
+        <v>5</v>
+      </c>
+      <c r="BJ59">
+        <v>12</v>
+      </c>
+      <c r="BK59">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK63"/>
+  <dimension ref="A1:BK68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.25</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -3339,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.33</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>2.5</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU23" t="n">
         <v>1.73</v>
@@ -5775,7 +5775,7 @@
         <v>1.67</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT27" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT28" t="n">
         <v>2</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT30" t="n">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>1.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU31" t="n">
         <v>2.3</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT33" t="n">
         <v>0.4</v>
@@ -8617,7 +8617,7 @@
         <v>2</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU40" t="n">
         <v>2.09</v>
@@ -9223,10 +9223,10 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU43" t="n">
         <v>1.27</v>
@@ -9426,7 +9426,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT44" t="n">
         <v>2</v>
@@ -9629,10 +9629,10 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT45" t="n">
         <v>1.25</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>1.67</v>
       </c>
       <c r="AU45" t="n">
         <v>1.2</v>
@@ -10035,7 +10035,7 @@
         <v>0.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT47" t="n">
         <v>0.4</v>
@@ -10241,7 +10241,7 @@
         <v>1.33</v>
       </c>
       <c r="AT48" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU48" t="n">
         <v>1.78</v>
@@ -12716,19 +12716,19 @@
         <v>5</v>
       </c>
       <c r="BG60" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BH60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI60" t="n">
         <v>6</v>
       </c>
       <c r="BJ60" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BK60" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
@@ -13119,22 +13119,22 @@
         <v>2.45</v>
       </c>
       <c r="BF62" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BG62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI62" t="n">
         <v>2</v>
       </c>
       <c r="BJ62" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BK62" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -13322,22 +13322,1037 @@
         <v>3.2</v>
       </c>
       <c r="BF63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG63" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH63" t="n">
         <v>7</v>
-      </c>
-      <c r="BH63" t="n">
-        <v>5</v>
       </c>
       <c r="BI63" t="n">
         <v>4</v>
       </c>
       <c r="BJ63" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>6469119</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45185.625</v>
+      </c>
+      <c r="F64" t="n">
         <v>8</v>
       </c>
-      <c r="BK63" t="n">
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Legia Warszawa</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['45+5']</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V64" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ64" t="n">
         <v>11</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>6469118</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45186.3125</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Jagiellonia Białystok</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2</v>
+      </c>
+      <c r="K65" t="n">
+        <v>4</v>
+      </c>
+      <c r="L65" t="n">
+        <v>3</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="n">
+        <v>5</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['27', '45+8', '46']</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>['3', '12']</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>6</v>
+      </c>
+      <c r="S65" t="n">
+        <v>10</v>
+      </c>
+      <c r="T65" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>6469125</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45186.41666666666</v>
+      </c>
+      <c r="F66" t="n">
+        <v>8</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Widzew Łódź</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Cracovia Kraków</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['36', '71']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>6</v>
+      </c>
+      <c r="S66" t="n">
+        <v>10</v>
+      </c>
+      <c r="T66" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6469124</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45186.52083333334</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Warta Poznań</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Lech Poznań</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>['28', '81']</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>6</v>
+      </c>
+      <c r="S67" t="n">
+        <v>8</v>
+      </c>
+      <c r="T67" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>6469123</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45187.58333333334</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Zagłębie Lubin</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>3</v>
+      </c>
+      <c r="L68" t="n">
+        <v>4</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="n">
+        <v>6</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['21', '45', '68', '71']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['26', '90']</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" t="n">
+        <v>7</v>
+      </c>
+      <c r="T68" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>3</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK68"/>
+  <dimension ref="A1:BK73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>2.25</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT10" t="n">
         <v>2</v>
@@ -3136,7 +3136,7 @@
         <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT14" t="n">
         <v>0.75</v>
@@ -3542,7 +3542,7 @@
         <v>2.2</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU15" t="n">
         <v>1.3</v>
@@ -3948,7 +3948,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>3</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU18" t="n">
         <v>1.62</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT19" t="n">
         <v>0.25</v>
@@ -4760,7 +4760,7 @@
         <v>1.25</v>
       </c>
       <c r="AT21" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU21" t="n">
         <v>0.55</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT22" t="n">
         <v>1.25</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT26" t="n">
         <v>0.75</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT29" t="n">
         <v>1</v>
@@ -7399,7 +7399,7 @@
         <v>2.5</v>
       </c>
       <c r="AT34" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU34" t="n">
         <v>1.88</v>
@@ -7602,7 +7602,7 @@
         <v>1.25</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU35" t="n">
         <v>0.88</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT36" t="n">
         <v>1.33</v>
@@ -8411,10 +8411,10 @@
         <v>3</v>
       </c>
       <c r="AS39" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT39" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU39" t="n">
         <v>1.16</v>
@@ -8614,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT40" t="n">
         <v>1.75</v>
@@ -9020,10 +9020,10 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT42" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU42" t="n">
         <v>1.83</v>
@@ -10238,7 +10238,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT48" t="n">
         <v>0.75</v>
@@ -10847,7 +10847,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT51" t="n">
         <v>1.33</v>
@@ -11253,10 +11253,10 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT53" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU53" t="n">
         <v>1.82</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT54" t="n">
         <v>0.25</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -12068,7 +12068,7 @@
         <v>2.5</v>
       </c>
       <c r="AT57" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU57" t="n">
         <v>1.95</v>
@@ -12271,7 +12271,7 @@
         <v>3</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU58" t="n">
         <v>2.07</v>
@@ -12474,7 +12474,7 @@
         <v>2.6</v>
       </c>
       <c r="AT59" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU59" t="n">
         <v>1.65</v>
@@ -14353,6 +14353,1021 @@
       </c>
       <c r="BK68" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>6469128</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45191.54166666666</v>
+      </c>
+      <c r="F69" t="n">
+        <v>9</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Widzew Łódź</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="n">
+        <v>3</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>6469133</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45191.64583333334</v>
+      </c>
+      <c r="F70" t="n">
+        <v>9</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>ŁKS Łódź</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Jagiellonia Białystok</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2</v>
+      </c>
+      <c r="L70" t="n">
+        <v>2</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="n">
+        <v>4</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['23', '90']</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>['40', '77']</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>7</v>
+      </c>
+      <c r="S70" t="n">
+        <v>8</v>
+      </c>
+      <c r="T70" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>6469131</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45192.3125</v>
+      </c>
+      <c r="F71" t="n">
+        <v>9</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Puszcza Niepołomice</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>10</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>5</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6469134</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45192.41666666666</v>
+      </c>
+      <c r="F72" t="n">
+        <v>9</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Śląsk Wrocław</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>8</v>
+      </c>
+      <c r="T72" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V72" t="n">
+        <v>3</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>6469126</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45192.52083333334</v>
+      </c>
+      <c r="F73" t="n">
+        <v>9</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Cracovia Kraków</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Pogoń Szczecin</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="n">
+        <v>6</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['8', '21', '50', '64', '87']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>8</v>
+      </c>
+      <c r="T73" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK73"/>
+  <dimension ref="A1:BK77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT8" t="n">
         <v>0.4</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU12" t="n">
         <v>0.95</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT16" t="n">
         <v>1.2</v>
@@ -4557,7 +4557,7 @@
         <v>2.6</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>1.63</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT23" t="n">
         <v>1.75</v>
@@ -5572,7 +5572,7 @@
         <v>1.75</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>1.25</v>
       </c>
       <c r="AT27" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU27" t="n">
         <v>1.8</v>
@@ -6384,7 +6384,7 @@
         <v>1.25</v>
       </c>
       <c r="AT29" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU29" t="n">
         <v>1.57</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT34" t="n">
         <v>0.2</v>
@@ -7805,7 +7805,7 @@
         <v>1.25</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU36" t="n">
         <v>2.26</v>
@@ -8008,7 +8008,7 @@
         <v>2.6</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU37" t="n">
         <v>1.7</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT38" t="n">
         <v>1</v>
@@ -10444,7 +10444,7 @@
         <v>3</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU49" t="n">
         <v>1.4</v>
@@ -10850,7 +10850,7 @@
         <v>1.75</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU51" t="n">
         <v>1.43</v>
@@ -11050,10 +11050,10 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU52" t="n">
         <v>1.57</v>
@@ -11659,10 +11659,10 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT55" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU55" t="n">
         <v>1.77</v>
@@ -12065,7 +12065,7 @@
         <v>1.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT57" t="n">
         <v>1.5</v>
@@ -14540,22 +14540,22 @@
         <v>2.49</v>
       </c>
       <c r="BF69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH69" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ69" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BK69" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -15352,22 +15352,834 @@
         <v>2.47</v>
       </c>
       <c r="BF73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG73" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH73" t="n">
         <v>7</v>
       </c>
       <c r="BI73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ73" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6469129</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45192.625</v>
+      </c>
+      <c r="F74" t="n">
+        <v>9</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Lech Poznań</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>3</v>
+      </c>
+      <c r="L74" t="n">
+        <v>2</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="n">
+        <v>3</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['37', '40']</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>9</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>7</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6469127</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45193.3125</v>
+      </c>
+      <c r="F75" t="n">
+        <v>9</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Zagłębie Lubin</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Warta Poznań</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>7</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>9</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V75" t="n">
+        <v>4</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>6469132</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45193.41666666666</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Ruch Chorzów</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Raków Częstochowa</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3</v>
+      </c>
+      <c r="K76" t="n">
+        <v>4</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="n">
+        <v>8</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['7', '71', '80']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['20', '28', '42', '68', '87']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>6</v>
+      </c>
+      <c r="T76" t="n">
+        <v>5</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK76" t="n">
         <v>10</v>
       </c>
-      <c r="BK73" t="n">
-        <v>2</v>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>6469130</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45193.52083333334</v>
+      </c>
+      <c r="F77" t="n">
+        <v>9</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Legia Warszawa</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Górnik Zabrze</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>2</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="n">
+        <v>3</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['8', '90+2']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>6</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>9</v>
+      </c>
+      <c r="T77" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V77" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ77"/>
+  <dimension ref="A1:AZ79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3216,7 +3216,7 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.2</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.4</v>
@@ -5089,7 +5089,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR27" t="n">
         <v>1.8</v>
@@ -5766,7 +5766,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.2</v>
@@ -5939,7 +5939,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR32" t="n">
         <v>0.98</v>
@@ -8996,7 +8996,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ50" t="n">
         <v>2</v>
@@ -9846,7 +9846,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.8</v>
@@ -11036,7 +11036,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.25</v>
@@ -11379,7 +11379,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR64" t="n">
         <v>1.89</v>
@@ -13076,7 +13076,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.25</v>
@@ -13419,7 +13419,7 @@
         <v>1</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR76" t="n">
         <v>1.71</v>
@@ -13617,6 +13617,346 @@
       </c>
       <c r="AZ77" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>6469103</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45196.625</v>
+      </c>
+      <c r="F78" t="n">
+        <v>6</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Pogoń Szczecin</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Legia Warszawa</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2</v>
+      </c>
+      <c r="L78" t="n">
+        <v>3</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="n">
+        <v>7</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['29', '51', '71']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['33', '69', '78', '84']</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="V78" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X78" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>6469101</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45197.625</v>
+      </c>
+      <c r="F79" t="n">
+        <v>6</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Lech Poznań</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Raków Częstochowa</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>2</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>3</v>
+      </c>
+      <c r="L79" t="n">
+        <v>4</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="n">
+        <v>5</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['6', '25', '72', '90+3']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V79" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X79" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ79"/>
+  <dimension ref="A1:AZ80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.25</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.8</v>
@@ -3729,7 +3729,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5256,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ28" t="n">
         <v>2</v>
@@ -7469,7 +7469,7 @@
         <v>3</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR41" t="n">
         <v>2.18</v>
@@ -7806,7 +7806,7 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.2</v>
@@ -9679,7 +9679,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR54" t="n">
         <v>1.7</v>
@@ -11039,7 +11039,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR62" t="n">
         <v>1.74</v>
@@ -12056,7 +12056,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.75</v>
@@ -13771,22 +13771,22 @@
         <v>3.16</v>
       </c>
       <c r="AU78" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV78" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW78" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY78" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ78" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
@@ -13944,19 +13944,189 @@
         <v>2</v>
       </c>
       <c r="AV79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW79" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>6469141</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45198.54166666666</v>
+      </c>
+      <c r="F80" t="n">
+        <v>10</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2</v>
+      </c>
+      <c r="K80" t="n">
+        <v>3</v>
+      </c>
+      <c r="L80" t="n">
+        <v>2</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="n">
         <v>5</v>
       </c>
-      <c r="AX79" t="n">
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['33', '90+4']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['20', '22', '74']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X80" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU80" t="n">
         <v>5</v>
       </c>
-      <c r="AY79" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ79" t="n">
-        <v>5</v>
+      <c r="AV80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ80"/>
+  <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1179,7 +1179,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.75</v>
@@ -1859,7 +1859,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>3</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR18" t="n">
         <v>1.62</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.8</v>
@@ -4239,7 +4239,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -4579,7 +4579,7 @@
         <v>3</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR24" t="n">
         <v>2.24</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.25</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ27" t="n">
         <v>1</v>
@@ -5936,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.67</v>
@@ -6109,7 +6109,7 @@
         <v>1</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR33" t="n">
         <v>1.24</v>
@@ -6449,7 +6449,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR35" t="n">
         <v>0.88</v>
@@ -7126,7 +7126,7 @@
         <v>3</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.5</v>
@@ -8149,7 +8149,7 @@
         <v>1</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR45" t="n">
         <v>1.2</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ46" t="n">
         <v>0</v>
@@ -8486,10 +8486,10 @@
         <v>0.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR47" t="n">
         <v>1.82</v>
@@ -9166,7 +9166,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ51" t="n">
         <v>1</v>
@@ -10359,7 +10359,7 @@
         <v>3</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR58" t="n">
         <v>2.07</v>
@@ -10696,7 +10696,7 @@
         <v>1.75</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ60" t="n">
         <v>2</v>
@@ -10869,7 +10869,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR61" t="n">
         <v>0.95</v>
@@ -11376,7 +11376,7 @@
         <v>1</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.67</v>
@@ -11719,7 +11719,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR66" t="n">
         <v>1.58</v>
@@ -12229,7 +12229,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR69" t="n">
         <v>1.83</v>
@@ -12396,7 +12396,7 @@
         <v>1</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ70" t="n">
         <v>1</v>
@@ -13941,22 +13941,22 @@
         <v>3.08</v>
       </c>
       <c r="AU79" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV79" t="n">
         <v>3</v>
       </c>
       <c r="AW79" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ79" t="n">
         <v>6</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY79" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ79" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="80">
@@ -14111,22 +14111,532 @@
         <v>2.69</v>
       </c>
       <c r="AU80" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW80" t="n">
         <v>5</v>
       </c>
-      <c r="AV80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW80" t="n">
-        <v>1</v>
-      </c>
       <c r="AX80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY80" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ80" t="n">
         <v>6</v>
       </c>
-      <c r="AZ80" t="n">
-        <v>3</v>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>6469137</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45198.64583333334</v>
+      </c>
+      <c r="F81" t="n">
+        <v>10</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Widzew Łódź</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="n">
+        <v>5</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['24', '38', '68']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['47', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X81" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>6469143</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45199.41666666666</v>
+      </c>
+      <c r="F82" t="n">
+        <v>10</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>ŁKS Łódź</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Cracovia Kraków</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2</v>
+      </c>
+      <c r="K82" t="n">
+        <v>2</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="n">
+        <v>2</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['14', '21']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X82" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>6469139</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45199.52083333334</v>
+      </c>
+      <c r="F83" t="n">
+        <v>10</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Puszcza Niepołomice</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Ruch Chorzów</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>2</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>2</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="n">
+        <v>4</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['35', '45+4']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['66', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V83" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X83" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ83"/>
+  <dimension ref="A1:AZ86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.5</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ5" t="n">
         <v>1</v>
@@ -1519,7 +1519,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2199,7 +2199,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.8</v>
@@ -3219,7 +3219,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.33</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ20" t="n">
         <v>1</v>
@@ -4409,7 +4409,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR23" t="n">
         <v>1.73</v>
@@ -5259,7 +5259,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR28" t="n">
         <v>1.13</v>
@@ -5766,10 +5766,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR31" t="n">
         <v>2.3</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.5</v>
@@ -6786,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.25</v>
@@ -7299,7 +7299,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR40" t="n">
         <v>2.09</v>
@@ -7809,7 +7809,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR43" t="n">
         <v>1.27</v>
@@ -7979,7 +7979,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR44" t="n">
         <v>1.54</v>
@@ -8146,7 +8146,7 @@
         <v>2</v>
       </c>
       <c r="AP45" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.6</v>
@@ -8996,10 +8996,10 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR50" t="n">
         <v>1.89</v>
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.2</v>
@@ -10699,7 +10699,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ60" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR60" t="n">
         <v>1.22</v>
@@ -11036,7 +11036,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.8</v>
@@ -11206,7 +11206,7 @@
         <v>0</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ63" t="n">
         <v>0</v>
@@ -11549,7 +11549,7 @@
         <v>3</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR65" t="n">
         <v>1.69</v>
@@ -11886,10 +11886,10 @@
         <v>1.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR67" t="n">
         <v>1.03</v>
@@ -13756,7 +13756,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.67</v>
@@ -14111,22 +14111,22 @@
         <v>2.69</v>
       </c>
       <c r="AU80" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW80" t="n">
         <v>7</v>
       </c>
-      <c r="AV80" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW80" t="n">
-        <v>5</v>
-      </c>
       <c r="AX80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY80" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ80" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
@@ -14284,16 +14284,16 @@
         <v>5</v>
       </c>
       <c r="AV81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW81" t="n">
         <v>4</v>
       </c>
-      <c r="AW81" t="n">
-        <v>2</v>
-      </c>
       <c r="AX81" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY81" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ81" t="n">
         <v>9</v>
@@ -14621,22 +14621,532 @@
         <v>2.04</v>
       </c>
       <c r="AU83" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV83" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW83" t="n">
         <v>4</v>
       </c>
-      <c r="AW83" t="n">
-        <v>3</v>
-      </c>
       <c r="AX83" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY83" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>6469142</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45199.625</v>
+      </c>
+      <c r="F84" t="n">
+        <v>10</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Warta Poznań</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Śląsk Wrocław</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V84" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X84" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW84" t="n">
         <v>6</v>
       </c>
-      <c r="AZ83" t="n">
+      <c r="AX84" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>6469140</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45200.41666666666</v>
+      </c>
+      <c r="F85" t="n">
+        <v>10</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Raków Częstochowa</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>3</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['3', '61', '82']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X85" t="n">
         <v>7</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6469138</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45200.52083333334</v>
+      </c>
+      <c r="F86" t="n">
+        <v>10</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Pogoń Szczecin</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Lech Poznań</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>3</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>3</v>
+      </c>
+      <c r="L86" t="n">
+        <v>5</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>5</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['17', '33', '39', '47', '90+3']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X86" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ86"/>
+  <dimension ref="A1:AZ88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -2879,7 +2879,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.8</v>
@@ -4919,7 +4919,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR26" t="n">
         <v>0</v>
@@ -5939,7 +5939,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR32" t="n">
         <v>0.98</v>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.33</v>
@@ -8659,7 +8659,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR48" t="n">
         <v>1.78</v>
@@ -10866,7 +10866,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.5</v>
@@ -11379,7 +11379,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR64" t="n">
         <v>1.89</v>
@@ -12059,7 +12059,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR68" t="n">
         <v>1.15</v>
@@ -13759,7 +13759,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR78" t="n">
         <v>1.85</v>
@@ -14791,13 +14791,13 @@
         <v>2.31</v>
       </c>
       <c r="AU84" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW84" t="n">
         <v>9</v>
-      </c>
-      <c r="AV84" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW84" t="n">
-        <v>6</v>
       </c>
       <c r="AX84" t="n">
         <v>3</v>
@@ -14806,7 +14806,7 @@
         <v>15</v>
       </c>
       <c r="AZ84" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
@@ -15131,22 +15131,362 @@
         <v>3.19</v>
       </c>
       <c r="AU86" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AV86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY86" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AZ86" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6469136</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45200.625</v>
+      </c>
+      <c r="F87" t="n">
+        <v>10</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Jagiellonia Białystok</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Legia Warszawa</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>2</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['13', '29']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U87" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V87" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X87" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6469135</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45201.58333333334</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Górnik Zabrze</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Zagłębie Lubin</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>['36', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U88" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V88" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X88" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ88"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,6 +698,86 @@
           <t>Shots_A</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_H_FT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_A_FT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>TotalCorners_FT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_H</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_D</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_A</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over75</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under75</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over85</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under85</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over95</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under95</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over105</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under105</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over115</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under115</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -868,6 +948,54 @@
       <c r="AZ2" t="n">
         <v>10</v>
       </c>
+      <c r="BA2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1037,6 +1165,54 @@
       </c>
       <c r="AZ3" t="n">
         <v>6</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row r="4">
@@ -1208,6 +1384,54 @@
       <c r="AZ4" t="n">
         <v>16</v>
       </c>
+      <c r="BA4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1378,6 +1602,54 @@
       <c r="AZ5" t="n">
         <v>6</v>
       </c>
+      <c r="BA5" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1548,6 +1820,54 @@
       <c r="AZ6" t="n">
         <v>5</v>
       </c>
+      <c r="BA6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1718,6 +2038,54 @@
       <c r="AZ7" t="n">
         <v>18</v>
       </c>
+      <c r="BA7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1888,6 +2256,54 @@
       <c r="AZ8" t="n">
         <v>7</v>
       </c>
+      <c r="BA8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2058,6 +2474,54 @@
       <c r="AZ9" t="n">
         <v>9</v>
       </c>
+      <c r="BA9" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2228,6 +2692,54 @@
       <c r="AZ10" t="n">
         <v>4</v>
       </c>
+      <c r="BA10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2398,6 +2910,54 @@
       <c r="AZ11" t="n">
         <v>10</v>
       </c>
+      <c r="BA11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2568,6 +3128,54 @@
       <c r="AZ12" t="n">
         <v>7</v>
       </c>
+      <c r="BA12" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2738,6 +3346,54 @@
       <c r="AZ13" t="n">
         <v>12</v>
       </c>
+      <c r="BA13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2908,6 +3564,54 @@
       <c r="AZ14" t="n">
         <v>7</v>
       </c>
+      <c r="BA14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3078,6 +3782,54 @@
       <c r="AZ15" t="n">
         <v>17</v>
       </c>
+      <c r="BA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3248,6 +4000,54 @@
       <c r="AZ16" t="n">
         <v>14</v>
       </c>
+      <c r="BA16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3418,6 +4218,54 @@
       <c r="AZ17" t="n">
         <v>7</v>
       </c>
+      <c r="BA17" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>23</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3588,6 +4436,54 @@
       <c r="AZ18" t="n">
         <v>6</v>
       </c>
+      <c r="BA18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3758,6 +4654,54 @@
       <c r="AZ19" t="n">
         <v>14</v>
       </c>
+      <c r="BA19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3928,6 +4872,54 @@
       <c r="AZ20" t="n">
         <v>14</v>
       </c>
+      <c r="BA20" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -4098,6 +5090,54 @@
       <c r="AZ21" t="n">
         <v>6</v>
       </c>
+      <c r="BA21" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -4268,6 +5308,54 @@
       <c r="AZ22" t="n">
         <v>9</v>
       </c>
+      <c r="BA22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -4438,6 +5526,54 @@
       <c r="AZ23" t="n">
         <v>10</v>
       </c>
+      <c r="BA23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -4608,6 +5744,54 @@
       <c r="AZ24" t="n">
         <v>6</v>
       </c>
+      <c r="BA24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -4778,6 +5962,54 @@
       <c r="AZ25" t="n">
         <v>10</v>
       </c>
+      <c r="BA25" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -4948,6 +6180,54 @@
       <c r="AZ26" t="n">
         <v>11</v>
       </c>
+      <c r="BA26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -5118,6 +6398,54 @@
       <c r="AZ27" t="n">
         <v>6</v>
       </c>
+      <c r="BA27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -5288,6 +6616,54 @@
       <c r="AZ28" t="n">
         <v>11</v>
       </c>
+      <c r="BA28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -5458,6 +6834,54 @@
       <c r="AZ29" t="n">
         <v>11</v>
       </c>
+      <c r="BA29" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -5628,6 +7052,54 @@
       <c r="AZ30" t="n">
         <v>9</v>
       </c>
+      <c r="BA30" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -5798,6 +7270,54 @@
       <c r="AZ31" t="n">
         <v>10</v>
       </c>
+      <c r="BA31" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>1.46</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -5968,6 +7488,54 @@
       <c r="AZ32" t="n">
         <v>12</v>
       </c>
+      <c r="BA32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -6138,6 +7706,54 @@
       <c r="AZ33" t="n">
         <v>8</v>
       </c>
+      <c r="BA33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -6308,6 +7924,54 @@
       <c r="AZ34" t="n">
         <v>12</v>
       </c>
+      <c r="BA34" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -6478,6 +8142,54 @@
       <c r="AZ35" t="n">
         <v>12</v>
       </c>
+      <c r="BA35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -6648,6 +8360,54 @@
       <c r="AZ36" t="n">
         <v>12</v>
       </c>
+      <c r="BA36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -6818,6 +8578,54 @@
       <c r="AZ37" t="n">
         <v>5</v>
       </c>
+      <c r="BA37" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP37" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -6988,6 +8796,54 @@
       <c r="AZ38" t="n">
         <v>9</v>
       </c>
+      <c r="BA38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -7158,6 +9014,54 @@
       <c r="AZ39" t="n">
         <v>12</v>
       </c>
+      <c r="BA39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -7328,6 +9232,54 @@
       <c r="AZ40" t="n">
         <v>9</v>
       </c>
+      <c r="BA40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -7498,6 +9450,54 @@
       <c r="AZ41" t="n">
         <v>6</v>
       </c>
+      <c r="BA41" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -7668,6 +9668,54 @@
       <c r="AZ42" t="n">
         <v>11</v>
       </c>
+      <c r="BA42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -7838,6 +9886,54 @@
       <c r="AZ43" t="n">
         <v>8</v>
       </c>
+      <c r="BA43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -8008,6 +10104,54 @@
       <c r="AZ44" t="n">
         <v>13</v>
       </c>
+      <c r="BA44" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -8178,6 +10322,54 @@
       <c r="AZ45" t="n">
         <v>7</v>
       </c>
+      <c r="BA45" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP45" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -8348,6 +10540,54 @@
       <c r="AZ46" t="n">
         <v>10</v>
       </c>
+      <c r="BA46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -8518,6 +10758,54 @@
       <c r="AZ47" t="n">
         <v>5</v>
       </c>
+      <c r="BA47" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -8688,6 +10976,54 @@
       <c r="AZ48" t="n">
         <v>7</v>
       </c>
+      <c r="BA48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -8858,6 +11194,54 @@
       <c r="AZ49" t="n">
         <v>6</v>
       </c>
+      <c r="BA49" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -9028,6 +11412,54 @@
       <c r="AZ50" t="n">
         <v>5</v>
       </c>
+      <c r="BA50" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -9198,6 +11630,54 @@
       <c r="AZ51" t="n">
         <v>5</v>
       </c>
+      <c r="BA51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -9368,6 +11848,54 @@
       <c r="AZ52" t="n">
         <v>8</v>
       </c>
+      <c r="BA52" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -9538,6 +12066,54 @@
       <c r="AZ53" t="n">
         <v>18</v>
       </c>
+      <c r="BA53" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -9708,6 +12284,54 @@
       <c r="AZ54" t="n">
         <v>7</v>
       </c>
+      <c r="BA54" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -9878,6 +12502,54 @@
       <c r="AZ55" t="n">
         <v>4</v>
       </c>
+      <c r="BA55" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -10048,6 +12720,54 @@
       <c r="AZ56" t="n">
         <v>7</v>
       </c>
+      <c r="BA56" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -10218,6 +12938,54 @@
       <c r="AZ57" t="n">
         <v>5</v>
       </c>
+      <c r="BA57" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -10388,6 +13156,54 @@
       <c r="AZ58" t="n">
         <v>7</v>
       </c>
+      <c r="BA58" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -10558,6 +13374,54 @@
       <c r="AZ59" t="n">
         <v>9</v>
       </c>
+      <c r="BA59" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -10728,6 +13592,54 @@
       <c r="AZ60" t="n">
         <v>14</v>
       </c>
+      <c r="BA60" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -10898,6 +13810,54 @@
       <c r="AZ61" t="n">
         <v>4</v>
       </c>
+      <c r="BA61" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -11068,6 +14028,54 @@
       <c r="AZ62" t="n">
         <v>8</v>
       </c>
+      <c r="BA62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -11238,6 +14246,54 @@
       <c r="AZ63" t="n">
         <v>10</v>
       </c>
+      <c r="BA63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -11408,6 +14464,54 @@
       <c r="AZ64" t="n">
         <v>5</v>
       </c>
+      <c r="BA64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -11578,6 +14682,54 @@
       <c r="AZ65" t="n">
         <v>9</v>
       </c>
+      <c r="BA65" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -11748,6 +14900,54 @@
       <c r="AZ66" t="n">
         <v>10</v>
       </c>
+      <c r="BA66" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -11918,6 +15118,54 @@
       <c r="AZ67" t="n">
         <v>9</v>
       </c>
+      <c r="BA67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -12088,6 +15336,54 @@
       <c r="AZ68" t="n">
         <v>7</v>
       </c>
+      <c r="BA68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -12258,6 +15554,54 @@
       <c r="AZ69" t="n">
         <v>7</v>
       </c>
+      <c r="BA69" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>1.47</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -12428,6 +15772,54 @@
       <c r="AZ70" t="n">
         <v>11</v>
       </c>
+      <c r="BA70" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -12598,6 +15990,54 @@
       <c r="AZ71" t="n">
         <v>8</v>
       </c>
+      <c r="BA71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -12768,6 +16208,54 @@
       <c r="AZ72" t="n">
         <v>10</v>
       </c>
+      <c r="BA72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -12938,6 +16426,54 @@
       <c r="AZ73" t="n">
         <v>9</v>
       </c>
+      <c r="BA73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -13108,6 +16644,54 @@
       <c r="AZ74" t="n">
         <v>11</v>
       </c>
+      <c r="BA74" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -13278,6 +16862,54 @@
       <c r="AZ75" t="n">
         <v>6</v>
       </c>
+      <c r="BA75" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -13448,6 +17080,54 @@
       <c r="AZ76" t="n">
         <v>10</v>
       </c>
+      <c r="BA76" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -13618,6 +17298,54 @@
       <c r="AZ77" t="n">
         <v>11</v>
       </c>
+      <c r="BA77" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -13788,6 +17516,54 @@
       <c r="AZ78" t="n">
         <v>16</v>
       </c>
+      <c r="BA78" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -13958,6 +17734,54 @@
       <c r="AZ79" t="n">
         <v>6</v>
       </c>
+      <c r="BA79" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -14128,6 +17952,54 @@
       <c r="AZ80" t="n">
         <v>8</v>
       </c>
+      <c r="BA80" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -14298,6 +18170,54 @@
       <c r="AZ81" t="n">
         <v>9</v>
       </c>
+      <c r="BA81" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -14468,6 +18388,54 @@
       <c r="AZ82" t="n">
         <v>15</v>
       </c>
+      <c r="BA82" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -14638,6 +18606,54 @@
       <c r="AZ83" t="n">
         <v>12</v>
       </c>
+      <c r="BA83" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -14808,6 +18824,54 @@
       <c r="AZ84" t="n">
         <v>6</v>
       </c>
+      <c r="BA84" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -14978,6 +19042,54 @@
       <c r="AZ85" t="n">
         <v>8</v>
       </c>
+      <c r="BA85" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -15148,6 +19260,54 @@
       <c r="AZ86" t="n">
         <v>5</v>
       </c>
+      <c r="BA86" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -15318,6 +19478,54 @@
       <c r="AZ87" t="n">
         <v>10</v>
       </c>
+      <c r="BA87" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -15471,22 +19679,70 @@
         <v>2.44</v>
       </c>
       <c r="AU88" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ88" t="n">
         <v>9</v>
       </c>
-      <c r="AV88" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW88" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX88" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY88" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ88" t="n">
-        <v>6</v>
+      <c r="BA88" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BP88" t="n">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.5</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ10" t="n">
         <v>2.17</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR12" t="n">
         <v>0.95</v>
@@ -3317,7 +3317,7 @@
         <v>3</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.2</v>
@@ -3753,7 +3753,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR15" t="n">
         <v>1.3</v>
@@ -3968,7 +3968,7 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ16" t="n">
         <v>1</v>
@@ -5061,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR21" t="n">
         <v>0.55</v>
@@ -5276,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.6</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.4</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.5</v>
@@ -5933,7 +5933,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.2</v>
@@ -6369,7 +6369,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR27" t="n">
         <v>1.8</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR29" t="n">
         <v>1.57</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ30" t="n">
         <v>0</v>
@@ -7892,10 +7892,10 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR34" t="n">
         <v>1.88</v>
@@ -8328,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ36" t="n">
         <v>1</v>
@@ -8549,7 +8549,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR37" t="n">
         <v>1.7</v>
@@ -8764,10 +8764,10 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR38" t="n">
         <v>1.69</v>
@@ -8985,7 +8985,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR39" t="n">
         <v>1.16</v>
@@ -9200,7 +9200,7 @@
         <v>2</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.4</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.8</v>
@@ -9636,10 +9636,10 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR42" t="n">
         <v>1.83</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ44" t="n">
         <v>2.17</v>
@@ -10944,7 +10944,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.2</v>
@@ -11165,7 +11165,7 @@
         <v>3</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR49" t="n">
         <v>1.4</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR52" t="n">
         <v>1.57</v>
@@ -12034,10 +12034,10 @@
         <v>1</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR53" t="n">
         <v>1.82</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.8</v>
@@ -12470,10 +12470,10 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR55" t="n">
         <v>1.77</v>
@@ -12688,10 +12688,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR56" t="n">
         <v>1.67</v>
@@ -12906,10 +12906,10 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR57" t="n">
         <v>1.95</v>
@@ -13124,7 +13124,7 @@
         <v>0.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.33</v>
@@ -13345,7 +13345,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR59" t="n">
         <v>1.65</v>
@@ -14868,7 +14868,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.6</v>
@@ -15522,7 +15522,7 @@
         <v>0.25</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.33</v>
@@ -15743,7 +15743,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR70" t="n">
         <v>1.44</v>
@@ -15958,10 +15958,10 @@
         <v>0</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR71" t="n">
         <v>1.71</v>
@@ -16176,10 +16176,10 @@
         <v>1</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR72" t="n">
         <v>1.61</v>
@@ -16394,10 +16394,10 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR73" t="n">
         <v>1.68</v>
@@ -16612,10 +16612,10 @@
         <v>0.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR74" t="n">
         <v>1.84</v>
@@ -16830,7 +16830,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ75" t="n">
         <v>1</v>
@@ -17048,10 +17048,10 @@
         <v>0</v>
       </c>
       <c r="AP76" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR76" t="n">
         <v>1.71</v>
@@ -17266,10 +17266,10 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR77" t="n">
         <v>2.14</v>
@@ -17702,10 +17702,10 @@
         <v>1.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR79" t="n">
         <v>1.81</v>
@@ -19743,6 +19743,1968 @@
       </c>
       <c r="BP88" t="n">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>6469146</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45205.55208333334</v>
+      </c>
+      <c r="F89" t="n">
+        <v>11</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Warta Poznań</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="n">
+        <v>2</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X89" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>6469147</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45205.64583333334</v>
+      </c>
+      <c r="F90" t="n">
+        <v>11</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Lech Poznań</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Puszcza Niepołomice</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>3</v>
+      </c>
+      <c r="L90" t="n">
+        <v>4</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['2', '43', '51', '90+5']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S90" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U90" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X90" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6469149</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45206.3125</v>
+      </c>
+      <c r="F91" t="n">
+        <v>11</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>ŁKS Łódź</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2</v>
+      </c>
+      <c r="L91" t="n">
+        <v>3</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>3</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['20', '36', '69']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X91" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>6469151</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45206.41666666666</v>
+      </c>
+      <c r="F92" t="n">
+        <v>11</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Widzew Łódź</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V92" t="n">
+        <v>3</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X92" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>6469145</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45206.52083333334</v>
+      </c>
+      <c r="F93" t="n">
+        <v>11</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Zagłębie Lubin</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="n">
+        <v>2</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X93" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6469150</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F94" t="n">
+        <v>11</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Ruch Chorzów</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Pogoń Szczecin</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="n">
+        <v>3</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['28', '57', '63']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U94" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V94" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X94" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>6469152</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45207.3125</v>
+      </c>
+      <c r="F95" t="n">
+        <v>11</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Śląsk Wrocław</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Górnik Zabrze</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="n">
+        <v>2</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X95" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>6469144</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45207.41666666666</v>
+      </c>
+      <c r="F96" t="n">
+        <v>11</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Cracovia Kraków</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Jagiellonia Białystok</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="n">
+        <v>6</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['57', '60']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['7', '9', '49', '55']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S96" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V96" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X96" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>6469148</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45207.52083333334</v>
+      </c>
+      <c r="F97" t="n">
+        <v>11</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Legia Warszawa</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Raków Częstochowa</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>2</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" t="n">
+        <v>3</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['26', '73']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S97" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V97" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X97" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -20769,22 +20769,22 @@
         <v>3.47</v>
       </c>
       <c r="AU93" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV93" t="n">
         <v>6</v>
       </c>
-      <c r="AV93" t="n">
-        <v>5</v>
-      </c>
       <c r="AW93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX93" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY93" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ93" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA93" t="n">
         <v>3</v>
@@ -20990,19 +20990,19 @@
         <v>6</v>
       </c>
       <c r="AV94" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX94" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY94" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ94" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA94" t="n">
         <v>2</v>
@@ -21205,7 +21205,7 @@
         <v>2.68</v>
       </c>
       <c r="AU95" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV95" t="n">
         <v>3</v>
@@ -21214,13 +21214,13 @@
         <v>5</v>
       </c>
       <c r="AX95" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ95" t="n">
         <v>8</v>
-      </c>
-      <c r="AY95" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ95" t="n">
-        <v>11</v>
       </c>
       <c r="BA95" t="n">
         <v>4</v>
@@ -21423,22 +21423,22 @@
         <v>2.93</v>
       </c>
       <c r="AU96" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV96" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW96" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX96" t="n">
         <v>6</v>
       </c>
       <c r="AY96" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ96" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA96" t="n">
         <v>8</v>
@@ -21641,31 +21641,31 @@
         <v>3.28</v>
       </c>
       <c r="AU97" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW97" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX97" t="n">
         <v>6</v>
       </c>
-      <c r="AX97" t="n">
-        <v>2</v>
-      </c>
       <c r="AY97" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ97" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BA97" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB97" t="n">
         <v>3</v>
       </c>
       <c r="BC97" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD97" t="n">
         <v>1.69</v>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.4</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.5</v>
@@ -8985,7 +8985,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR39" t="n">
         <v>1.16</v>
@@ -10726,7 +10726,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.5</v>
@@ -12909,7 +12909,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR57" t="n">
         <v>1.95</v>
@@ -14432,7 +14432,7 @@
         <v>1</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.25</v>
@@ -16397,7 +16397,7 @@
         <v>1</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR73" t="n">
         <v>1.68</v>
@@ -18138,7 +18138,7 @@
         <v>0.4</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.33</v>
@@ -20975,7 +20975,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR94" t="n">
         <v>1.63</v>
@@ -21704,6 +21704,224 @@
         <v>3.25</v>
       </c>
       <c r="BP97" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>6469156</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45219.54166666666</v>
+      </c>
+      <c r="F98" t="n">
+        <v>12</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Pogoń Szczecin</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V98" t="n">
+        <v>3</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X98" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP98" t="n">
         <v>1.3</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP98"/>
+  <dimension ref="A1:BP104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ16" t="n">
         <v>1</v>
@@ -4625,7 +4625,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.83</v>
@@ -5276,10 +5276,10 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.2</v>
@@ -6151,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR26" t="n">
         <v>0</v>
@@ -6369,7 +6369,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR27" t="n">
         <v>1.8</v>
@@ -7456,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR32" t="n">
         <v>0.98</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.33</v>
@@ -8328,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36" t="n">
         <v>1</v>
@@ -9200,7 +9200,7 @@
         <v>2</v>
       </c>
       <c r="AP40" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.4</v>
@@ -9421,7 +9421,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR41" t="n">
         <v>2.18</v>
@@ -10293,7 +10293,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR45" t="n">
         <v>1.2</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46" t="n">
         <v>0</v>
@@ -10947,7 +10947,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR48" t="n">
         <v>1.78</v>
@@ -12034,7 +12034,7 @@
         <v>1</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.83</v>
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR54" t="n">
         <v>1.7</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.83</v>
@@ -12688,7 +12688,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.4</v>
@@ -13560,7 +13560,7 @@
         <v>1.75</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60" t="n">
         <v>2.17</v>
@@ -13778,7 +13778,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.5</v>
@@ -13999,7 +13999,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR62" t="n">
         <v>1.74</v>
@@ -14435,7 +14435,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR64" t="n">
         <v>1.89</v>
@@ -14871,7 +14871,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR66" t="n">
         <v>1.58</v>
@@ -15307,7 +15307,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR68" t="n">
         <v>1.15</v>
@@ -15958,7 +15958,7 @@
         <v>0</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.17</v>
@@ -16176,7 +16176,7 @@
         <v>1</v>
       </c>
       <c r="AP72" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.83</v>
@@ -16612,7 +16612,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.2</v>
@@ -17051,7 +17051,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR76" t="n">
         <v>1.71</v>
@@ -17487,7 +17487,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR78" t="n">
         <v>1.85</v>
@@ -17702,10 +17702,10 @@
         <v>1.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR79" t="n">
         <v>1.81</v>
@@ -17923,7 +17923,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR80" t="n">
         <v>1.31</v>
@@ -18359,7 +18359,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR82" t="n">
         <v>1.3</v>
@@ -18574,7 +18574,7 @@
         <v>0.4</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.5</v>
@@ -19449,7 +19449,7 @@
         <v>3</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR87" t="n">
         <v>1.69</v>
@@ -19664,10 +19664,10 @@
         <v>0.75</v>
       </c>
       <c r="AP88" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR88" t="n">
         <v>1.14</v>
@@ -20100,7 +20100,7 @@
         <v>0.2</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.17</v>
@@ -20318,7 +20318,7 @@
         <v>0</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ91" t="n">
         <v>0</v>
@@ -21190,7 +21190,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.83</v>
@@ -21629,7 +21629,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR97" t="n">
         <v>2.14</v>
@@ -21862,28 +21862,28 @@
         <v>4</v>
       </c>
       <c r="AV98" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX98" t="n">
         <v>3</v>
       </c>
-      <c r="AW98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX98" t="n">
-        <v>0</v>
-      </c>
       <c r="AY98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA98" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB98" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC98" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BD98" t="n">
         <v>1.61</v>
@@ -21923,6 +21923,1314 @@
       </c>
       <c r="BP98" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6469154</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45219.64583333334</v>
+      </c>
+      <c r="F99" t="n">
+        <v>12</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Jagiellonia Białystok</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Zagłębie Lubin</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2</v>
+      </c>
+      <c r="L99" t="n">
+        <v>3</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>3</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['28', '44', '66']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S99" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U99" t="n">
+        <v>3</v>
+      </c>
+      <c r="V99" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X99" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL99" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO99" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP99" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>6469157</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45220.41666666666</v>
+      </c>
+      <c r="F100" t="n">
+        <v>12</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Puszcza Niepołomice</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Cracovia Kraków</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="n">
+        <v>2</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S100" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V100" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X100" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP100" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>6469161</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45220.52083333334</v>
+      </c>
+      <c r="F101" t="n">
+        <v>12</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Śląsk Wrocław</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Legia Warszawa</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>4</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>4</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['46', '71', '73', '77']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S101" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V101" t="n">
+        <v>3</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X101" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6469155</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F102" t="n">
+        <v>12</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Lech Poznań</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>ŁKS Łódź</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" t="n">
+        <v>3</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>4</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['18', '44', '81']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S102" t="n">
+        <v>8</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U102" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X102" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6469158</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45221.3125</v>
+      </c>
+      <c r="F103" t="n">
+        <v>12</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>2</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V103" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X103" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>6469153</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45221.52083333334</v>
+      </c>
+      <c r="F104" t="n">
+        <v>12</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Górnik Zabrze</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Raków Częstochowa</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2</v>
+      </c>
+      <c r="L104" t="n">
+        <v>2</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>3</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['10', '22']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S104" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U104" t="n">
+        <v>3</v>
+      </c>
+      <c r="V104" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X104" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP104"/>
+  <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.5</v>
@@ -1573,7 +1573,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.83</v>
@@ -3968,7 +3968,7 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ16" t="n">
         <v>1</v>
@@ -4843,7 +4843,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR20" t="n">
         <v>1.63</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ28" t="n">
         <v>2.17</v>
@@ -8331,7 +8331,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR36" t="n">
         <v>2.26</v>
@@ -8767,7 +8767,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR38" t="n">
         <v>1.69</v>
@@ -9854,7 +9854,7 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ43" t="n">
         <v>1</v>
@@ -11601,7 +11601,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR51" t="n">
         <v>1.43</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.83</v>
@@ -12691,7 +12691,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR56" t="n">
         <v>1.67</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ68" t="n">
         <v>1</v>
@@ -15743,7 +15743,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR70" t="n">
         <v>1.44</v>
@@ -16612,7 +16612,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.2</v>
@@ -16833,7 +16833,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR75" t="n">
         <v>1.99</v>
@@ -17702,7 +17702,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.2</v>
@@ -17920,7 +17920,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.83</v>
@@ -19885,7 +19885,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR89" t="n">
         <v>1.78</v>
@@ -20100,7 +20100,7 @@
         <v>0.2</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.17</v>
@@ -21411,7 +21411,7 @@
         <v>1</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR96" t="n">
         <v>1.62</v>
@@ -22513,22 +22513,22 @@
         <v>3.23</v>
       </c>
       <c r="AU101" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX101" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY101" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ101" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA101" t="n">
         <v>0</v>
@@ -22716,7 +22716,7 @@
         <v>0</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ102" t="n">
         <v>0</v>
@@ -22731,22 +22731,22 @@
         <v>3.08</v>
       </c>
       <c r="AU102" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW102" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY102" t="n">
         <v>10</v>
       </c>
       <c r="AZ102" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA102" t="n">
         <v>10</v>
@@ -23167,31 +23167,31 @@
         <v>2.54</v>
       </c>
       <c r="AU104" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV104" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX104" t="n">
         <v>4</v>
       </c>
-      <c r="AW104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX104" t="n">
-        <v>2</v>
-      </c>
       <c r="AY104" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AZ104" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB104" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BC104" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD104" t="n">
         <v>2.52</v>
@@ -23231,6 +23231,442 @@
       </c>
       <c r="BP104" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>6469159</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45222.58333333334</v>
+      </c>
+      <c r="F105" t="n">
+        <v>12</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Warta Poznań</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S105" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V105" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X105" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>6469083</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45223.54166666666</v>
+      </c>
+      <c r="F106" t="n">
+        <v>4</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Lech Poznań</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Jagiellonia Białystok</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>2</v>
+      </c>
+      <c r="L106" t="n">
+        <v>3</v>
+      </c>
+      <c r="M106" t="n">
+        <v>3</v>
+      </c>
+      <c r="N106" t="n">
+        <v>6</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['2', '43', '51']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['54', '66', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S106" t="n">
+        <v>7</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U106" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="V106" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP106"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,7 +2445,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10" t="n">
         <v>2.17</v>
@@ -3317,7 +3317,7 @@
         <v>3</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.83</v>
@@ -7895,7 +7895,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR34" t="n">
         <v>1.88</v>
@@ -10944,7 +10944,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ48" t="n">
         <v>1</v>
@@ -13345,7 +13345,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR59" t="n">
         <v>1.65</v>
@@ -15522,7 +15522,7 @@
         <v>0.25</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.33</v>
@@ -15961,7 +15961,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR71" t="n">
         <v>1.71</v>
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.33</v>
@@ -20103,7 +20103,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR90" t="n">
         <v>1.75</v>
@@ -23667,6 +23667,224 @@
       </c>
       <c r="BP106" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>6469164</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45226.54166666666</v>
+      </c>
+      <c r="F107" t="n">
+        <v>13</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Puszcza Niepołomice</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>3</v>
+      </c>
+      <c r="L107" t="n">
+        <v>5</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="n">
+        <v>8</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['6', '18', '32', '88', '90+2']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['63', '65', '90']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S107" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V107" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X107" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP107"/>
+  <dimension ref="A1:BP110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.67</v>
@@ -1573,7 +1573,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR12" t="n">
         <v>0.95</v>
@@ -3753,7 +3753,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR15" t="n">
         <v>1.3</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.33</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.83</v>
@@ -5061,7 +5061,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR21" t="n">
         <v>0.55</v>
@@ -6805,7 +6805,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR29" t="n">
         <v>1.57</v>
@@ -7238,7 +7238,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ31" t="n">
         <v>1</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.5</v>
@@ -8767,7 +8767,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR38" t="n">
         <v>1.69</v>
@@ -8982,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.67</v>
@@ -9639,7 +9639,7 @@
         <v>1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR42" t="n">
         <v>1.83</v>
@@ -10290,7 +10290,7 @@
         <v>2</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.5</v>
@@ -11165,7 +11165,7 @@
         <v>3</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR49" t="n">
         <v>1.4</v>
@@ -11380,7 +11380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ50" t="n">
         <v>2.17</v>
@@ -11598,7 +11598,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.33</v>
@@ -12037,7 +12037,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR53" t="n">
         <v>1.82</v>
@@ -12473,7 +12473,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR55" t="n">
         <v>1.77</v>
@@ -12691,7 +12691,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR56" t="n">
         <v>1.67</v>
@@ -13996,7 +13996,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.83</v>
@@ -15086,7 +15086,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.4</v>
@@ -15740,10 +15740,10 @@
         <v>1</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR70" t="n">
         <v>1.44</v>
@@ -16179,7 +16179,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR72" t="n">
         <v>1.61</v>
@@ -17269,7 +17269,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR77" t="n">
         <v>2.14</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ78" t="n">
         <v>1</v>
@@ -18356,7 +18356,7 @@
         <v>1.25</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.5</v>
@@ -18792,7 +18792,7 @@
         <v>2</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.17</v>
@@ -19228,7 +19228,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.4</v>
@@ -20757,7 +20757,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR93" t="n">
         <v>1.79</v>
@@ -21193,7 +21193,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR95" t="n">
         <v>1.63</v>
@@ -21411,7 +21411,7 @@
         <v>1</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR96" t="n">
         <v>1.62</v>
@@ -23591,7 +23591,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR106" t="n">
         <v>1.75</v>
@@ -23821,31 +23821,31 @@
         <v>3.04</v>
       </c>
       <c r="AU107" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV107" t="n">
         <v>5</v>
       </c>
-      <c r="AV107" t="n">
-        <v>2</v>
-      </c>
       <c r="AW107" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX107" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY107" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AZ107" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB107" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC107" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD107" t="n">
         <v>1.55</v>
@@ -23885,6 +23885,660 @@
       </c>
       <c r="BP107" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>6469170</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45226.64583333334</v>
+      </c>
+      <c r="F108" t="n">
+        <v>13</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>ŁKS Łódź</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Górnik Zabrze</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="n">
+        <v>5</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['42', '65', '75', '80', '82']</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S108" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V108" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X108" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>6469169</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45227.3125</v>
+      </c>
+      <c r="F109" t="n">
+        <v>13</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Warta Poznań</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>2</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="n">
+        <v>2</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S109" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V109" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X109" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6469166</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45227.41666666666</v>
+      </c>
+      <c r="F110" t="n">
+        <v>13</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Pogoń Szczecin</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Jagiellonia Białystok</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>2</v>
+      </c>
+      <c r="L110" t="n">
+        <v>2</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="n">
+        <v>3</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['44', '48']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S110" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U110" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="V110" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP110"/>
+  <dimension ref="A1:BP115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.14</v>
@@ -1791,7 +1791,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.5</v>
@@ -2663,7 +2663,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>3</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR18" t="n">
         <v>1.62</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.33</v>
@@ -5494,10 +5494,10 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR23" t="n">
         <v>1.73</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.5</v>
@@ -5933,7 +5933,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR28" t="n">
         <v>1.13</v>
@@ -7241,7 +7241,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR31" t="n">
         <v>2.3</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.14</v>
@@ -8113,7 +8113,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR35" t="n">
         <v>0.88</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR37" t="n">
         <v>1.7</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.14</v>
@@ -9203,7 +9203,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR40" t="n">
         <v>2.09</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.83</v>
@@ -9857,7 +9857,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR43" t="n">
         <v>1.27</v>
@@ -10075,7 +10075,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR44" t="n">
         <v>1.54</v>
@@ -11383,7 +11383,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR50" t="n">
         <v>1.89</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR52" t="n">
         <v>1.57</v>
@@ -12906,7 +12906,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.67</v>
@@ -13124,10 +13124,10 @@
         <v>0.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR58" t="n">
         <v>2.07</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.14</v>
@@ -13563,7 +13563,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ60" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR60" t="n">
         <v>1.22</v>
@@ -14214,7 +14214,7 @@
         <v>0</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ63" t="n">
         <v>0</v>
@@ -14653,7 +14653,7 @@
         <v>3</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR65" t="n">
         <v>1.69</v>
@@ -15089,7 +15089,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR67" t="n">
         <v>1.03</v>
@@ -15525,7 +15525,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR69" t="n">
         <v>1.83</v>
@@ -16615,7 +16615,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR74" t="n">
         <v>1.84</v>
@@ -16830,7 +16830,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.33</v>
@@ -17048,7 +17048,7 @@
         <v>0</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.2</v>
@@ -17266,7 +17266,7 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.14</v>
@@ -18141,7 +18141,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR81" t="n">
         <v>1.77</v>
@@ -18795,7 +18795,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR84" t="n">
         <v>0.98</v>
@@ -19010,10 +19010,10 @@
         <v>1.2</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR85" t="n">
         <v>1.59</v>
@@ -19231,7 +19231,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR86" t="n">
         <v>1.8</v>
@@ -20539,7 +20539,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR92" t="n">
         <v>1.58</v>
@@ -20754,7 +20754,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.86</v>
@@ -20972,7 +20972,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.67</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.2</v>
@@ -24539,6 +24539,1096 @@
       </c>
       <c r="BP110" t="n">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6469162</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45227.52083333334</v>
+      </c>
+      <c r="F111" t="n">
+        <v>13</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Cracovia Kraków</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Lech Poznań</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S111" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V111" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X111" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6469168</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45227.625</v>
+      </c>
+      <c r="F112" t="n">
+        <v>13</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Ruch Chorzów</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Śląsk Wrocław</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2</v>
+      </c>
+      <c r="K112" t="n">
+        <v>3</v>
+      </c>
+      <c r="L112" t="n">
+        <v>2</v>
+      </c>
+      <c r="M112" t="n">
+        <v>2</v>
+      </c>
+      <c r="N112" t="n">
+        <v>4</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['19', '81']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>['4', '45+2']</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S112" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V112" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X112" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6469163</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45228.35416666666</v>
+      </c>
+      <c r="F113" t="n">
+        <v>13</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Zagłębie Lubin</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2</v>
+      </c>
+      <c r="K113" t="n">
+        <v>2</v>
+      </c>
+      <c r="L113" t="n">
+        <v>2</v>
+      </c>
+      <c r="M113" t="n">
+        <v>3</v>
+      </c>
+      <c r="N113" t="n">
+        <v>5</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>['72', '77']</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>['1', '15', '78']</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S113" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V113" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X113" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6469165</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45228.45833333334</v>
+      </c>
+      <c r="F114" t="n">
+        <v>13</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Legia Warszawa</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>3</v>
+      </c>
+      <c r="N114" t="n">
+        <v>4</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>['38', '50', '82']</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S114" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U114" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V114" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X114" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6469167</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45228.5625</v>
+      </c>
+      <c r="F115" t="n">
+        <v>13</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Raków Częstochowa</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Widzew Łódź</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="n">
+        <v>2</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R115" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S115" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U115" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V115" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X115" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -24693,22 +24693,22 @@
         <v>3.03</v>
       </c>
       <c r="AU111" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV111" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW111" t="n">
         <v>7</v>
       </c>
       <c r="AX111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY111" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ111" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA111" t="n">
         <v>5</v>
@@ -24911,22 +24911,22 @@
         <v>2.81</v>
       </c>
       <c r="AU112" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW112" t="n">
         <v>3</v>
       </c>
-      <c r="AV112" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW112" t="n">
-        <v>4</v>
-      </c>
       <c r="AX112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY112" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ112" t="n">
         <v>7</v>
-      </c>
-      <c r="AZ112" t="n">
-        <v>6</v>
       </c>
       <c r="BA112" t="n">
         <v>2</v>
@@ -25347,22 +25347,22 @@
         <v>3.34</v>
       </c>
       <c r="AU114" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV114" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW114" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX114" t="n">
         <v>0</v>
       </c>
       <c r="AY114" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ114" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA114" t="n">
         <v>8</v>
@@ -25565,31 +25565,31 @@
         <v>2.84</v>
       </c>
       <c r="AU115" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV115" t="n">
         <v>4</v>
       </c>
-      <c r="AV115" t="n">
-        <v>2</v>
-      </c>
       <c r="AW115" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX115" t="n">
         <v>3</v>
       </c>
-      <c r="AX115" t="n">
-        <v>2</v>
-      </c>
       <c r="AY115" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ115" t="n">
         <v>7</v>
-      </c>
-      <c r="AZ115" t="n">
-        <v>4</v>
       </c>
       <c r="BA115" t="n">
         <v>4</v>
       </c>
       <c r="BB115" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC115" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD115" t="n">
         <v>1.34</v>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP115"/>
+  <dimension ref="A1:BP119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.33</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.14</v>
@@ -4625,7 +4625,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR20" t="n">
         <v>1.63</v>
@@ -5930,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.2</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ30" t="n">
         <v>0</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ32" t="n">
         <v>1</v>
@@ -8331,7 +8331,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR36" t="n">
         <v>2.26</v>
@@ -8549,7 +8549,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR37" t="n">
         <v>1.7</v>
@@ -8985,7 +8985,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR39" t="n">
         <v>1.16</v>
@@ -9421,7 +9421,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR41" t="n">
         <v>2.18</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ44" t="n">
         <v>2</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ46" t="n">
         <v>0</v>
@@ -10726,7 +10726,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.5</v>
@@ -11601,7 +11601,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR51" t="n">
         <v>1.43</v>
@@ -11819,7 +11819,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR52" t="n">
         <v>1.57</v>
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR54" t="n">
         <v>1.7</v>
@@ -12909,7 +12909,7 @@
         <v>2</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR57" t="n">
         <v>1.95</v>
@@ -13560,7 +13560,7 @@
         <v>1.75</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ60" t="n">
         <v>2</v>
@@ -13999,7 +13999,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR62" t="n">
         <v>1.74</v>
@@ -14432,7 +14432,7 @@
         <v>1</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ64" t="n">
         <v>1</v>
@@ -14868,7 +14868,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.5</v>
@@ -16397,7 +16397,7 @@
         <v>1</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR73" t="n">
         <v>1.68</v>
@@ -16615,7 +16615,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR74" t="n">
         <v>1.84</v>
@@ -16833,7 +16833,7 @@
         <v>2</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR75" t="n">
         <v>1.99</v>
@@ -17923,7 +17923,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR80" t="n">
         <v>1.31</v>
@@ -18138,7 +18138,7 @@
         <v>0.4</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.43</v>
@@ -18574,7 +18574,7 @@
         <v>0.4</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.5</v>
@@ -19885,7 +19885,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR89" t="n">
         <v>1.78</v>
@@ -20536,10 +20536,10 @@
         <v>0.25</v>
       </c>
       <c r="AP92" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR92" t="n">
         <v>1.58</v>
@@ -20975,7 +20975,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR94" t="n">
         <v>1.63</v>
@@ -21844,10 +21844,10 @@
         <v>1.8</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR98" t="n">
         <v>1.69</v>
@@ -22280,7 +22280,7 @@
         <v>1.6</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.5</v>
@@ -22937,7 +22937,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR103" t="n">
         <v>1.8</v>
@@ -23373,7 +23373,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR105" t="n">
         <v>1.49</v>
@@ -25335,7 +25335,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR114" t="n">
         <v>2.12</v>
@@ -25629,6 +25629,878 @@
       </c>
       <c r="BP115" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6469174</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45233.58333333334</v>
+      </c>
+      <c r="F116" t="n">
+        <v>14</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S116" t="n">
+        <v>5</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U116" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V116" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X116" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6469172</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45233.6875</v>
+      </c>
+      <c r="F117" t="n">
+        <v>14</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Jagiellonia Białystok</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>2</v>
+      </c>
+      <c r="L117" t="n">
+        <v>4</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>4</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['19', '23', '79', '83']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>2</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S117" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U117" t="n">
+        <v>3</v>
+      </c>
+      <c r="V117" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X117" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>6469183</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45234.45833333334</v>
+      </c>
+      <c r="F118" t="n">
+        <v>14</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Puszcza Niepołomice</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Pogoń Szczecin</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>2</v>
+      </c>
+      <c r="N118" t="n">
+        <v>2</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['61', '79']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R118" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S118" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U118" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V118" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X118" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP118" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6469186</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45234.5625</v>
+      </c>
+      <c r="F119" t="n">
+        <v>14</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Widzew Łódź</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Warta Poznań</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R119" t="n">
+        <v>2</v>
+      </c>
+      <c r="S119" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V119" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X119" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP119"/>
+  <dimension ref="A1:BP124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.14</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.29</v>
@@ -2227,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.29</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.57</v>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.86</v>
@@ -5276,10 +5276,10 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR24" t="n">
         <v>2.24</v>
@@ -6151,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR26" t="n">
         <v>0</v>
@@ -7459,7 +7459,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR32" t="n">
         <v>0.98</v>
@@ -7677,7 +7677,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR33" t="n">
         <v>1.24</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.43</v>
@@ -8328,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.57</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.57</v>
@@ -9200,7 +9200,7 @@
         <v>2</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.33</v>
@@ -10293,7 +10293,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR45" t="n">
         <v>1.2</v>
@@ -10729,7 +10729,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR47" t="n">
         <v>1.82</v>
@@ -10947,7 +10947,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR48" t="n">
         <v>1.78</v>
@@ -12034,7 +12034,7 @@
         <v>1</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.86</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.14</v>
@@ -12688,7 +12688,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.14</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.14</v>
@@ -13778,10 +13778,10 @@
         <v>0.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR61" t="n">
         <v>0.95</v>
@@ -14214,7 +14214,7 @@
         <v>0</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ63" t="n">
         <v>0</v>
@@ -14435,7 +14435,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR64" t="n">
         <v>1.89</v>
@@ -14871,7 +14871,7 @@
         <v>2</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR66" t="n">
         <v>1.58</v>
@@ -15307,7 +15307,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR68" t="n">
         <v>1.15</v>
@@ -15958,7 +15958,7 @@
         <v>0</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.14</v>
@@ -16176,7 +16176,7 @@
         <v>1</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.86</v>
@@ -16612,7 +16612,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.57</v>
@@ -17487,7 +17487,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR78" t="n">
         <v>1.85</v>
@@ -17702,7 +17702,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.2</v>
@@ -18359,7 +18359,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR82" t="n">
         <v>1.3</v>
@@ -18577,7 +18577,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR83" t="n">
         <v>1.19</v>
@@ -19010,7 +19010,7 @@
         <v>1.2</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.29</v>
@@ -19449,7 +19449,7 @@
         <v>3</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR87" t="n">
         <v>1.69</v>
@@ -19664,10 +19664,10 @@
         <v>0.75</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR88" t="n">
         <v>1.14</v>
@@ -20100,7 +20100,7 @@
         <v>0.2</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.14</v>
@@ -20318,7 +20318,7 @@
         <v>0</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ91" t="n">
         <v>0</v>
@@ -21190,7 +21190,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.14</v>
@@ -22065,7 +22065,7 @@
         <v>3</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR99" t="n">
         <v>1.54</v>
@@ -22283,7 +22283,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR100" t="n">
         <v>1.27</v>
@@ -22498,10 +22498,10 @@
         <v>1.25</v>
       </c>
       <c r="AP101" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR101" t="n">
         <v>1.7</v>
@@ -22716,7 +22716,7 @@
         <v>0</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ102" t="n">
         <v>0</v>
@@ -22934,7 +22934,7 @@
         <v>0.8</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.86</v>
@@ -23152,7 +23152,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.2</v>
@@ -23588,7 +23588,7 @@
         <v>1.4</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.14</v>
@@ -25550,7 +25550,7 @@
         <v>0.33</v>
       </c>
       <c r="AP115" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.43</v>
@@ -25786,19 +25786,19 @@
         <v>5</v>
       </c>
       <c r="AV116" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW116" t="n">
         <v>4</v>
       </c>
       <c r="AX116" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY116" t="n">
         <v>9</v>
       </c>
       <c r="AZ116" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA116" t="n">
         <v>1</v>
@@ -26219,22 +26219,22 @@
         <v>2.74</v>
       </c>
       <c r="AU118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV118" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW118" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AX118" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY118" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AZ118" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BA118" t="n">
         <v>6</v>
@@ -26437,31 +26437,31 @@
         <v>2.72</v>
       </c>
       <c r="AU119" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW119" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AX119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY119" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC119" t="n">
         <v>16</v>
-      </c>
-      <c r="AZ119" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA119" t="n">
-        <v>14</v>
-      </c>
-      <c r="BB119" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC119" t="n">
-        <v>14</v>
       </c>
       <c r="BD119" t="n">
         <v>1.75</v>
@@ -26501,6 +26501,1096 @@
       </c>
       <c r="BP119" t="n">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>6469173</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F120" t="n">
+        <v>14</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Lech Poznań</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Ruch Chorzów</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="n">
+        <v>2</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>2</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['36', '53']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R120" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S120" t="n">
+        <v>7</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U120" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V120" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X120" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO120" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP120" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>6469187</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45235.35416666666</v>
+      </c>
+      <c r="F121" t="n">
+        <v>14</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Śląsk Wrocław</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>ŁKS Łódź</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>2</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="n">
+        <v>3</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['12', '90+6']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R121" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S121" t="n">
+        <v>5</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U121" t="n">
+        <v>3</v>
+      </c>
+      <c r="V121" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X121" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO121" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP121" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>6469185</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45235.45833333334</v>
+      </c>
+      <c r="F122" t="n">
+        <v>14</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Raków Częstochowa</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Zagłębie Lubin</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>2</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>2</v>
+      </c>
+      <c r="L122" t="n">
+        <v>5</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>5</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['4', '39', '51', '54', '66']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R122" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S122" t="n">
+        <v>5</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U122" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V122" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X122" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN122" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO122" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP122" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>6469184</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45235.5625</v>
+      </c>
+      <c r="F123" t="n">
+        <v>14</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Legia Warszawa</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S123" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U123" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V123" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X123" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL123" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO123" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP123" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6469171</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45236.625</v>
+      </c>
+      <c r="F124" t="n">
+        <v>14</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Górnik Zabrze</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Cracovia Kraków</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R124" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S124" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T124" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V124" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X124" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL124" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN124" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO124" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP124" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP124"/>
+  <dimension ref="A1:BP126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.86</v>
@@ -2445,7 +2445,7 @@
         <v>2</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.14</v>
@@ -3317,7 +3317,7 @@
         <v>3</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.86</v>
@@ -6587,7 +6587,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR28" t="n">
         <v>1.13</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.43</v>
@@ -7895,7 +7895,7 @@
         <v>2</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR34" t="n">
         <v>1.88</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.86</v>
@@ -10075,7 +10075,7 @@
         <v>2</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR44" t="n">
         <v>1.54</v>
@@ -10290,7 +10290,7 @@
         <v>2</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.29</v>
@@ -11383,7 +11383,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR50" t="n">
         <v>1.89</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="AP54" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.86</v>
@@ -13345,7 +13345,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR59" t="n">
         <v>1.65</v>
@@ -13563,7 +13563,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ60" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR60" t="n">
         <v>1.22</v>
@@ -15086,7 +15086,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.33</v>
@@ -15961,7 +15961,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR71" t="n">
         <v>1.71</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.86</v>
@@ -18792,10 +18792,10 @@
         <v>2</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR84" t="n">
         <v>0.98</v>
@@ -20103,7 +20103,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR90" t="n">
         <v>1.75</v>
@@ -21408,7 +21408,7 @@
         <v>1</v>
       </c>
       <c r="AP96" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.14</v>
@@ -23809,7 +23809,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR107" t="n">
         <v>1.68</v>
@@ -24242,7 +24242,7 @@
         <v>0.83</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.86</v>
@@ -24678,7 +24678,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.33</v>
@@ -24899,7 +24899,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ112" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR112" t="n">
         <v>1.57</v>
@@ -27591,6 +27591,442 @@
       </c>
       <c r="BP124" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>6469195</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45240.58333333334</v>
+      </c>
+      <c r="F125" t="n">
+        <v>15</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Warta Poznań</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Puszcza Niepołomice</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2</v>
+      </c>
+      <c r="K125" t="n">
+        <v>2</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>2</v>
+      </c>
+      <c r="N125" t="n">
+        <v>2</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>['14', '24']</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R125" t="n">
+        <v>2</v>
+      </c>
+      <c r="S125" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T125" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V125" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X125" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO125" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP125" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6469188</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45240.6875</v>
+      </c>
+      <c r="F126" t="n">
+        <v>15</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Cracovia Kraków</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Śląsk Wrocław</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R126" t="n">
+        <v>2</v>
+      </c>
+      <c r="S126" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V126" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X126" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN126" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO126" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP126" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP126"/>
+  <dimension ref="A1:BP133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.29</v>
@@ -1573,7 +1573,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.43</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ10" t="n">
         <v>2.13</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR12" t="n">
         <v>0.95</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR15" t="n">
         <v>1.3</v>
@@ -3971,7 +3971,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>3</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR18" t="n">
         <v>1.62</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.86</v>
@@ -5061,7 +5061,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR21" t="n">
         <v>0.55</v>
@@ -5494,10 +5494,10 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR23" t="n">
         <v>1.73</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.43</v>
@@ -6369,7 +6369,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR27" t="n">
         <v>1.8</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28" t="n">
         <v>2.13</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR29" t="n">
         <v>1.57</v>
@@ -7238,10 +7238,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR31" t="n">
         <v>2.3</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.5</v>
@@ -8113,7 +8113,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR35" t="n">
         <v>0.88</v>
@@ -8764,10 +8764,10 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR38" t="n">
         <v>1.69</v>
@@ -8982,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.86</v>
@@ -9203,7 +9203,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR40" t="n">
         <v>2.09</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.86</v>
@@ -9639,7 +9639,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR42" t="n">
         <v>1.83</v>
@@ -9854,10 +9854,10 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR43" t="n">
         <v>1.27</v>
@@ -10944,7 +10944,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.86</v>
@@ -11165,7 +11165,7 @@
         <v>3</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR49" t="n">
         <v>1.4</v>
@@ -11380,7 +11380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ50" t="n">
         <v>2.13</v>
@@ -11598,7 +11598,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.57</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.57</v>
@@ -12037,7 +12037,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR53" t="n">
         <v>1.82</v>
@@ -12473,7 +12473,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR55" t="n">
         <v>1.77</v>
@@ -12691,7 +12691,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR56" t="n">
         <v>1.67</v>
@@ -12906,7 +12906,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.86</v>
@@ -13124,10 +13124,10 @@
         <v>0.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR58" t="n">
         <v>2.07</v>
@@ -13996,7 +13996,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.86</v>
@@ -14653,7 +14653,7 @@
         <v>3</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR65" t="n">
         <v>1.69</v>
@@ -15089,7 +15089,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR67" t="n">
         <v>1.03</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.86</v>
@@ -15522,10 +15522,10 @@
         <v>0.25</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR69" t="n">
         <v>1.83</v>
@@ -15740,10 +15740,10 @@
         <v>1</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR70" t="n">
         <v>1.44</v>
@@ -16179,7 +16179,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR72" t="n">
         <v>1.61</v>
@@ -16830,7 +16830,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.57</v>
@@ -17048,10 +17048,10 @@
         <v>0</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR76" t="n">
         <v>1.71</v>
@@ -17266,10 +17266,10 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR77" t="n">
         <v>2.14</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.33</v>
@@ -17705,7 +17705,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR79" t="n">
         <v>1.81</v>
@@ -17920,7 +17920,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.86</v>
@@ -18141,7 +18141,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR81" t="n">
         <v>1.77</v>
@@ -18356,7 +18356,7 @@
         <v>1.25</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.29</v>
@@ -19013,7 +19013,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR85" t="n">
         <v>1.59</v>
@@ -19228,10 +19228,10 @@
         <v>1.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR86" t="n">
         <v>1.8</v>
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.57</v>
@@ -20754,10 +20754,10 @@
         <v>0.8</v>
       </c>
       <c r="AP93" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR93" t="n">
         <v>1.79</v>
@@ -20972,7 +20972,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.86</v>
@@ -21193,7 +21193,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR95" t="n">
         <v>1.63</v>
@@ -21411,7 +21411,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR96" t="n">
         <v>1.62</v>
@@ -21626,10 +21626,10 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR97" t="n">
         <v>2.14</v>
@@ -23155,7 +23155,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR104" t="n">
         <v>1.39</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.57</v>
@@ -23591,7 +23591,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR106" t="n">
         <v>1.75</v>
@@ -23806,7 +23806,7 @@
         <v>0.17</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.5</v>
@@ -24024,10 +24024,10 @@
         <v>0.83</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR108" t="n">
         <v>1.25</v>
@@ -24245,7 +24245,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR109" t="n">
         <v>1.13</v>
@@ -24460,10 +24460,10 @@
         <v>1.33</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR110" t="n">
         <v>1.82</v>
@@ -24681,7 +24681,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR111" t="n">
         <v>1.68</v>
@@ -24896,7 +24896,7 @@
         <v>2.17</v>
       </c>
       <c r="AP112" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ112" t="n">
         <v>2.13</v>
@@ -25114,10 +25114,10 @@
         <v>1</v>
       </c>
       <c r="AP113" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR113" t="n">
         <v>1.72</v>
@@ -25332,7 +25332,7 @@
         <v>0.2</v>
       </c>
       <c r="AP114" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.57</v>
@@ -25553,7 +25553,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR115" t="n">
         <v>1.65</v>
@@ -28027,6 +28027,1532 @@
       </c>
       <c r="BP126" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>6469196</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45241.45833333334</v>
+      </c>
+      <c r="F127" t="n">
+        <v>15</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>ŁKS Łódź</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>3</v>
+      </c>
+      <c r="K127" t="n">
+        <v>4</v>
+      </c>
+      <c r="L127" t="n">
+        <v>3</v>
+      </c>
+      <c r="M127" t="n">
+        <v>3</v>
+      </c>
+      <c r="N127" t="n">
+        <v>6</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>['45+7', '48', '67']</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['10', '20', '38']</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R127" t="n">
+        <v>2</v>
+      </c>
+      <c r="S127" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V127" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X127" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BN127" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO127" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP127" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6469189</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45241.5625</v>
+      </c>
+      <c r="F128" t="n">
+        <v>15</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Zagłębie Lubin</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Widzew Łódź</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="n">
+        <v>2</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>['90+9']</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R128" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S128" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T128" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U128" t="n">
+        <v>3</v>
+      </c>
+      <c r="V128" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X128" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL128" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM128" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN128" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO128" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP128" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>6469190</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F129" t="n">
+        <v>15</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Jagiellonia Białystok</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>2</v>
+      </c>
+      <c r="M129" t="n">
+        <v>2</v>
+      </c>
+      <c r="N129" t="n">
+        <v>4</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>['45+4', '67']</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>['56', '81']</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R129" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S129" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="T129" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U129" t="n">
+        <v>3</v>
+      </c>
+      <c r="V129" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X129" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL129" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN129" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP129" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6469194</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45242.35416666666</v>
+      </c>
+      <c r="F130" t="n">
+        <v>15</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Górnik Zabrze</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>2</v>
+      </c>
+      <c r="L130" t="n">
+        <v>2</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="n">
+        <v>3</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['15', '51']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R130" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S130" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V130" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X130" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL130" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BM130" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN130" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO130" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP130" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6469192</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45242.45833333334</v>
+      </c>
+      <c r="F131" t="n">
+        <v>15</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Pogoń Szczecin</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Raków Częstochowa</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="n">
+        <v>2</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R131" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S131" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T131" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U131" t="n">
+        <v>3</v>
+      </c>
+      <c r="V131" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X131" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL131" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BN131" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BO131" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BP131" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6469191</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45242.5625</v>
+      </c>
+      <c r="F132" t="n">
+        <v>15</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Legia Warszawa</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Lech Poznań</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>3</v>
+      </c>
+      <c r="R132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S132" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U132" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V132" t="n">
+        <v>3</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X132" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL132" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM132" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BN132" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO132" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP132" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>6469193</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45243.625</v>
+      </c>
+      <c r="F133" t="n">
+        <v>15</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Ruch Chorzów</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R133" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S133" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T133" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V133" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X133" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL133" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BM133" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BN133" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO133" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BP133" t="n">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP133"/>
+  <dimension ref="A1:BP134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,7 +2227,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.5</v>
@@ -5715,7 +5715,7 @@
         <v>2</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR24" t="n">
         <v>2.24</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ30" t="n">
         <v>0</v>
@@ -7677,7 +7677,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR33" t="n">
         <v>1.24</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ44" t="n">
         <v>2.13</v>
@@ -10729,7 +10729,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR47" t="n">
         <v>1.82</v>
@@ -13781,7 +13781,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR61" t="n">
         <v>0.95</v>
@@ -14868,7 +14868,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.29</v>
@@ -18577,7 +18577,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR83" t="n">
         <v>1.19</v>
@@ -20536,7 +20536,7 @@
         <v>0.25</v>
       </c>
       <c r="AP92" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.57</v>
@@ -26422,7 +26422,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.57</v>
@@ -26643,7 +26643,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR120" t="n">
         <v>1.66</v>
@@ -29553,6 +29553,224 @@
       </c>
       <c r="BP133" t="n">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>6469160</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45248.5625</v>
+      </c>
+      <c r="F134" t="n">
+        <v>12</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Widzew Łódź</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Ruch Chorzów</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>2</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="n">
+        <v>3</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>['47', '87']</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R134" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S134" t="n">
+        <v>4</v>
+      </c>
+      <c r="T134" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V134" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X134" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL134" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM134" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN134" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO134" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP134" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP134"/>
+  <dimension ref="A1:BP136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.5</v>
@@ -3535,7 +3535,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR15" t="n">
         <v>1.3</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.5</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.86</v>
@@ -5061,7 +5061,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR21" t="n">
         <v>0.55</v>
@@ -6151,7 +6151,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR26" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.86</v>
@@ -9639,7 +9639,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR42" t="n">
         <v>1.83</v>
@@ -10947,7 +10947,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR48" t="n">
         <v>1.78</v>
@@ -11162,7 +11162,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AQ49" t="n">
         <v>1</v>
@@ -11598,7 +11598,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.57</v>
@@ -12037,7 +12037,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR53" t="n">
         <v>1.82</v>
@@ -14650,7 +14650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.25</v>
@@ -15307,7 +15307,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR68" t="n">
         <v>1.15</v>
@@ -15740,7 +15740,7 @@
         <v>1</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.13</v>
@@ -16179,7 +16179,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR72" t="n">
         <v>1.61</v>
@@ -18356,7 +18356,7 @@
         <v>1.25</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.29</v>
@@ -19446,7 +19446,7 @@
         <v>1.67</v>
       </c>
       <c r="AP87" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.33</v>
@@ -19667,7 +19667,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR88" t="n">
         <v>1.14</v>
@@ -20757,7 +20757,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR93" t="n">
         <v>1.79</v>
@@ -22062,10 +22062,10 @@
         <v>1.2</v>
       </c>
       <c r="AP99" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR99" t="n">
         <v>1.54</v>
@@ -24024,7 +24024,7 @@
         <v>0.83</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ108" t="n">
         <v>1</v>
@@ -24245,7 +24245,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR109" t="n">
         <v>1.13</v>
@@ -25986,7 +25986,7 @@
         <v>0.67</v>
       </c>
       <c r="AP117" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.57</v>
@@ -27079,7 +27079,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR122" t="n">
         <v>1.71</v>
@@ -28166,10 +28166,10 @@
         <v>0.86</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR127" t="n">
         <v>1.19</v>
@@ -29771,6 +29771,442 @@
       </c>
       <c r="BP134" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6469205</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45254.58333333334</v>
+      </c>
+      <c r="F135" t="n">
+        <v>16</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>ŁKS Łódź</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Zagłębie Lubin</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>2</v>
+      </c>
+      <c r="N135" t="n">
+        <v>2</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['9', '49']</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R135" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S135" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T135" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U135" t="n">
+        <v>3</v>
+      </c>
+      <c r="V135" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X135" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL135" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BM135" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN135" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO135" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP135" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>6469197</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45254.6875</v>
+      </c>
+      <c r="F136" t="n">
+        <v>16</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Jagiellonia Białystok</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R136" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T136" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V136" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X136" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BL136" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM136" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BN136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP136" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP136"/>
+  <dimension ref="A1:BP138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.13</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.5</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.57</v>
@@ -5279,7 +5279,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -5933,7 +5933,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -7238,7 +7238,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.25</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR37" t="n">
         <v>1.7</v>
@@ -10293,7 +10293,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR45" t="n">
         <v>1.2</v>
@@ -11380,7 +11380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ50" t="n">
         <v>2.13</v>
@@ -11819,7 +11819,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR52" t="n">
         <v>1.57</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.5</v>
@@ -13996,7 +13996,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.86</v>
@@ -14214,7 +14214,7 @@
         <v>0</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ63" t="n">
         <v>0</v>
@@ -14871,7 +14871,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR66" t="n">
         <v>1.58</v>
@@ -16615,7 +16615,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR74" t="n">
         <v>1.84</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.33</v>
@@ -18359,7 +18359,7 @@
         <v>1</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR82" t="n">
         <v>1.3</v>
@@ -19010,7 +19010,7 @@
         <v>1.2</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.25</v>
@@ -19228,7 +19228,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.29</v>
@@ -20539,7 +20539,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR92" t="n">
         <v>1.58</v>
@@ -22283,7 +22283,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR100" t="n">
         <v>1.27</v>
@@ -24460,7 +24460,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.13</v>
@@ -25335,7 +25335,7 @@
         <v>2</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR114" t="n">
         <v>2.12</v>
@@ -25550,7 +25550,7 @@
         <v>0.33</v>
       </c>
       <c r="AP115" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.5</v>
@@ -25989,7 +25989,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR117" t="n">
         <v>1.61</v>
@@ -27076,7 +27076,7 @@
         <v>1</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.13</v>
@@ -27515,7 +27515,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR124" t="n">
         <v>1.35</v>
@@ -29038,7 +29038,7 @@
         <v>1.2</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.17</v>
@@ -29928,19 +29928,19 @@
         <v>4</v>
       </c>
       <c r="AV135" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AW135" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX135" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AY135" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ135" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="BA135" t="n">
         <v>0</v>
@@ -30146,19 +30146,19 @@
         <v>7</v>
       </c>
       <c r="AV136" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW136" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ136" t="n">
         <v>5</v>
-      </c>
-      <c r="AX136" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY136" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ136" t="n">
-        <v>8</v>
       </c>
       <c r="BA136" t="n">
         <v>2</v>
@@ -30207,6 +30207,442 @@
       </c>
       <c r="BP136" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>6469203</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45255.45833333334</v>
+      </c>
+      <c r="F137" t="n">
+        <v>16</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Raków Częstochowa</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Cracovia Kraków</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="n">
+        <v>2</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R137" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S137" t="n">
+        <v>6</v>
+      </c>
+      <c r="T137" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U137" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V137" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X137" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL137" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM137" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN137" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO137" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP137" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>6469200</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45255.5625</v>
+      </c>
+      <c r="F138" t="n">
+        <v>16</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Pogoń Szczecin</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>2</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>3</v>
+      </c>
+      <c r="L138" t="n">
+        <v>2</v>
+      </c>
+      <c r="M138" t="n">
+        <v>3</v>
+      </c>
+      <c r="N138" t="n">
+        <v>5</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['21', '27']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['6', '55', '84']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R138" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S138" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T138" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U138" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V138" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X138" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL138" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BM138" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BN138" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BO138" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BP138" t="n">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP138"/>
+  <dimension ref="A1:BP142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR12" t="n">
         <v>0.95</v>
@@ -3968,7 +3968,7 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.25</v>
@@ -4189,7 +4189,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR18" t="n">
         <v>1.62</v>
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR20" t="n">
         <v>1.63</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.38</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.88</v>
@@ -6805,7 +6805,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR29" t="n">
         <v>1.57</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.33</v>
@@ -8113,7 +8113,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR35" t="n">
         <v>0.88</v>
@@ -8331,7 +8331,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR36" t="n">
         <v>2.26</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.13</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR41" t="n">
         <v>2.18</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46" t="n">
         <v>0</v>
@@ -11165,7 +11165,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR49" t="n">
         <v>1.4</v>
@@ -11601,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR51" t="n">
         <v>1.43</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.88</v>
@@ -12255,7 +12255,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR54" t="n">
         <v>1.7</v>
@@ -12470,10 +12470,10 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR55" t="n">
         <v>1.77</v>
@@ -13124,10 +13124,10 @@
         <v>0.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR58" t="n">
         <v>2.07</v>
@@ -13560,7 +13560,7 @@
         <v>1.75</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60" t="n">
         <v>2.13</v>
@@ -13999,7 +13999,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR62" t="n">
         <v>1.74</v>
@@ -15525,7 +15525,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR69" t="n">
         <v>1.83</v>
@@ -16612,7 +16612,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.88</v>
@@ -16833,7 +16833,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR75" t="n">
         <v>1.99</v>
@@ -17048,7 +17048,7 @@
         <v>0</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.17</v>
@@ -17266,10 +17266,10 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR77" t="n">
         <v>2.14</v>
@@ -17702,7 +17702,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.17</v>
@@ -17923,7 +17923,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR80" t="n">
         <v>1.31</v>
@@ -18141,7 +18141,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR81" t="n">
         <v>1.77</v>
@@ -18574,7 +18574,7 @@
         <v>0.4</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.38</v>
@@ -19885,7 +19885,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR89" t="n">
         <v>1.78</v>
@@ -20100,7 +20100,7 @@
         <v>0.2</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.5</v>
@@ -20972,7 +20972,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.86</v>
@@ -21193,7 +21193,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR95" t="n">
         <v>1.63</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.17</v>
@@ -22280,7 +22280,7 @@
         <v>1.6</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.25</v>
@@ -22716,7 +22716,7 @@
         <v>0</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ102" t="n">
         <v>0</v>
@@ -22937,7 +22937,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR103" t="n">
         <v>1.8</v>
@@ -23373,7 +23373,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR105" t="n">
         <v>1.49</v>
@@ -23588,7 +23588,7 @@
         <v>1.4</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.13</v>
@@ -24027,7 +24027,7 @@
         <v>1</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR108" t="n">
         <v>1.25</v>
@@ -24896,7 +24896,7 @@
         <v>2.17</v>
       </c>
       <c r="AP112" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ112" t="n">
         <v>2.13</v>
@@ -25332,7 +25332,7 @@
         <v>0.2</v>
       </c>
       <c r="AP114" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.88</v>
@@ -25553,7 +25553,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR115" t="n">
         <v>1.65</v>
@@ -25771,7 +25771,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR116" t="n">
         <v>1.61</v>
@@ -26204,7 +26204,7 @@
         <v>1.67</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.86</v>
@@ -26425,7 +26425,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR119" t="n">
         <v>1.52</v>
@@ -26640,7 +26640,7 @@
         <v>0.5</v>
       </c>
       <c r="AP120" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.38</v>
@@ -28387,7 +28387,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR128" t="n">
         <v>1.89</v>
@@ -28823,7 +28823,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR130" t="n">
         <v>1.44</v>
@@ -29256,7 +29256,7 @@
         <v>1.33</v>
       </c>
       <c r="AP132" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.29</v>
@@ -29474,7 +29474,7 @@
         <v>1.29</v>
       </c>
       <c r="AP133" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.25</v>
@@ -29928,19 +29928,19 @@
         <v>4</v>
       </c>
       <c r="AV135" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AW135" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX135" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY135" t="n">
         <v>8</v>
       </c>
-      <c r="AY135" t="n">
-        <v>9</v>
-      </c>
       <c r="AZ135" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="BA135" t="n">
         <v>0</v>
@@ -30146,19 +30146,19 @@
         <v>7</v>
       </c>
       <c r="AV136" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW136" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX136" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY136" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ136" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA136" t="n">
         <v>2</v>
@@ -30361,31 +30361,31 @@
         <v>3.15</v>
       </c>
       <c r="AU137" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV137" t="n">
         <v>4</v>
       </c>
-      <c r="AV137" t="n">
-        <v>3</v>
-      </c>
       <c r="AW137" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX137" t="n">
         <v>4</v>
       </c>
-      <c r="AX137" t="n">
-        <v>2</v>
-      </c>
       <c r="AY137" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ137" t="n">
         <v>8</v>
       </c>
-      <c r="AZ137" t="n">
+      <c r="BA137" t="n">
         <v>5</v>
-      </c>
-      <c r="BA137" t="n">
-        <v>6</v>
       </c>
       <c r="BB137" t="n">
         <v>4</v>
       </c>
       <c r="BC137" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD137" t="n">
         <v>1.41</v>
@@ -30579,22 +30579,22 @@
         <v>2.98</v>
       </c>
       <c r="AU138" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV138" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW138" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY138" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ138" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA138" t="n">
         <v>11</v>
@@ -30643,6 +30643,878 @@
       </c>
       <c r="BP138" t="n">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>6469199</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45255.66666666666</v>
+      </c>
+      <c r="F139" t="n">
+        <v>16</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Legia Warszawa</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Warta Poznań</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2</v>
+      </c>
+      <c r="K139" t="n">
+        <v>3</v>
+      </c>
+      <c r="L139" t="n">
+        <v>2</v>
+      </c>
+      <c r="M139" t="n">
+        <v>2</v>
+      </c>
+      <c r="N139" t="n">
+        <v>4</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['45+5', '63']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['7', '40']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R139" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S139" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V139" t="n">
+        <v>3</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X139" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL139" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM139" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN139" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO139" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP139" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>6469201</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45256.35416666666</v>
+      </c>
+      <c r="F140" t="n">
+        <v>16</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Puszcza Niepołomice</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Górnik Zabrze</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>2</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="n">
+        <v>3</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['54', '71']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R140" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S140" t="n">
+        <v>3</v>
+      </c>
+      <c r="T140" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V140" t="n">
+        <v>3</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X140" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL140" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BM140" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN140" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO140" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BP140" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6469204</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45256.45833333334</v>
+      </c>
+      <c r="F141" t="n">
+        <v>16</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Ruch Chorzów</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="n">
+        <v>2</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R141" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S141" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T141" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V141" t="n">
+        <v>3</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X141" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL141" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM141" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN141" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO141" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP141" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>6469198</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45256.5625</v>
+      </c>
+      <c r="F142" t="n">
+        <v>16</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Lech Poznań</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Widzew Łódź</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="n">
+        <v>3</v>
+      </c>
+      <c r="N142" t="n">
+        <v>4</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['16', '90+3', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R142" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S142" t="n">
+        <v>6</v>
+      </c>
+      <c r="T142" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U142" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V142" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X142" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL142" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO142" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP142" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -31015,10 +31015,10 @@
         <v>2.61</v>
       </c>
       <c r="AU140" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV140" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW140" t="n">
         <v>2</v>
@@ -31027,10 +31027,10 @@
         <v>7</v>
       </c>
       <c r="AY140" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ140" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA140" t="n">
         <v>1</v>
@@ -31233,22 +31233,22 @@
         <v>2.79</v>
       </c>
       <c r="AU141" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV141" t="n">
         <v>6</v>
       </c>
       <c r="AW141" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX141" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY141" t="n">
         <v>9</v>
       </c>
-      <c r="AY141" t="n">
-        <v>8</v>
-      </c>
       <c r="AZ141" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA141" t="n">
         <v>6</v>
@@ -31454,19 +31454,19 @@
         <v>9</v>
       </c>
       <c r="AV142" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW142" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY142" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ142" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BA142" t="n">
         <v>8</v>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP142"/>
+  <dimension ref="A1:BP143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2663,7 +2663,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.25</v>
@@ -6587,7 +6587,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR28" t="n">
         <v>1.13</v>
@@ -8328,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.5</v>
@@ -10075,7 +10075,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR44" t="n">
         <v>1.54</v>
@@ -11383,7 +11383,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR50" t="n">
         <v>1.89</v>
@@ -12034,7 +12034,7 @@
         <v>1</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.89</v>
@@ -13563,7 +13563,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ60" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR60" t="n">
         <v>1.22</v>
@@ -15958,7 +15958,7 @@
         <v>0</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.5</v>
@@ -18795,7 +18795,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR84" t="n">
         <v>0.98</v>
@@ -20318,7 +20318,7 @@
         <v>0</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ91" t="n">
         <v>0</v>
@@ -22934,7 +22934,7 @@
         <v>0.8</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.88</v>
@@ -24899,7 +24899,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ112" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR112" t="n">
         <v>1.57</v>
@@ -27294,7 +27294,7 @@
         <v>1</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.33</v>
@@ -27951,7 +27951,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ126" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR126" t="n">
         <v>1.73</v>
@@ -31015,10 +31015,10 @@
         <v>2.61</v>
       </c>
       <c r="AU140" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV140" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AW140" t="n">
         <v>2</v>
@@ -31027,10 +31027,10 @@
         <v>7</v>
       </c>
       <c r="AY140" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ140" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA140" t="n">
         <v>1</v>
@@ -31233,22 +31233,22 @@
         <v>2.79</v>
       </c>
       <c r="AU141" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV141" t="n">
         <v>6</v>
       </c>
       <c r="AW141" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX141" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY141" t="n">
         <v>8</v>
       </c>
-      <c r="AY141" t="n">
-        <v>9</v>
-      </c>
       <c r="AZ141" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA141" t="n">
         <v>6</v>
@@ -31454,19 +31454,19 @@
         <v>9</v>
       </c>
       <c r="AV142" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW142" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY142" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ142" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA142" t="n">
         <v>8</v>
@@ -31515,6 +31515,224 @@
       </c>
       <c r="BP142" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>6469202</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45257.625</v>
+      </c>
+      <c r="F143" t="n">
+        <v>16</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Śląsk Wrocław</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>3</v>
+      </c>
+      <c r="R143" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S143" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T143" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V143" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X143" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL143" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM143" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN143" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO143" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP143" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP143"/>
+  <dimension ref="A1:BP150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.5</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ10" t="n">
         <v>2.22</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.89</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.13</v>
@@ -3971,7 +3971,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.89</v>
@@ -5494,10 +5494,10 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR23" t="n">
         <v>1.73</v>
@@ -5715,7 +5715,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR24" t="n">
         <v>2.24</v>
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.13</v>
@@ -6369,7 +6369,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR27" t="n">
         <v>1.8</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.89</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ30" t="n">
         <v>0</v>
@@ -7241,7 +7241,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR31" t="n">
         <v>2.3</v>
@@ -7459,7 +7459,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR32" t="n">
         <v>0.98</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR33" t="n">
         <v>1.24</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.5</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.78</v>
@@ -8767,7 +8767,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR38" t="n">
         <v>1.69</v>
@@ -8985,7 +8985,7 @@
         <v>1</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR39" t="n">
         <v>1.16</v>
@@ -9200,10 +9200,10 @@
         <v>2</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR40" t="n">
         <v>2.09</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.89</v>
@@ -9857,7 +9857,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR43" t="n">
         <v>1.27</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ44" t="n">
         <v>2.22</v>
@@ -10290,7 +10290,7 @@
         <v>2</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.25</v>
@@ -10729,7 +10729,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR47" t="n">
         <v>1.82</v>
@@ -10944,7 +10944,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.13</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="AP54" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.88</v>
@@ -12688,10 +12688,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR56" t="n">
         <v>1.67</v>
@@ -12906,10 +12906,10 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR57" t="n">
         <v>1.95</v>
@@ -13778,10 +13778,10 @@
         <v>0.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR61" t="n">
         <v>0.95</v>
@@ -14435,7 +14435,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR64" t="n">
         <v>1.89</v>
@@ -14653,7 +14653,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR65" t="n">
         <v>1.69</v>
@@ -14868,7 +14868,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.25</v>
@@ -15086,10 +15086,10 @@
         <v>1.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR67" t="n">
         <v>1.03</v>
@@ -15522,7 +15522,7 @@
         <v>0.25</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.78</v>
@@ -15743,7 +15743,7 @@
         <v>1</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR70" t="n">
         <v>1.44</v>
@@ -16176,7 +16176,7 @@
         <v>1</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.89</v>
@@ -16394,10 +16394,10 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR73" t="n">
         <v>1.68</v>
@@ -16830,7 +16830,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.5</v>
@@ -17051,7 +17051,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR76" t="n">
         <v>1.71</v>
@@ -17487,7 +17487,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR78" t="n">
         <v>1.85</v>
@@ -17705,7 +17705,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR79" t="n">
         <v>1.81</v>
@@ -18577,7 +18577,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR83" t="n">
         <v>1.19</v>
@@ -18792,7 +18792,7 @@
         <v>2</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.22</v>
@@ -19013,7 +19013,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR85" t="n">
         <v>1.59</v>
@@ -19231,7 +19231,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR86" t="n">
         <v>1.8</v>
@@ -19449,7 +19449,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR87" t="n">
         <v>1.69</v>
@@ -19664,7 +19664,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.13</v>
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.5</v>
@@ -20536,7 +20536,7 @@
         <v>0.25</v>
       </c>
       <c r="AP92" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.88</v>
@@ -20754,7 +20754,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.89</v>
@@ -20975,7 +20975,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR94" t="n">
         <v>1.63</v>
@@ -21190,7 +21190,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.89</v>
@@ -21408,10 +21408,10 @@
         <v>1</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR96" t="n">
         <v>1.62</v>
@@ -21629,7 +21629,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR97" t="n">
         <v>2.14</v>
@@ -21847,7 +21847,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR98" t="n">
         <v>1.69</v>
@@ -22498,10 +22498,10 @@
         <v>1.25</v>
       </c>
       <c r="AP101" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR101" t="n">
         <v>1.7</v>
@@ -23152,10 +23152,10 @@
         <v>1.5</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR104" t="n">
         <v>1.39</v>
@@ -23591,7 +23591,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR106" t="n">
         <v>1.75</v>
@@ -23806,7 +23806,7 @@
         <v>0.17</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.5</v>
@@ -24242,7 +24242,7 @@
         <v>0.83</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.89</v>
@@ -24463,7 +24463,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR110" t="n">
         <v>1.82</v>
@@ -24678,10 +24678,10 @@
         <v>1.4</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR111" t="n">
         <v>1.68</v>
@@ -25114,10 +25114,10 @@
         <v>1</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR113" t="n">
         <v>1.72</v>
@@ -26207,7 +26207,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR118" t="n">
         <v>1.32</v>
@@ -26422,7 +26422,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.5</v>
@@ -26643,7 +26643,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR120" t="n">
         <v>1.66</v>
@@ -26858,7 +26858,7 @@
         <v>0</v>
       </c>
       <c r="AP121" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ121" t="n">
         <v>0</v>
@@ -27297,7 +27297,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR123" t="n">
         <v>1.78</v>
@@ -27512,7 +27512,7 @@
         <v>1.5</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.25</v>
@@ -27730,7 +27730,7 @@
         <v>0.14</v>
       </c>
       <c r="AP125" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.5</v>
@@ -27948,7 +27948,7 @@
         <v>2</v>
       </c>
       <c r="AP126" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ126" t="n">
         <v>2.22</v>
@@ -28384,7 +28384,7 @@
         <v>0.43</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ128" t="n">
         <v>0.78</v>
@@ -28602,10 +28602,10 @@
         <v>1.14</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR129" t="n">
         <v>1.76</v>
@@ -29041,7 +29041,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR131" t="n">
         <v>1.81</v>
@@ -29259,7 +29259,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR132" t="n">
         <v>2.15</v>
@@ -29477,7 +29477,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR133" t="n">
         <v>1.55</v>
@@ -29692,10 +29692,10 @@
         <v>0.43</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR134" t="n">
         <v>1.63</v>
@@ -31732,6 +31732,1532 @@
         <v>3.14</v>
       </c>
       <c r="BP143" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>6469212</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45261.58333333334</v>
+      </c>
+      <c r="F144" t="n">
+        <v>17</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Warta Poznań</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Jagiellonia Białystok</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="n">
+        <v>2</v>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="n">
+        <v>2</v>
+      </c>
+      <c r="N144" t="n">
+        <v>3</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['1', '66']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="R144" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S144" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V144" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X144" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL144" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM144" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO144" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP144" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>6469207</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45261.6875</v>
+      </c>
+      <c r="F145" t="n">
+        <v>17</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Górnik Zabrze</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Pogoń Szczecin</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="R145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S145" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T145" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V145" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X145" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL145" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM145" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BN145" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO145" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP145" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6469213</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45262.5625</v>
+      </c>
+      <c r="F146" t="n">
+        <v>17</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Widzew Łódź</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>3</v>
+      </c>
+      <c r="N146" t="n">
+        <v>3</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['38', '45+4', '74']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R146" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S146" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="T146" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V146" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X146" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BL146" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BM146" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN146" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO146" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP146" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>6469209</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45262.66666666666</v>
+      </c>
+      <c r="F147" t="n">
+        <v>17</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Lech Poznań</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R147" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S147" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T147" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U147" t="n">
+        <v>3</v>
+      </c>
+      <c r="V147" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X147" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL147" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM147" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN147" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO147" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP147" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>6469206</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45263.35416666666</v>
+      </c>
+      <c r="F148" t="n">
+        <v>17</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Cracovia Kraków</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Ruch Chorzów</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2</v>
+      </c>
+      <c r="K148" t="n">
+        <v>3</v>
+      </c>
+      <c r="L148" t="n">
+        <v>4</v>
+      </c>
+      <c r="M148" t="n">
+        <v>4</v>
+      </c>
+      <c r="N148" t="n">
+        <v>8</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['18', '60', '77', '89']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['32', '45+2', '64', '81']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R148" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S148" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V148" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X148" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>22</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL148" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM148" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BN148" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO148" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BP148" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>6469208</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45263.45833333334</v>
+      </c>
+      <c r="F149" t="n">
+        <v>17</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Zagłębie Lubin</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Legia Warszawa</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>2</v>
+      </c>
+      <c r="K149" t="n">
+        <v>2</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>3</v>
+      </c>
+      <c r="N149" t="n">
+        <v>3</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['2', '4', '64']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R149" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S149" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T149" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U149" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X149" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL149" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM149" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BN149" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO149" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BP149" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6469214</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45263.5625</v>
+      </c>
+      <c r="F150" t="n">
+        <v>17</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Śląsk Wrocław</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Raków Częstochowa</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="n">
+        <v>2</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="R150" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S150" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="V150" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X150" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL150" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM150" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN150" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO150" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP150" t="n">
         <v>1.29</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -33195,19 +33195,19 @@
         <v>2.95</v>
       </c>
       <c r="AU150" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV150" t="n">
         <v>6</v>
       </c>
       <c r="AW150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX150" t="n">
         <v>4</v>
       </c>
       <c r="AY150" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ150" t="n">
         <v>10</v>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP150"/>
+  <dimension ref="A1:BP154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR12" t="n">
         <v>0.95</v>
@@ -3535,7 +3535,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.78</v>
@@ -4843,7 +4843,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR20" t="n">
         <v>1.63</v>
@@ -5276,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.25</v>
@@ -5933,7 +5933,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -6148,10 +6148,10 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR26" t="n">
         <v>0</v>
@@ -6805,7 +6805,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR29" t="n">
         <v>1.57</v>
@@ -7238,7 +7238,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.44</v>
@@ -8328,10 +8328,10 @@
         <v>1</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR36" t="n">
         <v>2.26</v>
@@ -8549,7 +8549,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR37" t="n">
         <v>1.7</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.33</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.89</v>
@@ -10947,7 +10947,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR48" t="n">
         <v>1.78</v>
@@ -11165,7 +11165,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR49" t="n">
         <v>1.4</v>
@@ -11380,7 +11380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ50" t="n">
         <v>2.22</v>
@@ -11601,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR51" t="n">
         <v>1.43</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR52" t="n">
         <v>1.57</v>
@@ -12034,7 +12034,7 @@
         <v>1</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.89</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="AP54" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.88</v>
@@ -12473,7 +12473,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR55" t="n">
         <v>1.77</v>
@@ -13996,7 +13996,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.88</v>
@@ -15307,7 +15307,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR68" t="n">
         <v>1.15</v>
@@ -15958,7 +15958,7 @@
         <v>0</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.5</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.63</v>
@@ -16615,7 +16615,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR74" t="n">
         <v>1.84</v>
@@ -16833,7 +16833,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR75" t="n">
         <v>1.99</v>
@@ -17048,7 +17048,7 @@
         <v>0</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.14</v>
@@ -17269,7 +17269,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR77" t="n">
         <v>2.14</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.57</v>
@@ -19228,7 +19228,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.5</v>
@@ -19667,7 +19667,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR88" t="n">
         <v>1.14</v>
@@ -19885,7 +19885,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR89" t="n">
         <v>1.78</v>
@@ -20318,7 +20318,7 @@
         <v>0</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ91" t="n">
         <v>0</v>
@@ -20539,7 +20539,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR92" t="n">
         <v>1.58</v>
@@ -20972,7 +20972,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.63</v>
@@ -21193,7 +21193,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR95" t="n">
         <v>1.63</v>
@@ -21408,7 +21408,7 @@
         <v>1</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.33</v>
@@ -22065,7 +22065,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR99" t="n">
         <v>1.54</v>
@@ -22934,7 +22934,7 @@
         <v>0.8</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.88</v>
@@ -23373,7 +23373,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR105" t="n">
         <v>1.49</v>
@@ -24027,7 +24027,7 @@
         <v>1</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR108" t="n">
         <v>1.25</v>
@@ -24460,7 +24460,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.33</v>
@@ -24678,7 +24678,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.5</v>
@@ -24896,7 +24896,7 @@
         <v>2.17</v>
       </c>
       <c r="AP112" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ112" t="n">
         <v>2.22</v>
@@ -25335,7 +25335,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR114" t="n">
         <v>2.12</v>
@@ -25989,7 +25989,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR117" t="n">
         <v>1.61</v>
@@ -26425,7 +26425,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR119" t="n">
         <v>1.52</v>
@@ -27079,7 +27079,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR122" t="n">
         <v>1.71</v>
@@ -27294,7 +27294,7 @@
         <v>1</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.57</v>
@@ -27948,7 +27948,7 @@
         <v>2</v>
       </c>
       <c r="AP126" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ126" t="n">
         <v>2.22</v>
@@ -28823,7 +28823,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR130" t="n">
         <v>1.44</v>
@@ -29038,7 +29038,7 @@
         <v>1.2</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.14</v>
@@ -29474,7 +29474,7 @@
         <v>1.29</v>
       </c>
       <c r="AP133" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.44</v>
@@ -29913,7 +29913,7 @@
         <v>1</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR135" t="n">
         <v>1.24</v>
@@ -30564,10 +30564,10 @@
         <v>0.57</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR138" t="n">
         <v>1.89</v>
@@ -30785,7 +30785,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR139" t="n">
         <v>2.03</v>
@@ -31003,7 +31003,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR140" t="n">
         <v>1.32</v>
@@ -31218,7 +31218,7 @@
         <v>0.86</v>
       </c>
       <c r="AP141" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ141" t="n">
         <v>0.88</v>
@@ -31654,7 +31654,7 @@
         <v>2.13</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ143" t="n">
         <v>2.22</v>
@@ -32744,7 +32744,7 @@
         <v>0.38</v>
       </c>
       <c r="AP148" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.44</v>
@@ -33259,6 +33259,878 @@
       </c>
       <c r="BP150" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6469221</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45268.58333333334</v>
+      </c>
+      <c r="F151" t="n">
+        <v>18</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Ruch Chorzów</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Zagłębie Lubin</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>2</v>
+      </c>
+      <c r="M151" t="n">
+        <v>2</v>
+      </c>
+      <c r="N151" t="n">
+        <v>4</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['78', '82']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['9', '50']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R151" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S151" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="T151" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V151" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X151" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL151" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM151" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN151" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO151" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BP151" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>6469218</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45268.6875</v>
+      </c>
+      <c r="F152" t="n">
+        <v>18</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Pogoń Szczecin</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Warta Poznań</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>3</v>
+      </c>
+      <c r="M152" t="n">
+        <v>3</v>
+      </c>
+      <c r="N152" t="n">
+        <v>6</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['50', '61', '78']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['9', '82', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R152" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S152" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T152" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V152" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X152" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL152" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM152" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN152" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO152" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP152" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>6469220</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45269.45833333334</v>
+      </c>
+      <c r="F153" t="n">
+        <v>18</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Górnik Zabrze</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" t="n">
+        <v>2</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="n">
+        <v>2</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R153" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S153" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V153" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X153" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL153" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM153" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN153" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO153" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP153" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>6469215</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45269.5625</v>
+      </c>
+      <c r="F154" t="n">
+        <v>18</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Cracovia Kraków</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>2</v>
+      </c>
+      <c r="M154" t="n">
+        <v>2</v>
+      </c>
+      <c r="N154" t="n">
+        <v>4</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['69', '80']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['86', '87']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R154" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S154" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="V154" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X154" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL154" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM154" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN154" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO154" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP154" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP154"/>
+  <dimension ref="A1:BP158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.5</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.11</v>
@@ -3753,7 +3753,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR15" t="n">
         <v>1.3</v>
@@ -3968,7 +3968,7 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.44</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.78</v>
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR21" t="n">
         <v>0.55</v>
@@ -6369,7 +6369,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR27" t="n">
         <v>1.8</v>
@@ -7459,7 +7459,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR32" t="n">
         <v>0.98</v>
@@ -9200,7 +9200,7 @@
         <v>2</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.5</v>
@@ -9421,7 +9421,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR41" t="n">
         <v>2.18</v>
@@ -9639,7 +9639,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR42" t="n">
         <v>1.83</v>
@@ -11162,7 +11162,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.9</v>
@@ -12037,7 +12037,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR53" t="n">
         <v>1.82</v>
@@ -12255,7 +12255,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR54" t="n">
         <v>1.7</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.9</v>
@@ -12688,7 +12688,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.33</v>
@@ -13999,7 +13999,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR62" t="n">
         <v>1.74</v>
@@ -14435,7 +14435,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR64" t="n">
         <v>1.89</v>
@@ -14650,7 +14650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.44</v>
@@ -16176,10 +16176,10 @@
         <v>1</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR72" t="n">
         <v>1.61</v>
@@ -16612,7 +16612,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.89</v>
@@ -17051,7 +17051,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR76" t="n">
         <v>1.71</v>
@@ -17487,7 +17487,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR78" t="n">
         <v>1.85</v>
@@ -17702,10 +17702,10 @@
         <v>1.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR79" t="n">
         <v>1.81</v>
@@ -17923,7 +17923,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR80" t="n">
         <v>1.31</v>
@@ -19446,10 +19446,10 @@
         <v>1.67</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR87" t="n">
         <v>1.69</v>
@@ -20100,7 +20100,7 @@
         <v>0.2</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.5</v>
@@ -20757,7 +20757,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR93" t="n">
         <v>1.79</v>
@@ -21190,7 +21190,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.9</v>
@@ -21629,7 +21629,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR97" t="n">
         <v>2.14</v>
@@ -22062,7 +22062,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.11</v>
@@ -22498,10 +22498,10 @@
         <v>1.25</v>
       </c>
       <c r="AP101" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR101" t="n">
         <v>1.7</v>
@@ -22716,7 +22716,7 @@
         <v>0</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ102" t="n">
         <v>0</v>
@@ -22937,7 +22937,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR103" t="n">
         <v>1.8</v>
@@ -23155,7 +23155,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR104" t="n">
         <v>1.39</v>
@@ -23588,7 +23588,7 @@
         <v>1.4</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.33</v>
@@ -24245,7 +24245,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR109" t="n">
         <v>1.13</v>
@@ -25771,7 +25771,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR116" t="n">
         <v>1.61</v>
@@ -25986,7 +25986,7 @@
         <v>0.67</v>
       </c>
       <c r="AP117" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.89</v>
@@ -26640,7 +26640,7 @@
         <v>0.5</v>
       </c>
       <c r="AP120" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.44</v>
@@ -26858,7 +26858,7 @@
         <v>0</v>
       </c>
       <c r="AP121" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ121" t="n">
         <v>0</v>
@@ -27297,7 +27297,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR123" t="n">
         <v>1.78</v>
@@ -28169,7 +28169,7 @@
         <v>1</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR127" t="n">
         <v>1.19</v>
@@ -29041,7 +29041,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR131" t="n">
         <v>1.81</v>
@@ -30128,10 +30128,10 @@
         <v>0.88</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR136" t="n">
         <v>1.63</v>
@@ -31221,7 +31221,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR141" t="n">
         <v>1.51</v>
@@ -31436,7 +31436,7 @@
         <v>0.5</v>
       </c>
       <c r="AP142" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ142" t="n">
         <v>0.78</v>
@@ -32965,7 +32965,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR149" t="n">
         <v>1.84</v>
@@ -33180,10 +33180,10 @@
         <v>1.17</v>
       </c>
       <c r="AP150" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR150" t="n">
         <v>1.67</v>
@@ -33413,22 +33413,22 @@
         <v>2.95</v>
       </c>
       <c r="AU151" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX151" t="n">
         <v>4</v>
       </c>
-      <c r="AV151" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW151" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX151" t="n">
-        <v>2</v>
-      </c>
       <c r="AY151" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ151" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA151" t="n">
         <v>4</v>
@@ -33849,22 +33849,22 @@
         <v>2.99</v>
       </c>
       <c r="AU153" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV153" t="n">
         <v>3</v>
       </c>
       <c r="AW153" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX153" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY153" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ153" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA153" t="n">
         <v>12</v>
@@ -34067,31 +34067,31 @@
         <v>2.94</v>
       </c>
       <c r="AU154" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV154" t="n">
         <v>2</v>
       </c>
       <c r="AW154" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX154" t="n">
         <v>1</v>
       </c>
       <c r="AY154" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ154" t="n">
         <v>3</v>
       </c>
       <c r="BA154" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC154" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD154" t="n">
         <v>1.37</v>
@@ -34131,6 +34131,878 @@
       </c>
       <c r="BP154" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6469223</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45269.66666666666</v>
+      </c>
+      <c r="F155" t="n">
+        <v>18</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Śląsk Wrocław</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R155" t="n">
+        <v>2</v>
+      </c>
+      <c r="S155" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T155" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V155" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X155" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM155" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN155" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO155" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP155" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>6469217</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45270.35416666666</v>
+      </c>
+      <c r="F156" t="n">
+        <v>18</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Lech Poznań</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="R156" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S156" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T156" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V156" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X156" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL156" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM156" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN156" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO156" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP156" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>6469222</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45270.45833333334</v>
+      </c>
+      <c r="F157" t="n">
+        <v>18</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>ŁKS Łódź</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Legia Warszawa</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>2</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R157" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S157" t="n">
+        <v>2</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U157" t="n">
+        <v>3</v>
+      </c>
+      <c r="V157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X157" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL157" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM157" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BN157" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP157" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>6469216</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45270.5625</v>
+      </c>
+      <c r="F158" t="n">
+        <v>18</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Jagiellonia Białystok</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Raków Częstochowa</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>2</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>3</v>
+      </c>
+      <c r="L158" t="n">
+        <v>4</v>
+      </c>
+      <c r="M158" t="n">
+        <v>2</v>
+      </c>
+      <c r="N158" t="n">
+        <v>6</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['12', '33', '46', '63']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['22', '86']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R158" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S158" t="n">
+        <v>3</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X158" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL158" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM158" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN158" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO158" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP158" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP158"/>
+  <dimension ref="A1:BP159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4189,7 +4189,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR18" t="n">
         <v>1.62</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.89</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.5</v>
@@ -8113,7 +8113,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR35" t="n">
         <v>0.88</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ46" t="n">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR58" t="n">
         <v>2.07</v>
@@ -13560,7 +13560,7 @@
         <v>1.75</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ60" t="n">
         <v>2.22</v>
@@ -15525,7 +15525,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR69" t="n">
         <v>1.83</v>
@@ -18141,7 +18141,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR81" t="n">
         <v>1.77</v>
@@ -18574,7 +18574,7 @@
         <v>0.4</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.44</v>
@@ -22280,7 +22280,7 @@
         <v>1.6</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.25</v>
@@ -25553,7 +25553,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR115" t="n">
         <v>1.65</v>
@@ -26204,7 +26204,7 @@
         <v>1.67</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.63</v>
@@ -28387,7 +28387,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR128" t="n">
         <v>1.89</v>
@@ -31000,7 +31000,7 @@
         <v>1</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ140" t="n">
         <v>0.9</v>
@@ -31439,7 +31439,7 @@
         <v>2</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR142" t="n">
         <v>1.68</v>
@@ -34067,22 +34067,22 @@
         <v>2.94</v>
       </c>
       <c r="AU154" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV154" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW154" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX154" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY154" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ154" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BA154" t="n">
         <v>12</v>
@@ -34285,22 +34285,22 @@
         <v>2.99</v>
       </c>
       <c r="AU155" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV155" t="n">
         <v>0</v>
       </c>
       <c r="AW155" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX155" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY155" t="n">
         <v>10</v>
       </c>
       <c r="AZ155" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA155" t="n">
         <v>7</v>
@@ -34727,16 +34727,16 @@
         <v>6</v>
       </c>
       <c r="AW157" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX157" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AY157" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ157" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA157" t="n">
         <v>1</v>
@@ -34939,22 +34939,22 @@
         <v>3</v>
       </c>
       <c r="AU158" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV158" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW158" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX158" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY158" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AZ158" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA158" t="n">
         <v>3</v>
@@ -35003,6 +35003,224 @@
       </c>
       <c r="BP158" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6469219</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45271.625</v>
+      </c>
+      <c r="F159" t="n">
+        <v>18</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Puszcza Niepołomice</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Widzew Łódź</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R159" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S159" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V159" t="n">
+        <v>3</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X159" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL159" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM159" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BN159" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP159" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP159"/>
+  <dimension ref="A1:BP165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.44</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.5</v>
@@ -2663,7 +2663,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR20" t="n">
         <v>1.63</v>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.1</v>
@@ -5276,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.25</v>
@@ -5494,10 +5494,10 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR23" t="n">
         <v>1.73</v>
@@ -5715,7 +5715,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR24" t="n">
         <v>2.24</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.89</v>
@@ -6587,7 +6587,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR28" t="n">
         <v>1.13</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ30" t="n">
         <v>0</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.5</v>
@@ -7677,7 +7677,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR33" t="n">
         <v>1.24</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.5</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.7</v>
@@ -8328,10 +8328,10 @@
         <v>1</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR36" t="n">
         <v>2.26</v>
@@ -8767,7 +8767,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR38" t="n">
         <v>1.69</v>
@@ -8985,7 +8985,7 @@
         <v>1</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR39" t="n">
         <v>1.16</v>
@@ -9203,7 +9203,7 @@
         <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR40" t="n">
         <v>2.09</v>
@@ -10072,10 +10072,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR44" t="n">
         <v>1.54</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ46" t="n">
         <v>0</v>
@@ -10729,7 +10729,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR47" t="n">
         <v>1.82</v>
@@ -11383,7 +11383,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR50" t="n">
         <v>1.89</v>
@@ -11601,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR51" t="n">
         <v>1.43</v>
@@ -12034,7 +12034,7 @@
         <v>1</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.1</v>
@@ -12691,7 +12691,7 @@
         <v>2</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR56" t="n">
         <v>1.67</v>
@@ -12906,10 +12906,10 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR57" t="n">
         <v>1.95</v>
@@ -13560,10 +13560,10 @@
         <v>1.75</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ60" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR60" t="n">
         <v>1.22</v>
@@ -13778,10 +13778,10 @@
         <v>0.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR61" t="n">
         <v>0.95</v>
@@ -14868,7 +14868,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.25</v>
@@ -15089,7 +15089,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR67" t="n">
         <v>1.03</v>
@@ -15743,7 +15743,7 @@
         <v>1</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR70" t="n">
         <v>1.44</v>
@@ -15958,7 +15958,7 @@
         <v>0</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.5</v>
@@ -16397,7 +16397,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR73" t="n">
         <v>1.68</v>
@@ -16830,10 +16830,10 @@
         <v>1.33</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR75" t="n">
         <v>1.99</v>
@@ -18574,10 +18574,10 @@
         <v>0.4</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR83" t="n">
         <v>1.19</v>
@@ -18795,7 +18795,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR84" t="n">
         <v>0.98</v>
@@ -19231,7 +19231,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR86" t="n">
         <v>1.8</v>
@@ -19664,7 +19664,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.11</v>
@@ -19885,7 +19885,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR89" t="n">
         <v>1.78</v>
@@ -20318,7 +20318,7 @@
         <v>0</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ91" t="n">
         <v>0</v>
@@ -20536,7 +20536,7 @@
         <v>0.25</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.89</v>
@@ -20754,7 +20754,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.1</v>
@@ -20975,7 +20975,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR94" t="n">
         <v>1.63</v>
@@ -21411,7 +21411,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR96" t="n">
         <v>1.62</v>
@@ -21847,7 +21847,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR98" t="n">
         <v>1.69</v>
@@ -22280,7 +22280,7 @@
         <v>1.6</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.25</v>
@@ -22934,7 +22934,7 @@
         <v>0.8</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.89</v>
@@ -23152,7 +23152,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ104" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR105" t="n">
         <v>1.49</v>
@@ -23591,7 +23591,7 @@
         <v>2</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR106" t="n">
         <v>1.75</v>
@@ -24463,7 +24463,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR110" t="n">
         <v>1.82</v>
@@ -24681,7 +24681,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR111" t="n">
         <v>1.68</v>
@@ -24899,7 +24899,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ112" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR112" t="n">
         <v>1.57</v>
@@ -25114,7 +25114,7 @@
         <v>1</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.44</v>
@@ -26204,10 +26204,10 @@
         <v>1.67</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR118" t="n">
         <v>1.32</v>
@@ -26422,10 +26422,10 @@
         <v>1.33</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR119" t="n">
         <v>1.52</v>
@@ -26643,7 +26643,7 @@
         <v>2</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR120" t="n">
         <v>1.66</v>
@@ -27294,7 +27294,7 @@
         <v>1</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.5</v>
@@ -27512,7 +27512,7 @@
         <v>1.5</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.25</v>
@@ -27951,7 +27951,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ126" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR126" t="n">
         <v>1.73</v>
@@ -28384,7 +28384,7 @@
         <v>0.43</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ128" t="n">
         <v>0.7</v>
@@ -28605,7 +28605,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR129" t="n">
         <v>1.76</v>
@@ -29259,7 +29259,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR132" t="n">
         <v>2.15</v>
@@ -29692,10 +29692,10 @@
         <v>0.43</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR134" t="n">
         <v>1.63</v>
@@ -30785,7 +30785,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR139" t="n">
         <v>2.03</v>
@@ -31000,7 +31000,7 @@
         <v>1</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ140" t="n">
         <v>0.9</v>
@@ -31654,10 +31654,10 @@
         <v>2.13</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ143" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR143" t="n">
         <v>1.65</v>
@@ -31875,7 +31875,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR144" t="n">
         <v>1.11</v>
@@ -32090,10 +32090,10 @@
         <v>1.86</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR145" t="n">
         <v>1.43</v>
@@ -32308,7 +32308,7 @@
         <v>1.25</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.44</v>
@@ -32529,7 +32529,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR147" t="n">
         <v>1.68</v>
@@ -32747,7 +32747,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR148" t="n">
         <v>1.81</v>
@@ -32962,7 +32962,7 @@
         <v>1.33</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.5</v>
@@ -33619,7 +33619,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR152" t="n">
         <v>1.96</v>
@@ -33834,7 +33834,7 @@
         <v>0.89</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ153" t="n">
         <v>0.9</v>
@@ -35142,7 +35142,7 @@
         <v>0.78</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ159" t="n">
         <v>0.7</v>
@@ -35221,6 +35221,1314 @@
       </c>
       <c r="BP159" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6469224</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45275.58333333334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>19</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Górnik Zabrze</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Warta Poznań</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>3</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>3</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['28', '47', '90+1']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R160" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S160" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="T160" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="V160" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X160" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL160" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM160" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN160" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO160" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP160" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>6469225</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45275.6875</v>
+      </c>
+      <c r="F161" t="n">
+        <v>19</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Zagłębie Lubin</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Śląsk Wrocław</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="n">
+        <v>2</v>
+      </c>
+      <c r="N161" t="n">
+        <v>3</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['46', '75']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="R161" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S161" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="T161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="V161" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X161" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL161" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM161" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN161" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO161" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP161" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>6469228</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45276.45833333334</v>
+      </c>
+      <c r="F162" t="n">
+        <v>19</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Puszcza Niepołomice</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Jagiellonia Białystok</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>3</v>
+      </c>
+      <c r="K162" t="n">
+        <v>3</v>
+      </c>
+      <c r="L162" t="n">
+        <v>3</v>
+      </c>
+      <c r="M162" t="n">
+        <v>3</v>
+      </c>
+      <c r="N162" t="n">
+        <v>6</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['50', '63', '83']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['9', '17', '28']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="R162" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="S162" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T162" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U162" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="V162" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X162" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM162" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN162" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO162" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP162" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>6469231</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45276.5625</v>
+      </c>
+      <c r="F163" t="n">
+        <v>19</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Widzew Łódź</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Pogoń Szczecin</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" t="n">
+        <v>2</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>2</v>
+      </c>
+      <c r="N163" t="n">
+        <v>3</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['45+2', '52']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R163" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S163" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U163" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V163" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X163" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL163" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM163" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BN163" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO163" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP163" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>6469229</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45276.66666666666</v>
+      </c>
+      <c r="F164" t="n">
+        <v>19</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Lech Poznań</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>2</v>
+      </c>
+      <c r="M164" t="n">
+        <v>2</v>
+      </c>
+      <c r="N164" t="n">
+        <v>4</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['79', '90+5']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['30', '50']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="R164" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S164" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="T164" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="V164" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X164" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL164" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM164" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN164" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO164" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP164" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>6469232</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45277.35416666666</v>
+      </c>
+      <c r="F165" t="n">
+        <v>19</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>ŁKS Łódź</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Ruch Chorzów</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="n">
+        <v>2</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S165" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="V165" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X165" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL165" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM165" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN165" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO165" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP165" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP165"/>
+  <dimension ref="A1:BP168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.3</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.44</v>
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.3</v>
@@ -5279,7 +5279,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.5</v>
@@ -5933,7 +5933,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ27" t="n">
         <v>1</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR37" t="n">
         <v>1.7</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR41" t="n">
         <v>2.18</v>
@@ -10293,7 +10293,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR45" t="n">
         <v>1.2</v>
@@ -10726,7 +10726,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.5</v>
@@ -11819,7 +11819,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR52" t="n">
         <v>1.57</v>
@@ -12255,7 +12255,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR54" t="n">
         <v>1.7</v>
@@ -13124,7 +13124,7 @@
         <v>0.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.7</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.5</v>
@@ -13999,7 +13999,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR62" t="n">
         <v>1.74</v>
@@ -14214,7 +14214,7 @@
         <v>0</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ63" t="n">
         <v>0</v>
@@ -14432,7 +14432,7 @@
         <v>1</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.5</v>
@@ -14871,7 +14871,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR66" t="n">
         <v>1.58</v>
@@ -16615,7 +16615,7 @@
         <v>2</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR74" t="n">
         <v>1.84</v>
@@ -17266,7 +17266,7 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.9</v>
@@ -17923,7 +17923,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR80" t="n">
         <v>1.31</v>
@@ -18138,7 +18138,7 @@
         <v>0.4</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.7</v>
@@ -18359,7 +18359,7 @@
         <v>1</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR82" t="n">
         <v>1.3</v>
@@ -19010,7 +19010,7 @@
         <v>1.2</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.44</v>
@@ -20539,7 +20539,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR92" t="n">
         <v>1.58</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ97" t="n">
         <v>1</v>
@@ -21844,7 +21844,7 @@
         <v>1.8</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.78</v>
@@ -22283,7 +22283,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR100" t="n">
         <v>1.27</v>
@@ -22937,7 +22937,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR103" t="n">
         <v>1.8</v>
@@ -25332,10 +25332,10 @@
         <v>0.2</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR114" t="n">
         <v>2.12</v>
@@ -25550,7 +25550,7 @@
         <v>0.33</v>
       </c>
       <c r="AP115" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.7</v>
@@ -25768,10 +25768,10 @@
         <v>0.83</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR116" t="n">
         <v>1.61</v>
@@ -25989,7 +25989,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR117" t="n">
         <v>1.61</v>
@@ -27076,7 +27076,7 @@
         <v>1</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.11</v>
@@ -27515,7 +27515,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR124" t="n">
         <v>1.35</v>
@@ -29256,7 +29256,7 @@
         <v>1.33</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.44</v>
@@ -30346,10 +30346,10 @@
         <v>1.29</v>
       </c>
       <c r="AP137" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR137" t="n">
         <v>1.71</v>
@@ -30567,7 +30567,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR138" t="n">
         <v>1.89</v>
@@ -30782,7 +30782,7 @@
         <v>1.57</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.3</v>
@@ -31221,7 +31221,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR141" t="n">
         <v>1.51</v>
@@ -34055,7 +34055,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR154" t="n">
         <v>1.85</v>
@@ -34273,7 +34273,7 @@
         <v>2</v>
       </c>
       <c r="AQ155" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR155" t="n">
         <v>1.61</v>
@@ -36529,6 +36529,660 @@
       </c>
       <c r="BP165" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>6469230</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45277.45833333334</v>
+      </c>
+      <c r="F166" t="n">
+        <v>19</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Raków Częstochowa</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R166" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S166" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T166" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U166" t="n">
+        <v>3</v>
+      </c>
+      <c r="V166" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X166" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL166" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM166" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN166" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO166" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP166" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>6469226</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45277.5625</v>
+      </c>
+      <c r="F167" t="n">
+        <v>19</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Legia Warszawa</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Cracovia Kraków</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>2</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>2</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['46', '86']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S167" t="n">
+        <v>5</v>
+      </c>
+      <c r="T167" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V167" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X167" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL167" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM167" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN167" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO167" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP167" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>6469227</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45278.625</v>
+      </c>
+      <c r="F168" t="n">
+        <v>19</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>3</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>3</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['51', '62', '73']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>2</v>
+      </c>
+      <c r="R168" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S168" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V168" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X168" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL168" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM168" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO168" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BP168" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP168"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.11</v>
@@ -7459,7 +7459,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR32" t="n">
         <v>0.98</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.1</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="AP54" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.8</v>
@@ -14435,7 +14435,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR64" t="n">
         <v>1.89</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.78</v>
@@ -17487,7 +17487,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR78" t="n">
         <v>1.85</v>
@@ -19449,7 +19449,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR87" t="n">
         <v>1.69</v>
@@ -21408,7 +21408,7 @@
         <v>1</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.3</v>
@@ -22501,7 +22501,7 @@
         <v>2</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR101" t="n">
         <v>1.7</v>
@@ -24678,7 +24678,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.44</v>
@@ -27297,7 +27297,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR123" t="n">
         <v>1.78</v>
@@ -27948,7 +27948,7 @@
         <v>2</v>
       </c>
       <c r="AP126" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ126" t="n">
         <v>2.3</v>
@@ -32744,7 +32744,7 @@
         <v>0.38</v>
       </c>
       <c r="AP148" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.5</v>
@@ -32965,7 +32965,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR149" t="n">
         <v>1.84</v>
@@ -34052,7 +34052,7 @@
         <v>0.88</v>
       </c>
       <c r="AP154" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.8</v>
@@ -34709,7 +34709,7 @@
         <v>1</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR157" t="n">
         <v>1.22</v>
@@ -36901,22 +36901,22 @@
         <v>3.42</v>
       </c>
       <c r="AU167" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV167" t="n">
         <v>3</v>
       </c>
-      <c r="AV167" t="n">
-        <v>2</v>
-      </c>
       <c r="AW167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX167" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY167" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ167" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA167" t="n">
         <v>5</v>
@@ -37119,31 +37119,31 @@
         <v>2.63</v>
       </c>
       <c r="AU168" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV168" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW168" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY168" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AZ168" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA168" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB168" t="n">
         <v>1</v>
       </c>
       <c r="BC168" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD168" t="n">
         <v>1.23</v>
@@ -37183,6 +37183,224 @@
       </c>
       <c r="BP168" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>6469063</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45280.625</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Cracovia Kraków</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Legia Warszawa</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>2</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>2</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['25', '57']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="R169" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S169" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T169" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V169" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X169" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL169" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM169" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN169" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO169" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP169" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -37337,7 +37337,7 @@
         <v>3.4</v>
       </c>
       <c r="AU169" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV169" t="n">
         <v>2</v>
@@ -37349,7 +37349,7 @@
         <v>8</v>
       </c>
       <c r="AY169" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AZ169" t="n">
         <v>10</v>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.11</v>
@@ -1573,7 +1573,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.44</v>
@@ -2009,7 +2009,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR12" t="n">
         <v>0.95</v>
@@ -3317,7 +3317,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.1</v>
@@ -3968,10 +3968,10 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -6148,10 +6148,10 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR26" t="n">
         <v>0</v>
@@ -6366,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR27" t="n">
         <v>1.8</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ28" t="n">
         <v>2.3</v>
@@ -6805,7 +6805,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR29" t="n">
         <v>1.57</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30" t="n">
         <v>0</v>
@@ -7241,7 +7241,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR31" t="n">
         <v>2.3</v>
@@ -7459,7 +7459,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR32" t="n">
         <v>0.98</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.5</v>
@@ -7895,7 +7895,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR34" t="n">
         <v>1.88</v>
@@ -8764,10 +8764,10 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR38" t="n">
         <v>1.69</v>
@@ -8985,7 +8985,7 @@
         <v>1</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR39" t="n">
         <v>1.16</v>
@@ -9200,7 +9200,7 @@
         <v>2</v>
       </c>
       <c r="AP40" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.44</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.1</v>
@@ -9854,10 +9854,10 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR43" t="n">
         <v>1.27</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44" t="n">
         <v>2.3</v>
@@ -10290,7 +10290,7 @@
         <v>2</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.11</v>
@@ -10726,7 +10726,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.5</v>
@@ -10947,7 +10947,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR48" t="n">
         <v>1.78</v>
@@ -11165,7 +11165,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR49" t="n">
         <v>1.4</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.8</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.8</v>
@@ -12470,10 +12470,10 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR55" t="n">
         <v>1.77</v>
@@ -12688,10 +12688,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR56" t="n">
         <v>1.67</v>
@@ -12909,7 +12909,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR57" t="n">
         <v>1.95</v>
@@ -13345,7 +13345,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR59" t="n">
         <v>1.65</v>
@@ -14432,10 +14432,10 @@
         <v>1</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR64" t="n">
         <v>1.89</v>
@@ -14653,7 +14653,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR65" t="n">
         <v>1.69</v>
@@ -14868,7 +14868,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.11</v>
@@ -15086,7 +15086,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.44</v>
@@ -15304,10 +15304,10 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR68" t="n">
         <v>1.15</v>
@@ -15743,7 +15743,7 @@
         <v>1</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR70" t="n">
         <v>1.44</v>
@@ -15961,7 +15961,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR71" t="n">
         <v>1.71</v>
@@ -16176,7 +16176,7 @@
         <v>1</v>
       </c>
       <c r="AP72" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.1</v>
@@ -16394,10 +16394,10 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR73" t="n">
         <v>1.68</v>
@@ -16612,7 +16612,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.8</v>
@@ -17048,10 +17048,10 @@
         <v>0</v>
       </c>
       <c r="AP76" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ76" t="n">
         <v>0.89</v>
-      </c>
-      <c r="AQ76" t="n">
-        <v>1</v>
       </c>
       <c r="AR76" t="n">
         <v>1.71</v>
@@ -17269,7 +17269,7 @@
         <v>2</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR77" t="n">
         <v>2.14</v>
@@ -17487,7 +17487,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR78" t="n">
         <v>1.85</v>
@@ -17702,10 +17702,10 @@
         <v>1.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR79" t="n">
         <v>1.81</v>
@@ -17920,7 +17920,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.8</v>
@@ -18138,7 +18138,7 @@
         <v>0.4</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.7</v>
@@ -18792,7 +18792,7 @@
         <v>2</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.3</v>
@@ -19013,7 +19013,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR85" t="n">
         <v>1.59</v>
@@ -19449,7 +19449,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR87" t="n">
         <v>1.69</v>
@@ -19667,7 +19667,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR88" t="n">
         <v>1.14</v>
@@ -20100,10 +20100,10 @@
         <v>0.2</v>
       </c>
       <c r="AP90" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR90" t="n">
         <v>1.75</v>
@@ -20536,7 +20536,7 @@
         <v>0.25</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.8</v>
@@ -20972,10 +20972,10 @@
         <v>1.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR94" t="n">
         <v>1.63</v>
@@ -21190,10 +21190,10 @@
         <v>0.8</v>
       </c>
       <c r="AP95" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR95" t="n">
         <v>1.63</v>
@@ -21408,10 +21408,10 @@
         <v>1</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR96" t="n">
         <v>1.62</v>
@@ -21629,7 +21629,7 @@
         <v>2</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR97" t="n">
         <v>2.14</v>
@@ -21844,10 +21844,10 @@
         <v>1.8</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR98" t="n">
         <v>1.69</v>
@@ -22065,7 +22065,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR99" t="n">
         <v>1.54</v>
@@ -22498,10 +22498,10 @@
         <v>1.25</v>
       </c>
       <c r="AP101" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR101" t="n">
         <v>1.7</v>
@@ -22716,7 +22716,7 @@
         <v>0</v>
       </c>
       <c r="AP102" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ102" t="n">
         <v>0</v>
@@ -23155,7 +23155,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR104" t="n">
         <v>1.39</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.3</v>
@@ -23588,10 +23588,10 @@
         <v>1.4</v>
       </c>
       <c r="AP106" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR106" t="n">
         <v>1.75</v>
@@ -23809,7 +23809,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR107" t="n">
         <v>1.68</v>
@@ -24027,7 +24027,7 @@
         <v>1</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR108" t="n">
         <v>1.25</v>
@@ -24242,7 +24242,7 @@
         <v>0.83</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ109" t="n">
         <v>1.1</v>
@@ -24463,7 +24463,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR110" t="n">
         <v>1.82</v>
@@ -24678,7 +24678,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.44</v>
@@ -24896,7 +24896,7 @@
         <v>2.17</v>
       </c>
       <c r="AP112" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ112" t="n">
         <v>2.3</v>
@@ -25117,7 +25117,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR113" t="n">
         <v>1.72</v>
@@ -25768,7 +25768,7 @@
         <v>0.83</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.8</v>
@@ -26207,7 +26207,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR118" t="n">
         <v>1.32</v>
@@ -26422,7 +26422,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.3</v>
@@ -26640,7 +26640,7 @@
         <v>0.5</v>
       </c>
       <c r="AP120" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.5</v>
@@ -26858,7 +26858,7 @@
         <v>0</v>
       </c>
       <c r="AP121" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ121" t="n">
         <v>0</v>
@@ -27079,7 +27079,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR122" t="n">
         <v>1.71</v>
@@ -27297,7 +27297,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR123" t="n">
         <v>1.78</v>
@@ -27730,10 +27730,10 @@
         <v>0.14</v>
       </c>
       <c r="AP125" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR125" t="n">
         <v>1.08</v>
@@ -27948,7 +27948,7 @@
         <v>2</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ126" t="n">
         <v>2.3</v>
@@ -28605,7 +28605,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR129" t="n">
         <v>1.76</v>
@@ -28820,10 +28820,10 @@
         <v>1.14</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR130" t="n">
         <v>1.44</v>
@@ -29041,7 +29041,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR131" t="n">
         <v>1.81</v>
@@ -29474,10 +29474,10 @@
         <v>1.29</v>
       </c>
       <c r="AP133" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR133" t="n">
         <v>1.55</v>
@@ -29692,7 +29692,7 @@
         <v>0.43</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ134" t="n">
         <v>0.5</v>
@@ -29913,7 +29913,7 @@
         <v>1</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR135" t="n">
         <v>1.24</v>
@@ -31003,7 +31003,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR140" t="n">
         <v>1.32</v>
@@ -31218,7 +31218,7 @@
         <v>0.86</v>
       </c>
       <c r="AP141" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ141" t="n">
         <v>0.8</v>
@@ -31436,7 +31436,7 @@
         <v>0.5</v>
       </c>
       <c r="AP142" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ142" t="n">
         <v>0.7</v>
@@ -31872,10 +31872,10 @@
         <v>1.13</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR144" t="n">
         <v>1.11</v>
@@ -32093,7 +32093,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR145" t="n">
         <v>1.43</v>
@@ -32308,10 +32308,10 @@
         <v>1.25</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR146" t="n">
         <v>1.87</v>
@@ -32744,7 +32744,7 @@
         <v>0.38</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.5</v>
@@ -32965,7 +32965,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR149" t="n">
         <v>1.84</v>
@@ -33180,10 +33180,10 @@
         <v>1.17</v>
       </c>
       <c r="AP150" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR150" t="n">
         <v>1.67</v>
@@ -33398,10 +33398,10 @@
         <v>1.13</v>
       </c>
       <c r="AP151" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR151" t="n">
         <v>1.48</v>
@@ -33837,7 +33837,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR153" t="n">
         <v>1.58</v>
@@ -34052,7 +34052,7 @@
         <v>0.88</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.8</v>
@@ -34270,7 +34270,7 @@
         <v>0.88</v>
       </c>
       <c r="AP155" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ155" t="n">
         <v>0.8</v>
@@ -34488,7 +34488,7 @@
         <v>0.89</v>
       </c>
       <c r="AP156" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.1</v>
@@ -34709,7 +34709,7 @@
         <v>1</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR157" t="n">
         <v>1.22</v>
@@ -34927,7 +34927,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR158" t="n">
         <v>1.64</v>
@@ -35799,7 +35799,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR162" t="n">
         <v>1.28</v>
@@ -36014,10 +36014,10 @@
         <v>1.63</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR163" t="n">
         <v>1.78</v>
@@ -37104,7 +37104,7 @@
         <v>0.89</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ168" t="n">
         <v>0.8</v>
@@ -37322,10 +37322,10 @@
         <v>1.5</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR169" t="n">
         <v>1.91</v>
@@ -37401,6 +37401,1750 @@
       </c>
       <c r="BP169" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>6469239</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45331.58333333334</v>
+      </c>
+      <c r="F170" t="n">
+        <v>20</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Puszcza Niepołomice</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="n">
+        <v>2</v>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="n">
+        <v>3</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['83', '90+3']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R170" t="n">
+        <v>2</v>
+      </c>
+      <c r="S170" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T170" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V170" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X170" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL170" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM170" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN170" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO170" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP170" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>6469238</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45331.6875</v>
+      </c>
+      <c r="F171" t="n">
+        <v>20</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Ruch Chorzów</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Legia Warszawa</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="R171" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S171" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T171" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U171" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="V171" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X171" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL171" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM171" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN171" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO171" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP171" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>6469233</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45332.45833333334</v>
+      </c>
+      <c r="F172" t="n">
+        <v>20</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Cracovia Kraków</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>3</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>3</v>
+      </c>
+      <c r="L172" t="n">
+        <v>6</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>6</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['8', '18', '32', '62', '65', '90+1']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R172" t="n">
+        <v>2</v>
+      </c>
+      <c r="S172" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T172" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V172" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X172" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BL172" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BM172" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BN172" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO172" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP172" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>6469236</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45332.5625</v>
+      </c>
+      <c r="F173" t="n">
+        <v>20</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Górnik Zabrze</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="n">
+        <v>3</v>
+      </c>
+      <c r="N173" t="n">
+        <v>4</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['15', '60', '65']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R173" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S173" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T173" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V173" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X173" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL173" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM173" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN173" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO173" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP173" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>6469235</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45332.66666666666</v>
+      </c>
+      <c r="F174" t="n">
+        <v>20</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Lech Poznań</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Zagłębie Lubin</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>2</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>2</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['3', '72']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R174" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S174" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="T174" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U174" t="n">
+        <v>3</v>
+      </c>
+      <c r="V174" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X174" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL174" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM174" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN174" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO174" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP174" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>6469240</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45333.35416666666</v>
+      </c>
+      <c r="F175" t="n">
+        <v>20</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Warta Poznań</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Raków Częstochowa</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>2</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
+      <c r="K175" t="n">
+        <v>3</v>
+      </c>
+      <c r="L175" t="n">
+        <v>2</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="n">
+        <v>3</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['3', '20']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['45+5']</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S175" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T175" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V175" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X175" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL175" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM175" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN175" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO175" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP175" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>6469241</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45333.45833333334</v>
+      </c>
+      <c r="F176" t="n">
+        <v>20</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Widzew Łódź</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Jagiellonia Białystok</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>2</v>
+      </c>
+      <c r="K176" t="n">
+        <v>3</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="n">
+        <v>3</v>
+      </c>
+      <c r="N176" t="n">
+        <v>4</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['9', '33', '50']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R176" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S176" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T176" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V176" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X176" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL176" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM176" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN176" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO176" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP176" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>6469080</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45333.5625</v>
+      </c>
+      <c r="F177" t="n">
+        <v>20</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Śląsk Wrocław</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Pogoń Szczecin</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>4</v>
+      </c>
+      <c r="R177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S177" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T177" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U177" t="n">
+        <v>3</v>
+      </c>
+      <c r="V177" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X177" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BL177" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BM177" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN177" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO177" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BP177" t="n">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP177"/>
+  <dimension ref="A1:BP178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ10" t="n">
         <v>2.3</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.09</v>
@@ -10944,7 +10944,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ48" t="n">
         <v>1</v>
@@ -15522,7 +15522,7 @@
         <v>0.25</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.7</v>
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.3</v>
@@ -23806,7 +23806,7 @@
         <v>0.17</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.44</v>
@@ -28602,7 +28602,7 @@
         <v>1.14</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.45</v>
@@ -32526,7 +32526,7 @@
         <v>1.29</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.44</v>
@@ -37991,19 +37991,19 @@
         <v>3.24</v>
       </c>
       <c r="AU172" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW172" t="n">
         <v>5</v>
       </c>
       <c r="AX172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY172" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ172" t="n">
         <v>5</v>
@@ -38212,19 +38212,19 @@
         <v>8</v>
       </c>
       <c r="AV173" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW173" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX173" t="n">
         <v>4</v>
       </c>
       <c r="AY173" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ173" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA173" t="n">
         <v>4</v>
@@ -38427,19 +38427,19 @@
         <v>3.3</v>
       </c>
       <c r="AU174" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV174" t="n">
         <v>2</v>
       </c>
       <c r="AW174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX174" t="n">
         <v>9</v>
       </c>
       <c r="AY174" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ174" t="n">
         <v>11</v>
@@ -38645,31 +38645,31 @@
         <v>2.6</v>
       </c>
       <c r="AU175" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV175" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX175" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AY175" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ175" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BA175" t="n">
         <v>1</v>
       </c>
       <c r="BB175" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BC175" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BD175" t="n">
         <v>3.16</v>
@@ -38863,31 +38863,31 @@
         <v>3.21</v>
       </c>
       <c r="AU176" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV176" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX176" t="n">
         <v>3</v>
       </c>
-      <c r="AW176" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX176" t="n">
-        <v>2</v>
-      </c>
       <c r="AY176" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ176" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA176" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BB176" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC176" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BD176" t="n">
         <v>1.75</v>
@@ -39081,31 +39081,31 @@
         <v>3.14</v>
       </c>
       <c r="AU177" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW177" t="n">
         <v>8</v>
       </c>
-      <c r="AV177" t="n">
+      <c r="AX177" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC177" t="n">
         <v>4</v>
-      </c>
-      <c r="AW177" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX177" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY177" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ177" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA177" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB177" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC177" t="n">
-        <v>3</v>
       </c>
       <c r="BD177" t="n">
         <v>2.55</v>
@@ -39145,6 +39145,224 @@
       </c>
       <c r="BP177" t="n">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>6469234</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45334.625</v>
+      </c>
+      <c r="F178" t="n">
+        <v>20</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>ŁKS Łódź</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
+      <c r="K178" t="n">
+        <v>2</v>
+      </c>
+      <c r="L178" t="n">
+        <v>2</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="n">
+        <v>3</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['36', '90+4']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['45+6']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R178" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S178" t="n">
+        <v>5</v>
+      </c>
+      <c r="T178" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V178" t="n">
+        <v>3</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X178" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL178" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM178" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BN178" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO178" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP178" t="n">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP178"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ14" t="n">
         <v>1</v>
@@ -4843,7 +4843,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR20" t="n">
         <v>1.63</v>
@@ -5276,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.11</v>
@@ -5933,7 +5933,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -8328,10 +8328,10 @@
         <v>1</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR36" t="n">
         <v>2.26</v>
@@ -8549,7 +8549,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR37" t="n">
         <v>1.7</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.45</v>
@@ -8985,7 +8985,7 @@
         <v>1</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR39" t="n">
         <v>1.16</v>
@@ -9200,7 +9200,7 @@
         <v>2</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.44</v>
@@ -11601,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR51" t="n">
         <v>1.43</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR52" t="n">
         <v>1.57</v>
@@ -12034,7 +12034,7 @@
         <v>1</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.1</v>
@@ -12688,7 +12688,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.45</v>
@@ -12909,7 +12909,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR57" t="n">
         <v>1.95</v>
@@ -15958,7 +15958,7 @@
         <v>0</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.44</v>
@@ -16176,7 +16176,7 @@
         <v>1</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.1</v>
@@ -16397,7 +16397,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR73" t="n">
         <v>1.68</v>
@@ -16615,7 +16615,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR74" t="n">
         <v>1.84</v>
@@ -16833,7 +16833,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR75" t="n">
         <v>1.99</v>
@@ -17048,7 +17048,7 @@
         <v>0</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ76" t="n">
         <v>0.89</v>
@@ -19885,7 +19885,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR89" t="n">
         <v>1.78</v>
@@ -20318,7 +20318,7 @@
         <v>0</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ91" t="n">
         <v>0</v>
@@ -20539,7 +20539,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR92" t="n">
         <v>1.58</v>
@@ -20972,10 +20972,10 @@
         <v>1.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR94" t="n">
         <v>1.63</v>
@@ -21190,7 +21190,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.09</v>
@@ -21847,7 +21847,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR98" t="n">
         <v>1.69</v>
@@ -22498,7 +22498,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.5</v>
@@ -22934,7 +22934,7 @@
         <v>0.8</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.8</v>
@@ -23373,7 +23373,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR105" t="n">
         <v>1.49</v>
@@ -24896,7 +24896,7 @@
         <v>2.17</v>
       </c>
       <c r="AP112" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ112" t="n">
         <v>2.3</v>
@@ -25335,7 +25335,7 @@
         <v>2</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR114" t="n">
         <v>2.12</v>
@@ -25989,7 +25989,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR117" t="n">
         <v>1.61</v>
@@ -26207,7 +26207,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR118" t="n">
         <v>1.32</v>
@@ -26425,7 +26425,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR119" t="n">
         <v>1.52</v>
@@ -26858,7 +26858,7 @@
         <v>0</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ121" t="n">
         <v>0</v>
@@ -27294,7 +27294,7 @@
         <v>1</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.5</v>
@@ -29474,7 +29474,7 @@
         <v>1.29</v>
       </c>
       <c r="AP133" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.3</v>
@@ -30567,7 +30567,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR138" t="n">
         <v>1.89</v>
@@ -30785,7 +30785,7 @@
         <v>2</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR139" t="n">
         <v>2.03</v>
@@ -31218,7 +31218,7 @@
         <v>0.86</v>
       </c>
       <c r="AP141" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ141" t="n">
         <v>0.8</v>
@@ -31654,7 +31654,7 @@
         <v>2.13</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ143" t="n">
         <v>2.3</v>
@@ -32093,7 +32093,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR145" t="n">
         <v>1.43</v>
@@ -33180,7 +33180,7 @@
         <v>1.17</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ150" t="n">
         <v>0.89</v>
@@ -33398,7 +33398,7 @@
         <v>1.13</v>
       </c>
       <c r="AP151" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ151" t="n">
         <v>1</v>
@@ -33619,7 +33619,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR152" t="n">
         <v>1.96</v>
@@ -33834,7 +33834,7 @@
         <v>0.89</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.09</v>
@@ -34055,7 +34055,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR154" t="n">
         <v>1.85</v>
@@ -34270,7 +34270,7 @@
         <v>0.88</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ155" t="n">
         <v>0.8</v>
@@ -35363,7 +35363,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR160" t="n">
         <v>1.42</v>
@@ -36017,7 +36017,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR163" t="n">
         <v>1.78</v>
@@ -36232,7 +36232,7 @@
         <v>1.5</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.44</v>
@@ -37107,7 +37107,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ168" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR168" t="n">
         <v>1.52</v>
@@ -37758,7 +37758,7 @@
         <v>1.33</v>
       </c>
       <c r="AP171" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.5</v>
@@ -39066,10 +39066,10 @@
         <v>1.78</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR177" t="n">
         <v>1.61</v>
@@ -39363,6 +39363,660 @@
       </c>
       <c r="BP178" t="n">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>6469246</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45338.58333333334</v>
+      </c>
+      <c r="F179" t="n">
+        <v>21</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Pogoń Szczecin</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>3</v>
+      </c>
+      <c r="K179" t="n">
+        <v>3</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>4</v>
+      </c>
+      <c r="N179" t="n">
+        <v>4</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['27', '35', '43', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="R179" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S179" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="T179" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="V179" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X179" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BL179" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BM179" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BN179" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BO179" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BP179" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>6469250</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45338.6875</v>
+      </c>
+      <c r="F180" t="n">
+        <v>21</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Śląsk Wrocław</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="n">
+        <v>1</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R180" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S180" t="n">
+        <v>5</v>
+      </c>
+      <c r="T180" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V180" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X180" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BL180" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM180" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BN180" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO180" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP180" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>6469248</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45339.45833333334</v>
+      </c>
+      <c r="F181" t="n">
+        <v>21</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Ruch Chorzów</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Warta Poznań</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="R181" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S181" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="T181" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="V181" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X181" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL181" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM181" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN181" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO181" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP181" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP187"/>
+  <dimension ref="A1:BP197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ2" t="n">
         <v>2</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.6</v>
@@ -2009,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.5</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR12" t="n">
         <v>0.95</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.5</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
@@ -3968,10 +3968,10 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.91</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.91</v>
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR24" t="n">
         <v>2.24</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ25" t="n">
         <v>1</v>
@@ -6366,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR27" t="n">
         <v>1.8</v>
@@ -6584,10 +6584,10 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AR28" t="n">
         <v>1.13</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR29" t="n">
         <v>1.57</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ30" t="n">
         <v>0</v>
@@ -7238,10 +7238,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR31" t="n">
         <v>2.3</v>
@@ -7456,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR32" t="n">
         <v>0.98</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR33" t="n">
         <v>1.24</v>
@@ -9854,10 +9854,10 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR43" t="n">
         <v>1.27</v>
@@ -10072,10 +10072,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AR44" t="n">
         <v>1.54</v>
@@ -10290,10 +10290,10 @@
         <v>2</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR45" t="n">
         <v>1.2</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ46" t="n">
         <v>0</v>
@@ -10726,10 +10726,10 @@
         <v>0.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR47" t="n">
         <v>1.82</v>
@@ -10944,7 +10944,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48" t="n">
         <v>1</v>
@@ -11162,10 +11162,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR49" t="n">
         <v>1.4</v>
@@ -11380,10 +11380,10 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AR50" t="n">
         <v>1.89</v>
@@ -12470,10 +12470,10 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR55" t="n">
         <v>1.77</v>
@@ -13560,10 +13560,10 @@
         <v>1.75</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ60" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AR60" t="n">
         <v>1.22</v>
@@ -13781,7 +13781,7 @@
         <v>2</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR61" t="n">
         <v>0.95</v>
@@ -13996,7 +13996,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.73</v>
@@ -14432,10 +14432,10 @@
         <v>1</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR64" t="n">
         <v>1.89</v>
@@ -14650,10 +14650,10 @@
         <v>1.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR65" t="n">
         <v>1.69</v>
@@ -14868,10 +14868,10 @@
         <v>1.67</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR66" t="n">
         <v>1.58</v>
@@ -15086,7 +15086,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.6</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="AQ68" t="n">
         <v>1</v>
@@ -15522,7 +15522,7 @@
         <v>0.25</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.91</v>
@@ -16612,7 +16612,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ74" t="n">
         <v>1</v>
@@ -17051,7 +17051,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR76" t="n">
         <v>1.71</v>
@@ -17269,7 +17269,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR77" t="n">
         <v>2.14</v>
@@ -17484,10 +17484,10 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR78" t="n">
         <v>1.85</v>
@@ -17702,10 +17702,10 @@
         <v>1.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR79" t="n">
         <v>1.81</v>
@@ -17920,7 +17920,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.73</v>
@@ -18138,7 +18138,7 @@
         <v>0.4</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.91</v>
@@ -18359,7 +18359,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR82" t="n">
         <v>1.3</v>
@@ -18574,10 +18574,10 @@
         <v>0.4</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR83" t="n">
         <v>1.19</v>
@@ -18792,10 +18792,10 @@
         <v>2</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AR84" t="n">
         <v>0.98</v>
@@ -19013,7 +19013,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR85" t="n">
         <v>1.59</v>
@@ -19228,7 +19228,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.6</v>
@@ -19446,10 +19446,10 @@
         <v>1.67</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR87" t="n">
         <v>1.69</v>
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.27</v>
@@ -20100,7 +20100,7 @@
         <v>0.2</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.5</v>
@@ -20536,7 +20536,7 @@
         <v>0.25</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ92" t="n">
         <v>1</v>
@@ -21193,7 +21193,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR95" t="n">
         <v>1.63</v>
@@ -21629,7 +21629,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR97" t="n">
         <v>2.14</v>
@@ -21844,7 +21844,7 @@
         <v>1.8</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ98" t="n">
         <v>2</v>
@@ -22062,7 +22062,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AQ99" t="n">
         <v>1</v>
@@ -22280,10 +22280,10 @@
         <v>1.6</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR100" t="n">
         <v>1.27</v>
@@ -22501,7 +22501,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR101" t="n">
         <v>1.7</v>
@@ -22716,7 +22716,7 @@
         <v>0</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ102" t="n">
         <v>0</v>
@@ -23155,7 +23155,7 @@
         <v>2</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR104" t="n">
         <v>1.39</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.27</v>
@@ -23588,7 +23588,7 @@
         <v>1.4</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.45</v>
@@ -23806,7 +23806,7 @@
         <v>0.17</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.5</v>
@@ -24027,7 +24027,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR108" t="n">
         <v>1.25</v>
@@ -24242,7 +24242,7 @@
         <v>0.83</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ109" t="n">
         <v>1</v>
@@ -24460,7 +24460,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.45</v>
@@ -24899,7 +24899,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ112" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AR112" t="n">
         <v>1.57</v>
@@ -25117,7 +25117,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR113" t="n">
         <v>1.72</v>
@@ -25768,7 +25768,7 @@
         <v>0.83</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.73</v>
@@ -25986,7 +25986,7 @@
         <v>0.67</v>
       </c>
       <c r="AP117" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AQ117" t="n">
         <v>1</v>
@@ -26204,7 +26204,7 @@
         <v>1.67</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ118" t="n">
         <v>2</v>
@@ -26422,7 +26422,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.27</v>
@@ -26640,10 +26640,10 @@
         <v>0.5</v>
       </c>
       <c r="AP120" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR120" t="n">
         <v>1.66</v>
@@ -27297,7 +27297,7 @@
         <v>1</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR123" t="n">
         <v>1.78</v>
@@ -27515,7 +27515,7 @@
         <v>2</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR124" t="n">
         <v>1.35</v>
@@ -27730,7 +27730,7 @@
         <v>0.14</v>
       </c>
       <c r="AP125" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.5</v>
@@ -27951,7 +27951,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ126" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AR126" t="n">
         <v>1.73</v>
@@ -28602,7 +28602,7 @@
         <v>1.14</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.45</v>
@@ -28820,10 +28820,10 @@
         <v>1.14</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR130" t="n">
         <v>1.44</v>
@@ -29038,10 +29038,10 @@
         <v>1.2</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR131" t="n">
         <v>1.81</v>
@@ -29477,7 +29477,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR133" t="n">
         <v>1.55</v>
@@ -29692,10 +29692,10 @@
         <v>0.43</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR134" t="n">
         <v>1.63</v>
@@ -30128,7 +30128,7 @@
         <v>0.88</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AQ136" t="n">
         <v>1</v>
@@ -30349,7 +30349,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR137" t="n">
         <v>1.71</v>
@@ -30564,7 +30564,7 @@
         <v>0.57</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ138" t="n">
         <v>1</v>
@@ -31000,10 +31000,10 @@
         <v>1</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR140" t="n">
         <v>1.32</v>
@@ -31436,7 +31436,7 @@
         <v>0.5</v>
       </c>
       <c r="AP142" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ142" t="n">
         <v>0.91</v>
@@ -31657,7 +31657,7 @@
         <v>1</v>
       </c>
       <c r="AQ143" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AR143" t="n">
         <v>1.65</v>
@@ -31872,7 +31872,7 @@
         <v>1.13</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.45</v>
@@ -32308,10 +32308,10 @@
         <v>1.25</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR146" t="n">
         <v>1.87</v>
@@ -32526,7 +32526,7 @@
         <v>1.29</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.6</v>
@@ -32747,7 +32747,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR148" t="n">
         <v>1.81</v>
@@ -32965,7 +32965,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR149" t="n">
         <v>1.84</v>
@@ -33183,7 +33183,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR150" t="n">
         <v>1.67</v>
@@ -33616,7 +33616,7 @@
         <v>1.5</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.27</v>
@@ -33837,7 +33837,7 @@
         <v>1</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR153" t="n">
         <v>1.58</v>
@@ -34488,7 +34488,7 @@
         <v>0.89</v>
       </c>
       <c r="AP156" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ156" t="n">
         <v>1</v>
@@ -34709,7 +34709,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR157" t="n">
         <v>1.22</v>
@@ -34924,10 +34924,10 @@
         <v>1.14</v>
       </c>
       <c r="AP158" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR158" t="n">
         <v>1.64</v>
@@ -35142,7 +35142,7 @@
         <v>0.78</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ159" t="n">
         <v>0.91</v>
@@ -35581,7 +35581,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ161" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AR161" t="n">
         <v>1.76</v>
@@ -35796,7 +35796,7 @@
         <v>1.33</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.45</v>
@@ -36014,7 +36014,7 @@
         <v>1.63</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ163" t="n">
         <v>2</v>
@@ -36453,7 +36453,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ165" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR165" t="n">
         <v>1.19</v>
@@ -36889,7 +36889,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR167" t="n">
         <v>2.01</v>
@@ -37104,7 +37104,7 @@
         <v>0.89</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ168" t="n">
         <v>1</v>
@@ -37325,7 +37325,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR169" t="n">
         <v>1.91</v>
@@ -37540,7 +37540,7 @@
         <v>0.5</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="AQ170" t="n">
         <v>0.5</v>
@@ -37761,7 +37761,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR171" t="n">
         <v>1.51</v>
@@ -37979,7 +37979,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR172" t="n">
         <v>1.82</v>
@@ -38194,10 +38194,10 @@
         <v>0.9</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR173" t="n">
         <v>1.57</v>
@@ -38412,7 +38412,7 @@
         <v>1.11</v>
       </c>
       <c r="AP174" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ174" t="n">
         <v>1</v>
@@ -38630,10 +38630,10 @@
         <v>1</v>
       </c>
       <c r="AP175" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AQ175" t="n">
         <v>0.9</v>
-      </c>
-      <c r="AQ175" t="n">
-        <v>0.89</v>
       </c>
       <c r="AR175" t="n">
         <v>1.14</v>
@@ -38848,7 +38848,7 @@
         <v>1.3</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.45</v>
@@ -39284,7 +39284,7 @@
         <v>0</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ178" t="n">
         <v>0</v>
@@ -40156,7 +40156,7 @@
         <v>1.44</v>
       </c>
       <c r="AP182" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.6</v>
@@ -40595,7 +40595,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR184" t="n">
         <v>1.81</v>
@@ -41324,6 +41324,2186 @@
         <v>3.35</v>
       </c>
       <c r="BP187" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>6469254</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45345.58333333334</v>
+      </c>
+      <c r="F188" t="n">
+        <v>22</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Cracovia Kraków</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R188" t="n">
+        <v>2</v>
+      </c>
+      <c r="S188" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="T188" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V188" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X188" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL188" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM188" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BN188" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO188" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP188" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>6469255</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45345.6875</v>
+      </c>
+      <c r="F189" t="n">
+        <v>22</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Pogoń Szczecin</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>ŁKS Łódź</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="n">
+        <v>4</v>
+      </c>
+      <c r="M189" t="n">
+        <v>2</v>
+      </c>
+      <c r="N189" t="n">
+        <v>6</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['13', '63', '70', '82']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['47', '85']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R189" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S189" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T189" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U189" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="V189" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X189" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BL189" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BM189" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN189" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO189" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP189" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>6469251</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45346.45833333334</v>
+      </c>
+      <c r="F190" t="n">
+        <v>22</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Jagiellonia Białystok</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Ruch Chorzów</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="n">
+        <v>2</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R190" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S190" t="n">
+        <v>6</v>
+      </c>
+      <c r="T190" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U190" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V190" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X190" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL190" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM190" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BN190" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO190" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP190" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>6469253</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45346.5625</v>
+      </c>
+      <c r="F191" t="n">
+        <v>22</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Lech Poznań</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Śląsk Wrocław</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R191" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S191" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T191" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V191" t="n">
+        <v>3</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X191" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL191" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM191" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BN191" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO191" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP191" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>6469257</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45346.66666666666</v>
+      </c>
+      <c r="F192" t="n">
+        <v>22</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Raków Częstochowa</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>0</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R192" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S192" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T192" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V192" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X192" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL192" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM192" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN192" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO192" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP192" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>6469256</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45347.35416666666</v>
+      </c>
+      <c r="F193" t="n">
+        <v>22</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Puszcza Niepołomice</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Zagłębie Lubin</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>2</v>
+      </c>
+      <c r="K193" t="n">
+        <v>3</v>
+      </c>
+      <c r="L193" t="n">
+        <v>2</v>
+      </c>
+      <c r="M193" t="n">
+        <v>2</v>
+      </c>
+      <c r="N193" t="n">
+        <v>4</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['8', '63']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['31', '40']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R193" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S193" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T193" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V193" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X193" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL193" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM193" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO193" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP193" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>6469259</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45347.45833333334</v>
+      </c>
+      <c r="F194" t="n">
+        <v>22</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Widzew Łódź</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Górnik Zabrze</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>2</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>2</v>
+      </c>
+      <c r="L194" t="n">
+        <v>3</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="n">
+        <v>4</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['30', '34', '90+4']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>3</v>
+      </c>
+      <c r="R194" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S194" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T194" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X194" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL194" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM194" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN194" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO194" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP194" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>6469252</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45347.5625</v>
+      </c>
+      <c r="F195" t="n">
+        <v>22</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Legia Warszawa</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>2</v>
+      </c>
+      <c r="K195" t="n">
+        <v>3</v>
+      </c>
+      <c r="L195" t="n">
+        <v>3</v>
+      </c>
+      <c r="M195" t="n">
+        <v>3</v>
+      </c>
+      <c r="N195" t="n">
+        <v>6</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['45', '69', '90+2']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['6', '30', '60']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>4</v>
+      </c>
+      <c r="R195" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S195" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T195" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V195" t="n">
+        <v>3</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X195" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL195" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM195" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO195" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP195" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>6469258</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45348.625</v>
+      </c>
+      <c r="F196" t="n">
+        <v>22</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Warta Poznań</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R196" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S196" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T196" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V196" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X196" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BL196" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM196" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO196" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP196" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>6469211</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45350.60416666666</v>
+      </c>
+      <c r="F197" t="n">
+        <v>17</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>ŁKS Łódź</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R197" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S197" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T197" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V197" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X197" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL197" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM197" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BN197" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO197" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP197" t="n">
         <v>1.3</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="329">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -697,6 +697,18 @@
     <t>['17', '65']</t>
   </si>
   <si>
+    <t>['33', '60']</t>
+  </si>
+  <si>
+    <t>['7', '17', '31']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -728,9 +740,6 @@
   </si>
   <si>
     <t>['5', '57']</t>
-  </si>
-  <si>
-    <t>['90+2']</t>
   </si>
   <si>
     <t>['81']</t>
@@ -839,9 +848,6 @@
   </si>
   <si>
     <t>['64']</t>
-  </si>
-  <si>
-    <t>['71']</t>
   </si>
   <si>
     <t>['75']</t>
@@ -986,6 +992,15 @@
   </si>
   <si>
     <t>['29', '90+1']</t>
+  </si>
+  <si>
+    <t>['5', '57', '75']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['37']</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP206"/>
+  <dimension ref="A1:BP211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1606,7 +1621,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q2">
         <v>4.33</v>
@@ -2018,7 +2033,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2099,7 +2114,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ4">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2430,7 +2445,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2508,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ6">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2636,7 +2651,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2714,10 +2729,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2842,7 +2857,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q8">
         <v>2.38</v>
@@ -3048,7 +3063,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3254,7 +3269,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q10">
         <v>3.2</v>
@@ -3332,10 +3347,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ10">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3872,7 +3887,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q13">
         <v>2.53</v>
@@ -3950,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ13">
         <v>0.45</v>
@@ -4078,7 +4093,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4571,7 +4586,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4696,7 +4711,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q17">
         <v>2.21</v>
@@ -4902,7 +4917,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4980,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ18">
         <v>0.83</v>
@@ -5314,7 +5329,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q20">
         <v>1.82</v>
@@ -5598,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>0.92</v>
@@ -5807,7 +5822,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ22">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5932,7 +5947,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6013,7 +6028,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ23">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR23">
         <v>1.73</v>
@@ -6422,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>0.92</v>
@@ -6550,7 +6565,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="Q26">
         <v>2.85</v>
@@ -6756,7 +6771,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q27">
         <v>4.2</v>
@@ -6834,10 +6849,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ27">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR27">
         <v>1.8</v>
@@ -6962,7 +6977,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7043,7 +7058,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ28">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AR28">
         <v>1.13</v>
@@ -7168,7 +7183,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q29">
         <v>2.95</v>
@@ -7246,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7580,7 +7595,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q31">
         <v>2.3</v>
@@ -7661,7 +7676,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ31">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR31">
         <v>2.3</v>
@@ -7786,7 +7801,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7864,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
         <v>1.45</v>
@@ -7992,7 +8007,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q33">
         <v>2.6</v>
@@ -8404,7 +8419,7 @@
         <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8482,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>0.83</v>
@@ -8610,7 +8625,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -9515,7 +9530,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ40">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR40">
         <v>2.09</v>
@@ -10133,7 +10148,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ43">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR43">
         <v>1.27</v>
@@ -10258,7 +10273,7 @@
         <v>88</v>
       </c>
       <c r="P44" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q44">
         <v>2.7</v>
@@ -10339,7 +10354,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ44">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>1.54</v>
@@ -10545,7 +10560,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ45">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR45">
         <v>1.2</v>
@@ -10670,7 +10685,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10748,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
         <v>0</v>
@@ -10954,7 +10969,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ47">
         <v>0.55</v>
@@ -11160,7 +11175,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11288,7 +11303,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11366,7 +11381,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11494,7 +11509,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q50">
         <v>2.15</v>
@@ -11575,7 +11590,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ50">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>1.89</v>
@@ -11700,7 +11715,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -12730,7 +12745,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -13554,7 +13569,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13632,10 +13647,10 @@
         <v>1.75</v>
       </c>
       <c r="AP60">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AR60">
         <v>1.22</v>
@@ -13838,7 +13853,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
         <v>0.55</v>
@@ -13966,7 +13981,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14378,7 +14393,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14456,7 +14471,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ64">
         <v>1.45</v>
@@ -14584,7 +14599,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14662,10 +14677,10 @@
         <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ65">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR65">
         <v>1.69</v>
@@ -14871,7 +14886,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ66">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR66">
         <v>1.58</v>
@@ -14996,7 +15011,7 @@
         <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q67">
         <v>4.75</v>
@@ -15077,7 +15092,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ67">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR67">
         <v>1.03</v>
@@ -15202,7 +15217,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15408,7 +15423,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15486,7 +15501,7 @@
         <v>0.25</v>
       </c>
       <c r="AP69">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ69">
         <v>0.83</v>
@@ -15614,7 +15629,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -16232,7 +16247,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16438,7 +16453,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q74">
         <v>1.75</v>
@@ -16850,7 +16865,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16931,7 +16946,7 @@
         <v>1</v>
       </c>
       <c r="AQ76">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR76">
         <v>1.71</v>
@@ -17056,7 +17071,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q77">
         <v>2.04</v>
@@ -17262,7 +17277,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q78">
         <v>3.05</v>
@@ -17549,7 +17564,7 @@
         <v>2</v>
       </c>
       <c r="AQ79">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR79">
         <v>1.81</v>
@@ -17674,7 +17689,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17880,7 +17895,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -17958,7 +17973,7 @@
         <v>0.4</v>
       </c>
       <c r="AP81">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ81">
         <v>0.83</v>
@@ -18086,7 +18101,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q82">
         <v>3.3</v>
@@ -18167,7 +18182,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ82">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR82">
         <v>1.3</v>
@@ -18292,7 +18307,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18370,7 +18385,7 @@
         <v>0.4</v>
       </c>
       <c r="AP83">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83">
         <v>0.55</v>
@@ -18579,7 +18594,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ84">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AR84">
         <v>0.98</v>
@@ -18785,7 +18800,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ85">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR85">
         <v>1.59</v>
@@ -18991,7 +19006,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ86">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR86">
         <v>1.8</v>
@@ -19194,7 +19209,7 @@
         <v>1.67</v>
       </c>
       <c r="AP87">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ87">
         <v>1.45</v>
@@ -19322,7 +19337,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19400,7 +19415,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -19606,7 +19621,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ89">
         <v>1.42</v>
@@ -19734,7 +19749,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q90">
         <v>1.73</v>
@@ -20558,7 +20573,7 @@
         <v>88</v>
       </c>
       <c r="P94" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -20970,7 +20985,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21176,7 +21191,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21257,7 +21272,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ97">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR97">
         <v>2.14</v>
@@ -21460,7 +21475,7 @@
         <v>1.8</v>
       </c>
       <c r="AP98">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ98">
         <v>1.92</v>
@@ -21666,7 +21681,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -21794,7 +21809,7 @@
         <v>105</v>
       </c>
       <c r="P100" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21872,10 +21887,10 @@
         <v>1.6</v>
       </c>
       <c r="AP100">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR100">
         <v>1.27</v>
@@ -22206,7 +22221,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22412,7 +22427,7 @@
         <v>164</v>
       </c>
       <c r="P103" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="Q103">
         <v>2.5</v>
@@ -22696,10 +22711,10 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ104">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR104">
         <v>1.39</v>
@@ -22824,7 +22839,7 @@
         <v>88</v>
       </c>
       <c r="P105" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q105">
         <v>3.4</v>
@@ -23030,7 +23045,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q106">
         <v>1.7</v>
@@ -23236,7 +23251,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23314,7 +23329,7 @@
         <v>0.17</v>
       </c>
       <c r="AP107">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ107">
         <v>0.45</v>
@@ -23442,7 +23457,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q108">
         <v>3.2</v>
@@ -23648,7 +23663,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23854,7 +23869,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -24141,7 +24156,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ111">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR111">
         <v>1.68</v>
@@ -24266,7 +24281,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q112">
         <v>3.3</v>
@@ -24347,7 +24362,7 @@
         <v>1</v>
       </c>
       <c r="AQ112">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AR112">
         <v>1.57</v>
@@ -24472,7 +24487,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q113">
         <v>2.9</v>
@@ -24553,7 +24568,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ113">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR113">
         <v>1.72</v>
@@ -24678,7 +24693,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q114">
         <v>1.85</v>
@@ -25168,7 +25183,7 @@
         <v>0.83</v>
       </c>
       <c r="AP116">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ116">
         <v>0.67</v>
@@ -25374,7 +25389,7 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ117">
         <v>0.92</v>
@@ -25502,7 +25517,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q118">
         <v>4.33</v>
@@ -25580,7 +25595,7 @@
         <v>1.67</v>
       </c>
       <c r="AP118">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ118">
         <v>1.92</v>
@@ -26532,7 +26547,7 @@
         <v>88</v>
       </c>
       <c r="P123" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26816,10 +26831,10 @@
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ124">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR124">
         <v>1.35</v>
@@ -26944,7 +26959,7 @@
         <v>88</v>
       </c>
       <c r="P125" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q125">
         <v>2.5</v>
@@ -27150,7 +27165,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27231,7 +27246,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ126">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AR126">
         <v>1.73</v>
@@ -27356,7 +27371,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27562,7 +27577,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27768,7 +27783,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q129">
         <v>3.3</v>
@@ -27846,7 +27861,7 @@
         <v>1.14</v>
       </c>
       <c r="AP129">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ129">
         <v>1.33</v>
@@ -27974,7 +27989,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q130">
         <v>3.5</v>
@@ -28261,7 +28276,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ131">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR131">
         <v>1.81</v>
@@ -28467,7 +28482,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ132">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR132">
         <v>2.15</v>
@@ -28673,7 +28688,7 @@
         <v>1</v>
       </c>
       <c r="AQ133">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR133">
         <v>1.55</v>
@@ -28798,7 +28813,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q134">
         <v>2.63</v>
@@ -29004,7 +29019,7 @@
         <v>88</v>
       </c>
       <c r="P135" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29288,7 +29303,7 @@
         <v>0.88</v>
       </c>
       <c r="AP136">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ136">
         <v>0.92</v>
@@ -29416,7 +29431,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q137">
         <v>2.1</v>
@@ -29497,7 +29512,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ137">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR137">
         <v>1.71</v>
@@ -29622,7 +29637,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29828,7 +29843,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q139">
         <v>2.1</v>
@@ -30112,7 +30127,7 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ140">
         <v>1</v>
@@ -30240,7 +30255,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q141">
         <v>3.2</v>
@@ -30446,7 +30461,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q142">
         <v>2.05</v>
@@ -30652,7 +30667,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30733,7 +30748,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ143">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AR143">
         <v>1.65</v>
@@ -30858,7 +30873,7 @@
         <v>158</v>
       </c>
       <c r="P144" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q144">
         <v>3.57</v>
@@ -31142,7 +31157,7 @@
         <v>1.86</v>
       </c>
       <c r="AP145">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ145">
         <v>1.92</v>
@@ -31270,7 +31285,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31351,7 +31366,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ146">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR146">
         <v>1.87</v>
@@ -31554,10 +31569,10 @@
         <v>1.29</v>
       </c>
       <c r="AP147">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ147">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR147">
         <v>1.68</v>
@@ -31682,7 +31697,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q148">
         <v>2.3</v>
@@ -31888,7 +31903,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32175,7 +32190,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ150">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR150">
         <v>1.67</v>
@@ -32300,7 +32315,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q151">
         <v>3.3</v>
@@ -32506,7 +32521,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q152">
         <v>2.05</v>
@@ -32712,7 +32727,7 @@
         <v>119</v>
       </c>
       <c r="P153" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q153">
         <v>2.65</v>
@@ -32918,7 +32933,7 @@
         <v>195</v>
       </c>
       <c r="P154" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q154">
         <v>2.35</v>
@@ -33742,7 +33757,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -33820,10 +33835,10 @@
         <v>1.14</v>
       </c>
       <c r="AP158">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ158">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR158">
         <v>1.64</v>
@@ -34026,7 +34041,7 @@
         <v>0.78</v>
       </c>
       <c r="AP159">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ159">
         <v>0.83</v>
@@ -34232,7 +34247,7 @@
         <v>1.44</v>
       </c>
       <c r="AP160">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ160">
         <v>1.42</v>
@@ -34360,7 +34375,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q161">
         <v>2.91</v>
@@ -34441,7 +34456,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ161">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AR161">
         <v>1.76</v>
@@ -34566,7 +34581,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q162">
         <v>4.28</v>
@@ -34644,7 +34659,7 @@
         <v>1.33</v>
       </c>
       <c r="AP162">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ162">
         <v>1.33</v>
@@ -34772,7 +34787,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q163">
         <v>3.75</v>
@@ -34978,7 +34993,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q164">
         <v>3.97</v>
@@ -35059,7 +35074,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ164">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR164">
         <v>1.63</v>
@@ -35677,7 +35692,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ167">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR167">
         <v>2.01</v>
@@ -35880,7 +35895,7 @@
         <v>0.89</v>
       </c>
       <c r="AP168">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ168">
         <v>0.92</v>
@@ -36214,7 +36229,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36707,7 +36722,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ172">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR172">
         <v>1.82</v>
@@ -36832,7 +36847,7 @@
         <v>95</v>
       </c>
       <c r="P173" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q173">
         <v>2.5</v>
@@ -36910,7 +36925,7 @@
         <v>0.9</v>
       </c>
       <c r="AP173">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ173">
         <v>1</v>
@@ -37325,7 +37340,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ175">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR175">
         <v>1.14</v>
@@ -37450,7 +37465,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37656,7 +37671,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -37862,7 +37877,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q178">
         <v>2.4</v>
@@ -37940,7 +37955,7 @@
         <v>0</v>
       </c>
       <c r="AP178">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ178">
         <v>0</v>
@@ -38068,7 +38083,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q179">
         <v>3.98</v>
@@ -38686,7 +38701,7 @@
         <v>179</v>
       </c>
       <c r="P182" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -38764,10 +38779,10 @@
         <v>1.44</v>
       </c>
       <c r="AP182">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ182">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR182">
         <v>1.63</v>
@@ -39179,7 +39194,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ184">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR184">
         <v>1.81</v>
@@ -39304,7 +39319,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q185">
         <v>1.8</v>
@@ -39510,7 +39525,7 @@
         <v>88</v>
       </c>
       <c r="P186" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q186">
         <v>3.7</v>
@@ -39716,7 +39731,7 @@
         <v>214</v>
       </c>
       <c r="P187" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q187">
         <v>2.65</v>
@@ -39794,7 +39809,7 @@
         <v>0.8</v>
       </c>
       <c r="AP187">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ187">
         <v>0.67</v>
@@ -40000,10 +40015,10 @@
         <v>1.1</v>
       </c>
       <c r="AP188">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ188">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR188">
         <v>1.61</v>
@@ -40128,7 +40143,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q189">
         <v>1.78</v>
@@ -40412,7 +40427,7 @@
         <v>0.5</v>
       </c>
       <c r="AP190">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ190">
         <v>0.55</v>
@@ -40621,7 +40636,7 @@
         <v>2</v>
       </c>
       <c r="AQ191">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AR191">
         <v>1.69</v>
@@ -40827,7 +40842,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ192">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR192">
         <v>1.54</v>
@@ -40952,7 +40967,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41030,7 +41045,7 @@
         <v>1</v>
       </c>
       <c r="AP193">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ193">
         <v>1</v>
@@ -41364,7 +41379,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -41442,7 +41457,7 @@
         <v>1.5</v>
       </c>
       <c r="AP195">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ195">
         <v>1.45</v>
@@ -41651,7 +41666,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ196">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR196">
         <v>1.13</v>
@@ -41982,7 +41997,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42472,7 +42487,7 @@
         <v>1.45</v>
       </c>
       <c r="AP200">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ200">
         <v>1.33</v>
@@ -42600,7 +42615,7 @@
         <v>222</v>
       </c>
       <c r="P201" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q201">
         <v>2.8</v>
@@ -43012,7 +43027,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q203">
         <v>3.2</v>
@@ -43505,7 +43520,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ205">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR205">
         <v>1.71</v>
@@ -43787,6 +43802,1036 @@
       </c>
       <c r="BP206">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>6469272</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45359.58333333334</v>
+      </c>
+      <c r="F207">
+        <v>24</v>
+      </c>
+      <c r="G207" t="s">
+        <v>74</v>
+      </c>
+      <c r="H207" t="s">
+        <v>85</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>2</v>
+      </c>
+      <c r="L207">
+        <v>2</v>
+      </c>
+      <c r="M207">
+        <v>3</v>
+      </c>
+      <c r="N207">
+        <v>5</v>
+      </c>
+      <c r="O207" t="s">
+        <v>227</v>
+      </c>
+      <c r="P207" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q207">
+        <v>2.6</v>
+      </c>
+      <c r="R207">
+        <v>1.94</v>
+      </c>
+      <c r="S207">
+        <v>4.01</v>
+      </c>
+      <c r="T207">
+        <v>1.5</v>
+      </c>
+      <c r="U207">
+        <v>2.5</v>
+      </c>
+      <c r="V207">
+        <v>3.25</v>
+      </c>
+      <c r="W207">
+        <v>1.33</v>
+      </c>
+      <c r="X207">
+        <v>8</v>
+      </c>
+      <c r="Y207">
+        <v>1.06</v>
+      </c>
+      <c r="Z207">
+        <v>2</v>
+      </c>
+      <c r="AA207">
+        <v>3.1</v>
+      </c>
+      <c r="AB207">
+        <v>3.4</v>
+      </c>
+      <c r="AC207">
+        <v>1.09</v>
+      </c>
+      <c r="AD207">
+        <v>7</v>
+      </c>
+      <c r="AE207">
+        <v>1.53</v>
+      </c>
+      <c r="AF207">
+        <v>2.4</v>
+      </c>
+      <c r="AG207">
+        <v>2.2</v>
+      </c>
+      <c r="AH207">
+        <v>1.6</v>
+      </c>
+      <c r="AI207">
+        <v>2.05</v>
+      </c>
+      <c r="AJ207">
+        <v>1.66</v>
+      </c>
+      <c r="AK207">
+        <v>1.2</v>
+      </c>
+      <c r="AL207">
+        <v>1.27</v>
+      </c>
+      <c r="AM207">
+        <v>1.77</v>
+      </c>
+      <c r="AN207">
+        <v>1.4</v>
+      </c>
+      <c r="AO207">
+        <v>1.27</v>
+      </c>
+      <c r="AP207">
+        <v>1.27</v>
+      </c>
+      <c r="AQ207">
+        <v>1.42</v>
+      </c>
+      <c r="AR207">
+        <v>1.55</v>
+      </c>
+      <c r="AS207">
+        <v>1.35</v>
+      </c>
+      <c r="AT207">
+        <v>2.9</v>
+      </c>
+      <c r="AU207">
+        <v>6</v>
+      </c>
+      <c r="AV207">
+        <v>6</v>
+      </c>
+      <c r="AW207">
+        <v>4</v>
+      </c>
+      <c r="AX207">
+        <v>5</v>
+      </c>
+      <c r="AY207">
+        <v>10</v>
+      </c>
+      <c r="AZ207">
+        <v>11</v>
+      </c>
+      <c r="BA207">
+        <v>7</v>
+      </c>
+      <c r="BB207">
+        <v>4</v>
+      </c>
+      <c r="BC207">
+        <v>11</v>
+      </c>
+      <c r="BD207">
+        <v>1.55</v>
+      </c>
+      <c r="BE207">
+        <v>8</v>
+      </c>
+      <c r="BF207">
+        <v>2.92</v>
+      </c>
+      <c r="BG207">
+        <v>1.29</v>
+      </c>
+      <c r="BH207">
+        <v>3.1</v>
+      </c>
+      <c r="BI207">
+        <v>1.54</v>
+      </c>
+      <c r="BJ207">
+        <v>2.23</v>
+      </c>
+      <c r="BK207">
+        <v>2</v>
+      </c>
+      <c r="BL207">
+        <v>1.8</v>
+      </c>
+      <c r="BM207">
+        <v>2.5</v>
+      </c>
+      <c r="BN207">
+        <v>1.43</v>
+      </c>
+      <c r="BO207">
+        <v>3.4</v>
+      </c>
+      <c r="BP207">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>6469270</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45359.6875</v>
+      </c>
+      <c r="F208">
+        <v>24</v>
+      </c>
+      <c r="G208" t="s">
+        <v>80</v>
+      </c>
+      <c r="H208" t="s">
+        <v>81</v>
+      </c>
+      <c r="I208">
+        <v>3</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>3</v>
+      </c>
+      <c r="L208">
+        <v>3</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="N208">
+        <v>4</v>
+      </c>
+      <c r="O208" t="s">
+        <v>228</v>
+      </c>
+      <c r="P208" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q208">
+        <v>2.55</v>
+      </c>
+      <c r="R208">
+        <v>2.15</v>
+      </c>
+      <c r="S208">
+        <v>4</v>
+      </c>
+      <c r="T208">
+        <v>1.39</v>
+      </c>
+      <c r="U208">
+        <v>2.8</v>
+      </c>
+      <c r="V208">
+        <v>2.8</v>
+      </c>
+      <c r="W208">
+        <v>1.39</v>
+      </c>
+      <c r="X208">
+        <v>6.95</v>
+      </c>
+      <c r="Y208">
+        <v>1.07</v>
+      </c>
+      <c r="Z208">
+        <v>1.91</v>
+      </c>
+      <c r="AA208">
+        <v>3.3</v>
+      </c>
+      <c r="AB208">
+        <v>3.5</v>
+      </c>
+      <c r="AC208">
+        <v>1.02</v>
+      </c>
+      <c r="AD208">
+        <v>9</v>
+      </c>
+      <c r="AE208">
+        <v>1.3</v>
+      </c>
+      <c r="AF208">
+        <v>3.3</v>
+      </c>
+      <c r="AG208">
+        <v>1.85</v>
+      </c>
+      <c r="AH208">
+        <v>1.85</v>
+      </c>
+      <c r="AI208">
+        <v>1.78</v>
+      </c>
+      <c r="AJ208">
+        <v>1.95</v>
+      </c>
+      <c r="AK208">
+        <v>1.25</v>
+      </c>
+      <c r="AL208">
+        <v>1.25</v>
+      </c>
+      <c r="AM208">
+        <v>1.8</v>
+      </c>
+      <c r="AN208">
+        <v>2.36</v>
+      </c>
+      <c r="AO208">
+        <v>2.18</v>
+      </c>
+      <c r="AP208">
+        <v>2.42</v>
+      </c>
+      <c r="AQ208">
+        <v>2</v>
+      </c>
+      <c r="AR208">
+        <v>1.69</v>
+      </c>
+      <c r="AS208">
+        <v>1.18</v>
+      </c>
+      <c r="AT208">
+        <v>2.87</v>
+      </c>
+      <c r="AU208">
+        <v>10</v>
+      </c>
+      <c r="AV208">
+        <v>4</v>
+      </c>
+      <c r="AW208">
+        <v>6</v>
+      </c>
+      <c r="AX208">
+        <v>3</v>
+      </c>
+      <c r="AY208">
+        <v>16</v>
+      </c>
+      <c r="AZ208">
+        <v>7</v>
+      </c>
+      <c r="BA208">
+        <v>2</v>
+      </c>
+      <c r="BB208">
+        <v>2</v>
+      </c>
+      <c r="BC208">
+        <v>4</v>
+      </c>
+      <c r="BD208">
+        <v>1.69</v>
+      </c>
+      <c r="BE208">
+        <v>8</v>
+      </c>
+      <c r="BF208">
+        <v>2.62</v>
+      </c>
+      <c r="BG208">
+        <v>1.26</v>
+      </c>
+      <c r="BH208">
+        <v>3.25</v>
+      </c>
+      <c r="BI208">
+        <v>1.49</v>
+      </c>
+      <c r="BJ208">
+        <v>2.33</v>
+      </c>
+      <c r="BK208">
+        <v>1.92</v>
+      </c>
+      <c r="BL208">
+        <v>1.88</v>
+      </c>
+      <c r="BM208">
+        <v>2.38</v>
+      </c>
+      <c r="BN208">
+        <v>1.47</v>
+      </c>
+      <c r="BO208">
+        <v>3.2</v>
+      </c>
+      <c r="BP208">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>6469271</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F209">
+        <v>24</v>
+      </c>
+      <c r="G209" t="s">
+        <v>78</v>
+      </c>
+      <c r="H209" t="s">
+        <v>87</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="N209">
+        <v>2</v>
+      </c>
+      <c r="O209" t="s">
+        <v>229</v>
+      </c>
+      <c r="P209" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q209">
+        <v>3.1</v>
+      </c>
+      <c r="R209">
+        <v>2.05</v>
+      </c>
+      <c r="S209">
+        <v>3.2</v>
+      </c>
+      <c r="T209">
+        <v>1.48</v>
+      </c>
+      <c r="U209">
+        <v>2.54</v>
+      </c>
+      <c r="V209">
+        <v>3.15</v>
+      </c>
+      <c r="W209">
+        <v>1.33</v>
+      </c>
+      <c r="X209">
+        <v>8.4</v>
+      </c>
+      <c r="Y209">
+        <v>1.05</v>
+      </c>
+      <c r="Z209">
+        <v>2.4</v>
+      </c>
+      <c r="AA209">
+        <v>3.2</v>
+      </c>
+      <c r="AB209">
+        <v>2.9</v>
+      </c>
+      <c r="AC209">
+        <v>1.04</v>
+      </c>
+      <c r="AD209">
+        <v>7.4</v>
+      </c>
+      <c r="AE209">
+        <v>1.35</v>
+      </c>
+      <c r="AF209">
+        <v>2.84</v>
+      </c>
+      <c r="AG209">
+        <v>2.15</v>
+      </c>
+      <c r="AH209">
+        <v>1.65</v>
+      </c>
+      <c r="AI209">
+        <v>1.85</v>
+      </c>
+      <c r="AJ209">
+        <v>1.85</v>
+      </c>
+      <c r="AK209">
+        <v>1.43</v>
+      </c>
+      <c r="AL209">
+        <v>1.34</v>
+      </c>
+      <c r="AM209">
+        <v>1.47</v>
+      </c>
+      <c r="AN209">
+        <v>1.4</v>
+      </c>
+      <c r="AO209">
+        <v>1.09</v>
+      </c>
+      <c r="AP209">
+        <v>1.36</v>
+      </c>
+      <c r="AQ209">
+        <v>1.08</v>
+      </c>
+      <c r="AR209">
+        <v>1.61</v>
+      </c>
+      <c r="AS209">
+        <v>1.38</v>
+      </c>
+      <c r="AT209">
+        <v>2.99</v>
+      </c>
+      <c r="AU209">
+        <v>5</v>
+      </c>
+      <c r="AV209">
+        <v>7</v>
+      </c>
+      <c r="AW209">
+        <v>7</v>
+      </c>
+      <c r="AX209">
+        <v>2</v>
+      </c>
+      <c r="AY209">
+        <v>12</v>
+      </c>
+      <c r="AZ209">
+        <v>9</v>
+      </c>
+      <c r="BA209">
+        <v>2</v>
+      </c>
+      <c r="BB209">
+        <v>4</v>
+      </c>
+      <c r="BC209">
+        <v>6</v>
+      </c>
+      <c r="BD209">
+        <v>1.95</v>
+      </c>
+      <c r="BE209">
+        <v>8</v>
+      </c>
+      <c r="BF209">
+        <v>2.05</v>
+      </c>
+      <c r="BG209">
+        <v>1.23</v>
+      </c>
+      <c r="BH209">
+        <v>3.5</v>
+      </c>
+      <c r="BI209">
+        <v>1.43</v>
+      </c>
+      <c r="BJ209">
+        <v>2.48</v>
+      </c>
+      <c r="BK209">
+        <v>1.82</v>
+      </c>
+      <c r="BL209">
+        <v>1.98</v>
+      </c>
+      <c r="BM209">
+        <v>2.25</v>
+      </c>
+      <c r="BN209">
+        <v>1.53</v>
+      </c>
+      <c r="BO209">
+        <v>3</v>
+      </c>
+      <c r="BP209">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>6469274</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45360.5625</v>
+      </c>
+      <c r="F210">
+        <v>24</v>
+      </c>
+      <c r="G210" t="s">
+        <v>86</v>
+      </c>
+      <c r="H210" t="s">
+        <v>73</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>1</v>
+      </c>
+      <c r="N210">
+        <v>2</v>
+      </c>
+      <c r="O210" t="s">
+        <v>230</v>
+      </c>
+      <c r="P210" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q210">
+        <v>4.24</v>
+      </c>
+      <c r="R210">
+        <v>2.18</v>
+      </c>
+      <c r="S210">
+        <v>2.2</v>
+      </c>
+      <c r="T210">
+        <v>1.36</v>
+      </c>
+      <c r="U210">
+        <v>3</v>
+      </c>
+      <c r="V210">
+        <v>2.62</v>
+      </c>
+      <c r="W210">
+        <v>1.44</v>
+      </c>
+      <c r="X210">
+        <v>6</v>
+      </c>
+      <c r="Y210">
+        <v>1.11</v>
+      </c>
+      <c r="Z210">
+        <v>5.5</v>
+      </c>
+      <c r="AA210">
+        <v>3.9</v>
+      </c>
+      <c r="AB210">
+        <v>1.57</v>
+      </c>
+      <c r="AC210">
+        <v>1.05</v>
+      </c>
+      <c r="AD210">
+        <v>9.5</v>
+      </c>
+      <c r="AE210">
+        <v>1.25</v>
+      </c>
+      <c r="AF210">
+        <v>3.8</v>
+      </c>
+      <c r="AG210">
+        <v>1.8</v>
+      </c>
+      <c r="AH210">
+        <v>1.93</v>
+      </c>
+      <c r="AI210">
+        <v>1.73</v>
+      </c>
+      <c r="AJ210">
+        <v>2</v>
+      </c>
+      <c r="AK210">
+        <v>2.15</v>
+      </c>
+      <c r="AL210">
+        <v>1.2</v>
+      </c>
+      <c r="AM210">
+        <v>1.12</v>
+      </c>
+      <c r="AN210">
+        <v>1.55</v>
+      </c>
+      <c r="AO210">
+        <v>0.9</v>
+      </c>
+      <c r="AP210">
+        <v>1.5</v>
+      </c>
+      <c r="AQ210">
+        <v>0.91</v>
+      </c>
+      <c r="AR210">
+        <v>1.3</v>
+      </c>
+      <c r="AS210">
+        <v>1.57</v>
+      </c>
+      <c r="AT210">
+        <v>2.87</v>
+      </c>
+      <c r="AU210">
+        <v>6</v>
+      </c>
+      <c r="AV210">
+        <v>6</v>
+      </c>
+      <c r="AW210">
+        <v>2</v>
+      </c>
+      <c r="AX210">
+        <v>8</v>
+      </c>
+      <c r="AY210">
+        <v>8</v>
+      </c>
+      <c r="AZ210">
+        <v>14</v>
+      </c>
+      <c r="BA210">
+        <v>2</v>
+      </c>
+      <c r="BB210">
+        <v>6</v>
+      </c>
+      <c r="BC210">
+        <v>8</v>
+      </c>
+      <c r="BD210">
+        <v>3.29</v>
+      </c>
+      <c r="BE210">
+        <v>8.5</v>
+      </c>
+      <c r="BF210">
+        <v>1.45</v>
+      </c>
+      <c r="BG210">
+        <v>1.26</v>
+      </c>
+      <c r="BH210">
+        <v>3.25</v>
+      </c>
+      <c r="BI210">
+        <v>1.49</v>
+      </c>
+      <c r="BJ210">
+        <v>2.33</v>
+      </c>
+      <c r="BK210">
+        <v>1.92</v>
+      </c>
+      <c r="BL210">
+        <v>1.88</v>
+      </c>
+      <c r="BM210">
+        <v>2.38</v>
+      </c>
+      <c r="BN210">
+        <v>1.47</v>
+      </c>
+      <c r="BO210">
+        <v>3.2</v>
+      </c>
+      <c r="BP210">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>6469269</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45360.66666666666</v>
+      </c>
+      <c r="F211">
+        <v>24</v>
+      </c>
+      <c r="G211" t="s">
+        <v>75</v>
+      </c>
+      <c r="H211" t="s">
+        <v>82</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>0</v>
+      </c>
+      <c r="O211" t="s">
+        <v>88</v>
+      </c>
+      <c r="P211" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q211">
+        <v>3.46</v>
+      </c>
+      <c r="R211">
+        <v>2.14</v>
+      </c>
+      <c r="S211">
+        <v>2.95</v>
+      </c>
+      <c r="T211">
+        <v>1.37</v>
+      </c>
+      <c r="U211">
+        <v>2.95</v>
+      </c>
+      <c r="V211">
+        <v>2.74</v>
+      </c>
+      <c r="W211">
+        <v>1.42</v>
+      </c>
+      <c r="X211">
+        <v>6.8</v>
+      </c>
+      <c r="Y211">
+        <v>1.08</v>
+      </c>
+      <c r="Z211">
+        <v>3.45</v>
+      </c>
+      <c r="AA211">
+        <v>3.2</v>
+      </c>
+      <c r="AB211">
+        <v>2.18</v>
+      </c>
+      <c r="AC211">
+        <v>1.05</v>
+      </c>
+      <c r="AD211">
+        <v>9.5</v>
+      </c>
+      <c r="AE211">
+        <v>1.28</v>
+      </c>
+      <c r="AF211">
+        <v>3.65</v>
+      </c>
+      <c r="AG211">
+        <v>1.73</v>
+      </c>
+      <c r="AH211">
+        <v>2</v>
+      </c>
+      <c r="AI211">
+        <v>1.68</v>
+      </c>
+      <c r="AJ211">
+        <v>2.13</v>
+      </c>
+      <c r="AK211">
+        <v>1.54</v>
+      </c>
+      <c r="AL211">
+        <v>1.29</v>
+      </c>
+      <c r="AM211">
+        <v>1.42</v>
+      </c>
+      <c r="AN211">
+        <v>2.09</v>
+      </c>
+      <c r="AO211">
+        <v>1.45</v>
+      </c>
+      <c r="AP211">
+        <v>2</v>
+      </c>
+      <c r="AQ211">
+        <v>1.42</v>
+      </c>
+      <c r="AR211">
+        <v>1.51</v>
+      </c>
+      <c r="AS211">
+        <v>1.21</v>
+      </c>
+      <c r="AT211">
+        <v>2.72</v>
+      </c>
+      <c r="AU211">
+        <v>3</v>
+      </c>
+      <c r="AV211">
+        <v>6</v>
+      </c>
+      <c r="AW211">
+        <v>6</v>
+      </c>
+      <c r="AX211">
+        <v>2</v>
+      </c>
+      <c r="AY211">
+        <v>9</v>
+      </c>
+      <c r="AZ211">
+        <v>8</v>
+      </c>
+      <c r="BA211">
+        <v>8</v>
+      </c>
+      <c r="BB211">
+        <v>6</v>
+      </c>
+      <c r="BC211">
+        <v>14</v>
+      </c>
+      <c r="BD211">
+        <v>2.2</v>
+      </c>
+      <c r="BE211">
+        <v>8</v>
+      </c>
+      <c r="BF211">
+        <v>1.91</v>
+      </c>
+      <c r="BG211">
+        <v>1.24</v>
+      </c>
+      <c r="BH211">
+        <v>3.45</v>
+      </c>
+      <c r="BI211">
+        <v>1.45</v>
+      </c>
+      <c r="BJ211">
+        <v>2.45</v>
+      </c>
+      <c r="BK211">
+        <v>1.85</v>
+      </c>
+      <c r="BL211">
+        <v>1.95</v>
+      </c>
+      <c r="BM211">
+        <v>2.28</v>
+      </c>
+      <c r="BN211">
+        <v>1.52</v>
+      </c>
+      <c r="BO211">
+        <v>3.05</v>
+      </c>
+      <c r="BP211">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="330">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -709,6 +709,12 @@
     <t>['90+2']</t>
   </si>
   <si>
+    <t>['11', '29', '58']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -743,9 +749,6 @@
   </si>
   <si>
     <t>['81']</t>
-  </si>
-  <si>
-    <t>['90+3']</t>
   </si>
   <si>
     <t>['90+1']</t>
@@ -1362,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP211"/>
+  <dimension ref="A1:BP214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1621,7 +1624,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q2">
         <v>4.33</v>
@@ -2033,7 +2036,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2111,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>1.08</v>
@@ -2445,7 +2448,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2651,7 +2654,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2857,7 +2860,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q8">
         <v>2.38</v>
@@ -2938,7 +2941,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ8">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3063,7 +3066,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3141,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9">
         <v>0.45</v>
@@ -3269,7 +3272,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q10">
         <v>3.2</v>
@@ -3887,7 +3890,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q13">
         <v>2.53</v>
@@ -4093,7 +4096,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4174,7 +4177,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4377,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>0.92</v>
@@ -4711,7 +4714,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q17">
         <v>2.21</v>
@@ -4789,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ17">
         <v>0.83</v>
@@ -4917,7 +4920,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5329,7 +5332,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q20">
         <v>1.82</v>
@@ -5947,7 +5950,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6234,7 +6237,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ24">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR24">
         <v>2.24</v>
@@ -6646,7 +6649,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6771,7 +6774,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q27">
         <v>4.2</v>
@@ -6977,7 +6980,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7055,7 +7058,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>2</v>
@@ -7183,7 +7186,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q29">
         <v>2.95</v>
@@ -7467,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -7595,7 +7598,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q31">
         <v>2.3</v>
@@ -7673,7 +7676,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ31">
         <v>1.42</v>
@@ -7801,7 +7804,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7882,7 +7885,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
         <v>0.98</v>
@@ -8007,7 +8010,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q33">
         <v>2.6</v>
@@ -8088,7 +8091,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ33">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
         <v>1.24</v>
@@ -8419,7 +8422,7 @@
         <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8625,7 +8628,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -10145,7 +10148,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>1.42</v>
@@ -10273,7 +10276,7 @@
         <v>88</v>
       </c>
       <c r="P44" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q44">
         <v>2.7</v>
@@ -10351,7 +10354,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ44">
         <v>2</v>
@@ -10685,7 +10688,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10972,7 +10975,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ47">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>1.82</v>
@@ -11178,7 +11181,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR48">
         <v>1.78</v>
@@ -11303,7 +11306,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11509,7 +11512,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q50">
         <v>2.15</v>
@@ -11587,7 +11590,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ50">
         <v>2</v>
@@ -11715,7 +11718,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -12745,7 +12748,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -13569,7 +13572,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13856,7 +13859,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR61">
         <v>0.95</v>
@@ -13981,7 +13984,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14059,7 +14062,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ62">
         <v>0.67</v>
@@ -14393,7 +14396,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14474,7 +14477,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ64">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR64">
         <v>1.89</v>
@@ -14599,7 +14602,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14883,7 +14886,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ66">
         <v>1.08</v>
@@ -15011,7 +15014,7 @@
         <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q67">
         <v>4.75</v>
@@ -15217,7 +15220,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15295,10 +15298,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR68">
         <v>1.15</v>
@@ -15423,7 +15426,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15629,7 +15632,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -16247,7 +16250,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16453,7 +16456,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q74">
         <v>1.75</v>
@@ -16865,7 +16868,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17071,7 +17074,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q77">
         <v>2.04</v>
@@ -17277,7 +17280,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q78">
         <v>3.05</v>
@@ -17355,10 +17358,10 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ78">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR78">
         <v>1.85</v>
@@ -17689,7 +17692,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17767,7 +17770,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ80">
         <v>0.67</v>
@@ -17895,7 +17898,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18101,7 +18104,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q82">
         <v>3.3</v>
@@ -18307,7 +18310,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18388,7 +18391,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ83">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR83">
         <v>1.19</v>
@@ -19003,7 +19006,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ86">
         <v>1.42</v>
@@ -19212,7 +19215,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ87">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR87">
         <v>1.69</v>
@@ -19337,7 +19340,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19418,7 +19421,7 @@
         <v>2</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR88">
         <v>1.14</v>
@@ -19749,7 +19752,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q90">
         <v>1.73</v>
@@ -20239,7 +20242,7 @@
         <v>0.25</v>
       </c>
       <c r="AP92">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ92">
         <v>0.92</v>
@@ -20573,7 +20576,7 @@
         <v>88</v>
       </c>
       <c r="P94" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -20985,7 +20988,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21191,7 +21194,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21684,7 +21687,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR99">
         <v>1.54</v>
@@ -21809,7 +21812,7 @@
         <v>105</v>
       </c>
       <c r="P100" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22096,7 +22099,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ101">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR101">
         <v>1.7</v>
@@ -22221,7 +22224,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22839,7 +22842,7 @@
         <v>88</v>
       </c>
       <c r="P105" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q105">
         <v>3.4</v>
@@ -22917,7 +22920,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ105">
         <v>1.42</v>
@@ -23045,7 +23048,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q106">
         <v>1.7</v>
@@ -23251,7 +23254,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23457,7 +23460,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q108">
         <v>3.2</v>
@@ -23663,7 +23666,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23869,7 +23872,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -23947,7 +23950,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ110">
         <v>1.33</v>
@@ -24281,7 +24284,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q112">
         <v>3.3</v>
@@ -24487,7 +24490,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q113">
         <v>2.9</v>
@@ -24693,7 +24696,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q114">
         <v>1.85</v>
@@ -25517,7 +25520,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q118">
         <v>4.33</v>
@@ -25801,7 +25804,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ119">
         <v>1.42</v>
@@ -26010,7 +26013,7 @@
         <v>2</v>
       </c>
       <c r="AQ120">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR120">
         <v>1.66</v>
@@ -26422,7 +26425,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR122">
         <v>1.71</v>
@@ -26547,7 +26550,7 @@
         <v>88</v>
       </c>
       <c r="P123" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26628,7 +26631,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ123">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR123">
         <v>1.78</v>
@@ -26959,7 +26962,7 @@
         <v>88</v>
       </c>
       <c r="P125" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q125">
         <v>2.5</v>
@@ -27165,7 +27168,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27371,7 +27374,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27577,7 +27580,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27783,7 +27786,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q129">
         <v>3.3</v>
@@ -27989,7 +27992,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q130">
         <v>3.5</v>
@@ -28067,7 +28070,7 @@
         <v>1.14</v>
       </c>
       <c r="AP130">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ130">
         <v>1</v>
@@ -28273,7 +28276,7 @@
         <v>1.2</v>
       </c>
       <c r="AP131">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ131">
         <v>0.91</v>
@@ -28813,7 +28816,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q134">
         <v>2.63</v>
@@ -28891,10 +28894,10 @@
         <v>0.43</v>
       </c>
       <c r="AP134">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ134">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR134">
         <v>1.63</v>
@@ -29019,7 +29022,7 @@
         <v>88</v>
       </c>
       <c r="P135" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29100,7 +29103,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ135">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR135">
         <v>1.24</v>
@@ -29431,7 +29434,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q137">
         <v>2.1</v>
@@ -29637,7 +29640,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29715,7 +29718,7 @@
         <v>0.57</v>
       </c>
       <c r="AP138">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ138">
         <v>0.92</v>
@@ -29843,7 +29846,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q139">
         <v>2.1</v>
@@ -30255,7 +30258,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="Q141">
         <v>3.2</v>
@@ -30461,7 +30464,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q142">
         <v>2.05</v>
@@ -30667,7 +30670,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30873,7 +30876,7 @@
         <v>158</v>
       </c>
       <c r="P144" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q144">
         <v>3.57</v>
@@ -31285,7 +31288,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31363,7 +31366,7 @@
         <v>1.25</v>
       </c>
       <c r="AP146">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ146">
         <v>1.42</v>
@@ -31697,7 +31700,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q148">
         <v>2.3</v>
@@ -31778,7 +31781,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ148">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR148">
         <v>1.81</v>
@@ -31903,7 +31906,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -31984,7 +31987,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ149">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR149">
         <v>1.84</v>
@@ -32315,7 +32318,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q151">
         <v>3.3</v>
@@ -32396,7 +32399,7 @@
         <v>1</v>
       </c>
       <c r="AQ151">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR151">
         <v>1.48</v>
@@ -32521,7 +32524,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q152">
         <v>2.05</v>
@@ -32599,7 +32602,7 @@
         <v>1.5</v>
       </c>
       <c r="AP152">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ152">
         <v>1.42</v>
@@ -32727,7 +32730,7 @@
         <v>119</v>
       </c>
       <c r="P153" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q153">
         <v>2.65</v>
@@ -32933,7 +32936,7 @@
         <v>195</v>
       </c>
       <c r="P154" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q154">
         <v>2.35</v>
@@ -33632,7 +33635,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ157">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR157">
         <v>1.22</v>
@@ -33757,7 +33760,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -34375,7 +34378,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q161">
         <v>2.91</v>
@@ -34581,7 +34584,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q162">
         <v>4.28</v>
@@ -34787,7 +34790,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q163">
         <v>3.75</v>
@@ -34865,7 +34868,7 @@
         <v>1.63</v>
       </c>
       <c r="AP163">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ163">
         <v>1.92</v>
@@ -34993,7 +34996,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q164">
         <v>3.97</v>
@@ -35280,7 +35283,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ165">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR165">
         <v>1.19</v>
@@ -36104,7 +36107,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ169">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR169">
         <v>1.91</v>
@@ -36229,7 +36232,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36307,7 +36310,7 @@
         <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ170">
         <v>0.45</v>
@@ -36516,7 +36519,7 @@
         <v>1</v>
       </c>
       <c r="AQ171">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR171">
         <v>1.51</v>
@@ -36847,7 +36850,7 @@
         <v>95</v>
       </c>
       <c r="P173" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q173">
         <v>2.5</v>
@@ -37134,7 +37137,7 @@
         <v>2</v>
       </c>
       <c r="AQ174">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR174">
         <v>1.75</v>
@@ -37465,7 +37468,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37543,7 +37546,7 @@
         <v>1.3</v>
       </c>
       <c r="AP176">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ176">
         <v>1.33</v>
@@ -37671,7 +37674,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -37877,7 +37880,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q178">
         <v>2.4</v>
@@ -38083,7 +38086,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q179">
         <v>3.98</v>
@@ -38701,7 +38704,7 @@
         <v>179</v>
       </c>
       <c r="P182" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -39319,7 +39322,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q185">
         <v>1.8</v>
@@ -39525,7 +39528,7 @@
         <v>88</v>
       </c>
       <c r="P186" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q186">
         <v>3.7</v>
@@ -39731,7 +39734,7 @@
         <v>214</v>
       </c>
       <c r="P187" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q187">
         <v>2.65</v>
@@ -40143,7 +40146,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q189">
         <v>1.78</v>
@@ -40221,7 +40224,7 @@
         <v>0</v>
       </c>
       <c r="AP189">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ189">
         <v>0</v>
@@ -40430,7 +40433,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ190">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR190">
         <v>1.72</v>
@@ -40839,7 +40842,7 @@
         <v>0.89</v>
       </c>
       <c r="AP192">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ192">
         <v>0.91</v>
@@ -40967,7 +40970,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41048,7 +41051,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ193">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR193">
         <v>1.29</v>
@@ -41251,7 +41254,7 @@
         <v>1.09</v>
       </c>
       <c r="AP194">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ194">
         <v>1</v>
@@ -41379,7 +41382,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -41460,7 +41463,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ195">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR195">
         <v>1.6</v>
@@ -41869,7 +41872,7 @@
         <v>0</v>
       </c>
       <c r="AP197">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ197">
         <v>0</v>
@@ -41997,7 +42000,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42615,7 +42618,7 @@
         <v>222</v>
       </c>
       <c r="P201" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="Q201">
         <v>2.8</v>
@@ -43027,7 +43030,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q203">
         <v>3.2</v>
@@ -43851,7 +43854,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44057,7 +44060,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q208">
         <v>2.55</v>
@@ -44263,7 +44266,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44832,6 +44835,624 @@
       </c>
       <c r="BP211">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>6469275</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45361.35416666666</v>
+      </c>
+      <c r="F212">
+        <v>24</v>
+      </c>
+      <c r="G212" t="s">
+        <v>72</v>
+      </c>
+      <c r="H212" t="s">
+        <v>79</v>
+      </c>
+      <c r="I212">
+        <v>2</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>2</v>
+      </c>
+      <c r="L212">
+        <v>3</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>4</v>
+      </c>
+      <c r="O212" t="s">
+        <v>231</v>
+      </c>
+      <c r="P212" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q212">
+        <v>2.7</v>
+      </c>
+      <c r="R212">
+        <v>1.95</v>
+      </c>
+      <c r="S212">
+        <v>3.95</v>
+      </c>
+      <c r="T212">
+        <v>1.45</v>
+      </c>
+      <c r="U212">
+        <v>2.55</v>
+      </c>
+      <c r="V212">
+        <v>3</v>
+      </c>
+      <c r="W212">
+        <v>1.33</v>
+      </c>
+      <c r="X212">
+        <v>7.5</v>
+      </c>
+      <c r="Y212">
+        <v>1.06</v>
+      </c>
+      <c r="Z212">
+        <v>2.24</v>
+      </c>
+      <c r="AA212">
+        <v>3.2</v>
+      </c>
+      <c r="AB212">
+        <v>3.25</v>
+      </c>
+      <c r="AC212">
+        <v>1.08</v>
+      </c>
+      <c r="AD212">
+        <v>7.5</v>
+      </c>
+      <c r="AE212">
+        <v>1.38</v>
+      </c>
+      <c r="AF212">
+        <v>2.95</v>
+      </c>
+      <c r="AG212">
+        <v>2.11</v>
+      </c>
+      <c r="AH212">
+        <v>1.74</v>
+      </c>
+      <c r="AI212">
+        <v>1.8</v>
+      </c>
+      <c r="AJ212">
+        <v>1.9</v>
+      </c>
+      <c r="AK212">
+        <v>1.3</v>
+      </c>
+      <c r="AL212">
+        <v>1.3</v>
+      </c>
+      <c r="AM212">
+        <v>1.53</v>
+      </c>
+      <c r="AN212">
+        <v>1.91</v>
+      </c>
+      <c r="AO212">
+        <v>0.55</v>
+      </c>
+      <c r="AP212">
+        <v>2</v>
+      </c>
+      <c r="AQ212">
+        <v>0.5</v>
+      </c>
+      <c r="AR212">
+        <v>1.47</v>
+      </c>
+      <c r="AS212">
+        <v>1.05</v>
+      </c>
+      <c r="AT212">
+        <v>2.52</v>
+      </c>
+      <c r="AU212">
+        <v>7</v>
+      </c>
+      <c r="AV212">
+        <v>7</v>
+      </c>
+      <c r="AW212">
+        <v>0</v>
+      </c>
+      <c r="AX212">
+        <v>8</v>
+      </c>
+      <c r="AY212">
+        <v>7</v>
+      </c>
+      <c r="AZ212">
+        <v>15</v>
+      </c>
+      <c r="BA212">
+        <v>4</v>
+      </c>
+      <c r="BB212">
+        <v>5</v>
+      </c>
+      <c r="BC212">
+        <v>9</v>
+      </c>
+      <c r="BD212">
+        <v>1.85</v>
+      </c>
+      <c r="BE212">
+        <v>8</v>
+      </c>
+      <c r="BF212">
+        <v>2.28</v>
+      </c>
+      <c r="BG212">
+        <v>1.21</v>
+      </c>
+      <c r="BH212">
+        <v>3.7</v>
+      </c>
+      <c r="BI212">
+        <v>1.4</v>
+      </c>
+      <c r="BJ212">
+        <v>2.6</v>
+      </c>
+      <c r="BK212">
+        <v>1.7</v>
+      </c>
+      <c r="BL212">
+        <v>1.96</v>
+      </c>
+      <c r="BM212">
+        <v>2.16</v>
+      </c>
+      <c r="BN212">
+        <v>1.58</v>
+      </c>
+      <c r="BO212">
+        <v>2.85</v>
+      </c>
+      <c r="BP212">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>6469273</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45361.45833333334</v>
+      </c>
+      <c r="F213">
+        <v>24</v>
+      </c>
+      <c r="G213" t="s">
+        <v>83</v>
+      </c>
+      <c r="H213" t="s">
+        <v>76</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <v>2</v>
+      </c>
+      <c r="N213">
+        <v>2</v>
+      </c>
+      <c r="O213" t="s">
+        <v>88</v>
+      </c>
+      <c r="P213" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q213">
+        <v>2.25</v>
+      </c>
+      <c r="R213">
+        <v>2.3</v>
+      </c>
+      <c r="S213">
+        <v>4.33</v>
+      </c>
+      <c r="T213">
+        <v>1.31</v>
+      </c>
+      <c r="U213">
+        <v>3.2</v>
+      </c>
+      <c r="V213">
+        <v>2.45</v>
+      </c>
+      <c r="W213">
+        <v>1.49</v>
+      </c>
+      <c r="X213">
+        <v>5.45</v>
+      </c>
+      <c r="Y213">
+        <v>1.12</v>
+      </c>
+      <c r="Z213">
+        <v>1.66</v>
+      </c>
+      <c r="AA213">
+        <v>3.9</v>
+      </c>
+      <c r="AB213">
+        <v>4.7</v>
+      </c>
+      <c r="AC213">
+        <v>1.01</v>
+      </c>
+      <c r="AD213">
+        <v>13</v>
+      </c>
+      <c r="AE213">
+        <v>1.2</v>
+      </c>
+      <c r="AF213">
+        <v>4.2</v>
+      </c>
+      <c r="AG213">
+        <v>1.64</v>
+      </c>
+      <c r="AH213">
+        <v>2.11</v>
+      </c>
+      <c r="AI213">
+        <v>1.66</v>
+      </c>
+      <c r="AJ213">
+        <v>2.15</v>
+      </c>
+      <c r="AK213">
+        <v>1.16</v>
+      </c>
+      <c r="AL213">
+        <v>1.2</v>
+      </c>
+      <c r="AM213">
+        <v>2.1</v>
+      </c>
+      <c r="AN213">
+        <v>1.55</v>
+      </c>
+      <c r="AO213">
+        <v>1</v>
+      </c>
+      <c r="AP213">
+        <v>1.42</v>
+      </c>
+      <c r="AQ213">
+        <v>1.17</v>
+      </c>
+      <c r="AR213">
+        <v>1.91</v>
+      </c>
+      <c r="AS213">
+        <v>1.56</v>
+      </c>
+      <c r="AT213">
+        <v>3.47</v>
+      </c>
+      <c r="AU213">
+        <v>5</v>
+      </c>
+      <c r="AV213">
+        <v>7</v>
+      </c>
+      <c r="AW213">
+        <v>5</v>
+      </c>
+      <c r="AX213">
+        <v>2</v>
+      </c>
+      <c r="AY213">
+        <v>10</v>
+      </c>
+      <c r="AZ213">
+        <v>9</v>
+      </c>
+      <c r="BA213">
+        <v>7</v>
+      </c>
+      <c r="BB213">
+        <v>4</v>
+      </c>
+      <c r="BC213">
+        <v>11</v>
+      </c>
+      <c r="BD213">
+        <v>1.45</v>
+      </c>
+      <c r="BE213">
+        <v>9</v>
+      </c>
+      <c r="BF213">
+        <v>3.32</v>
+      </c>
+      <c r="BG213">
+        <v>1.15</v>
+      </c>
+      <c r="BH213">
+        <v>5.1</v>
+      </c>
+      <c r="BI213">
+        <v>1.29</v>
+      </c>
+      <c r="BJ213">
+        <v>3.1</v>
+      </c>
+      <c r="BK213">
+        <v>1.52</v>
+      </c>
+      <c r="BL213">
+        <v>2.28</v>
+      </c>
+      <c r="BM213">
+        <v>1.95</v>
+      </c>
+      <c r="BN213">
+        <v>1.85</v>
+      </c>
+      <c r="BO213">
+        <v>2.4</v>
+      </c>
+      <c r="BP213">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>6469277</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45361.5625</v>
+      </c>
+      <c r="F214">
+        <v>24</v>
+      </c>
+      <c r="G214" t="s">
+        <v>77</v>
+      </c>
+      <c r="H214" t="s">
+        <v>71</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>1</v>
+      </c>
+      <c r="O214" t="s">
+        <v>232</v>
+      </c>
+      <c r="P214" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q214">
+        <v>3.75</v>
+      </c>
+      <c r="R214">
+        <v>2.15</v>
+      </c>
+      <c r="S214">
+        <v>2.6</v>
+      </c>
+      <c r="T214">
+        <v>1.39</v>
+      </c>
+      <c r="U214">
+        <v>2.8</v>
+      </c>
+      <c r="V214">
+        <v>2.75</v>
+      </c>
+      <c r="W214">
+        <v>1.4</v>
+      </c>
+      <c r="X214">
+        <v>6.95</v>
+      </c>
+      <c r="Y214">
+        <v>1.07</v>
+      </c>
+      <c r="Z214">
+        <v>3.54</v>
+      </c>
+      <c r="AA214">
+        <v>3.45</v>
+      </c>
+      <c r="AB214">
+        <v>1.95</v>
+      </c>
+      <c r="AC214">
+        <v>1.01</v>
+      </c>
+      <c r="AD214">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE214">
+        <v>1.28</v>
+      </c>
+      <c r="AF214">
+        <v>3.5</v>
+      </c>
+      <c r="AG214">
+        <v>1.87</v>
+      </c>
+      <c r="AH214">
+        <v>1.83</v>
+      </c>
+      <c r="AI214">
+        <v>1.75</v>
+      </c>
+      <c r="AJ214">
+        <v>2</v>
+      </c>
+      <c r="AK214">
+        <v>1.8</v>
+      </c>
+      <c r="AL214">
+        <v>1.25</v>
+      </c>
+      <c r="AM214">
+        <v>1.28</v>
+      </c>
+      <c r="AN214">
+        <v>1.64</v>
+      </c>
+      <c r="AO214">
+        <v>1.45</v>
+      </c>
+      <c r="AP214">
+        <v>1.75</v>
+      </c>
+      <c r="AQ214">
+        <v>1.33</v>
+      </c>
+      <c r="AR214">
+        <v>1.73</v>
+      </c>
+      <c r="AS214">
+        <v>1.41</v>
+      </c>
+      <c r="AT214">
+        <v>3.14</v>
+      </c>
+      <c r="AU214">
+        <v>5</v>
+      </c>
+      <c r="AV214">
+        <v>5</v>
+      </c>
+      <c r="AW214">
+        <v>1</v>
+      </c>
+      <c r="AX214">
+        <v>4</v>
+      </c>
+      <c r="AY214">
+        <v>6</v>
+      </c>
+      <c r="AZ214">
+        <v>9</v>
+      </c>
+      <c r="BA214">
+        <v>5</v>
+      </c>
+      <c r="BB214">
+        <v>8</v>
+      </c>
+      <c r="BC214">
+        <v>13</v>
+      </c>
+      <c r="BD214">
+        <v>2.39</v>
+      </c>
+      <c r="BE214">
+        <v>8</v>
+      </c>
+      <c r="BF214">
+        <v>1.82</v>
+      </c>
+      <c r="BG214">
+        <v>1.21</v>
+      </c>
+      <c r="BH214">
+        <v>3.7</v>
+      </c>
+      <c r="BI214">
+        <v>1.4</v>
+      </c>
+      <c r="BJ214">
+        <v>2.6</v>
+      </c>
+      <c r="BK214">
+        <v>1.7</v>
+      </c>
+      <c r="BL214">
+        <v>1.96</v>
+      </c>
+      <c r="BM214">
+        <v>2.16</v>
+      </c>
+      <c r="BN214">
+        <v>1.58</v>
+      </c>
+      <c r="BO214">
+        <v>2.85</v>
+      </c>
+      <c r="BP214">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="332">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -715,6 +715,9 @@
     <t>['90+3']</t>
   </si>
   <si>
+    <t>['52', '80']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -1004,6 +1007,9 @@
   </si>
   <si>
     <t>['37']</t>
+  </si>
+  <si>
+    <t>['3', '6']</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP214"/>
+  <dimension ref="A1:BP219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1624,7 +1630,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q2">
         <v>4.33</v>
@@ -1702,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ2">
         <v>1.92</v>
@@ -1911,7 +1917,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2036,7 +2042,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2448,7 +2454,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2526,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ6">
         <v>1.42</v>
@@ -2654,7 +2660,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2860,7 +2866,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q8">
         <v>2.38</v>
@@ -2938,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -3066,7 +3072,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3147,7 +3153,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ9">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3272,7 +3278,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q10">
         <v>3.2</v>
@@ -3350,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ10">
         <v>2</v>
@@ -3559,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3762,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3890,7 +3896,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q13">
         <v>2.53</v>
@@ -3971,7 +3977,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ13">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4096,7 +4102,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4586,7 +4592,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ16">
         <v>1.42</v>
@@ -4714,7 +4720,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q17">
         <v>2.21</v>
@@ -4920,7 +4926,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5332,7 +5338,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q20">
         <v>1.82</v>
@@ -5413,7 +5419,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ20">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR20">
         <v>1.63</v>
@@ -5950,7 +5956,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6028,7 +6034,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ23">
         <v>1.42</v>
@@ -6774,7 +6780,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q27">
         <v>4.2</v>
@@ -6852,10 +6858,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ27">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR27">
         <v>1.8</v>
@@ -7186,7 +7192,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q29">
         <v>2.95</v>
@@ -7264,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7473,7 +7479,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR30">
         <v>1.68</v>
@@ -7598,7 +7604,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q31">
         <v>2.3</v>
@@ -7804,7 +7810,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8010,7 +8016,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q33">
         <v>2.6</v>
@@ -8088,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ33">
         <v>0.5</v>
@@ -8294,10 +8300,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ34">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR34">
         <v>1.88</v>
@@ -8422,7 +8428,7 @@
         <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8628,7 +8634,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8709,7 +8715,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ36">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR36">
         <v>2.26</v>
@@ -10276,7 +10282,7 @@
         <v>88</v>
       </c>
       <c r="P44" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q44">
         <v>2.7</v>
@@ -10560,7 +10566,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ45">
         <v>1.08</v>
@@ -10688,7 +10694,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10769,7 +10775,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR46">
         <v>0.99</v>
@@ -10972,7 +10978,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ47">
         <v>0.5</v>
@@ -11178,7 +11184,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ48">
         <v>1.17</v>
@@ -11306,7 +11312,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11512,7 +11518,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q50">
         <v>2.15</v>
@@ -11718,7 +11724,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11799,7 +11805,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ51">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR51">
         <v>1.43</v>
@@ -12620,7 +12626,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12748,7 +12754,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -13032,7 +13038,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ57">
         <v>1.92</v>
@@ -13447,7 +13453,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ59">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR59">
         <v>1.65</v>
@@ -13572,7 +13578,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13984,7 +13990,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14271,7 +14277,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ63">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR63">
         <v>1.69</v>
@@ -14396,7 +14402,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14474,7 +14480,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ64">
         <v>1.33</v>
@@ -14602,7 +14608,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -15014,7 +15020,7 @@
         <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q67">
         <v>4.75</v>
@@ -15092,7 +15098,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ67">
         <v>1.42</v>
@@ -15220,7 +15226,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15426,7 +15432,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15504,7 +15510,7 @@
         <v>0.25</v>
       </c>
       <c r="AP69">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ69">
         <v>0.83</v>
@@ -15632,7 +15638,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15919,7 +15925,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ71">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR71">
         <v>1.71</v>
@@ -16250,7 +16256,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16456,7 +16462,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q74">
         <v>1.75</v>
@@ -16534,7 +16540,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ74">
         <v>0.92</v>
@@ -16740,10 +16746,10 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ75">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR75">
         <v>1.99</v>
@@ -16868,7 +16874,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16949,7 +16955,7 @@
         <v>1</v>
       </c>
       <c r="AQ76">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR76">
         <v>1.71</v>
@@ -17074,7 +17080,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q77">
         <v>2.04</v>
@@ -17280,7 +17286,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q78">
         <v>3.05</v>
@@ -17564,10 +17570,10 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ79">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR79">
         <v>1.81</v>
@@ -17692,7 +17698,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17898,7 +17904,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -17976,7 +17982,7 @@
         <v>0.4</v>
       </c>
       <c r="AP81">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ81">
         <v>0.83</v>
@@ -18104,7 +18110,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q82">
         <v>3.3</v>
@@ -18310,7 +18316,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18594,7 +18600,7 @@
         <v>2</v>
       </c>
       <c r="AP84">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ84">
         <v>2</v>
@@ -19340,7 +19346,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19624,10 +19630,10 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ89">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR89">
         <v>1.78</v>
@@ -19752,7 +19758,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q90">
         <v>1.73</v>
@@ -19830,10 +19836,10 @@
         <v>0.2</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ90">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR90">
         <v>1.75</v>
@@ -20039,7 +20045,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ91">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR91">
         <v>1.77</v>
@@ -20448,7 +20454,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ93">
         <v>0.92</v>
@@ -20576,7 +20582,7 @@
         <v>88</v>
       </c>
       <c r="P94" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -20988,7 +20994,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21194,7 +21200,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21275,7 +21281,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ97">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR97">
         <v>2.14</v>
@@ -21478,7 +21484,7 @@
         <v>1.8</v>
       </c>
       <c r="AP98">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ98">
         <v>1.92</v>
@@ -21812,7 +21818,7 @@
         <v>105</v>
       </c>
       <c r="P100" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22224,7 +22230,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22302,10 +22308,10 @@
         <v>0</v>
       </c>
       <c r="AP102">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR102">
         <v>1.79</v>
@@ -22717,7 +22723,7 @@
         <v>2</v>
       </c>
       <c r="AQ104">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR104">
         <v>1.39</v>
@@ -22842,7 +22848,7 @@
         <v>88</v>
       </c>
       <c r="P105" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q105">
         <v>3.4</v>
@@ -22923,7 +22929,7 @@
         <v>2</v>
       </c>
       <c r="AQ105">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR105">
         <v>1.49</v>
@@ -23048,7 +23054,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q106">
         <v>1.7</v>
@@ -23126,7 +23132,7 @@
         <v>1.4</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ106">
         <v>1.33</v>
@@ -23254,7 +23260,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23332,10 +23338,10 @@
         <v>0.17</v>
       </c>
       <c r="AP107">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ107">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR107">
         <v>1.68</v>
@@ -23460,7 +23466,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q108">
         <v>3.2</v>
@@ -23666,7 +23672,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23744,7 +23750,7 @@
         <v>0.83</v>
       </c>
       <c r="AP109">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ109">
         <v>0.92</v>
@@ -23872,7 +23878,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -24284,7 +24290,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q112">
         <v>3.3</v>
@@ -24490,7 +24496,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q113">
         <v>2.9</v>
@@ -24568,7 +24574,7 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ113">
         <v>1.42</v>
@@ -24696,7 +24702,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q114">
         <v>1.85</v>
@@ -25186,7 +25192,7 @@
         <v>0.83</v>
       </c>
       <c r="AP116">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ116">
         <v>0.67</v>
@@ -25520,7 +25526,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q118">
         <v>4.33</v>
@@ -25807,7 +25813,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ119">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR119">
         <v>1.52</v>
@@ -26010,7 +26016,7 @@
         <v>0.5</v>
       </c>
       <c r="AP120">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ120">
         <v>0.5</v>
@@ -26219,7 +26225,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ121">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR121">
         <v>1.67</v>
@@ -26550,7 +26556,7 @@
         <v>88</v>
       </c>
       <c r="P123" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26962,7 +26968,7 @@
         <v>88</v>
       </c>
       <c r="P125" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q125">
         <v>2.5</v>
@@ -27040,10 +27046,10 @@
         <v>0.14</v>
       </c>
       <c r="AP125">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ125">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR125">
         <v>1.08</v>
@@ -27168,7 +27174,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27374,7 +27380,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27580,7 +27586,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27658,7 +27664,7 @@
         <v>0.43</v>
       </c>
       <c r="AP128">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ128">
         <v>0.83</v>
@@ -27786,7 +27792,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q129">
         <v>3.3</v>
@@ -27864,7 +27870,7 @@
         <v>1.14</v>
       </c>
       <c r="AP129">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ129">
         <v>1.33</v>
@@ -27992,7 +27998,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q130">
         <v>3.5</v>
@@ -28279,7 +28285,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ131">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR131">
         <v>1.81</v>
@@ -28816,7 +28822,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q134">
         <v>2.63</v>
@@ -29022,7 +29028,7 @@
         <v>88</v>
       </c>
       <c r="P135" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29434,7 +29440,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q137">
         <v>2.1</v>
@@ -29640,7 +29646,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29846,7 +29852,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q139">
         <v>2.1</v>
@@ -29927,7 +29933,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ139">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR139">
         <v>2.03</v>
@@ -30464,7 +30470,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q142">
         <v>2.05</v>
@@ -30542,7 +30548,7 @@
         <v>0.5</v>
       </c>
       <c r="AP142">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ142">
         <v>0.83</v>
@@ -30670,7 +30676,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30876,7 +30882,7 @@
         <v>158</v>
       </c>
       <c r="P144" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q144">
         <v>3.57</v>
@@ -30954,7 +30960,7 @@
         <v>1.13</v>
       </c>
       <c r="AP144">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ144">
         <v>1.33</v>
@@ -31288,7 +31294,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31572,7 +31578,7 @@
         <v>1.29</v>
       </c>
       <c r="AP147">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ147">
         <v>1.42</v>
@@ -31700,7 +31706,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q148">
         <v>2.3</v>
@@ -31906,7 +31912,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -31984,7 +31990,7 @@
         <v>1.33</v>
       </c>
       <c r="AP149">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ149">
         <v>1.33</v>
@@ -32193,7 +32199,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ150">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR150">
         <v>1.67</v>
@@ -32318,7 +32324,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q151">
         <v>3.3</v>
@@ -32524,7 +32530,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q152">
         <v>2.05</v>
@@ -32605,7 +32611,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ152">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR152">
         <v>1.96</v>
@@ -32730,7 +32736,7 @@
         <v>119</v>
       </c>
       <c r="P153" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q153">
         <v>2.65</v>
@@ -32936,7 +32942,7 @@
         <v>195</v>
       </c>
       <c r="P154" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q154">
         <v>2.35</v>
@@ -33426,7 +33432,7 @@
         <v>0.89</v>
       </c>
       <c r="AP156">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ156">
         <v>0.92</v>
@@ -33760,7 +33766,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -33841,7 +33847,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ158">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR158">
         <v>1.64</v>
@@ -34253,7 +34259,7 @@
         <v>2</v>
       </c>
       <c r="AQ160">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR160">
         <v>1.42</v>
@@ -34378,7 +34384,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q161">
         <v>2.91</v>
@@ -34456,7 +34462,7 @@
         <v>2.22</v>
       </c>
       <c r="AP161">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ161">
         <v>2</v>
@@ -34584,7 +34590,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q162">
         <v>4.28</v>
@@ -34790,7 +34796,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q163">
         <v>3.75</v>
@@ -34996,7 +35002,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q164">
         <v>3.97</v>
@@ -35898,7 +35904,7 @@
         <v>0.89</v>
       </c>
       <c r="AP168">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ168">
         <v>0.92</v>
@@ -36232,7 +36238,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36313,7 +36319,7 @@
         <v>2</v>
       </c>
       <c r="AQ170">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR170">
         <v>1.43</v>
@@ -36850,7 +36856,7 @@
         <v>95</v>
       </c>
       <c r="P173" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q173">
         <v>2.5</v>
@@ -36928,7 +36934,7 @@
         <v>0.9</v>
       </c>
       <c r="AP173">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ173">
         <v>1</v>
@@ -37134,7 +37140,7 @@
         <v>1.11</v>
       </c>
       <c r="AP174">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ174">
         <v>1.17</v>
@@ -37340,10 +37346,10 @@
         <v>1</v>
       </c>
       <c r="AP175">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ175">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR175">
         <v>1.14</v>
@@ -37468,7 +37474,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37674,7 +37680,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -37880,7 +37886,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q178">
         <v>2.4</v>
@@ -37958,10 +37964,10 @@
         <v>0</v>
       </c>
       <c r="AP178">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ178">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR178">
         <v>1.61</v>
@@ -38086,7 +38092,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q179">
         <v>3.98</v>
@@ -38579,7 +38585,7 @@
         <v>1</v>
       </c>
       <c r="AQ181">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR181">
         <v>1.45</v>
@@ -38704,7 +38710,7 @@
         <v>179</v>
       </c>
       <c r="P182" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -39194,7 +39200,7 @@
         <v>1.11</v>
       </c>
       <c r="AP184">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ184">
         <v>1.08</v>
@@ -39322,7 +39328,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q185">
         <v>1.8</v>
@@ -39403,7 +39409,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ185">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR185">
         <v>1.96</v>
@@ -39528,7 +39534,7 @@
         <v>88</v>
       </c>
       <c r="P186" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q186">
         <v>3.7</v>
@@ -39734,7 +39740,7 @@
         <v>214</v>
       </c>
       <c r="P187" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q187">
         <v>2.65</v>
@@ -40018,7 +40024,7 @@
         <v>1.1</v>
       </c>
       <c r="AP188">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ188">
         <v>1.08</v>
@@ -40146,7 +40152,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q189">
         <v>1.78</v>
@@ -40227,7 +40233,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ189">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR189">
         <v>1.94</v>
@@ -40636,7 +40642,7 @@
         <v>2.3</v>
       </c>
       <c r="AP191">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ191">
         <v>2</v>
@@ -40845,7 +40851,7 @@
         <v>2</v>
       </c>
       <c r="AQ192">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR192">
         <v>1.54</v>
@@ -40970,7 +40976,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41382,7 +41388,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -41460,7 +41466,7 @@
         <v>1.5</v>
       </c>
       <c r="AP195">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ195">
         <v>1.33</v>
@@ -41666,7 +41672,7 @@
         <v>1.3</v>
       </c>
       <c r="AP196">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ196">
         <v>1.42</v>
@@ -41875,7 +41881,7 @@
         <v>2</v>
       </c>
       <c r="AQ197">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR197">
         <v>1.5</v>
@@ -42000,7 +42006,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42081,7 +42087,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ198">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR198">
         <v>1.82</v>
@@ -43030,7 +43036,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q203">
         <v>3.2</v>
@@ -43111,7 +43117,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ203">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR203">
         <v>1.18</v>
@@ -43314,7 +43320,7 @@
         <v>0.73</v>
       </c>
       <c r="AP204">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ204">
         <v>0.67</v>
@@ -43854,7 +43860,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -43932,7 +43938,7 @@
         <v>1.27</v>
       </c>
       <c r="AP207">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ207">
         <v>1.42</v>
@@ -44060,7 +44066,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q208">
         <v>2.55</v>
@@ -44266,7 +44272,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44344,7 +44350,7 @@
         <v>1.09</v>
       </c>
       <c r="AP209">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ209">
         <v>1.08</v>
@@ -44553,7 +44559,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ210">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR210">
         <v>1.3</v>
@@ -44884,7 +44890,7 @@
         <v>231</v>
       </c>
       <c r="P212" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q212">
         <v>2.7</v>
@@ -45090,7 +45096,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -45453,6 +45459,1036 @@
       </c>
       <c r="BP214">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>6469276</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45362.625</v>
+      </c>
+      <c r="F215">
+        <v>24</v>
+      </c>
+      <c r="G215" t="s">
+        <v>70</v>
+      </c>
+      <c r="H215" t="s">
+        <v>84</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>1</v>
+      </c>
+      <c r="N215">
+        <v>1</v>
+      </c>
+      <c r="O215" t="s">
+        <v>88</v>
+      </c>
+      <c r="P215" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q215">
+        <v>2.6</v>
+      </c>
+      <c r="R215">
+        <v>2</v>
+      </c>
+      <c r="S215">
+        <v>4.4</v>
+      </c>
+      <c r="T215">
+        <v>1.48</v>
+      </c>
+      <c r="U215">
+        <v>2.45</v>
+      </c>
+      <c r="V215">
+        <v>3.1</v>
+      </c>
+      <c r="W215">
+        <v>1.32</v>
+      </c>
+      <c r="X215">
+        <v>7.25</v>
+      </c>
+      <c r="Y215">
+        <v>1.06</v>
+      </c>
+      <c r="Z215">
+        <v>2.01</v>
+      </c>
+      <c r="AA215">
+        <v>3.26</v>
+      </c>
+      <c r="AB215">
+        <v>3.88</v>
+      </c>
+      <c r="AC215">
+        <v>1.08</v>
+      </c>
+      <c r="AD215">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE215">
+        <v>1.41</v>
+      </c>
+      <c r="AF215">
+        <v>2.92</v>
+      </c>
+      <c r="AG215">
+        <v>2.3</v>
+      </c>
+      <c r="AH215">
+        <v>1.57</v>
+      </c>
+      <c r="AI215">
+        <v>1.95</v>
+      </c>
+      <c r="AJ215">
+        <v>1.75</v>
+      </c>
+      <c r="AK215">
+        <v>1.27</v>
+      </c>
+      <c r="AL215">
+        <v>1.32</v>
+      </c>
+      <c r="AM215">
+        <v>1.8</v>
+      </c>
+      <c r="AN215">
+        <v>0.91</v>
+      </c>
+      <c r="AO215">
+        <v>0</v>
+      </c>
+      <c r="AP215">
+        <v>0.83</v>
+      </c>
+      <c r="AQ215">
+        <v>0.25</v>
+      </c>
+      <c r="AR215">
+        <v>1.08</v>
+      </c>
+      <c r="AS215">
+        <v>1.21</v>
+      </c>
+      <c r="AT215">
+        <v>2.29</v>
+      </c>
+      <c r="AU215">
+        <v>8</v>
+      </c>
+      <c r="AV215">
+        <v>3</v>
+      </c>
+      <c r="AW215">
+        <v>7</v>
+      </c>
+      <c r="AX215">
+        <v>3</v>
+      </c>
+      <c r="AY215">
+        <v>15</v>
+      </c>
+      <c r="AZ215">
+        <v>6</v>
+      </c>
+      <c r="BA215">
+        <v>9</v>
+      </c>
+      <c r="BB215">
+        <v>5</v>
+      </c>
+      <c r="BC215">
+        <v>14</v>
+      </c>
+      <c r="BD215">
+        <v>1.75</v>
+      </c>
+      <c r="BE215">
+        <v>8</v>
+      </c>
+      <c r="BF215">
+        <v>2.44</v>
+      </c>
+      <c r="BG215">
+        <v>1.24</v>
+      </c>
+      <c r="BH215">
+        <v>3.45</v>
+      </c>
+      <c r="BI215">
+        <v>1.45</v>
+      </c>
+      <c r="BJ215">
+        <v>2.45</v>
+      </c>
+      <c r="BK215">
+        <v>1.78</v>
+      </c>
+      <c r="BL215">
+        <v>1.87</v>
+      </c>
+      <c r="BM215">
+        <v>2.28</v>
+      </c>
+      <c r="BN215">
+        <v>1.52</v>
+      </c>
+      <c r="BO215">
+        <v>3.05</v>
+      </c>
+      <c r="BP215">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>6469210</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45363.60416666666</v>
+      </c>
+      <c r="F216">
+        <v>17</v>
+      </c>
+      <c r="G216" t="s">
+        <v>74</v>
+      </c>
+      <c r="H216" t="s">
+        <v>86</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <v>1</v>
+      </c>
+      <c r="O216" t="s">
+        <v>92</v>
+      </c>
+      <c r="P216" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q216">
+        <v>2.02</v>
+      </c>
+      <c r="R216">
+        <v>2.18</v>
+      </c>
+      <c r="S216">
+        <v>7.2</v>
+      </c>
+      <c r="T216">
+        <v>1.44</v>
+      </c>
+      <c r="U216">
+        <v>2.68</v>
+      </c>
+      <c r="V216">
+        <v>3.1</v>
+      </c>
+      <c r="W216">
+        <v>1.34</v>
+      </c>
+      <c r="X216">
+        <v>8.1</v>
+      </c>
+      <c r="Y216">
+        <v>1.06</v>
+      </c>
+      <c r="Z216">
+        <v>1.37</v>
+      </c>
+      <c r="AA216">
+        <v>4.4</v>
+      </c>
+      <c r="AB216">
+        <v>8.1</v>
+      </c>
+      <c r="AC216">
+        <v>1.03</v>
+      </c>
+      <c r="AD216">
+        <v>8</v>
+      </c>
+      <c r="AE216">
+        <v>1.34</v>
+      </c>
+      <c r="AF216">
+        <v>2.88</v>
+      </c>
+      <c r="AG216">
+        <v>1.92</v>
+      </c>
+      <c r="AH216">
+        <v>1.78</v>
+      </c>
+      <c r="AI216">
+        <v>2.31</v>
+      </c>
+      <c r="AJ216">
+        <v>1.57</v>
+      </c>
+      <c r="AK216">
+        <v>1.08</v>
+      </c>
+      <c r="AL216">
+        <v>1.22</v>
+      </c>
+      <c r="AM216">
+        <v>2.69</v>
+      </c>
+      <c r="AN216">
+        <v>1.27</v>
+      </c>
+      <c r="AO216">
+        <v>0.45</v>
+      </c>
+      <c r="AP216">
+        <v>1.42</v>
+      </c>
+      <c r="AQ216">
+        <v>0.42</v>
+      </c>
+      <c r="AR216">
+        <v>1.56</v>
+      </c>
+      <c r="AS216">
+        <v>1.31</v>
+      </c>
+      <c r="AT216">
+        <v>2.87</v>
+      </c>
+      <c r="AU216">
+        <v>2</v>
+      </c>
+      <c r="AV216">
+        <v>0</v>
+      </c>
+      <c r="AW216">
+        <v>0</v>
+      </c>
+      <c r="AX216">
+        <v>4</v>
+      </c>
+      <c r="AY216">
+        <v>2</v>
+      </c>
+      <c r="AZ216">
+        <v>4</v>
+      </c>
+      <c r="BA216">
+        <v>2</v>
+      </c>
+      <c r="BB216">
+        <v>5</v>
+      </c>
+      <c r="BC216">
+        <v>7</v>
+      </c>
+      <c r="BD216">
+        <v>1.23</v>
+      </c>
+      <c r="BE216">
+        <v>10</v>
+      </c>
+      <c r="BF216">
+        <v>5.15</v>
+      </c>
+      <c r="BG216">
+        <v>1.28</v>
+      </c>
+      <c r="BH216">
+        <v>3.2</v>
+      </c>
+      <c r="BI216">
+        <v>1.57</v>
+      </c>
+      <c r="BJ216">
+        <v>2.39</v>
+      </c>
+      <c r="BK216">
+        <v>1.93</v>
+      </c>
+      <c r="BL216">
+        <v>1.88</v>
+      </c>
+      <c r="BM216">
+        <v>2.46</v>
+      </c>
+      <c r="BN216">
+        <v>1.54</v>
+      </c>
+      <c r="BO216">
+        <v>3.42</v>
+      </c>
+      <c r="BP216">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>6469065</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45364.60416666666</v>
+      </c>
+      <c r="F217">
+        <v>2</v>
+      </c>
+      <c r="G217" t="s">
+        <v>78</v>
+      </c>
+      <c r="H217" t="s">
+        <v>73</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>2</v>
+      </c>
+      <c r="K217">
+        <v>2</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <v>2</v>
+      </c>
+      <c r="N217">
+        <v>2</v>
+      </c>
+      <c r="O217" t="s">
+        <v>88</v>
+      </c>
+      <c r="P217" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q217">
+        <v>4.2</v>
+      </c>
+      <c r="R217">
+        <v>2.1</v>
+      </c>
+      <c r="S217">
+        <v>2.5</v>
+      </c>
+      <c r="T217">
+        <v>1.41</v>
+      </c>
+      <c r="U217">
+        <v>2.7</v>
+      </c>
+      <c r="V217">
+        <v>2.85</v>
+      </c>
+      <c r="W217">
+        <v>1.37</v>
+      </c>
+      <c r="X217">
+        <v>6.95</v>
+      </c>
+      <c r="Y217">
+        <v>1.07</v>
+      </c>
+      <c r="Z217">
+        <v>4</v>
+      </c>
+      <c r="AA217">
+        <v>3.4</v>
+      </c>
+      <c r="AB217">
+        <v>1.91</v>
+      </c>
+      <c r="AC217">
+        <v>1.06</v>
+      </c>
+      <c r="AD217">
+        <v>8</v>
+      </c>
+      <c r="AE217">
+        <v>1.3</v>
+      </c>
+      <c r="AF217">
+        <v>3.3</v>
+      </c>
+      <c r="AG217">
+        <v>1.98</v>
+      </c>
+      <c r="AH217">
+        <v>1.81</v>
+      </c>
+      <c r="AI217">
+        <v>1.78</v>
+      </c>
+      <c r="AJ217">
+        <v>1.95</v>
+      </c>
+      <c r="AK217">
+        <v>1.95</v>
+      </c>
+      <c r="AL217">
+        <v>1.3</v>
+      </c>
+      <c r="AM217">
+        <v>1.22</v>
+      </c>
+      <c r="AN217">
+        <v>1.36</v>
+      </c>
+      <c r="AO217">
+        <v>0.91</v>
+      </c>
+      <c r="AP217">
+        <v>1.25</v>
+      </c>
+      <c r="AQ217">
+        <v>1.08</v>
+      </c>
+      <c r="AR217">
+        <v>1.59</v>
+      </c>
+      <c r="AS217">
+        <v>1.59</v>
+      </c>
+      <c r="AT217">
+        <v>3.18</v>
+      </c>
+      <c r="AU217">
+        <v>4</v>
+      </c>
+      <c r="AV217">
+        <v>5</v>
+      </c>
+      <c r="AW217">
+        <v>10</v>
+      </c>
+      <c r="AX217">
+        <v>6</v>
+      </c>
+      <c r="AY217">
+        <v>14</v>
+      </c>
+      <c r="AZ217">
+        <v>11</v>
+      </c>
+      <c r="BA217">
+        <v>6</v>
+      </c>
+      <c r="BB217">
+        <v>1</v>
+      </c>
+      <c r="BC217">
+        <v>7</v>
+      </c>
+      <c r="BD217">
+        <v>2.49</v>
+      </c>
+      <c r="BE217">
+        <v>8.9</v>
+      </c>
+      <c r="BF217">
+        <v>1.69</v>
+      </c>
+      <c r="BG217">
+        <v>1.22</v>
+      </c>
+      <c r="BH217">
+        <v>3.64</v>
+      </c>
+      <c r="BI217">
+        <v>1.49</v>
+      </c>
+      <c r="BJ217">
+        <v>2.56</v>
+      </c>
+      <c r="BK217">
+        <v>1.81</v>
+      </c>
+      <c r="BL217">
+        <v>1.99</v>
+      </c>
+      <c r="BM217">
+        <v>2.26</v>
+      </c>
+      <c r="BN217">
+        <v>1.62</v>
+      </c>
+      <c r="BO217">
+        <v>2.98</v>
+      </c>
+      <c r="BP217">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>6469279</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45366.58333333334</v>
+      </c>
+      <c r="F218">
+        <v>25</v>
+      </c>
+      <c r="G218" t="s">
+        <v>76</v>
+      </c>
+      <c r="H218" t="s">
+        <v>72</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>0</v>
+      </c>
+      <c r="O218" t="s">
+        <v>88</v>
+      </c>
+      <c r="P218" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q218">
+        <v>2.28</v>
+      </c>
+      <c r="R218">
+        <v>2.15</v>
+      </c>
+      <c r="S218">
+        <v>5</v>
+      </c>
+      <c r="T218">
+        <v>1.4</v>
+      </c>
+      <c r="U218">
+        <v>2.82</v>
+      </c>
+      <c r="V218">
+        <v>2.86</v>
+      </c>
+      <c r="W218">
+        <v>1.39</v>
+      </c>
+      <c r="X218">
+        <v>7.3</v>
+      </c>
+      <c r="Y218">
+        <v>1.07</v>
+      </c>
+      <c r="Z218">
+        <v>1.86</v>
+      </c>
+      <c r="AA218">
+        <v>3.08</v>
+      </c>
+      <c r="AB218">
+        <v>4.03</v>
+      </c>
+      <c r="AC218">
+        <v>1.02</v>
+      </c>
+      <c r="AD218">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE218">
+        <v>1.28</v>
+      </c>
+      <c r="AF218">
+        <v>3.2</v>
+      </c>
+      <c r="AG218">
+        <v>1.9</v>
+      </c>
+      <c r="AH218">
+        <v>1.8</v>
+      </c>
+      <c r="AI218">
+        <v>1.85</v>
+      </c>
+      <c r="AJ218">
+        <v>1.85</v>
+      </c>
+      <c r="AK218">
+        <v>1.18</v>
+      </c>
+      <c r="AL218">
+        <v>1.26</v>
+      </c>
+      <c r="AM218">
+        <v>2.04</v>
+      </c>
+      <c r="AN218">
+        <v>1.58</v>
+      </c>
+      <c r="AO218">
+        <v>0.92</v>
+      </c>
+      <c r="AP218">
+        <v>1.54</v>
+      </c>
+      <c r="AQ218">
+        <v>0.92</v>
+      </c>
+      <c r="AR218">
+        <v>1.72</v>
+      </c>
+      <c r="AS218">
+        <v>1.06</v>
+      </c>
+      <c r="AT218">
+        <v>2.78</v>
+      </c>
+      <c r="AU218">
+        <v>8</v>
+      </c>
+      <c r="AV218">
+        <v>4</v>
+      </c>
+      <c r="AW218">
+        <v>7</v>
+      </c>
+      <c r="AX218">
+        <v>4</v>
+      </c>
+      <c r="AY218">
+        <v>15</v>
+      </c>
+      <c r="AZ218">
+        <v>8</v>
+      </c>
+      <c r="BA218">
+        <v>6</v>
+      </c>
+      <c r="BB218">
+        <v>3</v>
+      </c>
+      <c r="BC218">
+        <v>9</v>
+      </c>
+      <c r="BD218">
+        <v>1.36</v>
+      </c>
+      <c r="BE218">
+        <v>10.25</v>
+      </c>
+      <c r="BF218">
+        <v>3.68</v>
+      </c>
+      <c r="BG218">
+        <v>1.25</v>
+      </c>
+      <c r="BH218">
+        <v>3.6</v>
+      </c>
+      <c r="BI218">
+        <v>1.36</v>
+      </c>
+      <c r="BJ218">
+        <v>2.79</v>
+      </c>
+      <c r="BK218">
+        <v>1.63</v>
+      </c>
+      <c r="BL218">
+        <v>2.09</v>
+      </c>
+      <c r="BM218">
+        <v>2.06</v>
+      </c>
+      <c r="BN218">
+        <v>1.68</v>
+      </c>
+      <c r="BO218">
+        <v>2.67</v>
+      </c>
+      <c r="BP218">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>6469281</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45366.6875</v>
+      </c>
+      <c r="F219">
+        <v>25</v>
+      </c>
+      <c r="G219" t="s">
+        <v>82</v>
+      </c>
+      <c r="H219" t="s">
+        <v>70</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>2</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <v>2</v>
+      </c>
+      <c r="O219" t="s">
+        <v>233</v>
+      </c>
+      <c r="P219" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q219">
+        <v>2.1</v>
+      </c>
+      <c r="R219">
+        <v>2.2</v>
+      </c>
+      <c r="S219">
+        <v>6</v>
+      </c>
+      <c r="T219">
+        <v>1.4</v>
+      </c>
+      <c r="U219">
+        <v>2.75</v>
+      </c>
+      <c r="V219">
+        <v>3</v>
+      </c>
+      <c r="W219">
+        <v>1.36</v>
+      </c>
+      <c r="X219">
+        <v>9</v>
+      </c>
+      <c r="Y219">
+        <v>1.07</v>
+      </c>
+      <c r="Z219">
+        <v>1.3</v>
+      </c>
+      <c r="AA219">
+        <v>4.27</v>
+      </c>
+      <c r="AB219">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="AC219">
+        <v>1.03</v>
+      </c>
+      <c r="AD219">
+        <v>8</v>
+      </c>
+      <c r="AE219">
+        <v>1.47</v>
+      </c>
+      <c r="AF219">
+        <v>2.55</v>
+      </c>
+      <c r="AG219">
+        <v>2.1</v>
+      </c>
+      <c r="AH219">
+        <v>1.65</v>
+      </c>
+      <c r="AI219">
+        <v>2.1</v>
+      </c>
+      <c r="AJ219">
+        <v>1.67</v>
+      </c>
+      <c r="AK219">
+        <v>1.11</v>
+      </c>
+      <c r="AL219">
+        <v>1.24</v>
+      </c>
+      <c r="AM219">
+        <v>2.38</v>
+      </c>
+      <c r="AN219">
+        <v>2</v>
+      </c>
+      <c r="AO219">
+        <v>1.42</v>
+      </c>
+      <c r="AP219">
+        <v>2.08</v>
+      </c>
+      <c r="AQ219">
+        <v>1.31</v>
+      </c>
+      <c r="AR219">
+        <v>1.66</v>
+      </c>
+      <c r="AS219">
+        <v>1.11</v>
+      </c>
+      <c r="AT219">
+        <v>2.77</v>
+      </c>
+      <c r="AU219">
+        <v>6</v>
+      </c>
+      <c r="AV219">
+        <v>10</v>
+      </c>
+      <c r="AW219">
+        <v>5</v>
+      </c>
+      <c r="AX219">
+        <v>8</v>
+      </c>
+      <c r="AY219">
+        <v>11</v>
+      </c>
+      <c r="AZ219">
+        <v>18</v>
+      </c>
+      <c r="BA219">
+        <v>5</v>
+      </c>
+      <c r="BB219">
+        <v>4</v>
+      </c>
+      <c r="BC219">
+        <v>9</v>
+      </c>
+      <c r="BD219">
+        <v>1.26</v>
+      </c>
+      <c r="BE219">
+        <v>10</v>
+      </c>
+      <c r="BF219">
+        <v>4.86</v>
+      </c>
+      <c r="BG219">
+        <v>1.3</v>
+      </c>
+      <c r="BH219">
+        <v>3.2</v>
+      </c>
+      <c r="BI219">
+        <v>1.53</v>
+      </c>
+      <c r="BJ219">
+        <v>2.38</v>
+      </c>
+      <c r="BK219">
+        <v>2</v>
+      </c>
+      <c r="BL219">
+        <v>1.8</v>
+      </c>
+      <c r="BM219">
+        <v>2.3</v>
+      </c>
+      <c r="BN219">
+        <v>1.55</v>
+      </c>
+      <c r="BO219">
+        <v>3</v>
+      </c>
+      <c r="BP219">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="337">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -718,6 +718,15 @@
     <t>['52', '80']</t>
   </si>
   <si>
+    <t>['10', '89']</t>
+  </si>
+  <si>
+    <t>['22', '42']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -791,9 +800,6 @@
   </si>
   <si>
     <t>['82', '89', '90+5']</t>
-  </si>
-  <si>
-    <t>['69']</t>
   </si>
   <si>
     <t>['3', '12']</t>
@@ -1010,6 +1016,15 @@
   </si>
   <si>
     <t>['3', '6']</t>
+  </si>
+  <si>
+    <t>['15', '73']</t>
+  </si>
+  <si>
+    <t>['45+4', '81']</t>
+  </si>
+  <si>
+    <t>['54', '67']</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP219"/>
+  <dimension ref="A1:BP225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1630,7 +1645,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q2">
         <v>4.33</v>
@@ -1711,7 +1726,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ2">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2042,7 +2057,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2329,7 +2344,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2454,7 +2469,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2660,7 +2675,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2866,7 +2881,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q8">
         <v>2.38</v>
@@ -3072,7 +3087,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3153,7 +3168,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ9">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3278,7 +3293,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q10">
         <v>3.2</v>
@@ -3356,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ10">
         <v>2</v>
@@ -3562,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ11">
         <v>0.25</v>
@@ -3771,7 +3786,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR12">
         <v>0.95</v>
@@ -3896,7 +3911,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q13">
         <v>2.53</v>
@@ -3977,7 +3992,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ13">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4102,7 +4117,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4180,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ14">
         <v>1.17</v>
@@ -4720,7 +4735,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q17">
         <v>2.21</v>
@@ -4801,7 +4816,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ17">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4926,7 +4941,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5007,7 +5022,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ18">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR18">
         <v>1.62</v>
@@ -5338,7 +5353,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q20">
         <v>1.82</v>
@@ -5828,7 +5843,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ22">
         <v>1.08</v>
@@ -5956,7 +5971,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6652,7 +6667,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ26">
         <v>1.17</v>
@@ -6780,7 +6795,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q27">
         <v>4.2</v>
@@ -7192,7 +7207,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q29">
         <v>2.95</v>
@@ -7270,10 +7285,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR29">
         <v>1.57</v>
@@ -7604,7 +7619,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q31">
         <v>2.3</v>
@@ -7810,7 +7825,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8016,7 +8031,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q33">
         <v>2.6</v>
@@ -8303,7 +8318,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ34">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR34">
         <v>1.88</v>
@@ -8428,7 +8443,7 @@
         <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8509,7 +8524,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR35">
         <v>0.88</v>
@@ -8634,7 +8649,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8712,7 +8727,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ36">
         <v>1.31</v>
@@ -9124,10 +9139,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR38">
         <v>1.69</v>
@@ -9333,7 +9348,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ39">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR39">
         <v>1.16</v>
@@ -9536,7 +9551,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ40">
         <v>1.42</v>
@@ -9948,7 +9963,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ42">
         <v>0.92</v>
@@ -10282,7 +10297,7 @@
         <v>88</v>
       </c>
       <c r="P44" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q44">
         <v>2.7</v>
@@ -10694,7 +10709,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -11184,7 +11199,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ48">
         <v>1.17</v>
@@ -11312,7 +11327,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11393,7 +11408,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR49">
         <v>1.4</v>
@@ -11518,7 +11533,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q50">
         <v>2.15</v>
@@ -11724,7 +11739,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -12008,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ52">
         <v>0.92</v>
@@ -12214,7 +12229,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ53">
         <v>0.92</v>
@@ -12420,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ54">
         <v>0.67</v>
@@ -12629,7 +12644,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR55">
         <v>1.77</v>
@@ -12754,7 +12769,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -12832,10 +12847,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ56">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -13041,7 +13056,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ57">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR57">
         <v>1.95</v>
@@ -13247,7 +13262,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ58">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR58">
         <v>2.07</v>
@@ -13453,7 +13468,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ59">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR59">
         <v>1.65</v>
@@ -13578,7 +13593,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13990,7 +14005,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14402,7 +14417,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14608,7 +14623,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -15020,7 +15035,7 @@
         <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q67">
         <v>4.75</v>
@@ -15226,7 +15241,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15432,7 +15447,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15510,10 +15525,10 @@
         <v>0.25</v>
       </c>
       <c r="AP69">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ69">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR69">
         <v>1.83</v>
@@ -15638,7 +15653,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15719,7 +15734,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ70">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR70">
         <v>1.44</v>
@@ -15922,10 +15937,10 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ71">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR71">
         <v>1.71</v>
@@ -16128,7 +16143,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ72">
         <v>0.92</v>
@@ -16256,7 +16271,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16334,10 +16349,10 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ73">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR73">
         <v>1.68</v>
@@ -16462,7 +16477,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q74">
         <v>1.75</v>
@@ -16874,7 +16889,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16952,7 +16967,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ76">
         <v>1.08</v>
@@ -17080,7 +17095,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q77">
         <v>2.04</v>
@@ -17161,7 +17176,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR77">
         <v>2.14</v>
@@ -17286,7 +17301,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q78">
         <v>3.05</v>
@@ -17698,7 +17713,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17904,7 +17919,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -17985,7 +18000,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ81">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR81">
         <v>1.77</v>
@@ -18110,7 +18125,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q82">
         <v>3.3</v>
@@ -18316,7 +18331,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -19346,7 +19361,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19630,7 +19645,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ89">
         <v>1.31</v>
@@ -19758,7 +19773,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q90">
         <v>1.73</v>
@@ -19839,7 +19854,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ90">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR90">
         <v>1.75</v>
@@ -20042,7 +20057,7 @@
         <v>0</v>
       </c>
       <c r="AP91">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ91">
         <v>0.25</v>
@@ -20582,7 +20597,7 @@
         <v>88</v>
       </c>
       <c r="P94" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -20660,10 +20675,10 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ94">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR94">
         <v>1.63</v>
@@ -20866,10 +20881,10 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ95">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR95">
         <v>1.63</v>
@@ -20994,7 +21009,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21072,10 +21087,10 @@
         <v>1</v>
       </c>
       <c r="AP96">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ96">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR96">
         <v>1.62</v>
@@ -21200,7 +21215,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21487,7 +21502,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ98">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR98">
         <v>1.69</v>
@@ -21818,7 +21833,7 @@
         <v>105</v>
       </c>
       <c r="P100" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22102,7 +22117,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ101">
         <v>1.33</v>
@@ -22230,7 +22245,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22514,7 +22529,7 @@
         <v>0.8</v>
       </c>
       <c r="AP103">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ103">
         <v>0.67</v>
@@ -22848,7 +22863,7 @@
         <v>88</v>
       </c>
       <c r="P105" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q105">
         <v>3.4</v>
@@ -23054,7 +23069,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q106">
         <v>1.7</v>
@@ -23135,7 +23150,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ106">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR106">
         <v>1.75</v>
@@ -23260,7 +23275,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23338,10 +23353,10 @@
         <v>0.17</v>
       </c>
       <c r="AP107">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ107">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR107">
         <v>1.68</v>
@@ -23466,7 +23481,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q108">
         <v>3.2</v>
@@ -23547,7 +23562,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ108">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR108">
         <v>1.25</v>
@@ -23672,7 +23687,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23878,7 +23893,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -23959,7 +23974,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ110">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR110">
         <v>1.82</v>
@@ -24162,7 +24177,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ111">
         <v>1.42</v>
@@ -24290,7 +24305,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q112">
         <v>3.3</v>
@@ -24368,7 +24383,7 @@
         <v>2.17</v>
       </c>
       <c r="AP112">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ112">
         <v>2</v>
@@ -24496,7 +24511,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q113">
         <v>2.9</v>
@@ -24702,7 +24717,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q114">
         <v>1.85</v>
@@ -24989,7 +25004,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ115">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR115">
         <v>1.65</v>
@@ -25526,7 +25541,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q118">
         <v>4.33</v>
@@ -25607,7 +25622,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ118">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR118">
         <v>1.32</v>
@@ -26222,7 +26237,7 @@
         <v>0</v>
       </c>
       <c r="AP121">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ121">
         <v>0.25</v>
@@ -26556,7 +26571,7 @@
         <v>88</v>
       </c>
       <c r="P123" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26634,7 +26649,7 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ123">
         <v>1.33</v>
@@ -26968,7 +26983,7 @@
         <v>88</v>
       </c>
       <c r="P125" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q125">
         <v>2.5</v>
@@ -27049,7 +27064,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ125">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR125">
         <v>1.08</v>
@@ -27174,7 +27189,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27252,7 +27267,7 @@
         <v>2</v>
       </c>
       <c r="AP126">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ126">
         <v>2</v>
@@ -27380,7 +27395,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27586,7 +27601,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27667,7 +27682,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ128">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR128">
         <v>1.89</v>
@@ -27792,7 +27807,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q129">
         <v>3.3</v>
@@ -27870,10 +27885,10 @@
         <v>1.14</v>
       </c>
       <c r="AP129">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ129">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR129">
         <v>1.76</v>
@@ -27998,7 +28013,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q130">
         <v>3.5</v>
@@ -28079,7 +28094,7 @@
         <v>2</v>
       </c>
       <c r="AQ130">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR130">
         <v>1.44</v>
@@ -28694,7 +28709,7 @@
         <v>1.29</v>
       </c>
       <c r="AP133">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ133">
         <v>1.42</v>
@@ -28822,7 +28837,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q134">
         <v>2.63</v>
@@ -29028,7 +29043,7 @@
         <v>88</v>
       </c>
       <c r="P135" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29440,7 +29455,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q137">
         <v>2.1</v>
@@ -29646,7 +29661,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29852,7 +29867,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q139">
         <v>2.1</v>
@@ -30139,7 +30154,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR140">
         <v>1.32</v>
@@ -30342,7 +30357,7 @@
         <v>0.86</v>
       </c>
       <c r="AP141">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ141">
         <v>0.67</v>
@@ -30470,7 +30485,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q142">
         <v>2.05</v>
@@ -30551,7 +30566,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ142">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR142">
         <v>1.68</v>
@@ -30676,7 +30691,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30754,7 +30769,7 @@
         <v>2.13</v>
       </c>
       <c r="AP143">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ143">
         <v>2</v>
@@ -30882,7 +30897,7 @@
         <v>158</v>
       </c>
       <c r="P144" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q144">
         <v>3.57</v>
@@ -30963,7 +30978,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ144">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR144">
         <v>1.11</v>
@@ -31169,7 +31184,7 @@
         <v>2</v>
       </c>
       <c r="AQ145">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR145">
         <v>1.43</v>
@@ -31294,7 +31309,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31578,7 +31593,7 @@
         <v>1.29</v>
       </c>
       <c r="AP147">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ147">
         <v>1.42</v>
@@ -31706,7 +31721,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q148">
         <v>2.3</v>
@@ -31784,7 +31799,7 @@
         <v>0.38</v>
       </c>
       <c r="AP148">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ148">
         <v>0.5</v>
@@ -31912,7 +31927,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32196,7 +32211,7 @@
         <v>1.17</v>
       </c>
       <c r="AP150">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ150">
         <v>1.08</v>
@@ -32324,7 +32339,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q151">
         <v>3.3</v>
@@ -32402,7 +32417,7 @@
         <v>1.13</v>
       </c>
       <c r="AP151">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ151">
         <v>1.17</v>
@@ -32530,7 +32545,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q152">
         <v>2.05</v>
@@ -32736,7 +32751,7 @@
         <v>119</v>
       </c>
       <c r="P153" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q153">
         <v>2.65</v>
@@ -32814,10 +32829,10 @@
         <v>0.89</v>
       </c>
       <c r="AP153">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ153">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR153">
         <v>1.58</v>
@@ -32942,7 +32957,7 @@
         <v>195</v>
       </c>
       <c r="P154" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q154">
         <v>2.35</v>
@@ -33020,7 +33035,7 @@
         <v>0.88</v>
       </c>
       <c r="AP154">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ154">
         <v>0.92</v>
@@ -33226,7 +33241,7 @@
         <v>0.88</v>
       </c>
       <c r="AP155">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ155">
         <v>0.67</v>
@@ -33766,7 +33781,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -34053,7 +34068,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ159">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR159">
         <v>1.29</v>
@@ -34384,7 +34399,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q161">
         <v>2.91</v>
@@ -34590,7 +34605,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q162">
         <v>4.28</v>
@@ -34671,7 +34686,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ162">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR162">
         <v>1.28</v>
@@ -34796,7 +34811,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q163">
         <v>3.75</v>
@@ -34877,7 +34892,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ163">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR163">
         <v>1.78</v>
@@ -35002,7 +35017,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q164">
         <v>3.97</v>
@@ -35080,7 +35095,7 @@
         <v>1.5</v>
       </c>
       <c r="AP164">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ164">
         <v>1.42</v>
@@ -36110,7 +36125,7 @@
         <v>1.5</v>
       </c>
       <c r="AP169">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ169">
         <v>1.33</v>
@@ -36238,7 +36253,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36319,7 +36334,7 @@
         <v>2</v>
       </c>
       <c r="AQ170">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR170">
         <v>1.43</v>
@@ -36522,7 +36537,7 @@
         <v>1.33</v>
       </c>
       <c r="AP171">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ171">
         <v>1.33</v>
@@ -36728,7 +36743,7 @@
         <v>1.44</v>
       </c>
       <c r="AP172">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ172">
         <v>1.42</v>
@@ -36856,7 +36871,7 @@
         <v>95</v>
       </c>
       <c r="P173" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q173">
         <v>2.5</v>
@@ -36937,7 +36952,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ173">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR173">
         <v>1.57</v>
@@ -37474,7 +37489,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37555,7 +37570,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ176">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR176">
         <v>1.79</v>
@@ -37680,7 +37695,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -37758,10 +37773,10 @@
         <v>1.78</v>
       </c>
       <c r="AP177">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ177">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR177">
         <v>1.61</v>
@@ -37886,7 +37901,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q178">
         <v>2.4</v>
@@ -37964,7 +37979,7 @@
         <v>0</v>
       </c>
       <c r="AP178">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ178">
         <v>0.25</v>
@@ -38092,7 +38107,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q179">
         <v>3.98</v>
@@ -38170,10 +38185,10 @@
         <v>1.9</v>
       </c>
       <c r="AP179">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ179">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR179">
         <v>1.65</v>
@@ -38376,7 +38391,7 @@
         <v>0.8</v>
       </c>
       <c r="AP180">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ180">
         <v>0.92</v>
@@ -38582,7 +38597,7 @@
         <v>1.3</v>
       </c>
       <c r="AP181">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ181">
         <v>1.31</v>
@@ -38710,7 +38725,7 @@
         <v>179</v>
       </c>
       <c r="P182" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -39328,7 +39343,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q185">
         <v>1.8</v>
@@ -39409,7 +39424,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ185">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR185">
         <v>1.96</v>
@@ -39534,7 +39549,7 @@
         <v>88</v>
       </c>
       <c r="P186" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q186">
         <v>3.7</v>
@@ -39615,7 +39630,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ186">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR186">
         <v>1.2</v>
@@ -39740,7 +39755,7 @@
         <v>214</v>
       </c>
       <c r="P187" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q187">
         <v>2.65</v>
@@ -40152,7 +40167,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q189">
         <v>1.78</v>
@@ -40976,7 +40991,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41263,7 +41278,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ194">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR194">
         <v>1.73</v>
@@ -41388,7 +41403,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -41466,7 +41481,7 @@
         <v>1.5</v>
       </c>
       <c r="AP195">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ195">
         <v>1.33</v>
@@ -42006,7 +42021,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42084,7 +42099,7 @@
         <v>1.27</v>
       </c>
       <c r="AP198">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ198">
         <v>1.31</v>
@@ -42290,7 +42305,7 @@
         <v>1</v>
       </c>
       <c r="AP199">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ199">
         <v>0.92</v>
@@ -42499,7 +42514,7 @@
         <v>2</v>
       </c>
       <c r="AQ200">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR200">
         <v>1.5</v>
@@ -42702,10 +42717,10 @@
         <v>0.91</v>
       </c>
       <c r="AP201">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ201">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR201">
         <v>1.68</v>
@@ -42911,7 +42926,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ202">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR202">
         <v>2.02</v>
@@ -43036,7 +43051,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q203">
         <v>3.2</v>
@@ -43117,7 +43132,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ203">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR203">
         <v>1.18</v>
@@ -43732,7 +43747,7 @@
         <v>1</v>
       </c>
       <c r="AP206">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ206">
         <v>0.92</v>
@@ -43860,7 +43875,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44066,7 +44081,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q208">
         <v>2.55</v>
@@ -44272,7 +44287,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44350,7 +44365,7 @@
         <v>1.09</v>
       </c>
       <c r="AP209">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ209">
         <v>1.08</v>
@@ -44890,7 +44905,7 @@
         <v>231</v>
       </c>
       <c r="P212" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q212">
         <v>2.7</v>
@@ -45096,7 +45111,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -45508,7 +45523,7 @@
         <v>88</v>
       </c>
       <c r="P215" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q215">
         <v>2.6</v>
@@ -45795,7 +45810,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ216">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR216">
         <v>1.56</v>
@@ -45920,7 +45935,7 @@
         <v>88</v>
       </c>
       <c r="P217" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q217">
         <v>4.2</v>
@@ -45998,7 +46013,7 @@
         <v>0.91</v>
       </c>
       <c r="AP217">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ217">
         <v>1.08</v>
@@ -46225,13 +46240,13 @@
         <v>4</v>
       </c>
       <c r="AW218">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX218">
         <v>4</v>
       </c>
       <c r="AY218">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ218">
         <v>8</v>
@@ -46489,6 +46504,1242 @@
       </c>
       <c r="BP219">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>6469278</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45367.35416666666</v>
+      </c>
+      <c r="F220">
+        <v>25</v>
+      </c>
+      <c r="G220" t="s">
+        <v>87</v>
+      </c>
+      <c r="H220" t="s">
+        <v>77</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <v>2</v>
+      </c>
+      <c r="L220">
+        <v>2</v>
+      </c>
+      <c r="M220">
+        <v>2</v>
+      </c>
+      <c r="N220">
+        <v>4</v>
+      </c>
+      <c r="O220" t="s">
+        <v>234</v>
+      </c>
+      <c r="P220" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q220">
+        <v>2.59</v>
+      </c>
+      <c r="R220">
+        <v>2.16</v>
+      </c>
+      <c r="S220">
+        <v>4.81</v>
+      </c>
+      <c r="T220">
+        <v>1.45</v>
+      </c>
+      <c r="U220">
+        <v>2.76</v>
+      </c>
+      <c r="V220">
+        <v>3.25</v>
+      </c>
+      <c r="W220">
+        <v>1.34</v>
+      </c>
+      <c r="X220">
+        <v>8.1</v>
+      </c>
+      <c r="Y220">
+        <v>1.06</v>
+      </c>
+      <c r="Z220">
+        <v>1.95</v>
+      </c>
+      <c r="AA220">
+        <v>3.4</v>
+      </c>
+      <c r="AB220">
+        <v>3.75</v>
+      </c>
+      <c r="AC220">
+        <v>1.04</v>
+      </c>
+      <c r="AD220">
+        <v>7.6</v>
+      </c>
+      <c r="AE220">
+        <v>1.34</v>
+      </c>
+      <c r="AF220">
+        <v>2.88</v>
+      </c>
+      <c r="AG220">
+        <v>2.15</v>
+      </c>
+      <c r="AH220">
+        <v>1.65</v>
+      </c>
+      <c r="AI220">
+        <v>1.92</v>
+      </c>
+      <c r="AJ220">
+        <v>1.79</v>
+      </c>
+      <c r="AK220">
+        <v>1.22</v>
+      </c>
+      <c r="AL220">
+        <v>1.3</v>
+      </c>
+      <c r="AM220">
+        <v>1.85</v>
+      </c>
+      <c r="AN220">
+        <v>1.17</v>
+      </c>
+      <c r="AO220">
+        <v>0.83</v>
+      </c>
+      <c r="AP220">
+        <v>1.15</v>
+      </c>
+      <c r="AQ220">
+        <v>0.85</v>
+      </c>
+      <c r="AR220">
+        <v>1.8</v>
+      </c>
+      <c r="AS220">
+        <v>1.27</v>
+      </c>
+      <c r="AT220">
+        <v>3.07</v>
+      </c>
+      <c r="AU220">
+        <v>6</v>
+      </c>
+      <c r="AV220">
+        <v>5</v>
+      </c>
+      <c r="AW220">
+        <v>5</v>
+      </c>
+      <c r="AX220">
+        <v>2</v>
+      </c>
+      <c r="AY220">
+        <v>11</v>
+      </c>
+      <c r="AZ220">
+        <v>7</v>
+      </c>
+      <c r="BA220">
+        <v>7</v>
+      </c>
+      <c r="BB220">
+        <v>5</v>
+      </c>
+      <c r="BC220">
+        <v>12</v>
+      </c>
+      <c r="BD220">
+        <v>1.55</v>
+      </c>
+      <c r="BE220">
+        <v>9.4</v>
+      </c>
+      <c r="BF220">
+        <v>2.82</v>
+      </c>
+      <c r="BG220">
+        <v>1.18</v>
+      </c>
+      <c r="BH220">
+        <v>3.9</v>
+      </c>
+      <c r="BI220">
+        <v>1.36</v>
+      </c>
+      <c r="BJ220">
+        <v>2.79</v>
+      </c>
+      <c r="BK220">
+        <v>1.69</v>
+      </c>
+      <c r="BL220">
+        <v>2.13</v>
+      </c>
+      <c r="BM220">
+        <v>2.11</v>
+      </c>
+      <c r="BN220">
+        <v>1.7</v>
+      </c>
+      <c r="BO220">
+        <v>2.71</v>
+      </c>
+      <c r="BP220">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>6469283</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45367.45833333334</v>
+      </c>
+      <c r="F221">
+        <v>25</v>
+      </c>
+      <c r="G221" t="s">
+        <v>85</v>
+      </c>
+      <c r="H221" t="s">
+        <v>80</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="M221">
+        <v>2</v>
+      </c>
+      <c r="N221">
+        <v>2</v>
+      </c>
+      <c r="O221" t="s">
+        <v>88</v>
+      </c>
+      <c r="P221" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q221">
+        <v>3.1</v>
+      </c>
+      <c r="R221">
+        <v>2.15</v>
+      </c>
+      <c r="S221">
+        <v>3.1</v>
+      </c>
+      <c r="T221">
+        <v>1.36</v>
+      </c>
+      <c r="U221">
+        <v>3</v>
+      </c>
+      <c r="V221">
+        <v>2.62</v>
+      </c>
+      <c r="W221">
+        <v>1.44</v>
+      </c>
+      <c r="X221">
+        <v>6</v>
+      </c>
+      <c r="Y221">
+        <v>1.11</v>
+      </c>
+      <c r="Z221">
+        <v>2.72</v>
+      </c>
+      <c r="AA221">
+        <v>3.15</v>
+      </c>
+      <c r="AB221">
+        <v>2.52</v>
+      </c>
+      <c r="AC221">
+        <v>1.05</v>
+      </c>
+      <c r="AD221">
+        <v>9</v>
+      </c>
+      <c r="AE221">
+        <v>1.29</v>
+      </c>
+      <c r="AF221">
+        <v>3.5</v>
+      </c>
+      <c r="AG221">
+        <v>1.82</v>
+      </c>
+      <c r="AH221">
+        <v>1.86</v>
+      </c>
+      <c r="AI221">
+        <v>1.7</v>
+      </c>
+      <c r="AJ221">
+        <v>2.05</v>
+      </c>
+      <c r="AK221">
+        <v>1.5</v>
+      </c>
+      <c r="AL221">
+        <v>1.3</v>
+      </c>
+      <c r="AM221">
+        <v>1.44</v>
+      </c>
+      <c r="AN221">
+        <v>1.17</v>
+      </c>
+      <c r="AO221">
+        <v>1.33</v>
+      </c>
+      <c r="AP221">
+        <v>1.08</v>
+      </c>
+      <c r="AQ221">
+        <v>1.46</v>
+      </c>
+      <c r="AR221">
+        <v>1.61</v>
+      </c>
+      <c r="AS221">
+        <v>1.44</v>
+      </c>
+      <c r="AT221">
+        <v>3.05</v>
+      </c>
+      <c r="AU221">
+        <v>6</v>
+      </c>
+      <c r="AV221">
+        <v>5</v>
+      </c>
+      <c r="AW221">
+        <v>9</v>
+      </c>
+      <c r="AX221">
+        <v>2</v>
+      </c>
+      <c r="AY221">
+        <v>15</v>
+      </c>
+      <c r="AZ221">
+        <v>7</v>
+      </c>
+      <c r="BA221">
+        <v>7</v>
+      </c>
+      <c r="BB221">
+        <v>5</v>
+      </c>
+      <c r="BC221">
+        <v>12</v>
+      </c>
+      <c r="BD221">
+        <v>1.82</v>
+      </c>
+      <c r="BE221">
+        <v>8</v>
+      </c>
+      <c r="BF221">
+        <v>2.33</v>
+      </c>
+      <c r="BG221">
+        <v>1.2</v>
+      </c>
+      <c r="BH221">
+        <v>3.88</v>
+      </c>
+      <c r="BI221">
+        <v>1.39</v>
+      </c>
+      <c r="BJ221">
+        <v>2.67</v>
+      </c>
+      <c r="BK221">
+        <v>1.72</v>
+      </c>
+      <c r="BL221">
+        <v>2.09</v>
+      </c>
+      <c r="BM221">
+        <v>2.16</v>
+      </c>
+      <c r="BN221">
+        <v>1.68</v>
+      </c>
+      <c r="BO221">
+        <v>2.84</v>
+      </c>
+      <c r="BP221">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>6469284</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45367.5625</v>
+      </c>
+      <c r="F222">
+        <v>25</v>
+      </c>
+      <c r="G222" t="s">
+        <v>79</v>
+      </c>
+      <c r="H222" t="s">
+        <v>75</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222">
+        <v>2</v>
+      </c>
+      <c r="N222">
+        <v>3</v>
+      </c>
+      <c r="O222" t="s">
+        <v>213</v>
+      </c>
+      <c r="P222" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q222">
+        <v>3.46</v>
+      </c>
+      <c r="R222">
+        <v>2.05</v>
+      </c>
+      <c r="S222">
+        <v>3.05</v>
+      </c>
+      <c r="T222">
+        <v>1.42</v>
+      </c>
+      <c r="U222">
+        <v>2.74</v>
+      </c>
+      <c r="V222">
+        <v>2.86</v>
+      </c>
+      <c r="W222">
+        <v>1.39</v>
+      </c>
+      <c r="X222">
+        <v>7.3</v>
+      </c>
+      <c r="Y222">
+        <v>1.07</v>
+      </c>
+      <c r="Z222">
+        <v>2.68</v>
+      </c>
+      <c r="AA222">
+        <v>3.2</v>
+      </c>
+      <c r="AB222">
+        <v>2.53</v>
+      </c>
+      <c r="AC222">
+        <v>1.02</v>
+      </c>
+      <c r="AD222">
+        <v>8.5</v>
+      </c>
+      <c r="AE222">
+        <v>1.28</v>
+      </c>
+      <c r="AF222">
+        <v>3.2</v>
+      </c>
+      <c r="AG222">
+        <v>1.9</v>
+      </c>
+      <c r="AH222">
+        <v>1.79</v>
+      </c>
+      <c r="AI222">
+        <v>1.73</v>
+      </c>
+      <c r="AJ222">
+        <v>1.99</v>
+      </c>
+      <c r="AK222">
+        <v>1.51</v>
+      </c>
+      <c r="AL222">
+        <v>1.32</v>
+      </c>
+      <c r="AM222">
+        <v>1.41</v>
+      </c>
+      <c r="AN222">
+        <v>1</v>
+      </c>
+      <c r="AO222">
+        <v>1</v>
+      </c>
+      <c r="AP222">
+        <v>0.92</v>
+      </c>
+      <c r="AQ222">
+        <v>1.15</v>
+      </c>
+      <c r="AR222">
+        <v>1.53</v>
+      </c>
+      <c r="AS222">
+        <v>1.34</v>
+      </c>
+      <c r="AT222">
+        <v>2.87</v>
+      </c>
+      <c r="AU222">
+        <v>6</v>
+      </c>
+      <c r="AV222">
+        <v>5</v>
+      </c>
+      <c r="AW222">
+        <v>13</v>
+      </c>
+      <c r="AX222">
+        <v>4</v>
+      </c>
+      <c r="AY222">
+        <v>19</v>
+      </c>
+      <c r="AZ222">
+        <v>9</v>
+      </c>
+      <c r="BA222">
+        <v>9</v>
+      </c>
+      <c r="BB222">
+        <v>2</v>
+      </c>
+      <c r="BC222">
+        <v>11</v>
+      </c>
+      <c r="BD222">
+        <v>2</v>
+      </c>
+      <c r="BE222">
+        <v>8</v>
+      </c>
+      <c r="BF222">
+        <v>2</v>
+      </c>
+      <c r="BG222">
+        <v>1.19</v>
+      </c>
+      <c r="BH222">
+        <v>4.3</v>
+      </c>
+      <c r="BI222">
+        <v>1.33</v>
+      </c>
+      <c r="BJ222">
+        <v>2.93</v>
+      </c>
+      <c r="BK222">
+        <v>1.58</v>
+      </c>
+      <c r="BL222">
+        <v>2.17</v>
+      </c>
+      <c r="BM222">
+        <v>2</v>
+      </c>
+      <c r="BN222">
+        <v>1.8</v>
+      </c>
+      <c r="BO222">
+        <v>2.57</v>
+      </c>
+      <c r="BP222">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="223" spans="1:68">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>6469286</v>
+      </c>
+      <c r="C223" t="s">
+        <v>68</v>
+      </c>
+      <c r="D223" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45367.66666666666</v>
+      </c>
+      <c r="F223">
+        <v>25</v>
+      </c>
+      <c r="G223" t="s">
+        <v>81</v>
+      </c>
+      <c r="H223" t="s">
+        <v>86</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223" t="s">
+        <v>88</v>
+      </c>
+      <c r="P223" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q223">
+        <v>2.25</v>
+      </c>
+      <c r="R223">
+        <v>2.15</v>
+      </c>
+      <c r="S223">
+        <v>5</v>
+      </c>
+      <c r="T223">
+        <v>1.4</v>
+      </c>
+      <c r="U223">
+        <v>2.75</v>
+      </c>
+      <c r="V223">
+        <v>2.75</v>
+      </c>
+      <c r="W223">
+        <v>1.4</v>
+      </c>
+      <c r="X223">
+        <v>7</v>
+      </c>
+      <c r="Y223">
+        <v>1.08</v>
+      </c>
+      <c r="Z223">
+        <v>1.62</v>
+      </c>
+      <c r="AA223">
+        <v>3.7</v>
+      </c>
+      <c r="AB223">
+        <v>4.75</v>
+      </c>
+      <c r="AC223">
+        <v>1.06</v>
+      </c>
+      <c r="AD223">
+        <v>8</v>
+      </c>
+      <c r="AE223">
+        <v>1.33</v>
+      </c>
+      <c r="AF223">
+        <v>3.25</v>
+      </c>
+      <c r="AG223">
+        <v>2</v>
+      </c>
+      <c r="AH223">
+        <v>1.85</v>
+      </c>
+      <c r="AI223">
+        <v>1.85</v>
+      </c>
+      <c r="AJ223">
+        <v>1.85</v>
+      </c>
+      <c r="AK223">
+        <v>1.15</v>
+      </c>
+      <c r="AL223">
+        <v>1.25</v>
+      </c>
+      <c r="AM223">
+        <v>2.15</v>
+      </c>
+      <c r="AN223">
+        <v>1.75</v>
+      </c>
+      <c r="AO223">
+        <v>0.42</v>
+      </c>
+      <c r="AP223">
+        <v>1.69</v>
+      </c>
+      <c r="AQ223">
+        <v>0.46</v>
+      </c>
+      <c r="AR223">
+        <v>1.68</v>
+      </c>
+      <c r="AS223">
+        <v>1.25</v>
+      </c>
+      <c r="AT223">
+        <v>2.93</v>
+      </c>
+      <c r="AU223">
+        <v>6</v>
+      </c>
+      <c r="AV223">
+        <v>4</v>
+      </c>
+      <c r="AW223">
+        <v>8</v>
+      </c>
+      <c r="AX223">
+        <v>1</v>
+      </c>
+      <c r="AY223">
+        <v>14</v>
+      </c>
+      <c r="AZ223">
+        <v>5</v>
+      </c>
+      <c r="BA223">
+        <v>10</v>
+      </c>
+      <c r="BB223">
+        <v>2</v>
+      </c>
+      <c r="BC223">
+        <v>12</v>
+      </c>
+      <c r="BD223">
+        <v>1.64</v>
+      </c>
+      <c r="BE223">
+        <v>8</v>
+      </c>
+      <c r="BF223">
+        <v>2.77</v>
+      </c>
+      <c r="BG223">
+        <v>1.27</v>
+      </c>
+      <c r="BH223">
+        <v>3.28</v>
+      </c>
+      <c r="BI223">
+        <v>1.57</v>
+      </c>
+      <c r="BJ223">
+        <v>2.36</v>
+      </c>
+      <c r="BK223">
+        <v>1.92</v>
+      </c>
+      <c r="BL223">
+        <v>1.88</v>
+      </c>
+      <c r="BM223">
+        <v>2.51</v>
+      </c>
+      <c r="BN223">
+        <v>1.51</v>
+      </c>
+      <c r="BO223">
+        <v>3.34</v>
+      </c>
+      <c r="BP223">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>6469280</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45368.35416666666</v>
+      </c>
+      <c r="F224">
+        <v>25</v>
+      </c>
+      <c r="G224" t="s">
+        <v>78</v>
+      </c>
+      <c r="H224" t="s">
+        <v>83</v>
+      </c>
+      <c r="I224">
+        <v>2</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>2</v>
+      </c>
+      <c r="L224">
+        <v>2</v>
+      </c>
+      <c r="M224">
+        <v>2</v>
+      </c>
+      <c r="N224">
+        <v>4</v>
+      </c>
+      <c r="O224" t="s">
+        <v>235</v>
+      </c>
+      <c r="P224" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q224">
+        <v>3.6</v>
+      </c>
+      <c r="R224">
+        <v>2.1</v>
+      </c>
+      <c r="S224">
+        <v>2.8</v>
+      </c>
+      <c r="T224">
+        <v>1.38</v>
+      </c>
+      <c r="U224">
+        <v>2.8</v>
+      </c>
+      <c r="V224">
+        <v>2.65</v>
+      </c>
+      <c r="W224">
+        <v>1.42</v>
+      </c>
+      <c r="X224">
+        <v>6.25</v>
+      </c>
+      <c r="Y224">
+        <v>1.08</v>
+      </c>
+      <c r="Z224">
+        <v>3.1</v>
+      </c>
+      <c r="AA224">
+        <v>3.4</v>
+      </c>
+      <c r="AB224">
+        <v>2.2</v>
+      </c>
+      <c r="AC224">
+        <v>1.06</v>
+      </c>
+      <c r="AD224">
+        <v>8.5</v>
+      </c>
+      <c r="AE224">
+        <v>1.3</v>
+      </c>
+      <c r="AF224">
+        <v>3.45</v>
+      </c>
+      <c r="AG224">
+        <v>1.87</v>
+      </c>
+      <c r="AH224">
+        <v>1.87</v>
+      </c>
+      <c r="AI224">
+        <v>1.65</v>
+      </c>
+      <c r="AJ224">
+        <v>2.1</v>
+      </c>
+      <c r="AK224">
+        <v>1.62</v>
+      </c>
+      <c r="AL224">
+        <v>1.28</v>
+      </c>
+      <c r="AM224">
+        <v>1.33</v>
+      </c>
+      <c r="AN224">
+        <v>1.25</v>
+      </c>
+      <c r="AO224">
+        <v>1.92</v>
+      </c>
+      <c r="AP224">
+        <v>1.23</v>
+      </c>
+      <c r="AQ224">
+        <v>1.85</v>
+      </c>
+      <c r="AR224">
+        <v>1.6</v>
+      </c>
+      <c r="AS224">
+        <v>1.56</v>
+      </c>
+      <c r="AT224">
+        <v>3.16</v>
+      </c>
+      <c r="AU224">
+        <v>4</v>
+      </c>
+      <c r="AV224">
+        <v>5</v>
+      </c>
+      <c r="AW224">
+        <v>5</v>
+      </c>
+      <c r="AX224">
+        <v>4</v>
+      </c>
+      <c r="AY224">
+        <v>9</v>
+      </c>
+      <c r="AZ224">
+        <v>9</v>
+      </c>
+      <c r="BA224">
+        <v>4</v>
+      </c>
+      <c r="BB224">
+        <v>8</v>
+      </c>
+      <c r="BC224">
+        <v>12</v>
+      </c>
+      <c r="BD224">
+        <v>2.2</v>
+      </c>
+      <c r="BE224">
+        <v>8</v>
+      </c>
+      <c r="BF224">
+        <v>1.91</v>
+      </c>
+      <c r="BG224">
+        <v>1.21</v>
+      </c>
+      <c r="BH224">
+        <v>3.7</v>
+      </c>
+      <c r="BI224">
+        <v>1.33</v>
+      </c>
+      <c r="BJ224">
+        <v>2.93</v>
+      </c>
+      <c r="BK224">
+        <v>1.61</v>
+      </c>
+      <c r="BL224">
+        <v>2.26</v>
+      </c>
+      <c r="BM224">
+        <v>1.99</v>
+      </c>
+      <c r="BN224">
+        <v>1.81</v>
+      </c>
+      <c r="BO224">
+        <v>2.52</v>
+      </c>
+      <c r="BP224">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>6469285</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45368.45833333334</v>
+      </c>
+      <c r="F225">
+        <v>25</v>
+      </c>
+      <c r="G225" t="s">
+        <v>84</v>
+      </c>
+      <c r="H225" t="s">
+        <v>73</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225">
+        <v>1</v>
+      </c>
+      <c r="N225">
+        <v>2</v>
+      </c>
+      <c r="O225" t="s">
+        <v>236</v>
+      </c>
+      <c r="P225" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q225">
+        <v>5.5</v>
+      </c>
+      <c r="R225">
+        <v>2.2</v>
+      </c>
+      <c r="S225">
+        <v>2.05</v>
+      </c>
+      <c r="T225">
+        <v>1.38</v>
+      </c>
+      <c r="U225">
+        <v>2.8</v>
+      </c>
+      <c r="V225">
+        <v>2.8</v>
+      </c>
+      <c r="W225">
+        <v>1.38</v>
+      </c>
+      <c r="X225">
+        <v>7</v>
+      </c>
+      <c r="Y225">
+        <v>1.07</v>
+      </c>
+      <c r="Z225">
+        <v>5.75</v>
+      </c>
+      <c r="AA225">
+        <v>4</v>
+      </c>
+      <c r="AB225">
+        <v>1.53</v>
+      </c>
+      <c r="AC225">
+        <v>1.05</v>
+      </c>
+      <c r="AD225">
+        <v>9.5</v>
+      </c>
+      <c r="AE225">
+        <v>1.28</v>
+      </c>
+      <c r="AF225">
+        <v>3.5</v>
+      </c>
+      <c r="AG225">
+        <v>1.85</v>
+      </c>
+      <c r="AH225">
+        <v>1.87</v>
+      </c>
+      <c r="AI225">
+        <v>1.95</v>
+      </c>
+      <c r="AJ225">
+        <v>1.75</v>
+      </c>
+      <c r="AK225">
+        <v>2.4</v>
+      </c>
+      <c r="AL225">
+        <v>1.18</v>
+      </c>
+      <c r="AM225">
+        <v>1.13</v>
+      </c>
+      <c r="AN225">
+        <v>1.08</v>
+      </c>
+      <c r="AO225">
+        <v>1.08</v>
+      </c>
+      <c r="AP225">
+        <v>1.08</v>
+      </c>
+      <c r="AQ225">
+        <v>1.08</v>
+      </c>
+      <c r="AR225">
+        <v>1.2</v>
+      </c>
+      <c r="AS225">
+        <v>1.58</v>
+      </c>
+      <c r="AT225">
+        <v>2.78</v>
+      </c>
+      <c r="AU225">
+        <v>3</v>
+      </c>
+      <c r="AV225">
+        <v>8</v>
+      </c>
+      <c r="AW225">
+        <v>4</v>
+      </c>
+      <c r="AX225">
+        <v>13</v>
+      </c>
+      <c r="AY225">
+        <v>7</v>
+      </c>
+      <c r="AZ225">
+        <v>21</v>
+      </c>
+      <c r="BA225">
+        <v>3</v>
+      </c>
+      <c r="BB225">
+        <v>11</v>
+      </c>
+      <c r="BC225">
+        <v>14</v>
+      </c>
+      <c r="BD225">
+        <v>3.49</v>
+      </c>
+      <c r="BE225">
+        <v>9</v>
+      </c>
+      <c r="BF225">
+        <v>1.41</v>
+      </c>
+      <c r="BG225">
+        <v>1.21</v>
+      </c>
+      <c r="BH225">
+        <v>3.7</v>
+      </c>
+      <c r="BI225">
+        <v>1.35</v>
+      </c>
+      <c r="BJ225">
+        <v>2.84</v>
+      </c>
+      <c r="BK225">
+        <v>1.69</v>
+      </c>
+      <c r="BL225">
+        <v>2.14</v>
+      </c>
+      <c r="BM225">
+        <v>2.08</v>
+      </c>
+      <c r="BN225">
+        <v>1.73</v>
+      </c>
+      <c r="BO225">
+        <v>2.67</v>
+      </c>
+      <c r="BP225">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="339">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -727,6 +727,9 @@
     <t>['69']</t>
   </si>
   <si>
+    <t>['17', '41', '47']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -1025,6 +1028,9 @@
   </si>
   <si>
     <t>['54', '67']</t>
+  </si>
+  <si>
+    <t>['33']</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP225"/>
+  <dimension ref="A1:BP226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1645,7 +1651,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q2">
         <v>4.33</v>
@@ -1929,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ3">
         <v>0.25</v>
@@ -2057,7 +2063,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2469,7 +2475,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2675,7 +2681,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2881,7 +2887,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q8">
         <v>2.38</v>
@@ -3087,7 +3093,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3293,7 +3299,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q10">
         <v>3.2</v>
@@ -3911,7 +3917,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q13">
         <v>2.53</v>
@@ -4117,7 +4123,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4404,7 +4410,7 @@
         <v>2</v>
       </c>
       <c r="AQ15">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR15">
         <v>1.3</v>
@@ -4735,7 +4741,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q17">
         <v>2.21</v>
@@ -4941,7 +4947,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5353,7 +5359,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q20">
         <v>1.82</v>
@@ -5640,7 +5646,7 @@
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR21">
         <v>0.55</v>
@@ -5971,7 +5977,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6255,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ24">
         <v>0.5</v>
@@ -6795,7 +6801,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q27">
         <v>4.2</v>
@@ -7207,7 +7213,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q29">
         <v>2.95</v>
@@ -7619,7 +7625,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q31">
         <v>2.3</v>
@@ -7825,7 +7831,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8031,7 +8037,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q33">
         <v>2.6</v>
@@ -8443,7 +8449,7 @@
         <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8649,7 +8655,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -9757,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ41">
         <v>0.67</v>
@@ -9966,7 +9972,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ42">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR42">
         <v>1.83</v>
@@ -10297,7 +10303,7 @@
         <v>88</v>
       </c>
       <c r="P44" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q44">
         <v>2.7</v>
@@ -10709,7 +10715,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -11327,7 +11333,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11533,7 +11539,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q50">
         <v>2.15</v>
@@ -11739,7 +11745,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -12232,7 +12238,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ53">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR53">
         <v>1.82</v>
@@ -12769,7 +12775,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -13259,7 +13265,7 @@
         <v>0.33</v>
       </c>
       <c r="AP58">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ58">
         <v>0.85</v>
@@ -13593,7 +13599,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -14005,7 +14011,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14623,7 +14629,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -15035,7 +15041,7 @@
         <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q67">
         <v>4.75</v>
@@ -15241,7 +15247,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15447,7 +15453,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15653,7 +15659,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -16146,7 +16152,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ72">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR72">
         <v>1.61</v>
@@ -16271,7 +16277,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16477,7 +16483,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q74">
         <v>1.75</v>
@@ -16889,7 +16895,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17095,7 +17101,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q77">
         <v>2.04</v>
@@ -17173,7 +17179,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ77">
         <v>1.15</v>
@@ -17301,7 +17307,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q78">
         <v>3.05</v>
@@ -17713,7 +17719,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17919,7 +17925,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18125,7 +18131,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q82">
         <v>3.3</v>
@@ -18331,7 +18337,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -19361,7 +19367,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19773,7 +19779,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q90">
         <v>1.73</v>
@@ -20472,7 +20478,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ93">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR93">
         <v>1.79</v>
@@ -20597,7 +20603,7 @@
         <v>88</v>
       </c>
       <c r="P94" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -21009,7 +21015,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21215,7 +21221,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21293,7 +21299,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ97">
         <v>1.08</v>
@@ -21833,7 +21839,7 @@
         <v>105</v>
       </c>
       <c r="P100" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22245,7 +22251,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22863,7 +22869,7 @@
         <v>88</v>
       </c>
       <c r="P105" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q105">
         <v>3.4</v>
@@ -23069,7 +23075,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q106">
         <v>1.7</v>
@@ -23275,7 +23281,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23481,7 +23487,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q108">
         <v>3.2</v>
@@ -23687,7 +23693,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23768,7 +23774,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ109">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR109">
         <v>1.13</v>
@@ -23893,7 +23899,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -24305,7 +24311,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q112">
         <v>3.3</v>
@@ -24511,7 +24517,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q113">
         <v>2.9</v>
@@ -24717,7 +24723,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q114">
         <v>1.85</v>
@@ -24795,7 +24801,7 @@
         <v>0.2</v>
       </c>
       <c r="AP114">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ114">
         <v>0.92</v>
@@ -25541,7 +25547,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q118">
         <v>4.33</v>
@@ -26571,7 +26577,7 @@
         <v>88</v>
       </c>
       <c r="P123" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26983,7 +26989,7 @@
         <v>88</v>
       </c>
       <c r="P125" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q125">
         <v>2.5</v>
@@ -27189,7 +27195,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27395,7 +27401,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27476,7 +27482,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ127">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR127">
         <v>1.19</v>
@@ -27601,7 +27607,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27807,7 +27813,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q129">
         <v>3.3</v>
@@ -28013,7 +28019,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q130">
         <v>3.5</v>
@@ -28503,7 +28509,7 @@
         <v>1.33</v>
       </c>
       <c r="AP132">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ132">
         <v>1.42</v>
@@ -28837,7 +28843,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q134">
         <v>2.63</v>
@@ -29043,7 +29049,7 @@
         <v>88</v>
       </c>
       <c r="P135" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29330,7 +29336,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ136">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR136">
         <v>1.63</v>
@@ -29455,7 +29461,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q137">
         <v>2.1</v>
@@ -29661,7 +29667,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29867,7 +29873,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q139">
         <v>2.1</v>
@@ -29945,7 +29951,7 @@
         <v>1.57</v>
       </c>
       <c r="AP139">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ139">
         <v>1.31</v>
@@ -30485,7 +30491,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q142">
         <v>2.05</v>
@@ -30691,7 +30697,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30897,7 +30903,7 @@
         <v>158</v>
       </c>
       <c r="P144" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q144">
         <v>3.57</v>
@@ -31309,7 +31315,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31721,7 +31727,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q148">
         <v>2.3</v>
@@ -31927,7 +31933,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32339,7 +32345,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q151">
         <v>3.3</v>
@@ -32545,7 +32551,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q152">
         <v>2.05</v>
@@ -32751,7 +32757,7 @@
         <v>119</v>
       </c>
       <c r="P153" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q153">
         <v>2.65</v>
@@ -32957,7 +32963,7 @@
         <v>195</v>
       </c>
       <c r="P154" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q154">
         <v>2.35</v>
@@ -33450,7 +33456,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ156">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR156">
         <v>1.74</v>
@@ -33781,7 +33787,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -34399,7 +34405,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q161">
         <v>2.91</v>
@@ -34605,7 +34611,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q162">
         <v>4.28</v>
@@ -34811,7 +34817,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q163">
         <v>3.75</v>
@@ -35017,7 +35023,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q164">
         <v>3.97</v>
@@ -35713,7 +35719,7 @@
         <v>1.25</v>
       </c>
       <c r="AP167">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ167">
         <v>1.08</v>
@@ -36253,7 +36259,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36871,7 +36877,7 @@
         <v>95</v>
       </c>
       <c r="P173" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q173">
         <v>2.5</v>
@@ -37489,7 +37495,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37695,7 +37701,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -37901,7 +37907,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q178">
         <v>2.4</v>
@@ -38107,7 +38113,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q179">
         <v>3.98</v>
@@ -38725,7 +38731,7 @@
         <v>179</v>
       </c>
       <c r="P182" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -39012,7 +39018,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ183">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR183">
         <v>1.74</v>
@@ -39343,7 +39349,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q185">
         <v>1.8</v>
@@ -39421,7 +39427,7 @@
         <v>0.44</v>
       </c>
       <c r="AP185">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ185">
         <v>0.46</v>
@@ -39549,7 +39555,7 @@
         <v>88</v>
       </c>
       <c r="P186" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q186">
         <v>3.7</v>
@@ -39755,7 +39761,7 @@
         <v>214</v>
       </c>
       <c r="P187" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q187">
         <v>2.65</v>
@@ -40167,7 +40173,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q189">
         <v>1.78</v>
@@ -40991,7 +40997,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41403,7 +41409,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -42021,7 +42027,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42308,7 +42314,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ199">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR199">
         <v>1.48</v>
@@ -42923,7 +42929,7 @@
         <v>2</v>
       </c>
       <c r="AP202">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ202">
         <v>1.85</v>
@@ -43051,7 +43057,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q203">
         <v>3.2</v>
@@ -43875,7 +43881,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44081,7 +44087,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q208">
         <v>2.55</v>
@@ -44287,7 +44293,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44905,7 +44911,7 @@
         <v>231</v>
       </c>
       <c r="P212" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q212">
         <v>2.7</v>
@@ -45111,7 +45117,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -45523,7 +45529,7 @@
         <v>88</v>
       </c>
       <c r="P215" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q215">
         <v>2.6</v>
@@ -45935,7 +45941,7 @@
         <v>88</v>
       </c>
       <c r="P217" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q217">
         <v>4.2</v>
@@ -46553,7 +46559,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q220">
         <v>2.59</v>
@@ -46759,7 +46765,7 @@
         <v>88</v>
       </c>
       <c r="P221" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -46965,7 +46971,7 @@
         <v>213</v>
       </c>
       <c r="P222" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q222">
         <v>3.46</v>
@@ -47377,7 +47383,7 @@
         <v>235</v>
       </c>
       <c r="P224" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q224">
         <v>3.6</v>
@@ -47740,6 +47746,212 @@
       </c>
       <c r="BP225">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>6469282</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45368.5625</v>
+      </c>
+      <c r="F226">
+        <v>25</v>
+      </c>
+      <c r="G226" t="s">
+        <v>71</v>
+      </c>
+      <c r="H226" t="s">
+        <v>74</v>
+      </c>
+      <c r="I226">
+        <v>2</v>
+      </c>
+      <c r="J226">
+        <v>1</v>
+      </c>
+      <c r="K226">
+        <v>3</v>
+      </c>
+      <c r="L226">
+        <v>3</v>
+      </c>
+      <c r="M226">
+        <v>1</v>
+      </c>
+      <c r="N226">
+        <v>4</v>
+      </c>
+      <c r="O226" t="s">
+        <v>237</v>
+      </c>
+      <c r="P226" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q226">
+        <v>2.35</v>
+      </c>
+      <c r="R226">
+        <v>2.05</v>
+      </c>
+      <c r="S226">
+        <v>5</v>
+      </c>
+      <c r="T226">
+        <v>1.46</v>
+      </c>
+      <c r="U226">
+        <v>2.55</v>
+      </c>
+      <c r="V226">
+        <v>3.25</v>
+      </c>
+      <c r="W226">
+        <v>1.3</v>
+      </c>
+      <c r="X226">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y226">
+        <v>1.04</v>
+      </c>
+      <c r="Z226">
+        <v>1.75</v>
+      </c>
+      <c r="AA226">
+        <v>3.5</v>
+      </c>
+      <c r="AB226">
+        <v>4.75</v>
+      </c>
+      <c r="AC226">
+        <v>1.07</v>
+      </c>
+      <c r="AD226">
+        <v>8</v>
+      </c>
+      <c r="AE226">
+        <v>1.38</v>
+      </c>
+      <c r="AF226">
+        <v>2.9</v>
+      </c>
+      <c r="AG226">
+        <v>2.15</v>
+      </c>
+      <c r="AH226">
+        <v>1.62</v>
+      </c>
+      <c r="AI226">
+        <v>2.05</v>
+      </c>
+      <c r="AJ226">
+        <v>1.72</v>
+      </c>
+      <c r="AK226">
+        <v>1.12</v>
+      </c>
+      <c r="AL226">
+        <v>1.22</v>
+      </c>
+      <c r="AM226">
+        <v>2.05</v>
+      </c>
+      <c r="AN226">
+        <v>1.83</v>
+      </c>
+      <c r="AO226">
+        <v>0.92</v>
+      </c>
+      <c r="AP226">
+        <v>1.92</v>
+      </c>
+      <c r="AQ226">
+        <v>0.85</v>
+      </c>
+      <c r="AR226">
+        <v>1.99</v>
+      </c>
+      <c r="AS226">
+        <v>1.48</v>
+      </c>
+      <c r="AT226">
+        <v>3.47</v>
+      </c>
+      <c r="AU226">
+        <v>2</v>
+      </c>
+      <c r="AV226">
+        <v>2</v>
+      </c>
+      <c r="AW226">
+        <v>3</v>
+      </c>
+      <c r="AX226">
+        <v>5</v>
+      </c>
+      <c r="AY226">
+        <v>5</v>
+      </c>
+      <c r="AZ226">
+        <v>7</v>
+      </c>
+      <c r="BA226">
+        <v>1</v>
+      </c>
+      <c r="BB226">
+        <v>3</v>
+      </c>
+      <c r="BC226">
+        <v>4</v>
+      </c>
+      <c r="BD226">
+        <v>1.41</v>
+      </c>
+      <c r="BE226">
+        <v>9</v>
+      </c>
+      <c r="BF226">
+        <v>3.66</v>
+      </c>
+      <c r="BG226">
+        <v>1.26</v>
+      </c>
+      <c r="BH226">
+        <v>3.34</v>
+      </c>
+      <c r="BI226">
+        <v>1.55</v>
+      </c>
+      <c r="BJ226">
+        <v>2.41</v>
+      </c>
+      <c r="BK226">
+        <v>1.85</v>
+      </c>
+      <c r="BL226">
+        <v>1.95</v>
+      </c>
+      <c r="BM226">
+        <v>2.45</v>
+      </c>
+      <c r="BN226">
+        <v>1.53</v>
+      </c>
+      <c r="BO226">
+        <v>3.28</v>
+      </c>
+      <c r="BP226">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -47888,22 +47888,22 @@
         <v>3.47</v>
       </c>
       <c r="AU226">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV226">
         <v>2</v>
       </c>
       <c r="AW226">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX226">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY226">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ226">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA226">
         <v>1</v>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="341">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -730,6 +730,12 @@
     <t>['17', '41', '47']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['12', '41', '64', '70', '77', '83']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -1392,7 +1398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP226"/>
+  <dimension ref="A1:BP228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1651,7 +1657,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q2">
         <v>4.33</v>
@@ -1938,7 +1944,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ3">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2063,7 +2069,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2347,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AQ5">
         <v>1.46</v>
@@ -2475,7 +2481,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2681,7 +2687,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2887,7 +2893,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q8">
         <v>2.38</v>
@@ -2968,7 +2974,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3093,7 +3099,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3299,7 +3305,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q10">
         <v>3.2</v>
@@ -3586,7 +3592,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ11">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3917,7 +3923,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q13">
         <v>2.53</v>
@@ -3995,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ13">
         <v>0.46</v>
@@ -4123,7 +4129,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4741,7 +4747,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q17">
         <v>2.21</v>
@@ -4947,7 +4953,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5025,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ18">
         <v>0.85</v>
@@ -5359,7 +5365,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q20">
         <v>1.82</v>
@@ -5437,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AQ20">
         <v>1.31</v>
@@ -5977,7 +5983,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6264,7 +6270,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ24">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR24">
         <v>2.24</v>
@@ -6801,7 +6807,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q27">
         <v>4.2</v>
@@ -7213,7 +7219,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q29">
         <v>2.95</v>
@@ -7500,7 +7506,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ30">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR30">
         <v>1.68</v>
@@ -7625,7 +7631,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q31">
         <v>2.3</v>
@@ -7831,7 +7837,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8037,7 +8043,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q33">
         <v>2.6</v>
@@ -8118,7 +8124,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR33">
         <v>1.24</v>
@@ -8449,7 +8455,7 @@
         <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8655,7 +8661,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8939,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AQ37">
         <v>0.92</v>
@@ -10303,7 +10309,7 @@
         <v>88</v>
       </c>
       <c r="P44" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q44">
         <v>2.7</v>
@@ -10715,7 +10721,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10796,7 +10802,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR46">
         <v>0.99</v>
@@ -11002,7 +11008,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ47">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR47">
         <v>1.82</v>
@@ -11333,7 +11339,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11411,7 +11417,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ49">
         <v>1.15</v>
@@ -11539,7 +11545,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q50">
         <v>2.15</v>
@@ -11745,7 +11751,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -12775,7 +12781,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -13471,7 +13477,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AQ59">
         <v>0.46</v>
@@ -13599,7 +13605,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13886,7 +13892,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR61">
         <v>0.95</v>
@@ -14011,7 +14017,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14295,10 +14301,10 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AQ63">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR63">
         <v>1.69</v>
@@ -14629,7 +14635,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14707,7 +14713,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ65">
         <v>1.42</v>
@@ -15041,7 +15047,7 @@
         <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q67">
         <v>4.75</v>
@@ -15247,7 +15253,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15453,7 +15459,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15659,7 +15665,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -16277,7 +16283,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16483,7 +16489,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q74">
         <v>1.75</v>
@@ -16895,7 +16901,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17101,7 +17107,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q77">
         <v>2.04</v>
@@ -17307,7 +17313,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q78">
         <v>3.05</v>
@@ -17719,7 +17725,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17925,7 +17931,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18131,7 +18137,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q82">
         <v>3.3</v>
@@ -18337,7 +18343,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18418,7 +18424,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ83">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR83">
         <v>1.19</v>
@@ -18827,7 +18833,7 @@
         <v>1.2</v>
       </c>
       <c r="AP85">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AQ85">
         <v>1.42</v>
@@ -19239,7 +19245,7 @@
         <v>1.67</v>
       </c>
       <c r="AP87">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ87">
         <v>1.33</v>
@@ -19367,7 +19373,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19779,7 +19785,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q90">
         <v>1.73</v>
@@ -20066,7 +20072,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ91">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR91">
         <v>1.77</v>
@@ -20603,7 +20609,7 @@
         <v>88</v>
       </c>
       <c r="P94" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -21015,7 +21021,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21221,7 +21227,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21711,7 +21717,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ99">
         <v>1.17</v>
@@ -21839,7 +21845,7 @@
         <v>105</v>
       </c>
       <c r="P100" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22251,7 +22257,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22332,7 +22338,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ102">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR102">
         <v>1.79</v>
@@ -22869,7 +22875,7 @@
         <v>88</v>
       </c>
       <c r="P105" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q105">
         <v>3.4</v>
@@ -23075,7 +23081,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q106">
         <v>1.7</v>
@@ -23281,7 +23287,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23487,7 +23493,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q108">
         <v>3.2</v>
@@ -23693,7 +23699,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23899,7 +23905,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -24311,7 +24317,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q112">
         <v>3.3</v>
@@ -24517,7 +24523,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q113">
         <v>2.9</v>
@@ -24723,7 +24729,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q114">
         <v>1.85</v>
@@ -25007,7 +25013,7 @@
         <v>0.33</v>
       </c>
       <c r="AP115">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AQ115">
         <v>0.85</v>
@@ -25419,7 +25425,7 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ117">
         <v>0.92</v>
@@ -25547,7 +25553,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q118">
         <v>4.33</v>
@@ -26040,7 +26046,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ120">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR120">
         <v>1.66</v>
@@ -26246,7 +26252,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ121">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR121">
         <v>1.67</v>
@@ -26449,7 +26455,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AQ122">
         <v>1.17</v>
@@ -26577,7 +26583,7 @@
         <v>88</v>
       </c>
       <c r="P123" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26989,7 +26995,7 @@
         <v>88</v>
       </c>
       <c r="P125" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q125">
         <v>2.5</v>
@@ -27195,7 +27201,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27401,7 +27407,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27607,7 +27613,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27813,7 +27819,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q129">
         <v>3.3</v>
@@ -28019,7 +28025,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q130">
         <v>3.5</v>
@@ -28843,7 +28849,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q134">
         <v>2.63</v>
@@ -28924,7 +28930,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ134">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR134">
         <v>1.63</v>
@@ -29049,7 +29055,7 @@
         <v>88</v>
       </c>
       <c r="P135" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29333,7 +29339,7 @@
         <v>0.88</v>
       </c>
       <c r="AP136">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ136">
         <v>0.85</v>
@@ -29461,7 +29467,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q137">
         <v>2.1</v>
@@ -29539,7 +29545,7 @@
         <v>1.29</v>
       </c>
       <c r="AP137">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AQ137">
         <v>1.08</v>
@@ -29667,7 +29673,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29873,7 +29879,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q139">
         <v>2.1</v>
@@ -30491,7 +30497,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q142">
         <v>2.05</v>
@@ -30697,7 +30703,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30903,7 +30909,7 @@
         <v>158</v>
       </c>
       <c r="P144" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q144">
         <v>3.57</v>
@@ -31315,7 +31321,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31727,7 +31733,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q148">
         <v>2.3</v>
@@ -31808,7 +31814,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ148">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR148">
         <v>1.81</v>
@@ -31933,7 +31939,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32345,7 +32351,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q151">
         <v>3.3</v>
@@ -32551,7 +32557,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q152">
         <v>2.05</v>
@@ -32757,7 +32763,7 @@
         <v>119</v>
       </c>
       <c r="P153" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q153">
         <v>2.65</v>
@@ -32963,7 +32969,7 @@
         <v>195</v>
       </c>
       <c r="P154" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q154">
         <v>2.35</v>
@@ -33787,7 +33793,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -33865,7 +33871,7 @@
         <v>1.14</v>
       </c>
       <c r="AP158">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ158">
         <v>1.08</v>
@@ -34405,7 +34411,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q161">
         <v>2.91</v>
@@ -34611,7 +34617,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q162">
         <v>4.28</v>
@@ -34817,7 +34823,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q163">
         <v>3.75</v>
@@ -35023,7 +35029,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q164">
         <v>3.97</v>
@@ -35310,7 +35316,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ165">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR165">
         <v>1.19</v>
@@ -35513,7 +35519,7 @@
         <v>0.89</v>
       </c>
       <c r="AP166">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AQ166">
         <v>0.67</v>
@@ -36259,7 +36265,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36877,7 +36883,7 @@
         <v>95</v>
       </c>
       <c r="P173" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q173">
         <v>2.5</v>
@@ -37495,7 +37501,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37701,7 +37707,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -37907,7 +37913,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q178">
         <v>2.4</v>
@@ -37988,7 +37994,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ178">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR178">
         <v>1.61</v>
@@ -38113,7 +38119,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q179">
         <v>3.98</v>
@@ -38731,7 +38737,7 @@
         <v>179</v>
       </c>
       <c r="P182" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -38809,7 +38815,7 @@
         <v>1.44</v>
       </c>
       <c r="AP182">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ182">
         <v>1.42</v>
@@ -39015,7 +39021,7 @@
         <v>1.1</v>
       </c>
       <c r="AP183">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AQ183">
         <v>0.85</v>
@@ -39349,7 +39355,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q185">
         <v>1.8</v>
@@ -39555,7 +39561,7 @@
         <v>88</v>
       </c>
       <c r="P186" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q186">
         <v>3.7</v>
@@ -39761,7 +39767,7 @@
         <v>214</v>
       </c>
       <c r="P187" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q187">
         <v>2.65</v>
@@ -40173,7 +40179,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q189">
         <v>1.78</v>
@@ -40254,7 +40260,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ189">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR189">
         <v>1.94</v>
@@ -40457,10 +40463,10 @@
         <v>0.5</v>
       </c>
       <c r="AP190">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ190">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR190">
         <v>1.72</v>
@@ -40997,7 +41003,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41409,7 +41415,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -41902,7 +41908,7 @@
         <v>2</v>
       </c>
       <c r="AQ197">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR197">
         <v>1.5</v>
@@ -42027,7 +42033,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -43057,7 +43063,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q203">
         <v>3.2</v>
@@ -43547,7 +43553,7 @@
         <v>1.6</v>
       </c>
       <c r="AP205">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AQ205">
         <v>1.42</v>
@@ -43881,7 +43887,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44087,7 +44093,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q208">
         <v>2.55</v>
@@ -44165,7 +44171,7 @@
         <v>2.18</v>
       </c>
       <c r="AP208">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ208">
         <v>2</v>
@@ -44293,7 +44299,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44911,7 +44917,7 @@
         <v>231</v>
       </c>
       <c r="P212" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q212">
         <v>2.7</v>
@@ -44992,7 +44998,7 @@
         <v>2</v>
       </c>
       <c r="AQ212">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR212">
         <v>1.47</v>
@@ -45117,7 +45123,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -45529,7 +45535,7 @@
         <v>88</v>
       </c>
       <c r="P215" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q215">
         <v>2.6</v>
@@ -45610,7 +45616,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ215">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR215">
         <v>1.08</v>
@@ -45941,7 +45947,7 @@
         <v>88</v>
       </c>
       <c r="P217" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q217">
         <v>4.2</v>
@@ -46559,7 +46565,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q220">
         <v>2.59</v>
@@ -46765,7 +46771,7 @@
         <v>88</v>
       </c>
       <c r="P221" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -46971,7 +46977,7 @@
         <v>213</v>
       </c>
       <c r="P222" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q222">
         <v>3.46</v>
@@ -47383,7 +47389,7 @@
         <v>235</v>
       </c>
       <c r="P224" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q224">
         <v>3.6</v>
@@ -47795,7 +47801,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q226">
         <v>2.35</v>
@@ -47952,6 +47958,418 @@
       </c>
       <c r="BP226">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="227" spans="1:68">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>6469292</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45381.35416666666</v>
+      </c>
+      <c r="F227">
+        <v>26</v>
+      </c>
+      <c r="G227" t="s">
+        <v>73</v>
+      </c>
+      <c r="H227" t="s">
+        <v>79</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+      <c r="N227">
+        <v>2</v>
+      </c>
+      <c r="O227" t="s">
+        <v>238</v>
+      </c>
+      <c r="P227" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q227">
+        <v>1.85</v>
+      </c>
+      <c r="R227">
+        <v>2.4</v>
+      </c>
+      <c r="S227">
+        <v>6.5</v>
+      </c>
+      <c r="T227">
+        <v>1.33</v>
+      </c>
+      <c r="U227">
+        <v>3.05</v>
+      </c>
+      <c r="V227">
+        <v>2.55</v>
+      </c>
+      <c r="W227">
+        <v>1.45</v>
+      </c>
+      <c r="X227">
+        <v>5.95</v>
+      </c>
+      <c r="Y227">
+        <v>1.1</v>
+      </c>
+      <c r="Z227">
+        <v>1.35</v>
+      </c>
+      <c r="AA227">
+        <v>4.6</v>
+      </c>
+      <c r="AB227">
+        <v>7</v>
+      </c>
+      <c r="AC227">
+        <v>1.04</v>
+      </c>
+      <c r="AD227">
+        <v>10</v>
+      </c>
+      <c r="AE227">
+        <v>1.22</v>
+      </c>
+      <c r="AF227">
+        <v>4</v>
+      </c>
+      <c r="AG227">
+        <v>1.75</v>
+      </c>
+      <c r="AH227">
+        <v>2.04</v>
+      </c>
+      <c r="AI227">
+        <v>2.05</v>
+      </c>
+      <c r="AJ227">
+        <v>1.75</v>
+      </c>
+      <c r="AK227">
+        <v>1.04</v>
+      </c>
+      <c r="AL227">
+        <v>1.14</v>
+      </c>
+      <c r="AM227">
+        <v>3</v>
+      </c>
+      <c r="AN227">
+        <v>2.5</v>
+      </c>
+      <c r="AO227">
+        <v>0.5</v>
+      </c>
+      <c r="AP227">
+        <v>2.38</v>
+      </c>
+      <c r="AQ227">
+        <v>0.54</v>
+      </c>
+      <c r="AR227">
+        <v>1.74</v>
+      </c>
+      <c r="AS227">
+        <v>1.12</v>
+      </c>
+      <c r="AT227">
+        <v>2.86</v>
+      </c>
+      <c r="AU227">
+        <v>4</v>
+      </c>
+      <c r="AV227">
+        <v>3</v>
+      </c>
+      <c r="AW227">
+        <v>7</v>
+      </c>
+      <c r="AX227">
+        <v>2</v>
+      </c>
+      <c r="AY227">
+        <v>11</v>
+      </c>
+      <c r="AZ227">
+        <v>5</v>
+      </c>
+      <c r="BA227">
+        <v>3</v>
+      </c>
+      <c r="BB227">
+        <v>3</v>
+      </c>
+      <c r="BC227">
+        <v>6</v>
+      </c>
+      <c r="BD227">
+        <v>1.21</v>
+      </c>
+      <c r="BE227">
+        <v>11</v>
+      </c>
+      <c r="BF227">
+        <v>5.6</v>
+      </c>
+      <c r="BG227">
+        <v>1.23</v>
+      </c>
+      <c r="BH227">
+        <v>3.5</v>
+      </c>
+      <c r="BI227">
+        <v>1.43</v>
+      </c>
+      <c r="BJ227">
+        <v>2.48</v>
+      </c>
+      <c r="BK227">
+        <v>1.82</v>
+      </c>
+      <c r="BL227">
+        <v>1.98</v>
+      </c>
+      <c r="BM227">
+        <v>2.1</v>
+      </c>
+      <c r="BN227">
+        <v>1.7</v>
+      </c>
+      <c r="BO227">
+        <v>3</v>
+      </c>
+      <c r="BP227">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:68">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>6469288</v>
+      </c>
+      <c r="C228" t="s">
+        <v>68</v>
+      </c>
+      <c r="D228" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45381.45833333334</v>
+      </c>
+      <c r="F228">
+        <v>26</v>
+      </c>
+      <c r="G228" t="s">
+        <v>80</v>
+      </c>
+      <c r="H228" t="s">
+        <v>84</v>
+      </c>
+      <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>2</v>
+      </c>
+      <c r="L228">
+        <v>6</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>6</v>
+      </c>
+      <c r="O228" t="s">
+        <v>239</v>
+      </c>
+      <c r="P228" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q228">
+        <v>1.83</v>
+      </c>
+      <c r="R228">
+        <v>2.45</v>
+      </c>
+      <c r="S228">
+        <v>6</v>
+      </c>
+      <c r="T228">
+        <v>1.28</v>
+      </c>
+      <c r="U228">
+        <v>3.3</v>
+      </c>
+      <c r="V228">
+        <v>2.38</v>
+      </c>
+      <c r="W228">
+        <v>1.53</v>
+      </c>
+      <c r="X228">
+        <v>5.25</v>
+      </c>
+      <c r="Y228">
+        <v>1.12</v>
+      </c>
+      <c r="Z228">
+        <v>1.37</v>
+      </c>
+      <c r="AA228">
+        <v>4.65</v>
+      </c>
+      <c r="AB228">
+        <v>6.4</v>
+      </c>
+      <c r="AC228">
+        <v>1.03</v>
+      </c>
+      <c r="AD228">
+        <v>11</v>
+      </c>
+      <c r="AE228">
+        <v>1.2</v>
+      </c>
+      <c r="AF228">
+        <v>4.5</v>
+      </c>
+      <c r="AG228">
+        <v>1.61</v>
+      </c>
+      <c r="AH228">
+        <v>2.25</v>
+      </c>
+      <c r="AI228">
+        <v>1.85</v>
+      </c>
+      <c r="AJ228">
+        <v>1.85</v>
+      </c>
+      <c r="AK228">
+        <v>1.09</v>
+      </c>
+      <c r="AL228">
+        <v>1.13</v>
+      </c>
+      <c r="AM228">
+        <v>2.9</v>
+      </c>
+      <c r="AN228">
+        <v>2.42</v>
+      </c>
+      <c r="AO228">
+        <v>0.25</v>
+      </c>
+      <c r="AP228">
+        <v>2.46</v>
+      </c>
+      <c r="AQ228">
+        <v>0.23</v>
+      </c>
+      <c r="AR228">
+        <v>1.73</v>
+      </c>
+      <c r="AS228">
+        <v>1.17</v>
+      </c>
+      <c r="AT228">
+        <v>2.9</v>
+      </c>
+      <c r="AU228">
+        <v>10</v>
+      </c>
+      <c r="AV228">
+        <v>3</v>
+      </c>
+      <c r="AW228">
+        <v>22</v>
+      </c>
+      <c r="AX228">
+        <v>3</v>
+      </c>
+      <c r="AY228">
+        <v>32</v>
+      </c>
+      <c r="AZ228">
+        <v>6</v>
+      </c>
+      <c r="BA228">
+        <v>12</v>
+      </c>
+      <c r="BB228">
+        <v>2</v>
+      </c>
+      <c r="BC228">
+        <v>14</v>
+      </c>
+      <c r="BD228">
+        <v>1.45</v>
+      </c>
+      <c r="BE228">
+        <v>8.5</v>
+      </c>
+      <c r="BF228">
+        <v>3.29</v>
+      </c>
+      <c r="BG228">
+        <v>1.22</v>
+      </c>
+      <c r="BH228">
+        <v>3.8</v>
+      </c>
+      <c r="BI228">
+        <v>1.31</v>
+      </c>
+      <c r="BJ228">
+        <v>3.04</v>
+      </c>
+      <c r="BK228">
+        <v>1.88</v>
+      </c>
+      <c r="BL228">
+        <v>1.92</v>
+      </c>
+      <c r="BM228">
+        <v>1.98</v>
+      </c>
+      <c r="BN228">
+        <v>1.82</v>
+      </c>
+      <c r="BO228">
+        <v>2.52</v>
+      </c>
+      <c r="BP228">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="344">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -736,6 +736,12 @@
     <t>['12', '41', '64', '70', '77', '83']</t>
   </si>
   <si>
+    <t>['54', '86']</t>
+  </si>
+  <si>
+    <t>['1', '15', '87']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -1037,6 +1043,9 @@
   </si>
   <si>
     <t>['33']</t>
+  </si>
+  <si>
+    <t>['62', '68']</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP228"/>
+  <dimension ref="A1:BP230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1657,7 +1666,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q2">
         <v>4.33</v>
@@ -2069,7 +2078,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2150,7 +2159,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2481,7 +2490,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2559,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ6">
         <v>1.42</v>
@@ -2687,7 +2696,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2893,7 +2902,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q8">
         <v>2.38</v>
@@ -3099,7 +3108,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3305,7 +3314,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q10">
         <v>3.2</v>
@@ -3386,7 +3395,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3923,7 +3932,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q13">
         <v>2.53</v>
@@ -4129,7 +4138,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4747,7 +4756,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q17">
         <v>2.21</v>
@@ -4825,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ17">
         <v>0.85</v>
@@ -4953,7 +4962,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5365,7 +5374,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q20">
         <v>1.82</v>
@@ -5858,7 +5867,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ22">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5983,7 +5992,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6807,7 +6816,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q27">
         <v>4.2</v>
@@ -6885,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27">
         <v>1.08</v>
@@ -7094,7 +7103,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR28">
         <v>1.13</v>
@@ -7219,7 +7228,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q29">
         <v>2.95</v>
@@ -7631,7 +7640,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q31">
         <v>2.3</v>
@@ -7709,7 +7718,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ31">
         <v>1.42</v>
@@ -7837,7 +7846,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8043,7 +8052,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q33">
         <v>2.6</v>
@@ -8455,7 +8464,7 @@
         <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8661,7 +8670,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -10309,7 +10318,7 @@
         <v>88</v>
       </c>
       <c r="P44" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q44">
         <v>2.7</v>
@@ -10390,7 +10399,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR44">
         <v>1.54</v>
@@ -10596,7 +10605,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ45">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.2</v>
@@ -10721,7 +10730,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -11005,7 +11014,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ47">
         <v>0.54</v>
@@ -11339,7 +11348,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11545,7 +11554,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q50">
         <v>2.15</v>
@@ -11623,10 +11632,10 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR50">
         <v>1.89</v>
@@ -11751,7 +11760,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -12781,7 +12790,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -13605,7 +13614,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13686,7 +13695,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR60">
         <v>1.22</v>
@@ -14017,7 +14026,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14095,7 +14104,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ62">
         <v>0.67</v>
@@ -14507,7 +14516,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ64">
         <v>1.33</v>
@@ -14635,7 +14644,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14922,7 +14931,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ66">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.58</v>
@@ -15047,7 +15056,7 @@
         <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q67">
         <v>4.75</v>
@@ -15253,7 +15262,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15459,7 +15468,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15665,7 +15674,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -16283,7 +16292,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16489,7 +16498,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q74">
         <v>1.75</v>
@@ -16901,7 +16910,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17107,7 +17116,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q77">
         <v>2.04</v>
@@ -17313,7 +17322,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q78">
         <v>3.05</v>
@@ -17391,7 +17400,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ78">
         <v>1.33</v>
@@ -17725,7 +17734,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17931,7 +17940,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18009,7 +18018,7 @@
         <v>0.4</v>
       </c>
       <c r="AP81">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ81">
         <v>0.85</v>
@@ -18137,7 +18146,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q82">
         <v>3.3</v>
@@ -18218,7 +18227,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ82">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.3</v>
@@ -18343,7 +18352,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18630,7 +18639,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ84">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR84">
         <v>0.98</v>
@@ -19039,7 +19048,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ86">
         <v>1.42</v>
@@ -19373,7 +19382,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19785,7 +19794,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q90">
         <v>1.73</v>
@@ -20609,7 +20618,7 @@
         <v>88</v>
       </c>
       <c r="P94" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -21021,7 +21030,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21227,7 +21236,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21511,7 +21520,7 @@
         <v>1.8</v>
       </c>
       <c r="AP98">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ98">
         <v>1.85</v>
@@ -21845,7 +21854,7 @@
         <v>105</v>
       </c>
       <c r="P100" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21926,7 +21935,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ100">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR100">
         <v>1.27</v>
@@ -22257,7 +22266,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22875,7 +22884,7 @@
         <v>88</v>
       </c>
       <c r="P105" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q105">
         <v>3.4</v>
@@ -23081,7 +23090,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q106">
         <v>1.7</v>
@@ -23287,7 +23296,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23493,7 +23502,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q108">
         <v>3.2</v>
@@ -23699,7 +23708,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23905,7 +23914,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -23983,7 +23992,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ110">
         <v>1.46</v>
@@ -24317,7 +24326,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q112">
         <v>3.3</v>
@@ -24398,7 +24407,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ112">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR112">
         <v>1.57</v>
@@ -24523,7 +24532,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q113">
         <v>2.9</v>
@@ -24729,7 +24738,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q114">
         <v>1.85</v>
@@ -25219,7 +25228,7 @@
         <v>0.83</v>
       </c>
       <c r="AP116">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ116">
         <v>0.67</v>
@@ -25553,7 +25562,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q118">
         <v>4.33</v>
@@ -26583,7 +26592,7 @@
         <v>88</v>
       </c>
       <c r="P123" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26870,7 +26879,7 @@
         <v>2</v>
       </c>
       <c r="AQ124">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR124">
         <v>1.35</v>
@@ -26995,7 +27004,7 @@
         <v>88</v>
       </c>
       <c r="P125" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q125">
         <v>2.5</v>
@@ -27201,7 +27210,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27282,7 +27291,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ126">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR126">
         <v>1.73</v>
@@ -27407,7 +27416,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27613,7 +27622,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27819,7 +27828,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q129">
         <v>3.3</v>
@@ -28025,7 +28034,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q130">
         <v>3.5</v>
@@ -28309,7 +28318,7 @@
         <v>1.2</v>
       </c>
       <c r="AP131">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ131">
         <v>1.08</v>
@@ -28849,7 +28858,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q134">
         <v>2.63</v>
@@ -29055,7 +29064,7 @@
         <v>88</v>
       </c>
       <c r="P135" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29467,7 +29476,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q137">
         <v>2.1</v>
@@ -29548,7 +29557,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ137">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR137">
         <v>1.71</v>
@@ -29673,7 +29682,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29751,7 +29760,7 @@
         <v>0.57</v>
       </c>
       <c r="AP138">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ138">
         <v>0.92</v>
@@ -29879,7 +29888,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q139">
         <v>2.1</v>
@@ -30497,7 +30506,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q142">
         <v>2.05</v>
@@ -30703,7 +30712,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30784,7 +30793,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ143">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR143">
         <v>1.65</v>
@@ -30909,7 +30918,7 @@
         <v>158</v>
       </c>
       <c r="P144" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q144">
         <v>3.57</v>
@@ -31321,7 +31330,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31733,7 +31742,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q148">
         <v>2.3</v>
@@ -31939,7 +31948,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32351,7 +32360,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q151">
         <v>3.3</v>
@@ -32557,7 +32566,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q152">
         <v>2.05</v>
@@ -32635,7 +32644,7 @@
         <v>1.5</v>
       </c>
       <c r="AP152">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ152">
         <v>1.31</v>
@@ -32763,7 +32772,7 @@
         <v>119</v>
       </c>
       <c r="P153" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q153">
         <v>2.65</v>
@@ -32969,7 +32978,7 @@
         <v>195</v>
       </c>
       <c r="P154" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q154">
         <v>2.35</v>
@@ -33793,7 +33802,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -34411,7 +34420,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q161">
         <v>2.91</v>
@@ -34492,7 +34501,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ161">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR161">
         <v>1.76</v>
@@ -34617,7 +34626,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q162">
         <v>4.28</v>
@@ -34823,7 +34832,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q163">
         <v>3.75</v>
@@ -35029,7 +35038,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q164">
         <v>3.97</v>
@@ -35728,7 +35737,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ167">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR167">
         <v>2.01</v>
@@ -35931,7 +35940,7 @@
         <v>0.89</v>
       </c>
       <c r="AP168">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ168">
         <v>0.92</v>
@@ -36265,7 +36274,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36883,7 +36892,7 @@
         <v>95</v>
       </c>
       <c r="P173" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q173">
         <v>2.5</v>
@@ -36961,7 +36970,7 @@
         <v>0.9</v>
       </c>
       <c r="AP173">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ173">
         <v>1.15</v>
@@ -37501,7 +37510,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37707,7 +37716,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -37913,7 +37922,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q178">
         <v>2.4</v>
@@ -38119,7 +38128,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q179">
         <v>3.98</v>
@@ -38737,7 +38746,7 @@
         <v>179</v>
       </c>
       <c r="P182" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -39230,7 +39239,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ184">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR184">
         <v>1.81</v>
@@ -39355,7 +39364,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q185">
         <v>1.8</v>
@@ -39561,7 +39570,7 @@
         <v>88</v>
       </c>
       <c r="P186" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q186">
         <v>3.7</v>
@@ -39767,7 +39776,7 @@
         <v>214</v>
       </c>
       <c r="P187" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q187">
         <v>2.65</v>
@@ -40051,10 +40060,10 @@
         <v>1.1</v>
       </c>
       <c r="AP188">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ188">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR188">
         <v>1.61</v>
@@ -40179,7 +40188,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q189">
         <v>1.78</v>
@@ -40257,7 +40266,7 @@
         <v>0</v>
       </c>
       <c r="AP189">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ189">
         <v>0.23</v>
@@ -40672,7 +40681,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ191">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR191">
         <v>1.69</v>
@@ -41003,7 +41012,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41415,7 +41424,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -42033,7 +42042,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -43063,7 +43072,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q203">
         <v>3.2</v>
@@ -43887,7 +43896,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -43965,7 +43974,7 @@
         <v>1.27</v>
       </c>
       <c r="AP207">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ207">
         <v>1.42</v>
@@ -44093,7 +44102,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q208">
         <v>2.55</v>
@@ -44174,7 +44183,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ208">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR208">
         <v>1.69</v>
@@ -44299,7 +44308,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44380,7 +44389,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ209">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR209">
         <v>1.61</v>
@@ -44917,7 +44926,7 @@
         <v>231</v>
       </c>
       <c r="P212" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q212">
         <v>2.7</v>
@@ -45123,7 +45132,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -45201,7 +45210,7 @@
         <v>1</v>
       </c>
       <c r="AP213">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ213">
         <v>1.17</v>
@@ -45535,7 +45544,7 @@
         <v>88</v>
       </c>
       <c r="P215" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q215">
         <v>2.6</v>
@@ -45819,7 +45828,7 @@
         <v>0.45</v>
       </c>
       <c r="AP216">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ216">
         <v>0.46</v>
@@ -45947,7 +45956,7 @@
         <v>88</v>
       </c>
       <c r="P217" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q217">
         <v>4.2</v>
@@ -46565,7 +46574,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q220">
         <v>2.59</v>
@@ -46771,7 +46780,7 @@
         <v>88</v>
       </c>
       <c r="P221" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -46977,7 +46986,7 @@
         <v>213</v>
       </c>
       <c r="P222" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q222">
         <v>3.46</v>
@@ -47389,7 +47398,7 @@
         <v>235</v>
       </c>
       <c r="P224" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q224">
         <v>3.6</v>
@@ -47801,7 +47810,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q226">
         <v>2.35</v>
@@ -48007,7 +48016,7 @@
         <v>238</v>
       </c>
       <c r="P227" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q227">
         <v>1.85</v>
@@ -48312,16 +48321,16 @@
         <v>3</v>
       </c>
       <c r="AW228">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AX228">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY228">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AZ228">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA228">
         <v>12</v>
@@ -48370,6 +48379,418 @@
       </c>
       <c r="BP228">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:68">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>6469289</v>
+      </c>
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45381.5625</v>
+      </c>
+      <c r="F229">
+        <v>26</v>
+      </c>
+      <c r="G229" t="s">
+        <v>74</v>
+      </c>
+      <c r="H229" t="s">
+        <v>81</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>2</v>
+      </c>
+      <c r="M229">
+        <v>2</v>
+      </c>
+      <c r="N229">
+        <v>4</v>
+      </c>
+      <c r="O229" t="s">
+        <v>240</v>
+      </c>
+      <c r="P229" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q229">
+        <v>2.8</v>
+      </c>
+      <c r="R229">
+        <v>1.85</v>
+      </c>
+      <c r="S229">
+        <v>4.5</v>
+      </c>
+      <c r="T229">
+        <v>1.6</v>
+      </c>
+      <c r="U229">
+        <v>2.2</v>
+      </c>
+      <c r="V229">
+        <v>3.65</v>
+      </c>
+      <c r="W229">
+        <v>1.25</v>
+      </c>
+      <c r="X229">
+        <v>9.9</v>
+      </c>
+      <c r="Y229">
+        <v>1.03</v>
+      </c>
+      <c r="Z229">
+        <v>2.07</v>
+      </c>
+      <c r="AA229">
+        <v>3.1</v>
+      </c>
+      <c r="AB229">
+        <v>3.55</v>
+      </c>
+      <c r="AC229">
+        <v>1.11</v>
+      </c>
+      <c r="AD229">
+        <v>6.25</v>
+      </c>
+      <c r="AE229">
+        <v>1.49</v>
+      </c>
+      <c r="AF229">
+        <v>2.44</v>
+      </c>
+      <c r="AG229">
+        <v>2.55</v>
+      </c>
+      <c r="AH229">
+        <v>1.45</v>
+      </c>
+      <c r="AI229">
+        <v>2.1</v>
+      </c>
+      <c r="AJ229">
+        <v>1.65</v>
+      </c>
+      <c r="AK229">
+        <v>1.25</v>
+      </c>
+      <c r="AL229">
+        <v>1.33</v>
+      </c>
+      <c r="AM229">
+        <v>1.7</v>
+      </c>
+      <c r="AN229">
+        <v>1.42</v>
+      </c>
+      <c r="AO229">
+        <v>2</v>
+      </c>
+      <c r="AP229">
+        <v>1.38</v>
+      </c>
+      <c r="AQ229">
+        <v>1.92</v>
+      </c>
+      <c r="AR229">
+        <v>1.47</v>
+      </c>
+      <c r="AS229">
+        <v>1.19</v>
+      </c>
+      <c r="AT229">
+        <v>2.66</v>
+      </c>
+      <c r="AU229">
+        <v>4</v>
+      </c>
+      <c r="AV229">
+        <v>5</v>
+      </c>
+      <c r="AW229">
+        <v>5</v>
+      </c>
+      <c r="AX229">
+        <v>3</v>
+      </c>
+      <c r="AY229">
+        <v>9</v>
+      </c>
+      <c r="AZ229">
+        <v>8</v>
+      </c>
+      <c r="BA229">
+        <v>14</v>
+      </c>
+      <c r="BB229">
+        <v>1</v>
+      </c>
+      <c r="BC229">
+        <v>15</v>
+      </c>
+      <c r="BD229">
+        <v>1.45</v>
+      </c>
+      <c r="BE229">
+        <v>8.5</v>
+      </c>
+      <c r="BF229">
+        <v>3.29</v>
+      </c>
+      <c r="BG229">
+        <v>1.45</v>
+      </c>
+      <c r="BH229">
+        <v>2.68</v>
+      </c>
+      <c r="BI229">
+        <v>1.79</v>
+      </c>
+      <c r="BJ229">
+        <v>2.02</v>
+      </c>
+      <c r="BK229">
+        <v>2.27</v>
+      </c>
+      <c r="BL229">
+        <v>1.61</v>
+      </c>
+      <c r="BM229">
+        <v>2.95</v>
+      </c>
+      <c r="BN229">
+        <v>1.32</v>
+      </c>
+      <c r="BO229">
+        <v>4.1</v>
+      </c>
+      <c r="BP229">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="230" spans="1:68">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>6469290</v>
+      </c>
+      <c r="C230" t="s">
+        <v>68</v>
+      </c>
+      <c r="D230" t="s">
+        <v>69</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45381.66666666666</v>
+      </c>
+      <c r="F230">
+        <v>26</v>
+      </c>
+      <c r="G230" t="s">
+        <v>83</v>
+      </c>
+      <c r="H230" t="s">
+        <v>87</v>
+      </c>
+      <c r="I230">
+        <v>2</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+      <c r="K230">
+        <v>3</v>
+      </c>
+      <c r="L230">
+        <v>3</v>
+      </c>
+      <c r="M230">
+        <v>1</v>
+      </c>
+      <c r="N230">
+        <v>4</v>
+      </c>
+      <c r="O230" t="s">
+        <v>241</v>
+      </c>
+      <c r="P230" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q230">
+        <v>2.45</v>
+      </c>
+      <c r="R230">
+        <v>2.15</v>
+      </c>
+      <c r="S230">
+        <v>4</v>
+      </c>
+      <c r="T230">
+        <v>1.35</v>
+      </c>
+      <c r="U230">
+        <v>2.95</v>
+      </c>
+      <c r="V230">
+        <v>2.55</v>
+      </c>
+      <c r="W230">
+        <v>1.45</v>
+      </c>
+      <c r="X230">
+        <v>5.75</v>
+      </c>
+      <c r="Y230">
+        <v>1.1</v>
+      </c>
+      <c r="Z230">
+        <v>1.94</v>
+      </c>
+      <c r="AA230">
+        <v>3.6</v>
+      </c>
+      <c r="AB230">
+        <v>3.5</v>
+      </c>
+      <c r="AC230">
+        <v>1.05</v>
+      </c>
+      <c r="AD230">
+        <v>9.5</v>
+      </c>
+      <c r="AE230">
+        <v>1.25</v>
+      </c>
+      <c r="AF230">
+        <v>3.8</v>
+      </c>
+      <c r="AG230">
+        <v>1.75</v>
+      </c>
+      <c r="AH230">
+        <v>1.95</v>
+      </c>
+      <c r="AI230">
+        <v>1.65</v>
+      </c>
+      <c r="AJ230">
+        <v>2.1</v>
+      </c>
+      <c r="AK230">
+        <v>1.25</v>
+      </c>
+      <c r="AL230">
+        <v>1.22</v>
+      </c>
+      <c r="AM230">
+        <v>1.83</v>
+      </c>
+      <c r="AN230">
+        <v>1.42</v>
+      </c>
+      <c r="AO230">
+        <v>1.08</v>
+      </c>
+      <c r="AP230">
+        <v>1.54</v>
+      </c>
+      <c r="AQ230">
+        <v>1</v>
+      </c>
+      <c r="AR230">
+        <v>1.87</v>
+      </c>
+      <c r="AS230">
+        <v>1.37</v>
+      </c>
+      <c r="AT230">
+        <v>3.24</v>
+      </c>
+      <c r="AU230">
+        <v>4</v>
+      </c>
+      <c r="AV230">
+        <v>3</v>
+      </c>
+      <c r="AW230">
+        <v>5</v>
+      </c>
+      <c r="AX230">
+        <v>7</v>
+      </c>
+      <c r="AY230">
+        <v>9</v>
+      </c>
+      <c r="AZ230">
+        <v>10</v>
+      </c>
+      <c r="BA230">
+        <v>1</v>
+      </c>
+      <c r="BB230">
+        <v>6</v>
+      </c>
+      <c r="BC230">
+        <v>7</v>
+      </c>
+      <c r="BD230">
+        <v>1.51</v>
+      </c>
+      <c r="BE230">
+        <v>8.5</v>
+      </c>
+      <c r="BF230">
+        <v>3.07</v>
+      </c>
+      <c r="BG230">
+        <v>1.19</v>
+      </c>
+      <c r="BH230">
+        <v>3.9</v>
+      </c>
+      <c r="BI230">
+        <v>1.36</v>
+      </c>
+      <c r="BJ230">
+        <v>2.75</v>
+      </c>
+      <c r="BK230">
+        <v>1.59</v>
+      </c>
+      <c r="BL230">
+        <v>2.29</v>
+      </c>
+      <c r="BM230">
+        <v>1.97</v>
+      </c>
+      <c r="BN230">
+        <v>1.83</v>
+      </c>
+      <c r="BO230">
+        <v>2.49</v>
+      </c>
+      <c r="BP230">
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="346">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -742,6 +742,15 @@
     <t>['1', '15', '87']</t>
   </si>
   <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['45+1', '56', '86']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -767,9 +776,6 @@
   </si>
   <si>
     <t>['53', '57']</t>
-  </si>
-  <si>
-    <t>['4']</t>
   </si>
   <si>
     <t>['5', '57']</t>
@@ -809,9 +815,6 @@
   </si>
   <si>
     <t>['10', '62']</t>
-  </si>
-  <si>
-    <t>['61']</t>
   </si>
   <si>
     <t>['82', '89', '90+5']</t>
@@ -1046,6 +1049,9 @@
   </si>
   <si>
     <t>['62', '68']</t>
+  </si>
+  <si>
+    <t>['42', '68', '75']</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP230"/>
+  <dimension ref="A1:BP234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1666,7 +1672,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q2">
         <v>4.33</v>
@@ -2078,7 +2084,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2156,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2490,7 +2496,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2571,7 +2577,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ6">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2696,7 +2702,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2774,10 +2780,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ7">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2902,7 +2908,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q8">
         <v>2.38</v>
@@ -3108,7 +3114,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3186,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ9">
         <v>0.46</v>
@@ -3314,7 +3320,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q10">
         <v>3.2</v>
@@ -3932,7 +3938,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q13">
         <v>2.53</v>
@@ -4138,7 +4144,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4422,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ15">
         <v>0.85</v>
@@ -4631,7 +4637,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ16">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4756,7 +4762,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="Q17">
         <v>2.21</v>
@@ -4962,7 +4968,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5249,7 +5255,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ19">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5374,7 +5380,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q20">
         <v>1.82</v>
@@ -5658,7 +5664,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ21">
         <v>0.85</v>
@@ -5992,7 +5998,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6073,7 +6079,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ23">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR23">
         <v>1.73</v>
@@ -6482,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ25">
         <v>0.92</v>
@@ -6816,7 +6822,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q27">
         <v>4.2</v>
@@ -7100,7 +7106,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ28">
         <v>1.92</v>
@@ -7228,7 +7234,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q29">
         <v>2.95</v>
@@ -7512,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ30">
         <v>0.23</v>
@@ -7640,7 +7646,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q31">
         <v>2.3</v>
@@ -7721,7 +7727,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ31">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR31">
         <v>2.3</v>
@@ -7846,7 +7852,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7924,10 +7930,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR32">
         <v>0.98</v>
@@ -8052,7 +8058,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q33">
         <v>2.6</v>
@@ -8464,7 +8470,7 @@
         <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8542,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ35">
         <v>0.85</v>
@@ -8670,7 +8676,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -9575,7 +9581,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ40">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR40">
         <v>2.09</v>
@@ -9781,7 +9787,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ41">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR41">
         <v>2.18</v>
@@ -10190,10 +10196,10 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ43">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR43">
         <v>1.27</v>
@@ -10318,7 +10324,7 @@
         <v>88</v>
       </c>
       <c r="P44" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q44">
         <v>2.7</v>
@@ -10396,7 +10402,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ44">
         <v>1.92</v>
@@ -10730,7 +10736,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10808,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ46">
         <v>0.23</v>
@@ -11348,7 +11354,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11554,7 +11560,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q50">
         <v>2.15</v>
@@ -11760,7 +11766,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -12459,7 +12465,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ54">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR54">
         <v>1.7</v>
@@ -12790,7 +12796,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -13614,7 +13620,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13692,7 +13698,7 @@
         <v>1.75</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ60">
         <v>1.92</v>
@@ -13898,7 +13904,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ61">
         <v>0.54</v>
@@ -14026,7 +14032,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14107,7 +14113,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ62">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR62">
         <v>1.74</v>
@@ -14519,7 +14525,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ64">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR64">
         <v>1.89</v>
@@ -14644,7 +14650,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14725,7 +14731,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ65">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR65">
         <v>1.69</v>
@@ -14928,7 +14934,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -15056,7 +15062,7 @@
         <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q67">
         <v>4.75</v>
@@ -15137,7 +15143,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ67">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR67">
         <v>1.03</v>
@@ -15262,7 +15268,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15340,7 +15346,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ68">
         <v>1.17</v>
@@ -15468,7 +15474,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15674,7 +15680,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -16292,7 +16298,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16498,7 +16504,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q74">
         <v>1.75</v>
@@ -16910,7 +16916,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17116,7 +17122,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q77">
         <v>2.04</v>
@@ -17322,7 +17328,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q78">
         <v>3.05</v>
@@ -17403,7 +17409,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ78">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR78">
         <v>1.85</v>
@@ -17734,7 +17740,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17812,10 +17818,10 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ80">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR80">
         <v>1.31</v>
@@ -17940,7 +17946,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18146,7 +18152,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q82">
         <v>3.3</v>
@@ -18352,7 +18358,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18430,7 +18436,7 @@
         <v>0.4</v>
       </c>
       <c r="AP83">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ83">
         <v>0.54</v>
@@ -18845,7 +18851,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ85">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR85">
         <v>1.59</v>
@@ -19051,7 +19057,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ86">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR86">
         <v>1.8</v>
@@ -19257,7 +19263,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ87">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR87">
         <v>1.69</v>
@@ -19382,7 +19388,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19460,7 +19466,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ88">
         <v>1.17</v>
@@ -19794,7 +19800,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="Q90">
         <v>1.73</v>
@@ -20284,7 +20290,7 @@
         <v>0.25</v>
       </c>
       <c r="AP92">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ92">
         <v>0.92</v>
@@ -20618,7 +20624,7 @@
         <v>88</v>
       </c>
       <c r="P94" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -21030,7 +21036,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21236,7 +21242,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21854,7 +21860,7 @@
         <v>105</v>
       </c>
       <c r="P100" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21932,7 +21938,7 @@
         <v>1.6</v>
       </c>
       <c r="AP100">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ100">
         <v>1</v>
@@ -22141,7 +22147,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ101">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR101">
         <v>1.7</v>
@@ -22266,7 +22272,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22553,7 +22559,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ103">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR103">
         <v>1.8</v>
@@ -22756,7 +22762,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ104">
         <v>1.08</v>
@@ -22884,7 +22890,7 @@
         <v>88</v>
       </c>
       <c r="P105" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q105">
         <v>3.4</v>
@@ -22962,7 +22968,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ105">
         <v>1.31</v>
@@ -23090,7 +23096,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q106">
         <v>1.7</v>
@@ -23296,7 +23302,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23502,7 +23508,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q108">
         <v>3.2</v>
@@ -23708,7 +23714,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23914,7 +23920,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -24201,7 +24207,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ111">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR111">
         <v>1.68</v>
@@ -24326,7 +24332,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q112">
         <v>3.3</v>
@@ -24532,7 +24538,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q113">
         <v>2.9</v>
@@ -24613,7 +24619,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ113">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR113">
         <v>1.72</v>
@@ -24738,7 +24744,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q114">
         <v>1.85</v>
@@ -25231,7 +25237,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ116">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR116">
         <v>1.61</v>
@@ -25562,7 +25568,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q118">
         <v>4.33</v>
@@ -25640,7 +25646,7 @@
         <v>1.67</v>
       </c>
       <c r="AP118">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ118">
         <v>1.85</v>
@@ -25846,7 +25852,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ119">
         <v>1.31</v>
@@ -26592,7 +26598,7 @@
         <v>88</v>
       </c>
       <c r="P123" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26673,7 +26679,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ123">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR123">
         <v>1.78</v>
@@ -26876,7 +26882,7 @@
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ124">
         <v>1</v>
@@ -27004,7 +27010,7 @@
         <v>88</v>
       </c>
       <c r="P125" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q125">
         <v>2.5</v>
@@ -27210,7 +27216,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27416,7 +27422,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27622,7 +27628,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27828,7 +27834,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q129">
         <v>3.3</v>
@@ -28034,7 +28040,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q130">
         <v>3.5</v>
@@ -28112,7 +28118,7 @@
         <v>1.14</v>
       </c>
       <c r="AP130">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ130">
         <v>1.15</v>
@@ -28527,7 +28533,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ132">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR132">
         <v>2.15</v>
@@ -28733,7 +28739,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ133">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR133">
         <v>1.55</v>
@@ -28858,7 +28864,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q134">
         <v>2.63</v>
@@ -28936,7 +28942,7 @@
         <v>0.43</v>
       </c>
       <c r="AP134">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ134">
         <v>0.54</v>
@@ -29064,7 +29070,7 @@
         <v>88</v>
       </c>
       <c r="P135" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29476,7 +29482,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q137">
         <v>2.1</v>
@@ -29682,7 +29688,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29888,7 +29894,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q139">
         <v>2.1</v>
@@ -30172,7 +30178,7 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ140">
         <v>1.15</v>
@@ -30381,7 +30387,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ141">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR141">
         <v>1.51</v>
@@ -30506,7 +30512,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q142">
         <v>2.05</v>
@@ -30712,7 +30718,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30918,7 +30924,7 @@
         <v>158</v>
       </c>
       <c r="P144" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q144">
         <v>3.57</v>
@@ -31202,7 +31208,7 @@
         <v>1.86</v>
       </c>
       <c r="AP145">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ145">
         <v>1.85</v>
@@ -31330,7 +31336,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31408,10 +31414,10 @@
         <v>1.25</v>
       </c>
       <c r="AP146">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ146">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR146">
         <v>1.87</v>
@@ -31617,7 +31623,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ147">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR147">
         <v>1.68</v>
@@ -31742,7 +31748,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q148">
         <v>2.3</v>
@@ -31948,7 +31954,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32029,7 +32035,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ149">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR149">
         <v>1.84</v>
@@ -32360,7 +32366,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q151">
         <v>3.3</v>
@@ -32566,7 +32572,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q152">
         <v>2.05</v>
@@ -32772,7 +32778,7 @@
         <v>119</v>
       </c>
       <c r="P153" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q153">
         <v>2.65</v>
@@ -32978,7 +32984,7 @@
         <v>195</v>
       </c>
       <c r="P154" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q154">
         <v>2.35</v>
@@ -33265,7 +33271,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ155">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR155">
         <v>1.61</v>
@@ -33677,7 +33683,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ157">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR157">
         <v>1.22</v>
@@ -33802,7 +33808,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -34086,7 +34092,7 @@
         <v>0.78</v>
       </c>
       <c r="AP159">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ159">
         <v>0.85</v>
@@ -34292,7 +34298,7 @@
         <v>1.44</v>
       </c>
       <c r="AP160">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ160">
         <v>1.31</v>
@@ -34420,7 +34426,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q161">
         <v>2.91</v>
@@ -34626,7 +34632,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q162">
         <v>4.28</v>
@@ -34704,7 +34710,7 @@
         <v>1.33</v>
       </c>
       <c r="AP162">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ162">
         <v>1.46</v>
@@ -34832,7 +34838,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q163">
         <v>3.75</v>
@@ -34910,7 +34916,7 @@
         <v>1.63</v>
       </c>
       <c r="AP163">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ163">
         <v>1.85</v>
@@ -35038,7 +35044,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q164">
         <v>3.97</v>
@@ -35119,7 +35125,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ164">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR164">
         <v>1.63</v>
@@ -35531,7 +35537,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ166">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR166">
         <v>1.74</v>
@@ -36149,7 +36155,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ169">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR169">
         <v>1.91</v>
@@ -36274,7 +36280,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36352,7 +36358,7 @@
         <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ170">
         <v>0.46</v>
@@ -36561,7 +36567,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ171">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR171">
         <v>1.51</v>
@@ -36767,7 +36773,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ172">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR172">
         <v>1.82</v>
@@ -36892,7 +36898,7 @@
         <v>95</v>
       </c>
       <c r="P173" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q173">
         <v>2.5</v>
@@ -37510,7 +37516,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37588,7 +37594,7 @@
         <v>1.3</v>
       </c>
       <c r="AP176">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ176">
         <v>1.46</v>
@@ -37716,7 +37722,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -37922,7 +37928,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q178">
         <v>2.4</v>
@@ -38128,7 +38134,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q179">
         <v>3.98</v>
@@ -38746,7 +38752,7 @@
         <v>179</v>
       </c>
       <c r="P182" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -38827,7 +38833,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ182">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR182">
         <v>1.63</v>
@@ -39364,7 +39370,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q185">
         <v>1.8</v>
@@ -39570,7 +39576,7 @@
         <v>88</v>
       </c>
       <c r="P186" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q186">
         <v>3.7</v>
@@ -39776,7 +39782,7 @@
         <v>214</v>
       </c>
       <c r="P187" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q187">
         <v>2.65</v>
@@ -39854,10 +39860,10 @@
         <v>0.8</v>
       </c>
       <c r="AP187">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ187">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR187">
         <v>1.49</v>
@@ -40188,7 +40194,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q189">
         <v>1.78</v>
@@ -40884,7 +40890,7 @@
         <v>0.89</v>
       </c>
       <c r="AP192">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ192">
         <v>1.08</v>
@@ -41012,7 +41018,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41090,7 +41096,7 @@
         <v>1</v>
       </c>
       <c r="AP193">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ193">
         <v>1.17</v>
@@ -41296,7 +41302,7 @@
         <v>1.09</v>
       </c>
       <c r="AP194">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ194">
         <v>1.15</v>
@@ -41424,7 +41430,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -41505,7 +41511,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ195">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR195">
         <v>1.6</v>
@@ -41711,7 +41717,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ196">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR196">
         <v>1.13</v>
@@ -41914,7 +41920,7 @@
         <v>0</v>
       </c>
       <c r="AP197">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ197">
         <v>0.23</v>
@@ -42042,7 +42048,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42532,7 +42538,7 @@
         <v>1.45</v>
       </c>
       <c r="AP200">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ200">
         <v>1.46</v>
@@ -43072,7 +43078,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q203">
         <v>3.2</v>
@@ -43359,7 +43365,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ204">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR204">
         <v>1.79</v>
@@ -43565,7 +43571,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ205">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR205">
         <v>1.71</v>
@@ -43896,7 +43902,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -43977,7 +43983,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ207">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR207">
         <v>1.55</v>
@@ -44102,7 +44108,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q208">
         <v>2.55</v>
@@ -44308,7 +44314,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44592,7 +44598,7 @@
         <v>0.9</v>
       </c>
       <c r="AP210">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ210">
         <v>1.08</v>
@@ -44798,10 +44804,10 @@
         <v>1.45</v>
       </c>
       <c r="AP211">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ211">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR211">
         <v>1.51</v>
@@ -44926,7 +44932,7 @@
         <v>231</v>
       </c>
       <c r="P212" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q212">
         <v>2.7</v>
@@ -45004,7 +45010,7 @@
         <v>0.55</v>
       </c>
       <c r="AP212">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ212">
         <v>0.54</v>
@@ -45132,7 +45138,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -45416,10 +45422,10 @@
         <v>1.45</v>
       </c>
       <c r="AP214">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ214">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR214">
         <v>1.73</v>
@@ -45544,7 +45550,7 @@
         <v>88</v>
       </c>
       <c r="P215" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q215">
         <v>2.6</v>
@@ -45956,7 +45962,7 @@
         <v>88</v>
       </c>
       <c r="P217" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q217">
         <v>4.2</v>
@@ -46574,7 +46580,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q220">
         <v>2.59</v>
@@ -46780,7 +46786,7 @@
         <v>88</v>
       </c>
       <c r="P221" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -46986,7 +46992,7 @@
         <v>213</v>
       </c>
       <c r="P222" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q222">
         <v>3.46</v>
@@ -47398,7 +47404,7 @@
         <v>235</v>
       </c>
       <c r="P224" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q224">
         <v>3.6</v>
@@ -47810,7 +47816,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q226">
         <v>2.35</v>
@@ -48016,7 +48022,7 @@
         <v>238</v>
       </c>
       <c r="P227" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q227">
         <v>1.85</v>
@@ -48428,7 +48434,7 @@
         <v>240</v>
       </c>
       <c r="P229" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q229">
         <v>2.8</v>
@@ -48791,6 +48797,830 @@
       </c>
       <c r="BP230">
         <v>1.51</v>
+      </c>
+    </row>
+    <row r="231" spans="1:68">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>6469291</v>
+      </c>
+      <c r="C231" t="s">
+        <v>68</v>
+      </c>
+      <c r="D231" t="s">
+        <v>69</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45383.3125</v>
+      </c>
+      <c r="F231">
+        <v>26</v>
+      </c>
+      <c r="G231" t="s">
+        <v>86</v>
+      </c>
+      <c r="H231" t="s">
+        <v>85</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
+      <c r="L231">
+        <v>1</v>
+      </c>
+      <c r="M231">
+        <v>1</v>
+      </c>
+      <c r="N231">
+        <v>2</v>
+      </c>
+      <c r="O231" t="s">
+        <v>242</v>
+      </c>
+      <c r="P231" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q231">
+        <v>3.4</v>
+      </c>
+      <c r="R231">
+        <v>2.1</v>
+      </c>
+      <c r="S231">
+        <v>3.25</v>
+      </c>
+      <c r="T231">
+        <v>1.44</v>
+      </c>
+      <c r="U231">
+        <v>2.63</v>
+      </c>
+      <c r="V231">
+        <v>3.25</v>
+      </c>
+      <c r="W231">
+        <v>1.33</v>
+      </c>
+      <c r="X231">
+        <v>9</v>
+      </c>
+      <c r="Y231">
+        <v>1.07</v>
+      </c>
+      <c r="Z231">
+        <v>2.7</v>
+      </c>
+      <c r="AA231">
+        <v>3.1</v>
+      </c>
+      <c r="AB231">
+        <v>2.55</v>
+      </c>
+      <c r="AC231">
+        <v>1.05</v>
+      </c>
+      <c r="AD231">
+        <v>8.5</v>
+      </c>
+      <c r="AE231">
+        <v>1.33</v>
+      </c>
+      <c r="AF231">
+        <v>3.1</v>
+      </c>
+      <c r="AG231">
+        <v>2</v>
+      </c>
+      <c r="AH231">
+        <v>1.7</v>
+      </c>
+      <c r="AI231">
+        <v>1.8</v>
+      </c>
+      <c r="AJ231">
+        <v>1.95</v>
+      </c>
+      <c r="AK231">
+        <v>1.47</v>
+      </c>
+      <c r="AL231">
+        <v>1.28</v>
+      </c>
+      <c r="AM231">
+        <v>1.45</v>
+      </c>
+      <c r="AN231">
+        <v>1.5</v>
+      </c>
+      <c r="AO231">
+        <v>1.42</v>
+      </c>
+      <c r="AP231">
+        <v>1.46</v>
+      </c>
+      <c r="AQ231">
+        <v>1.38</v>
+      </c>
+      <c r="AR231">
+        <v>1.29</v>
+      </c>
+      <c r="AS231">
+        <v>1.36</v>
+      </c>
+      <c r="AT231">
+        <v>2.65</v>
+      </c>
+      <c r="AU231">
+        <v>5</v>
+      </c>
+      <c r="AV231">
+        <v>9</v>
+      </c>
+      <c r="AW231">
+        <v>5</v>
+      </c>
+      <c r="AX231">
+        <v>7</v>
+      </c>
+      <c r="AY231">
+        <v>10</v>
+      </c>
+      <c r="AZ231">
+        <v>16</v>
+      </c>
+      <c r="BA231">
+        <v>3</v>
+      </c>
+      <c r="BB231">
+        <v>3</v>
+      </c>
+      <c r="BC231">
+        <v>6</v>
+      </c>
+      <c r="BD231">
+        <v>2.2</v>
+      </c>
+      <c r="BE231">
+        <v>8</v>
+      </c>
+      <c r="BF231">
+        <v>1.91</v>
+      </c>
+      <c r="BG231">
+        <v>1.24</v>
+      </c>
+      <c r="BH231">
+        <v>3.4</v>
+      </c>
+      <c r="BI231">
+        <v>1.46</v>
+      </c>
+      <c r="BJ231">
+        <v>2.4</v>
+      </c>
+      <c r="BK231">
+        <v>1.88</v>
+      </c>
+      <c r="BL231">
+        <v>1.92</v>
+      </c>
+      <c r="BM231">
+        <v>2.32</v>
+      </c>
+      <c r="BN231">
+        <v>1.5</v>
+      </c>
+      <c r="BO231">
+        <v>3.1</v>
+      </c>
+      <c r="BP231">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="232" spans="1:68">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>6469293</v>
+      </c>
+      <c r="C232" t="s">
+        <v>68</v>
+      </c>
+      <c r="D232" t="s">
+        <v>69</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45383.41666666666</v>
+      </c>
+      <c r="F232">
+        <v>26</v>
+      </c>
+      <c r="G232" t="s">
+        <v>72</v>
+      </c>
+      <c r="H232" t="s">
+        <v>82</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232" t="s">
+        <v>88</v>
+      </c>
+      <c r="P232" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q232">
+        <v>5</v>
+      </c>
+      <c r="R232">
+        <v>2.1</v>
+      </c>
+      <c r="S232">
+        <v>2.5</v>
+      </c>
+      <c r="T232">
+        <v>1.44</v>
+      </c>
+      <c r="U232">
+        <v>2.63</v>
+      </c>
+      <c r="V232">
+        <v>3.25</v>
+      </c>
+      <c r="W232">
+        <v>1.33</v>
+      </c>
+      <c r="X232">
+        <v>10</v>
+      </c>
+      <c r="Y232">
+        <v>1.06</v>
+      </c>
+      <c r="Z232">
+        <v>4.33</v>
+      </c>
+      <c r="AA232">
+        <v>3.3</v>
+      </c>
+      <c r="AB232">
+        <v>1.85</v>
+      </c>
+      <c r="AC232">
+        <v>1.06</v>
+      </c>
+      <c r="AD232">
+        <v>8</v>
+      </c>
+      <c r="AE232">
+        <v>1.36</v>
+      </c>
+      <c r="AF232">
+        <v>2.95</v>
+      </c>
+      <c r="AG232">
+        <v>2.1</v>
+      </c>
+      <c r="AH232">
+        <v>1.65</v>
+      </c>
+      <c r="AI232">
+        <v>2</v>
+      </c>
+      <c r="AJ232">
+        <v>1.75</v>
+      </c>
+      <c r="AK232">
+        <v>1.9</v>
+      </c>
+      <c r="AL232">
+        <v>1.25</v>
+      </c>
+      <c r="AM232">
+        <v>1.17</v>
+      </c>
+      <c r="AN232">
+        <v>2</v>
+      </c>
+      <c r="AO232">
+        <v>1.42</v>
+      </c>
+      <c r="AP232">
+        <v>1.92</v>
+      </c>
+      <c r="AQ232">
+        <v>1.38</v>
+      </c>
+      <c r="AR232">
+        <v>1.45</v>
+      </c>
+      <c r="AS232">
+        <v>1.23</v>
+      </c>
+      <c r="AT232">
+        <v>2.68</v>
+      </c>
+      <c r="AU232">
+        <v>4</v>
+      </c>
+      <c r="AV232">
+        <v>7</v>
+      </c>
+      <c r="AW232">
+        <v>4</v>
+      </c>
+      <c r="AX232">
+        <v>6</v>
+      </c>
+      <c r="AY232">
+        <v>8</v>
+      </c>
+      <c r="AZ232">
+        <v>13</v>
+      </c>
+      <c r="BA232">
+        <v>8</v>
+      </c>
+      <c r="BB232">
+        <v>8</v>
+      </c>
+      <c r="BC232">
+        <v>16</v>
+      </c>
+      <c r="BD232">
+        <v>3.07</v>
+      </c>
+      <c r="BE232">
+        <v>8.5</v>
+      </c>
+      <c r="BF232">
+        <v>1.51</v>
+      </c>
+      <c r="BG232">
+        <v>1.25</v>
+      </c>
+      <c r="BH232">
+        <v>3.3</v>
+      </c>
+      <c r="BI232">
+        <v>1.48</v>
+      </c>
+      <c r="BJ232">
+        <v>2.38</v>
+      </c>
+      <c r="BK232">
+        <v>1.9</v>
+      </c>
+      <c r="BL232">
+        <v>1.9</v>
+      </c>
+      <c r="BM232">
+        <v>2.35</v>
+      </c>
+      <c r="BN232">
+        <v>1.49</v>
+      </c>
+      <c r="BO232">
+        <v>3.15</v>
+      </c>
+      <c r="BP232">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="233" spans="1:68">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>6469295</v>
+      </c>
+      <c r="C233" t="s">
+        <v>68</v>
+      </c>
+      <c r="D233" t="s">
+        <v>69</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45383.52083333334</v>
+      </c>
+      <c r="F233">
+        <v>26</v>
+      </c>
+      <c r="G233" t="s">
+        <v>77</v>
+      </c>
+      <c r="H233" t="s">
+        <v>78</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>1</v>
+      </c>
+      <c r="L233">
+        <v>3</v>
+      </c>
+      <c r="M233">
+        <v>1</v>
+      </c>
+      <c r="N233">
+        <v>4</v>
+      </c>
+      <c r="O233" t="s">
+        <v>243</v>
+      </c>
+      <c r="P233" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q233">
+        <v>2.88</v>
+      </c>
+      <c r="R233">
+        <v>2.1</v>
+      </c>
+      <c r="S233">
+        <v>3.75</v>
+      </c>
+      <c r="T233">
+        <v>1.4</v>
+      </c>
+      <c r="U233">
+        <v>2.75</v>
+      </c>
+      <c r="V233">
+        <v>3</v>
+      </c>
+      <c r="W233">
+        <v>1.36</v>
+      </c>
+      <c r="X233">
+        <v>8</v>
+      </c>
+      <c r="Y233">
+        <v>1.08</v>
+      </c>
+      <c r="Z233">
+        <v>2.12</v>
+      </c>
+      <c r="AA233">
+        <v>3.35</v>
+      </c>
+      <c r="AB233">
+        <v>3.28</v>
+      </c>
+      <c r="AC233">
+        <v>1.05</v>
+      </c>
+      <c r="AD233">
+        <v>8.5</v>
+      </c>
+      <c r="AE233">
+        <v>1.33</v>
+      </c>
+      <c r="AF233">
+        <v>3.2</v>
+      </c>
+      <c r="AG233">
+        <v>1.93</v>
+      </c>
+      <c r="AH233">
+        <v>1.78</v>
+      </c>
+      <c r="AI233">
+        <v>1.75</v>
+      </c>
+      <c r="AJ233">
+        <v>2</v>
+      </c>
+      <c r="AK233">
+        <v>1.35</v>
+      </c>
+      <c r="AL233">
+        <v>1.28</v>
+      </c>
+      <c r="AM233">
+        <v>1.62</v>
+      </c>
+      <c r="AN233">
+        <v>1.75</v>
+      </c>
+      <c r="AO233">
+        <v>0.67</v>
+      </c>
+      <c r="AP233">
+        <v>1.85</v>
+      </c>
+      <c r="AQ233">
+        <v>0.62</v>
+      </c>
+      <c r="AR233">
+        <v>1.68</v>
+      </c>
+      <c r="AS233">
+        <v>1.32</v>
+      </c>
+      <c r="AT233">
+        <v>3</v>
+      </c>
+      <c r="AU233">
+        <v>5</v>
+      </c>
+      <c r="AV233">
+        <v>5</v>
+      </c>
+      <c r="AW233">
+        <v>9</v>
+      </c>
+      <c r="AX233">
+        <v>7</v>
+      </c>
+      <c r="AY233">
+        <v>14</v>
+      </c>
+      <c r="AZ233">
+        <v>12</v>
+      </c>
+      <c r="BA233">
+        <v>7</v>
+      </c>
+      <c r="BB233">
+        <v>9</v>
+      </c>
+      <c r="BC233">
+        <v>16</v>
+      </c>
+      <c r="BD233">
+        <v>1.64</v>
+      </c>
+      <c r="BE233">
+        <v>8.5</v>
+      </c>
+      <c r="BF233">
+        <v>2.64</v>
+      </c>
+      <c r="BG233">
+        <v>1.18</v>
+      </c>
+      <c r="BH233">
+        <v>3.9</v>
+      </c>
+      <c r="BI233">
+        <v>1.36</v>
+      </c>
+      <c r="BJ233">
+        <v>2.75</v>
+      </c>
+      <c r="BK233">
+        <v>1.63</v>
+      </c>
+      <c r="BL233">
+        <v>2.06</v>
+      </c>
+      <c r="BM233">
+        <v>2.05</v>
+      </c>
+      <c r="BN233">
+        <v>1.64</v>
+      </c>
+      <c r="BO233">
+        <v>2.7</v>
+      </c>
+      <c r="BP233">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="234" spans="1:68">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>6469287</v>
+      </c>
+      <c r="C234" t="s">
+        <v>68</v>
+      </c>
+      <c r="D234" t="s">
+        <v>69</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45383.625</v>
+      </c>
+      <c r="F234">
+        <v>26</v>
+      </c>
+      <c r="G234" t="s">
+        <v>75</v>
+      </c>
+      <c r="H234" t="s">
+        <v>71</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <v>1</v>
+      </c>
+      <c r="L234">
+        <v>1</v>
+      </c>
+      <c r="M234">
+        <v>3</v>
+      </c>
+      <c r="N234">
+        <v>4</v>
+      </c>
+      <c r="O234" t="s">
+        <v>244</v>
+      </c>
+      <c r="P234" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q234">
+        <v>4.33</v>
+      </c>
+      <c r="R234">
+        <v>2.2</v>
+      </c>
+      <c r="S234">
+        <v>2.6</v>
+      </c>
+      <c r="T234">
+        <v>1.36</v>
+      </c>
+      <c r="U234">
+        <v>3</v>
+      </c>
+      <c r="V234">
+        <v>2.75</v>
+      </c>
+      <c r="W234">
+        <v>1.4</v>
+      </c>
+      <c r="X234">
+        <v>8</v>
+      </c>
+      <c r="Y234">
+        <v>1.08</v>
+      </c>
+      <c r="Z234">
+        <v>3.71</v>
+      </c>
+      <c r="AA234">
+        <v>3.45</v>
+      </c>
+      <c r="AB234">
+        <v>1.94</v>
+      </c>
+      <c r="AC234">
+        <v>1.05</v>
+      </c>
+      <c r="AD234">
+        <v>9</v>
+      </c>
+      <c r="AE234">
+        <v>1.28</v>
+      </c>
+      <c r="AF234">
+        <v>3.5</v>
+      </c>
+      <c r="AG234">
+        <v>1.84</v>
+      </c>
+      <c r="AH234">
+        <v>1.86</v>
+      </c>
+      <c r="AI234">
+        <v>1.75</v>
+      </c>
+      <c r="AJ234">
+        <v>2</v>
+      </c>
+      <c r="AK234">
+        <v>1.78</v>
+      </c>
+      <c r="AL234">
+        <v>1.25</v>
+      </c>
+      <c r="AM234">
+        <v>1.28</v>
+      </c>
+      <c r="AN234">
+        <v>2</v>
+      </c>
+      <c r="AO234">
+        <v>1.33</v>
+      </c>
+      <c r="AP234">
+        <v>1.85</v>
+      </c>
+      <c r="AQ234">
+        <v>1.46</v>
+      </c>
+      <c r="AR234">
+        <v>1.49</v>
+      </c>
+      <c r="AS234">
+        <v>1.41</v>
+      </c>
+      <c r="AT234">
+        <v>2.9</v>
+      </c>
+      <c r="AU234">
+        <v>3</v>
+      </c>
+      <c r="AV234">
+        <v>7</v>
+      </c>
+      <c r="AW234">
+        <v>7</v>
+      </c>
+      <c r="AX234">
+        <v>3</v>
+      </c>
+      <c r="AY234">
+        <v>10</v>
+      </c>
+      <c r="AZ234">
+        <v>10</v>
+      </c>
+      <c r="BA234">
+        <v>6</v>
+      </c>
+      <c r="BB234">
+        <v>6</v>
+      </c>
+      <c r="BC234">
+        <v>12</v>
+      </c>
+      <c r="BD234">
+        <v>2.89</v>
+      </c>
+      <c r="BE234">
+        <v>8.5</v>
+      </c>
+      <c r="BF234">
+        <v>1.59</v>
+      </c>
+      <c r="BG234">
+        <v>1.22</v>
+      </c>
+      <c r="BH234">
+        <v>3.55</v>
+      </c>
+      <c r="BI234">
+        <v>1.42</v>
+      </c>
+      <c r="BJ234">
+        <v>2.5</v>
+      </c>
+      <c r="BK234">
+        <v>1.8</v>
+      </c>
+      <c r="BL234">
+        <v>2</v>
+      </c>
+      <c r="BM234">
+        <v>2.2</v>
+      </c>
+      <c r="BN234">
+        <v>1.55</v>
+      </c>
+      <c r="BO234">
+        <v>2.95</v>
+      </c>
+      <c r="BP234">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="347">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1053,6 +1053,9 @@
   <si>
     <t>['42', '68', '75']</t>
   </si>
+  <si>
+    <t>['57']</t>
+  </si>
 </sst>
 </file>
 
@@ -1413,7 +1416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP234"/>
+  <dimension ref="A1:BP235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1750,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ2">
         <v>1.85</v>
@@ -3810,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ12">
         <v>1.15</v>
@@ -4225,7 +4228,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ14">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -6697,7 +6700,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ26">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -8136,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ33">
         <v>0.54</v>
@@ -10608,7 +10611,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -11229,7 +11232,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ48">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR48">
         <v>1.78</v>
@@ -15140,7 +15143,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ67">
         <v>1.38</v>
@@ -15349,7 +15352,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ68">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR68">
         <v>1.15</v>
@@ -18642,7 +18645,7 @@
         <v>2</v>
       </c>
       <c r="AP84">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ84">
         <v>1.92</v>
@@ -19469,7 +19472,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ88">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR88">
         <v>1.14</v>
@@ -21735,7 +21738,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ99">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR99">
         <v>1.54</v>
@@ -23792,7 +23795,7 @@
         <v>0.83</v>
       </c>
       <c r="AP109">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ109">
         <v>0.85</v>
@@ -26473,7 +26476,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ122">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR122">
         <v>1.71</v>
@@ -27088,7 +27091,7 @@
         <v>0.14</v>
       </c>
       <c r="AP125">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ125">
         <v>0.46</v>
@@ -29151,7 +29154,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ135">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR135">
         <v>1.24</v>
@@ -31002,7 +31005,7 @@
         <v>1.13</v>
       </c>
       <c r="AP144">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ144">
         <v>1.46</v>
@@ -32447,7 +32450,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ151">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR151">
         <v>1.48</v>
@@ -37185,7 +37188,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ174">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR174">
         <v>1.75</v>
@@ -37388,7 +37391,7 @@
         <v>1</v>
       </c>
       <c r="AP175">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ175">
         <v>1.08</v>
@@ -41099,7 +41102,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ193">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR193">
         <v>1.29</v>
@@ -41714,7 +41717,7 @@
         <v>1.3</v>
       </c>
       <c r="AP196">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ196">
         <v>1.38</v>
@@ -45219,7 +45222,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ213">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR213">
         <v>1.91</v>
@@ -45628,7 +45631,7 @@
         <v>0</v>
       </c>
       <c r="AP215">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ215">
         <v>0.23</v>
@@ -49621,6 +49624,212 @@
       </c>
       <c r="BP234">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="235" spans="1:68">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>6469294</v>
+      </c>
+      <c r="C235" t="s">
+        <v>68</v>
+      </c>
+      <c r="D235" t="s">
+        <v>69</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45384.58333333334</v>
+      </c>
+      <c r="F235">
+        <v>26</v>
+      </c>
+      <c r="G235" t="s">
+        <v>70</v>
+      </c>
+      <c r="H235" t="s">
+        <v>76</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235">
+        <v>1</v>
+      </c>
+      <c r="M235">
+        <v>1</v>
+      </c>
+      <c r="N235">
+        <v>2</v>
+      </c>
+      <c r="O235" t="s">
+        <v>112</v>
+      </c>
+      <c r="P235" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q235">
+        <v>3.6</v>
+      </c>
+      <c r="R235">
+        <v>2</v>
+      </c>
+      <c r="S235">
+        <v>3.25</v>
+      </c>
+      <c r="T235">
+        <v>1.5</v>
+      </c>
+      <c r="U235">
+        <v>2.5</v>
+      </c>
+      <c r="V235">
+        <v>3.5</v>
+      </c>
+      <c r="W235">
+        <v>1.29</v>
+      </c>
+      <c r="X235">
+        <v>10</v>
+      </c>
+      <c r="Y235">
+        <v>1.06</v>
+      </c>
+      <c r="Z235">
+        <v>2.58</v>
+      </c>
+      <c r="AA235">
+        <v>3.22</v>
+      </c>
+      <c r="AB235">
+        <v>2.76</v>
+      </c>
+      <c r="AC235">
+        <v>1.06</v>
+      </c>
+      <c r="AD235">
+        <v>7</v>
+      </c>
+      <c r="AE235">
+        <v>1.42</v>
+      </c>
+      <c r="AF235">
+        <v>2.75</v>
+      </c>
+      <c r="AG235">
+        <v>2.26</v>
+      </c>
+      <c r="AH235">
+        <v>1.57</v>
+      </c>
+      <c r="AI235">
+        <v>1.95</v>
+      </c>
+      <c r="AJ235">
+        <v>1.8</v>
+      </c>
+      <c r="AK235">
+        <v>1.52</v>
+      </c>
+      <c r="AL235">
+        <v>1.28</v>
+      </c>
+      <c r="AM235">
+        <v>1.4</v>
+      </c>
+      <c r="AN235">
+        <v>0.83</v>
+      </c>
+      <c r="AO235">
+        <v>1.17</v>
+      </c>
+      <c r="AP235">
+        <v>0.85</v>
+      </c>
+      <c r="AQ235">
+        <v>1.15</v>
+      </c>
+      <c r="AR235">
+        <v>1.16</v>
+      </c>
+      <c r="AS235">
+        <v>1.55</v>
+      </c>
+      <c r="AT235">
+        <v>2.71</v>
+      </c>
+      <c r="AU235">
+        <v>4</v>
+      </c>
+      <c r="AV235">
+        <v>9</v>
+      </c>
+      <c r="AW235">
+        <v>6</v>
+      </c>
+      <c r="AX235">
+        <v>10</v>
+      </c>
+      <c r="AY235">
+        <v>10</v>
+      </c>
+      <c r="AZ235">
+        <v>19</v>
+      </c>
+      <c r="BA235">
+        <v>2</v>
+      </c>
+      <c r="BB235">
+        <v>5</v>
+      </c>
+      <c r="BC235">
+        <v>7</v>
+      </c>
+      <c r="BD235">
+        <v>2.28</v>
+      </c>
+      <c r="BE235">
+        <v>8</v>
+      </c>
+      <c r="BF235">
+        <v>1.85</v>
+      </c>
+      <c r="BG235">
+        <v>1.23</v>
+      </c>
+      <c r="BH235">
+        <v>3.5</v>
+      </c>
+      <c r="BI235">
+        <v>1.43</v>
+      </c>
+      <c r="BJ235">
+        <v>2.48</v>
+      </c>
+      <c r="BK235">
+        <v>1.75</v>
+      </c>
+      <c r="BL235">
+        <v>1.89</v>
+      </c>
+      <c r="BM235">
+        <v>2.25</v>
+      </c>
+      <c r="BN235">
+        <v>1.53</v>
+      </c>
+      <c r="BO235">
+        <v>3</v>
+      </c>
+      <c r="BP235">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="350">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -751,6 +751,12 @@
     <t>['61']</t>
   </si>
   <si>
+    <t>['19', '77']</t>
+  </si>
+  <si>
+    <t>['25', '44']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -1055,6 +1061,9 @@
   </si>
   <si>
     <t>['57']</t>
+  </si>
+  <si>
+    <t>['73', '86']</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP235"/>
+  <dimension ref="A1:BP239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1675,7 +1684,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q2">
         <v>4.33</v>
@@ -1962,7 +1971,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ3">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2087,7 +2096,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2499,7 +2508,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2705,7 +2714,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2911,7 +2920,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q8">
         <v>2.38</v>
@@ -3117,7 +3126,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3198,7 +3207,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ9">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3323,7 +3332,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q10">
         <v>3.2</v>
@@ -3401,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ10">
         <v>1.92</v>
@@ -3607,10 +3616,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ11">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3941,7 +3950,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q13">
         <v>2.53</v>
@@ -4022,7 +4031,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ13">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4147,7 +4156,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4971,7 +4980,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5383,7 +5392,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q20">
         <v>1.82</v>
@@ -5873,7 +5882,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -6001,7 +6010,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6494,7 +6503,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ25">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6697,7 +6706,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ26">
         <v>1.15</v>
@@ -6825,7 +6834,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q27">
         <v>4.2</v>
@@ -6906,7 +6915,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ27">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.8</v>
@@ -7237,7 +7246,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q29">
         <v>2.95</v>
@@ -7315,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ29">
         <v>1.15</v>
@@ -7524,7 +7533,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ30">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR30">
         <v>1.68</v>
@@ -7649,7 +7658,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q31">
         <v>2.3</v>
@@ -7855,7 +7864,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8061,7 +8070,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q33">
         <v>2.6</v>
@@ -8348,7 +8357,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ34">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR34">
         <v>1.88</v>
@@ -8473,7 +8482,7 @@
         <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8679,7 +8688,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8757,7 +8766,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ36">
         <v>1.31</v>
@@ -8966,7 +8975,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ37">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR37">
         <v>1.7</v>
@@ -9169,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ38">
         <v>1.46</v>
@@ -9993,7 +10002,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ42">
         <v>0.85</v>
@@ -10327,7 +10336,7 @@
         <v>88</v>
       </c>
       <c r="P44" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q44">
         <v>2.7</v>
@@ -10739,7 +10748,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10820,7 +10829,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ46">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR46">
         <v>0.99</v>
@@ -11229,7 +11238,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ48">
         <v>1.15</v>
@@ -11357,7 +11366,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11563,7 +11572,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q50">
         <v>2.15</v>
@@ -11769,7 +11778,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -12053,10 +12062,10 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ52">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR52">
         <v>1.57</v>
@@ -12259,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ53">
         <v>0.85</v>
@@ -12465,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ54">
         <v>0.62</v>
@@ -13498,7 +13507,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ59">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR59">
         <v>1.65</v>
@@ -13623,7 +13632,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -14035,7 +14044,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14322,7 +14331,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ63">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR63">
         <v>1.69</v>
@@ -14653,7 +14662,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -15065,7 +15074,7 @@
         <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q67">
         <v>4.75</v>
@@ -15271,7 +15280,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15477,7 +15486,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15555,7 +15564,7 @@
         <v>0.25</v>
       </c>
       <c r="AP69">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ69">
         <v>0.85</v>
@@ -15683,7 +15692,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15967,10 +15976,10 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ71">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR71">
         <v>1.71</v>
@@ -16301,7 +16310,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16379,7 +16388,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ73">
         <v>1.85</v>
@@ -16507,7 +16516,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q74">
         <v>1.75</v>
@@ -16588,7 +16597,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ74">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR74">
         <v>1.84</v>
@@ -16919,7 +16928,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16997,10 +17006,10 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ76">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>1.71</v>
@@ -17125,7 +17134,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q77">
         <v>2.04</v>
@@ -17331,7 +17340,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q78">
         <v>3.05</v>
@@ -17618,7 +17627,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ79">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>1.81</v>
@@ -17743,7 +17752,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17949,7 +17958,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18155,7 +18164,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q82">
         <v>3.3</v>
@@ -18361,7 +18370,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -19391,7 +19400,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19675,7 +19684,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ89">
         <v>1.31</v>
@@ -19884,7 +19893,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ90">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR90">
         <v>1.75</v>
@@ -20087,10 +20096,10 @@
         <v>0</v>
       </c>
       <c r="AP91">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ91">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR91">
         <v>1.77</v>
@@ -20296,7 +20305,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ92">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR92">
         <v>1.58</v>
@@ -20627,7 +20636,7 @@
         <v>88</v>
       </c>
       <c r="P94" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -20705,7 +20714,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ94">
         <v>1.85</v>
@@ -21039,7 +21048,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21117,7 +21126,7 @@
         <v>1</v>
       </c>
       <c r="AP96">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ96">
         <v>1.46</v>
@@ -21245,7 +21254,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21326,7 +21335,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ97">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR97">
         <v>2.14</v>
@@ -21863,7 +21872,7 @@
         <v>105</v>
       </c>
       <c r="P100" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22275,7 +22284,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22356,7 +22365,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ102">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR102">
         <v>1.79</v>
@@ -22559,7 +22568,7 @@
         <v>0.8</v>
       </c>
       <c r="AP103">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ103">
         <v>0.62</v>
@@ -22768,7 +22777,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ104">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR104">
         <v>1.39</v>
@@ -22893,7 +22902,7 @@
         <v>88</v>
       </c>
       <c r="P105" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q105">
         <v>3.4</v>
@@ -23099,7 +23108,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q106">
         <v>1.7</v>
@@ -23305,7 +23314,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23383,10 +23392,10 @@
         <v>0.17</v>
       </c>
       <c r="AP107">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ107">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR107">
         <v>1.68</v>
@@ -23511,7 +23520,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q108">
         <v>3.2</v>
@@ -23717,7 +23726,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23923,7 +23932,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -24207,7 +24216,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ111">
         <v>1.38</v>
@@ -24335,7 +24344,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q112">
         <v>3.3</v>
@@ -24413,7 +24422,7 @@
         <v>2.17</v>
       </c>
       <c r="AP112">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ112">
         <v>1.92</v>
@@ -24541,7 +24550,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q113">
         <v>2.9</v>
@@ -24747,7 +24756,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q114">
         <v>1.85</v>
@@ -24828,7 +24837,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ114">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR114">
         <v>2.12</v>
@@ -25446,7 +25455,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ117">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR117">
         <v>1.61</v>
@@ -25571,7 +25580,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q118">
         <v>4.33</v>
@@ -26270,7 +26279,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ121">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR121">
         <v>1.67</v>
@@ -26601,7 +26610,7 @@
         <v>88</v>
       </c>
       <c r="P123" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26679,7 +26688,7 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ123">
         <v>1.46</v>
@@ -27013,7 +27022,7 @@
         <v>88</v>
       </c>
       <c r="P125" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q125">
         <v>2.5</v>
@@ -27094,7 +27103,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ125">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR125">
         <v>1.08</v>
@@ -27219,7 +27228,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27297,7 +27306,7 @@
         <v>2</v>
       </c>
       <c r="AP126">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ126">
         <v>1.92</v>
@@ -27425,7 +27434,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27631,7 +27640,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27837,7 +27846,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q129">
         <v>3.3</v>
@@ -27915,7 +27924,7 @@
         <v>1.14</v>
       </c>
       <c r="AP129">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ129">
         <v>1.46</v>
@@ -28043,7 +28052,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q130">
         <v>3.5</v>
@@ -28330,7 +28339,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ131">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR131">
         <v>1.81</v>
@@ -28739,7 +28748,7 @@
         <v>1.29</v>
       </c>
       <c r="AP133">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ133">
         <v>1.38</v>
@@ -28867,7 +28876,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q134">
         <v>2.63</v>
@@ -29073,7 +29082,7 @@
         <v>88</v>
       </c>
       <c r="P135" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29485,7 +29494,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q137">
         <v>2.1</v>
@@ -29691,7 +29700,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29772,7 +29781,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ138">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR138">
         <v>1.89</v>
@@ -29897,7 +29906,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q139">
         <v>2.1</v>
@@ -30387,7 +30396,7 @@
         <v>0.86</v>
       </c>
       <c r="AP141">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ141">
         <v>0.62</v>
@@ -30515,7 +30524,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q142">
         <v>2.05</v>
@@ -30721,7 +30730,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30799,7 +30808,7 @@
         <v>2.13</v>
       </c>
       <c r="AP143">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ143">
         <v>1.92</v>
@@ -30927,7 +30936,7 @@
         <v>158</v>
       </c>
       <c r="P144" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q144">
         <v>3.57</v>
@@ -31339,7 +31348,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31623,7 +31632,7 @@
         <v>1.29</v>
       </c>
       <c r="AP147">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ147">
         <v>1.38</v>
@@ -31751,7 +31760,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q148">
         <v>2.3</v>
@@ -31829,7 +31838,7 @@
         <v>0.38</v>
       </c>
       <c r="AP148">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ148">
         <v>0.54</v>
@@ -31957,7 +31966,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32244,7 +32253,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ150">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR150">
         <v>1.67</v>
@@ -32369,7 +32378,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q151">
         <v>3.3</v>
@@ -32447,7 +32456,7 @@
         <v>1.13</v>
       </c>
       <c r="AP151">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ151">
         <v>1.15</v>
@@ -32575,7 +32584,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q152">
         <v>2.05</v>
@@ -32781,7 +32790,7 @@
         <v>119</v>
       </c>
       <c r="P153" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q153">
         <v>2.65</v>
@@ -32859,7 +32868,7 @@
         <v>0.89</v>
       </c>
       <c r="AP153">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ153">
         <v>1.15</v>
@@ -32987,7 +32996,7 @@
         <v>195</v>
       </c>
       <c r="P154" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q154">
         <v>2.35</v>
@@ -33065,10 +33074,10 @@
         <v>0.88</v>
       </c>
       <c r="AP154">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ154">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR154">
         <v>1.85</v>
@@ -33811,7 +33820,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -33892,7 +33901,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ158">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR158">
         <v>1.64</v>
@@ -34429,7 +34438,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q161">
         <v>2.91</v>
@@ -34635,7 +34644,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q162">
         <v>4.28</v>
@@ -34841,7 +34850,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q163">
         <v>3.75</v>
@@ -35047,7 +35056,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q164">
         <v>3.97</v>
@@ -35125,7 +35134,7 @@
         <v>1.5</v>
       </c>
       <c r="AP164">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ164">
         <v>1.38</v>
@@ -35952,7 +35961,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ168">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR168">
         <v>1.52</v>
@@ -36155,7 +36164,7 @@
         <v>1.5</v>
       </c>
       <c r="AP169">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ169">
         <v>1.46</v>
@@ -36283,7 +36292,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36364,7 +36373,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ170">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR170">
         <v>1.43</v>
@@ -36567,7 +36576,7 @@
         <v>1.33</v>
       </c>
       <c r="AP171">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ171">
         <v>1.46</v>
@@ -36773,7 +36782,7 @@
         <v>1.44</v>
       </c>
       <c r="AP172">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ172">
         <v>1.38</v>
@@ -36901,7 +36910,7 @@
         <v>95</v>
       </c>
       <c r="P173" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q173">
         <v>2.5</v>
@@ -37394,7 +37403,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ175">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR175">
         <v>1.14</v>
@@ -37519,7 +37528,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37725,7 +37734,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -37931,7 +37940,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q178">
         <v>2.4</v>
@@ -38009,10 +38018,10 @@
         <v>0</v>
       </c>
       <c r="AP178">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ178">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR178">
         <v>1.61</v>
@@ -38137,7 +38146,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q179">
         <v>3.98</v>
@@ -38215,7 +38224,7 @@
         <v>1.9</v>
       </c>
       <c r="AP179">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ179">
         <v>1.85</v>
@@ -38424,7 +38433,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ180">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR180">
         <v>1.67</v>
@@ -38627,7 +38636,7 @@
         <v>1.3</v>
       </c>
       <c r="AP181">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ181">
         <v>1.31</v>
@@ -38755,7 +38764,7 @@
         <v>179</v>
       </c>
       <c r="P182" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -39373,7 +39382,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q185">
         <v>1.8</v>
@@ -39454,7 +39463,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ185">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR185">
         <v>1.96</v>
@@ -39579,7 +39588,7 @@
         <v>88</v>
       </c>
       <c r="P186" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q186">
         <v>3.7</v>
@@ -39785,7 +39794,7 @@
         <v>214</v>
       </c>
       <c r="P187" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q187">
         <v>2.65</v>
@@ -40197,7 +40206,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q189">
         <v>1.78</v>
@@ -40278,7 +40287,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ189">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR189">
         <v>1.94</v>
@@ -40896,7 +40905,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ192">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR192">
         <v>1.54</v>
@@ -41021,7 +41030,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41433,7 +41442,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -41511,7 +41520,7 @@
         <v>1.5</v>
       </c>
       <c r="AP195">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ195">
         <v>1.46</v>
@@ -41926,7 +41935,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ197">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR197">
         <v>1.5</v>
@@ -42051,7 +42060,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42129,7 +42138,7 @@
         <v>1.27</v>
       </c>
       <c r="AP198">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ198">
         <v>1.31</v>
@@ -42335,7 +42344,7 @@
         <v>1</v>
       </c>
       <c r="AP199">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ199">
         <v>0.85</v>
@@ -43081,7 +43090,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q203">
         <v>3.2</v>
@@ -43162,7 +43171,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ203">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR203">
         <v>1.18</v>
@@ -43777,10 +43786,10 @@
         <v>1</v>
       </c>
       <c r="AP206">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ206">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR206">
         <v>1.56</v>
@@ -43905,7 +43914,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44111,7 +44120,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q208">
         <v>2.55</v>
@@ -44317,7 +44326,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44395,7 +44404,7 @@
         <v>1.09</v>
       </c>
       <c r="AP209">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ209">
         <v>1</v>
@@ -44604,7 +44613,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ210">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR210">
         <v>1.3</v>
@@ -44935,7 +44944,7 @@
         <v>231</v>
       </c>
       <c r="P212" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q212">
         <v>2.7</v>
@@ -45141,7 +45150,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -45553,7 +45562,7 @@
         <v>88</v>
       </c>
       <c r="P215" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q215">
         <v>2.6</v>
@@ -45634,7 +45643,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ215">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR215">
         <v>1.08</v>
@@ -45840,7 +45849,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ216">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR216">
         <v>1.56</v>
@@ -45965,7 +45974,7 @@
         <v>88</v>
       </c>
       <c r="P217" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q217">
         <v>4.2</v>
@@ -46043,10 +46052,10 @@
         <v>0.91</v>
       </c>
       <c r="AP217">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ217">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR217">
         <v>1.59</v>
@@ -46252,7 +46261,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ218">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR218">
         <v>1.72</v>
@@ -46583,7 +46592,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q220">
         <v>2.59</v>
@@ -46661,7 +46670,7 @@
         <v>0.83</v>
       </c>
       <c r="AP220">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ220">
         <v>0.85</v>
@@ -46789,7 +46798,7 @@
         <v>88</v>
       </c>
       <c r="P221" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -46867,7 +46876,7 @@
         <v>1.33</v>
       </c>
       <c r="AP221">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ221">
         <v>1.46</v>
@@ -46995,7 +47004,7 @@
         <v>213</v>
       </c>
       <c r="P222" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q222">
         <v>3.46</v>
@@ -47073,7 +47082,7 @@
         <v>1</v>
       </c>
       <c r="AP222">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ222">
         <v>1.15</v>
@@ -47282,7 +47291,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ223">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR223">
         <v>1.68</v>
@@ -47407,7 +47416,7 @@
         <v>235</v>
       </c>
       <c r="P224" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q224">
         <v>3.6</v>
@@ -47485,7 +47494,7 @@
         <v>1.92</v>
       </c>
       <c r="AP224">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ224">
         <v>1.85</v>
@@ -47694,7 +47703,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ225">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR225">
         <v>1.2</v>
@@ -47819,7 +47828,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q226">
         <v>2.35</v>
@@ -48025,7 +48034,7 @@
         <v>238</v>
       </c>
       <c r="P227" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q227">
         <v>1.85</v>
@@ -48312,7 +48321,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ228">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR228">
         <v>1.73</v>
@@ -48437,7 +48446,7 @@
         <v>240</v>
       </c>
       <c r="P229" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q229">
         <v>2.8</v>
@@ -49261,7 +49270,7 @@
         <v>243</v>
       </c>
       <c r="P233" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q233">
         <v>2.88</v>
@@ -49467,7 +49476,7 @@
         <v>244</v>
       </c>
       <c r="P234" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q234">
         <v>4.33</v>
@@ -49673,7 +49682,7 @@
         <v>112</v>
       </c>
       <c r="P235" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -49830,6 +49839,830 @@
       </c>
       <c r="BP235">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:68">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>6469296</v>
+      </c>
+      <c r="C236" t="s">
+        <v>68</v>
+      </c>
+      <c r="D236" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45387.54166666666</v>
+      </c>
+      <c r="F236">
+        <v>27</v>
+      </c>
+      <c r="G236" t="s">
+        <v>87</v>
+      </c>
+      <c r="H236" t="s">
+        <v>84</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
+      <c r="L236">
+        <v>2</v>
+      </c>
+      <c r="M236">
+        <v>2</v>
+      </c>
+      <c r="N236">
+        <v>4</v>
+      </c>
+      <c r="O236" t="s">
+        <v>245</v>
+      </c>
+      <c r="P236" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q236">
+        <v>2</v>
+      </c>
+      <c r="R236">
+        <v>2.35</v>
+      </c>
+      <c r="S236">
+        <v>5.5</v>
+      </c>
+      <c r="T236">
+        <v>1.34</v>
+      </c>
+      <c r="U236">
+        <v>3.05</v>
+      </c>
+      <c r="V236">
+        <v>2.6</v>
+      </c>
+      <c r="W236">
+        <v>1.44</v>
+      </c>
+      <c r="X236">
+        <v>6</v>
+      </c>
+      <c r="Y236">
+        <v>1.1</v>
+      </c>
+      <c r="Z236">
+        <v>1.56</v>
+      </c>
+      <c r="AA236">
+        <v>4.1</v>
+      </c>
+      <c r="AB236">
+        <v>5.75</v>
+      </c>
+      <c r="AC236">
+        <v>1.04</v>
+      </c>
+      <c r="AD236">
+        <v>10</v>
+      </c>
+      <c r="AE236">
+        <v>1.25</v>
+      </c>
+      <c r="AF236">
+        <v>3.75</v>
+      </c>
+      <c r="AG236">
+        <v>1.75</v>
+      </c>
+      <c r="AH236">
+        <v>1.97</v>
+      </c>
+      <c r="AI236">
+        <v>1.9</v>
+      </c>
+      <c r="AJ236">
+        <v>1.83</v>
+      </c>
+      <c r="AK236">
+        <v>1.07</v>
+      </c>
+      <c r="AL236">
+        <v>1.16</v>
+      </c>
+      <c r="AM236">
+        <v>2.6</v>
+      </c>
+      <c r="AN236">
+        <v>1.15</v>
+      </c>
+      <c r="AO236">
+        <v>0.23</v>
+      </c>
+      <c r="AP236">
+        <v>1.14</v>
+      </c>
+      <c r="AQ236">
+        <v>0.29</v>
+      </c>
+      <c r="AR236">
+        <v>1.79</v>
+      </c>
+      <c r="AS236">
+        <v>1.16</v>
+      </c>
+      <c r="AT236">
+        <v>2.95</v>
+      </c>
+      <c r="AU236">
+        <v>6</v>
+      </c>
+      <c r="AV236">
+        <v>5</v>
+      </c>
+      <c r="AW236">
+        <v>6</v>
+      </c>
+      <c r="AX236">
+        <v>4</v>
+      </c>
+      <c r="AY236">
+        <v>12</v>
+      </c>
+      <c r="AZ236">
+        <v>9</v>
+      </c>
+      <c r="BA236">
+        <v>5</v>
+      </c>
+      <c r="BB236">
+        <v>5</v>
+      </c>
+      <c r="BC236">
+        <v>10</v>
+      </c>
+      <c r="BD236">
+        <v>1.31</v>
+      </c>
+      <c r="BE236">
+        <v>9.5</v>
+      </c>
+      <c r="BF236">
+        <v>4.13</v>
+      </c>
+      <c r="BG236">
+        <v>1.21</v>
+      </c>
+      <c r="BH236">
+        <v>3.74</v>
+      </c>
+      <c r="BI236">
+        <v>1.41</v>
+      </c>
+      <c r="BJ236">
+        <v>2.6</v>
+      </c>
+      <c r="BK236">
+        <v>1.73</v>
+      </c>
+      <c r="BL236">
+        <v>1.99</v>
+      </c>
+      <c r="BM236">
+        <v>2.17</v>
+      </c>
+      <c r="BN236">
+        <v>1.58</v>
+      </c>
+      <c r="BO236">
+        <v>2.88</v>
+      </c>
+      <c r="BP236">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="237" spans="1:68">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>6469301</v>
+      </c>
+      <c r="C237" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" t="s">
+        <v>69</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45387.64583333334</v>
+      </c>
+      <c r="F237">
+        <v>27</v>
+      </c>
+      <c r="G237" t="s">
+        <v>85</v>
+      </c>
+      <c r="H237" t="s">
+        <v>73</v>
+      </c>
+      <c r="I237">
+        <v>2</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>2</v>
+      </c>
+      <c r="L237">
+        <v>2</v>
+      </c>
+      <c r="M237">
+        <v>1</v>
+      </c>
+      <c r="N237">
+        <v>3</v>
+      </c>
+      <c r="O237" t="s">
+        <v>246</v>
+      </c>
+      <c r="P237" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q237">
+        <v>4.4</v>
+      </c>
+      <c r="R237">
+        <v>2.1</v>
+      </c>
+      <c r="S237">
+        <v>2.38</v>
+      </c>
+      <c r="T237">
+        <v>1.43</v>
+      </c>
+      <c r="U237">
+        <v>2.65</v>
+      </c>
+      <c r="V237">
+        <v>2.95</v>
+      </c>
+      <c r="W237">
+        <v>1.35</v>
+      </c>
+      <c r="X237">
+        <v>7.4</v>
+      </c>
+      <c r="Y237">
+        <v>1.06</v>
+      </c>
+      <c r="Z237">
+        <v>3.95</v>
+      </c>
+      <c r="AA237">
+        <v>3.35</v>
+      </c>
+      <c r="AB237">
+        <v>1.97</v>
+      </c>
+      <c r="AC237">
+        <v>1.06</v>
+      </c>
+      <c r="AD237">
+        <v>7.2</v>
+      </c>
+      <c r="AE237">
+        <v>1.33</v>
+      </c>
+      <c r="AF237">
+        <v>3.1</v>
+      </c>
+      <c r="AG237">
+        <v>2.08</v>
+      </c>
+      <c r="AH237">
+        <v>1.76</v>
+      </c>
+      <c r="AI237">
+        <v>1.9</v>
+      </c>
+      <c r="AJ237">
+        <v>1.85</v>
+      </c>
+      <c r="AK237">
+        <v>1.9</v>
+      </c>
+      <c r="AL237">
+        <v>1.25</v>
+      </c>
+      <c r="AM237">
+        <v>1.18</v>
+      </c>
+      <c r="AN237">
+        <v>1.08</v>
+      </c>
+      <c r="AO237">
+        <v>1.08</v>
+      </c>
+      <c r="AP237">
+        <v>1.21</v>
+      </c>
+      <c r="AQ237">
+        <v>1</v>
+      </c>
+      <c r="AR237">
+        <v>1.62</v>
+      </c>
+      <c r="AS237">
+        <v>1.63</v>
+      </c>
+      <c r="AT237">
+        <v>3.25</v>
+      </c>
+      <c r="AU237">
+        <v>3</v>
+      </c>
+      <c r="AV237">
+        <v>5</v>
+      </c>
+      <c r="AW237">
+        <v>1</v>
+      </c>
+      <c r="AX237">
+        <v>4</v>
+      </c>
+      <c r="AY237">
+        <v>4</v>
+      </c>
+      <c r="AZ237">
+        <v>9</v>
+      </c>
+      <c r="BA237">
+        <v>2</v>
+      </c>
+      <c r="BB237">
+        <v>7</v>
+      </c>
+      <c r="BC237">
+        <v>9</v>
+      </c>
+      <c r="BD237">
+        <v>2.64</v>
+      </c>
+      <c r="BE237">
+        <v>9.1</v>
+      </c>
+      <c r="BF237">
+        <v>1.62</v>
+      </c>
+      <c r="BG237">
+        <v>1.21</v>
+      </c>
+      <c r="BH237">
+        <v>3.74</v>
+      </c>
+      <c r="BI237">
+        <v>1.41</v>
+      </c>
+      <c r="BJ237">
+        <v>2.6</v>
+      </c>
+      <c r="BK237">
+        <v>1.77</v>
+      </c>
+      <c r="BL237">
+        <v>1.95</v>
+      </c>
+      <c r="BM237">
+        <v>2.17</v>
+      </c>
+      <c r="BN237">
+        <v>1.58</v>
+      </c>
+      <c r="BO237">
+        <v>2.91</v>
+      </c>
+      <c r="BP237">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="238" spans="1:68">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>6469298</v>
+      </c>
+      <c r="C238" t="s">
+        <v>68</v>
+      </c>
+      <c r="D238" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45388.41666666666</v>
+      </c>
+      <c r="F238">
+        <v>27</v>
+      </c>
+      <c r="G238" t="s">
+        <v>78</v>
+      </c>
+      <c r="H238" t="s">
+        <v>72</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>1</v>
+      </c>
+      <c r="O238" t="s">
+        <v>92</v>
+      </c>
+      <c r="P238" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q238">
+        <v>2.52</v>
+      </c>
+      <c r="R238">
+        <v>2.19</v>
+      </c>
+      <c r="S238">
+        <v>4.92</v>
+      </c>
+      <c r="T238">
+        <v>1.42</v>
+      </c>
+      <c r="U238">
+        <v>2.61</v>
+      </c>
+      <c r="V238">
+        <v>3.16</v>
+      </c>
+      <c r="W238">
+        <v>1.26</v>
+      </c>
+      <c r="X238">
+        <v>7.5</v>
+      </c>
+      <c r="Y238">
+        <v>1.06</v>
+      </c>
+      <c r="Z238">
+        <v>1.85</v>
+      </c>
+      <c r="AA238">
+        <v>3.35</v>
+      </c>
+      <c r="AB238">
+        <v>3.85</v>
+      </c>
+      <c r="AC238">
+        <v>1.06</v>
+      </c>
+      <c r="AD238">
+        <v>8.5</v>
+      </c>
+      <c r="AE238">
+        <v>1.36</v>
+      </c>
+      <c r="AF238">
+        <v>3.1</v>
+      </c>
+      <c r="AG238">
+        <v>2.15</v>
+      </c>
+      <c r="AH238">
+        <v>1.65</v>
+      </c>
+      <c r="AI238">
+        <v>1.85</v>
+      </c>
+      <c r="AJ238">
+        <v>1.83</v>
+      </c>
+      <c r="AK238">
+        <v>1.22</v>
+      </c>
+      <c r="AL238">
+        <v>1.25</v>
+      </c>
+      <c r="AM238">
+        <v>1.85</v>
+      </c>
+      <c r="AN238">
+        <v>1.23</v>
+      </c>
+      <c r="AO238">
+        <v>0.92</v>
+      </c>
+      <c r="AP238">
+        <v>1.36</v>
+      </c>
+      <c r="AQ238">
+        <v>0.86</v>
+      </c>
+      <c r="AR238">
+        <v>1.58</v>
+      </c>
+      <c r="AS238">
+        <v>1.07</v>
+      </c>
+      <c r="AT238">
+        <v>2.65</v>
+      </c>
+      <c r="AU238">
+        <v>2</v>
+      </c>
+      <c r="AV238">
+        <v>0</v>
+      </c>
+      <c r="AW238">
+        <v>2</v>
+      </c>
+      <c r="AX238">
+        <v>8</v>
+      </c>
+      <c r="AY238">
+        <v>4</v>
+      </c>
+      <c r="AZ238">
+        <v>8</v>
+      </c>
+      <c r="BA238">
+        <v>4</v>
+      </c>
+      <c r="BB238">
+        <v>3</v>
+      </c>
+      <c r="BC238">
+        <v>7</v>
+      </c>
+      <c r="BD238">
+        <v>1.37</v>
+      </c>
+      <c r="BE238">
+        <v>9</v>
+      </c>
+      <c r="BF238">
+        <v>3.7</v>
+      </c>
+      <c r="BG238">
+        <v>1.23</v>
+      </c>
+      <c r="BH238">
+        <v>3.56</v>
+      </c>
+      <c r="BI238">
+        <v>1.44</v>
+      </c>
+      <c r="BJ238">
+        <v>2.51</v>
+      </c>
+      <c r="BK238">
+        <v>1.77</v>
+      </c>
+      <c r="BL238">
+        <v>1.95</v>
+      </c>
+      <c r="BM238">
+        <v>2.27</v>
+      </c>
+      <c r="BN238">
+        <v>1.53</v>
+      </c>
+      <c r="BO238">
+        <v>3.04</v>
+      </c>
+      <c r="BP238">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="239" spans="1:68">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>6469302</v>
+      </c>
+      <c r="C239" t="s">
+        <v>68</v>
+      </c>
+      <c r="D239" t="s">
+        <v>69</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45388.52083333334</v>
+      </c>
+      <c r="F239">
+        <v>27</v>
+      </c>
+      <c r="G239" t="s">
+        <v>79</v>
+      </c>
+      <c r="H239" t="s">
+        <v>86</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239">
+        <v>0</v>
+      </c>
+      <c r="O239" t="s">
+        <v>88</v>
+      </c>
+      <c r="P239" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q239">
+        <v>2.5</v>
+      </c>
+      <c r="R239">
+        <v>2.1</v>
+      </c>
+      <c r="S239">
+        <v>4.2</v>
+      </c>
+      <c r="T239">
+        <v>1.41</v>
+      </c>
+      <c r="U239">
+        <v>2.7</v>
+      </c>
+      <c r="V239">
+        <v>2.95</v>
+      </c>
+      <c r="W239">
+        <v>1.35</v>
+      </c>
+      <c r="X239">
+        <v>7.4</v>
+      </c>
+      <c r="Y239">
+        <v>1.06</v>
+      </c>
+      <c r="Z239">
+        <v>1.83</v>
+      </c>
+      <c r="AA239">
+        <v>3.4</v>
+      </c>
+      <c r="AB239">
+        <v>3.85</v>
+      </c>
+      <c r="AC239">
+        <v>1.07</v>
+      </c>
+      <c r="AD239">
+        <v>7.2</v>
+      </c>
+      <c r="AE239">
+        <v>1.33</v>
+      </c>
+      <c r="AF239">
+        <v>3.2</v>
+      </c>
+      <c r="AG239">
+        <v>2</v>
+      </c>
+      <c r="AH239">
+        <v>1.75</v>
+      </c>
+      <c r="AI239">
+        <v>1.85</v>
+      </c>
+      <c r="AJ239">
+        <v>1.9</v>
+      </c>
+      <c r="AK239">
+        <v>1.2</v>
+      </c>
+      <c r="AL239">
+        <v>1.25</v>
+      </c>
+      <c r="AM239">
+        <v>1.85</v>
+      </c>
+      <c r="AN239">
+        <v>0.92</v>
+      </c>
+      <c r="AO239">
+        <v>0.46</v>
+      </c>
+      <c r="AP239">
+        <v>0.93</v>
+      </c>
+      <c r="AQ239">
+        <v>0.5</v>
+      </c>
+      <c r="AR239">
+        <v>1.59</v>
+      </c>
+      <c r="AS239">
+        <v>1.2</v>
+      </c>
+      <c r="AT239">
+        <v>2.79</v>
+      </c>
+      <c r="AU239">
+        <v>2</v>
+      </c>
+      <c r="AV239">
+        <v>2</v>
+      </c>
+      <c r="AW239">
+        <v>6</v>
+      </c>
+      <c r="AX239">
+        <v>0</v>
+      </c>
+      <c r="AY239">
+        <v>8</v>
+      </c>
+      <c r="AZ239">
+        <v>2</v>
+      </c>
+      <c r="BA239">
+        <v>2</v>
+      </c>
+      <c r="BB239">
+        <v>2</v>
+      </c>
+      <c r="BC239">
+        <v>4</v>
+      </c>
+      <c r="BD239">
+        <v>1.51</v>
+      </c>
+      <c r="BE239">
+        <v>8.5</v>
+      </c>
+      <c r="BF239">
+        <v>3.07</v>
+      </c>
+      <c r="BG239">
+        <v>1.18</v>
+      </c>
+      <c r="BH239">
+        <v>4</v>
+      </c>
+      <c r="BI239">
+        <v>1.36</v>
+      </c>
+      <c r="BJ239">
+        <v>2.79</v>
+      </c>
+      <c r="BK239">
+        <v>1.7</v>
+      </c>
+      <c r="BL239">
+        <v>2.05</v>
+      </c>
+      <c r="BM239">
+        <v>2.05</v>
+      </c>
+      <c r="BN239">
+        <v>1.7</v>
+      </c>
+      <c r="BO239">
+        <v>2.67</v>
+      </c>
+      <c r="BP239">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="353">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -757,6 +757,18 @@
     <t>['25', '44']</t>
   </si>
   <si>
+    <t>['26', '90+1']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -884,9 +896,6 @@
   </si>
   <si>
     <t>['64']</t>
-  </si>
-  <si>
-    <t>['75']</t>
   </si>
   <si>
     <t>['54', '66', '90+6']</t>
@@ -1425,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP239"/>
+  <dimension ref="A1:BP243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1684,7 +1693,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q2">
         <v>4.33</v>
@@ -1765,7 +1774,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ2">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1968,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ3">
         <v>0.29</v>
@@ -2096,7 +2105,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2383,7 +2392,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ5">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2508,7 +2517,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2714,7 +2723,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2920,7 +2929,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q8">
         <v>2.38</v>
@@ -3126,7 +3135,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3204,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ9">
         <v>0.5</v>
@@ -3332,7 +3341,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q10">
         <v>3.2</v>
@@ -3950,7 +3959,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q13">
         <v>2.53</v>
@@ -4156,7 +4165,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4234,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ14">
         <v>1.15</v>
@@ -4443,7 +4452,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ15">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR15">
         <v>1.3</v>
@@ -4646,7 +4655,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ16">
         <v>1.38</v>
@@ -4980,7 +4989,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5392,7 +5401,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q20">
         <v>1.82</v>
@@ -5473,7 +5482,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ20">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR20">
         <v>1.63</v>
@@ -5679,7 +5688,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ21">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR21">
         <v>0.55</v>
@@ -6010,7 +6019,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6294,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ24">
         <v>0.54</v>
@@ -6834,7 +6843,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q27">
         <v>4.2</v>
@@ -7246,7 +7255,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q29">
         <v>2.95</v>
@@ -7530,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ30">
         <v>0.29</v>
@@ -7658,7 +7667,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q31">
         <v>2.3</v>
@@ -7864,7 +7873,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8070,7 +8079,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q33">
         <v>2.6</v>
@@ -8482,7 +8491,7 @@
         <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8688,7 +8697,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8769,7 +8778,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ36">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR36">
         <v>2.26</v>
@@ -9181,7 +9190,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ38">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR38">
         <v>1.69</v>
@@ -9387,7 +9396,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ39">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR39">
         <v>1.16</v>
@@ -9590,7 +9599,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ40">
         <v>1.38</v>
@@ -9796,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ41">
         <v>0.62</v>
@@ -10005,7 +10014,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ42">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR42">
         <v>1.83</v>
@@ -10336,7 +10345,7 @@
         <v>88</v>
       </c>
       <c r="P44" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q44">
         <v>2.7</v>
@@ -10414,7 +10423,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ44">
         <v>1.92</v>
@@ -10748,7 +10757,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -11366,7 +11375,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11572,7 +11581,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q50">
         <v>2.15</v>
@@ -11778,7 +11787,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11859,7 +11868,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ51">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR51">
         <v>1.43</v>
@@ -12271,7 +12280,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ53">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR53">
         <v>1.82</v>
@@ -12680,7 +12689,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ55">
         <v>1.15</v>
@@ -12886,10 +12895,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ56">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -13095,7 +13104,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ57">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR57">
         <v>1.95</v>
@@ -13298,7 +13307,7 @@
         <v>0.33</v>
       </c>
       <c r="AP58">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ58">
         <v>0.85</v>
@@ -13632,7 +13641,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -14044,7 +14053,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14662,7 +14671,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14946,7 +14955,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -15074,7 +15083,7 @@
         <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q67">
         <v>4.75</v>
@@ -15280,7 +15289,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15486,7 +15495,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15692,7 +15701,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15773,7 +15782,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ70">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR70">
         <v>1.44</v>
@@ -16182,10 +16191,10 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ72">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR72">
         <v>1.61</v>
@@ -16310,7 +16319,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16391,7 +16400,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ73">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR73">
         <v>1.68</v>
@@ -16516,7 +16525,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q74">
         <v>1.75</v>
@@ -16594,7 +16603,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ74">
         <v>0.86</v>
@@ -16803,7 +16812,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ75">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR75">
         <v>1.99</v>
@@ -16928,7 +16937,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17134,7 +17143,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q77">
         <v>2.04</v>
@@ -17212,7 +17221,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ77">
         <v>1.15</v>
@@ -17340,7 +17349,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q78">
         <v>3.05</v>
@@ -17624,7 +17633,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -17752,7 +17761,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17958,7 +17967,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18164,7 +18173,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q82">
         <v>3.3</v>
@@ -18370,7 +18379,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -19400,7 +19409,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19687,7 +19696,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ89">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR89">
         <v>1.78</v>
@@ -19890,7 +19899,7 @@
         <v>0.2</v>
       </c>
       <c r="AP90">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ90">
         <v>0.5</v>
@@ -20302,7 +20311,7 @@
         <v>0.25</v>
       </c>
       <c r="AP92">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ92">
         <v>0.86</v>
@@ -20511,7 +20520,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ93">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR93">
         <v>1.79</v>
@@ -20636,7 +20645,7 @@
         <v>88</v>
       </c>
       <c r="P94" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -20717,7 +20726,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ94">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR94">
         <v>1.63</v>
@@ -20920,7 +20929,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ95">
         <v>1.15</v>
@@ -21048,7 +21057,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21129,7 +21138,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ96">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR96">
         <v>1.62</v>
@@ -21254,7 +21263,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21332,7 +21341,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -21541,7 +21550,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ98">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR98">
         <v>1.69</v>
@@ -21872,7 +21881,7 @@
         <v>105</v>
       </c>
       <c r="P100" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22156,7 +22165,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ101">
         <v>1.46</v>
@@ -22284,7 +22293,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22362,7 +22371,7 @@
         <v>0</v>
       </c>
       <c r="AP102">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ102">
         <v>0.29</v>
@@ -22902,7 +22911,7 @@
         <v>88</v>
       </c>
       <c r="P105" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="Q105">
         <v>3.4</v>
@@ -22983,7 +22992,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ105">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR105">
         <v>1.49</v>
@@ -23108,7 +23117,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q106">
         <v>1.7</v>
@@ -23186,10 +23195,10 @@
         <v>1.4</v>
       </c>
       <c r="AP106">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ106">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR106">
         <v>1.75</v>
@@ -23314,7 +23323,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23520,7 +23529,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q108">
         <v>3.2</v>
@@ -23726,7 +23735,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23807,7 +23816,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ109">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR109">
         <v>1.13</v>
@@ -23932,7 +23941,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -24013,7 +24022,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ110">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR110">
         <v>1.82</v>
@@ -24344,7 +24353,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q112">
         <v>3.3</v>
@@ -24550,7 +24559,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q113">
         <v>2.9</v>
@@ -24756,7 +24765,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q114">
         <v>1.85</v>
@@ -24834,7 +24843,7 @@
         <v>0.2</v>
       </c>
       <c r="AP114">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ114">
         <v>0.86</v>
@@ -25580,7 +25589,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q118">
         <v>4.33</v>
@@ -25661,7 +25670,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ118">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR118">
         <v>1.32</v>
@@ -25864,10 +25873,10 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ119">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR119">
         <v>1.52</v>
@@ -26070,7 +26079,7 @@
         <v>0.5</v>
       </c>
       <c r="AP120">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ120">
         <v>0.54</v>
@@ -26276,7 +26285,7 @@
         <v>0</v>
       </c>
       <c r="AP121">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ121">
         <v>0.29</v>
@@ -26610,7 +26619,7 @@
         <v>88</v>
       </c>
       <c r="P123" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -27022,7 +27031,7 @@
         <v>88</v>
       </c>
       <c r="P125" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q125">
         <v>2.5</v>
@@ -27228,7 +27237,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27434,7 +27443,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27515,7 +27524,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ127">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR127">
         <v>1.19</v>
@@ -27640,7 +27649,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27846,7 +27855,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q129">
         <v>3.3</v>
@@ -27927,7 +27936,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ129">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR129">
         <v>1.76</v>
@@ -28052,7 +28061,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q130">
         <v>3.5</v>
@@ -28542,7 +28551,7 @@
         <v>1.33</v>
       </c>
       <c r="AP132">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ132">
         <v>1.38</v>
@@ -28876,7 +28885,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q134">
         <v>2.63</v>
@@ -28954,7 +28963,7 @@
         <v>0.43</v>
       </c>
       <c r="AP134">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ134">
         <v>0.54</v>
@@ -29082,7 +29091,7 @@
         <v>88</v>
       </c>
       <c r="P135" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29369,7 +29378,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ136">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR136">
         <v>1.63</v>
@@ -29494,7 +29503,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q137">
         <v>2.1</v>
@@ -29700,7 +29709,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29906,7 +29915,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q139">
         <v>2.1</v>
@@ -29984,10 +29993,10 @@
         <v>1.57</v>
       </c>
       <c r="AP139">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ139">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR139">
         <v>2.03</v>
@@ -30524,7 +30533,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q142">
         <v>2.05</v>
@@ -30602,7 +30611,7 @@
         <v>0.5</v>
       </c>
       <c r="AP142">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ142">
         <v>0.85</v>
@@ -30730,7 +30739,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30936,7 +30945,7 @@
         <v>158</v>
       </c>
       <c r="P144" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q144">
         <v>3.57</v>
@@ -31017,7 +31026,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ144">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR144">
         <v>1.11</v>
@@ -31223,7 +31232,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ145">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR145">
         <v>1.43</v>
@@ -31348,7 +31357,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31426,7 +31435,7 @@
         <v>1.25</v>
       </c>
       <c r="AP146">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ146">
         <v>1.38</v>
@@ -31760,7 +31769,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q148">
         <v>2.3</v>
@@ -31966,7 +31975,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32250,7 +32259,7 @@
         <v>1.17</v>
       </c>
       <c r="AP150">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ150">
         <v>1</v>
@@ -32378,7 +32387,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q151">
         <v>3.3</v>
@@ -32584,7 +32593,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q152">
         <v>2.05</v>
@@ -32665,7 +32674,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ152">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR152">
         <v>1.96</v>
@@ -32790,7 +32799,7 @@
         <v>119</v>
       </c>
       <c r="P153" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q153">
         <v>2.65</v>
@@ -32996,7 +33005,7 @@
         <v>195</v>
       </c>
       <c r="P154" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q154">
         <v>2.35</v>
@@ -33280,7 +33289,7 @@
         <v>0.88</v>
       </c>
       <c r="AP155">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ155">
         <v>0.62</v>
@@ -33486,10 +33495,10 @@
         <v>0.89</v>
       </c>
       <c r="AP156">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ156">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR156">
         <v>1.74</v>
@@ -33820,7 +33829,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -34313,7 +34322,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ160">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR160">
         <v>1.42</v>
@@ -34438,7 +34447,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q161">
         <v>2.91</v>
@@ -34644,7 +34653,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q162">
         <v>4.28</v>
@@ -34725,7 +34734,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ162">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR162">
         <v>1.28</v>
@@ -34850,7 +34859,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q163">
         <v>3.75</v>
@@ -34928,10 +34937,10 @@
         <v>1.63</v>
       </c>
       <c r="AP163">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ163">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR163">
         <v>1.78</v>
@@ -35056,7 +35065,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q164">
         <v>3.97</v>
@@ -35752,7 +35761,7 @@
         <v>1.25</v>
       </c>
       <c r="AP167">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ167">
         <v>1</v>
@@ -36292,7 +36301,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36910,7 +36919,7 @@
         <v>95</v>
       </c>
       <c r="P173" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q173">
         <v>2.5</v>
@@ -37194,7 +37203,7 @@
         <v>1.11</v>
       </c>
       <c r="AP174">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ174">
         <v>1.15</v>
@@ -37528,7 +37537,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37606,10 +37615,10 @@
         <v>1.3</v>
       </c>
       <c r="AP176">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ176">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR176">
         <v>1.79</v>
@@ -37734,7 +37743,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -37812,10 +37821,10 @@
         <v>1.78</v>
       </c>
       <c r="AP177">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ177">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR177">
         <v>1.61</v>
@@ -37940,7 +37949,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q178">
         <v>2.4</v>
@@ -38146,7 +38155,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q179">
         <v>3.98</v>
@@ -38227,7 +38236,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ179">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR179">
         <v>1.65</v>
@@ -38430,7 +38439,7 @@
         <v>0.8</v>
       </c>
       <c r="AP180">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ180">
         <v>0.86</v>
@@ -38639,7 +38648,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ181">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR181">
         <v>1.45</v>
@@ -38764,7 +38773,7 @@
         <v>179</v>
       </c>
       <c r="P182" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -39051,7 +39060,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ183">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR183">
         <v>1.74</v>
@@ -39382,7 +39391,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q185">
         <v>1.8</v>
@@ -39460,7 +39469,7 @@
         <v>0.44</v>
       </c>
       <c r="AP185">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ185">
         <v>0.5</v>
@@ -39588,7 +39597,7 @@
         <v>88</v>
       </c>
       <c r="P186" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q186">
         <v>3.7</v>
@@ -39794,7 +39803,7 @@
         <v>214</v>
       </c>
       <c r="P187" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q187">
         <v>2.65</v>
@@ -40206,7 +40215,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q189">
         <v>1.78</v>
@@ -40696,7 +40705,7 @@
         <v>2.3</v>
       </c>
       <c r="AP191">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ191">
         <v>1.92</v>
@@ -41030,7 +41039,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41314,7 +41323,7 @@
         <v>1.09</v>
       </c>
       <c r="AP194">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ194">
         <v>1.15</v>
@@ -41442,7 +41451,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -42060,7 +42069,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42141,7 +42150,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ198">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR198">
         <v>1.82</v>
@@ -42347,7 +42356,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ199">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR199">
         <v>1.48</v>
@@ -42553,7 +42562,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ200">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR200">
         <v>1.5</v>
@@ -42756,7 +42765,7 @@
         <v>0.91</v>
       </c>
       <c r="AP201">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ201">
         <v>0.85</v>
@@ -42962,10 +42971,10 @@
         <v>2</v>
       </c>
       <c r="AP202">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ202">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR202">
         <v>2.02</v>
@@ -43090,7 +43099,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q203">
         <v>3.2</v>
@@ -43914,7 +43923,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44120,7 +44129,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q208">
         <v>2.55</v>
@@ -44326,7 +44335,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44944,7 +44953,7 @@
         <v>231</v>
       </c>
       <c r="P212" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q212">
         <v>2.7</v>
@@ -45150,7 +45159,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -45434,7 +45443,7 @@
         <v>1.45</v>
       </c>
       <c r="AP214">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ214">
         <v>1.46</v>
@@ -45562,7 +45571,7 @@
         <v>88</v>
       </c>
       <c r="P215" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="Q215">
         <v>2.6</v>
@@ -45974,7 +45983,7 @@
         <v>88</v>
       </c>
       <c r="P217" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q217">
         <v>4.2</v>
@@ -46464,10 +46473,10 @@
         <v>1.42</v>
       </c>
       <c r="AP219">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ219">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR219">
         <v>1.66</v>
@@ -46592,7 +46601,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q220">
         <v>2.59</v>
@@ -46798,7 +46807,7 @@
         <v>88</v>
       </c>
       <c r="P221" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -46879,7 +46888,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ221">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR221">
         <v>1.61</v>
@@ -47004,7 +47013,7 @@
         <v>213</v>
       </c>
       <c r="P222" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q222">
         <v>3.46</v>
@@ -47288,7 +47297,7 @@
         <v>0.42</v>
       </c>
       <c r="AP223">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ223">
         <v>0.5</v>
@@ -47416,7 +47425,7 @@
         <v>235</v>
       </c>
       <c r="P224" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q224">
         <v>3.6</v>
@@ -47497,7 +47506,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ224">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR224">
         <v>1.6</v>
@@ -47828,7 +47837,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q226">
         <v>2.35</v>
@@ -47906,10 +47915,10 @@
         <v>0.92</v>
       </c>
       <c r="AP226">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ226">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR226">
         <v>1.99</v>
@@ -48034,7 +48043,7 @@
         <v>238</v>
       </c>
       <c r="P227" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q227">
         <v>1.85</v>
@@ -48446,7 +48455,7 @@
         <v>240</v>
       </c>
       <c r="P229" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q229">
         <v>2.8</v>
@@ -49270,7 +49279,7 @@
         <v>243</v>
       </c>
       <c r="P233" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="Q233">
         <v>2.88</v>
@@ -49348,7 +49357,7 @@
         <v>0.67</v>
       </c>
       <c r="AP233">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ233">
         <v>0.62</v>
@@ -49476,7 +49485,7 @@
         <v>244</v>
       </c>
       <c r="P234" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q234">
         <v>4.33</v>
@@ -49682,7 +49691,7 @@
         <v>112</v>
       </c>
       <c r="P235" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -49888,7 +49897,7 @@
         <v>245</v>
       </c>
       <c r="P236" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q236">
         <v>2</v>
@@ -50187,22 +50196,22 @@
         <v>3.25</v>
       </c>
       <c r="AU237">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV237">
         <v>5</v>
       </c>
       <c r="AW237">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX237">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY237">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AZ237">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA237">
         <v>2</v>
@@ -50602,28 +50611,28 @@
         <v>2</v>
       </c>
       <c r="AV239">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW239">
+        <v>13</v>
+      </c>
+      <c r="AX239">
         <v>6</v>
       </c>
-      <c r="AX239">
-        <v>0</v>
-      </c>
       <c r="AY239">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ239">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BA239">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB239">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC239">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BD239">
         <v>1.51</v>
@@ -50663,6 +50672,830 @@
       </c>
       <c r="BP239">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="240" spans="1:68">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>6469304</v>
+      </c>
+      <c r="C240" t="s">
+        <v>68</v>
+      </c>
+      <c r="D240" t="s">
+        <v>69</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45388.625</v>
+      </c>
+      <c r="F240">
+        <v>27</v>
+      </c>
+      <c r="G240" t="s">
+        <v>81</v>
+      </c>
+      <c r="H240" t="s">
+        <v>70</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
+      <c r="L240">
+        <v>2</v>
+      </c>
+      <c r="M240">
+        <v>1</v>
+      </c>
+      <c r="N240">
+        <v>3</v>
+      </c>
+      <c r="O240" t="s">
+        <v>247</v>
+      </c>
+      <c r="P240" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q240">
+        <v>2.4</v>
+      </c>
+      <c r="R240">
+        <v>2.1</v>
+      </c>
+      <c r="S240">
+        <v>5</v>
+      </c>
+      <c r="T240">
+        <v>1.44</v>
+      </c>
+      <c r="U240">
+        <v>2.63</v>
+      </c>
+      <c r="V240">
+        <v>3.4</v>
+      </c>
+      <c r="W240">
+        <v>1.3</v>
+      </c>
+      <c r="X240">
+        <v>10</v>
+      </c>
+      <c r="Y240">
+        <v>1.06</v>
+      </c>
+      <c r="Z240">
+        <v>1.83</v>
+      </c>
+      <c r="AA240">
+        <v>3.2</v>
+      </c>
+      <c r="AB240">
+        <v>4.1</v>
+      </c>
+      <c r="AC240">
+        <v>1.09</v>
+      </c>
+      <c r="AD240">
+        <v>6.5</v>
+      </c>
+      <c r="AE240">
+        <v>1.49</v>
+      </c>
+      <c r="AF240">
+        <v>2.55</v>
+      </c>
+      <c r="AG240">
+        <v>2.16</v>
+      </c>
+      <c r="AH240">
+        <v>1.61</v>
+      </c>
+      <c r="AI240">
+        <v>2.1</v>
+      </c>
+      <c r="AJ240">
+        <v>1.67</v>
+      </c>
+      <c r="AK240">
+        <v>1.2</v>
+      </c>
+      <c r="AL240">
+        <v>1.35</v>
+      </c>
+      <c r="AM240">
+        <v>1.91</v>
+      </c>
+      <c r="AN240">
+        <v>1.69</v>
+      </c>
+      <c r="AO240">
+        <v>1.31</v>
+      </c>
+      <c r="AP240">
+        <v>1.79</v>
+      </c>
+      <c r="AQ240">
+        <v>1.21</v>
+      </c>
+      <c r="AR240">
+        <v>1.65</v>
+      </c>
+      <c r="AS240">
+        <v>1.2</v>
+      </c>
+      <c r="AT240">
+        <v>2.85</v>
+      </c>
+      <c r="AU240">
+        <v>2</v>
+      </c>
+      <c r="AV240">
+        <v>0</v>
+      </c>
+      <c r="AW240">
+        <v>2</v>
+      </c>
+      <c r="AX240">
+        <v>4</v>
+      </c>
+      <c r="AY240">
+        <v>4</v>
+      </c>
+      <c r="AZ240">
+        <v>4</v>
+      </c>
+      <c r="BA240">
+        <v>6</v>
+      </c>
+      <c r="BB240">
+        <v>2</v>
+      </c>
+      <c r="BC240">
+        <v>8</v>
+      </c>
+      <c r="BD240">
+        <v>1.62</v>
+      </c>
+      <c r="BE240">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF240">
+        <v>2.76</v>
+      </c>
+      <c r="BG240">
+        <v>1.36</v>
+      </c>
+      <c r="BH240">
+        <v>2.79</v>
+      </c>
+      <c r="BI240">
+        <v>1.67</v>
+      </c>
+      <c r="BJ240">
+        <v>2.08</v>
+      </c>
+      <c r="BK240">
+        <v>2.11</v>
+      </c>
+      <c r="BL240">
+        <v>1.62</v>
+      </c>
+      <c r="BM240">
+        <v>2.84</v>
+      </c>
+      <c r="BN240">
+        <v>1.35</v>
+      </c>
+      <c r="BO240">
+        <v>3.9</v>
+      </c>
+      <c r="BP240">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="241" spans="1:68">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>6469303</v>
+      </c>
+      <c r="C241" t="s">
+        <v>68</v>
+      </c>
+      <c r="D241" t="s">
+        <v>69</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45389.3125</v>
+      </c>
+      <c r="F241">
+        <v>27</v>
+      </c>
+      <c r="G241" t="s">
+        <v>77</v>
+      </c>
+      <c r="H241" t="s">
+        <v>74</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>1</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>1</v>
+      </c>
+      <c r="O241" t="s">
+        <v>248</v>
+      </c>
+      <c r="P241" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q241">
+        <v>3.51</v>
+      </c>
+      <c r="R241">
+        <v>2.07</v>
+      </c>
+      <c r="S241">
+        <v>3.48</v>
+      </c>
+      <c r="T241">
+        <v>1.49</v>
+      </c>
+      <c r="U241">
+        <v>2.63</v>
+      </c>
+      <c r="V241">
+        <v>3.3</v>
+      </c>
+      <c r="W241">
+        <v>1.28</v>
+      </c>
+      <c r="X241">
+        <v>8</v>
+      </c>
+      <c r="Y241">
+        <v>1.05</v>
+      </c>
+      <c r="Z241">
+        <v>2.6</v>
+      </c>
+      <c r="AA241">
+        <v>3</v>
+      </c>
+      <c r="AB241">
+        <v>2.75</v>
+      </c>
+      <c r="AC241">
+        <v>1.09</v>
+      </c>
+      <c r="AD241">
+        <v>7</v>
+      </c>
+      <c r="AE241">
+        <v>1.45</v>
+      </c>
+      <c r="AF241">
+        <v>2.7</v>
+      </c>
+      <c r="AG241">
+        <v>2.3</v>
+      </c>
+      <c r="AH241">
+        <v>1.57</v>
+      </c>
+      <c r="AI241">
+        <v>1.93</v>
+      </c>
+      <c r="AJ241">
+        <v>1.77</v>
+      </c>
+      <c r="AK241">
+        <v>1.44</v>
+      </c>
+      <c r="AL241">
+        <v>1.3</v>
+      </c>
+      <c r="AM241">
+        <v>1.45</v>
+      </c>
+      <c r="AN241">
+        <v>1.85</v>
+      </c>
+      <c r="AO241">
+        <v>0.85</v>
+      </c>
+      <c r="AP241">
+        <v>1.93</v>
+      </c>
+      <c r="AQ241">
+        <v>0.79</v>
+      </c>
+      <c r="AR241">
+        <v>1.68</v>
+      </c>
+      <c r="AS241">
+        <v>1.45</v>
+      </c>
+      <c r="AT241">
+        <v>3.13</v>
+      </c>
+      <c r="AU241">
+        <v>3</v>
+      </c>
+      <c r="AV241">
+        <v>3</v>
+      </c>
+      <c r="AW241">
+        <v>7</v>
+      </c>
+      <c r="AX241">
+        <v>6</v>
+      </c>
+      <c r="AY241">
+        <v>10</v>
+      </c>
+      <c r="AZ241">
+        <v>9</v>
+      </c>
+      <c r="BA241">
+        <v>6</v>
+      </c>
+      <c r="BB241">
+        <v>3</v>
+      </c>
+      <c r="BC241">
+        <v>9</v>
+      </c>
+      <c r="BD241">
+        <v>1.82</v>
+      </c>
+      <c r="BE241">
+        <v>8</v>
+      </c>
+      <c r="BF241">
+        <v>2.33</v>
+      </c>
+      <c r="BG241">
+        <v>1.21</v>
+      </c>
+      <c r="BH241">
+        <v>3.74</v>
+      </c>
+      <c r="BI241">
+        <v>1.41</v>
+      </c>
+      <c r="BJ241">
+        <v>2.6</v>
+      </c>
+      <c r="BK241">
+        <v>1.73</v>
+      </c>
+      <c r="BL241">
+        <v>2</v>
+      </c>
+      <c r="BM241">
+        <v>2.17</v>
+      </c>
+      <c r="BN241">
+        <v>1.58</v>
+      </c>
+      <c r="BO241">
+        <v>2.91</v>
+      </c>
+      <c r="BP241">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="242" spans="1:68">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>6469299</v>
+      </c>
+      <c r="C242" t="s">
+        <v>68</v>
+      </c>
+      <c r="D242" t="s">
+        <v>69</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45389.41666666666</v>
+      </c>
+      <c r="F242">
+        <v>27</v>
+      </c>
+      <c r="G242" t="s">
+        <v>82</v>
+      </c>
+      <c r="H242" t="s">
+        <v>83</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242">
+        <v>1</v>
+      </c>
+      <c r="O242" t="s">
+        <v>249</v>
+      </c>
+      <c r="P242" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q242">
+        <v>2.9</v>
+      </c>
+      <c r="R242">
+        <v>2.2</v>
+      </c>
+      <c r="S242">
+        <v>3.3</v>
+      </c>
+      <c r="T242">
+        <v>1.35</v>
+      </c>
+      <c r="U242">
+        <v>2.95</v>
+      </c>
+      <c r="V242">
+        <v>2.6</v>
+      </c>
+      <c r="W242">
+        <v>1.42</v>
+      </c>
+      <c r="X242">
+        <v>6</v>
+      </c>
+      <c r="Y242">
+        <v>1.1</v>
+      </c>
+      <c r="Z242">
+        <v>2.25</v>
+      </c>
+      <c r="AA242">
+        <v>3.5</v>
+      </c>
+      <c r="AB242">
+        <v>2.88</v>
+      </c>
+      <c r="AC242">
+        <v>1.03</v>
+      </c>
+      <c r="AD242">
+        <v>10</v>
+      </c>
+      <c r="AE242">
+        <v>1.25</v>
+      </c>
+      <c r="AF242">
+        <v>3.75</v>
+      </c>
+      <c r="AG242">
+        <v>1.75</v>
+      </c>
+      <c r="AH242">
+        <v>2</v>
+      </c>
+      <c r="AI242">
+        <v>1.65</v>
+      </c>
+      <c r="AJ242">
+        <v>2.1</v>
+      </c>
+      <c r="AK242">
+        <v>1.35</v>
+      </c>
+      <c r="AL242">
+        <v>1.3</v>
+      </c>
+      <c r="AM242">
+        <v>1.52</v>
+      </c>
+      <c r="AN242">
+        <v>2.08</v>
+      </c>
+      <c r="AO242">
+        <v>1.85</v>
+      </c>
+      <c r="AP242">
+        <v>2.14</v>
+      </c>
+      <c r="AQ242">
+        <v>1.71</v>
+      </c>
+      <c r="AR242">
+        <v>1.65</v>
+      </c>
+      <c r="AS242">
+        <v>1.57</v>
+      </c>
+      <c r="AT242">
+        <v>3.22</v>
+      </c>
+      <c r="AU242">
+        <v>5</v>
+      </c>
+      <c r="AV242">
+        <v>7</v>
+      </c>
+      <c r="AW242">
+        <v>3</v>
+      </c>
+      <c r="AX242">
+        <v>9</v>
+      </c>
+      <c r="AY242">
+        <v>8</v>
+      </c>
+      <c r="AZ242">
+        <v>16</v>
+      </c>
+      <c r="BA242">
+        <v>5</v>
+      </c>
+      <c r="BB242">
+        <v>9</v>
+      </c>
+      <c r="BC242">
+        <v>14</v>
+      </c>
+      <c r="BD242">
+        <v>1.82</v>
+      </c>
+      <c r="BE242">
+        <v>8</v>
+      </c>
+      <c r="BF242">
+        <v>2.33</v>
+      </c>
+      <c r="BG242">
+        <v>1.2</v>
+      </c>
+      <c r="BH242">
+        <v>3.84</v>
+      </c>
+      <c r="BI242">
+        <v>1.4</v>
+      </c>
+      <c r="BJ242">
+        <v>2.64</v>
+      </c>
+      <c r="BK242">
+        <v>1.73</v>
+      </c>
+      <c r="BL242">
+        <v>2</v>
+      </c>
+      <c r="BM242">
+        <v>2.14</v>
+      </c>
+      <c r="BN242">
+        <v>1.6</v>
+      </c>
+      <c r="BO242">
+        <v>2.84</v>
+      </c>
+      <c r="BP242">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="243" spans="1:68">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>6469300</v>
+      </c>
+      <c r="C243" t="s">
+        <v>68</v>
+      </c>
+      <c r="D243" t="s">
+        <v>69</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45389.52083333334</v>
+      </c>
+      <c r="F243">
+        <v>27</v>
+      </c>
+      <c r="G243" t="s">
+        <v>71</v>
+      </c>
+      <c r="H243" t="s">
+        <v>80</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
+      <c r="M243">
+        <v>1</v>
+      </c>
+      <c r="N243">
+        <v>2</v>
+      </c>
+      <c r="O243" t="s">
+        <v>250</v>
+      </c>
+      <c r="P243" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q243">
+        <v>2.5</v>
+      </c>
+      <c r="R243">
+        <v>2.3</v>
+      </c>
+      <c r="S243">
+        <v>4</v>
+      </c>
+      <c r="T243">
+        <v>1.33</v>
+      </c>
+      <c r="U243">
+        <v>3.25</v>
+      </c>
+      <c r="V243">
+        <v>2.5</v>
+      </c>
+      <c r="W243">
+        <v>1.5</v>
+      </c>
+      <c r="X243">
+        <v>6</v>
+      </c>
+      <c r="Y243">
+        <v>1.13</v>
+      </c>
+      <c r="Z243">
+        <v>1.88</v>
+      </c>
+      <c r="AA243">
+        <v>3.5</v>
+      </c>
+      <c r="AB243">
+        <v>3.8</v>
+      </c>
+      <c r="AC243">
+        <v>1.03</v>
+      </c>
+      <c r="AD243">
+        <v>10</v>
+      </c>
+      <c r="AE243">
+        <v>1.2</v>
+      </c>
+      <c r="AF243">
+        <v>4.2</v>
+      </c>
+      <c r="AG243">
+        <v>1.73</v>
+      </c>
+      <c r="AH243">
+        <v>2.05</v>
+      </c>
+      <c r="AI243">
+        <v>1.62</v>
+      </c>
+      <c r="AJ243">
+        <v>2.2</v>
+      </c>
+      <c r="AK243">
+        <v>1.29</v>
+      </c>
+      <c r="AL243">
+        <v>1.29</v>
+      </c>
+      <c r="AM243">
+        <v>1.88</v>
+      </c>
+      <c r="AN243">
+        <v>1.92</v>
+      </c>
+      <c r="AO243">
+        <v>1.46</v>
+      </c>
+      <c r="AP243">
+        <v>1.86</v>
+      </c>
+      <c r="AQ243">
+        <v>1.43</v>
+      </c>
+      <c r="AR243">
+        <v>1.9</v>
+      </c>
+      <c r="AS243">
+        <v>1.42</v>
+      </c>
+      <c r="AT243">
+        <v>3.32</v>
+      </c>
+      <c r="AU243">
+        <v>4</v>
+      </c>
+      <c r="AV243">
+        <v>0</v>
+      </c>
+      <c r="AW243">
+        <v>2</v>
+      </c>
+      <c r="AX243">
+        <v>4</v>
+      </c>
+      <c r="AY243">
+        <v>6</v>
+      </c>
+      <c r="AZ243">
+        <v>4</v>
+      </c>
+      <c r="BA243">
+        <v>2</v>
+      </c>
+      <c r="BB243">
+        <v>4</v>
+      </c>
+      <c r="BC243">
+        <v>6</v>
+      </c>
+      <c r="BD243">
+        <v>1.41</v>
+      </c>
+      <c r="BE243">
+        <v>9</v>
+      </c>
+      <c r="BF243">
+        <v>3.49</v>
+      </c>
+      <c r="BG243">
+        <v>1.23</v>
+      </c>
+      <c r="BH243">
+        <v>3.56</v>
+      </c>
+      <c r="BI243">
+        <v>1.44</v>
+      </c>
+      <c r="BJ243">
+        <v>2.51</v>
+      </c>
+      <c r="BK243">
+        <v>1.8</v>
+      </c>
+      <c r="BL243">
+        <v>1.9</v>
+      </c>
+      <c r="BM243">
+        <v>2.27</v>
+      </c>
+      <c r="BN243">
+        <v>1.53</v>
+      </c>
+      <c r="BO243">
+        <v>3.04</v>
+      </c>
+      <c r="BP243">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -50814,19 +50814,19 @@
         <v>2.85</v>
       </c>
       <c r="AU240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV240">
         <v>0</v>
       </c>
       <c r="AW240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX240">
         <v>4</v>
       </c>
       <c r="AY240">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ240">
         <v>4</v>
@@ -51023,7 +51023,7 @@
         <v>3</v>
       </c>
       <c r="AV241">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW241">
         <v>7</v>
@@ -51035,7 +51035,7 @@
         <v>10</v>
       </c>
       <c r="AZ241">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA241">
         <v>6</v>
@@ -51432,31 +51432,31 @@
         <v>3.32</v>
       </c>
       <c r="AU243">
+        <v>7</v>
+      </c>
+      <c r="AV243">
+        <v>3</v>
+      </c>
+      <c r="AW243">
         <v>4</v>
       </c>
-      <c r="AV243">
-        <v>0</v>
-      </c>
-      <c r="AW243">
-        <v>2</v>
-      </c>
       <c r="AX243">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY243">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ243">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA243">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB243">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC243">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BD243">
         <v>1.41</v>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="354">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -769,6 +769,9 @@
     <t>['30']</t>
   </si>
   <si>
+    <t>['28']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -779,9 +782,6 @@
   </si>
   <si>
     <t>['60', '65']</t>
-  </si>
-  <si>
-    <t>['28']</t>
   </si>
   <si>
     <t>['8', '90+9']</t>
@@ -1073,6 +1073,9 @@
   </si>
   <si>
     <t>['73', '86']</t>
+  </si>
+  <si>
+    <t>['37', '66']</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP243"/>
+  <dimension ref="A1:BP244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1693,7 +1696,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q2">
         <v>4.33</v>
@@ -2105,7 +2108,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2517,7 +2520,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2723,7 +2726,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2929,7 +2932,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q8">
         <v>2.38</v>
@@ -3007,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ8">
         <v>0.54</v>
@@ -3834,7 +3837,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ12">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR12">
         <v>0.95</v>
@@ -4989,7 +4992,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -6097,7 +6100,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ23">
         <v>1.38</v>
@@ -7336,7 +7339,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ29">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR29">
         <v>1.57</v>
@@ -8363,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ34">
         <v>0.5</v>
@@ -11456,7 +11459,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ49">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR49">
         <v>1.4</v>
@@ -12692,7 +12695,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ55">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR55">
         <v>1.77</v>
@@ -13101,7 +13104,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ57">
         <v>1.71</v>
@@ -14053,7 +14056,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -16809,7 +16812,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ75">
         <v>1.21</v>
@@ -17224,7 +17227,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ77">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR77">
         <v>2.14</v>
@@ -20517,7 +20520,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ93">
         <v>0.79</v>
@@ -20932,7 +20935,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ95">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR95">
         <v>1.63</v>
@@ -23610,7 +23613,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ108">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR108">
         <v>1.25</v>
@@ -24637,7 +24640,7 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ113">
         <v>1.38</v>
@@ -26619,7 +26622,7 @@
         <v>88</v>
       </c>
       <c r="P123" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -27727,7 +27730,7 @@
         <v>0.43</v>
       </c>
       <c r="AP128">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ128">
         <v>0.85</v>
@@ -28142,7 +28145,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ130">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR130">
         <v>1.44</v>
@@ -30202,7 +30205,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ140">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR140">
         <v>1.32</v>
@@ -32053,7 +32056,7 @@
         <v>1.33</v>
       </c>
       <c r="AP149">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ149">
         <v>1.46</v>
@@ -32880,7 +32883,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ153">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR153">
         <v>1.58</v>
@@ -34525,7 +34528,7 @@
         <v>2.22</v>
       </c>
       <c r="AP161">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ161">
         <v>1.92</v>
@@ -37000,7 +37003,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ173">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR173">
         <v>1.57</v>
@@ -39263,7 +39266,7 @@
         <v>1.11</v>
       </c>
       <c r="AP184">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ184">
         <v>1</v>
@@ -41326,7 +41329,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ194">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR194">
         <v>1.73</v>
@@ -43383,7 +43386,7 @@
         <v>0.73</v>
       </c>
       <c r="AP204">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ204">
         <v>0.62</v>
@@ -46267,7 +46270,7 @@
         <v>0.92</v>
       </c>
       <c r="AP218">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ218">
         <v>0.86</v>
@@ -47094,7 +47097,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ222">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR222">
         <v>1.53</v>
@@ -51023,7 +51026,7 @@
         <v>3</v>
       </c>
       <c r="AV241">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW241">
         <v>7</v>
@@ -51035,7 +51038,7 @@
         <v>10</v>
       </c>
       <c r="AZ241">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA241">
         <v>6</v>
@@ -51496,6 +51499,212 @@
       </c>
       <c r="BP243">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="244" spans="1:68">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>6469297</v>
+      </c>
+      <c r="C244" t="s">
+        <v>68</v>
+      </c>
+      <c r="D244" t="s">
+        <v>69</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45390.58333333334</v>
+      </c>
+      <c r="F244">
+        <v>27</v>
+      </c>
+      <c r="G244" t="s">
+        <v>76</v>
+      </c>
+      <c r="H244" t="s">
+        <v>75</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244">
+        <v>1</v>
+      </c>
+      <c r="K244">
+        <v>2</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
+      <c r="M244">
+        <v>2</v>
+      </c>
+      <c r="N244">
+        <v>3</v>
+      </c>
+      <c r="O244" t="s">
+        <v>251</v>
+      </c>
+      <c r="P244" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q244">
+        <v>2.88</v>
+      </c>
+      <c r="R244">
+        <v>2.2</v>
+      </c>
+      <c r="S244">
+        <v>3.75</v>
+      </c>
+      <c r="T244">
+        <v>1.4</v>
+      </c>
+      <c r="U244">
+        <v>2.75</v>
+      </c>
+      <c r="V244">
+        <v>2.75</v>
+      </c>
+      <c r="W244">
+        <v>1.4</v>
+      </c>
+      <c r="X244">
+        <v>8</v>
+      </c>
+      <c r="Y244">
+        <v>1.08</v>
+      </c>
+      <c r="Z244">
+        <v>2.1</v>
+      </c>
+      <c r="AA244">
+        <v>3.25</v>
+      </c>
+      <c r="AB244">
+        <v>3</v>
+      </c>
+      <c r="AC244">
+        <v>1.05</v>
+      </c>
+      <c r="AD244">
+        <v>8.5</v>
+      </c>
+      <c r="AE244">
+        <v>1.3</v>
+      </c>
+      <c r="AF244">
+        <v>3.3</v>
+      </c>
+      <c r="AG244">
+        <v>1.83</v>
+      </c>
+      <c r="AH244">
+        <v>1.8</v>
+      </c>
+      <c r="AI244">
+        <v>1.7</v>
+      </c>
+      <c r="AJ244">
+        <v>2.05</v>
+      </c>
+      <c r="AK244">
+        <v>1.35</v>
+      </c>
+      <c r="AL244">
+        <v>1.33</v>
+      </c>
+      <c r="AM244">
+        <v>1.65</v>
+      </c>
+      <c r="AN244">
+        <v>1.54</v>
+      </c>
+      <c r="AO244">
+        <v>1.15</v>
+      </c>
+      <c r="AP244">
+        <v>1.43</v>
+      </c>
+      <c r="AQ244">
+        <v>1.29</v>
+      </c>
+      <c r="AR244">
+        <v>1.75</v>
+      </c>
+      <c r="AS244">
+        <v>1.34</v>
+      </c>
+      <c r="AT244">
+        <v>3.09</v>
+      </c>
+      <c r="AU244">
+        <v>5</v>
+      </c>
+      <c r="AV244">
+        <v>4</v>
+      </c>
+      <c r="AW244">
+        <v>6</v>
+      </c>
+      <c r="AX244">
+        <v>4</v>
+      </c>
+      <c r="AY244">
+        <v>11</v>
+      </c>
+      <c r="AZ244">
+        <v>8</v>
+      </c>
+      <c r="BA244">
+        <v>7</v>
+      </c>
+      <c r="BB244">
+        <v>4</v>
+      </c>
+      <c r="BC244">
+        <v>11</v>
+      </c>
+      <c r="BD244">
+        <v>1.59</v>
+      </c>
+      <c r="BE244">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF244">
+        <v>2.79</v>
+      </c>
+      <c r="BG244">
+        <v>1.25</v>
+      </c>
+      <c r="BH244">
+        <v>3.6</v>
+      </c>
+      <c r="BI244">
+        <v>1.36</v>
+      </c>
+      <c r="BJ244">
+        <v>2.79</v>
+      </c>
+      <c r="BK244">
+        <v>1.7</v>
+      </c>
+      <c r="BL244">
+        <v>2.05</v>
+      </c>
+      <c r="BM244">
+        <v>2.06</v>
+      </c>
+      <c r="BN244">
+        <v>1.68</v>
+      </c>
+      <c r="BO244">
+        <v>2.67</v>
+      </c>
+      <c r="BP244">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="355">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -772,6 +772,9 @@
     <t>['28']</t>
   </si>
   <si>
+    <t>['10']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -1437,7 +1440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP244"/>
+  <dimension ref="A1:BP245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1696,7 +1699,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q2">
         <v>4.33</v>
@@ -1774,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>1.71</v>
@@ -2108,7 +2111,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2520,7 +2523,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2726,7 +2729,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -3138,7 +3141,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3344,7 +3347,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q10">
         <v>3.2</v>
@@ -3834,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>1.29</v>
@@ -3962,7 +3965,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q13">
         <v>2.53</v>
@@ -4168,7 +4171,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4992,7 +4995,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5279,7 +5282,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ19">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5404,7 +5407,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q20">
         <v>1.82</v>
@@ -6022,7 +6025,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6846,7 +6849,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q27">
         <v>4.2</v>
@@ -7258,7 +7261,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q29">
         <v>2.95</v>
@@ -7670,7 +7673,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q31">
         <v>2.3</v>
@@ -7876,7 +7879,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8082,7 +8085,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q33">
         <v>2.6</v>
@@ -8160,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
         <v>0.54</v>
@@ -8494,7 +8497,7 @@
         <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8700,7 +8703,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -9811,7 +9814,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ41">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR41">
         <v>2.18</v>
@@ -10348,7 +10351,7 @@
         <v>88</v>
       </c>
       <c r="P44" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q44">
         <v>2.7</v>
@@ -10632,7 +10635,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10760,7 +10763,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -11378,7 +11381,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11584,7 +11587,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q50">
         <v>2.15</v>
@@ -11790,7 +11793,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -12489,7 +12492,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ54">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR54">
         <v>1.7</v>
@@ -13644,7 +13647,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -14056,7 +14059,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14137,7 +14140,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ62">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR62">
         <v>1.74</v>
@@ -14674,7 +14677,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -15086,7 +15089,7 @@
         <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q67">
         <v>4.75</v>
@@ -15164,7 +15167,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
         <v>1.38</v>
@@ -15292,7 +15295,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15498,7 +15501,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15704,7 +15707,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -16322,7 +16325,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16528,7 +16531,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q74">
         <v>1.75</v>
@@ -16940,7 +16943,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17146,7 +17149,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q77">
         <v>2.04</v>
@@ -17352,7 +17355,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q78">
         <v>3.05</v>
@@ -17764,7 +17767,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17845,7 +17848,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ80">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR80">
         <v>1.31</v>
@@ -17970,7 +17973,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18176,7 +18179,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q82">
         <v>3.3</v>
@@ -18382,7 +18385,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18666,7 +18669,7 @@
         <v>2</v>
       </c>
       <c r="AP84">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
         <v>1.92</v>
@@ -19412,7 +19415,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -20648,7 +20651,7 @@
         <v>88</v>
       </c>
       <c r="P94" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -21060,7 +21063,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21266,7 +21269,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21884,7 +21887,7 @@
         <v>105</v>
       </c>
       <c r="P100" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22296,7 +22299,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22583,7 +22586,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ103">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR103">
         <v>1.8</v>
@@ -23120,7 +23123,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q106">
         <v>1.7</v>
@@ -23326,7 +23329,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23532,7 +23535,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q108">
         <v>3.2</v>
@@ -23738,7 +23741,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23816,7 +23819,7 @@
         <v>0.83</v>
       </c>
       <c r="AP109">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ109">
         <v>0.79</v>
@@ -23944,7 +23947,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -24356,7 +24359,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q112">
         <v>3.3</v>
@@ -24562,7 +24565,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q113">
         <v>2.9</v>
@@ -24768,7 +24771,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q114">
         <v>1.85</v>
@@ -25261,7 +25264,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ116">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR116">
         <v>1.61</v>
@@ -25592,7 +25595,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q118">
         <v>4.33</v>
@@ -27034,7 +27037,7 @@
         <v>88</v>
       </c>
       <c r="P125" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q125">
         <v>2.5</v>
@@ -27112,7 +27115,7 @@
         <v>0.14</v>
       </c>
       <c r="AP125">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ125">
         <v>0.5</v>
@@ -27240,7 +27243,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27446,7 +27449,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27652,7 +27655,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27858,7 +27861,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q129">
         <v>3.3</v>
@@ -28064,7 +28067,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q130">
         <v>3.5</v>
@@ -28888,7 +28891,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q134">
         <v>2.63</v>
@@ -29094,7 +29097,7 @@
         <v>88</v>
       </c>
       <c r="P135" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29506,7 +29509,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q137">
         <v>2.1</v>
@@ -29712,7 +29715,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29918,7 +29921,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q139">
         <v>2.1</v>
@@ -30411,7 +30414,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ141">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR141">
         <v>1.51</v>
@@ -30536,7 +30539,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q142">
         <v>2.05</v>
@@ -30742,7 +30745,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30948,7 +30951,7 @@
         <v>158</v>
       </c>
       <c r="P144" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q144">
         <v>3.57</v>
@@ -31026,7 +31029,7 @@
         <v>1.13</v>
       </c>
       <c r="AP144">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ144">
         <v>1.43</v>
@@ -31360,7 +31363,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31772,7 +31775,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q148">
         <v>2.3</v>
@@ -31978,7 +31981,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32390,7 +32393,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q151">
         <v>3.3</v>
@@ -32596,7 +32599,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q152">
         <v>2.05</v>
@@ -32802,7 +32805,7 @@
         <v>119</v>
       </c>
       <c r="P153" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q153">
         <v>2.65</v>
@@ -33008,7 +33011,7 @@
         <v>195</v>
       </c>
       <c r="P154" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q154">
         <v>2.35</v>
@@ -33295,7 +33298,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ155">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR155">
         <v>1.61</v>
@@ -33832,7 +33835,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -34450,7 +34453,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q161">
         <v>2.91</v>
@@ -34656,7 +34659,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q162">
         <v>4.28</v>
@@ -34862,7 +34865,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q163">
         <v>3.75</v>
@@ -35068,7 +35071,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q164">
         <v>3.97</v>
@@ -35561,7 +35564,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ166">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR166">
         <v>1.74</v>
@@ -36304,7 +36307,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36922,7 +36925,7 @@
         <v>95</v>
       </c>
       <c r="P173" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q173">
         <v>2.5</v>
@@ -37412,7 +37415,7 @@
         <v>1</v>
       </c>
       <c r="AP175">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ175">
         <v>1</v>
@@ -37540,7 +37543,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37746,7 +37749,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -37952,7 +37955,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q178">
         <v>2.4</v>
@@ -38158,7 +38161,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q179">
         <v>3.98</v>
@@ -38776,7 +38779,7 @@
         <v>179</v>
       </c>
       <c r="P182" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -39394,7 +39397,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q185">
         <v>1.8</v>
@@ -39600,7 +39603,7 @@
         <v>88</v>
       </c>
       <c r="P186" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q186">
         <v>3.7</v>
@@ -39806,7 +39809,7 @@
         <v>214</v>
       </c>
       <c r="P187" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q187">
         <v>2.65</v>
@@ -39887,7 +39890,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ187">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR187">
         <v>1.49</v>
@@ -40218,7 +40221,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q189">
         <v>1.78</v>
@@ -41042,7 +41045,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41454,7 +41457,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -41738,7 +41741,7 @@
         <v>1.3</v>
       </c>
       <c r="AP196">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ196">
         <v>1.38</v>
@@ -42072,7 +42075,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -43102,7 +43105,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q203">
         <v>3.2</v>
@@ -43389,7 +43392,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ204">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR204">
         <v>1.79</v>
@@ -43926,7 +43929,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44132,7 +44135,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q208">
         <v>2.55</v>
@@ -44338,7 +44341,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44956,7 +44959,7 @@
         <v>231</v>
       </c>
       <c r="P212" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q212">
         <v>2.7</v>
@@ -45162,7 +45165,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -45652,7 +45655,7 @@
         <v>0</v>
       </c>
       <c r="AP215">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ215">
         <v>0.29</v>
@@ -45986,7 +45989,7 @@
         <v>88</v>
       </c>
       <c r="P217" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q217">
         <v>4.2</v>
@@ -46604,7 +46607,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q220">
         <v>2.59</v>
@@ -46810,7 +46813,7 @@
         <v>88</v>
       </c>
       <c r="P221" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -47016,7 +47019,7 @@
         <v>213</v>
       </c>
       <c r="P222" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q222">
         <v>3.46</v>
@@ -47428,7 +47431,7 @@
         <v>235</v>
       </c>
       <c r="P224" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q224">
         <v>3.6</v>
@@ -47840,7 +47843,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q226">
         <v>2.35</v>
@@ -48046,7 +48049,7 @@
         <v>238</v>
       </c>
       <c r="P227" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q227">
         <v>1.85</v>
@@ -48458,7 +48461,7 @@
         <v>240</v>
       </c>
       <c r="P229" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q229">
         <v>2.8</v>
@@ -49363,7 +49366,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ233">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR233">
         <v>1.68</v>
@@ -49488,7 +49491,7 @@
         <v>244</v>
       </c>
       <c r="P234" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q234">
         <v>4.33</v>
@@ -49694,7 +49697,7 @@
         <v>112</v>
       </c>
       <c r="P235" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -49772,7 +49775,7 @@
         <v>1.17</v>
       </c>
       <c r="AP235">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ235">
         <v>1.15</v>
@@ -49900,7 +49903,7 @@
         <v>245</v>
       </c>
       <c r="P236" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q236">
         <v>2</v>
@@ -51548,7 +51551,7 @@
         <v>251</v>
       </c>
       <c r="P244" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q244">
         <v>2.88</v>
@@ -51705,6 +51708,212 @@
       </c>
       <c r="BP244">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="245" spans="1:68">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>6469312</v>
+      </c>
+      <c r="C245" t="s">
+        <v>68</v>
+      </c>
+      <c r="D245" t="s">
+        <v>69</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45394.54166666666</v>
+      </c>
+      <c r="F245">
+        <v>28</v>
+      </c>
+      <c r="G245" t="s">
+        <v>70</v>
+      </c>
+      <c r="H245" t="s">
+        <v>78</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>1</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>1</v>
+      </c>
+      <c r="O245" t="s">
+        <v>252</v>
+      </c>
+      <c r="P245" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q245">
+        <v>3.43</v>
+      </c>
+      <c r="R245">
+        <v>1.99</v>
+      </c>
+      <c r="S245">
+        <v>3.8</v>
+      </c>
+      <c r="T245">
+        <v>1.55</v>
+      </c>
+      <c r="U245">
+        <v>2.46</v>
+      </c>
+      <c r="V245">
+        <v>3.7</v>
+      </c>
+      <c r="W245">
+        <v>1.24</v>
+      </c>
+      <c r="X245">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="Y245">
+        <v>1.03</v>
+      </c>
+      <c r="Z245">
+        <v>2.45</v>
+      </c>
+      <c r="AA245">
+        <v>2.85</v>
+      </c>
+      <c r="AB245">
+        <v>2.75</v>
+      </c>
+      <c r="AC245">
+        <v>1.09</v>
+      </c>
+      <c r="AD245">
+        <v>7</v>
+      </c>
+      <c r="AE245">
+        <v>1.49</v>
+      </c>
+      <c r="AF245">
+        <v>2.55</v>
+      </c>
+      <c r="AG245">
+        <v>2.4</v>
+      </c>
+      <c r="AH245">
+        <v>1.5</v>
+      </c>
+      <c r="AI245">
+        <v>2.1</v>
+      </c>
+      <c r="AJ245">
+        <v>1.7</v>
+      </c>
+      <c r="AK245">
+        <v>1.4</v>
+      </c>
+      <c r="AL245">
+        <v>1.3</v>
+      </c>
+      <c r="AM245">
+        <v>1.48</v>
+      </c>
+      <c r="AN245">
+        <v>0.85</v>
+      </c>
+      <c r="AO245">
+        <v>0.62</v>
+      </c>
+      <c r="AP245">
+        <v>1</v>
+      </c>
+      <c r="AQ245">
+        <v>0.57</v>
+      </c>
+      <c r="AR245">
+        <v>1.17</v>
+      </c>
+      <c r="AS245">
+        <v>1.33</v>
+      </c>
+      <c r="AT245">
+        <v>2.5</v>
+      </c>
+      <c r="AU245">
+        <v>2</v>
+      </c>
+      <c r="AV245">
+        <v>4</v>
+      </c>
+      <c r="AW245">
+        <v>1</v>
+      </c>
+      <c r="AX245">
+        <v>0</v>
+      </c>
+      <c r="AY245">
+        <v>3</v>
+      </c>
+      <c r="AZ245">
+        <v>4</v>
+      </c>
+      <c r="BA245">
+        <v>2</v>
+      </c>
+      <c r="BB245">
+        <v>1</v>
+      </c>
+      <c r="BC245">
+        <v>3</v>
+      </c>
+      <c r="BD245">
+        <v>1.94</v>
+      </c>
+      <c r="BE245">
+        <v>8.5</v>
+      </c>
+      <c r="BF245">
+        <v>2.12</v>
+      </c>
+      <c r="BG245">
+        <v>1.28</v>
+      </c>
+      <c r="BH245">
+        <v>3.18</v>
+      </c>
+      <c r="BI245">
+        <v>1.6</v>
+      </c>
+      <c r="BJ245">
+        <v>2.3</v>
+      </c>
+      <c r="BK245">
+        <v>1.99</v>
+      </c>
+      <c r="BL245">
+        <v>1.81</v>
+      </c>
+      <c r="BM245">
+        <v>2.54</v>
+      </c>
+      <c r="BN245">
+        <v>1.5</v>
+      </c>
+      <c r="BO245">
+        <v>3.42</v>
+      </c>
+      <c r="BP245">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="356">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -775,6 +775,9 @@
     <t>['10']</t>
   </si>
   <si>
+    <t>['2', '35', '47', '54', '59']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -1440,7 +1443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP245"/>
+  <dimension ref="A1:BP247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1699,7 +1702,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q2">
         <v>4.33</v>
@@ -2111,7 +2114,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2189,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2523,7 +2526,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2729,7 +2732,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -3016,7 +3019,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ8">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3141,7 +3144,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3347,7 +3350,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q10">
         <v>3.2</v>
@@ -3965,7 +3968,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q13">
         <v>2.53</v>
@@ -4171,7 +4174,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4455,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ15">
         <v>0.79</v>
@@ -4867,10 +4870,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ17">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4995,7 +4998,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5076,7 +5079,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ18">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR18">
         <v>1.62</v>
@@ -5407,7 +5410,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q20">
         <v>1.82</v>
@@ -6025,7 +6028,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6312,7 +6315,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ24">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR24">
         <v>2.24</v>
@@ -6849,7 +6852,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q27">
         <v>4.2</v>
@@ -7133,7 +7136,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ28">
         <v>1.92</v>
@@ -7261,7 +7264,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q29">
         <v>2.95</v>
@@ -7673,7 +7676,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q31">
         <v>2.3</v>
@@ -7751,7 +7754,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ31">
         <v>1.38</v>
@@ -7879,7 +7882,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8085,7 +8088,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q33">
         <v>2.6</v>
@@ -8166,7 +8169,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
         <v>1.24</v>
@@ -8497,7 +8500,7 @@
         <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8578,7 +8581,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ35">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR35">
         <v>0.88</v>
@@ -8703,7 +8706,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -10223,7 +10226,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ43">
         <v>1.38</v>
@@ -10351,7 +10354,7 @@
         <v>88</v>
       </c>
       <c r="P44" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q44">
         <v>2.7</v>
@@ -10763,7 +10766,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -11050,7 +11053,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ47">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>1.82</v>
@@ -11381,7 +11384,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11587,7 +11590,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q50">
         <v>2.15</v>
@@ -11665,7 +11668,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ50">
         <v>1.92</v>
@@ -11793,7 +11796,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -13316,7 +13319,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ58">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR58">
         <v>2.07</v>
@@ -13647,7 +13650,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13934,7 +13937,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ61">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR61">
         <v>0.95</v>
@@ -14059,7 +14062,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14137,7 +14140,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ62">
         <v>0.57</v>
@@ -14677,7 +14680,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -15089,7 +15092,7 @@
         <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q67">
         <v>4.75</v>
@@ -15295,7 +15298,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15373,7 +15376,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ68">
         <v>1.15</v>
@@ -15501,7 +15504,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15582,7 +15585,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ69">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR69">
         <v>1.83</v>
@@ -15707,7 +15710,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -16325,7 +16328,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16531,7 +16534,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q74">
         <v>1.75</v>
@@ -16943,7 +16946,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17149,7 +17152,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q77">
         <v>2.04</v>
@@ -17355,7 +17358,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q78">
         <v>3.05</v>
@@ -17433,7 +17436,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ78">
         <v>1.46</v>
@@ -17767,7 +17770,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17845,7 +17848,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ80">
         <v>0.57</v>
@@ -17973,7 +17976,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18054,7 +18057,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ81">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR81">
         <v>1.77</v>
@@ -18179,7 +18182,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q82">
         <v>3.3</v>
@@ -18385,7 +18388,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18466,7 +18469,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ83">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR83">
         <v>1.19</v>
@@ -19081,7 +19084,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ86">
         <v>1.38</v>
@@ -19415,7 +19418,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -20651,7 +20654,7 @@
         <v>88</v>
       </c>
       <c r="P94" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -21063,7 +21066,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21269,7 +21272,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21887,7 +21890,7 @@
         <v>105</v>
       </c>
       <c r="P100" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22299,7 +22302,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22995,7 +22998,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ105">
         <v>1.21</v>
@@ -23123,7 +23126,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q106">
         <v>1.7</v>
@@ -23329,7 +23332,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23535,7 +23538,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q108">
         <v>3.2</v>
@@ -23741,7 +23744,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23947,7 +23950,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -24025,7 +24028,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ110">
         <v>1.43</v>
@@ -24359,7 +24362,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q112">
         <v>3.3</v>
@@ -24565,7 +24568,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q113">
         <v>2.9</v>
@@ -24771,7 +24774,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q114">
         <v>1.85</v>
@@ -25058,7 +25061,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ115">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR115">
         <v>1.65</v>
@@ -25595,7 +25598,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q118">
         <v>4.33</v>
@@ -26088,7 +26091,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ120">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR120">
         <v>1.66</v>
@@ -27037,7 +27040,7 @@
         <v>88</v>
       </c>
       <c r="P125" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q125">
         <v>2.5</v>
@@ -27243,7 +27246,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27449,7 +27452,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27655,7 +27658,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27736,7 +27739,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ128">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR128">
         <v>1.89</v>
@@ -27861,7 +27864,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q129">
         <v>3.3</v>
@@ -28067,7 +28070,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q130">
         <v>3.5</v>
@@ -28145,7 +28148,7 @@
         <v>1.14</v>
       </c>
       <c r="AP130">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ130">
         <v>1.29</v>
@@ -28351,7 +28354,7 @@
         <v>1.2</v>
       </c>
       <c r="AP131">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ131">
         <v>1</v>
@@ -28891,7 +28894,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q134">
         <v>2.63</v>
@@ -28972,7 +28975,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ134">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR134">
         <v>1.63</v>
@@ -29097,7 +29100,7 @@
         <v>88</v>
       </c>
       <c r="P135" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29509,7 +29512,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q137">
         <v>2.1</v>
@@ -29715,7 +29718,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29793,7 +29796,7 @@
         <v>0.57</v>
       </c>
       <c r="AP138">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ138">
         <v>0.86</v>
@@ -29921,7 +29924,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q139">
         <v>2.1</v>
@@ -30539,7 +30542,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q142">
         <v>2.05</v>
@@ -30620,7 +30623,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ142">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR142">
         <v>1.68</v>
@@ -30745,7 +30748,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30951,7 +30954,7 @@
         <v>158</v>
       </c>
       <c r="P144" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q144">
         <v>3.57</v>
@@ -31363,7 +31366,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31775,7 +31778,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q148">
         <v>2.3</v>
@@ -31856,7 +31859,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ148">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR148">
         <v>1.81</v>
@@ -31981,7 +31984,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32393,7 +32396,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q151">
         <v>3.3</v>
@@ -32599,7 +32602,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q152">
         <v>2.05</v>
@@ -32677,7 +32680,7 @@
         <v>1.5</v>
       </c>
       <c r="AP152">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ152">
         <v>1.21</v>
@@ -32805,7 +32808,7 @@
         <v>119</v>
       </c>
       <c r="P153" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q153">
         <v>2.65</v>
@@ -33011,7 +33014,7 @@
         <v>195</v>
       </c>
       <c r="P154" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q154">
         <v>2.35</v>
@@ -33835,7 +33838,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -34122,7 +34125,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ159">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR159">
         <v>1.29</v>
@@ -34453,7 +34456,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q161">
         <v>2.91</v>
@@ -34659,7 +34662,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q162">
         <v>4.28</v>
@@ -34865,7 +34868,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q163">
         <v>3.75</v>
@@ -35071,7 +35074,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q164">
         <v>3.97</v>
@@ -35358,7 +35361,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ165">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR165">
         <v>1.19</v>
@@ -36307,7 +36310,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36385,7 +36388,7 @@
         <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ170">
         <v>0.5</v>
@@ -36925,7 +36928,7 @@
         <v>95</v>
       </c>
       <c r="P173" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q173">
         <v>2.5</v>
@@ -37543,7 +37546,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37749,7 +37752,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -37955,7 +37958,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q178">
         <v>2.4</v>
@@ -38161,7 +38164,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q179">
         <v>3.98</v>
@@ -38779,7 +38782,7 @@
         <v>179</v>
       </c>
       <c r="P182" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -39397,7 +39400,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q185">
         <v>1.8</v>
@@ -39603,7 +39606,7 @@
         <v>88</v>
       </c>
       <c r="P186" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q186">
         <v>3.7</v>
@@ -39684,7 +39687,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ186">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR186">
         <v>1.2</v>
@@ -39809,7 +39812,7 @@
         <v>214</v>
       </c>
       <c r="P187" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q187">
         <v>2.65</v>
@@ -40221,7 +40224,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q189">
         <v>1.78</v>
@@ -40299,7 +40302,7 @@
         <v>0</v>
       </c>
       <c r="AP189">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ189">
         <v>0.29</v>
@@ -40508,7 +40511,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ190">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR190">
         <v>1.72</v>
@@ -40917,7 +40920,7 @@
         <v>0.89</v>
       </c>
       <c r="AP192">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ192">
         <v>1</v>
@@ -41045,7 +41048,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41457,7 +41460,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -41947,7 +41950,7 @@
         <v>0</v>
       </c>
       <c r="AP197">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ197">
         <v>0.29</v>
@@ -42075,7 +42078,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42774,7 +42777,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ201">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR201">
         <v>1.68</v>
@@ -43105,7 +43108,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q203">
         <v>3.2</v>
@@ -43929,7 +43932,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44135,7 +44138,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q208">
         <v>2.55</v>
@@ -44341,7 +44344,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44959,7 +44962,7 @@
         <v>231</v>
       </c>
       <c r="P212" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q212">
         <v>2.7</v>
@@ -45037,10 +45040,10 @@
         <v>0.55</v>
       </c>
       <c r="AP212">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ212">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR212">
         <v>1.47</v>
@@ -45165,7 +45168,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -45243,7 +45246,7 @@
         <v>1</v>
       </c>
       <c r="AP213">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ213">
         <v>1.15</v>
@@ -45989,7 +45992,7 @@
         <v>88</v>
       </c>
       <c r="P217" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q217">
         <v>4.2</v>
@@ -46607,7 +46610,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q220">
         <v>2.59</v>
@@ -46688,7 +46691,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ220">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR220">
         <v>1.8</v>
@@ -46813,7 +46816,7 @@
         <v>88</v>
       </c>
       <c r="P221" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -47019,7 +47022,7 @@
         <v>213</v>
       </c>
       <c r="P222" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q222">
         <v>3.46</v>
@@ -47431,7 +47434,7 @@
         <v>235</v>
       </c>
       <c r="P224" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q224">
         <v>3.6</v>
@@ -47843,7 +47846,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q226">
         <v>2.35</v>
@@ -48049,7 +48052,7 @@
         <v>238</v>
       </c>
       <c r="P227" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q227">
         <v>1.85</v>
@@ -48130,7 +48133,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ227">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR227">
         <v>1.74</v>
@@ -48461,7 +48464,7 @@
         <v>240</v>
       </c>
       <c r="P229" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q229">
         <v>2.8</v>
@@ -48745,7 +48748,7 @@
         <v>1.08</v>
       </c>
       <c r="AP230">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ230">
         <v>1</v>
@@ -49157,7 +49160,7 @@
         <v>1.42</v>
       </c>
       <c r="AP232">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ232">
         <v>1.38</v>
@@ -49491,7 +49494,7 @@
         <v>244</v>
       </c>
       <c r="P234" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q234">
         <v>4.33</v>
@@ -49697,7 +49700,7 @@
         <v>112</v>
       </c>
       <c r="P235" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -49903,7 +49906,7 @@
         <v>245</v>
       </c>
       <c r="P236" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q236">
         <v>2</v>
@@ -51551,7 +51554,7 @@
         <v>251</v>
       </c>
       <c r="P244" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q244">
         <v>2.88</v>
@@ -51850,31 +51853,31 @@
         <v>2.5</v>
       </c>
       <c r="AU245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV245">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW245">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY245">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AZ245">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA245">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB245">
         <v>1</v>
       </c>
       <c r="BC245">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BD245">
         <v>1.94</v>
@@ -51914,6 +51917,418 @@
       </c>
       <c r="BP245">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="246" spans="1:68">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>6469308</v>
+      </c>
+      <c r="C246" t="s">
+        <v>68</v>
+      </c>
+      <c r="D246" t="s">
+        <v>69</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45394.64583333334</v>
+      </c>
+      <c r="F246">
+        <v>28</v>
+      </c>
+      <c r="G246" t="s">
+        <v>83</v>
+      </c>
+      <c r="H246" t="s">
+        <v>79</v>
+      </c>
+      <c r="I246">
+        <v>2</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>2</v>
+      </c>
+      <c r="L246">
+        <v>5</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>5</v>
+      </c>
+      <c r="O246" t="s">
+        <v>253</v>
+      </c>
+      <c r="P246" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q246">
+        <v>1.96</v>
+      </c>
+      <c r="R246">
+        <v>2.61</v>
+      </c>
+      <c r="S246">
+        <v>6.01</v>
+      </c>
+      <c r="T246">
+        <v>1.28</v>
+      </c>
+      <c r="U246">
+        <v>3.4</v>
+      </c>
+      <c r="V246">
+        <v>2.4</v>
+      </c>
+      <c r="W246">
+        <v>1.57</v>
+      </c>
+      <c r="X246">
+        <v>5</v>
+      </c>
+      <c r="Y246">
+        <v>1.13</v>
+      </c>
+      <c r="Z246">
+        <v>1.47</v>
+      </c>
+      <c r="AA246">
+        <v>4.47</v>
+      </c>
+      <c r="AB246">
+        <v>5.75</v>
+      </c>
+      <c r="AC246">
+        <v>1.03</v>
+      </c>
+      <c r="AD246">
+        <v>17.5</v>
+      </c>
+      <c r="AE246">
+        <v>1.2</v>
+      </c>
+      <c r="AF246">
+        <v>4.68</v>
+      </c>
+      <c r="AG246">
+        <v>1.6</v>
+      </c>
+      <c r="AH246">
+        <v>2.28</v>
+      </c>
+      <c r="AI246">
+        <v>1.69</v>
+      </c>
+      <c r="AJ246">
+        <v>2.11</v>
+      </c>
+      <c r="AK246">
+        <v>1.12</v>
+      </c>
+      <c r="AL246">
+        <v>1.18</v>
+      </c>
+      <c r="AM246">
+        <v>2.52</v>
+      </c>
+      <c r="AN246">
+        <v>1.54</v>
+      </c>
+      <c r="AO246">
+        <v>0.54</v>
+      </c>
+      <c r="AP246">
+        <v>1.64</v>
+      </c>
+      <c r="AQ246">
+        <v>0.5</v>
+      </c>
+      <c r="AR246">
+        <v>1.83</v>
+      </c>
+      <c r="AS246">
+        <v>1.1</v>
+      </c>
+      <c r="AT246">
+        <v>2.93</v>
+      </c>
+      <c r="AU246">
+        <v>7</v>
+      </c>
+      <c r="AV246">
+        <v>6</v>
+      </c>
+      <c r="AW246">
+        <v>9</v>
+      </c>
+      <c r="AX246">
+        <v>11</v>
+      </c>
+      <c r="AY246">
+        <v>16</v>
+      </c>
+      <c r="AZ246">
+        <v>17</v>
+      </c>
+      <c r="BA246">
+        <v>5</v>
+      </c>
+      <c r="BB246">
+        <v>3</v>
+      </c>
+      <c r="BC246">
+        <v>8</v>
+      </c>
+      <c r="BD246">
+        <v>1.31</v>
+      </c>
+      <c r="BE246">
+        <v>11.25</v>
+      </c>
+      <c r="BF246">
+        <v>3.95</v>
+      </c>
+      <c r="BG246">
+        <v>1.12</v>
+      </c>
+      <c r="BH246">
+        <v>5.25</v>
+      </c>
+      <c r="BI246">
+        <v>1.25</v>
+      </c>
+      <c r="BJ246">
+        <v>3.6</v>
+      </c>
+      <c r="BK246">
+        <v>1.28</v>
+      </c>
+      <c r="BL246">
+        <v>3.18</v>
+      </c>
+      <c r="BM246">
+        <v>1.6</v>
+      </c>
+      <c r="BN246">
+        <v>2.27</v>
+      </c>
+      <c r="BO246">
+        <v>1.82</v>
+      </c>
+      <c r="BP246">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="247" spans="1:68">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>6469311</v>
+      </c>
+      <c r="C247" t="s">
+        <v>68</v>
+      </c>
+      <c r="D247" t="s">
+        <v>69</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45395.41666666666</v>
+      </c>
+      <c r="F247">
+        <v>28</v>
+      </c>
+      <c r="G247" t="s">
+        <v>72</v>
+      </c>
+      <c r="H247" t="s">
+        <v>77</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>0</v>
+      </c>
+      <c r="O247" t="s">
+        <v>88</v>
+      </c>
+      <c r="P247" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q247">
+        <v>3.6</v>
+      </c>
+      <c r="R247">
+        <v>2.05</v>
+      </c>
+      <c r="S247">
+        <v>3</v>
+      </c>
+      <c r="T247">
+        <v>1.4</v>
+      </c>
+      <c r="U247">
+        <v>2.7</v>
+      </c>
+      <c r="V247">
+        <v>2.88</v>
+      </c>
+      <c r="W247">
+        <v>1.36</v>
+      </c>
+      <c r="X247">
+        <v>6.5</v>
+      </c>
+      <c r="Y247">
+        <v>1.08</v>
+      </c>
+      <c r="Z247">
+        <v>2.95</v>
+      </c>
+      <c r="AA247">
+        <v>3.15</v>
+      </c>
+      <c r="AB247">
+        <v>2.4</v>
+      </c>
+      <c r="AC247">
+        <v>1.06</v>
+      </c>
+      <c r="AD247">
+        <v>8.5</v>
+      </c>
+      <c r="AE247">
+        <v>1.33</v>
+      </c>
+      <c r="AF247">
+        <v>3.25</v>
+      </c>
+      <c r="AG247">
+        <v>1.98</v>
+      </c>
+      <c r="AH247">
+        <v>1.79</v>
+      </c>
+      <c r="AI247">
+        <v>1.75</v>
+      </c>
+      <c r="AJ247">
+        <v>1.95</v>
+      </c>
+      <c r="AK247">
+        <v>1.57</v>
+      </c>
+      <c r="AL247">
+        <v>1.33</v>
+      </c>
+      <c r="AM247">
+        <v>1.4</v>
+      </c>
+      <c r="AN247">
+        <v>1.92</v>
+      </c>
+      <c r="AO247">
+        <v>0.85</v>
+      </c>
+      <c r="AP247">
+        <v>1.86</v>
+      </c>
+      <c r="AQ247">
+        <v>0.86</v>
+      </c>
+      <c r="AR247">
+        <v>1.43</v>
+      </c>
+      <c r="AS247">
+        <v>1.27</v>
+      </c>
+      <c r="AT247">
+        <v>2.7</v>
+      </c>
+      <c r="AU247">
+        <v>2</v>
+      </c>
+      <c r="AV247">
+        <v>0</v>
+      </c>
+      <c r="AW247">
+        <v>1</v>
+      </c>
+      <c r="AX247">
+        <v>4</v>
+      </c>
+      <c r="AY247">
+        <v>3</v>
+      </c>
+      <c r="AZ247">
+        <v>4</v>
+      </c>
+      <c r="BA247">
+        <v>3</v>
+      </c>
+      <c r="BB247">
+        <v>8</v>
+      </c>
+      <c r="BC247">
+        <v>11</v>
+      </c>
+      <c r="BD247">
+        <v>2.41</v>
+      </c>
+      <c r="BE247">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF247">
+        <v>1.72</v>
+      </c>
+      <c r="BG247">
+        <v>1.22</v>
+      </c>
+      <c r="BH247">
+        <v>3.8</v>
+      </c>
+      <c r="BI247">
+        <v>1.32</v>
+      </c>
+      <c r="BJ247">
+        <v>2.98</v>
+      </c>
+      <c r="BK247">
+        <v>1.64</v>
+      </c>
+      <c r="BL247">
+        <v>2.21</v>
+      </c>
+      <c r="BM247">
+        <v>2</v>
+      </c>
+      <c r="BN247">
+        <v>1.8</v>
+      </c>
+      <c r="BO247">
+        <v>2.54</v>
+      </c>
+      <c r="BP247">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="361">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -778,6 +778,18 @@
     <t>['2', '35', '47', '54', '59']</t>
   </si>
   <si>
+    <t>['7', '23']</t>
+  </si>
+  <si>
+    <t>['19', '55', '71']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['40', '85']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -943,9 +955,6 @@
     <t>['56', '81']</t>
   </si>
   <si>
-    <t>['9']</t>
-  </si>
-  <si>
     <t>['16']</t>
   </si>
   <si>
@@ -1082,6 +1091,12 @@
   </si>
   <si>
     <t>['37', '66']</t>
+  </si>
+  <si>
+    <t>['49', '90+1']</t>
+  </si>
+  <si>
+    <t>['22', '25', '49']</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP247"/>
+  <dimension ref="A1:BP252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1702,7 +1717,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q2">
         <v>4.33</v>
@@ -2114,7 +2129,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2195,7 +2210,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2398,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ5">
         <v>1.43</v>
@@ -2526,7 +2541,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2607,7 +2622,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ6">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2732,7 +2747,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2810,10 +2825,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ7">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3144,7 +3159,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3350,7 +3365,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q10">
         <v>3.2</v>
@@ -3431,7 +3446,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ10">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3968,7 +3983,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q13">
         <v>2.53</v>
@@ -4046,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ13">
         <v>0.5</v>
@@ -4174,7 +4189,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4667,7 +4682,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ16">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4998,7 +5013,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5076,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ18">
         <v>0.86</v>
@@ -5282,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ19">
         <v>0.57</v>
@@ -5410,7 +5425,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q20">
         <v>1.82</v>
@@ -5488,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ20">
         <v>1.21</v>
@@ -5694,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ21">
         <v>0.79</v>
@@ -5903,7 +5918,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6028,7 +6043,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6109,7 +6124,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ23">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR23">
         <v>1.73</v>
@@ -6518,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ25">
         <v>0.86</v>
@@ -6852,7 +6867,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q27">
         <v>4.2</v>
@@ -7139,7 +7154,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ28">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR28">
         <v>1.13</v>
@@ -7264,7 +7279,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q29">
         <v>2.95</v>
@@ -7676,7 +7691,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q31">
         <v>2.3</v>
@@ -7757,7 +7772,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ31">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR31">
         <v>2.3</v>
@@ -7882,7 +7897,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7960,10 +7975,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ32">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR32">
         <v>0.98</v>
@@ -8088,7 +8103,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q33">
         <v>2.6</v>
@@ -8500,7 +8515,7 @@
         <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8578,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ35">
         <v>0.86</v>
@@ -8706,7 +8721,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8990,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ37">
         <v>0.86</v>
@@ -9402,7 +9417,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ39">
         <v>1.71</v>
@@ -9611,7 +9626,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ40">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR40">
         <v>2.09</v>
@@ -10229,7 +10244,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ43">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR43">
         <v>1.27</v>
@@ -10354,7 +10369,7 @@
         <v>88</v>
       </c>
       <c r="P44" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q44">
         <v>2.7</v>
@@ -10435,7 +10450,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ44">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR44">
         <v>1.54</v>
@@ -10641,7 +10656,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR45">
         <v>1.2</v>
@@ -10766,7 +10781,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10844,7 +10859,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ46">
         <v>0.29</v>
@@ -11384,7 +11399,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11462,7 +11477,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ49">
         <v>1.29</v>
@@ -11590,7 +11605,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q50">
         <v>2.15</v>
@@ -11671,7 +11686,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ50">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR50">
         <v>1.89</v>
@@ -11796,7 +11811,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11874,7 +11889,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ51">
         <v>1.21</v>
@@ -13522,7 +13537,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ59">
         <v>0.5</v>
@@ -13650,7 +13665,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13728,10 +13743,10 @@
         <v>1.75</v>
       </c>
       <c r="AP60">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ60">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR60">
         <v>1.22</v>
@@ -13934,7 +13949,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ61">
         <v>0.5</v>
@@ -14062,7 +14077,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14346,7 +14361,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ63">
         <v>0.29</v>
@@ -14555,7 +14570,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ64">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR64">
         <v>1.89</v>
@@ -14680,7 +14695,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14758,10 +14773,10 @@
         <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ65">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR65">
         <v>1.69</v>
@@ -14967,7 +14982,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR66">
         <v>1.58</v>
@@ -15092,7 +15107,7 @@
         <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q67">
         <v>4.75</v>
@@ -15173,7 +15188,7 @@
         <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR67">
         <v>1.03</v>
@@ -15298,7 +15313,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15504,7 +15519,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15710,7 +15725,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15788,7 +15803,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ70">
         <v>1.43</v>
@@ -16328,7 +16343,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16534,7 +16549,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q74">
         <v>1.75</v>
@@ -16946,7 +16961,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17152,7 +17167,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q77">
         <v>2.04</v>
@@ -17358,7 +17373,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q78">
         <v>3.05</v>
@@ -17439,7 +17454,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ78">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR78">
         <v>1.85</v>
@@ -17770,7 +17785,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17976,7 +17991,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18182,7 +18197,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q82">
         <v>3.3</v>
@@ -18260,10 +18275,10 @@
         <v>1.25</v>
       </c>
       <c r="AP82">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR82">
         <v>1.3</v>
@@ -18388,7 +18403,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18466,7 +18481,7 @@
         <v>0.4</v>
       </c>
       <c r="AP83">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ83">
         <v>0.5</v>
@@ -18675,7 +18690,7 @@
         <v>1</v>
       </c>
       <c r="AQ84">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR84">
         <v>0.98</v>
@@ -18878,10 +18893,10 @@
         <v>1.2</v>
       </c>
       <c r="AP85">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ85">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR85">
         <v>1.59</v>
@@ -19087,7 +19102,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ86">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR86">
         <v>1.8</v>
@@ -19290,10 +19305,10 @@
         <v>1.67</v>
       </c>
       <c r="AP87">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ87">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR87">
         <v>1.69</v>
@@ -19418,7 +19433,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19496,7 +19511,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ88">
         <v>1.15</v>
@@ -20654,7 +20669,7 @@
         <v>88</v>
       </c>
       <c r="P94" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -21066,7 +21081,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21272,7 +21287,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21762,7 +21777,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ99">
         <v>1.15</v>
@@ -21890,7 +21905,7 @@
         <v>105</v>
       </c>
       <c r="P100" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21968,10 +21983,10 @@
         <v>1.6</v>
       </c>
       <c r="AP100">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ100">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR100">
         <v>1.27</v>
@@ -22177,7 +22192,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ101">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR101">
         <v>1.7</v>
@@ -22302,7 +22317,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22792,7 +22807,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -23126,7 +23141,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q106">
         <v>1.7</v>
@@ -23332,7 +23347,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23538,7 +23553,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q108">
         <v>3.2</v>
@@ -23616,7 +23631,7 @@
         <v>0.83</v>
       </c>
       <c r="AP108">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ108">
         <v>1.29</v>
@@ -23744,7 +23759,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23950,7 +23965,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -24237,7 +24252,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ111">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR111">
         <v>1.68</v>
@@ -24362,7 +24377,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q112">
         <v>3.3</v>
@@ -24443,7 +24458,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ112">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR112">
         <v>1.57</v>
@@ -24568,7 +24583,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q113">
         <v>2.9</v>
@@ -24649,7 +24664,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ113">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR113">
         <v>1.72</v>
@@ -24774,7 +24789,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q114">
         <v>1.85</v>
@@ -25058,7 +25073,7 @@
         <v>0.33</v>
       </c>
       <c r="AP115">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ115">
         <v>0.86</v>
@@ -25470,7 +25485,7 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ117">
         <v>0.86</v>
@@ -25598,7 +25613,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q118">
         <v>4.33</v>
@@ -25676,7 +25691,7 @@
         <v>1.67</v>
       </c>
       <c r="AP118">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ118">
         <v>1.71</v>
@@ -26500,7 +26515,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ122">
         <v>1.15</v>
@@ -26709,7 +26724,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ123">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR123">
         <v>1.78</v>
@@ -26912,10 +26927,10 @@
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ124">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR124">
         <v>1.35</v>
@@ -27040,7 +27055,7 @@
         <v>88</v>
       </c>
       <c r="P125" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q125">
         <v>2.5</v>
@@ -27246,7 +27261,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27327,7 +27342,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ126">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR126">
         <v>1.73</v>
@@ -27452,7 +27467,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27530,7 +27545,7 @@
         <v>0.86</v>
       </c>
       <c r="AP127">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ127">
         <v>0.79</v>
@@ -27658,7 +27673,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27864,7 +27879,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q129">
         <v>3.3</v>
@@ -28070,7 +28085,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="Q130">
         <v>3.5</v>
@@ -28563,7 +28578,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ132">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR132">
         <v>2.15</v>
@@ -28769,7 +28784,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ133">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR133">
         <v>1.55</v>
@@ -28894,7 +28909,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q134">
         <v>2.63</v>
@@ -29100,7 +29115,7 @@
         <v>88</v>
       </c>
       <c r="P135" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29178,7 +29193,7 @@
         <v>0.86</v>
       </c>
       <c r="AP135">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ135">
         <v>1.15</v>
@@ -29384,7 +29399,7 @@
         <v>0.88</v>
       </c>
       <c r="AP136">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ136">
         <v>0.79</v>
@@ -29512,7 +29527,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q137">
         <v>2.1</v>
@@ -29590,10 +29605,10 @@
         <v>1.29</v>
       </c>
       <c r="AP137">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ137">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR137">
         <v>1.71</v>
@@ -29718,7 +29733,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29924,7 +29939,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q139">
         <v>2.1</v>
@@ -30208,7 +30223,7 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ140">
         <v>1.29</v>
@@ -30542,7 +30557,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q142">
         <v>2.05</v>
@@ -30748,7 +30763,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30829,7 +30844,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ143">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR143">
         <v>1.65</v>
@@ -30954,7 +30969,7 @@
         <v>158</v>
       </c>
       <c r="P144" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q144">
         <v>3.57</v>
@@ -31238,7 +31253,7 @@
         <v>1.86</v>
       </c>
       <c r="AP145">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ145">
         <v>1.71</v>
@@ -31366,7 +31381,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31447,7 +31462,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ146">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR146">
         <v>1.87</v>
@@ -31653,7 +31668,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ147">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR147">
         <v>1.68</v>
@@ -31778,7 +31793,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q148">
         <v>2.3</v>
@@ -31984,7 +31999,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32065,7 +32080,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ149">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR149">
         <v>1.84</v>
@@ -32396,7 +32411,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q151">
         <v>3.3</v>
@@ -32602,7 +32617,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q152">
         <v>2.05</v>
@@ -32808,7 +32823,7 @@
         <v>119</v>
       </c>
       <c r="P153" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q153">
         <v>2.65</v>
@@ -33014,7 +33029,7 @@
         <v>195</v>
       </c>
       <c r="P154" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q154">
         <v>2.35</v>
@@ -33710,10 +33725,10 @@
         <v>1.57</v>
       </c>
       <c r="AP157">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ157">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR157">
         <v>1.22</v>
@@ -33838,7 +33853,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -33916,7 +33931,7 @@
         <v>1.14</v>
       </c>
       <c r="AP158">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ158">
         <v>1</v>
@@ -34122,7 +34137,7 @@
         <v>0.78</v>
       </c>
       <c r="AP159">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ159">
         <v>0.86</v>
@@ -34328,7 +34343,7 @@
         <v>1.44</v>
       </c>
       <c r="AP160">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ160">
         <v>1.21</v>
@@ -34456,7 +34471,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q161">
         <v>2.91</v>
@@ -34537,7 +34552,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ161">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR161">
         <v>1.76</v>
@@ -34662,7 +34677,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q162">
         <v>4.28</v>
@@ -34740,7 +34755,7 @@
         <v>1.33</v>
       </c>
       <c r="AP162">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ162">
         <v>1.43</v>
@@ -34868,7 +34883,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q163">
         <v>3.75</v>
@@ -35074,7 +35089,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q164">
         <v>3.97</v>
@@ -35155,7 +35170,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ164">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR164">
         <v>1.63</v>
@@ -35358,7 +35373,7 @@
         <v>0.44</v>
       </c>
       <c r="AP165">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ165">
         <v>0.5</v>
@@ -35564,7 +35579,7 @@
         <v>0.89</v>
       </c>
       <c r="AP166">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ166">
         <v>0.57</v>
@@ -35773,7 +35788,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ167">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR167">
         <v>2.01</v>
@@ -36185,7 +36200,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ169">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR169">
         <v>1.91</v>
@@ -36310,7 +36325,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36597,7 +36612,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ171">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR171">
         <v>1.51</v>
@@ -36803,7 +36818,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ172">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR172">
         <v>1.82</v>
@@ -36928,7 +36943,7 @@
         <v>95</v>
       </c>
       <c r="P173" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q173">
         <v>2.5</v>
@@ -37546,7 +37561,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37752,7 +37767,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -37958,7 +37973,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q178">
         <v>2.4</v>
@@ -38164,7 +38179,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q179">
         <v>3.98</v>
@@ -38782,7 +38797,7 @@
         <v>179</v>
       </c>
       <c r="P182" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -38860,10 +38875,10 @@
         <v>1.44</v>
       </c>
       <c r="AP182">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ182">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR182">
         <v>1.63</v>
@@ -39066,7 +39081,7 @@
         <v>1.1</v>
       </c>
       <c r="AP183">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ183">
         <v>0.79</v>
@@ -39275,7 +39290,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ184">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR184">
         <v>1.81</v>
@@ -39400,7 +39415,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q185">
         <v>1.8</v>
@@ -39606,7 +39621,7 @@
         <v>88</v>
       </c>
       <c r="P186" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q186">
         <v>3.7</v>
@@ -39684,7 +39699,7 @@
         <v>0.7</v>
       </c>
       <c r="AP186">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ186">
         <v>0.86</v>
@@ -39812,7 +39827,7 @@
         <v>214</v>
       </c>
       <c r="P187" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q187">
         <v>2.65</v>
@@ -39890,7 +39905,7 @@
         <v>0.8</v>
       </c>
       <c r="AP187">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ187">
         <v>0.57</v>
@@ -40099,7 +40114,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ188">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR188">
         <v>1.61</v>
@@ -40224,7 +40239,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q189">
         <v>1.78</v>
@@ -40508,7 +40523,7 @@
         <v>0.5</v>
       </c>
       <c r="AP190">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ190">
         <v>0.5</v>
@@ -40717,7 +40732,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ191">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR191">
         <v>1.69</v>
@@ -41048,7 +41063,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41126,7 +41141,7 @@
         <v>1</v>
       </c>
       <c r="AP193">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ193">
         <v>1.15</v>
@@ -41460,7 +41475,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -41541,7 +41556,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ195">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR195">
         <v>1.6</v>
@@ -41747,7 +41762,7 @@
         <v>1</v>
       </c>
       <c r="AQ196">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR196">
         <v>1.13</v>
@@ -42078,7 +42093,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42568,7 +42583,7 @@
         <v>1.45</v>
       </c>
       <c r="AP200">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ200">
         <v>1.43</v>
@@ -43108,7 +43123,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q203">
         <v>3.2</v>
@@ -43186,7 +43201,7 @@
         <v>0.5</v>
       </c>
       <c r="AP203">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ203">
         <v>0.5</v>
@@ -43598,10 +43613,10 @@
         <v>1.6</v>
       </c>
       <c r="AP205">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ205">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR205">
         <v>1.71</v>
@@ -43932,7 +43947,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44013,7 +44028,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ207">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR207">
         <v>1.55</v>
@@ -44138,7 +44153,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q208">
         <v>2.55</v>
@@ -44216,10 +44231,10 @@
         <v>2.18</v>
       </c>
       <c r="AP208">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ208">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR208">
         <v>1.69</v>
@@ -44344,7 +44359,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44425,7 +44440,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ209">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR209">
         <v>1.61</v>
@@ -44628,7 +44643,7 @@
         <v>0.9</v>
       </c>
       <c r="AP210">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ210">
         <v>1</v>
@@ -44834,10 +44849,10 @@
         <v>1.45</v>
       </c>
       <c r="AP211">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ211">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR211">
         <v>1.51</v>
@@ -44962,7 +44977,7 @@
         <v>231</v>
       </c>
       <c r="P212" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q212">
         <v>2.7</v>
@@ -45168,7 +45183,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -45455,7 +45470,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ214">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR214">
         <v>1.73</v>
@@ -45992,7 +46007,7 @@
         <v>88</v>
       </c>
       <c r="P217" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q217">
         <v>4.2</v>
@@ -46610,7 +46625,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q220">
         <v>2.59</v>
@@ -46816,7 +46831,7 @@
         <v>88</v>
       </c>
       <c r="P221" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -47022,7 +47037,7 @@
         <v>213</v>
       </c>
       <c r="P222" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q222">
         <v>3.46</v>
@@ -47434,7 +47449,7 @@
         <v>235</v>
       </c>
       <c r="P224" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q224">
         <v>3.6</v>
@@ -47718,7 +47733,7 @@
         <v>1.08</v>
       </c>
       <c r="AP225">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ225">
         <v>1</v>
@@ -47846,7 +47861,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q226">
         <v>2.35</v>
@@ -48052,7 +48067,7 @@
         <v>238</v>
       </c>
       <c r="P227" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q227">
         <v>1.85</v>
@@ -48130,7 +48145,7 @@
         <v>0.5</v>
       </c>
       <c r="AP227">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ227">
         <v>0.5</v>
@@ -48336,7 +48351,7 @@
         <v>0.25</v>
       </c>
       <c r="AP228">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ228">
         <v>0.29</v>
@@ -48464,7 +48479,7 @@
         <v>240</v>
       </c>
       <c r="P229" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q229">
         <v>2.8</v>
@@ -48545,7 +48560,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ229">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR229">
         <v>1.47</v>
@@ -48751,7 +48766,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ230">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR230">
         <v>1.87</v>
@@ -48954,10 +48969,10 @@
         <v>1.42</v>
       </c>
       <c r="AP231">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ231">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR231">
         <v>1.29</v>
@@ -49163,7 +49178,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ232">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR232">
         <v>1.45</v>
@@ -49494,7 +49509,7 @@
         <v>244</v>
       </c>
       <c r="P234" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q234">
         <v>4.33</v>
@@ -49572,10 +49587,10 @@
         <v>1.33</v>
       </c>
       <c r="AP234">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ234">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR234">
         <v>1.49</v>
@@ -49700,7 +49715,7 @@
         <v>112</v>
       </c>
       <c r="P235" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -49906,7 +49921,7 @@
         <v>245</v>
       </c>
       <c r="P236" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q236">
         <v>2</v>
@@ -51554,7 +51569,7 @@
         <v>251</v>
       </c>
       <c r="P244" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q244">
         <v>2.88</v>
@@ -52265,31 +52280,31 @@
         <v>2.7</v>
       </c>
       <c r="AU247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW247">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX247">
+        <v>5</v>
+      </c>
+      <c r="AY247">
+        <v>6</v>
+      </c>
+      <c r="AZ247">
+        <v>7</v>
+      </c>
+      <c r="BA247">
         <v>4</v>
-      </c>
-      <c r="AY247">
-        <v>3</v>
-      </c>
-      <c r="AZ247">
-        <v>4</v>
-      </c>
-      <c r="BA247">
-        <v>3</v>
       </c>
       <c r="BB247">
         <v>8</v>
       </c>
       <c r="BC247">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD247">
         <v>2.41</v>
@@ -52329,6 +52344,1036 @@
       </c>
       <c r="BP247">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="248" spans="1:68">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>6469309</v>
+      </c>
+      <c r="C248" t="s">
+        <v>68</v>
+      </c>
+      <c r="D248" t="s">
+        <v>69</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45395.52083333334</v>
+      </c>
+      <c r="F248">
+        <v>28</v>
+      </c>
+      <c r="G248" t="s">
+        <v>86</v>
+      </c>
+      <c r="H248" t="s">
+        <v>82</v>
+      </c>
+      <c r="I248">
+        <v>2</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>2</v>
+      </c>
+      <c r="L248">
+        <v>2</v>
+      </c>
+      <c r="M248">
+        <v>1</v>
+      </c>
+      <c r="N248">
+        <v>3</v>
+      </c>
+      <c r="O248" t="s">
+        <v>254</v>
+      </c>
+      <c r="P248" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q248">
+        <v>5.11</v>
+      </c>
+      <c r="R248">
+        <v>2.25</v>
+      </c>
+      <c r="S248">
+        <v>2.4</v>
+      </c>
+      <c r="T248">
+        <v>1.41</v>
+      </c>
+      <c r="U248">
+        <v>2.93</v>
+      </c>
+      <c r="V248">
+        <v>3.02</v>
+      </c>
+      <c r="W248">
+        <v>1.39</v>
+      </c>
+      <c r="X248">
+        <v>7.4</v>
+      </c>
+      <c r="Y248">
+        <v>1.07</v>
+      </c>
+      <c r="Z248">
+        <v>4.4</v>
+      </c>
+      <c r="AA248">
+        <v>3.55</v>
+      </c>
+      <c r="AB248">
+        <v>1.78</v>
+      </c>
+      <c r="AC248">
+        <v>1.02</v>
+      </c>
+      <c r="AD248">
+        <v>8.6</v>
+      </c>
+      <c r="AE248">
+        <v>1.29</v>
+      </c>
+      <c r="AF248">
+        <v>3.14</v>
+      </c>
+      <c r="AG248">
+        <v>1.98</v>
+      </c>
+      <c r="AH248">
+        <v>1.79</v>
+      </c>
+      <c r="AI248">
+        <v>1.87</v>
+      </c>
+      <c r="AJ248">
+        <v>1.83</v>
+      </c>
+      <c r="AK248">
+        <v>2</v>
+      </c>
+      <c r="AL248">
+        <v>1.27</v>
+      </c>
+      <c r="AM248">
+        <v>1.18</v>
+      </c>
+      <c r="AN248">
+        <v>1.46</v>
+      </c>
+      <c r="AO248">
+        <v>1.38</v>
+      </c>
+      <c r="AP248">
+        <v>1.57</v>
+      </c>
+      <c r="AQ248">
+        <v>1.29</v>
+      </c>
+      <c r="AR248">
+        <v>1.28</v>
+      </c>
+      <c r="AS248">
+        <v>1.28</v>
+      </c>
+      <c r="AT248">
+        <v>2.56</v>
+      </c>
+      <c r="AU248">
+        <v>6</v>
+      </c>
+      <c r="AV248">
+        <v>3</v>
+      </c>
+      <c r="AW248">
+        <v>4</v>
+      </c>
+      <c r="AX248">
+        <v>9</v>
+      </c>
+      <c r="AY248">
+        <v>10</v>
+      </c>
+      <c r="AZ248">
+        <v>12</v>
+      </c>
+      <c r="BA248">
+        <v>8</v>
+      </c>
+      <c r="BB248">
+        <v>6</v>
+      </c>
+      <c r="BC248">
+        <v>14</v>
+      </c>
+      <c r="BD248">
+        <v>2.86</v>
+      </c>
+      <c r="BE248">
+        <v>9.4</v>
+      </c>
+      <c r="BF248">
+        <v>1.54</v>
+      </c>
+      <c r="BG248">
+        <v>1.21</v>
+      </c>
+      <c r="BH248">
+        <v>3.74</v>
+      </c>
+      <c r="BI248">
+        <v>1.41</v>
+      </c>
+      <c r="BJ248">
+        <v>2.6</v>
+      </c>
+      <c r="BK248">
+        <v>1.9</v>
+      </c>
+      <c r="BL248">
+        <v>1.9</v>
+      </c>
+      <c r="BM248">
+        <v>2.13</v>
+      </c>
+      <c r="BN248">
+        <v>1.7</v>
+      </c>
+      <c r="BO248">
+        <v>2.91</v>
+      </c>
+      <c r="BP248">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="249" spans="1:68">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>6469310</v>
+      </c>
+      <c r="C249" t="s">
+        <v>68</v>
+      </c>
+      <c r="D249" t="s">
+        <v>69</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45395.625</v>
+      </c>
+      <c r="F249">
+        <v>28</v>
+      </c>
+      <c r="G249" t="s">
+        <v>73</v>
+      </c>
+      <c r="H249" t="s">
+        <v>71</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>1</v>
+      </c>
+      <c r="K249">
+        <v>1</v>
+      </c>
+      <c r="L249">
+        <v>1</v>
+      </c>
+      <c r="M249">
+        <v>1</v>
+      </c>
+      <c r="N249">
+        <v>2</v>
+      </c>
+      <c r="O249" t="s">
+        <v>179</v>
+      </c>
+      <c r="P249" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q249">
+        <v>2.7</v>
+      </c>
+      <c r="R249">
+        <v>2.15</v>
+      </c>
+      <c r="S249">
+        <v>3.4</v>
+      </c>
+      <c r="T249">
+        <v>1.37</v>
+      </c>
+      <c r="U249">
+        <v>2.8</v>
+      </c>
+      <c r="V249">
+        <v>2.8</v>
+      </c>
+      <c r="W249">
+        <v>1.37</v>
+      </c>
+      <c r="X249">
+        <v>6.5</v>
+      </c>
+      <c r="Y249">
+        <v>1.08</v>
+      </c>
+      <c r="Z249">
+        <v>2.07</v>
+      </c>
+      <c r="AA249">
+        <v>3.4</v>
+      </c>
+      <c r="AB249">
+        <v>3.1</v>
+      </c>
+      <c r="AC249">
+        <v>1.05</v>
+      </c>
+      <c r="AD249">
+        <v>7.8</v>
+      </c>
+      <c r="AE249">
+        <v>1.27</v>
+      </c>
+      <c r="AF249">
+        <v>3.4</v>
+      </c>
+      <c r="AG249">
+        <v>2.07</v>
+      </c>
+      <c r="AH249">
+        <v>1.81</v>
+      </c>
+      <c r="AI249">
+        <v>1.7</v>
+      </c>
+      <c r="AJ249">
+        <v>2</v>
+      </c>
+      <c r="AK249">
+        <v>1.25</v>
+      </c>
+      <c r="AL249">
+        <v>1.33</v>
+      </c>
+      <c r="AM249">
+        <v>1.62</v>
+      </c>
+      <c r="AN249">
+        <v>2.38</v>
+      </c>
+      <c r="AO249">
+        <v>1.46</v>
+      </c>
+      <c r="AP249">
+        <v>2.29</v>
+      </c>
+      <c r="AQ249">
+        <v>1.43</v>
+      </c>
+      <c r="AR249">
+        <v>1.7</v>
+      </c>
+      <c r="AS249">
+        <v>1.42</v>
+      </c>
+      <c r="AT249">
+        <v>3.12</v>
+      </c>
+      <c r="AU249">
+        <v>7</v>
+      </c>
+      <c r="AV249">
+        <v>2</v>
+      </c>
+      <c r="AW249">
+        <v>1</v>
+      </c>
+      <c r="AX249">
+        <v>2</v>
+      </c>
+      <c r="AY249">
+        <v>8</v>
+      </c>
+      <c r="AZ249">
+        <v>4</v>
+      </c>
+      <c r="BA249">
+        <v>3</v>
+      </c>
+      <c r="BB249">
+        <v>3</v>
+      </c>
+      <c r="BC249">
+        <v>6</v>
+      </c>
+      <c r="BD249">
+        <v>1.73</v>
+      </c>
+      <c r="BE249">
+        <v>9</v>
+      </c>
+      <c r="BF249">
+        <v>2.41</v>
+      </c>
+      <c r="BG249">
+        <v>1.29</v>
+      </c>
+      <c r="BH249">
+        <v>3.3</v>
+      </c>
+      <c r="BI249">
+        <v>1.48</v>
+      </c>
+      <c r="BJ249">
+        <v>2.59</v>
+      </c>
+      <c r="BK249">
+        <v>1.9</v>
+      </c>
+      <c r="BL249">
+        <v>1.9</v>
+      </c>
+      <c r="BM249">
+        <v>2.27</v>
+      </c>
+      <c r="BN249">
+        <v>1.61</v>
+      </c>
+      <c r="BO249">
+        <v>2.8</v>
+      </c>
+      <c r="BP249">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="250" spans="1:68">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>6469313</v>
+      </c>
+      <c r="C250" t="s">
+        <v>68</v>
+      </c>
+      <c r="D250" t="s">
+        <v>69</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45396.3125</v>
+      </c>
+      <c r="F250">
+        <v>28</v>
+      </c>
+      <c r="G250" t="s">
+        <v>84</v>
+      </c>
+      <c r="H250" t="s">
+        <v>85</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>1</v>
+      </c>
+      <c r="L250">
+        <v>3</v>
+      </c>
+      <c r="M250">
+        <v>2</v>
+      </c>
+      <c r="N250">
+        <v>5</v>
+      </c>
+      <c r="O250" t="s">
+        <v>255</v>
+      </c>
+      <c r="P250" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q250">
+        <v>3.9</v>
+      </c>
+      <c r="R250">
+        <v>2.05</v>
+      </c>
+      <c r="S250">
+        <v>2.65</v>
+      </c>
+      <c r="T250">
+        <v>1.4</v>
+      </c>
+      <c r="U250">
+        <v>2.7</v>
+      </c>
+      <c r="V250">
+        <v>2.8</v>
+      </c>
+      <c r="W250">
+        <v>1.38</v>
+      </c>
+      <c r="X250">
+        <v>7</v>
+      </c>
+      <c r="Y250">
+        <v>1.07</v>
+      </c>
+      <c r="Z250">
+        <v>3.4</v>
+      </c>
+      <c r="AA250">
+        <v>3.4</v>
+      </c>
+      <c r="AB250">
+        <v>2.07</v>
+      </c>
+      <c r="AC250">
+        <v>1.06</v>
+      </c>
+      <c r="AD250">
+        <v>8.5</v>
+      </c>
+      <c r="AE250">
+        <v>1.3</v>
+      </c>
+      <c r="AF250">
+        <v>3.35</v>
+      </c>
+      <c r="AG250">
+        <v>2</v>
+      </c>
+      <c r="AH250">
+        <v>1.84</v>
+      </c>
+      <c r="AI250">
+        <v>1.8</v>
+      </c>
+      <c r="AJ250">
+        <v>1.95</v>
+      </c>
+      <c r="AK250">
+        <v>1.75</v>
+      </c>
+      <c r="AL250">
+        <v>1.25</v>
+      </c>
+      <c r="AM250">
+        <v>1.3</v>
+      </c>
+      <c r="AN250">
+        <v>1.08</v>
+      </c>
+      <c r="AO250">
+        <v>1.38</v>
+      </c>
+      <c r="AP250">
+        <v>1.21</v>
+      </c>
+      <c r="AQ250">
+        <v>1.29</v>
+      </c>
+      <c r="AR250">
+        <v>1.18</v>
+      </c>
+      <c r="AS250">
+        <v>1.4</v>
+      </c>
+      <c r="AT250">
+        <v>2.58</v>
+      </c>
+      <c r="AU250">
+        <v>7</v>
+      </c>
+      <c r="AV250">
+        <v>7</v>
+      </c>
+      <c r="AW250">
+        <v>4</v>
+      </c>
+      <c r="AX250">
+        <v>5</v>
+      </c>
+      <c r="AY250">
+        <v>11</v>
+      </c>
+      <c r="AZ250">
+        <v>12</v>
+      </c>
+      <c r="BA250">
+        <v>4</v>
+      </c>
+      <c r="BB250">
+        <v>3</v>
+      </c>
+      <c r="BC250">
+        <v>7</v>
+      </c>
+      <c r="BD250">
+        <v>2.11</v>
+      </c>
+      <c r="BE250">
+        <v>9</v>
+      </c>
+      <c r="BF250">
+        <v>1.92</v>
+      </c>
+      <c r="BG250">
+        <v>1.22</v>
+      </c>
+      <c r="BH250">
+        <v>3.8</v>
+      </c>
+      <c r="BI250">
+        <v>1.31</v>
+      </c>
+      <c r="BJ250">
+        <v>3.04</v>
+      </c>
+      <c r="BK250">
+        <v>1.62</v>
+      </c>
+      <c r="BL250">
+        <v>2.24</v>
+      </c>
+      <c r="BM250">
+        <v>2</v>
+      </c>
+      <c r="BN250">
+        <v>1.8</v>
+      </c>
+      <c r="BO250">
+        <v>2.54</v>
+      </c>
+      <c r="BP250">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:68">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>6469306</v>
+      </c>
+      <c r="C251" t="s">
+        <v>68</v>
+      </c>
+      <c r="D251" t="s">
+        <v>69</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45396.41666666666</v>
+      </c>
+      <c r="F251">
+        <v>28</v>
+      </c>
+      <c r="G251" t="s">
+        <v>80</v>
+      </c>
+      <c r="H251" t="s">
+        <v>87</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251">
+        <v>2</v>
+      </c>
+      <c r="K251">
+        <v>3</v>
+      </c>
+      <c r="L251">
+        <v>1</v>
+      </c>
+      <c r="M251">
+        <v>3</v>
+      </c>
+      <c r="N251">
+        <v>4</v>
+      </c>
+      <c r="O251" t="s">
+        <v>256</v>
+      </c>
+      <c r="P251" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q251">
+        <v>2.3</v>
+      </c>
+      <c r="R251">
+        <v>2.3</v>
+      </c>
+      <c r="S251">
+        <v>4.33</v>
+      </c>
+      <c r="T251">
+        <v>1.33</v>
+      </c>
+      <c r="U251">
+        <v>3</v>
+      </c>
+      <c r="V251">
+        <v>2.5</v>
+      </c>
+      <c r="W251">
+        <v>1.48</v>
+      </c>
+      <c r="X251">
+        <v>5.5</v>
+      </c>
+      <c r="Y251">
+        <v>1.11</v>
+      </c>
+      <c r="Z251">
+        <v>1.82</v>
+      </c>
+      <c r="AA251">
+        <v>3.6</v>
+      </c>
+      <c r="AB251">
+        <v>4.1</v>
+      </c>
+      <c r="AC251">
+        <v>1.03</v>
+      </c>
+      <c r="AD251">
+        <v>10</v>
+      </c>
+      <c r="AE251">
+        <v>1.25</v>
+      </c>
+      <c r="AF251">
+        <v>3.75</v>
+      </c>
+      <c r="AG251">
+        <v>1.8</v>
+      </c>
+      <c r="AH251">
+        <v>1.9</v>
+      </c>
+      <c r="AI251">
+        <v>1.75</v>
+      </c>
+      <c r="AJ251">
+        <v>2</v>
+      </c>
+      <c r="AK251">
+        <v>1.22</v>
+      </c>
+      <c r="AL251">
+        <v>1.29</v>
+      </c>
+      <c r="AM251">
+        <v>2</v>
+      </c>
+      <c r="AN251">
+        <v>2.46</v>
+      </c>
+      <c r="AO251">
+        <v>1</v>
+      </c>
+      <c r="AP251">
+        <v>2.29</v>
+      </c>
+      <c r="AQ251">
+        <v>1.14</v>
+      </c>
+      <c r="AR251">
+        <v>1.83</v>
+      </c>
+      <c r="AS251">
+        <v>1.36</v>
+      </c>
+      <c r="AT251">
+        <v>3.19</v>
+      </c>
+      <c r="AU251">
+        <v>7</v>
+      </c>
+      <c r="AV251">
+        <v>10</v>
+      </c>
+      <c r="AW251">
+        <v>9</v>
+      </c>
+      <c r="AX251">
+        <v>6</v>
+      </c>
+      <c r="AY251">
+        <v>16</v>
+      </c>
+      <c r="AZ251">
+        <v>16</v>
+      </c>
+      <c r="BA251">
+        <v>8</v>
+      </c>
+      <c r="BB251">
+        <v>4</v>
+      </c>
+      <c r="BC251">
+        <v>12</v>
+      </c>
+      <c r="BD251">
+        <v>1.72</v>
+      </c>
+      <c r="BE251">
+        <v>9</v>
+      </c>
+      <c r="BF251">
+        <v>2.42</v>
+      </c>
+      <c r="BG251">
+        <v>1.2</v>
+      </c>
+      <c r="BH251">
+        <v>3.88</v>
+      </c>
+      <c r="BI251">
+        <v>1.39</v>
+      </c>
+      <c r="BJ251">
+        <v>2.67</v>
+      </c>
+      <c r="BK251">
+        <v>1.77</v>
+      </c>
+      <c r="BL251">
+        <v>1.95</v>
+      </c>
+      <c r="BM251">
+        <v>2.2</v>
+      </c>
+      <c r="BN251">
+        <v>1.66</v>
+      </c>
+      <c r="BO251">
+        <v>2.84</v>
+      </c>
+      <c r="BP251">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="252" spans="1:68">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>6469305</v>
+      </c>
+      <c r="C252" t="s">
+        <v>68</v>
+      </c>
+      <c r="D252" t="s">
+        <v>69</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45396.52083333334</v>
+      </c>
+      <c r="F252">
+        <v>28</v>
+      </c>
+      <c r="G252" t="s">
+        <v>75</v>
+      </c>
+      <c r="H252" t="s">
+        <v>81</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>1</v>
+      </c>
+      <c r="L252">
+        <v>2</v>
+      </c>
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252">
+        <v>2</v>
+      </c>
+      <c r="O252" t="s">
+        <v>257</v>
+      </c>
+      <c r="P252" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q252">
+        <v>3</v>
+      </c>
+      <c r="R252">
+        <v>2</v>
+      </c>
+      <c r="S252">
+        <v>3.5</v>
+      </c>
+      <c r="T252">
+        <v>1.45</v>
+      </c>
+      <c r="U252">
+        <v>2.55</v>
+      </c>
+      <c r="V252">
+        <v>3</v>
+      </c>
+      <c r="W252">
+        <v>1.33</v>
+      </c>
+      <c r="X252">
+        <v>7.5</v>
+      </c>
+      <c r="Y252">
+        <v>1.06</v>
+      </c>
+      <c r="Z252">
+        <v>2.37</v>
+      </c>
+      <c r="AA252">
+        <v>3.2</v>
+      </c>
+      <c r="AB252">
+        <v>2.95</v>
+      </c>
+      <c r="AC252">
+        <v>1.06</v>
+      </c>
+      <c r="AD252">
+        <v>8.5</v>
+      </c>
+      <c r="AE252">
+        <v>1.36</v>
+      </c>
+      <c r="AF252">
+        <v>3.1</v>
+      </c>
+      <c r="AG252">
+        <v>2</v>
+      </c>
+      <c r="AH252">
+        <v>1.7</v>
+      </c>
+      <c r="AI252">
+        <v>1.8</v>
+      </c>
+      <c r="AJ252">
+        <v>1.91</v>
+      </c>
+      <c r="AK252">
+        <v>1.38</v>
+      </c>
+      <c r="AL252">
+        <v>1.28</v>
+      </c>
+      <c r="AM252">
+        <v>1.57</v>
+      </c>
+      <c r="AN252">
+        <v>1.85</v>
+      </c>
+      <c r="AO252">
+        <v>1.92</v>
+      </c>
+      <c r="AP252">
+        <v>1.93</v>
+      </c>
+      <c r="AQ252">
+        <v>1.79</v>
+      </c>
+      <c r="AR252">
+        <v>1.49</v>
+      </c>
+      <c r="AS252">
+        <v>1.18</v>
+      </c>
+      <c r="AT252">
+        <v>2.67</v>
+      </c>
+      <c r="AU252">
+        <v>4</v>
+      </c>
+      <c r="AV252">
+        <v>3</v>
+      </c>
+      <c r="AW252">
+        <v>0</v>
+      </c>
+      <c r="AX252">
+        <v>4</v>
+      </c>
+      <c r="AY252">
+        <v>4</v>
+      </c>
+      <c r="AZ252">
+        <v>7</v>
+      </c>
+      <c r="BA252">
+        <v>2</v>
+      </c>
+      <c r="BB252">
+        <v>2</v>
+      </c>
+      <c r="BC252">
+        <v>4</v>
+      </c>
+      <c r="BD252">
+        <v>1.73</v>
+      </c>
+      <c r="BE252">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF252">
+        <v>2.43</v>
+      </c>
+      <c r="BG252">
+        <v>1.26</v>
+      </c>
+      <c r="BH252">
+        <v>3.34</v>
+      </c>
+      <c r="BI252">
+        <v>1.54</v>
+      </c>
+      <c r="BJ252">
+        <v>2.43</v>
+      </c>
+      <c r="BK252">
+        <v>1.95</v>
+      </c>
+      <c r="BL252">
+        <v>1.77</v>
+      </c>
+      <c r="BM252">
+        <v>2.41</v>
+      </c>
+      <c r="BN252">
+        <v>1.55</v>
+      </c>
+      <c r="BO252">
+        <v>3.28</v>
+      </c>
+      <c r="BP252">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="362">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -790,6 +790,9 @@
     <t>['40', '85']</t>
   </si>
   <si>
+    <t>['17', '27']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -1458,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP252"/>
+  <dimension ref="A1:BP253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1717,7 +1720,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q2">
         <v>4.33</v>
@@ -2129,7 +2132,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2541,7 +2544,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2619,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>1.29</v>
@@ -2747,7 +2750,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -3159,7 +3162,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3365,7 +3368,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q10">
         <v>3.2</v>
@@ -3983,7 +3986,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q13">
         <v>2.53</v>
@@ -4189,7 +4192,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4270,7 +4273,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ14">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -5013,7 +5016,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5425,7 +5428,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q20">
         <v>1.82</v>
@@ -6043,7 +6046,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6742,7 +6745,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ26">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6867,7 +6870,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q27">
         <v>4.2</v>
@@ -6945,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -7279,7 +7282,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q29">
         <v>2.95</v>
@@ -7691,7 +7694,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q31">
         <v>2.3</v>
@@ -7897,7 +7900,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8103,7 +8106,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q33">
         <v>2.6</v>
@@ -8515,7 +8518,7 @@
         <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8721,7 +8724,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -10369,7 +10372,7 @@
         <v>88</v>
       </c>
       <c r="P44" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q44">
         <v>2.7</v>
@@ -10781,7 +10784,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -11065,7 +11068,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
         <v>0.5</v>
@@ -11274,7 +11277,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ48">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR48">
         <v>1.78</v>
@@ -11399,7 +11402,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11605,7 +11608,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q50">
         <v>2.15</v>
@@ -11811,7 +11814,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -13665,7 +13668,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -14077,7 +14080,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14567,7 +14570,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ64">
         <v>1.43</v>
@@ -14695,7 +14698,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -15107,7 +15110,7 @@
         <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q67">
         <v>4.75</v>
@@ -15313,7 +15316,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15394,7 +15397,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ68">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR68">
         <v>1.15</v>
@@ -15519,7 +15522,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15725,7 +15728,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -16343,7 +16346,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16549,7 +16552,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q74">
         <v>1.75</v>
@@ -16961,7 +16964,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17167,7 +17170,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q77">
         <v>2.04</v>
@@ -17373,7 +17376,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q78">
         <v>3.05</v>
@@ -17785,7 +17788,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17991,7 +17994,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18069,7 +18072,7 @@
         <v>0.4</v>
       </c>
       <c r="AP81">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81">
         <v>0.86</v>
@@ -18197,7 +18200,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q82">
         <v>3.3</v>
@@ -18403,7 +18406,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -19433,7 +19436,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19514,7 +19517,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ88">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR88">
         <v>1.14</v>
@@ -20669,7 +20672,7 @@
         <v>88</v>
       </c>
       <c r="P94" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -21081,7 +21084,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21287,7 +21290,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21571,7 +21574,7 @@
         <v>1.8</v>
       </c>
       <c r="AP98">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
         <v>1.71</v>
@@ -21780,7 +21783,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ99">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR99">
         <v>1.54</v>
@@ -21905,7 +21908,7 @@
         <v>105</v>
       </c>
       <c r="P100" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22317,7 +22320,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -23141,7 +23144,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q106">
         <v>1.7</v>
@@ -23347,7 +23350,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23553,7 +23556,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q108">
         <v>3.2</v>
@@ -23759,7 +23762,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23965,7 +23968,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -24377,7 +24380,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q112">
         <v>3.3</v>
@@ -24583,7 +24586,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q113">
         <v>2.9</v>
@@ -24789,7 +24792,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q114">
         <v>1.85</v>
@@ -25279,7 +25282,7 @@
         <v>0.83</v>
       </c>
       <c r="AP116">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ116">
         <v>0.57</v>
@@ -25613,7 +25616,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q118">
         <v>4.33</v>
@@ -26518,7 +26521,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ122">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR122">
         <v>1.71</v>
@@ -27055,7 +27058,7 @@
         <v>88</v>
       </c>
       <c r="P125" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q125">
         <v>2.5</v>
@@ -27261,7 +27264,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27467,7 +27470,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27673,7 +27676,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27879,7 +27882,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q129">
         <v>3.3</v>
@@ -28909,7 +28912,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q134">
         <v>2.63</v>
@@ -29115,7 +29118,7 @@
         <v>88</v>
       </c>
       <c r="P135" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29196,7 +29199,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ135">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR135">
         <v>1.24</v>
@@ -29527,7 +29530,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q137">
         <v>2.1</v>
@@ -29733,7 +29736,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29939,7 +29942,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q139">
         <v>2.1</v>
@@ -30557,7 +30560,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q142">
         <v>2.05</v>
@@ -30763,7 +30766,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30969,7 +30972,7 @@
         <v>158</v>
       </c>
       <c r="P144" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q144">
         <v>3.57</v>
@@ -31381,7 +31384,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31793,7 +31796,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q148">
         <v>2.3</v>
@@ -31999,7 +32002,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32411,7 +32414,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q151">
         <v>3.3</v>
@@ -32492,7 +32495,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ151">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR151">
         <v>1.48</v>
@@ -32617,7 +32620,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q152">
         <v>2.05</v>
@@ -32823,7 +32826,7 @@
         <v>119</v>
       </c>
       <c r="P153" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q153">
         <v>2.65</v>
@@ -33029,7 +33032,7 @@
         <v>195</v>
       </c>
       <c r="P154" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q154">
         <v>2.35</v>
@@ -33853,7 +33856,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -34471,7 +34474,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q161">
         <v>2.91</v>
@@ -34677,7 +34680,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q162">
         <v>4.28</v>
@@ -34883,7 +34886,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q163">
         <v>3.75</v>
@@ -35089,7 +35092,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q164">
         <v>3.97</v>
@@ -35991,7 +35994,7 @@
         <v>0.89</v>
       </c>
       <c r="AP168">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ168">
         <v>0.86</v>
@@ -36325,7 +36328,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36943,7 +36946,7 @@
         <v>95</v>
       </c>
       <c r="P173" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q173">
         <v>2.5</v>
@@ -37021,7 +37024,7 @@
         <v>0.9</v>
       </c>
       <c r="AP173">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ173">
         <v>1.29</v>
@@ -37230,7 +37233,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ174">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR174">
         <v>1.75</v>
@@ -37561,7 +37564,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37767,7 +37770,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -37973,7 +37976,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q178">
         <v>2.4</v>
@@ -38179,7 +38182,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q179">
         <v>3.98</v>
@@ -38797,7 +38800,7 @@
         <v>179</v>
       </c>
       <c r="P182" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -39415,7 +39418,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q185">
         <v>1.8</v>
@@ -39621,7 +39624,7 @@
         <v>88</v>
       </c>
       <c r="P186" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q186">
         <v>3.7</v>
@@ -39827,7 +39830,7 @@
         <v>214</v>
       </c>
       <c r="P187" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q187">
         <v>2.65</v>
@@ -40111,7 +40114,7 @@
         <v>1.1</v>
       </c>
       <c r="AP188">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ188">
         <v>1.14</v>
@@ -40239,7 +40242,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q189">
         <v>1.78</v>
@@ -41063,7 +41066,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41144,7 +41147,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ193">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR193">
         <v>1.29</v>
@@ -41475,7 +41478,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -42093,7 +42096,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -43123,7 +43126,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q203">
         <v>3.2</v>
@@ -43947,7 +43950,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44025,7 +44028,7 @@
         <v>1.27</v>
       </c>
       <c r="AP207">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ207">
         <v>1.29</v>
@@ -44153,7 +44156,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q208">
         <v>2.55</v>
@@ -44359,7 +44362,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44977,7 +44980,7 @@
         <v>231</v>
       </c>
       <c r="P212" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q212">
         <v>2.7</v>
@@ -45183,7 +45186,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -45264,7 +45267,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ213">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR213">
         <v>1.91</v>
@@ -45879,7 +45882,7 @@
         <v>0.45</v>
       </c>
       <c r="AP216">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ216">
         <v>0.5</v>
@@ -46007,7 +46010,7 @@
         <v>88</v>
       </c>
       <c r="P217" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q217">
         <v>4.2</v>
@@ -46625,7 +46628,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q220">
         <v>2.59</v>
@@ -46831,7 +46834,7 @@
         <v>88</v>
       </c>
       <c r="P221" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -47037,7 +47040,7 @@
         <v>213</v>
       </c>
       <c r="P222" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q222">
         <v>3.46</v>
@@ -47449,7 +47452,7 @@
         <v>235</v>
       </c>
       <c r="P224" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q224">
         <v>3.6</v>
@@ -47861,7 +47864,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q226">
         <v>2.35</v>
@@ -48067,7 +48070,7 @@
         <v>238</v>
       </c>
       <c r="P227" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q227">
         <v>1.85</v>
@@ -48479,7 +48482,7 @@
         <v>240</v>
       </c>
       <c r="P229" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q229">
         <v>2.8</v>
@@ -48557,7 +48560,7 @@
         <v>2</v>
       </c>
       <c r="AP229">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ229">
         <v>1.79</v>
@@ -49509,7 +49512,7 @@
         <v>244</v>
       </c>
       <c r="P234" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q234">
         <v>4.33</v>
@@ -49715,7 +49718,7 @@
         <v>112</v>
       </c>
       <c r="P235" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -49796,7 +49799,7 @@
         <v>1</v>
       </c>
       <c r="AQ235">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR235">
         <v>1.16</v>
@@ -49921,7 +49924,7 @@
         <v>245</v>
       </c>
       <c r="P236" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q236">
         <v>2</v>
@@ -51569,7 +51572,7 @@
         <v>251</v>
       </c>
       <c r="P244" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q244">
         <v>2.88</v>
@@ -52692,22 +52695,22 @@
         <v>3.12</v>
       </c>
       <c r="AU249">
+        <v>6</v>
+      </c>
+      <c r="AV249">
+        <v>3</v>
+      </c>
+      <c r="AW249">
+        <v>1</v>
+      </c>
+      <c r="AX249">
+        <v>3</v>
+      </c>
+      <c r="AY249">
         <v>7</v>
       </c>
-      <c r="AV249">
-        <v>2</v>
-      </c>
-      <c r="AW249">
-        <v>1</v>
-      </c>
-      <c r="AX249">
-        <v>2</v>
-      </c>
-      <c r="AY249">
-        <v>8</v>
-      </c>
       <c r="AZ249">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA249">
         <v>3</v>
@@ -52805,7 +52808,7 @@
         <v>255</v>
       </c>
       <c r="P250" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q250">
         <v>3.9</v>
@@ -53011,7 +53014,7 @@
         <v>256</v>
       </c>
       <c r="P251" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q251">
         <v>2.3</v>
@@ -53122,13 +53125,13 @@
         <v>16</v>
       </c>
       <c r="BA251">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB251">
         <v>4</v>
       </c>
       <c r="BC251">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD251">
         <v>1.72</v>
@@ -53310,31 +53313,31 @@
         <v>2.67</v>
       </c>
       <c r="AU252">
+        <v>7</v>
+      </c>
+      <c r="AV252">
         <v>4</v>
       </c>
-      <c r="AV252">
-        <v>3</v>
-      </c>
       <c r="AW252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX252">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY252">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AZ252">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA252">
         <v>2</v>
       </c>
       <c r="BB252">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC252">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD252">
         <v>1.73</v>
@@ -53374,6 +53377,212 @@
       </c>
       <c r="BP252">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="253" spans="1:68">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>6469307</v>
+      </c>
+      <c r="C253" t="s">
+        <v>68</v>
+      </c>
+      <c r="D253" t="s">
+        <v>69</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45397.58333333334</v>
+      </c>
+      <c r="F253">
+        <v>28</v>
+      </c>
+      <c r="G253" t="s">
+        <v>74</v>
+      </c>
+      <c r="H253" t="s">
+        <v>76</v>
+      </c>
+      <c r="I253">
+        <v>2</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>2</v>
+      </c>
+      <c r="L253">
+        <v>2</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253">
+        <v>2</v>
+      </c>
+      <c r="O253" t="s">
+        <v>258</v>
+      </c>
+      <c r="P253" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q253">
+        <v>2.75</v>
+      </c>
+      <c r="R253">
+        <v>2.05</v>
+      </c>
+      <c r="S253">
+        <v>4</v>
+      </c>
+      <c r="T253">
+        <v>1.53</v>
+      </c>
+      <c r="U253">
+        <v>2.41</v>
+      </c>
+      <c r="V253">
+        <v>3.4</v>
+      </c>
+      <c r="W253">
+        <v>1.29</v>
+      </c>
+      <c r="X253">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y253">
+        <v>1.04</v>
+      </c>
+      <c r="Z253">
+        <v>2.14</v>
+      </c>
+      <c r="AA253">
+        <v>3</v>
+      </c>
+      <c r="AB253">
+        <v>3.3</v>
+      </c>
+      <c r="AC253">
+        <v>1.06</v>
+      </c>
+      <c r="AD253">
+        <v>6.7</v>
+      </c>
+      <c r="AE253">
+        <v>1.41</v>
+      </c>
+      <c r="AF253">
+        <v>2.6</v>
+      </c>
+      <c r="AG253">
+        <v>2.25</v>
+      </c>
+      <c r="AH253">
+        <v>1.57</v>
+      </c>
+      <c r="AI253">
+        <v>2</v>
+      </c>
+      <c r="AJ253">
+        <v>1.72</v>
+      </c>
+      <c r="AK253">
+        <v>1.3</v>
+      </c>
+      <c r="AL253">
+        <v>1.35</v>
+      </c>
+      <c r="AM253">
+        <v>1.7</v>
+      </c>
+      <c r="AN253">
+        <v>1.38</v>
+      </c>
+      <c r="AO253">
+        <v>1.15</v>
+      </c>
+      <c r="AP253">
+        <v>1.5</v>
+      </c>
+      <c r="AQ253">
+        <v>1.07</v>
+      </c>
+      <c r="AR253">
+        <v>1.47</v>
+      </c>
+      <c r="AS253">
+        <v>1.61</v>
+      </c>
+      <c r="AT253">
+        <v>3.08</v>
+      </c>
+      <c r="AU253">
+        <v>3</v>
+      </c>
+      <c r="AV253">
+        <v>0</v>
+      </c>
+      <c r="AW253">
+        <v>3</v>
+      </c>
+      <c r="AX253">
+        <v>0</v>
+      </c>
+      <c r="AY253">
+        <v>6</v>
+      </c>
+      <c r="AZ253">
+        <v>0</v>
+      </c>
+      <c r="BA253">
+        <v>3</v>
+      </c>
+      <c r="BB253">
+        <v>2</v>
+      </c>
+      <c r="BC253">
+        <v>5</v>
+      </c>
+      <c r="BD253">
+        <v>1.69</v>
+      </c>
+      <c r="BE253">
+        <v>8</v>
+      </c>
+      <c r="BF253">
+        <v>2.62</v>
+      </c>
+      <c r="BG253">
+        <v>1.29</v>
+      </c>
+      <c r="BH253">
+        <v>3.3</v>
+      </c>
+      <c r="BI253">
+        <v>1.5</v>
+      </c>
+      <c r="BJ253">
+        <v>2.4</v>
+      </c>
+      <c r="BK253">
+        <v>2</v>
+      </c>
+      <c r="BL253">
+        <v>1.8</v>
+      </c>
+      <c r="BM253">
+        <v>2.25</v>
+      </c>
+      <c r="BN253">
+        <v>1.57</v>
+      </c>
+      <c r="BO253">
+        <v>2.9</v>
+      </c>
+      <c r="BP253">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -53519,31 +53519,31 @@
         <v>3.08</v>
       </c>
       <c r="AU253">
+        <v>6</v>
+      </c>
+      <c r="AV253">
+        <v>2</v>
+      </c>
+      <c r="AW253">
+        <v>4</v>
+      </c>
+      <c r="AX253">
+        <v>1</v>
+      </c>
+      <c r="AY253">
+        <v>10</v>
+      </c>
+      <c r="AZ253">
         <v>3</v>
       </c>
-      <c r="AV253">
-        <v>0</v>
-      </c>
-      <c r="AW253">
-        <v>3</v>
-      </c>
-      <c r="AX253">
-        <v>0</v>
-      </c>
-      <c r="AY253">
-        <v>6</v>
-      </c>
-      <c r="AZ253">
-        <v>0</v>
-      </c>
       <c r="BA253">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB253">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC253">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD253">
         <v>1.69</v>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -53519,19 +53519,19 @@
         <v>3.08</v>
       </c>
       <c r="AU253">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AV253">
         <v>2</v>
       </c>
       <c r="AW253">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX253">
         <v>1</v>
       </c>
       <c r="AY253">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ253">
         <v>3</v>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="363">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -793,6 +793,9 @@
     <t>['17', '27']</t>
   </si>
   <si>
+    <t>['19', '28', '54', '88']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -1461,7 +1464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP253"/>
+  <dimension ref="A1:BP255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1720,7 +1723,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q2">
         <v>4.33</v>
@@ -2132,7 +2135,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2416,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ5">
         <v>1.43</v>
@@ -2544,7 +2547,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2750,7 +2753,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2831,7 +2834,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ7">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3162,7 +3165,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3368,7 +3371,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q10">
         <v>3.2</v>
@@ -3446,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ10">
         <v>1.79</v>
@@ -3861,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR12">
         <v>0.95</v>
@@ -3986,7 +3989,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q13">
         <v>2.53</v>
@@ -4192,7 +4195,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4685,7 +4688,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ16">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5016,7 +5019,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5428,7 +5431,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q20">
         <v>1.82</v>
@@ -5506,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ20">
         <v>1.21</v>
@@ -6046,7 +6049,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6870,7 +6873,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q27">
         <v>4.2</v>
@@ -7282,7 +7285,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q29">
         <v>2.95</v>
@@ -7360,10 +7363,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ29">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR29">
         <v>1.57</v>
@@ -7694,7 +7697,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q31">
         <v>2.3</v>
@@ -7775,7 +7778,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ31">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR31">
         <v>2.3</v>
@@ -7900,7 +7903,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8106,7 +8109,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q33">
         <v>2.6</v>
@@ -8518,7 +8521,7 @@
         <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8724,7 +8727,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -9008,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ37">
         <v>0.86</v>
@@ -10247,7 +10250,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ43">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR43">
         <v>1.27</v>
@@ -10372,7 +10375,7 @@
         <v>88</v>
       </c>
       <c r="P44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q44">
         <v>2.7</v>
@@ -10784,7 +10787,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -11274,7 +11277,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ48">
         <v>1.07</v>
@@ -11402,7 +11405,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11483,7 +11486,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ49">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR49">
         <v>1.4</v>
@@ -11608,7 +11611,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q50">
         <v>2.15</v>
@@ -11814,7 +11817,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -12719,7 +12722,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ55">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR55">
         <v>1.77</v>
@@ -13540,7 +13543,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ59">
         <v>0.5</v>
@@ -13668,7 +13671,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -14080,7 +14083,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14364,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ63">
         <v>0.29</v>
@@ -14698,7 +14701,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14779,7 +14782,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ65">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR65">
         <v>1.69</v>
@@ -15110,7 +15113,7 @@
         <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q67">
         <v>4.75</v>
@@ -15316,7 +15319,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15522,7 +15525,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15600,7 +15603,7 @@
         <v>0.25</v>
       </c>
       <c r="AP69">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ69">
         <v>0.86</v>
@@ -15728,7 +15731,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -16346,7 +16349,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16552,7 +16555,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q74">
         <v>1.75</v>
@@ -16964,7 +16967,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17170,7 +17173,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q77">
         <v>2.04</v>
@@ -17251,7 +17254,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ77">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR77">
         <v>2.14</v>
@@ -17376,7 +17379,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q78">
         <v>3.05</v>
@@ -17788,7 +17791,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17994,7 +17997,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18200,7 +18203,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q82">
         <v>3.3</v>
@@ -18406,7 +18409,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18896,10 +18899,10 @@
         <v>1.2</v>
       </c>
       <c r="AP85">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ85">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR85">
         <v>1.59</v>
@@ -19436,7 +19439,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19720,7 +19723,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ89">
         <v>1.21</v>
@@ -20672,7 +20675,7 @@
         <v>88</v>
       </c>
       <c r="P94" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -20959,7 +20962,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ95">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR95">
         <v>1.63</v>
@@ -21084,7 +21087,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21290,7 +21293,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21908,7 +21911,7 @@
         <v>105</v>
       </c>
       <c r="P100" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22320,7 +22323,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -23144,7 +23147,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q106">
         <v>1.7</v>
@@ -23350,7 +23353,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23428,7 +23431,7 @@
         <v>0.17</v>
       </c>
       <c r="AP107">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ107">
         <v>0.5</v>
@@ -23556,7 +23559,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q108">
         <v>3.2</v>
@@ -23637,7 +23640,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ108">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR108">
         <v>1.25</v>
@@ -23762,7 +23765,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23968,7 +23971,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -24380,7 +24383,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q112">
         <v>3.3</v>
@@ -24586,7 +24589,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q113">
         <v>2.9</v>
@@ -24667,7 +24670,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ113">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR113">
         <v>1.72</v>
@@ -24792,7 +24795,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q114">
         <v>1.85</v>
@@ -25076,7 +25079,7 @@
         <v>0.33</v>
       </c>
       <c r="AP115">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ115">
         <v>0.86</v>
@@ -25616,7 +25619,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q118">
         <v>4.33</v>
@@ -26518,7 +26521,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ122">
         <v>1.07</v>
@@ -27058,7 +27061,7 @@
         <v>88</v>
       </c>
       <c r="P125" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q125">
         <v>2.5</v>
@@ -27264,7 +27267,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27470,7 +27473,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27676,7 +27679,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27882,7 +27885,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q129">
         <v>3.3</v>
@@ -27960,7 +27963,7 @@
         <v>1.14</v>
       </c>
       <c r="AP129">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ129">
         <v>1.43</v>
@@ -28169,7 +28172,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ130">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR130">
         <v>1.44</v>
@@ -28787,7 +28790,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ133">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR133">
         <v>1.55</v>
@@ -28912,7 +28915,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q134">
         <v>2.63</v>
@@ -29118,7 +29121,7 @@
         <v>88</v>
       </c>
       <c r="P135" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29530,7 +29533,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q137">
         <v>2.1</v>
@@ -29608,7 +29611,7 @@
         <v>1.29</v>
       </c>
       <c r="AP137">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ137">
         <v>1.14</v>
@@ -29736,7 +29739,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29942,7 +29945,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q139">
         <v>2.1</v>
@@ -30229,7 +30232,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ140">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR140">
         <v>1.32</v>
@@ -30560,7 +30563,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q142">
         <v>2.05</v>
@@ -30766,7 +30769,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30972,7 +30975,7 @@
         <v>158</v>
       </c>
       <c r="P144" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q144">
         <v>3.57</v>
@@ -31384,7 +31387,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31465,7 +31468,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ146">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR146">
         <v>1.87</v>
@@ -31668,7 +31671,7 @@
         <v>1.29</v>
       </c>
       <c r="AP147">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ147">
         <v>1.29</v>
@@ -31796,7 +31799,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q148">
         <v>2.3</v>
@@ -32002,7 +32005,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32414,7 +32417,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q151">
         <v>3.3</v>
@@ -32620,7 +32623,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q152">
         <v>2.05</v>
@@ -32826,7 +32829,7 @@
         <v>119</v>
       </c>
       <c r="P153" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q153">
         <v>2.65</v>
@@ -32907,7 +32910,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ153">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR153">
         <v>1.58</v>
@@ -33032,7 +33035,7 @@
         <v>195</v>
       </c>
       <c r="P154" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q154">
         <v>2.35</v>
@@ -33856,7 +33859,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -34474,7 +34477,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q161">
         <v>2.91</v>
@@ -34680,7 +34683,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q162">
         <v>4.28</v>
@@ -34886,7 +34889,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q163">
         <v>3.75</v>
@@ -35092,7 +35095,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q164">
         <v>3.97</v>
@@ -35582,7 +35585,7 @@
         <v>0.89</v>
       </c>
       <c r="AP166">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ166">
         <v>0.57</v>
@@ -36328,7 +36331,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36821,7 +36824,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ172">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR172">
         <v>1.82</v>
@@ -36946,7 +36949,7 @@
         <v>95</v>
       </c>
       <c r="P173" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q173">
         <v>2.5</v>
@@ -37027,7 +37030,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ173">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR173">
         <v>1.57</v>
@@ -37564,7 +37567,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37770,7 +37773,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -37976,7 +37979,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q178">
         <v>2.4</v>
@@ -38054,7 +38057,7 @@
         <v>0</v>
       </c>
       <c r="AP178">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ178">
         <v>0.29</v>
@@ -38182,7 +38185,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q179">
         <v>3.98</v>
@@ -38800,7 +38803,7 @@
         <v>179</v>
       </c>
       <c r="P182" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -39084,7 +39087,7 @@
         <v>1.1</v>
       </c>
       <c r="AP183">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ183">
         <v>0.79</v>
@@ -39418,7 +39421,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q185">
         <v>1.8</v>
@@ -39624,7 +39627,7 @@
         <v>88</v>
       </c>
       <c r="P186" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q186">
         <v>3.7</v>
@@ -39830,7 +39833,7 @@
         <v>214</v>
       </c>
       <c r="P187" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q187">
         <v>2.65</v>
@@ -40242,7 +40245,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q189">
         <v>1.78</v>
@@ -41066,7 +41069,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41353,7 +41356,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ194">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR194">
         <v>1.73</v>
@@ -41478,7 +41481,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -41556,7 +41559,7 @@
         <v>1.5</v>
       </c>
       <c r="AP195">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ195">
         <v>1.43</v>
@@ -41765,7 +41768,7 @@
         <v>1</v>
       </c>
       <c r="AQ196">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR196">
         <v>1.13</v>
@@ -42096,7 +42099,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -43126,7 +43129,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q203">
         <v>3.2</v>
@@ -43616,7 +43619,7 @@
         <v>1.6</v>
       </c>
       <c r="AP205">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ205">
         <v>1.29</v>
@@ -43950,7 +43953,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44031,7 +44034,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ207">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR207">
         <v>1.55</v>
@@ -44156,7 +44159,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q208">
         <v>2.55</v>
@@ -44362,7 +44365,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44440,7 +44443,7 @@
         <v>1.09</v>
       </c>
       <c r="AP209">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ209">
         <v>1.14</v>
@@ -44980,7 +44983,7 @@
         <v>231</v>
       </c>
       <c r="P212" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q212">
         <v>2.7</v>
@@ -45186,7 +45189,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -46010,7 +46013,7 @@
         <v>88</v>
       </c>
       <c r="P217" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q217">
         <v>4.2</v>
@@ -46088,7 +46091,7 @@
         <v>0.91</v>
       </c>
       <c r="AP217">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ217">
         <v>1</v>
@@ -46628,7 +46631,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q220">
         <v>2.59</v>
@@ -46834,7 +46837,7 @@
         <v>88</v>
       </c>
       <c r="P221" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -47040,7 +47043,7 @@
         <v>213</v>
       </c>
       <c r="P222" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q222">
         <v>3.46</v>
@@ -47121,7 +47124,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ222">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR222">
         <v>1.53</v>
@@ -47452,7 +47455,7 @@
         <v>235</v>
       </c>
       <c r="P224" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q224">
         <v>3.6</v>
@@ -47530,7 +47533,7 @@
         <v>1.92</v>
       </c>
       <c r="AP224">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ224">
         <v>1.71</v>
@@ -47864,7 +47867,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q226">
         <v>2.35</v>
@@ -48070,7 +48073,7 @@
         <v>238</v>
       </c>
       <c r="P227" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q227">
         <v>1.85</v>
@@ -48148,7 +48151,7 @@
         <v>0.5</v>
       </c>
       <c r="AP227">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ227">
         <v>0.5</v>
@@ -48482,7 +48485,7 @@
         <v>240</v>
       </c>
       <c r="P229" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q229">
         <v>2.8</v>
@@ -48975,7 +48978,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ231">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR231">
         <v>1.29</v>
@@ -49512,7 +49515,7 @@
         <v>244</v>
       </c>
       <c r="P234" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q234">
         <v>4.33</v>
@@ -49718,7 +49721,7 @@
         <v>112</v>
       </c>
       <c r="P235" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -49924,7 +49927,7 @@
         <v>245</v>
       </c>
       <c r="P236" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q236">
         <v>2</v>
@@ -50414,7 +50417,7 @@
         <v>0.92</v>
       </c>
       <c r="AP238">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ238">
         <v>0.86</v>
@@ -51572,7 +51575,7 @@
         <v>251</v>
       </c>
       <c r="P244" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q244">
         <v>2.88</v>
@@ -51653,7 +51656,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ244">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR244">
         <v>1.75</v>
@@ -52680,7 +52683,7 @@
         <v>1.46</v>
       </c>
       <c r="AP249">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ249">
         <v>1.43</v>
@@ -52808,7 +52811,7 @@
         <v>255</v>
       </c>
       <c r="P250" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q250">
         <v>3.9</v>
@@ -52889,7 +52892,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ250">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR250">
         <v>1.18</v>
@@ -53014,7 +53017,7 @@
         <v>256</v>
       </c>
       <c r="P251" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q251">
         <v>2.3</v>
@@ -53583,6 +53586,418 @@
       </c>
       <c r="BP253">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="254" spans="1:68">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>6469316</v>
+      </c>
+      <c r="C254" t="s">
+        <v>68</v>
+      </c>
+      <c r="D254" t="s">
+        <v>69</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45401.54166666666</v>
+      </c>
+      <c r="F254">
+        <v>29</v>
+      </c>
+      <c r="G254" t="s">
+        <v>78</v>
+      </c>
+      <c r="H254" t="s">
+        <v>85</v>
+      </c>
+      <c r="I254">
+        <v>2</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>2</v>
+      </c>
+      <c r="L254">
+        <v>4</v>
+      </c>
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <v>4</v>
+      </c>
+      <c r="O254" t="s">
+        <v>259</v>
+      </c>
+      <c r="P254" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q254">
+        <v>3.04</v>
+      </c>
+      <c r="R254">
+        <v>2.13</v>
+      </c>
+      <c r="S254">
+        <v>3.89</v>
+      </c>
+      <c r="T254">
+        <v>1.45</v>
+      </c>
+      <c r="U254">
+        <v>2.75</v>
+      </c>
+      <c r="V254">
+        <v>3.26</v>
+      </c>
+      <c r="W254">
+        <v>1.34</v>
+      </c>
+      <c r="X254">
+        <v>8</v>
+      </c>
+      <c r="Y254">
+        <v>1.05</v>
+      </c>
+      <c r="Z254">
+        <v>2.3</v>
+      </c>
+      <c r="AA254">
+        <v>3</v>
+      </c>
+      <c r="AB254">
+        <v>2.9</v>
+      </c>
+      <c r="AC254">
+        <v>1.08</v>
+      </c>
+      <c r="AD254">
+        <v>9</v>
+      </c>
+      <c r="AE254">
+        <v>1.38</v>
+      </c>
+      <c r="AF254">
+        <v>3.02</v>
+      </c>
+      <c r="AG254">
+        <v>2.15</v>
+      </c>
+      <c r="AH254">
+        <v>1.65</v>
+      </c>
+      <c r="AI254">
+        <v>1.88</v>
+      </c>
+      <c r="AJ254">
+        <v>1.82</v>
+      </c>
+      <c r="AK254">
+        <v>1.38</v>
+      </c>
+      <c r="AL254">
+        <v>1.35</v>
+      </c>
+      <c r="AM254">
+        <v>1.58</v>
+      </c>
+      <c r="AN254">
+        <v>1.36</v>
+      </c>
+      <c r="AO254">
+        <v>1.29</v>
+      </c>
+      <c r="AP254">
+        <v>1.47</v>
+      </c>
+      <c r="AQ254">
+        <v>1.2</v>
+      </c>
+      <c r="AR254">
+        <v>1.52</v>
+      </c>
+      <c r="AS254">
+        <v>1.4</v>
+      </c>
+      <c r="AT254">
+        <v>2.92</v>
+      </c>
+      <c r="AU254">
+        <v>7</v>
+      </c>
+      <c r="AV254">
+        <v>6</v>
+      </c>
+      <c r="AW254">
+        <v>3</v>
+      </c>
+      <c r="AX254">
+        <v>2</v>
+      </c>
+      <c r="AY254">
+        <v>10</v>
+      </c>
+      <c r="AZ254">
+        <v>8</v>
+      </c>
+      <c r="BA254">
+        <v>2</v>
+      </c>
+      <c r="BB254">
+        <v>10</v>
+      </c>
+      <c r="BC254">
+        <v>12</v>
+      </c>
+      <c r="BD254">
+        <v>1.64</v>
+      </c>
+      <c r="BE254">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF254">
+        <v>2.58</v>
+      </c>
+      <c r="BG254">
+        <v>1.21</v>
+      </c>
+      <c r="BH254">
+        <v>4.1</v>
+      </c>
+      <c r="BI254">
+        <v>1.36</v>
+      </c>
+      <c r="BJ254">
+        <v>2.79</v>
+      </c>
+      <c r="BK254">
+        <v>1.63</v>
+      </c>
+      <c r="BL254">
+        <v>2.09</v>
+      </c>
+      <c r="BM254">
+        <v>2.07</v>
+      </c>
+      <c r="BN254">
+        <v>1.67</v>
+      </c>
+      <c r="BO254">
+        <v>2.67</v>
+      </c>
+      <c r="BP254">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="255" spans="1:68">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>6469319</v>
+      </c>
+      <c r="C255" t="s">
+        <v>68</v>
+      </c>
+      <c r="D255" t="s">
+        <v>69</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45401.64583333334</v>
+      </c>
+      <c r="F255">
+        <v>29</v>
+      </c>
+      <c r="G255" t="s">
+        <v>73</v>
+      </c>
+      <c r="H255" t="s">
+        <v>75</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+      <c r="M255">
+        <v>1</v>
+      </c>
+      <c r="N255">
+        <v>1</v>
+      </c>
+      <c r="O255" t="s">
+        <v>88</v>
+      </c>
+      <c r="P255" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q255">
+        <v>2.09</v>
+      </c>
+      <c r="R255">
+        <v>2.39</v>
+      </c>
+      <c r="S255">
+        <v>6.15</v>
+      </c>
+      <c r="T255">
+        <v>1.36</v>
+      </c>
+      <c r="U255">
+        <v>3.14</v>
+      </c>
+      <c r="V255">
+        <v>2.81</v>
+      </c>
+      <c r="W255">
+        <v>1.43</v>
+      </c>
+      <c r="X255">
+        <v>6.5</v>
+      </c>
+      <c r="Y255">
+        <v>1.08</v>
+      </c>
+      <c r="Z255">
+        <v>1.53</v>
+      </c>
+      <c r="AA255">
+        <v>4</v>
+      </c>
+      <c r="AB255">
+        <v>5</v>
+      </c>
+      <c r="AC255">
+        <v>1.05</v>
+      </c>
+      <c r="AD255">
+        <v>9.5</v>
+      </c>
+      <c r="AE255">
+        <v>1.28</v>
+      </c>
+      <c r="AF255">
+        <v>3.65</v>
+      </c>
+      <c r="AG255">
+        <v>1.8</v>
+      </c>
+      <c r="AH255">
+        <v>1.95</v>
+      </c>
+      <c r="AI255">
+        <v>1.91</v>
+      </c>
+      <c r="AJ255">
+        <v>1.8</v>
+      </c>
+      <c r="AK255">
+        <v>1.16</v>
+      </c>
+      <c r="AL255">
+        <v>1.23</v>
+      </c>
+      <c r="AM255">
+        <v>2.35</v>
+      </c>
+      <c r="AN255">
+        <v>2.29</v>
+      </c>
+      <c r="AO255">
+        <v>1.29</v>
+      </c>
+      <c r="AP255">
+        <v>2.13</v>
+      </c>
+      <c r="AQ255">
+        <v>1.4</v>
+      </c>
+      <c r="AR255">
+        <v>1.67</v>
+      </c>
+      <c r="AS255">
+        <v>1.33</v>
+      </c>
+      <c r="AT255">
+        <v>3</v>
+      </c>
+      <c r="AU255">
+        <v>3</v>
+      </c>
+      <c r="AV255">
+        <v>4</v>
+      </c>
+      <c r="AW255">
+        <v>9</v>
+      </c>
+      <c r="AX255">
+        <v>4</v>
+      </c>
+      <c r="AY255">
+        <v>12</v>
+      </c>
+      <c r="AZ255">
+        <v>8</v>
+      </c>
+      <c r="BA255">
+        <v>8</v>
+      </c>
+      <c r="BB255">
+        <v>2</v>
+      </c>
+      <c r="BC255">
+        <v>10</v>
+      </c>
+      <c r="BD255">
+        <v>1.29</v>
+      </c>
+      <c r="BE255">
+        <v>10.5</v>
+      </c>
+      <c r="BF255">
+        <v>4.25</v>
+      </c>
+      <c r="BG255">
+        <v>1.25</v>
+      </c>
+      <c r="BH255">
+        <v>3.6</v>
+      </c>
+      <c r="BI255">
+        <v>1.33</v>
+      </c>
+      <c r="BJ255">
+        <v>2.91</v>
+      </c>
+      <c r="BK255">
+        <v>1.68</v>
+      </c>
+      <c r="BL255">
+        <v>2.16</v>
+      </c>
+      <c r="BM255">
+        <v>2.11</v>
+      </c>
+      <c r="BN255">
+        <v>1.71</v>
+      </c>
+      <c r="BO255">
+        <v>2.57</v>
+      </c>
+      <c r="BP255">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="368">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -796,6 +796,12 @@
     <t>['19', '28', '54', '88']</t>
   </si>
   <si>
+    <t>['76', '90+13']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -1103,6 +1109,15 @@
   </si>
   <si>
     <t>['22', '25', '49']</t>
+  </si>
+  <si>
+    <t>['11', '21']</t>
+  </si>
+  <si>
+    <t>['2', '49', '90+10']</t>
+  </si>
+  <si>
+    <t>['15', '74']</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP255"/>
+  <dimension ref="A1:BP258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1723,7 +1738,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q2">
         <v>4.33</v>
@@ -2135,7 +2150,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2422,7 +2437,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ5">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2547,7 +2562,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2753,7 +2768,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -3037,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -3165,7 +3180,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3371,7 +3386,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q10">
         <v>3.2</v>
@@ -3655,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ11">
         <v>0.29</v>
@@ -3989,7 +4004,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q13">
         <v>2.53</v>
@@ -4195,7 +4210,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4482,7 +4497,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ15">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR15">
         <v>1.3</v>
@@ -4891,10 +4906,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ17">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5019,7 +5034,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5100,7 +5115,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ18">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>1.62</v>
@@ -5431,7 +5446,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q20">
         <v>1.82</v>
@@ -5718,7 +5733,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ21">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR21">
         <v>0.55</v>
@@ -6049,7 +6064,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6127,7 +6142,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
         <v>1.29</v>
@@ -6873,7 +6888,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q27">
         <v>4.2</v>
@@ -7285,7 +7300,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q29">
         <v>2.95</v>
@@ -7697,7 +7712,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q31">
         <v>2.3</v>
@@ -7775,7 +7790,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ31">
         <v>1.2</v>
@@ -7903,7 +7918,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8109,7 +8124,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q33">
         <v>2.6</v>
@@ -8393,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ34">
         <v>0.5</v>
@@ -8521,7 +8536,7 @@
         <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8602,7 +8617,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ35">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>0.88</v>
@@ -8727,7 +8742,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -9217,10 +9232,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ38">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR38">
         <v>1.69</v>
@@ -10044,7 +10059,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ42">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR42">
         <v>1.83</v>
@@ -10375,7 +10390,7 @@
         <v>88</v>
       </c>
       <c r="P44" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q44">
         <v>2.7</v>
@@ -10787,7 +10802,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -11405,7 +11420,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11611,7 +11626,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q50">
         <v>2.15</v>
@@ -11689,7 +11704,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ50">
         <v>1.79</v>
@@ -11817,7 +11832,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -12101,7 +12116,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ52">
         <v>0.86</v>
@@ -12310,7 +12325,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ53">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR53">
         <v>1.82</v>
@@ -12928,7 +12943,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ56">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -13131,7 +13146,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ57">
         <v>1.71</v>
@@ -13340,7 +13355,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ58">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>2.07</v>
@@ -13671,7 +13686,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -14083,7 +14098,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14161,7 +14176,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ62">
         <v>0.57</v>
@@ -14701,7 +14716,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -15113,7 +15128,7 @@
         <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q67">
         <v>4.75</v>
@@ -15319,7 +15334,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15525,7 +15540,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15606,7 +15621,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ69">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.83</v>
@@ -15731,7 +15746,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15812,7 +15827,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ70">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR70">
         <v>1.44</v>
@@ -16224,7 +16239,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ72">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR72">
         <v>1.61</v>
@@ -16349,7 +16364,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16555,7 +16570,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q74">
         <v>1.75</v>
@@ -16839,7 +16854,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ75">
         <v>1.21</v>
@@ -16967,7 +16982,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17045,7 +17060,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -17173,7 +17188,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q77">
         <v>2.04</v>
@@ -17379,7 +17394,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q78">
         <v>3.05</v>
@@ -17457,7 +17472,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ78">
         <v>1.43</v>
@@ -17791,7 +17806,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17997,7 +18012,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18078,7 +18093,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.77</v>
@@ -18203,7 +18218,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q82">
         <v>3.3</v>
@@ -18409,7 +18424,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -19105,7 +19120,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ86">
         <v>1.29</v>
@@ -19439,7 +19454,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -20547,10 +20562,10 @@
         <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ93">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR93">
         <v>1.79</v>
@@ -20675,7 +20690,7 @@
         <v>88</v>
       </c>
       <c r="P94" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -20753,7 +20768,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ94">
         <v>1.71</v>
@@ -21087,7 +21102,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21168,7 +21183,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ96">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR96">
         <v>1.62</v>
@@ -21293,7 +21308,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21911,7 +21926,7 @@
         <v>105</v>
       </c>
       <c r="P100" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22323,7 +22338,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -23147,7 +23162,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q106">
         <v>1.7</v>
@@ -23228,7 +23243,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ106">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR106">
         <v>1.75</v>
@@ -23353,7 +23368,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23559,7 +23574,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q108">
         <v>3.2</v>
@@ -23765,7 +23780,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23846,7 +23861,7 @@
         <v>1</v>
       </c>
       <c r="AQ109">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR109">
         <v>1.13</v>
@@ -23971,7 +23986,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -24049,10 +24064,10 @@
         <v>1.33</v>
       </c>
       <c r="AP110">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ110">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR110">
         <v>1.82</v>
@@ -24383,7 +24398,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q112">
         <v>3.3</v>
@@ -24461,7 +24476,7 @@
         <v>2.17</v>
       </c>
       <c r="AP112">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ112">
         <v>1.79</v>
@@ -24589,7 +24604,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q113">
         <v>2.9</v>
@@ -24667,7 +24682,7 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ113">
         <v>1.2</v>
@@ -24795,7 +24810,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q114">
         <v>1.85</v>
@@ -25082,7 +25097,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ115">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR115">
         <v>1.65</v>
@@ -25619,7 +25634,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q118">
         <v>4.33</v>
@@ -27061,7 +27076,7 @@
         <v>88</v>
       </c>
       <c r="P125" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q125">
         <v>2.5</v>
@@ -27267,7 +27282,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27473,7 +27488,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27554,7 +27569,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ127">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR127">
         <v>1.19</v>
@@ -27679,7 +27694,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27757,10 +27772,10 @@
         <v>0.43</v>
       </c>
       <c r="AP128">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ128">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR128">
         <v>1.89</v>
@@ -27885,7 +27900,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q129">
         <v>3.3</v>
@@ -27966,7 +27981,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ129">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR129">
         <v>1.76</v>
@@ -28375,7 +28390,7 @@
         <v>1.2</v>
       </c>
       <c r="AP131">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ131">
         <v>1</v>
@@ -28787,7 +28802,7 @@
         <v>1.29</v>
       </c>
       <c r="AP133">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ133">
         <v>1.2</v>
@@ -28915,7 +28930,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q134">
         <v>2.63</v>
@@ -29121,7 +29136,7 @@
         <v>88</v>
       </c>
       <c r="P135" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29408,7 +29423,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ136">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR136">
         <v>1.63</v>
@@ -29533,7 +29548,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q137">
         <v>2.1</v>
@@ -29739,7 +29754,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29817,7 +29832,7 @@
         <v>0.57</v>
       </c>
       <c r="AP138">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ138">
         <v>0.86</v>
@@ -29945,7 +29960,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q139">
         <v>2.1</v>
@@ -30435,7 +30450,7 @@
         <v>0.86</v>
       </c>
       <c r="AP141">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ141">
         <v>0.57</v>
@@ -30563,7 +30578,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q142">
         <v>2.05</v>
@@ -30644,7 +30659,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ142">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR142">
         <v>1.68</v>
@@ -30769,7 +30784,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30975,7 +30990,7 @@
         <v>158</v>
       </c>
       <c r="P144" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q144">
         <v>3.57</v>
@@ -31056,7 +31071,7 @@
         <v>1</v>
       </c>
       <c r="AQ144">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR144">
         <v>1.11</v>
@@ -31387,7 +31402,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31799,7 +31814,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q148">
         <v>2.3</v>
@@ -32005,7 +32020,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32083,7 +32098,7 @@
         <v>1.33</v>
       </c>
       <c r="AP149">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ149">
         <v>1.43</v>
@@ -32417,7 +32432,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q151">
         <v>3.3</v>
@@ -32495,7 +32510,7 @@
         <v>1.13</v>
       </c>
       <c r="AP151">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ151">
         <v>1.07</v>
@@ -32623,7 +32638,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q152">
         <v>2.05</v>
@@ -32701,7 +32716,7 @@
         <v>1.5</v>
       </c>
       <c r="AP152">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ152">
         <v>1.21</v>
@@ -32829,7 +32844,7 @@
         <v>119</v>
       </c>
       <c r="P153" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q153">
         <v>2.65</v>
@@ -33035,7 +33050,7 @@
         <v>195</v>
       </c>
       <c r="P154" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q154">
         <v>2.35</v>
@@ -33528,7 +33543,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ156">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR156">
         <v>1.74</v>
@@ -33859,7 +33874,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -34146,7 +34161,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ159">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR159">
         <v>1.29</v>
@@ -34477,7 +34492,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q161">
         <v>2.91</v>
@@ -34555,7 +34570,7 @@
         <v>2.22</v>
       </c>
       <c r="AP161">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ161">
         <v>1.79</v>
@@ -34683,7 +34698,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q162">
         <v>4.28</v>
@@ -34764,7 +34779,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ162">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR162">
         <v>1.28</v>
@@ -34889,7 +34904,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q163">
         <v>3.75</v>
@@ -35095,7 +35110,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q164">
         <v>3.97</v>
@@ -36331,7 +36346,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36615,7 +36630,7 @@
         <v>1.33</v>
       </c>
       <c r="AP171">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ171">
         <v>1.43</v>
@@ -36949,7 +36964,7 @@
         <v>95</v>
       </c>
       <c r="P173" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q173">
         <v>2.5</v>
@@ -37567,7 +37582,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37648,7 +37663,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ176">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR176">
         <v>1.79</v>
@@ -37773,7 +37788,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -37979,7 +37994,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q178">
         <v>2.4</v>
@@ -38185,7 +38200,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q179">
         <v>3.98</v>
@@ -38675,7 +38690,7 @@
         <v>1.3</v>
       </c>
       <c r="AP181">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ181">
         <v>1.21</v>
@@ -38803,7 +38818,7 @@
         <v>179</v>
       </c>
       <c r="P182" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -39090,7 +39105,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ183">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR183">
         <v>1.74</v>
@@ -39293,7 +39308,7 @@
         <v>1.11</v>
       </c>
       <c r="AP184">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ184">
         <v>1.14</v>
@@ -39421,7 +39436,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q185">
         <v>1.8</v>
@@ -39627,7 +39642,7 @@
         <v>88</v>
       </c>
       <c r="P186" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q186">
         <v>3.7</v>
@@ -39708,7 +39723,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ186">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR186">
         <v>1.2</v>
@@ -39833,7 +39848,7 @@
         <v>214</v>
       </c>
       <c r="P187" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q187">
         <v>2.65</v>
@@ -40245,7 +40260,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q189">
         <v>1.78</v>
@@ -40323,7 +40338,7 @@
         <v>0</v>
       </c>
       <c r="AP189">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ189">
         <v>0.29</v>
@@ -41069,7 +41084,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41481,7 +41496,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -42099,7 +42114,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42383,10 +42398,10 @@
         <v>1</v>
       </c>
       <c r="AP199">
+        <v>0.87</v>
+      </c>
+      <c r="AQ199">
         <v>0.93</v>
-      </c>
-      <c r="AQ199">
-        <v>0.79</v>
       </c>
       <c r="AR199">
         <v>1.48</v>
@@ -42592,7 +42607,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ200">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR200">
         <v>1.5</v>
@@ -42798,7 +42813,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ201">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR201">
         <v>1.68</v>
@@ -43129,7 +43144,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q203">
         <v>3.2</v>
@@ -43413,7 +43428,7 @@
         <v>0.73</v>
       </c>
       <c r="AP204">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ204">
         <v>0.57</v>
@@ -43953,7 +43968,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44159,7 +44174,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q208">
         <v>2.55</v>
@@ -44365,7 +44380,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44983,7 +44998,7 @@
         <v>231</v>
       </c>
       <c r="P212" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q212">
         <v>2.7</v>
@@ -45189,7 +45204,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -45267,7 +45282,7 @@
         <v>1</v>
       </c>
       <c r="AP213">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ213">
         <v>1.07</v>
@@ -46013,7 +46028,7 @@
         <v>88</v>
       </c>
       <c r="P217" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q217">
         <v>4.2</v>
@@ -46297,7 +46312,7 @@
         <v>0.92</v>
       </c>
       <c r="AP218">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ218">
         <v>0.86</v>
@@ -46631,7 +46646,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q220">
         <v>2.59</v>
@@ -46712,7 +46727,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ220">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR220">
         <v>1.8</v>
@@ -46837,7 +46852,7 @@
         <v>88</v>
       </c>
       <c r="P221" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -46918,7 +46933,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ221">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR221">
         <v>1.61</v>
@@ -47043,7 +47058,7 @@
         <v>213</v>
       </c>
       <c r="P222" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q222">
         <v>3.46</v>
@@ -47121,7 +47136,7 @@
         <v>1</v>
       </c>
       <c r="AP222">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ222">
         <v>1.4</v>
@@ -47455,7 +47470,7 @@
         <v>235</v>
       </c>
       <c r="P224" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q224">
         <v>3.6</v>
@@ -47867,7 +47882,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q226">
         <v>2.35</v>
@@ -47948,7 +47963,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ226">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR226">
         <v>1.99</v>
@@ -48073,7 +48088,7 @@
         <v>238</v>
       </c>
       <c r="P227" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q227">
         <v>1.85</v>
@@ -48485,7 +48500,7 @@
         <v>240</v>
       </c>
       <c r="P229" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q229">
         <v>2.8</v>
@@ -48769,7 +48784,7 @@
         <v>1.08</v>
       </c>
       <c r="AP230">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ230">
         <v>1.14</v>
@@ -49515,7 +49530,7 @@
         <v>244</v>
       </c>
       <c r="P234" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q234">
         <v>4.33</v>
@@ -49721,7 +49736,7 @@
         <v>112</v>
       </c>
       <c r="P235" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -49927,7 +49942,7 @@
         <v>245</v>
       </c>
       <c r="P236" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q236">
         <v>2</v>
@@ -50623,7 +50638,7 @@
         <v>0.46</v>
       </c>
       <c r="AP239">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ239">
         <v>0.5</v>
@@ -51038,7 +51053,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ241">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR241">
         <v>1.68</v>
@@ -51450,7 +51465,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ243">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR243">
         <v>1.9</v>
@@ -51575,7 +51590,7 @@
         <v>251</v>
       </c>
       <c r="P244" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q244">
         <v>2.88</v>
@@ -51653,7 +51668,7 @@
         <v>1.15</v>
       </c>
       <c r="AP244">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ244">
         <v>1.4</v>
@@ -52065,7 +52080,7 @@
         <v>0.54</v>
       </c>
       <c r="AP246">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ246">
         <v>0.5</v>
@@ -52274,7 +52289,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ247">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR247">
         <v>1.43</v>
@@ -52811,7 +52826,7 @@
         <v>255</v>
       </c>
       <c r="P250" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q250">
         <v>3.9</v>
@@ -53017,7 +53032,7 @@
         <v>256</v>
       </c>
       <c r="P251" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q251">
         <v>2.3</v>
@@ -53998,6 +54013,624 @@
       </c>
       <c r="BP255">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="256" spans="1:68">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>6469318</v>
+      </c>
+      <c r="C256" t="s">
+        <v>68</v>
+      </c>
+      <c r="D256" t="s">
+        <v>69</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45402.41666666666</v>
+      </c>
+      <c r="F256">
+        <v>29</v>
+      </c>
+      <c r="G256" t="s">
+        <v>83</v>
+      </c>
+      <c r="H256" t="s">
+        <v>74</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>2</v>
+      </c>
+      <c r="K256">
+        <v>2</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+      <c r="M256">
+        <v>2</v>
+      </c>
+      <c r="N256">
+        <v>2</v>
+      </c>
+      <c r="O256" t="s">
+        <v>88</v>
+      </c>
+      <c r="P256" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q256">
+        <v>2.46</v>
+      </c>
+      <c r="R256">
+        <v>2.23</v>
+      </c>
+      <c r="S256">
+        <v>4.97</v>
+      </c>
+      <c r="T256">
+        <v>1.41</v>
+      </c>
+      <c r="U256">
+        <v>2.89</v>
+      </c>
+      <c r="V256">
+        <v>3.08</v>
+      </c>
+      <c r="W256">
+        <v>1.37</v>
+      </c>
+      <c r="X256">
+        <v>6.75</v>
+      </c>
+      <c r="Y256">
+        <v>1.07</v>
+      </c>
+      <c r="Z256">
+        <v>1.78</v>
+      </c>
+      <c r="AA256">
+        <v>3.45</v>
+      </c>
+      <c r="AB256">
+        <v>4.6</v>
+      </c>
+      <c r="AC256">
+        <v>1.07</v>
+      </c>
+      <c r="AD256">
+        <v>10.25</v>
+      </c>
+      <c r="AE256">
+        <v>1.35</v>
+      </c>
+      <c r="AF256">
+        <v>3.23</v>
+      </c>
+      <c r="AG256">
+        <v>1.96</v>
+      </c>
+      <c r="AH256">
+        <v>1.75</v>
+      </c>
+      <c r="AI256">
+        <v>1.9</v>
+      </c>
+      <c r="AJ256">
+        <v>1.82</v>
+      </c>
+      <c r="AK256">
+        <v>1.2</v>
+      </c>
+      <c r="AL256">
+        <v>1.25</v>
+      </c>
+      <c r="AM256">
+        <v>1.93</v>
+      </c>
+      <c r="AN256">
+        <v>1.64</v>
+      </c>
+      <c r="AO256">
+        <v>0.79</v>
+      </c>
+      <c r="AP256">
+        <v>1.53</v>
+      </c>
+      <c r="AQ256">
+        <v>0.93</v>
+      </c>
+      <c r="AR256">
+        <v>1.84</v>
+      </c>
+      <c r="AS256">
+        <v>1.43</v>
+      </c>
+      <c r="AT256">
+        <v>3.27</v>
+      </c>
+      <c r="AU256">
+        <v>5</v>
+      </c>
+      <c r="AV256">
+        <v>4</v>
+      </c>
+      <c r="AW256">
+        <v>8</v>
+      </c>
+      <c r="AX256">
+        <v>3</v>
+      </c>
+      <c r="AY256">
+        <v>13</v>
+      </c>
+      <c r="AZ256">
+        <v>7</v>
+      </c>
+      <c r="BA256">
+        <v>4</v>
+      </c>
+      <c r="BB256">
+        <v>4</v>
+      </c>
+      <c r="BC256">
+        <v>8</v>
+      </c>
+      <c r="BD256">
+        <v>1.58</v>
+      </c>
+      <c r="BE256">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF256">
+        <v>2.74</v>
+      </c>
+      <c r="BG256">
+        <v>1.17</v>
+      </c>
+      <c r="BH256">
+        <v>4.2</v>
+      </c>
+      <c r="BI256">
+        <v>1.34</v>
+      </c>
+      <c r="BJ256">
+        <v>2.88</v>
+      </c>
+      <c r="BK256">
+        <v>1.61</v>
+      </c>
+      <c r="BL256">
+        <v>2.12</v>
+      </c>
+      <c r="BM256">
+        <v>2.03</v>
+      </c>
+      <c r="BN256">
+        <v>1.7</v>
+      </c>
+      <c r="BO256">
+        <v>2.6</v>
+      </c>
+      <c r="BP256">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="257" spans="1:68">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>6469320</v>
+      </c>
+      <c r="C257" t="s">
+        <v>68</v>
+      </c>
+      <c r="D257" t="s">
+        <v>69</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45402.52083333334</v>
+      </c>
+      <c r="F257">
+        <v>29</v>
+      </c>
+      <c r="G257" t="s">
+        <v>79</v>
+      </c>
+      <c r="H257" t="s">
+        <v>77</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>1</v>
+      </c>
+      <c r="K257">
+        <v>1</v>
+      </c>
+      <c r="L257">
+        <v>2</v>
+      </c>
+      <c r="M257">
+        <v>3</v>
+      </c>
+      <c r="N257">
+        <v>5</v>
+      </c>
+      <c r="O257" t="s">
+        <v>260</v>
+      </c>
+      <c r="P257" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q257">
+        <v>3.05</v>
+      </c>
+      <c r="R257">
+        <v>2.05</v>
+      </c>
+      <c r="S257">
+        <v>3.3</v>
+      </c>
+      <c r="T257">
+        <v>1.4</v>
+      </c>
+      <c r="U257">
+        <v>2.7</v>
+      </c>
+      <c r="V257">
+        <v>2.85</v>
+      </c>
+      <c r="W257">
+        <v>1.36</v>
+      </c>
+      <c r="X257">
+        <v>7</v>
+      </c>
+      <c r="Y257">
+        <v>1.07</v>
+      </c>
+      <c r="Z257">
+        <v>2.5</v>
+      </c>
+      <c r="AA257">
+        <v>3.25</v>
+      </c>
+      <c r="AB257">
+        <v>2.75</v>
+      </c>
+      <c r="AC257">
+        <v>1.06</v>
+      </c>
+      <c r="AD257">
+        <v>10.75</v>
+      </c>
+      <c r="AE257">
+        <v>1.32</v>
+      </c>
+      <c r="AF257">
+        <v>3.43</v>
+      </c>
+      <c r="AG257">
+        <v>1.94</v>
+      </c>
+      <c r="AH257">
+        <v>1.83</v>
+      </c>
+      <c r="AI257">
+        <v>1.75</v>
+      </c>
+      <c r="AJ257">
+        <v>2</v>
+      </c>
+      <c r="AK257">
+        <v>1.45</v>
+      </c>
+      <c r="AL257">
+        <v>1.35</v>
+      </c>
+      <c r="AM257">
+        <v>1.52</v>
+      </c>
+      <c r="AN257">
+        <v>0.93</v>
+      </c>
+      <c r="AO257">
+        <v>0.86</v>
+      </c>
+      <c r="AP257">
+        <v>0.87</v>
+      </c>
+      <c r="AQ257">
+        <v>1</v>
+      </c>
+      <c r="AR257">
+        <v>1.6</v>
+      </c>
+      <c r="AS257">
+        <v>1.25</v>
+      </c>
+      <c r="AT257">
+        <v>2.85</v>
+      </c>
+      <c r="AU257">
+        <v>8</v>
+      </c>
+      <c r="AV257">
+        <v>7</v>
+      </c>
+      <c r="AW257">
+        <v>8</v>
+      </c>
+      <c r="AX257">
+        <v>4</v>
+      </c>
+      <c r="AY257">
+        <v>16</v>
+      </c>
+      <c r="AZ257">
+        <v>11</v>
+      </c>
+      <c r="BA257">
+        <v>2</v>
+      </c>
+      <c r="BB257">
+        <v>5</v>
+      </c>
+      <c r="BC257">
+        <v>7</v>
+      </c>
+      <c r="BD257">
+        <v>1.9</v>
+      </c>
+      <c r="BE257">
+        <v>9.1</v>
+      </c>
+      <c r="BF257">
+        <v>2.13</v>
+      </c>
+      <c r="BG257">
+        <v>1.2</v>
+      </c>
+      <c r="BH257">
+        <v>4</v>
+      </c>
+      <c r="BI257">
+        <v>1.28</v>
+      </c>
+      <c r="BJ257">
+        <v>3.18</v>
+      </c>
+      <c r="BK257">
+        <v>1.52</v>
+      </c>
+      <c r="BL257">
+        <v>2.3</v>
+      </c>
+      <c r="BM257">
+        <v>1.88</v>
+      </c>
+      <c r="BN257">
+        <v>1.82</v>
+      </c>
+      <c r="BO257">
+        <v>2.4</v>
+      </c>
+      <c r="BP257">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="258" spans="1:68">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>6469315</v>
+      </c>
+      <c r="C258" t="s">
+        <v>68</v>
+      </c>
+      <c r="D258" t="s">
+        <v>69</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45402.625</v>
+      </c>
+      <c r="F258">
+        <v>29</v>
+      </c>
+      <c r="G258" t="s">
+        <v>76</v>
+      </c>
+      <c r="H258" t="s">
+        <v>80</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>1</v>
+      </c>
+      <c r="K258">
+        <v>1</v>
+      </c>
+      <c r="L258">
+        <v>1</v>
+      </c>
+      <c r="M258">
+        <v>2</v>
+      </c>
+      <c r="N258">
+        <v>3</v>
+      </c>
+      <c r="O258" t="s">
+        <v>261</v>
+      </c>
+      <c r="P258" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q258">
+        <v>3.56</v>
+      </c>
+      <c r="R258">
+        <v>2.32</v>
+      </c>
+      <c r="S258">
+        <v>2.91</v>
+      </c>
+      <c r="T258">
+        <v>1.34</v>
+      </c>
+      <c r="U258">
+        <v>3.28</v>
+      </c>
+      <c r="V258">
+        <v>2.68</v>
+      </c>
+      <c r="W258">
+        <v>1.47</v>
+      </c>
+      <c r="X258">
+        <v>5.75</v>
+      </c>
+      <c r="Y258">
+        <v>1.1</v>
+      </c>
+      <c r="Z258">
+        <v>2.82</v>
+      </c>
+      <c r="AA258">
+        <v>3.64</v>
+      </c>
+      <c r="AB258">
+        <v>2.27</v>
+      </c>
+      <c r="AC258">
+        <v>1.05</v>
+      </c>
+      <c r="AD258">
+        <v>13</v>
+      </c>
+      <c r="AE258">
+        <v>1.26</v>
+      </c>
+      <c r="AF258">
+        <v>3.95</v>
+      </c>
+      <c r="AG258">
+        <v>1.75</v>
+      </c>
+      <c r="AH258">
+        <v>1.95</v>
+      </c>
+      <c r="AI258">
+        <v>1.62</v>
+      </c>
+      <c r="AJ258">
+        <v>2.15</v>
+      </c>
+      <c r="AK258">
+        <v>1.55</v>
+      </c>
+      <c r="AL258">
+        <v>1.32</v>
+      </c>
+      <c r="AM258">
+        <v>1.42</v>
+      </c>
+      <c r="AN258">
+        <v>1.43</v>
+      </c>
+      <c r="AO258">
+        <v>1.43</v>
+      </c>
+      <c r="AP258">
+        <v>1.33</v>
+      </c>
+      <c r="AQ258">
+        <v>1.53</v>
+      </c>
+      <c r="AR258">
+        <v>1.74</v>
+      </c>
+      <c r="AS258">
+        <v>1.4</v>
+      </c>
+      <c r="AT258">
+        <v>3.14</v>
+      </c>
+      <c r="AU258">
+        <v>5</v>
+      </c>
+      <c r="AV258">
+        <v>8</v>
+      </c>
+      <c r="AW258">
+        <v>12</v>
+      </c>
+      <c r="AX258">
+        <v>4</v>
+      </c>
+      <c r="AY258">
+        <v>17</v>
+      </c>
+      <c r="AZ258">
+        <v>12</v>
+      </c>
+      <c r="BA258">
+        <v>9</v>
+      </c>
+      <c r="BB258">
+        <v>4</v>
+      </c>
+      <c r="BC258">
+        <v>13</v>
+      </c>
+      <c r="BD258">
+        <v>1.87</v>
+      </c>
+      <c r="BE258">
+        <v>8.9</v>
+      </c>
+      <c r="BF258">
+        <v>2.18</v>
+      </c>
+      <c r="BG258">
+        <v>1.19</v>
+      </c>
+      <c r="BH258">
+        <v>3.9</v>
+      </c>
+      <c r="BI258">
+        <v>1.34</v>
+      </c>
+      <c r="BJ258">
+        <v>2.88</v>
+      </c>
+      <c r="BK258">
+        <v>1.6</v>
+      </c>
+      <c r="BL258">
+        <v>2.14</v>
+      </c>
+      <c r="BM258">
+        <v>2.02</v>
+      </c>
+      <c r="BN258">
+        <v>1.71</v>
+      </c>
+      <c r="BO258">
+        <v>2.6</v>
+      </c>
+      <c r="BP258">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="370">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -802,6 +802,9 @@
     <t>['90']</t>
   </si>
   <si>
+    <t>['60', '86']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -1118,6 +1121,9 @@
   </si>
   <si>
     <t>['15', '74']</t>
+  </si>
+  <si>
+    <t>['36', '56', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP258"/>
+  <dimension ref="A1:BP261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1738,7 +1744,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q2">
         <v>4.33</v>
@@ -2022,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ3">
         <v>0.29</v>
@@ -2150,7 +2156,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2562,7 +2568,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2643,7 +2649,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2768,7 +2774,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -3180,7 +3186,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3261,7 +3267,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3386,7 +3392,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q10">
         <v>3.2</v>
@@ -3467,7 +3473,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ10">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4004,7 +4010,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q13">
         <v>2.53</v>
@@ -4085,7 +4091,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ13">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4210,7 +4216,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -5034,7 +5040,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5318,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ19">
         <v>0.57</v>
@@ -5446,7 +5452,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q20">
         <v>1.82</v>
@@ -6064,7 +6070,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6145,7 +6151,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR23">
         <v>1.73</v>
@@ -6348,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ24">
         <v>0.5</v>
@@ -6760,7 +6766,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ26">
         <v>1.07</v>
@@ -6888,7 +6894,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q27">
         <v>4.2</v>
@@ -7175,7 +7181,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ28">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR28">
         <v>1.13</v>
@@ -7300,7 +7306,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q29">
         <v>2.95</v>
@@ -7712,7 +7718,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q31">
         <v>2.3</v>
@@ -7918,7 +7924,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8124,7 +8130,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q33">
         <v>2.6</v>
@@ -8411,7 +8417,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ34">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR34">
         <v>1.88</v>
@@ -8536,7 +8542,7 @@
         <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8742,7 +8748,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -9438,7 +9444,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ39">
         <v>1.71</v>
@@ -9647,7 +9653,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ40">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR40">
         <v>2.09</v>
@@ -9850,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ41">
         <v>0.57</v>
@@ -10056,7 +10062,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ42">
         <v>0.93</v>
@@ -10390,7 +10396,7 @@
         <v>88</v>
       </c>
       <c r="P44" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q44">
         <v>2.7</v>
@@ -10471,7 +10477,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ44">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR44">
         <v>1.54</v>
@@ -10802,7 +10808,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -11420,7 +11426,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11626,7 +11632,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q50">
         <v>2.15</v>
@@ -11707,7 +11713,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ50">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR50">
         <v>1.89</v>
@@ -11832,7 +11838,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11910,7 +11916,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ51">
         <v>1.21</v>
@@ -12528,7 +12534,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ54">
         <v>0.57</v>
@@ -13352,7 +13358,7 @@
         <v>0.33</v>
       </c>
       <c r="AP58">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13561,7 +13567,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ59">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR59">
         <v>1.65</v>
@@ -13686,7 +13692,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13767,7 +13773,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ60">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR60">
         <v>1.22</v>
@@ -14098,7 +14104,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14716,7 +14722,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -15128,7 +15134,7 @@
         <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q67">
         <v>4.75</v>
@@ -15209,7 +15215,7 @@
         <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR67">
         <v>1.03</v>
@@ -15334,7 +15340,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15540,7 +15546,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15746,7 +15752,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15824,7 +15830,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ70">
         <v>1.53</v>
@@ -16033,7 +16039,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ71">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR71">
         <v>1.71</v>
@@ -16364,7 +16370,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16442,7 +16448,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ73">
         <v>1.71</v>
@@ -16570,7 +16576,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q74">
         <v>1.75</v>
@@ -16982,7 +16988,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17188,7 +17194,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q77">
         <v>2.04</v>
@@ -17266,7 +17272,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ77">
         <v>1.4</v>
@@ -17394,7 +17400,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q78">
         <v>3.05</v>
@@ -17806,7 +17812,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -18012,7 +18018,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18218,7 +18224,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q82">
         <v>3.3</v>
@@ -18296,7 +18302,7 @@
         <v>1.25</v>
       </c>
       <c r="AP82">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ82">
         <v>1.14</v>
@@ -18424,7 +18430,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18711,7 +18717,7 @@
         <v>1</v>
       </c>
       <c r="AQ84">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR84">
         <v>0.98</v>
@@ -19123,7 +19129,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ86">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR86">
         <v>1.8</v>
@@ -19454,7 +19460,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19947,7 +19953,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ90">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR90">
         <v>1.75</v>
@@ -20690,7 +20696,7 @@
         <v>88</v>
       </c>
       <c r="P94" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -21102,7 +21108,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21180,7 +21186,7 @@
         <v>1</v>
       </c>
       <c r="AP96">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ96">
         <v>1.53</v>
@@ -21308,7 +21314,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21386,7 +21392,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -21926,7 +21932,7 @@
         <v>105</v>
       </c>
       <c r="P100" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22338,7 +22344,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -23162,7 +23168,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q106">
         <v>1.7</v>
@@ -23368,7 +23374,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23449,7 +23455,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ107">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR107">
         <v>1.68</v>
@@ -23574,7 +23580,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q108">
         <v>3.2</v>
@@ -23652,7 +23658,7 @@
         <v>0.83</v>
       </c>
       <c r="AP108">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ108">
         <v>1.4</v>
@@ -23780,7 +23786,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23986,7 +23992,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -24270,10 +24276,10 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ111">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR111">
         <v>1.68</v>
@@ -24398,7 +24404,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q112">
         <v>3.3</v>
@@ -24479,7 +24485,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ112">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR112">
         <v>1.57</v>
@@ -24604,7 +24610,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q113">
         <v>2.9</v>
@@ -24810,7 +24816,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q114">
         <v>1.85</v>
@@ -24888,7 +24894,7 @@
         <v>0.2</v>
       </c>
       <c r="AP114">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ114">
         <v>0.86</v>
@@ -25634,7 +25640,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q118">
         <v>4.33</v>
@@ -27076,7 +27082,7 @@
         <v>88</v>
       </c>
       <c r="P125" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q125">
         <v>2.5</v>
@@ -27157,7 +27163,7 @@
         <v>1</v>
       </c>
       <c r="AQ125">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR125">
         <v>1.08</v>
@@ -27282,7 +27288,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27360,10 +27366,10 @@
         <v>2</v>
       </c>
       <c r="AP126">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ126">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR126">
         <v>1.73</v>
@@ -27488,7 +27494,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27566,7 +27572,7 @@
         <v>0.86</v>
       </c>
       <c r="AP127">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ127">
         <v>0.93</v>
@@ -27694,7 +27700,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27900,7 +27906,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q129">
         <v>3.3</v>
@@ -28596,10 +28602,10 @@
         <v>1.33</v>
       </c>
       <c r="AP132">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ132">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR132">
         <v>2.15</v>
@@ -28930,7 +28936,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q134">
         <v>2.63</v>
@@ -29136,7 +29142,7 @@
         <v>88</v>
       </c>
       <c r="P135" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29214,7 +29220,7 @@
         <v>0.86</v>
       </c>
       <c r="AP135">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ135">
         <v>1.07</v>
@@ -29548,7 +29554,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q137">
         <v>2.1</v>
@@ -29754,7 +29760,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29960,7 +29966,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q139">
         <v>2.1</v>
@@ -30038,7 +30044,7 @@
         <v>1.57</v>
       </c>
       <c r="AP139">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ139">
         <v>1.21</v>
@@ -30578,7 +30584,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q142">
         <v>2.05</v>
@@ -30784,7 +30790,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30865,7 +30871,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ143">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR143">
         <v>1.65</v>
@@ -30990,7 +30996,7 @@
         <v>158</v>
       </c>
       <c r="P144" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q144">
         <v>3.57</v>
@@ -31402,7 +31408,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31689,7 +31695,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ147">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR147">
         <v>1.68</v>
@@ -31814,7 +31820,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q148">
         <v>2.3</v>
@@ -31892,7 +31898,7 @@
         <v>0.38</v>
       </c>
       <c r="AP148">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ148">
         <v>0.5</v>
@@ -32020,7 +32026,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32432,7 +32438,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q151">
         <v>3.3</v>
@@ -32638,7 +32644,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q152">
         <v>2.05</v>
@@ -32844,7 +32850,7 @@
         <v>119</v>
       </c>
       <c r="P153" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q153">
         <v>2.65</v>
@@ -33050,7 +33056,7 @@
         <v>195</v>
       </c>
       <c r="P154" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q154">
         <v>2.35</v>
@@ -33128,7 +33134,7 @@
         <v>0.88</v>
       </c>
       <c r="AP154">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ154">
         <v>0.86</v>
@@ -33746,7 +33752,7 @@
         <v>1.57</v>
       </c>
       <c r="AP157">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ157">
         <v>1.43</v>
@@ -33874,7 +33880,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -34492,7 +34498,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q161">
         <v>2.91</v>
@@ -34573,7 +34579,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ161">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR161">
         <v>1.76</v>
@@ -34698,7 +34704,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q162">
         <v>4.28</v>
@@ -34904,7 +34910,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q163">
         <v>3.75</v>
@@ -35110,7 +35116,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q164">
         <v>3.97</v>
@@ -35191,7 +35197,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ164">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR164">
         <v>1.63</v>
@@ -35394,7 +35400,7 @@
         <v>0.44</v>
       </c>
       <c r="AP165">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ165">
         <v>0.5</v>
@@ -35806,7 +35812,7 @@
         <v>1.25</v>
       </c>
       <c r="AP167">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ167">
         <v>1.14</v>
@@ -36218,7 +36224,7 @@
         <v>1.5</v>
       </c>
       <c r="AP169">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ169">
         <v>1.43</v>
@@ -36346,7 +36352,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36427,7 +36433,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ170">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR170">
         <v>1.43</v>
@@ -36836,7 +36842,7 @@
         <v>1.44</v>
       </c>
       <c r="AP172">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ172">
         <v>1.2</v>
@@ -36964,7 +36970,7 @@
         <v>95</v>
       </c>
       <c r="P173" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q173">
         <v>2.5</v>
@@ -37582,7 +37588,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37788,7 +37794,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -37994,7 +38000,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q178">
         <v>2.4</v>
@@ -38200,7 +38206,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q179">
         <v>3.98</v>
@@ -38818,7 +38824,7 @@
         <v>179</v>
       </c>
       <c r="P182" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -38899,7 +38905,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ182">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR182">
         <v>1.63</v>
@@ -39436,7 +39442,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q185">
         <v>1.8</v>
@@ -39514,10 +39520,10 @@
         <v>0.44</v>
       </c>
       <c r="AP185">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ185">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR185">
         <v>1.96</v>
@@ -39642,7 +39648,7 @@
         <v>88</v>
       </c>
       <c r="P186" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q186">
         <v>3.7</v>
@@ -39720,7 +39726,7 @@
         <v>0.7</v>
       </c>
       <c r="AP186">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ186">
         <v>1</v>
@@ -39848,7 +39854,7 @@
         <v>214</v>
       </c>
       <c r="P187" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q187">
         <v>2.65</v>
@@ -40260,7 +40266,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q189">
         <v>1.78</v>
@@ -40753,7 +40759,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ191">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR191">
         <v>1.69</v>
@@ -41084,7 +41090,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41496,7 +41502,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -42114,7 +42120,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42192,7 +42198,7 @@
         <v>1.27</v>
       </c>
       <c r="AP198">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ198">
         <v>1.21</v>
@@ -43016,7 +43022,7 @@
         <v>2</v>
       </c>
       <c r="AP202">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ202">
         <v>1.71</v>
@@ -43144,7 +43150,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q203">
         <v>3.2</v>
@@ -43222,10 +43228,10 @@
         <v>0.5</v>
       </c>
       <c r="AP203">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ203">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR203">
         <v>1.18</v>
@@ -43637,7 +43643,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ205">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR205">
         <v>1.71</v>
@@ -43968,7 +43974,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44174,7 +44180,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q208">
         <v>2.55</v>
@@ -44255,7 +44261,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ208">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR208">
         <v>1.69</v>
@@ -44380,7 +44386,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44873,7 +44879,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ211">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR211">
         <v>1.51</v>
@@ -44998,7 +45004,7 @@
         <v>231</v>
       </c>
       <c r="P212" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q212">
         <v>2.7</v>
@@ -45204,7 +45210,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -45903,7 +45909,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ216">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR216">
         <v>1.56</v>
@@ -46028,7 +46034,7 @@
         <v>88</v>
       </c>
       <c r="P217" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q217">
         <v>4.2</v>
@@ -46646,7 +46652,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q220">
         <v>2.59</v>
@@ -46724,7 +46730,7 @@
         <v>0.83</v>
       </c>
       <c r="AP220">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ220">
         <v>1</v>
@@ -46852,7 +46858,7 @@
         <v>88</v>
       </c>
       <c r="P221" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -47058,7 +47064,7 @@
         <v>213</v>
       </c>
       <c r="P222" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q222">
         <v>3.46</v>
@@ -47345,7 +47351,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ223">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR223">
         <v>1.68</v>
@@ -47470,7 +47476,7 @@
         <v>235</v>
       </c>
       <c r="P224" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q224">
         <v>3.6</v>
@@ -47754,7 +47760,7 @@
         <v>1.08</v>
       </c>
       <c r="AP225">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ225">
         <v>1</v>
@@ -47882,7 +47888,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q226">
         <v>2.35</v>
@@ -47960,7 +47966,7 @@
         <v>0.92</v>
       </c>
       <c r="AP226">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ226">
         <v>0.93</v>
@@ -48088,7 +48094,7 @@
         <v>238</v>
       </c>
       <c r="P227" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q227">
         <v>1.85</v>
@@ -48500,7 +48506,7 @@
         <v>240</v>
       </c>
       <c r="P229" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q229">
         <v>2.8</v>
@@ -48581,7 +48587,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ229">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR229">
         <v>1.47</v>
@@ -49199,7 +49205,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ232">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR232">
         <v>1.45</v>
@@ -49530,7 +49536,7 @@
         <v>244</v>
       </c>
       <c r="P234" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q234">
         <v>4.33</v>
@@ -49736,7 +49742,7 @@
         <v>112</v>
       </c>
       <c r="P235" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -49942,7 +49948,7 @@
         <v>245</v>
       </c>
       <c r="P236" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q236">
         <v>2</v>
@@ -50020,7 +50026,7 @@
         <v>0.23</v>
       </c>
       <c r="AP236">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ236">
         <v>0.29</v>
@@ -50641,7 +50647,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ239">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR239">
         <v>1.59</v>
@@ -51462,7 +51468,7 @@
         <v>1.46</v>
       </c>
       <c r="AP243">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ243">
         <v>1.53</v>
@@ -51590,7 +51596,7 @@
         <v>251</v>
       </c>
       <c r="P244" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q244">
         <v>2.88</v>
@@ -52495,7 +52501,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ248">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR248">
         <v>1.28</v>
@@ -52826,7 +52832,7 @@
         <v>255</v>
       </c>
       <c r="P250" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q250">
         <v>3.9</v>
@@ -52904,7 +52910,7 @@
         <v>1.38</v>
       </c>
       <c r="AP250">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ250">
         <v>1.2</v>
@@ -53032,7 +53038,7 @@
         <v>256</v>
       </c>
       <c r="P251" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q251">
         <v>2.3</v>
@@ -53319,7 +53325,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ252">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR252">
         <v>1.49</v>
@@ -54062,7 +54068,7 @@
         <v>88</v>
       </c>
       <c r="P256" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q256">
         <v>2.46</v>
@@ -54268,7 +54274,7 @@
         <v>260</v>
       </c>
       <c r="P257" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q257">
         <v>3.05</v>
@@ -54474,7 +54480,7 @@
         <v>261</v>
       </c>
       <c r="P258" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q258">
         <v>3.56</v>
@@ -54631,6 +54637,624 @@
       </c>
       <c r="BP258">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="259" spans="1:68">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>6469314</v>
+      </c>
+      <c r="C259" t="s">
+        <v>68</v>
+      </c>
+      <c r="D259" t="s">
+        <v>69</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45403.3125</v>
+      </c>
+      <c r="F259">
+        <v>29</v>
+      </c>
+      <c r="G259" t="s">
+        <v>87</v>
+      </c>
+      <c r="H259" t="s">
+        <v>86</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>1</v>
+      </c>
+      <c r="K259">
+        <v>1</v>
+      </c>
+      <c r="L259">
+        <v>0</v>
+      </c>
+      <c r="M259">
+        <v>1</v>
+      </c>
+      <c r="N259">
+        <v>1</v>
+      </c>
+      <c r="O259" t="s">
+        <v>88</v>
+      </c>
+      <c r="P259" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q259">
+        <v>2.18</v>
+      </c>
+      <c r="R259">
+        <v>2.18</v>
+      </c>
+      <c r="S259">
+        <v>5.35</v>
+      </c>
+      <c r="T259">
+        <v>1.39</v>
+      </c>
+      <c r="U259">
+        <v>2.86</v>
+      </c>
+      <c r="V259">
+        <v>2.82</v>
+      </c>
+      <c r="W259">
+        <v>1.4</v>
+      </c>
+      <c r="X259">
+        <v>7.1</v>
+      </c>
+      <c r="Y259">
+        <v>1.08</v>
+      </c>
+      <c r="Z259">
+        <v>1.66</v>
+      </c>
+      <c r="AA259">
+        <v>3.8</v>
+      </c>
+      <c r="AB259">
+        <v>4.75</v>
+      </c>
+      <c r="AC259">
+        <v>1.02</v>
+      </c>
+      <c r="AD259">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE259">
+        <v>1.27</v>
+      </c>
+      <c r="AF259">
+        <v>3.28</v>
+      </c>
+      <c r="AG259">
+        <v>1.85</v>
+      </c>
+      <c r="AH259">
+        <v>1.83</v>
+      </c>
+      <c r="AI259">
+        <v>1.87</v>
+      </c>
+      <c r="AJ259">
+        <v>1.83</v>
+      </c>
+      <c r="AK259">
+        <v>1.15</v>
+      </c>
+      <c r="AL259">
+        <v>1.24</v>
+      </c>
+      <c r="AM259">
+        <v>2.17</v>
+      </c>
+      <c r="AN259">
+        <v>1.14</v>
+      </c>
+      <c r="AO259">
+        <v>0.5</v>
+      </c>
+      <c r="AP259">
+        <v>1.07</v>
+      </c>
+      <c r="AQ259">
+        <v>0.67</v>
+      </c>
+      <c r="AR259">
+        <v>1.78</v>
+      </c>
+      <c r="AS259">
+        <v>1.21</v>
+      </c>
+      <c r="AT259">
+        <v>2.99</v>
+      </c>
+      <c r="AU259">
+        <v>3</v>
+      </c>
+      <c r="AV259">
+        <v>4</v>
+      </c>
+      <c r="AW259">
+        <v>7</v>
+      </c>
+      <c r="AX259">
+        <v>2</v>
+      </c>
+      <c r="AY259">
+        <v>10</v>
+      </c>
+      <c r="AZ259">
+        <v>6</v>
+      </c>
+      <c r="BA259">
+        <v>9</v>
+      </c>
+      <c r="BB259">
+        <v>3</v>
+      </c>
+      <c r="BC259">
+        <v>12</v>
+      </c>
+      <c r="BD259">
+        <v>1.34</v>
+      </c>
+      <c r="BE259">
+        <v>9.5</v>
+      </c>
+      <c r="BF259">
+        <v>3.86</v>
+      </c>
+      <c r="BG259">
+        <v>1.2